--- a/vignettes/PathwayEnrichment.xlsx
+++ b/vignettes/PathwayEnrichment.xlsx
@@ -3905,1348 +3905,1348 @@
     <t>15/10513</t>
   </si>
   <si>
-    <t>SRSF2/SNRPB/PCBP2/HNRNPA1/RBMX/SNRPD1/SNRPN/SRSF7/POLR2L/LSM4/LSM3/HNRNPA2B1/SLBP/LSM8/DDX39A/SNRPA1/DNAJC8/SNRPG/NXT1/SYF2/PCBP1/HSPA8/SRSF5/HNRNPC/GTF2F1/PAPOLA/NCBP2/SNRNP25/HNRNPK/MAGOHB/POLR2F/FUS/HNRNPM/POLR2J/RBM8A/SF3B6/SF3B5/HNRNPUL1/GTF2F2/PUF60/PPIL1/RBM17/SF3B4/TRA2B/WBP11/PABPN1/HNRNPD/SRSF4/POLR2K/HNRNPR/CTNNBL1/LSM5/PQBP1/SRSF3/CWC27/EIF4E/PPIL3/HNRNPU/SNRPA/ELAVL1/TPR/PRPF19/MAGOH/POLR2A/SNW1/PTBP1/TXNL4A/SNRPD2/PPWD1/NUP62/BCAS2/BUD31/HNRNPF/PRPF38A/RNPS1/YBX1/CPSF2/PRPF40A/CSTF3/NUP37/CPSF4/NUP35/SNRPC/SNRNP70/SRRT/CASC3/PRPF31/SNRNP200/DDX23/CHERP/GPKOW/SNRPB2/HNRNPA3/DDX5/SNRNP27/WBP4/SF1/SF3A2/PRPF6/LSM2/SRRM2/NUP43/POLR2D/PHF5A/SNU13/SRSF11/DHX15/POLR2I/PRCC/SNRPD3/PPIH/THOC7/DHX9/NUP50/CDC5L/GCFC2/SNRPF/RNPC3/CD2BP2/RAE1/NCBP1/SLU7/DDX46/PPIE/UPF3B/METTL3/POLR2G/NUP153/POM121/RBM22/TFIP11/SRSF1/NUP107/PLRG1/SMNDC1/POLR2E/NUP88/RANBP2/ZCRB1/PCF11/CPSF3/LSM7/PPIL6/ISY1/THOC5/ALYREF/SRSF10/CWC15/SF3B1/EIF4A3/WDR33/SNRPE/CSTF2/XAB2/NUP133/NXF1/SRRM1/NDC1/CWC22/METTL14/PRPF8/U2AF1/POLR2H/SARNP/NUP93/NUP58/AQR/SART1/SF3A3/CWC25/CPSF7/U2AF1L5/NUP85/PRPF4/WTAP/ZC3H11A/THOC2/DHX38/SNRNP40/DDX42/SF3A1/PRPF3/CRNKL1/SF3B3/SKIV2L2/CDC40/NUP210/HNRNPH1/NUP54/CSTF2T/ZMAT5/CHTOP/SYMPK/NUP160/POLDIP3/SEH1L/PPIL4/CPSF1/FIP1L1/FYTTD1/NUP98/THOC6/HNRNPA0/POLR2C/DHX16/SNRNP35/SRSF9/NUDT21/THOC3/NUP214/HNRNPL/NUPL2/POLR2B/U2AF2/NUP155/THOC1/SNURF/AAAS/CSTF1/PDCD7/ZRSR2/SNRNP48/USP39/RBM5/LSM6/HNRNPH2/SUGP1/CLP1/U2SURP/SF3B2/GLE1/U2AF1L4/NXF2B/ELAVL2/NUP188/SRSF6/EFTUD2/NUP205/DDX39B/CCAR1</t>
-  </si>
-  <si>
-    <t>SRSF2/SNRPB/PCBP2/HNRNPA1/RBMX/SNRPD1/SNRPN/SRSF7/POLR2L/LSM4/LSM3/HNRNPA2B1/LSM8/SNRPA1/DNAJC8/SNRPG/SYF2/PCBP1/HSPA8/SRSF5/HNRNPC/GTF2F1/PAPOLA/NCBP2/SNRNP25/HNRNPK/MAGOHB/POLR2F/FUS/HNRNPM/POLR2J/RBM8A/SF3B6/SF3B5/HNRNPUL1/GTF2F2/PUF60/PPIL1/RBM17/SF3B4/TRA2B/WBP11/PABPN1/HNRNPD/SRSF4/POLR2K/HNRNPR/CTNNBL1/LSM5/PQBP1/SRSF3/CWC27/PPIL3/HNRNPU/SNRPA/ELAVL1/PRPF19/MAGOH/POLR2A/SNW1/PTBP1/TXNL4A/SNRPD2/PPWD1/BCAS2/BUD31/HNRNPF/PRPF38A/RNPS1/YBX1/CPSF2/PRPF40A/CSTF3/CPSF4/SNRPC/SNRNP70/SRRT/CASC3/PRPF31/SNRNP200/DDX23/CHERP/GPKOW/SNRPB2/HNRNPA3/DDX5/SNRNP27/WBP4/SF1/SF3A2/PRPF6/LSM2/SRRM2/POLR2D/PHF5A/SNU13/SRSF11/DHX15/POLR2I/PRCC/SNRPD3/PPIH/DHX9/CDC5L/GCFC2/SNRPF/RNPC3/CD2BP2/NCBP1/SLU7/DDX46/PPIE/UPF3B/POLR2G/RBM22/TFIP11/SRSF1/PLRG1/SMNDC1/POLR2E/ZCRB1/PCF11/CPSF3/LSM7/PPIL6/ISY1/ALYREF/SRSF10/CWC15/SF3B1/EIF4A3/WDR33/SNRPE/CSTF2/XAB2/SRRM1/CWC22/PRPF8/U2AF1/POLR2H/AQR/SART1/SF3A3/CWC25/CPSF7/U2AF1L5/PRPF4/DHX38/SNRNP40/DDX42/SF3A1/PRPF3/CRNKL1/SF3B3/SKIV2L2/CDC40/HNRNPH1/CSTF2T/ZMAT5/SYMPK/PPIL4/CPSF1/FIP1L1/HNRNPA0/POLR2C/DHX16/SNRNP35/SRSF9/NUDT21/HNRNPL/POLR2B/U2AF2/SNURF/CSTF1/PDCD7/ZRSR2/SNRNP48/USP39/RBM5/LSM6/HNRNPH2/SUGP1/CLP1/U2SURP/SF3B2/U2AF1L4/ELAVL2/SRSF6/EFTUD2/CCAR1</t>
-  </si>
-  <si>
-    <t>SRSF2/SNRPB/PCBP2/HNRNPA1/RBMX/SNRPD1/SNRPN/SRSF7/POLR2L/LSM4/LSM3/HNRNPA2B1/LSM8/SNRPA1/DNAJC8/SNRPG/SYF2/PCBP1/HSPA8/SRSF5/HNRNPC/GTF2F1/PAPOLA/NCBP2/HNRNPK/MAGOHB/POLR2F/FUS/HNRNPM/POLR2J/RBM8A/SF3B6/SF3B5/HNRNPUL1/GTF2F2/PUF60/PPIL1/RBM17/SF3B4/TRA2B/WBP11/PABPN1/HNRNPD/SRSF4/POLR2K/HNRNPR/CTNNBL1/LSM5/PQBP1/SRSF3/CWC27/PPIL3/HNRNPU/SNRPA/ELAVL1/PRPF19/MAGOH/POLR2A/SNW1/PTBP1/TXNL4A/SNRPD2/PPWD1/BCAS2/BUD31/HNRNPF/PRPF38A/RNPS1/YBX1/CPSF2/PRPF40A/CSTF3/CPSF4/SNRPC/SNRNP70/SRRT/CASC3/PRPF31/SNRNP200/DDX23/CHERP/GPKOW/SNRPB2/HNRNPA3/DDX5/SNRNP27/WBP4/SF1/SF3A2/PRPF6/LSM2/SRRM2/POLR2D/PHF5A/SNU13/SRSF11/DHX15/POLR2I/PRCC/SNRPD3/PPIH/DHX9/CDC5L/GCFC2/SNRPF/CD2BP2/NCBP1/SLU7/DDX46/PPIE/UPF3B/POLR2G/RBM22/TFIP11/SRSF1/PLRG1/SMNDC1/POLR2E/PCF11/CPSF3/LSM7/PPIL6/ISY1/ALYREF/SRSF10/CWC15/SF3B1/EIF4A3/WDR33/SNRPE/CSTF2/XAB2/SRRM1/CWC22/PRPF8/U2AF1/POLR2H/AQR/SART1/SF3A3/CWC25/CPSF7/U2AF1L5/PRPF4/DHX38/SNRNP40/DDX42/SF3A1/PRPF3/CRNKL1/SF3B3/SKIV2L2/CDC40/HNRNPH1/CSTF2T/SYMPK/PPIL4/CPSF1/FIP1L1/HNRNPA0/POLR2C/DHX16/SRSF9/NUDT21/HNRNPL/POLR2B/U2AF2/SNURF/CSTF1/USP39/RBM5/LSM6/HNRNPH2/SUGP1/CLP1/U2SURP/SF3B2/U2AF1L4/ELAVL2/SRSF6/EFTUD2/CCAR1</t>
-  </si>
-  <si>
-    <t>BIRC5/YWHAH/NPM1/CCNG1/COX7C/AURKB/COX7A2L/PCNA/RPA3/PERP/RHEB/CCNB1/COX4I1/POLR2L/CDK1/TPX2/COX5B/YWHAQ/RFC4/YWHAB/CCNA2/UBA52/SUPT4H1/JUN/GADD45A/UBB/IGFBP3/GTF2F1/SUPT16H/LRPPRC/AURKA/RHNO1/RPA2/PIN1/PRELID1/RFC2/PPP2R1A/POLR2F/COX6B1/POLR2J/COX8A/TCEA1/CYCS/GTF2F2/SSRP1/BARD1/TFDP1/BTG2/FANCI/BLM/NUAK1/PLK2/POLR2K/PRKAG1/PRDX1/NOC2L/YWHAZ/RMI2/PRKAB2/CSNK2B/TP53RK/POLR2A/DAXX/RFC5/PPP2CB/RPA1/TAF9B/CHD4/TFDP2/COX7B/E2F4/NELFE/TXN/PPP2R5C/SURF1/PHF20/MLST8/MEAF6/AKT2/RABGGTB/CSNK2A2/RFC3/MAPKAP1/STK11/BRCA1/LAMTOR1/ZNF385A/CHEK2/PRR5/CNOT1/LAMTOR5/TXNRD1/PRMT5/PPP2CA/NELFA/POLR2D/MOV10/HDAC1/COX11/PRKAA1/RBBP7/CNOT10/BAX/PMAIP1/POLR2I/TAF3/CENPJ/E2F8/EHMT2/CDK9/MAP2K6/FANCD2/EXO1/CDK5/MDC1/TTC5/PML/ERCC2/AGO1/PPP2R1B/TOP3A/TMEM219/LAMTOR4/RBBP8/CDKN1B/E2F1/SUPT5H/MNAT1/RRAGC/CDC25C/FOS/PRMT1/CSNK2A1/PCBP4/BNIP3L/KAT6A/TAF4/PLAGL1/POLR2G/CDK13/DDIT4/YWHAE/LAMTOR2/GATAD2A/KMT5A/PRDX2/PTEN/ERCC3/HIPK2/ARID3A/RNF34/COX18/POLR2E/NELFCD/RBL2/TBP/CNOT11/PIP4K2B/NDUFA4/CREBBP/PRDX5/RGCC/PRDM1/AKT3/TAF1/ATF2/CTDP1/GPI/ING2/TAF10/MAPKAPK5/RRAGA/GTF2H5/TNKS1BP1/COX5A/RAD50/BRPF1/NBN/RBL1/TP53I3/BRIP1/GATAD2B/GTF2H1/RAD17/CARM1/RRM2B/SETD9/CHM/PRKAA2/EP300/CDK2/TACO1/TP53BP2/POLR2H/CDK7/MTOR/ELL/PPP1R13B/DYRK2/RFFL/MDM4/COX14/TAF12/SESN2/ATR/CCNH/PMS2/BBC3/AKT1/HDAC2/RICTOR/USP7/NDRG1/CNOT2/RAD9A/ATM/CASP2/CNOT6/CCNT1/SESN3/CDKN1A/PIP4K2A/PDPK1/RPTOR/SLC38A9/PIP4K2C/CNOT9/UBC/MLH1/NELFB/ZNF420/MTA2/KAT5/RRAGD/RRAGB/TRIAP1/TP53INP1/RMI1/TNFRSF10C/DDB2/MAPK14/TNRC6B/COX6A1/CNOT6L/TAF5/TAF11/LAMTOR3/E2F7/TNRC6A/JMY/BID/GSR/GLS/COX16/RAD1/SGK1/TAF6/COX6C/HIPK1/TSC2/CNOT8/APAF1/AGO3/CCNT2/TOPBP1/POLR2C/TNFRSF10B/HUS1/AGO2/CCNE1/MRE11/GTF2H2/GTF2H3/CCNK/CNOT4/TNRC6C/POLR2B/PIDD1/TSC1/TAF2/MDM2/FANCC/STEAP3/RBBP4/MAPK11/SCO1/PLK3/SMYD2/PRKAB1/AGO4/WRN/L3MBTL1/TAF9/TNFRSF10D/COX20/RABGGTA/PPP1R13L/CRADD/DNA2/SESN1/TNFRSF10A/CNOT3/G6PD/BCL6/CCNE2/CHD3/BANP/TAF7/GPX2/GTF2H4/GLS2/BRD7/SCO2/CDKN2A/TP73/CASP10/AIFM2/MSH2/ING5/ATRIP/CCNA1/TAF4B/USP2/SFN/CDK5R1/TAF13/BCL2L14/FAS/BRPF3/TP53/TIGAR/CHEK1/EHMT1/BRD1/PRELID3A/PRKAG2/YWHAG/CASP6/MBD3/CDK12/RAD51D/CNOT7</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/CALM1/HSP90AA1/ATP5A1/TUBB4B/TUBB/CALM2/TUBG1/CDK1/CCT8/DYNLL1/PLK1/HSPB11/ATP5F1/ATP5C1/ATP5G2/IDH2/TUBB2A/DCTN3/ATP5G3/ATP5B/APOO/TCP1/WDR34/RAB11A/CCT3/AKAP9/PPP2R1A/ACTR1A/ATP5I/CHCHD3/CCT4/ATP5D/CYCS/MTX1/NCOR1/ATP5O/C19orf70/CKAP5/ATP5L/TCTN1/HAUS8/PRKAG1/ATP5J/WDR60/CLUAP1/PRKAB2/TFAM/IFT20/RAB3IP/TUBB2B/DCTN2/CCT5/NEDD1/HAUS1/PCNT/MAPRE1/BBIP1/HCFC1/TMEM216/ODF2/BBS4/GLUD2/OFD1/ATAT1/KIF3C/KIFAP3/SEPT2/CREB1/DYNLL2/CALM3/MKKS/CEP78/ATP5J2/DYNC2LI1/ARL3/ATP5E/SAMM50/TNPO1/TGS1/ARF4/CEP41/NEK2/CEP290/EXOC5/IFT74/RAB8A/CENPJ/CCT2/RXRA/IFT52/CEP164/CDK5RAP2/HAUS6/MEF2C/ASAP1/IFT27/NINL/DYNLRB1/SCLT1/CNTRL/ARL13B/CSNK1E/IFT81/ATP5S/CHD9/CRTC1/TUBA4A/GBF1/TUBA1C/GABPB1/HAUS7/B9D1/IQCB1/NDE1/HAUS2/EXOC4/YWHAE/MARK4/DNAJC11/FGFR1OP/HAUS4/TBL1XR1/SSBP1/MKS1/BBS12/ESRRA/SIRT5/UNC119B/ACSS2/PAFAH1B1/INPP5E/HAUS5/CREBBP/BBS7/TCTEX1D2/ATF2/CHCHD6/TFB1M/CCP110/HDAC6/CARM1/IFT57/PRKAA2/NRF1/CEP162/HDAC3/CC2D2A/SIRT3/CEP89/MINOS1/TMEM67/PDE6D/FBF1/TTC21B/CEP135/CETN2/EHHADH/PPARA/CRTC3/IFT80/IFT172/NCOA2/DCTN1/POLRMT/SSNA1/TMEM11/HSPA9/IFT22/CSNK1D/SIRT4/GLUD1/PKD2/TTC30A/PPRC1/POLG2/DYNC1H1/CEP72/CRTC2/IFT88/EXOC7/IFT46/KIF3A/TBL1X/MED1/IMMT/CEP83/BBS2/BBS9/TFB2M/ATP5H/MAPK14/NPHP1/C2CD3/TWNK/TRAF3IP1/KIF24/RPGRIP1L/ALAS1/CEP76/CEP97/ARL6/GABPA/IFT43/NR1D1/SFI1/SMARCD3/CEP70/SDCCAG8/PLK4/ATP5G1/EXOC1/ALMS1/PPARGC1B/WDR35/DYNC1I2/WDR19/EXOC2/TTBK2/EXOC3/DYNLRB2/RAB11FIP3/MTX2/IFT140/LZTFL1/PRKACA/NCOA6/BBS10/PPARGC1A/PKD1/TCTN3/SOD2/BBS5/TUBB8/AHI1/HAUS3/CEP192/EXOC6/KIF3B/MTERF1/B9D2/MEF2D/TTC30B/MAPK11/BBS1/CEP63/PRKAB1/CYS1/TCTN2/TUBB4A/TCTEX1D1/EXOC8/PRKAR2B/RP2/CEP250/SMO/NCOA1/IFT122/KIF17/PCM1/CEP152/CNGB1/CAMK4/TTC26/DYNC2H1/TCTE3/APOOL/MAPK12/HELZ2/CEP131/MCHR1/TRIP11/NPHP4/NPHP3/PRKAG2/CLASP1/YWHAG/TTC8/CEP57</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/DDOST/TUBB4B/KDELR1/UBXN1/DYNLL1/SPTBN1/TMED9/PRKCSH/UBA52/DAD1/TUBB2A/DCTN3/TRAPPC6A/UBB/SEC13/CTSC/B4GALT4/ACTR1A/FOLR1/VCP/ARF1/CALR/PMM1/TUSC3/NANS/GNPNAT1/ALG3/TRAPPC2L/TRAPPC1/ARF5/SRD5A3/RNF5/TRAPPC4/TRAPPC3/DPM3/COPB2/UAP1/B4GALT2/MGAT2/MPDU1/TUBB2B/SPTAN1/DERL1/GOSR1/DCTN2/CAPZA1/STX5/ASGR1/GOLGA2/DYNC1LI1/COPB1/LMAN2/ANK3/DCTN5/CANX/TMED7/ST6GAL1/DPAGT1/USO1/KDELR2/SEC31A/TMED2/DYNLL2/TMED3/ARFGAP3/RAD23B/YKT6/B4GALT3/TRIM13/ARF4/MGAT1/CAPZA2/ST6GALNAC3/MAN2A1/DYNC1LI2/GMDS/FUOM/TBC1D20/CNIH1/ALG2/ARF3/MVD/DPM1/ASGR2/NANP/LMAN1/COG4/ST6GALNAC6/TUBA4A/GBF1/DERL2/TMED10/MPI/ALG5/TUBA1C/CD59/PPP6R1/AMDHD2/GANAB/PREB/SEC16A/MAN1A1/GOSR2/NAPA/MAN1A2/ARFGAP1/NAPB/B4GALT1/CTSA/GLB1/SEC24B/TRAPPC6B/RPN2/MANEA/DCTN4/GFPT2/DOLPP1/DPM2/EDEM2/FUCA1/STT3A/COG8/SAR1B/ALG8/SPTBN2/NAGK/COPA/SCFD1/PPP6C/RAB1B/DYNC1I1/MAN1B1/RAB1A/ST3GAL4/COPG2/MOGS/FUT8/EHHADH/ALG1/KDELR3/BET1/GMPPB/PGM3/UGGT1/CHST8/MGAT3/DCTN1/SEL1L/RFT1/GMPPA/ST3GAL6/SEC24A/GOLGB1/TRAPPC2/NSF/ARFGAP2/SEC23A/UGGT2/AMFR/ST8SIA1/CSNK1D/UBC/SEC23IP/TSTA3/SLC35C1/ST6GALNAC4/DYNC1H1/NAPG/RPN1/PSMC1/SERPINA1/TRAPPC5/SEC24D/RNF139/COG2/PMM2/ALG6/OS9/DOLK/NUS1/EDEM3/COG6/RNF103/B4GALT6/SYVN1/MGAT5/TFG/COPE/MCFD2/NEU1/ALG14/ST3GAL1/LMAN2L/MIA3/ST6GALNAC5/RENBP/MAGT1/B4GALT5/DYNC1I2/TRAPPC10/COPZ2/CD55/COG3/COL7A1/GORASP1/ST8SIA4/COPG1/ALG11/ALG10B/ANKRD28/CNIH3/MAN2A2/SEC22A/ST3GAL2/GNE/ALG10/TUBB8/TRAPPC9/CMAS/FPGT/NEU4/ALG9/CAPZB/EDEM1/SLC17A5/ENGASE/ST3GAL3/BET1L/COG7/COG1/MGAT4B/ST8SIA6/ST6GALNAC2/PDIA3/MGAT4A/NGLY1/ALG12/ST3GAL5/SLC35A1/ST8SIA2/COG5/CTSZ/ST8SIA3/TUBB4A/CNIH2/NEU3/MLEC/SEC22B/ALG13/SEC22C/STX17/NPL/F8/TMEM115/NUDT14/ACTR10/SPTB/ST6GAL2/SPTBN5/ST6GALNAC1/FUK/SEC16B/ANK1/FUT3/LHB/SPTBN4/ANK2/MARCH6/ARCN1/SEC24C/DCTN6/DHDDS/MAN1C1/RNF185/CHST10/PPP6R3/GFPT1/COPZ1</t>
-  </si>
-  <si>
-    <t>TTR/FN1/HSP90AA1/ACTB/FGFR1/POLR2L/FKBP1A/PSMC3/PSME2/FGFR4/YWHAB/CDC37/PSMC4/UBA52/PSMA4/FXR1/UBB/PSMA7/GTF2F1/NCBP2/RBP1/AGTRAP/VCL/PSMB3/CCNC/PEBP1/AKAP9/PPP2R1A/POLR2F/RBX1/SHC1/POLR2J/VCP/PSMD11/ERBB4/GTF2F2/IHH/DKK1/MYC/NCOR1/PSMB2/PSMD7/RAP1B/FZD5/PSMD14/SND1/POLR2K/PSMC5/PSME1/PSMB6/PDGFRA/RBPJ/POLR2A/PSMF1/SNW1/MAP2K1/PDGFRB/PPP2CB/JAG1/ESRP1/MACF1/TGFB1/PSMB1/PPP2R5C/FYN/HRAS/PSMA1/MLST8/KDM7A/AKT2/PSMA3/TCF7L2/GSK3A/ZMYM2/MAPKAP1/NOTCH1/ACTG1/BAD/SMAD3/ERBB3/BCR/LMNA/NCSTN/RBP4/CUX1/PSMD8/PSMC2/PAPSS1/PSME3/CPSF6/PRR5/CREB1/RAF1/PPP2CA/CSNK1A1/LRRFIP1/PSMD12/PSME4/POLR2D/PSMB4/STAT5B/MARK3/HDAC1/HDAC8/PSMB7/PIK3R1/RAP1A/TRIM24/GRB2/POLR2I/ARRB2/MAML3/HDAC7/PSMD6/NAPEPLD/CNTRL/SRC/PPP2R1B/MAPK3/PSMD4/ZC3HAV1/DERL2/PLCG1/FZD4/CDKN1B/NCBP1/SKP1/KIAA1549/PPP2R5A/PSMA6/POLR2G/SPRED2/PSMD10/FGFR2/CTNNB1/LRP5/FGFR1OP/KREMEN2/PTEN/TBL1XR1/QKI/STAT3/AKT1S1/MIB1/POLR2E/ERBB2/IQGAP1/SMAD4/ARAF/BAG4/ITGA2B/DLL1/TLN1/CREBBP/AKT3/PSMA2/ARRB1/HES1/PSMD2/PHB/MAP2K2/ADAM17/FGB/HDAC10/TGFBR1/HDAC5/HDAC6/FGA/MIB2/EP300/PSMD13/NR4A1/HDAC3/SMAD2/ERLIN2/GAB2/CBL/POLR2H/HBEGF/ZFYVE9/PIK3CD/MTOR/PDGFA/AXIN1/TRAK1/PSMB10/PSEN1/CASP9/AGK/PTPN11/FGF7/RASA4/FBXW7/SEL1L/STAT5A/CNKSR2/AKT1/HDAC2/RICTOR/MAML1/MAP3K11/CTBP1/MPRIP/PPP2R5E/SPRED1/CDKN1A/DAB2IP/PDPK1/KIT/NRG1/MAPK1/NRG2/UBC/PAPD7/APH1B/FGF1/PIK3R3/CHUK/PSMC1/APC/VWF/RASA1/BRAF/TBL1X/GSK3B/OS9/KRAS/JAG2/PIK3CB/PSMD9/PSENEN/ATG7/SYVN1/CNKSR1/HEY2/FGFR3/PSMA5/APH1A/FGF19/RNF43/FGF10/PSMD5/DLL4/IRS1/FGF17/PPP2R5D/FZD6/TSC2/HEYL/AGGF1/PIK3R2/PSEN2/HDAC4/KSR1/STAT1/NCOR2/FGF8/POLR2C/ADAM10/TNKS2/PORCN/HDAC11/RDH5/NF1/PSMC6/ERLEC1/PIK3CA/PSMD3/AMER1/BRAP/FOXO1/CDK8/POLR2B/MDM2/MYO18A/FGF22/SPRED3/HEY1/KITLG/FZD8/PSMD1/CSK/KAT2A/FRS2/KLB/ABCA4/LRAT/NRG4/CD19/TGFBR2/RASA2/AP3B1/TNKS/IRS2/PPP2R5B/KSR2/LCK/FGG/EGFR/PSMB5/FGF23/KREMEN1/GAB1/RASA3/CLCN6/FAM114A2/FOXO3/LRP6/FGF18/PIK3AP1/FGF9/PDGFB/HGF/SHH/APBB1IP/RASAL1/RDH12/RASAL3/MAMLD1/KAT2B/HHAT/EGF/JAK2/RASAL2/SOS1/FOXO4/SYNGAP1/BCL2L11/STRA6/NEURL1B/FGFR1OP2/NRAS/FGF2/NEURL1/HDAC9/MET/MAML2/CTBP2/CUL1</t>
-  </si>
-  <si>
-    <t>UBE2T/HIST1H4C/FEN1/ACTB/APEX1/PCNA/RPA3/KPNA2/POLR2L/CLSPN/H2AFX/RAD51/RFC4/POLE4/CCNA2/UBA52/CENPX/SUMO1/UBB/USP1/PARP1/RHNO1/RAD51AP1/RPA2/RFC2/POLR2F/COPS5/ISG15/RBX1/UBE2N/DDB1/XRCC6/POLR2J/FANCA/COPS3/VCP/TCEA1/SUMO3/BARD1/BPHL/ACTL6A/MPG/LIG1/FANCI/BLM/POLD3/TIMELESS/CENPS/FANCL/BRCA2/TDG/POLR2K/PPP4C/SIRT6/UBE2V2/POLE/XRCC5/ALKBH5/COPS8/RMI2/PRPF19/ERCC1/POLR2A/BAZ1B/TDP2/RFC5/RPA1/POLD2/GPS1/HMGN1/RFC1/APBB1/FANCF/UBE2L6/PPP4R2/POLD1/FANCG/ERCC8/RFC3/COPS2/BRCA1/XRCC4/PRKDC/EME1/PARG/TP53BP1/CHEK2/RNF168/RAD23B/FTO/NEIL2/POLR2D/INO80C/SUMO2/POLI/BABAM1/POLR2I/RIF1/ZNF830/UNG/FANCD2/EXO1/POLE2/RNF4/MDC1/NPLOC4/POLE3/RCHY1/POLL/NEIL1/ERCC2/UBE2I/TOP3A/COPS6/RBBP8/DTL/MNAT1/PPIE/RAD23A/RAD18/POLK/POLR2G/CUL4B/PNKP/OGG1/MUTYH/RNF8/MUS81/CHD1L/XPA/ERCC3/FAAP20/HERC2/POLR2E/MCRS1/PAXIP1/FAAP100/USP10/RAD51C/MBD4/SMUG1/ISY1/MGMT/DCLRE1C/GTF2H5/HIST1H2BG/RAD50/NBN/BRIP1/NFRKB/GTF2H1/XAB2/RAD17/EP300/CDK2/HIST2H2BE/PPP5C/POLR2H/CDK7/ELL/FAAP24/COPS4/MAD2L2/GEN1/ACTR5/CETN2/TDP1/AQR/ATR/ERCC5/CCNH/TRIM25/ADPRHL2/PMS2/SPIDR/INO80E/YY1/USP7/NTHL1/PARP2/RAD9A/ATM/PIAS4/EYA3/POLM/POLQ/FAN1/KDM4A/DCLRE1B/TFPT/UBC/MLH1/TIPIN/HIST1H2BH/XRCC2/RAD51B/MSH6/LIG3/KAT5/INO80/EME2/SMARCA5/FANCB/RMI1/INO80B/UVSSA/MSH3/DDB2/ERCC4/FANCE/XRCC3/HIST1H2BD/ALKBH3/BRCC3/REV1/UBE2B/HIST1H4J/POLD4/RAD1/ASCC2/XPC/RAD52/TOPBP1/KDM4B/POLR2C/LIG4/HUS1/CUL4A/DCLRE1A/PALB2/PIAS3/MRE11/SLX4/REV3L/GTF2H2/GTF2H3/ALKBH2/COPS7B/HIST1H4H/POLB/POLR2B/FANCC/ERCC6/EYA1/SPRTN/HIST1H2BN/WRN/COPS7A/RUVBL1/ABL1/BAP1/ASCC3/USP45/ASCC1/DNA2/HIST1H4E/HIST1H2BL/NHEJ1/HIST1H2BC/FANCM/MAPK8/GTF2H4/HIST1H2BF/HIST4H4/USP43/UBA7/INO80D/MSH2/ATRIP/HIST1H4I/CCNA1/POLH/HIST3H2BB/HIST1H4A/HIST1H4D/EYA2/HIST1H2BE/POLN/HIST1H2BJ/HIST1H2BK/TP53/RNF111/ACTR8/CHEK1/PIAS1/XRCC1/SLX1A/RAD51D/UIMC1</t>
-  </si>
-  <si>
-    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/ZWINT/PTTG1/TUBA1A/HIST1H4C/MAD2L1/HSP90AA1/CENPF/SMC4/AURKB/TUBB4B/UBE2C/PPP1CC/H2AFV/TUBB/ANAPC11/CENPM/CDC20/CENPA/CCNB1/TUBG1/CENPN/CDK1/PSMC3/DYNLL1/SPC25/PLK1/VRK1/H2AFX/RAD21/SMC1A/TMPO/PSME2/MZT1/CENPU/CCNB2/PSMC4/SGO1/UBA52/PSMA4/NCAPG/TUBB2A/DCTN3/NUDC/UBB/PSMA7/SGO2/LMNB1/CENPH/ANAPC16/CENPK/BANF1/PSMB3/SEC13/KIF2C/KIF23/AKAP9/PPP2R1A/SKA2/ACTR1A/NUF2/BUB3/SMC2/CENPE/ARPP19/PSMD11/KIF20A/NDC80/CDCA5/NCAPH2/PSMB2/ENSA/PSMD7/CKAP5/SPC24/PSMD14/CENPS/HAUS8/PSMC5/PSME1/PSMB6/SPDL1/SMC3/H2AFJ/TPR/CSNK2B/PSMF1/ITGB3BP/MASTL/PPP2CB/LPIN2/TUBB2B/ZWILCH/NCAPH/NUP62/MZT2A/DCTN2/PSMB1/NEDD1/HAUS1/CENPQ/PPP2R5C/PCNT/MAPRE1/ANAPC7/NCAPD2/GOLGA2/DYNC1LI1/RANGAP1/CDCA8/PSMA1/STAG2/FBXO5/ODF2/CENPO/NUP37/PSMA3/CSNK2A2/NUP35/EMD/H3F3A/OFD1/LMNA/RCC2/CENPL/BUB1/CENPC/PSMD8/PSMC2/PSME3/USO1/RAB2A/NEK6/DYNLL2/KNL1/CEP78/PPP2CA/NCAPD3/NEK9/PSMD12/NCAPG2/CENPP/PSME4/NUP43/CENPT/PSMB4/PMF1/HDAC8/H3F3B/PSMB7/CEP41/NEK2/CEP290/ANAPC5/PDS5B/DYNC1LI2/ESPL1/CENPJ/CDC26/CEP164/CDK5RAP2/HAUS6/NUP50/NINL/PSMD6/CNTRL/XPO1/CSNK1E/KIF2A/PPP2R1B/MAPK3/PSMD4/TUBA4A/CDC16/TAOK1/RAE1/BUB1B/TUBA1C/CSNK2A1/PPP2R5A/PSMA6/NDEL1/HAUS7/NUP153/PSMD10/POM121/SET/HIST1H2AC/NDE1/ANAPC1/ERCC6L/HAUS2/YWHAE/FGFR1OP/HAUS4/NUP107/KMT5A/WAPL/NIPBL/HIST2H2AC/PPP2R2A/CDC27/CTDNEP1/TUBGCP3/INCENP/NUP88/PAFAH1B1/RANBP2/TUBGCP5/HAUS5/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/HIST1H2BG/NUMA1/STAG1/CCP110/NUP133/NDC1/PSMD13/HIST2H2BE/ZW10/MCPH1/RAB1B/DYNC1I1/DSN1/RAB1A/RB1/CEP135/PSMB10/NUP93/CETN2/EHHADH/NUP58/DCTN1/NUP85/TUBGCP2/SSNA1/LEMD3/PPP2R5E/NEK7/HIST1H3B/CSNK1D/MAPK1/UBC/HIST1H2BH/ANAPC15/BLZF1/DYNC1H1/PDS5A/CEP72/PSMC1/HIST1H3F/TUBGCP4/NUP210/SKA1/PPP2R2D/NUP54/PSMD9/PMF1-BGLAP/MAU2/HIST1H2BD/PSMA5/HIST1H3A/NUP160/HIST1H4J/PSMD5/SEH1L/CEP76/TUBGCP6/SFI1/PPP2R5D/CEP70/SDCCAG8/PLK4/CNEP1R1/ANAPC2/CLASP2/ALMS1/NUP98/CLIP1/NSL1/DYNC1I2/HIST1H2AB/CENPI/PRKCA/GORASP1/PRKACA/ANKLE2/MIS12/PSMC6/PSMD3/LEMD2/GORASP2/NUP214/HIST1H4H/TUBB8/HAUS3/CEP192/NUPL2/B9D2/HIST1H3G/NUP155/PSMD1/HIST1H2BN/CEP63/MZT2B/ANAPC4/HIST1H3E/HIST1H3H/AAAS/TUBG2/PPP2R5B/HIST1H4E/LPIN3/HIST1H2BL/TUBB4A/PSMB5/HIST1H2BC/PRKAR2B/HIST1H2AE/CEP250/PHF8/AHCTF1/VRK2/HIST1H2BF/HIST4H4/PCM1/KNTC1/CEP152/HIST1H4I/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/KIF18A/HIST1H2BE/HIST1H2BJ/HIST1H2BK/NUP188/LPIN1/CEP131/NUP205/HIST1H3I/MAD1L1/PRKCB/CLASP1/YWHAG/UBE2D1/CEP57</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/MAD2L1/HSP90AA1/CENPF/SMC4/AURKB/TUBB4B/PPP1CC/TUBB/CENPM/CDC20/CENPA/CCNB1/TUBG1/CENPN/CDK1/DYNLL1/SPC25/PLK1/RAD21/SMC1A/MZT1/CENPU/CCNB2/SGO1/NCAPG/TUBB2A/DCTN3/NUDC/SGO2/CENPH/CENPK/SEC13/KIF2C/AKAP9/PPP2R1A/SKA2/ACTR1A/NUF2/BUB3/SMC2/CENPE/NDC80/CDCA5/CKAP5/SPC24/CENPS/HAUS8/SPDL1/SMC3/CSNK2B/ITGB3BP/PPP2CB/TUBB2B/ZWILCH/NCAPH/MZT2A/DCTN2/NEDD1/HAUS1/CENPQ/PPP2R5C/PCNT/MAPRE1/NCAPD2/DYNC1LI1/RANGAP1/CDCA8/STAG2/ODF2/CENPO/NUP37/CSNK2A2/OFD1/RCC2/CENPL/BUB1/CENPC/DYNLL2/KNL1/CEP78/PPP2CA/CENPP/NUP43/CENPT/PMF1/HDAC8/CEP41/NEK2/CEP290/PDS5B/DYNC1LI2/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/XPO1/CSNK1E/KIF2A/PPP2R1B/TUBA4A/TAOK1/BUB1B/TUBA1C/CSNK2A1/PPP2R5A/NDEL1/HAUS7/NDE1/ERCC6L/HAUS2/YWHAE/FGFR1OP/HAUS4/NUP107/WAPL/TUBGCP3/INCENP/PAFAH1B1/RANBP2/TUBGCP5/HAUS5/NUMA1/STAG1/CCP110/NUP133/ZW10/DYNC1I1/DSN1/CEP135/CETN2/EHHADH/DCTN1/NUP85/TUBGCP2/SSNA1/PPP2R5E/CSNK1D/DYNC1H1/PDS5A/CEP72/TUBGCP4/SKA1/PMF1-BGLAP/NUP160/SEH1L/CEP76/TUBGCP6/SFI1/PPP2R5D/CEP70/SDCCAG8/PLK4/CLASP2/ALMS1/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/PRKACA/MIS12/TUBB8/HAUS3/CEP192/B9D2/CEP63/MZT2B/TUBG2/PPP2R5B/TUBB4A/PRKAR2B/CEP250/AHCTF1/PCM1/KNTC1/CEP152/KIF18A/CEP131/MAD1L1/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>CKS1B/TYMS/TOP2A/TK1/ORC6/DHFR/PCNA/MCM3/RPA3/CCNB1/CDK1/PSMC3/MYBL2/PSME2/CCND2/RRM2/MCM7/POLE4/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/CDK6/PSMB3/RPA2/CDK4/PPP2R1A/MCM4/PSMD11/MYC/CCND1/PSMB2/PSMD7/TFDP1/PSMD14/CCND3/MCM2/SKP2/PSMC5/PSME1/PSMB6/POLE/CDT1/CDKN1C/CDC45/PSMF1/POLA2/PPP2CB/RPA1/TFDP2/MCM10/CDC25A/ORC4/E2F4/PSMB1/CDC6/PSMA1/FBXO5/AKT2/PSMA3/MCM8/PSMD8/PSMC2/PSME3/LYN/PPP2CA/PSMD12/PSMB4/HDAC1/PSMB7/DBF4/POLE2/PSMD6/POLE3/CDKN2D/DYRK1A/SRC/PPP2R1B/PSMD4/CDKN1B/E2F1/MNAT1/SKP1/PSMA6/PSMD10/PPP2R2A/WEE1/MAX/RBL2/POLA1/AKT3/PSMA2/PSMD2/RBL1/PSMD13/CDK2/CDK7/RB1/CDKN2B/PSMB10/CCNH/AKT1/CDC7/ORC2/CDKN1A/UBC/PSMC1/LIN54/LIN9/ORC5/PSMD9/PSMA5/PRIM1/PSMD5/E2F5/LIN52/PRIM2/PSMC6/ORC1/CCNE1/PSMD3/PPP2R3B/LIN37/RPA4/RBBP4/E2F2/PSMD1/ABL1/PTK6/PSMB5/CCNE2/ORC3/CDKN2A/CCNA1/JAK2/E2F6/E2F3/CUL1</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/CCT8/DYNLL1/PLK1/HSPB11/TUBB2A/DCTN3/TCP1/WDR34/RAB11A/CCT3/AKAP9/PPP2R1A/ACTR1A/CCT4/CKAP5/TCTN1/HAUS8/WDR60/CLUAP1/IFT20/RAB3IP/TUBB2B/DCTN2/CCT5/NEDD1/HAUS1/PCNT/MAPRE1/BBIP1/TMEM216/ODF2/BBS4/OFD1/ATAT1/KIF3C/KIFAP3/SEPT2/DYNLL2/MKKS/CEP78/DYNC2LI1/ARL3/TNPO1/ARF4/CEP41/NEK2/CEP290/EXOC5/IFT74/RAB8A/CENPJ/CCT2/IFT52/CEP164/CDK5RAP2/HAUS6/ASAP1/IFT27/NINL/DYNLRB1/SCLT1/CNTRL/ARL13B/CSNK1E/IFT81/TUBA4A/GBF1/TUBA1C/HAUS7/B9D1/IQCB1/NDE1/HAUS2/EXOC4/YWHAE/MARK4/FGFR1OP/HAUS4/MKS1/BBS12/UNC119B/PAFAH1B1/INPP5E/HAUS5/BBS7/TCTEX1D2/CCP110/HDAC6/IFT57/CEP162/CC2D2A/CEP89/TMEM67/PDE6D/FBF1/TTC21B/CEP135/CETN2/EHHADH/IFT80/IFT172/DCTN1/SSNA1/IFT22/CSNK1D/PKD2/TTC30A/DYNC1H1/CEP72/IFT88/EXOC7/IFT46/KIF3A/CEP83/BBS2/BBS9/NPHP1/C2CD3/TRAF3IP1/KIF24/RPGRIP1L/CEP76/CEP97/ARL6/IFT43/SFI1/CEP70/SDCCAG8/PLK4/EXOC1/ALMS1/WDR35/DYNC1I2/WDR19/EXOC2/TTBK2/EXOC3/DYNLRB2/RAB11FIP3/IFT140/LZTFL1/PRKACA/BBS10/PKD1/TCTN3/BBS5/TUBB8/AHI1/HAUS3/CEP192/EXOC6/KIF3B/B9D2/TTC30B/BBS1/CEP63/CYS1/TCTN2/TUBB4A/TCTEX1D1/EXOC8/PRKAR2B/RP2/CEP250/SMO/IFT122/KIF17/PCM1/CEP152/CNGB1/TTC26/DYNC2H1/TCTE3/CEP131/MCHR1/TRIP11/NPHP4/NPHP3/CLASP1/YWHAG/TTC8/CEP57</t>
-  </si>
-  <si>
-    <t>BIRC5/ZWINT/YWHAH/HIST1H4C/MAD2L1/CENPF/AURKB/UBE2C/PPP1CC/ANAPC11/ORC6/CENPM/CDC20/CENPA/MCM3/RPA3/CCNB1/GTSE1/CENPN/CDK1/PSMC3/DYNLL1/SPC25/PLK1/CLSPN/H2AFX/PSME2/MCM7/YWHAQ/RFC4/YWHAB/CENPU/CCNB2/PSMC4/MCM6/CCNA2/SGO1/UBA52/SUMO1/PSMA4/NUDC/UBB/MCM5/PSMA7/SGO2/CENPH/ANAPC16/CENPK/RHNO1/PSMB3/RPA2/SEC13/KIF2C/RFC2/PPP2R1A/SKA2/MCM4/NUF2/BUB3/UBE2N/CENPE/PSMD11/NDC80/BARD1/PSMB2/PSMD7/CKAP5/SPC24/BLM/PSMD14/CENPS/MCM2/PSMC5/UBE2V2/PSME1/PSMB6/SPDL1/YWHAZ/RMI2/PKMYT1/CDC45/PSMF1/RFC5/ITGB3BP/PPP2CB/RPA1/ZWILCH/MCM10/CDC25A/ORC4/PSMB1/CENPQ/PPP2R5C/MAPRE1/ANAPC7/DYNC1LI1/RANGAP1/CDC6/CDCA8/PSMA1/PHF20/CENPO/NUP37/PSMA3/RFC3/MCM8/BRCA1/RCC2/CENPL/BUB1/CENPC/TP53BP1/ZNF385A/PSMD8/PSMC2/CHEK2/RNF168/PSME3/DYNLL2/KNL1/PPP2CA/PSMD12/CENPP/PSME4/NUP43/CENPT/PSMB4/PMF1/PSMB7/ANAPC5/BABAM1/DYNC1LI2/DBF4/CDC26/EXO1/PSMD6/MDC1/XPO1/KIF2A/PPP2R1B/TOP3A/PSMD4/CDC16/TAOK1/RBBP8/CDKN1B/BUB1B/CDC25C/PCBP4/PPP2R5A/PSMA6/NDEL1/PSMD10/NDE1/ANAPC1/ERCC6L/RNF8/YWHAE/NUP107/WEE1/CDC27/RFWD2/HERC2/INCENP/PAFAH1B1/RANBP2/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/HIST1H2BG/RAD50/NBN/BRIP1/RAD17/NUP133/PSMD13/CDK2/HIST2H2BE/ZW10/DYNC1I1/DSN1/MDM4/PSMB10/ATR/NUP85/RAD9A/CDC7/ATM/PIAS4/PPP2R5E/ORC2/CDKN1A/UBC/HIST1H2BH/ANAPC15/DYNC1H1/KAT5/PSMC1/RMI1/ORC5/SKA1/PSMD9/PMF1-BGLAP/HIST1H2BD/BRCC3/PSMA5/NUP160/HIST1H4J/RAD1/PSMD5/SEH1L/PPP2R5D/ANAPC2/CLASP2/NUP98/TOPBP1/CLIP1/NSL1/DYNC1I2/CENPI/HUS1/MIS12/PSMC6/ORC1/CCNE1/PSMD3/MRE11/HIST1H4H/B9D2/MDM2/PSMD1/HIST1H2BN/ANAPC4/WRN/DNA2/PPP2R5B/HIST1H4E/HIST1H2BL/PSMB5/CCNE2/HIST1H2BC/AHCTF1/ORC3/HIST1H2BF/HIST4H4/CDKN2A/KNTC1/ATRIP/HIST1H4I/CCNA1/SFN/HIST3H2BB/HIST1H4A/HIST1H4D/KIF18A/HIST1H2BE/HIST1H2BJ/HIST1H2BK/TP53/CHEK1/MAD1L1/CLASP1/YWHAG/UIMC1/UBE2D1</t>
-  </si>
-  <si>
-    <t>MRPL10/MRPS27/MRPS25/TUFM/MRPL16/MRPL14/MRPL32/MRPS30/MRPL18/MRPS21/MRPL11/MRPS26/MRPS9/MRPL43/MRPS31/MRPL55/MRPS23/MRPL44/MTRF1L/MRPL34/MRPL9/MRPL17/MRPL3/AURKAIP1/MRPL42/MRPL49/MRPL48/MRPS33/MRPS18A/PTCD3/MRPL41/MRPS11/MRPL50/MRPS6/MRPL57/MTIF2/MRPL4/TSFM/MRPS35/MRPL23/MRPL40/MRPS12/DAP3/ERAL1/MRPS7/MRPS18B/MRPL30/MRPL28/MRPL39/MRPL19/MRPS17/MRPL35/MRPL2/MRPS2/MRPL46/MRPL1/MRPL24/MRPS15/MRPL52/MRPS36/MRPL33/MRPL13/GADD45GIP1/MRPL22/MTIF3/MRPS14/CHCHD1/MRPL38/MRPS10/MRRF/MRPS28/MRPL15/MRPL37/MRPL36/MRPL51/MRPS16/MRPL58/MRPS5/MRPS18C/MRPS34/MRPL47/MRPS22/MRPL12/MRPL20/MRPL53/MTFMT/GFM1/MRPS24/MRPL54/GFM2/MRPL21/MRPL27</t>
-  </si>
-  <si>
-    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/CALM1/YWHAH/HIST1H4C/MAD2L1/CENPF/RHOC/AURKB/TUBB4B/PPP1CC/MYL9/MYL6/H2AFV/ACTB/ARPC2/CENPM/CALM2/ARPC5/CDC20/MYL12A/CENPA/ARHGDIA/GDI2/CENPN/FLNA/DYNLL1/SPC25/PLK1/MYH10/PFN1/H2AFX/MYH9/YWHAQ/ARPC1B/YWHAB/CENPU/RAC1/ITGB1/DIAPH3/MYL12B/ARHGAP24/PRC1/SGO1/BRK1/TUBB2A/NUDC/TAX1BP3/SGO2/CENPH/CENPK/RAC3/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/CYBA/NDC80/CKAP5/AKAP13/ACTR2/SPC24/PAK2/CENPS/ARPC1A/SPDL1/YWHAZ/H2AFJ/PPP1R14A/CYFIP2/ITGB3BP/CDC42/PPP2CB/RHOB/TUBB2B/ZWILCH/ARHGEF39/ABI2/ACTR3/WASF2/CENPQ/PPP2R5C/RACGAP1/MAPRE1/DYNC1LI1/RANGAP1/CDCA8/ARHGAP11A/CENPO/NUP37/CDH1/TIAM2/SRF/ACTG1/H3F3A/BCR/RCC2/KDM1A/CENPL/BUB1/CENPC/CTTN/WIPF2/PPP1CB/PFN2/DYNLL2/CALM3/KNL1/ARHGAP18/PPP2CA/GDI1/CENPP/ARAP3/KIF14/NUP43/CENPT/NET1/ARHGDIB/RHOA/PMF1/MEN1/ARHGAP35/H3F3B/GRB2/IQGAP2/DYNC1LI2/VAV3/DEPDC1B/KTN1/SRGAP2/RHOF/XPO1/SRC/ROCK1/KIF2A/PPP2R1B/MAPK3/ARHGAP29/TUBA4A/TAOK1/ARHGAP8/CDKN1B/WASF1/KLC2/BUB1B/ARHGAP19/CDC25C/NCKIPSD/TUBA1C/ECT2/PPP2R5A/NDEL1/PPP1R12A/HIST1H2AC/CTNNB1/ARHGEF2/NDE1/ERCC6L/YWHAE/WIPF3/NUP107/ARHGAP45/CYFIP1/RHOU/CIT/HIST2H2AC/ARPC4/ARHGAP11B/INCENP/ITSN1/IQGAP1/OCRL/PAFAH1B1/WIPF1/RANBP2/TRIO/SCAI/NF2/RHOG/ARHGAP12/DIAPH1/PPP1R12B/HIST1H2BG/ARHGAP33/PKN3/PREX1/LIMK2/ARHGAP21/CHN1/NUP133/ARHGAP31/PAK1/KLC3/ARHGEF16/ARHGEF40/FMNL3/HIST2H2BE/ZW10/LIMK1/ARHGEF35/DYNC1I1/ARHGEF26/MYO9B/ARHGAP10/DSN1/ARHGAP1/NCKAP1/ROCK2/RHOQ/EHHADH/LIN7B/FGD1/MYO9A/DVL3/FAM13B/NCOA2/FGD4/DVL2/RHOD/CTNNA1/NUP85/PPP2R5E/PKN2/ARHGAP42/BAIAP2/HIST1H3B/PDPK1/KALRN/GOPC/DVL1/MAPK1/RAC2/KIF5B/PKN1/FAM13A/DLC1/DLG4/HIST1H2BH/WASL/ARAP1/DYNC1H1/ARHGEF33/RHOBTB1/ARHGEF9/ARHGEF19/HIST1H3F/ARHGEF1/GNA13/SYDE2/RHPN1/ARHGAP26/SKA1/PMF1-BGLAP/HIST1H2BD/PTK2/DIAPH2/HIST1H3A/NCK1/RHOH/ARPC3/INPP5B/ARHGAP17/NUP160/HIST1H4J/RALBP1/WAS/SEH1L/RHOBTB2/SYDE1/ARHGEF4/ARHGAP6/PPP2R5D/ARHGAP44/ABI1/RHOT1/ARHGEF15/PIK3R2/ARHGEF12/CLASP2/KDM4C/ARHGEF7/NUP98/OBSCN/CLIP1/NSL1/DYNC1I2/HIST1H2AB/CENPI/IQGAP3/PIK3C3/SRGAP1/MIS12/DAAM1/BTK/ARHGAP23/ARHGEF37/SOS2/KLC4/MYH14/AR/WASF3/RTKN/HIST1H4H/TUBB8/ARHGAP32/TIAM1/B9D2/RHPN2/NOXA1/CHN2/RHOJ/ARHGAP9/ARHGDIG/HIST1H3G/FGD3/ARHGEF5/SRGAP3/MCF2L/HIST1H2BN/ARHGEF17/FMNL2/HIST1H3E/NCKAP1L/ARHGEF6/STARD8/HIST1H3H/OPHN1/GMIP/TRIP10/RHOT2/ABL1/VAV2/ARHGAP39/PPP2R5B/HIST1H4E/DEPDC7/HIST1H2BL/TUBB4A/HIST1H2BC/HIST1H2AE/ARHGEF10L/ARHGAP4/AHCTF1/ARHGAP5/PIK3R4/HIST1H2BF/NCF1/HIST4H4/EVL/STARD13/KNTC1/CFTR/HIST1H4I/NOXO1/MYLK/SFN/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/KIF18A/ARHGAP27/HIST1H2BE/ARHGAP36/HIST1H2BJ/HIST1H2BK/ARHGAP15/PAK3/NGEF/ARHGEF3/ARHGEF11/RHOV/SOS1/ARHGAP25/PLEKHG5/MKL1/ARHGEF10/PLEKHG2/ABR/FMNL1/HIST1H3I/MAD1L1/ARAP2/ARHGAP22/CLASP1/YWHAG/KLC1</t>
-  </si>
-  <si>
-    <t>ACTB/PCNA/RPA3/POLR2L/RFC4/POLE4/UBA52/SUMO1/UBB/PARP1/RPA2/RFC2/POLR2F/COPS5/RBX1/UBE2N/DDB1/POLR2J/COPS3/TCEA1/SUMO3/ACTL6A/LIG1/POLD3/POLR2K/UBE2V2/POLE/COPS8/PRPF19/ERCC1/POLR2A/RFC5/RPA1/POLD2/GPS1/HMGN1/RFC1/POLD1/ERCC8/RFC3/COPS2/RAD23B/POLR2D/INO80C/SUMO2/POLR2I/ZNF830/POLE2/POLE3/ERCC2/UBE2I/COPS6/MNAT1/PPIE/RAD23A/POLK/POLR2G/CUL4B/CHD1L/XPA/ERCC3/POLR2E/MCRS1/ISY1/GTF2H5/NFRKB/GTF2H1/XAB2/EP300/POLR2H/CDK7/ELL/COPS4/ACTR5/CETN2/AQR/ERCC5/CCNH/INO80E/YY1/USP7/PARP2/TFPT/UBC/LIG3/INO80/INO80B/UVSSA/DDB2/ERCC4/POLD4/XPC/POLR2C/CUL4A/PIAS3/GTF2H2/GTF2H3/COPS7B/POLR2B/ERCC6/COPS7A/RUVBL1/USP45/GTF2H4/INO80D/RNF111/ACTR8/PIAS1/XRCC1</t>
-  </si>
-  <si>
-    <t>UBE2S/UBE2C/ANAPC11/CDC20/PSMC3/PSME2/PSMC4/UBA52/WSB1/PSMA4/UBB/PSMA7/PSMB3/RNF7/UBE2A/RBX1/UBE2N/PSMD11/PSMB2/PSMD7/FBXO2/PSMD14/SKP2/PSMC5/UBE2V2/PSME1/PSMB6/LRR1/PSMF1/UBE3A/ZBTB16/PSMB1/UNKL/FBXO6/ANAPC7/UBE2L6/PSMA1/UBE2J1/PSMA3/CCNF/FBXO7/RNF114/MKRN1/PSMD8/PSMC2/FBXO9/PSME3/UBE2D2/NEDD4L/PSMD12/PSME4/RNF126/FBXO22/PSMB4/PJA2/FBXW2/SIAH2/RNF213/UBE2F/UBA3/ANAPC13/HERC1/PSMB7/TRAF7/CUL5/CDC34/PJA1/ANAPC5/FBXO32/LRRC41/UBA1/CDC26/UBE2H/CUL7/MGRN1/PSMD6/UBE2D3/RNF4/UBE3C/RCHY1/SPSB4/BLMH/PSMD4/STUB1/CDC16/UBE2D4/KLHL42/FBXW9/SKP1/UBE2M/PSMA6/VHL/TRIP12/PSMD10/TRAIP/ANAPC1/FBXO44/FBXL19/UBE2J2/ITCH/DZIP3/CDC27/UBE2K/MYLIP/SOCS3/RNF34/HERC2/UBE2E3/RNF138/SPSB1/UBR2/RNF220/TPP2/KLHL9/UBE2Q1/LNX1/PSMA2/ANAPC10/UBE2Q2/UBE2E1/FBXL12/UBE2L3/CDC23/PSMD2/KLHL21/BTBD1/RBBP6/ARIH2/NPEPPS/FBXL3/ZNRF1/TRIM71/UBE3D/FBXO11/FZR1/MIB2/GLMN/PSMD13/KLHL25/LMO7/FBXO17/TRIM11/RNF6/UBAC1/HERC4/FBXL5/UBR4/THOP1/PSMB10/UBA5/FBXW11/SPSB2/ASB1/UBE2E2/ASB6/FBXW7/FBXW8/HECTD1/NEDD4/DET1/FBXL15/FBXW4/BTRC/UBA6/SIAH1/HACE1/WWP1/UBC/SMURF2/KEAP1/CUL3/TRIM69/PSMC1/HECTD3/UBE2W/FBXL13/RLIM/UBE3B/UBE2O/FBXO10/PSMD9/SMURF1/FBXL4/LRSAM1/RNF25/ATG7/RNF115/PSMA5/KLHL2/RNF41/DCAF1/UBE2B/FBXO30/PSMD5/TRIM32/KLHL20/LTN1/KBTBD7/RNF182/FBXL7/BTBD6/FBXO31/ANAPC2/RNF19B/KLHL5/CBLB/FBXO41/KBTBD8/GAN/TRIM4/LONRF1/PSMC6/MEX3C/PSMD3/RNF19A/LNPEP/UBE2G1/HECW2/TRIM39/TRIM41/HUWE1/HECTD2/KLHL3/DTX3L/UBE2Z/FBXW5/RNF217/PSMD1/CUL2/SOCS1/ANAPC4/ASB7/HERC6/HERC5/UBE2R2/RBCK1/SH3RF1/ASB3/AREL1/UFL1/HERC3/ASB15/RNF130/PSMB5/KCTD7/RNF123/UBR1/KCTD6/UBE4A/FBXL20/FBXO15/ASB9/ASB2/FBXL16/KLHL11/UBA7/FBXL22/TRIM36/TRIM21/KLHL22/ASB8/UBE2V1/TRIM9/KLHL41/FBXL14/KLHL13/ASB13/ZNRF2/FBXO27/KBTBD6/FBXO4/RNF111/TRIM37/UBE2G2/FBXW12/RNF14/UBOX5/UBE2D1/FBXO21/CUL1</t>
-  </si>
-  <si>
-    <t>CKS1B/TYMS/TK1/ORC6/DHFR/PCNA/MCM3/RPA3/CCNB1/CDK1/PSMC3/PSME2/RRM2/MCM7/POLE4/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/RPA2/CDK4/PPP2R1A/MCM4/PSMD11/MYC/CCND1/PSMB2/PSMD7/TFDP1/PSMD14/MCM2/SKP2/PSMC5/PSME1/PSMB6/POLE/CDT1/CDC45/PSMF1/POLA2/PPP2CB/RPA1/TFDP2/MCM10/CDC25A/ORC4/E2F4/PSMB1/CDC6/PSMA1/FBXO5/AKT2/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PPP2CA/PSMD12/PSMB4/HDAC1/PSMB7/DBF4/POLE2/PSMD6/POLE3/PPP2R1B/PSMD4/CDKN1B/E2F1/MNAT1/SKP1/PSMA6/PSMD10/WEE1/MAX/RBL2/POLA1/AKT3/PSMA2/PSMD2/RBL1/PSMD13/CDK2/CDK7/RB1/PSMB10/CCNH/AKT1/CDC7/ORC2/CDKN1A/UBC/PSMC1/LIN54/LIN9/ORC5/PSMD9/PSMA5/PRIM1/PSMD5/E2F5/LIN52/PRIM2/PSMC6/ORC1/CCNE1/PSMD3/PPP2R3B/LIN37/RPA4/RBBP4/PSMD1/PTK6/PSMB5/CCNE2/ORC3/CCNA1/E2F6/CUL1</t>
-  </si>
-  <si>
-    <t>MRPL10/MRPS27/MRPS25/MRPL16/MRPL14/MRPL32/MRPS30/MRPL18/MRPS21/MRPL11/MRPS26/MRPS9/MRPL43/MRPS31/MRPL55/MRPS23/MRPL44/MRPL34/MRPL9/MRPL17/MRPL3/AURKAIP1/MRPL42/MRPL49/MRPL48/MRPS33/MRPS18A/PTCD3/MRPL41/MRPS11/MRPL50/MRPS6/MRPL57/MTIF2/MRPL4/MRPS35/MRPL23/MRPL40/MRPS12/DAP3/ERAL1/MRPS7/MRPS18B/MRPL30/MRPL28/MRPL39/MRPL19/MRPS17/MRPL35/MRPL2/MRPS2/MRPL46/MRPL1/MRPL24/MRPS15/MRPL52/MRPS36/MRPL33/MRPL13/GADD45GIP1/MRPL22/MTIF3/MRPS14/CHCHD1/MRPL38/MRPS10/MRPS28/MRPL15/MRPL37/MRPL36/MRPL51/MRPS16/MRPL58/MRPS5/MRPS18C/MRPS34/MRPL47/MRPS22/MRPL12/MRPL20/MRPL53/MTFMT/MRPS24/MRPL54/MRPL21/MRPL27</t>
-  </si>
-  <si>
-    <t>MRPL10/MRPS27/MRPS25/TUFM/MRPL16/MRPL14/MRPL32/MRPS30/MRPL18/MRPS21/MRPL11/MRPS26/MRPS9/MRPL43/MRPS31/MRPL55/MRPS23/MRPL44/MRPL34/MRPL9/MRPL17/MRPL3/AURKAIP1/MRPL42/MRPL49/MRPL48/MRPS33/MRPS18A/PTCD3/MRPL41/MRPS11/MRPL50/MRPS6/MRPL57/MRPL4/TSFM/MRPS35/MRPL23/MRPL40/MRPS12/DAP3/ERAL1/MRPS7/MRPS18B/MRPL30/MRPL28/MRPL39/MRPL19/MRPS17/MRPL35/MRPL2/MRPS2/MRPL46/MRPL1/MRPL24/MRPS15/MRPL52/MRPS36/MRPL33/MRPL13/GADD45GIP1/MRPL22/MRPS14/CHCHD1/MRPL38/MRPS10/MRPS28/MRPL15/MRPL37/MRPL36/MRPL51/MRPS16/MRPL58/MRPS5/MRPS18C/MRPS34/MRPL47/MRPS22/MRPL12/MRPL20/MRPL53/GFM1/MRPS24/MRPL54/MRPL21/MRPL27</t>
-  </si>
-  <si>
-    <t>MRPL10/MRPS27/MRPS25/MRPL16/MRPL14/MRPL32/MRPS30/MRPL18/MRPS21/MRPL11/MRPS26/MRPS9/MRPL43/MRPS31/MRPL55/MRPS23/MRPL44/MTRF1L/MRPL34/MRPL9/MRPL17/MRPL3/AURKAIP1/MRPL42/MRPL49/MRPL48/MRPS33/MRPS18A/PTCD3/MRPL41/MRPS11/MRPL50/MRPS6/MRPL57/MRPL4/MRPS35/MRPL23/MRPL40/MRPS12/DAP3/ERAL1/MRPS7/MRPS18B/MRPL30/MRPL28/MRPL39/MRPL19/MRPS17/MRPL35/MRPL2/MRPS2/MRPL46/MRPL1/MRPL24/MRPS15/MRPL52/MRPS36/MRPL33/MRPL13/GADD45GIP1/MRPL22/MRPS14/CHCHD1/MRPL38/MRPS10/MRRF/MRPS28/MRPL15/MRPL37/MRPL36/MRPL51/MRPS16/MRPL58/MRPS5/MRPS18C/MRPS34/MRPL47/MRPS22/MRPL12/MRPL20/MRPL53/MRPS24/MRPL54/GFM2/MRPL21/MRPL27</t>
-  </si>
-  <si>
-    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/DYNLL1/PLK1/DCTN3/RAB11A/AKAP9/PPP2R1A/ACTR1A/CKAP5/TCTN1/HAUS8/RAB3IP/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/TMEM216/ODF2/OFD1/SEPT2/CEP78/CEP41/NEK2/CEP290/RAB8A/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/SCLT1/CNTRL/CSNK1E/TUBA4A/HAUS7/B9D1/IQCB1/NDE1/HAUS2/YWHAE/MARK4/FGFR1OP/HAUS4/MKS1/PAFAH1B1/HAUS5/CCP110/CEP162/CC2D2A/CEP89/TMEM67/FBF1/CEP135/CETN2/DCTN1/SSNA1/CSNK1D/DYNC1H1/CEP72/CEP83/NPHP1/C2CD3/KIF24/RPGRIP1L/CEP76/CEP97/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/TTBK2/PRKACA/TCTN3/AHI1/HAUS3/CEP192/B9D2/CEP63/TCTN2/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/NPHP4/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>RPP25/POP7/RAN/URM1/RPP30/LAGE3/THG1L/HSD17B10/TPR/TP53RK/NUP62/TRMT112/EPRS/DDX1/NUP37/TPRKB/CPSF4/NUP35/TSEN15/NUP43/TYW3/QTRT1/METTL1/NUP50/PUS3/TYW5/RAE1/TRMT6/TRMT10C/RTCB/TRMU/NUP153/POM121/POP4/FTSJ1/NUP107/RPP21/FAM98B/NUP88/RANBP2/KIAA1456/CSTF2/NUP133/OSGEP/NDC1/TRMT13/PUS7/NUP93/ELAC2/NUP58/TRMT5/TRMT44/GTPBP3/TRIT1/TRDMT1/NUP85/RPP40/C2orf49/TRMT10A/NUP210/ZBTB8OS/NUP54/ADAT3/TRMT61A/DUS2/TRMT1/NUP160/ADAT1/CTU2/SEH1L/TSEN34/RPP38/CPSF1/WDR4/TSEN54/NUP98/POP5/CDKAL1/THADA/RPP14/MTO1/ADAT2/NUP214/NUPL2/TRMT61B/QTRT2/TYW1/KIAA0391/NUP155/AAAS/TSEN2/ALKBH8/TRMT11/CLP1/PUS1/TRNT1/NSUN2/LCMT2/TRMT12/POP1/NUP188/XPOT/NUP205/NSUN6</t>
-  </si>
-  <si>
-    <t>RAB4A/GDI2/RAB5C/TRAPPC6A/MAP1LC3B/RAB18/RAB11A/DENND2C/RAB31/TRAPPC2L/TRAPPC1/GABARAPL2/TRAPPC4/TRAPPC3/RAB3IP/RABEP1/TBC1D7/DENND5A/AKT2/RAB10/HPS1/RAB32/GDI1/TBC1D13/RAB38/RAB35/RAB8A/TBC1D20/SYTL1/ST5/OPTN/GGA2/TBC1D14/RABGAP1/GGA3/GGA1/TRAPPC12/YWHAE/DENND4B/SBF2/RAB13/TRAPPC6B/AKT3/RAB21/CCZ1/DENND1A/TBC1D24/RAB5B/RAB9A/RAB3IL1/CHM/TRAPPC13/DENND4C/RAB1B/RAB1A/TBC1D16/TBC1D25/RGP1/RAB6A/RAB27A/TRAPPC2/AKT1/RAB11B/DENND5B/SBF1/ULK1/TBC1D15/DENND1B/MON1B/TRAPPC5/RINL/RAB5A/RAB14/RAB7A/MADD/MON1A/RAB3A/GAPVD1/HPS4/RIN2/TRAPPC11/RAB3GAP1/TRAPPC8/TSC2/RAB8B/TRAPPC10/DENND3/TBC1D17/TBC1D10A/RIC1/TRAPPC9/TSC1/RAB12/DENND4A/DENND6A/TBC1D10B/DENND1C/ALS2CL/RAB39A/RIN3/RABGEF1/ARF6/GABARAP/ALS2/RAB39B/RAB33B/CCZ1B/RIN1/CHML/ANKRD27/RAB33A/DENND2D/DENND6B/RAB27B/TBC1D10C/TBC1D2/DENND2A/RAB3GAP2/RAB9B/RAB6B</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/CENPF/TUBB4B/TUBB/CCNB1/GTSE1/TUBG1/CDK1/PSMC3/LCMT1/DYNLL1/PLK1/HSP90AB1/TPX2/MYBL2/PSME2/MZT1/CCNB2/PSMC4/CCNA2/UBA52/PSMA4/TUBB2A/DCTN3/UBB/PSMA7/AURKA/PSMB3/AKAP9/PPP2R1A/ACTR1A/FOXM1/RBX1/PSMD11/PHLDA1/PSMB2/PSMD7/CKAP5/HMMR/PSMD14/CDK11B/HAUS8/PSMC5/PSME1/PSMB6/PKMYT1/PSMF1/PPP2CB/TUBB2B/CDC25A/CDC25B/MZT2A/DCTN2/PSMB1/NEDD1/HAUS1/PCNT/MAPRE1/PSMA1/ODF2/PSMA3/OFD1/PSMD8/PSMC2/PPP1CB/PSME3/CEP78/PPP2CA/PSMD12/PSME4/PSMB4/PSMB7/CEP41/NEK2/CEP290/PPME1/RAB8A/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/PSMD6/CNTRL/XPO1/CSNK1E/PPP2R1B/PSMD4/TUBA4A/E2F1/OPTN/MNAT1/SKP1/CDC25C/TUBA1C/PSMA6/HAUS7/PSMD10/PPP1R12A/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/PPP2R2A/WEE1/TUBGCP3/PAFAH1B1/TUBGCP5/HAUS5/PSMA2/PPP1R12B/PSMD2/CCP110/EP300/PSMD13/CDK2/CDK7/CEP135/PSMB10/FBXW11/CETN2/EHHADH/CCNH/DCTN1/TUBGCP2/SSNA1/BTRC/CDKN1A/CSNK1D/UBC/DYNC1H1/CEP72/PSMC1/CDK11A/LIN54/TUBGCP4/LIN9/PSMD9/PSMA5/PSMD5/CEP76/AJUBA/TUBGCP6/SFI1/CEP70/SDCCAG8/FBXL7/PLK4/LIN52/ALMS1/DYNC1I2/BORA/PRKACA/PSMC6/FKBPL/PSMD3/PPP2R3B/LIN37/TUBB8/HAUS3/CEP192/RBBP4/PSMD1/CEP63/MZT2B/TUBG2/TUBB4A/PSMB5/PRKAR2B/CEP250/PCM1/CEP152/CCNA1/TP53/CEP131/CLASP1/YWHAG/E2F3/CEP57/CUL1</t>
-  </si>
-  <si>
-    <t>CKS1B/FEN1/ORC6/PCNA/GINS2/MCM3/RPA3/PSMC3/RAD21/SMC1A/PSME2/MCM7/RFC4/POLE4/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/RPA2/CDK4/RFC2/MCM4/PSMD11/MYC/CDCA5/CCND1/PSMB2/PSMD7/TFDP1/LIG1/GINS4/POLD3/PSMD14/MCM2/SKP2/PSMC5/PSME1/PSMB6/POLE/SMC3/CDT1/CDC45/PSMF1/RFC5/POLA2/RPA1/TFDP2/POLD2/CDC25A/GINS1/CDC25B/ORC4/E2F4/PSMB1/RFC1/CDC6/PSMA1/STAG2/POLD1/PSMA3/RFC3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/ESCO2/PSMB7/PDS5B/POLE2/PSMD6/POLE3/PSMD4/CDKN1B/E2F1/MNAT1/SKP1/PSMA6/PSMD10/WAPL/WEE1/MAX/RBL2/POLA1/ESCO1/PSMA2/PSMD2/STAG1/GINS3/FZR1/PSMD13/CDK2/CDK7/RB1/PSMB10/CCNH/ORC2/CDKN1A/UBC/PDS5A/PSMC1/LIN54/LIN9/ORC5/PSMD9/PSMA5/PRIM1/POLD4/PSMD5/E2F5/LIN52/PRIM2/PSMC6/ORC1/CCNE1/PSMD3/LIN37/RBBP4/PSMD1/DNA2/PTK6/PSMB5/CCNE2/ORC3/CCNA1/CUL1</t>
-  </si>
-  <si>
-    <t>BIRC5/ZWINT/MAD2L1/CENPF/AURKB/UBE2C/PPP1CC/ANAPC11/CENPM/CDC20/CENPA/CENPN/DYNLL1/SPC25/PLK1/CENPU/SGO1/NUDC/SGO2/CENPH/ANAPC16/CENPK/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/NDC80/CKAP5/SPC24/CENPS/SPDL1/ITGB3BP/PPP2CB/ZWILCH/CENPQ/PPP2R5C/MAPRE1/ANAPC7/DYNC1LI1/RANGAP1/CDCA8/CENPO/NUP37/RCC2/CENPL/BUB1/CENPC/DYNLL2/KNL1/PPP2CA/CENPP/NUP43/CENPT/PMF1/ANAPC5/DYNC1LI2/CDC26/XPO1/KIF2A/PPP2R1B/CDC16/TAOK1/BUB1B/PPP2R5A/NDEL1/NDE1/ANAPC1/ERCC6L/NUP107/CDC27/INCENP/PAFAH1B1/RANBP2/ANAPC10/UBE2E1/CDC23/NUP133/ZW10/DYNC1I1/DSN1/NUP85/PPP2R5E/ANAPC15/DYNC1H1/SKA1/PMF1-BGLAP/NUP160/SEH1L/PPP2R5D/ANAPC2/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/MIS12/B9D2/ANAPC4/PPP2R5B/AHCTF1/KNTC1/KIF18A/MAD1L1/CLASP1/UBE2D1</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/CENPF/TUBB4B/TUBB/CCNB1/GTSE1/TUBG1/CDK1/PSMC3/LCMT1/DYNLL1/PLK1/HSP90AB1/TPX2/MYBL2/PSME2/MZT1/CCNB2/PSMC4/CCNA2/UBA52/PSMA4/TUBB2A/DCTN3/UBB/PSMA7/AURKA/PSMB3/AKAP9/PPP2R1A/ACTR1A/FOXM1/RBX1/PSMD11/PHLDA1/PSMB2/PSMD7/CKAP5/HMMR/PSMD14/CDK11B/HAUS8/PSMC5/PSME1/PSMB6/PKMYT1/PSMF1/PPP2CB/TUBB2B/CDC25A/CDC25B/MZT2A/DCTN2/PSMB1/NEDD1/HAUS1/PCNT/MAPRE1/PSMA1/ODF2/PSMA3/OFD1/PSMD8/PSMC2/PPP1CB/PSME3/CEP78/PPP2CA/PSMD12/PSME4/PSMB4/PSMB7/CEP41/NEK2/CEP290/PPME1/RAB8A/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/PSMD6/CNTRL/XPO1/CSNK1E/PPP2R1B/PSMD4/TUBA4A/OPTN/MNAT1/SKP1/CDC25C/TUBA1C/PSMA6/HAUS7/PSMD10/PPP1R12A/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/PPP2R2A/WEE1/TUBGCP3/PAFAH1B1/TUBGCP5/HAUS5/PSMA2/PPP1R12B/PSMD2/CCP110/EP300/PSMD13/CDK2/CDK7/CEP135/PSMB10/FBXW11/CETN2/EHHADH/CCNH/DCTN1/TUBGCP2/SSNA1/BTRC/CDKN1A/CSNK1D/UBC/DYNC1H1/CEP72/PSMC1/CDK11A/LIN54/TUBGCP4/LIN9/PSMD9/PSMA5/PSMD5/CEP76/AJUBA/TUBGCP6/SFI1/CEP70/SDCCAG8/FBXL7/PLK4/LIN52/ALMS1/DYNC1I2/BORA/PRKACA/PSMC6/FKBPL/PSMD3/PPP2R3B/LIN37/TUBB8/HAUS3/CEP192/RBBP4/PSMD1/CEP63/MZT2B/TUBG2/TUBB4A/PSMB5/PRKAR2B/CEP250/PCM1/CEP152/CCNA1/TP53/CEP131/CLASP1/YWHAG/CEP57/CUL1</t>
-  </si>
-  <si>
-    <t>HLA-B/B2M/UBE2S/UBE2C/ANAPC11/CDC20/HLA-C/PSMC3/CTSL/PSME2/PSMC4/UBA52/WSB1/PSMA4/HLA-E/UBB/HLA-A/PSMA7/PSMB3/SEC13/RNF7/UBE2A/VAMP8/RBX1/UBE2N/CYBA/PSMD11/CALR/PSMB2/PSMD7/FBXO2/PSMD14/SKP2/PSMC5/UBE2V2/PSME1/PSMB6/SEC61G/LRR1/HSPA5/ITGAV/PSMF1/UBE3A/ZBTB16/PSMB1/UNKL/FBXO6/ANAPC7/UBE2L6/PSMA1/UBE2J1/PSMA3/CCNF/CANX/FBXO7/RNF114/MKRN1/BCAP31/PSMD8/PSMC2/FBXO9/PSME3/UBE2D2/SEC31A/NEDD4L/PSMD12/PSME4/RNF126/FBXO22/PSMB4/PJA2/FBXW2/SIAH2/RNF213/UBE2F/UBA3/ANAPC13/HERC1/PSMB7/TRAF7/CUL5/CDC34/PJA1/ANAPC5/FBXO32/LRRC41/UBA1/CDC26/UBE2H/CUL7/VAMP3/MGRN1/PSMD6/UBE2D3/RNF4/UBE3C/RCHY1/SPSB4/BLMH/PSMD4/STUB1/CDC16/UBE2D4/KLHL42/FBXW9/SKP1/UBE2M/PSMA6/VHL/TRIP12/PSMD10/TRAIP/ANAPC1/FBXO44/FBXL19/UBE2J2/ITCH/DZIP3/CDC27/UBE2K/MYLIP/SEC24B/SOCS3/RNF34/HERC2/UBE2E3/RNF138/SPSB1/UBR2/RNF220/TPP2/KLHL9/UBE2Q1/LNX1/PSMA2/MYD88/ANAPC10/UBE2Q2/UBE2E1/FBXL12/UBE2L3/CDC23/PSMD2/SAR1B/KLHL21/BTBD1/RBBP6/ARIH2/NPEPPS/FBXL3/ZNRF1/SEC61A1/TRIM71/UBE3D/FBXO11/FZR1/MIB2/GLMN/TLR4/PSMD13/KLHL25/LMO7/FBXO17/TRIM11/RNF6/UBAC1/HERC4/FBXL5/UBR4/TAPBP/THOP1/STX4/PSMB10/UBA5/FBXW11/SPSB2/ASB1/UBE2E2/ASB6/FBXW7/FBXW8/SEC24A/ITGB5/HECTD1/NEDD4/DET1/FBXL15/SEC23A/FBXW4/BTRC/IKBKB/UBA6/SIAH1/HACE1/WWP1/UBC/SMURF2/KEAP1/CUL3/TRIM69/CHUK/PSMC1/SEC24D/HECTD3/UBE2W/FBXL13/RLIM/UBE3B/UBE2O/FBXO10/PSMD9/SMURF1/FBXL4/LRSAM1/RNF25/ATG7/RNF115/SEC61B/PSMA5/MRC1/KLHL2/RNF41/DCAF1/UBE2B/FBXO30/PSMD5/TRIM32/KLHL20/LTN1/SEC61A2/KBTBD7/RNF182/FBXL7/BTBD6/FBXO31/ANAPC2/RNF19B/KLHL5/CBLB/FBXO41/KBTBD8/GAN/TRIM4/LONRF1/PSMC6/BTK/MEX3C/PSMD3/RNF19A/LNPEP/UBE2G1/HECW2/TRIM39/TRIM41/HUWE1/HECTD2/KLHL3/TIRAP/TLR6/DTX3L/UBE2Z/FBXW5/RNF217/PSMD1/CUL2/SOCS1/ANAPC4/ASB7/HERC6/HERC5/UBE2R2/PDIA3/RBCK1/SH3RF1/ASB3/AREL1/UFL1/HERC3/CD36/ASB15/CTSV/RNF130/PSMB5/KCTD7/RNF123/UBR1/KCTD6/UBE4A/IKBKG/SEC22B/FBXL20/FBXO15/ASB9/NCF1/ASB2/TAP2/FBXL16/KLHL11/UBA7/FBXL22/TRIM36/TRIM21/KLHL22/ASB8/HLA-G/UBE2V1/ERAP2/TRIM9/KLHL41/FBXL14/ERAP1/KLHL13/ASB13/ZNRF2/FBXO27/KBTBD6/FBXO4/RNF111/TRIM37/UBE2G2/SNAP23/SEC24C/FBXW12/RNF14/MRC2/UBOX5/UBE2D1/FBXO21/CUL1</t>
-  </si>
-  <si>
-    <t>CCNG1/AURKB/RPA3/CDK1/TPX2/RFC4/CCNA2/UBA52/UBB/SUPT16H/AURKA/RHNO1/RPA2/PIN1/RFC2/PPP2R1A/SSRP1/BARD1/BLM/NUAK1/PRKAG1/NOC2L/RMI2/PRKAB2/CSNK2B/TP53RK/DAXX/RFC5/PPP2CB/RPA1/TAF9B/CHD4/PPP2R5C/PHF20/MLST8/MEAF6/AKT2/CSNK2A2/RFC3/MAPKAP1/STK11/BRCA1/ZNF385A/CHEK2/PRR5/PRMT5/PPP2CA/HDAC1/PRKAA1/RBBP7/TAF3/EHMT2/MAP2K6/EXO1/CDK5/TTC5/PML/PPP2R1B/TOP3A/RBBP8/CSNK2A1/KAT6A/TAF4/GATAD2A/KMT5A/HIPK2/RNF34/TBP/PIP4K2B/PRDM1/AKT3/TAF1/ING2/TAF10/MAPKAPK5/RAD50/BRPF1/NBN/BRIP1/GATAD2B/RAD17/SETD9/PRKAA2/EP300/CDK2/TP53BP2/MTOR/PPP1R13B/DYRK2/RFFL/MDM4/TAF12/ATR/AKT1/HDAC2/RICTOR/USP7/RAD9A/ATM/PIP4K2A/PDPK1/PIP4K2C/UBC/MTA2/KAT5/TP53INP1/RMI1/MAPK14/TAF5/TAF11/JMY/RAD1/SGK1/TAF6/HIPK1/TOPBP1/HUS1/MRE11/TAF2/MDM2/RBBP4/MAPK11/PLK3/SMYD2/PRKAB1/WRN/L3MBTL1/TAF9/PPP1R13L/DNA2/CHD3/BANP/TAF7/BRD7/CDKN2A/TP73/ING5/ATRIP/CCNA1/TAF4B/USP2/CDK5R1/TAF13/BRPF3/TP53/CHEK1/EHMT1/BRD1/PRKAG2/MBD3</t>
-  </si>
-  <si>
-    <t>GDI2/RAB5C/TRAPPC6A/RAB18/DENND2C/RAB31/TRAPPC2L/TRAPPC1/TRAPPC4/TRAPPC3/RAB3IP/DENND5A/AKT2/RAB10/HPS1/RAB32/GDI1/RAB38/RAB35/RAB8A/ST5/TRAPPC12/YWHAE/DENND4B/SBF2/RAB13/TRAPPC6B/AKT3/RAB21/CCZ1/DENND1A/RAB5B/RAB9A/RAB3IL1/CHM/TRAPPC13/DENND4C/RAB1B/RAB1A/RGP1/RAB6A/RAB27A/TRAPPC2/AKT1/DENND5B/SBF1/ULK1/DENND1B/MON1B/TRAPPC5/RINL/RAB5A/RAB14/RAB7A/MADD/MON1A/RAB3A/GAPVD1/HPS4/RIN2/TRAPPC11/RAB3GAP1/TRAPPC8/RAB8B/TRAPPC10/DENND3/RIC1/TRAPPC9/RAB12/DENND4A/DENND6A/DENND1C/ALS2CL/RAB39A/RIN3/RABGEF1/ALS2/RAB39B/CCZ1B/RIN1/CHML/ANKRD27/DENND2D/DENND6B/RAB27B/DENND2A/RAB3GAP2/RAB9B/RAB6B</t>
-  </si>
-  <si>
-    <t>CALM1/FGFR1/CALM2/RHEB/PSMC3/PSME2/FGFR4/PSMC4/UBA52/PSMA4/JUN/UBB/PSMA7/PSMB3/IER3/PPP2R1A/PSMD11/ERBB4/SALL4/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/EZH2/PDGFRA/CSNK2B/PRKAR1A/PSMF1/PDGFRB/PPP2CB/CHD4/PSMB1/PPP2R5C/FYN/PHC1/PSMA1/MLST8/AKT2/MTA3/PSMA3/CSNK2A2/GSK3A/MAPKAP1/BAD/ERBB3/KDM1A/LAMTOR1/MKRN1/PSMD8/PSMC2/PSME3/PRR5/RING1/CREB1/LAMTOR5/CALM3/PPP2CA/PSMD12/RNF2/PRKCD/PSME4/MOV10/SNAI2/PSMB4/HDAC1/PSMB7/PIK3R1/ADCY3/RBBP7/RNF146/GRB2/HDAC7/TRIB3/PSMD6/PML/SRC/AGO1/PPP2R1B/MAPK3/PSMD4/STUB1/LAMTOR4/PLCG1/CDKN1B/WWP2/RRAGC/AHCYL1/PRKAR2A/CSNK2A1/PPP2R5A/PSMA6/PSMD10/FGFR2/TRIM27/LAMTOR2/OTUD3/GATAD2A/PTEN/PHC2/AKT1S1/ATN1/ERBB2/EED/REST/PIP4K2B/AKT3/PSMA2/MYD88/MAF1/ATF2/PSMD2/RRAGA/SNAI1/GATAD2B/HDAC5/MECOM/PSMD13/NR4A1/HDAC3/PIP5K1C/USP13/HBEGF/SCMH1/PIK3CD/MTA1/MTOR/PDGFA/PSMB10/CASP9/PTPN11/XIAP/FGF7/AKT1/HDAC2/RICTOR/USP7/NEDD4/PPP2R5E/CDKN1A/PIP4K2A/PDPK1/KIT/NRG1/MAPK1/RPTOR/SLC38A9/NRG2/PIP4K2C/UBC/FGF1/PIK3R3/CHUK/MTA2/RRAGD/PSMC1/RRAGB/CBX8/SUZ12/PRKAR1B/GSK3B/TNRC6B/PIK3CB/PSMD9/ITPR3/FGFR3/PSMA5/LAMTOR3/TNRC6A/FGF19/ADCY2/IRAK4/FGF10/PSMD5/CBX2/IRS1/INSR/FGF17/PPP2R5D/TSC2/ITPR2/PIK3R2/AGO3/FGF8/PRKCA/GRK2/TNKS2/PRKACA/PSMC6/AGO2/PIK3CA/PSMD3/TNRC6C/PREX2/FOXO1/CBX4/PHC3/PRKACB/EGR1/MDM2/TRAF6/FGF22/RBBP4/IL1RAP/KITLG/PSMD1/THEM4/AGO4/FRS2/ADCY7/ADCY1/KLB/NRG4/CD19/BMI1/TNKS/PDE1B/IRS2/PPP2R5B/PDE1C/LCK/EGFR/PSMB5/PRKAR2B/CHD3/FGF23/ADCY5/ADCY4/PHLPP2/GAB1/FOXO3/IRAK1/FRK/FGF18/PIK3AP1/FGF9/PDGFB/PDE1A/HGF/ADCY8/ADCY9/PRKCG/PPARG/PRKCE/EGF/CAMK4/FOXO4/TP53/RCOR1/PHLPP1/ITPR1/ADCY6/FGF2/MET/CBX6/PIP5K1B/MBD3/PIP5K1A</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/PTTG1/TUBA1A/MAD2L1/CENPF/AURKB/TUBB4B/UBE2C/PPP1CC/ANAPC11/CENPM/CDC20/CENPA/CENPN/PSMC3/DYNLL1/SPC25/PLK1/VRK1/RAD21/SMC1A/TMPO/PSME2/CENPU/PSMC4/SGO1/UBA52/PSMA4/TUBB2A/NUDC/UBB/PSMA7/SGO2/LMNB1/CENPH/ANAPC16/CENPK/BANF1/PSMB3/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/PSMD11/NDC80/CDCA5/PSMB2/PSMD7/CKAP5/SPC24/PSMD14/CENPS/PSMC5/PSME1/PSMB6/SPDL1/SMC3/PSMF1/ITGB3BP/PPP2CB/TUBB2B/ZWILCH/PSMB1/CENPQ/PPP2R5C/MAPRE1/ANAPC7/DYNC1LI1/RANGAP1/CDCA8/PSMA1/STAG2/FBXO5/CENPO/NUP37/PSMA3/EMD/LMNA/RCC2/CENPL/BUB1/CENPC/PSMD8/PSMC2/PSME3/DYNLL2/KNL1/PPP2CA/PSMD12/CENPP/PSME4/NUP43/CENPT/PSMB4/PMF1/HDAC8/PSMB7/ANAPC5/PDS5B/DYNC1LI2/ESPL1/CDC26/PSMD6/XPO1/KIF2A/PPP2R1B/PSMD4/TUBA4A/CDC16/TAOK1/BUB1B/TUBA1C/PPP2R5A/PSMA6/NDEL1/PSMD10/NDE1/ANAPC1/ERCC6L/NUP107/WAPL/PPP2R2A/CDC27/INCENP/PAFAH1B1/RANBP2/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/STAG1/NUP133/PSMD13/ZW10/DYNC1I1/DSN1/PSMB10/EHHADH/NUP85/LEMD3/PPP2R5E/UBC/ANAPC15/DYNC1H1/PDS5A/PSMC1/SKA1/PSMD9/PMF1-BGLAP/PSMA5/NUP160/PSMD5/SEH1L/PPP2R5D/ANAPC2/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/ANKLE2/MIS12/PSMC6/PSMD3/LEMD2/TUBB8/B9D2/PSMD1/ANAPC4/PPP2R5B/TUBB4A/PSMB5/AHCTF1/VRK2/KNTC1/KIF18A/MAD1L1/CLASP1/UBE2D1</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/PTTG1/TUBA1A/MAD2L1/CENPF/AURKB/TUBB4B/UBE2C/PPP1CC/ANAPC11/CENPM/CDC20/CENPA/CENPN/PSMC3/DYNLL1/SPC25/PLK1/VRK1/RAD21/SMC1A/TMPO/PSME2/CENPU/PSMC4/SGO1/UBA52/PSMA4/TUBB2A/NUDC/UBB/PSMA7/SGO2/LMNB1/CENPH/ANAPC16/CENPK/BANF1/PSMB3/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/PSMD11/NDC80/CDCA5/PSMB2/PSMD7/CKAP5/SPC24/PSMD14/CENPS/PSMC5/PSME1/PSMB6/SPDL1/SMC3/PSMF1/ITGB3BP/PPP2CB/TUBB2B/ZWILCH/PSMB1/CENPQ/PPP2R5C/MAPRE1/ANAPC7/DYNC1LI1/RANGAP1/CDCA8/PSMA1/STAG2/CENPO/NUP37/PSMA3/EMD/LMNA/RCC2/CENPL/BUB1/CENPC/PSMD8/PSMC2/PSME3/DYNLL2/KNL1/PPP2CA/PSMD12/CENPP/PSME4/NUP43/CENPT/PSMB4/PMF1/HDAC8/PSMB7/ANAPC5/PDS5B/DYNC1LI2/ESPL1/CDC26/PSMD6/XPO1/KIF2A/PPP2R1B/PSMD4/TUBA4A/CDC16/TAOK1/BUB1B/TUBA1C/PPP2R5A/PSMA6/NDEL1/PSMD10/NDE1/ANAPC1/ERCC6L/NUP107/WAPL/PPP2R2A/CDC27/INCENP/PAFAH1B1/RANBP2/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/STAG1/NUP133/PSMD13/ZW10/DYNC1I1/DSN1/PSMB10/EHHADH/NUP85/LEMD3/PPP2R5E/UBC/ANAPC15/DYNC1H1/PDS5A/PSMC1/SKA1/PSMD9/PMF1-BGLAP/PSMA5/NUP160/PSMD5/SEH1L/PPP2R5D/ANAPC2/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/ANKLE2/MIS12/PSMC6/PSMD3/LEMD2/TUBB8/B9D2/PSMD1/ANAPC4/PPP2R5B/TUBB4A/PSMB5/AHCTF1/VRK2/KNTC1/KIF18A/MAD1L1/CLASP1/UBE2D1</t>
-  </si>
-  <si>
-    <t>ACTB/PCNA/RPA3/RFC4/POLE4/UBA52/SUMO1/UBB/PARP1/RPA2/RFC2/COPS5/RBX1/UBE2N/DDB1/COPS3/SUMO3/ACTL6A/LIG1/POLD3/UBE2V2/POLE/COPS8/ERCC1/RFC5/RPA1/POLD2/GPS1/RFC1/POLD1/RFC3/COPS2/RAD23B/INO80C/SUMO2/POLE2/POLE3/ERCC2/UBE2I/COPS6/MNAT1/RAD23A/POLK/CUL4B/CHD1L/XPA/ERCC3/MCRS1/GTF2H5/NFRKB/GTF2H1/CDK7/COPS4/ACTR5/CETN2/ERCC5/CCNH/INO80E/YY1/PARP2/TFPT/UBC/LIG3/INO80/INO80B/DDB2/ERCC4/POLD4/XPC/CUL4A/PIAS3/GTF2H2/GTF2H3/COPS7B/COPS7A/RUVBL1/USP45/GTF2H4/INO80D/RNF111/ACTR8/PIAS1/XRCC1</t>
-  </si>
-  <si>
-    <t>AP1M2/CLTB/FTH1/RAB5C/HSPA8/FTL/SNX5/VAMP8/ARF1/CHMP2A/AP1S2/APP/BLOC1S1/TPD52L1/CLTA/BLOC1S4/BLOC1S6/TPD52/PICALM/PUM1/TGOLN2/SORT1/AP1G1/CLINT1/CLTC/GBF1/AP1B1/NAPA/AP1S1/OCRL/CLVS2/AP4S1/ARRB1/SH3D19/STX4/YIPF6/ACBD3/GOLGB1/DNM2/DTNBP1/SH3GL2/SNX2/SNX9/VAMP7/GNS/HGS/AP3S1/IGF2R/PIK3C2A/AP1S3/AP1G2/VAMP2/TBC1D8B/DNAJC6/DNASE2/AP4B1/AP4E1/TFRC/BLOC1S3/HIP1R/SNAPIN/TXNDC5/CPD/AP3B1/AP4M1/CTSZ/NECAP1/GAK/CLVS1/AP1M1/SNAP23/M6PR</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/DYNLL1/KIF22/TMED9/TUBB2A/DCTN3/RAB18/KIF2C/KIF23/ACTR1A/CENPE/ARF1/KIF20A/KIF20B/PAFAH1B3/SURF4/KIF21A/ARF5/KIF4A/COPB2/KIFC1/ARFIP2/TUBB2B/GOSR1/DCTN2/CAPZA1/STX5/KIF12/RACGAP1/DYNC1LI1/COPB1/DCTN5/KIF3C/TMED7/KIFAP3/CUX1/KDELR2/TMED2/DYNLL2/TMED3/ARFGAP3/KIF26B/RHOBTB3/TGOLN2/YKT6/ARF4/PAFAH1B2/CAPZA2/MAN2A1/DYNC1LI2/BICD1/NAA38/VAMP3/ARF3/KIF9/KIF2A/COG4/USE1/TUBA4A/GBF1/TMED10/KLC2/KIF11/TUBA1C/GOLGA4/KIF18B/KIF1B/SNAP29/KIF15/GOLIM4/MAN1A1/GOSR2/NAPA/MAN1A2/ARFGAP1/VPS45/NAPB/GALNT2/GALNT1/PAFAH1B1/DCTN4/GOLGA5/COG8/VPS51/NBAS/STX10/SYS1/RAB9A/KIF26A/COPA/KLC3/GCC2/ZW10/RAB1B/DYNC1I1/BICD2/NAA30/RAB1A/COPG2/EHHADH/KDELR3/RGP1/ARL1/DCTN1/RAB6A/KIF13B/NSF/ARFGAP2/CYTH3/CYTH2/PLIN3/KIFC2/GOLGA1/KIF5B/BNIP1/RINT1/PLA2G6/DYNC1H1/NAPG/KIF3A/COG2/STX18/RAB30/STX16/COG6/IGF2R/KIF1C/COPE/RAB3GAP1/KIF16B/AGPAT3/DYNC1I2/COPZ2/KIF27/COG3/VAMP4/CYTH1/TMF1/COPG1/KLC4/RIC1/GCC1/MAN2A2/TUBB8/VPS53/KIF3B/NAA35/KIF1A/CAPZB/STX6/BET1L/COG7/COG1/RAB36/SCOC/RAB39A/COG5/RAB33B/KIF19/TUBB4A/VTI1A/VPS52/SEC22B/RABEPK/KIF21B/ACTR10/KIF6/KIF18A/KIF25/USP6NL/RAB3GAP2/ARCN1/DCTN6/RAB9B/RAB6B/MAN1C1/TRIP11/ARFRP1/VPS54/KLC1/M6PR/COPZ1</t>
-  </si>
-  <si>
-    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/DYNLL1/PLK1/MZT1/DCTN3/AKAP9/PPP2R1A/ACTR1A/CKAP5/CDK11B/HAUS8/MZT2A/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/ODF2/OFD1/CEP78/CEP41/NEK2/CEP290/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/CSNK1E/TUBA4A/HAUS7/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/TUBGCP3/PAFAH1B1/TUBGCP5/HAUS5/CCP110/CEP135/CETN2/DCTN1/TUBGCP2/SSNA1/CSNK1D/DYNC1H1/CEP72/CDK11A/TUBGCP4/CEP76/TUBGCP6/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/PRKACA/HAUS3/CEP192/CEP63/MZT2B/TUBG2/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>B2M/NPM1/SLC25A6/FEN1/AP1M2/POLR2L/PSMC3/RANBP1/PSIP1/PSME2/CXCR4/AP2S1/RAC1/PSMC4/UBA52/PSMA4/PPIA/SUPT4H1/UBB/PSMA7/GTF2F1/SUPT16H/NCBP2/RAN/BANF1/PSMB3/GTF2A2/POLR2F/RBX1/XRCC6/POLR2J/ARF1/TCEA1/PSMD11/GTF2F2/CHMP2A/SSRP1/AP2A1/PSMB2/PSMD7/AP1S2/LIG1/CHMP4B/PAK2/PSMD14/POLR2K/HMGA1/PSMC5/PSME1/PSMB6/XRCC5/AP2M1/TPR/POLR2A/PSMF1/KPNB1/SLC25A5/TAF9B/NUP62/NELFE/PSMB1/FYN/RANGAP1/PSMA1/RNMT/NUP37/PSMA3/NUP35/XRCC4/PSMD8/PSMC2/MVB12A/PSME3/ELMO1/PDCD6IP/NEDD4L/UBAP1/PSMD12/NELFA/PSME4/NUP43/POLR2D/PSMB4/PSMB7/AP1G1/CUL5/POLR2I/TAF3/CDK9/CHMP7/NUP50/PSMD6/CHMP5/XPO1/ERCC2/PSMD4/NMT1/AP2A2/RAE1/AP1B1/NCBP1/SUPT5H/MNAT1/SKP1/MVB12B/PSMA6/TAF4/ATP6V1H/POLR2G/NUP153/PSMD10/POM121/GTF2E2/GTF2B/SLC25A4/NUP107/CHMP4C/ERCC3/AP1S1/TSG101/POLR2E/NELFCD/NUP88/TBP/RANBP2/PSMA2/TAF1/CTDP1/TAF10/PSMD2/GTF2H5/GTF2H1/NUP133/VPS37B/NDC1/PSMD13/POLR2H/CDK7/ELL/VPS28/FURIN/TAF12/PSMB10/NUP93/NUP58/CCNH/GTF2E1/NUP85/VPS37A/CCNT1/BTRC/NMT2/PACS1/UBC/NELFB/PSMC1/CHMP3/RCC1/NUP210/NUP54/PSMD9/TAF5/TAF11/PSMA5/NUP160/PSMD5/SEH1L/TAF6/CHMP2B/AP1S3/NUP98/CCNT2/VTA1/POLR2C/LIG4/VPS37D/VPS4A/PSMC6/VPS4B/DOCK2/PSMD3/KPNA1/GTF2H2/GTF2H3/CCNK/NUP214/CHMP6/NUPL2/POLR2B/TAF2/NUP155/PSMD1/APOBEC3G/TAF9/AAAS/GTF2A1/LCK/PSMB5/CD4/VPS37C/TAF7/GTF2H4/AP2B1/RNGTT/TAF4B/TAF13/NUP188/AP1M1/NUP205/CD247/CHMP4A</t>
-  </si>
-  <si>
-    <t>RHEB/PSMC3/PSME2/PSMC4/UBA52/PSMA4/JUN/UBB/PSMA7/PSMB3/PSMD11/SALL4/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/EZH2/CSNK2B/PSMF1/CHD4/PSMB1/PHC1/PSMA1/MLST8/AKT2/MTA3/PSMA3/CSNK2A2/KDM1A/LAMTOR1/MKRN1/PSMD8/PSMC2/PSME3/RING1/LAMTOR5/PSMD12/RNF2/PSME4/MOV10/SNAI2/PSMB4/HDAC1/PSMB7/RBBP7/RNF146/HDAC7/PSMD6/PML/AGO1/MAPK3/PSMD4/STUB1/LAMTOR4/WWP2/RRAGC/CSNK2A1/PSMA6/PSMD10/TRIM27/LAMTOR2/OTUD3/GATAD2A/PTEN/PHC2/ATN1/EED/REST/AKT3/PSMA2/MAF1/ATF2/PSMD2/RRAGA/SNAI1/GATAD2B/HDAC5/MECOM/PSMD13/HDAC3/USP13/SCMH1/MTA1/MTOR/PSMB10/XIAP/AKT1/HDAC2/USP7/NEDD4/MAPK1/RPTOR/SLC38A9/UBC/MTA2/RRAGD/PSMC1/RRAGB/CBX8/SUZ12/TNRC6B/PSMD9/PSMA5/LAMTOR3/TNRC6A/PSMD5/CBX2/AGO3/TNKS2/PSMC6/AGO2/PSMD3/TNRC6C/PREX2/CBX4/PHC3/EGR1/RBBP4/PSMD1/AGO4/BMI1/TNKS/PSMB5/CHD3/FRK/PPARG/TP53/RCOR1/CBX6/MBD3</t>
-  </si>
-  <si>
-    <t>APOA1/APOA2/FDFT1/ANKRD1/CTGF/HMGCS2/FADS1/CCNC/PLIN2/MED19/NCOR1/MED28/ACADM/RORA/MED27/TIAM2/MED17/MED13L/MED22/MED25/TXNRD1/TEAD1/TGS1/ARNT2/WWTR1/FHL2/NFYC/RXRA/ABCA1/TRIB3/G0S2/FABP1/TEAD4/CHD9/MED4/TBL1XR1/TNFRSF21/ESRRA/MED10/CDK19/MED24/CREBBP/MED8/MED31/TEAD3/CARM1/SREBF2/EP300/NRF1/HDAC3/HMGCS1/MED30/SLC27A1/PPARA/TEAD2/NCOA2/MED15/CPT2/AGT/HMGCR/MED18/TBL1X/MED1/MED6/MED26/AHRR/MED21/SP1/MED9/MED29/ANGPTL4/ALAS1/NR1D1/MTF1/THRAP3/SMARCD3/PPARGC1B/NCOR2/ABCB4/CPT1A/NCOA6/MED7/RGL1/PPARGC1A/CLOCK/SIN3A/ARNTL/MED20/CDK8/YAP1/NCOA3/MED14/SIN3B/NFYB/MED13/MED16/ARNT/SREBF1/CD36/CYP4A11/MED11/GLIPR1/NCOA1/ACOX1/MED12/ME1/CYP1A1/GRHL1/PPARG/PEX11A/ACSL1/MED23/FAM120B/HELZ2/AHR/NFYA</t>
-  </si>
-  <si>
-    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/CCNB1/TUBG1/CDK1/DYNLL1/PLK1/CCNB2/UBA52/DCTN3/UBB/AURKA/AKAP9/PPP2R1A/ACTR1A/CKAP5/HAUS8/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/ODF2/OFD1/PPP1CB/CEP78/CEP41/NEK2/CEP290/RAB8A/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/CSNK1E/TUBA4A/OPTN/SKP1/HAUS7/PPP1R12A/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/PAFAH1B1/HAUS5/PPP1R12B/CCP110/CEP135/FBXW11/CETN2/DCTN1/SSNA1/BTRC/CSNK1D/UBC/DYNC1H1/CEP72/CEP76/AJUBA/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/BORA/PRKACA/HAUS3/CEP192/CEP63/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/CLASP1/YWHAG/CEP57/CUL1</t>
-  </si>
-  <si>
-    <t>HSP90AA1/EEF1A1/RPA3/HSP90AB1/HSPA1A/HSPA8/HSPA2/RPA2/ST13/VCP/FKBP4/HSBP1/HSF1/TPR/HSPA5/PTGES3/RPA1/NUP62/HSPA1B/BAG3/MLST8/CAMK2D/NUP37/NUP35/DNAJB1/NUP43/HIKESHI/HSPH1/DNAJB6/NUP50/MAPK3/RAE1/CAMK2A/NUP153/POM121/YWHAE/NUP107/CAMK2G/HSPA14/AKT1S1/NUP88/RANBP2/BAG4/HSPA4/CREBBP/BAG2/NUP133/HDAC6/NDC1/EP300/DNAJC7/MTOR/NUP93/NUP58/ATR/BAG5/CRYAB/NUP85/ATM/HSPA9/MAPK1/RPTOR/HSPB8/GSK3B/NUP210/BAG1/NUP54/HSPA12B/NUP160/SEH1L/NUP98/MAPKAPK2/DNAJC2/CAMK2B/HSPA12A/NUP214/NUPL2/HSPA4L/NUP155/HSPA13/SIRT1/AAAS/HSPA1L/NUP188/NUP205/CCAR2</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/PTTG1/TUBA1A/MAD2L1/CENPF/AURKB/TUBB4B/UBE2C/PPP1CC/ANAPC11/CENPM/CDC20/CENPA/CENPN/PSMC3/DYNLL1/SPC25/PLK1/RAD21/SMC1A/PSME2/CENPU/PSMC4/SGO1/UBA52/PSMA4/TUBB2A/NUDC/UBB/PSMA7/SGO2/CENPH/ANAPC16/CENPK/PSMB3/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/PSMD11/NDC80/CDCA5/PSMB2/PSMD7/CKAP5/SPC24/PSMD14/CENPS/PSMC5/PSME1/PSMB6/SPDL1/SMC3/PSMF1/ITGB3BP/PPP2CB/TUBB2B/ZWILCH/PSMB1/CENPQ/PPP2R5C/MAPRE1/ANAPC7/DYNC1LI1/RANGAP1/CDCA8/PSMA1/STAG2/CENPO/NUP37/PSMA3/RCC2/CENPL/BUB1/CENPC/PSMD8/PSMC2/PSME3/DYNLL2/KNL1/PPP2CA/PSMD12/CENPP/PSME4/NUP43/CENPT/PSMB4/PMF1/HDAC8/PSMB7/ANAPC5/PDS5B/DYNC1LI2/ESPL1/CDC26/PSMD6/XPO1/KIF2A/PPP2R1B/PSMD4/TUBA4A/CDC16/TAOK1/BUB1B/TUBA1C/PPP2R5A/PSMA6/NDEL1/PSMD10/NDE1/ANAPC1/ERCC6L/NUP107/WAPL/CDC27/INCENP/PAFAH1B1/RANBP2/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/STAG1/NUP133/PSMD13/ZW10/DYNC1I1/DSN1/PSMB10/EHHADH/NUP85/PPP2R5E/UBC/ANAPC15/DYNC1H1/PDS5A/PSMC1/SKA1/PSMD9/PMF1-BGLAP/PSMA5/NUP160/PSMD5/SEH1L/PPP2R5D/ANAPC2/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/MIS12/PSMC6/PSMD3/TUBB8/B9D2/PSMD1/ANAPC4/PPP2R5B/TUBB4A/PSMB5/AHCTF1/KNTC1/KIF18A/MAD1L1/CLASP1/UBE2D1</t>
-  </si>
-  <si>
-    <t>BIRC5/ZWINT/MAD2L1/CENPF/AURKB/PPP1CC/CENPM/CDC20/CENPA/CENPN/DYNLL1/SPC25/PLK1/CENPU/SGO1/NUDC/SGO2/CENPH/CENPK/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/NDC80/CKAP5/SPC24/CENPS/SPDL1/ITGB3BP/PPP2CB/ZWILCH/CENPQ/PPP2R5C/MAPRE1/DYNC1LI1/RANGAP1/CDCA8/CENPO/NUP37/RCC2/CENPL/BUB1/CENPC/DYNLL2/KNL1/PPP2CA/CENPP/NUP43/CENPT/PMF1/DYNC1LI2/XPO1/KIF2A/PPP2R1B/TAOK1/BUB1B/PPP2R5A/NDEL1/NDE1/ERCC6L/NUP107/INCENP/PAFAH1B1/RANBP2/NUP133/ZW10/DYNC1I1/DSN1/NUP85/PPP2R5E/DYNC1H1/SKA1/PMF1-BGLAP/NUP160/SEH1L/PPP2R5D/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/MIS12/B9D2/PPP2R5B/AHCTF1/KNTC1/KIF18A/MAD1L1/CLASP1</t>
-  </si>
-  <si>
-    <t>CALM1/TKT/VCAN/CALM2/LUM/AKR1B1/PGP/MDH2/AKR1A1/PFKP/UBA52/PGLS/UBB/PGM1/GAPDH/B4GALT4/PPP2R1A/SLC37A4/PGAM1/HMMR/HEXB/HK1/GNPDA1/TPR/B4GALT2/GPC3/TALDO1/PPP2CB/ALDOA/SLC2A1/NUP62/HAS2/NUP37/NUP35/DCXR/SDC2/GLYCTK/GALK1/PAPSS1/EXT2/CALM3/PPP2CA/B3GNT2/AGRN/PFKM/ENO2/SLC35B2/BGN/ENO3/NUP43/GPC6/B4GALT3/IDS/HYAL2/MDH1/PGD/PPP1R3C/DERA/NUP50/CHST13/PPP2R1B/TKFC/GUSB/PHKB/SLC25A1/RAE1/CD44/CHST12/CHPF/HSPG2/CHPF2/NUP153/POM121/PFKFB3/PCK2/SLC35D2/GAA/NUP107/RBKS/PGAM2/NDST1/GALT/B4GALT1/SLC25A13/GPC2/GPC4/GLB1/DSE/KHK/HK2/MANBA/NUP88/CHST9/EXT1/AGL/RANBP2/PGM2L1/PRPS1/GALE/SLC37A1/GPI/UGP2/GYG2/SDC4/PRPS2/NUP133/GOT1/FBP1/GNPDA2/DSEL/NDC1/SLC25A11/BPGM/HS3ST3A1/GLCE/CHST3/PGK1/HEXA/MAN2B2/ST3GAL4/NUP93/NUP58/SLC25A10/GCK/HYAL3/RPE/ST3GAL6/GYG1/NUP85/HS6ST1/GYS1/CHP1/B4GAT1/CHST11/UBC/HS3ST5/GNS/PFKL/CSGALNACT2/ALDOC/SORD/CHST7/XYLB/PHKA1/NUP210/NUP54/ENO1/PKM/PHKG1/B4GALT6/HS2ST1/NUP160/NAGLU/SLC26A2/GALNS/SLC35B3/B3GAT2/SEH1L/SLC26A1/HYAL1/PGM2/TPI1/PYGL/PPP2R5D/ST3GAL1/PYGB/CHST1/FBP2/SLC9A1/B3GNT7/HS6ST2/UST/NUP98/B4GALT5/B3GAT3/MAN2B1/CHSY1/PRKACA/ABCC5/PFKFB2/GLB1L/PYGM/PC/G6PC3/SGSH/PFKFB4/CRYL1/ST3GAL2/NUP214/PRKACB/NUPL2/SLC25A12/B3GNT4/HAS1/HS6ST3/CSGALNACT1/CHST2/CHST15/ST3GAL3/NUP155/HS3ST1/SHPK/HPSE2/CSPG5/HS3ST3B1/XYLT1/AAAS/PHKA2/ADPGK/GBE1/GPC1/B3GALT6/B3GAT1/NDST2/HAS3/G6PD/PAPSS2/SDC1/MAN2C1/EPM2A/GCKR/PFKFB1/CSPG4/CHST6/BCAN/ALDH1A1/SLC37A2/XYLT2/RPEL1/CEMIP/HS3ST4/PRELP/IDUA/SDC3/FMOD/HGSNAT/NUP188/B4GALT7/PHKG2/NUP205/ARSB/CHST14/RPIA/GOT2</t>
-  </si>
-  <si>
-    <t>H2AFZ/TUBA1B/TUBB6/TUBA1A/HIST1H4C/HSP90AA1/IGFBP7/DNAJA1/TUBB4B/UBE2C/H2AFV/ANAPC11/EEF1A1/ID1/RPA3/H1F0/PSMC3/DYNLL1/HSP90AB1/TERF1/H2AFX/STIP1/PSME2/HSPA1A/PRDX6/PSMC4/CCNA2/UBA52/PSMA4/TUBB2A/HSPA8/JUN/DCTN3/HSPA2/UBB/PSMA7/LMNB1/CDK6/ANAPC16/PSMB3/RPA2/CDK4/ST13/ACTR1A/RBX1/VCP/ATOX1/CYBA/PSMD11/CYCS/PRDX3/PSMB2/PSMD7/TFDP1/HMGA2/HIST1H1D/TXN2/PSMD14/HMGA1/PSMC5/FKBP4/PSME1/PSMB6/PRDX1/EZH2/HIGD1A/H2AFJ/HSBP1/HSF1/TPR/HSPA5/PSMF1/PTGES3/RPA1/P4HB/TFDP2/TUBB2B/EGLN2/NUP62/DCTN2/CAPZA1/PSMB1/TXN/HIST1H1B/MAP2K7/ANAPC7/DYNC1LI1/HSPA1B/MAPK10/PHC1/BAG3/PSMA1/MLST8/CAMK2D/NUP37/PSMA3/DCTN5/NUP35/H3F3A/EP400/MAP2K3/PSMD8/PSMC2/PSME3/SOD1/UBE2D2/RING1/ACD/DNAJB1/NUDT2/HIF3A/TXNRD1/DYNLL2/PSMD12/RNF2/PSME4/NUP43/MOV10/PSMB4/HIST1H1E/CCS/HIKESHI/H3F3B/CAPZA2/PSMB7/HIST1H1C/RBBP7/ANAPC5/DYNC1LI2/CDC26/EHMT2/HSPH1/WTIP/MAP2K6/DNAJB6/NUP50/PSMD6/UBE2D3/GPX7/CDKN2D/TNIK/AGO1/CABIN1/MAPK3/PSMD4/TUBA4A/CDC16/CDKN1B/GPX1/E2F1/RAE1/CAMK2A/FOS/TUBA1C/TINF2/PSMA6/VHL/SOD3/NUP153/PSMD10/POM121/HIST1H2AC/MAPK7/ANAPC1/TXNRD2/YWHAE/NUP107/HIF1AN/PRDX2/CAMK2G/HIST2H2AC/PHC2/CDC27/EGLN1/STAT3/ERF/HSPA14/AKT1S1/FKBP5/NUP88/RANBP2/BAG4/EED/HSPA4/GPX3/DCTN4/CREBBP/PRDX5/PSMA2/VEGFA/ETS1/ANAPC10/UBE2E1/MAPKAPK5/BAG2/CDC23/PSMD2/HIST1H2BG/RAD50/NBN/NUP133/HDAC6/FZR1/NDC1/EP300/PSMD13/CDK2/HIF1A/UBN1/HIST2H2BE/GSTP1/ERO1A/DNAJC7/DYNC1I1/SCMH1/MTOR/RB1/MDM4/CDKN2B/MAP4K4/PSMB10/NUP93/EHHADH/NUP58/DNAJA2/KDM6B/ATR/EGLN3/GPX8/DCTN1/BAG5/CRYAB/NUP85/ATM/HIST1H3B/CDKN1A/HSPA9/MAPK1/RPTOR/UBC/TERF2IP/ETS2/HIST1H2BH/ANAPC15/MAPK9/DYNC1H1/HSPB8/KAT5/PSMC1/ASF1A/LIMD1/CBX8/SUZ12/HIST1H3F/NR3C1/GSK3B/NUP210/BAG1/NUP54/MAPK14/HSPA12B/TNRC6B/PSMD9/HIST1H2BD/SP1/PSMA5/HIST1H3A/TNRC6A/GSR/CITED2/NUP160/HIST1H4J/PSMD5/CBX2/SEH1L/TERF2/AJUBA/DNAJA4/MAPKAPK3/ANAPC2/NUP98/AGO3/MAPKAPK2/DYNC1I2/HIST1H2AB/NFKB1/CEBPB/HIRA/DNAJC2/CAMK2B/CA9/PSMC6/CCNE1/PSMD3/MRE11/EPO/HSPA12A/AR/MINK1/RELA/NUP214/SOD2/TNRC6C/HIST1H4H/TUBB8/CBX4/EPAS1/PHC3/NUPL2/MDM2/HSPA4L/RBBP4/MAPK11/HIST1H3G/E2F2/CAPZB/NUP155/PSMD1/HSPA13/HIST1H2BN/CUL2/AGO4/ARNT/ANAPC4/SIRT1/HIST1H3E/HIST1H3H/AAAS/BMI1/MAP2K4/HIST1H4E/HIST1H2BL/PGR/TUBB4A/PSMB5/CCNE2/HIST1H2BC/HIST1H2AE/MAPK8/POT1/GPX2/HIST1H2BF/NCF1/HIST4H4/ACTR10/CDKN2A/MAP3K5/ATP7A/HIST1H4I/CCNA1/IL6/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST1H2BE/HSPA1L/NOX4/HIST1H2BJ/HIST1H2BK/TP53/CAT/NUP188/EHMT1/NUP205/DCTN6/HIST1H3I/CCAR2/CBX6/E2F3/UBE2D1</t>
-  </si>
-  <si>
-    <t>NSMCE3/RAD21/SMC1A/SUMO1/PARP1/SUMO3/BLM/TDG/SMC3/TPR/RPA1/NUP62/PCGF2/PHC1/STAG2/NUP37/NUP35/BRCA1/XRCC4/RNF168/SMC5/RING1/RNF2/NUP43/NSMCE4A/SUMO2/HDAC7/NUP50/MDC1/PIAS2/PML/SMC6/UBE2I/RAE1/NUP153/POM121/NUP107/PHC2/HERC2/NUP88/RANBP2/STAG1/NUP133/NSMCE1/NDC1/SCMH1/NUP93/CETN2/NUP58/NUP85/PIAS4/CBX8/NUP210/NUP54/NUP160/CBX2/SEH1L/XPC/RAD52/NUP98/NSMCE2/SP100/NUP214/CBX4/PHC3/NUPL2/NUP155/WRN/AAAS/BMI1/EID3/CDKN2A/NUP188/PIAS1/NUP205</t>
-  </si>
-  <si>
-    <t>APOA1/APOA2/FDFT1/ANKRD1/CTGF/HMGCS2/FADS1/CCNC/PLIN2/MED19/NCOR1/MED28/ACADM/RORA/MED27/TIAM2/MED17/MED13L/MED22/MED25/TXNRD1/TEAD1/TGS1/ARNT2/WWTR1/FHL2/NFYC/RXRA/ABCA1/TRIB3/G0S2/FABP1/TEAD4/CHD9/MED4/TBL1XR1/TNFRSF21/ESRRA/MED10/CDK19/MED24/CREBBP/MED8/MED31/TEAD3/CARM1/SREBF2/EP300/NRF1/HDAC3/HMGCS1/MED30/SLC27A1/PPARA/TEAD2/NCOA2/MED15/CPT2/AGT/HMGCR/MED18/TBL1X/MED1/MED6/MED26/AHRR/MED21/SP1/MED9/MED29/ANGPTL4/ALAS1/NR1D1/MTF1/THRAP3/SMARCD3/PPARGC1B/ABCB4/CPT1A/NCOA6/MED7/RGL1/PPARGC1A/CLOCK/ARNTL/MED20/CDK8/YAP1/NCOA3/MED14/NFYB/MED13/MED16/ARNT/SREBF1/CD36/CYP4A11/MED11/GLIPR1/NCOA1/ACOX1/MED12/ME1/CYP1A1/GRHL1/PPARG/PEX11A/ACSL1/MED23/FAM120B/HELZ2/AHR/NFYA</t>
-  </si>
-  <si>
-    <t>DLK1/UBA52/JUN/UBB/CCNC/RBX1/MYC/NCOR1/CCND1/TFDP1/TLE1/RBPJ/SNW1/JAG1/TFDP2/MDK/NOTCH1/NCSTN/CREB1/TMED2/TLE3/MOV10/HDAC1/HDAC8/ARRB2/MAML3/HDAC7/ATP2A2/TLE4/AGO1/E2F1/SKP1/TLE2/RFNG/TBL1XR1/ITCH/B4GALT1/MIB1/DLL1/CREBBP/ARRB1/HES1/POFUT1/LFNG/ADAM17/NUMB/HDAC10/HDAC5/HDAC6/MIB2/EP300/HIF1A/HDAC3/NOTCH3/NOTCH2/FURIN/ST3GAL4/PSEN1/FBXW7/SEL1L/RAB6A/ST3GAL6/HDAC2/MAML1/UBC/APH1B/POGLUT1/TBL1X/JAG2/TNRC6B/PSENEN/HEY2/TNRC6A/APH1A/DLL4/ATP2A3/HEYL/PSEN2/DTX4/HDAC4/AGO3/NCOR2/ADAM10/HDAC11/DTX2/AGO2/ATP2A1/TNRC6C/CDK8/HEY1/NOTCH4/ST3GAL3/KAT2A/AGO4/MFNG/CNTN1/DTX1/MAMLD1/KAT2B/TP53/NEURL1B/NEURL1/HDAC9/MAML2/E2F3/CUL1</t>
-  </si>
-  <si>
-    <t>BIRC5/PSMC3/COMMD6/PSME2/PSMC4/UBA52/WSB1/PSMA4/UBB/COMMD1/PSMA7/PSMB3/RNF7/COPS5/RBX1/NAE1/DDB1/COPS3/PSMD11/PSMB2/PSMD7/FBXO2/PSMD14/SKP2/PSMC5/PSME1/PSMB6/COPS8/COMMD4/COMMD10/LRR1/PSMF1/COMMD9/GPS1/ZBTB16/PSMB1/FBXO6/DDA1/PSMA1/ERCC8/PSMA3/CCNF/COMMD7/COMMD2/COPS2/FBXO7/COMMD8/PSMD8/PSMC2/FBXO9/PSME3/UBE2D2/HIF3A/PSMD12/UCHL3/PSME4/SPSB3/FBXO22/PSMB4/FBXW2/UBE2F/UBA3/PSMB7/RBBP7/CUL5/FBXO32/LRRC41/CUL7/PSMD6/UBE2D3/SPSB4/NUB1/PSMD4/COPS6/KLHL42/DTL/FBXW9/SKP1/UBE2M/COMMD5/PSMA6/VHL/PSMD10/CUL4B/FBXO44/DCAF11/DCAF4/COMMD3/FBXL19/WSB2/SOCS3/RFWD2/WDR5/SPSB1/TULP4/KLHL9/UBXN7/DCUN1D2/PSMA2/FBXL12/PSMD2/KLHL21/BTBD1/FBXL3/DCAF7/CAND1/FEM1C/FBXO11/PSMD13/KLHL25/HIF1A/LMO7/SENP8/FBXO17/FBXL5/DCUN1D1/COPS4/PSMB10/FBXW11/SOCS2/SPSB2/ASB1/ASB6/FBXW7/FEM1A/FBXW8/WDTC1/DCAF16/FBXL15/FBXW4/NEURL2/BTRC/DCAF8/DCAF5/DCUN1D5/UBC/KEAP1/CUL3/DCAF10/NEDD8/PSMC1/DCUN1D4/FBXL13/CISH/DDB2/FBXO10/PSMD9/FBXL4/PSMA5/KLHL2/DCAF13/FBXO30/PSMD5/KLHL20/KBTBD7/FBXL7/BTBD6/FBXO31/KLHL5/ANKRD9/CCDC8/FBXO41/KBTBD8/GAN/PSMC6/CUL4A/PSMD3/COPS7B/EPAS1/CCDC22/OBSL1/KLHL3/SOCS5/DCAF6/FBXW5/DCUN1D3/PSMD1/CUL2/PUM2/ASB7/COPS7A/SOCS6/ASB3/FEM1B/ASB15/PSMB5/KCTD7/KCTD6/FBXL20/RBBP5/FBXO15/ASB9/ASB2/FBXL16/KLHL11/FBXL22/KLHL22/ASB8/KLHL41/FBXL14/KLHL13/ASB13/FBXO27/CUL9/KBTBD6/FBXO4/FBXW12/DCAF17/UBE2D1/FBXO21/CUL1</t>
-  </si>
-  <si>
-    <t>SRSF2/SRSF7/SLBP/DDX39A/NXT1/SRSF5/NCBP2/MAGOHB/RBM8A/SRSF4/SRSF3/EIF4E/TPR/MAGOH/NUP62/RNPS1/CPSF2/NUP37/CPSF4/NUP35/CASC3/NUP43/SRSF11/THOC7/NUP50/RAE1/NCBP1/SLU7/UPF3B/NUP153/POM121/SRSF1/NUP107/NUP88/RANBP2/CPSF3/THOC5/ALYREF/EIF4A3/WDR33/NUP133/NXF1/SRRM1/NDC1/U2AF1/SARNP/NUP93/NUP58/U2AF1L5/NUP85/ZC3H11A/THOC2/DHX38/CDC40/NUP210/NUP54/CHTOP/SYMPK/NUP160/POLDIP3/SEH1L/CPSF1/FIP1L1/FYTTD1/NUP98/THOC6/SRSF9/THOC3/NUP214/NUPL2/U2AF2/NUP155/THOC1/AAAS/GLE1/U2AF1L4/NXF2B/NUP188/SRSF6/NUP205/DDX39B</t>
-  </si>
-  <si>
-    <t>GNG11/CALM1/CALM2/GNG5/PSMC3/GNB1/PFN1/CLTB/PSME2/AP2S1/RAC1/PSMC4/UBA52/PSMA4/UBB/PSMA7/GNB2/RAC3/PSMB3/PSMD11/AP2A1/PSMB2/PSMD7/FZD5/PSMD14/PSMC5/PSME1/PSMB6/ROR1/GNB5/CLTA/AP2M1/GNB4/PSMF1/FZD7/PSMB1/GNG12/PSMA1/FZD2/PSMA3/TCF7L2/PSMD8/PSMC2/PSME3/LEF1/CALM3/GNB3/PSMD12/PSME4/MOV10/PSMB4/RHOA/PSMB7/ARRB2/PSMD6/AGO1/CLTC/PSMD4/FZD4/AP2A2/CAMK2A/PSMA6/PSMD10/CTNNB1/MAP3K7/WNT5A/PPP3CA/PSMA2/PSMD2/PLCB1/TCF7/WNT5B/PSMD13/TCF7L1/ROR2/PSMB10/DVL3/DVL2/PRKG1/PLCB2/PDE6B/DVL1/PPP3CB/RAC2/PRICKLE1/UBC/NFATC1/SMURF2/PSMC1/NLK/GNG4/VANGL2/TNRC6B/PSMD9/SMURF1/ITPR3/PSMA5/TNRC6A/PSMD5/RYK/SCRIB/FZD6/GNG7/PDE6G/ITPR2/AGO3/PRKCA/PARD6A/PLCB3/DAAM1/PSMC6/AGO2/GNAO1/PSMD3/TNRC6C/FZD3/FZD8/PSMD1/AGO4/WNT11/PDE6A/GNGT1/GNG2/PPP3R1/GNG3/PSMB5/GNG10/AP2B1/PRKG2/GNG13/GNG8/PRKCG/ITPR1/PRKCB/FZD1</t>
-  </si>
-  <si>
-    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/DYNLL1/PLK1/TPX2/DCTN3/AURKA/AKAP9/PPP2R1A/ACTR1A/CKAP5/HMMR/HAUS8/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/ODF2/OFD1/CEP78/CEP41/NEK2/CEP290/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/CSNK1E/TUBA4A/HAUS7/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/PAFAH1B1/HAUS5/CCP110/CEP135/CETN2/DCTN1/SSNA1/CSNK1D/DYNC1H1/CEP72/CEP76/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/PRKACA/HAUS3/CEP192/CEP63/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>FGFR1/RHEB/PSMC3/PSME2/FGFR4/PSMC4/UBA52/PSMA4/JUN/UBB/PSMA7/PSMB3/IER3/PPP2R1A/PSMD11/ERBB4/SALL4/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/EZH2/PDGFRA/CSNK2B/PSMF1/PDGFRB/PPP2CB/CHD4/PSMB1/PPP2R5C/FYN/PHC1/PSMA1/MLST8/AKT2/MTA3/PSMA3/CSNK2A2/GSK3A/MAPKAP1/BAD/ERBB3/KDM1A/LAMTOR1/MKRN1/PSMD8/PSMC2/PSME3/PRR5/RING1/CREB1/LAMTOR5/PPP2CA/PSMD12/RNF2/PSME4/MOV10/SNAI2/PSMB4/HDAC1/PSMB7/PIK3R1/RBBP7/RNF146/GRB2/HDAC7/TRIB3/PSMD6/PML/SRC/AGO1/PPP2R1B/MAPK3/PSMD4/STUB1/LAMTOR4/CDKN1B/WWP2/RRAGC/CSNK2A1/PPP2R5A/PSMA6/PSMD10/FGFR2/TRIM27/LAMTOR2/OTUD3/GATAD2A/PTEN/PHC2/AKT1S1/ATN1/ERBB2/EED/REST/PIP4K2B/AKT3/PSMA2/MYD88/MAF1/ATF2/PSMD2/RRAGA/SNAI1/GATAD2B/HDAC5/MECOM/PSMD13/NR4A1/HDAC3/PIP5K1C/USP13/HBEGF/SCMH1/PIK3CD/MTA1/MTOR/PDGFA/PSMB10/CASP9/PTPN11/XIAP/FGF7/AKT1/HDAC2/RICTOR/USP7/NEDD4/PPP2R5E/CDKN1A/PIP4K2A/PDPK1/KIT/NRG1/MAPK1/RPTOR/SLC38A9/NRG2/PIP4K2C/UBC/FGF1/PIK3R3/CHUK/MTA2/RRAGD/PSMC1/RRAGB/CBX8/SUZ12/GSK3B/TNRC6B/PIK3CB/PSMD9/FGFR3/PSMA5/LAMTOR3/TNRC6A/FGF19/IRAK4/FGF10/PSMD5/CBX2/IRS1/INSR/FGF17/PPP2R5D/TSC2/PIK3R2/AGO3/FGF8/TNKS2/PSMC6/AGO2/PIK3CA/PSMD3/TNRC6C/PREX2/FOXO1/CBX4/PHC3/EGR1/MDM2/TRAF6/FGF22/RBBP4/IL1RAP/KITLG/PSMD1/THEM4/AGO4/FRS2/KLB/NRG4/CD19/BMI1/TNKS/IRS2/PPP2R5B/LCK/EGFR/PSMB5/CHD3/FGF23/PHLPP2/GAB1/FOXO3/IRAK1/FRK/FGF18/PIK3AP1/FGF9/PDGFB/HGF/PPARG/EGF/FOXO4/TP53/RCOR1/PHLPP1/FGF2/MET/CBX6/PIP5K1B/MBD3/PIP5K1A</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/MAD2L1/CENPF/RHOC/AURKB/TUBB4B/PPP1CC/ACTB/CENPM/CDC20/CENPA/CENPN/DYNLL1/SPC25/PLK1/PFN1/CENPU/RAC1/ITGB1/DIAPH3/SGO1/TUBB2A/NUDC/SGO2/CENPH/CENPK/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/NDC80/CKAP5/SPC24/CENPS/SPDL1/ITGB3BP/CDC42/PPP2CB/RHOB/TUBB2B/ZWILCH/CENPQ/PPP2R5C/MAPRE1/DYNC1LI1/RANGAP1/CDCA8/CENPO/NUP37/SRF/ACTG1/RCC2/CENPL/BUB1/CENPC/PFN2/DYNLL2/KNL1/PPP2CA/CENPP/NUP43/CENPT/RHOA/PMF1/DYNC1LI2/SRGAP2/XPO1/SRC/KIF2A/PPP2R1B/TUBA4A/TAOK1/BUB1B/TUBA1C/PPP2R5A/NDEL1/NDE1/ERCC6L/NUP107/INCENP/PAFAH1B1/RANBP2/SCAI/DIAPH1/NUP133/FMNL3/ZW10/DYNC1I1/DSN1/EHHADH/DVL3/DVL2/RHOD/NUP85/PPP2R5E/DVL1/DYNC1H1/SKA1/PMF1-BGLAP/DIAPH2/NUP160/SEH1L/PPP2R5D/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/MIS12/DAAM1/TUBB8/B9D2/FMNL2/PPP2R5B/TUBB4A/AHCTF1/EVL/KNTC1/KIF18A/MKL1/FMNL1/MAD1L1/CLASP1</t>
-  </si>
-  <si>
-    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/DYNLL1/PLK1/DCTN3/AKAP9/PPP2R1A/ACTR1A/CKAP5/HAUS8/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/ODF2/OFD1/CEP78/CEP41/NEK2/CEP290/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/CSNK1E/TUBA4A/HAUS7/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/PAFAH1B1/HAUS5/CCP110/CEP135/CETN2/DCTN1/SSNA1/CSNK1D/DYNC1H1/CEP72/CEP76/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/PRKACA/HAUS3/CEP192/CEP63/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/POLR2L/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/POLR2F/COPS5/RBX1/DDB1/POLR2J/COPS3/TCEA1/LIG1/POLD3/POLR2K/POLE/COPS8/PRPF19/ERCC1/POLR2A/RFC5/RPA1/POLD2/GPS1/HMGN1/RFC1/POLD1/ERCC8/RFC3/COPS2/POLR2D/POLR2I/ZNF830/POLE2/POLE3/ERCC2/COPS6/MNAT1/PPIE/POLK/POLR2G/CUL4B/XPA/ERCC3/POLR2E/ISY1/GTF2H5/GTF2H1/XAB2/EP300/POLR2H/CDK7/ELL/COPS4/AQR/ERCC5/CCNH/USP7/UBC/LIG3/UVSSA/ERCC4/POLD4/POLR2C/CUL4A/GTF2H2/GTF2H3/COPS7B/POLR2B/ERCC6/COPS7A/GTF2H4/XRCC1</t>
-  </si>
-  <si>
-    <t>ACTB/ARPC2/ARPC5/CLTB/AP2S1/UBA52/DAB2/RAB5C/HSPA8/UBB/COPS5/VAMP8/COPS3/AP2A1/ACTR2/ARPC1A/NECAP2/UBQLN1/COPS8/CLTA/AP2M1/GPS1/ACTR3/SH3KBP1/LDLR/ACTG1/COPS2/TOR1A/PICALM/CTTN/AAK1/TGOLN2/BIN1/APOB/GRB2/UBQLN2/ARRB2/SLC2A8/EPS15/VAMP3/CLTC/COPS6/FZD4/AP2A2/FNBP1L/SH3GL1/PACSIN2/WNT5A/ARFGAP1/REPS1/SH3GL3/ARPC4/ITSN1/OCRL/PACSIN3/HIP1/ARRB1/SNX18/RAB5B/SYNJ1/PIP5K1C/CBL/COPS4/SGIP1/FCHO2/DVL2/DNM2/FNBP1/SH3GL2/PACSIN1/UBC/SNX9/SCARB2/VAMP7/WASL/HGS/NEDD8/SYT11/ITSN2/RAB5A/CLTCL1/DNM1/LRP2/STON2/FCHO1/AVP/EPN1/GAPVD1/IGF2R/SLC18A3/ARPC3/PIK3C2A/SYT2/AMPH/VAMP2/TF/VAMP4/GRK2/DNAJC6/CHRM2/STON1/COPS7B/EPS15L1/STAM2/TFRC/TOR1B/SYT9/HIP1R/STAM/COPS7A/TRIP10/ARF6/EGFR/CD4/AGFG1/NECAP1/GAK/SYT1/REPS2/AP2B1/SYNJ2/LDLRAP1/EPN2/ADRB2/CFTR/KIAA0319/EGF/GRK3/M6PR</t>
-  </si>
-  <si>
-    <t>PMM1/NANS/GNPNAT1/ALG3/SRD5A3/DPM3/UAP1/MPDU1/ST6GAL1/DPAGT1/ST6GALNAC3/GMDS/FUOM/ALG2/MVD/DPM1/NANP/ST6GALNAC6/MPI/ALG5/AMDHD2/CTSA/GLB1/GFPT2/DOLPP1/DPM2/ALG8/NAGK/ST3GAL4/ALG1/GMPPB/PGM3/RFT1/GMPPA/ST3GAL6/ST8SIA1/TSTA3/SLC35C1/ST6GALNAC4/PMM2/ALG6/DOLK/NUS1/NEU1/ALG14/ST3GAL1/ST6GALNAC5/RENBP/ST8SIA4/ALG11/ALG10B/ST3GAL2/GNE/ALG10/CMAS/FPGT/NEU4/ALG9/SLC17A5/ST3GAL3/ST8SIA6/ST6GALNAC2/ALG12/ST3GAL5/SLC35A1/ST8SIA2/ST8SIA3/NEU3/ALG13/NPL/NUDT14/ST6GAL2/ST6GALNAC1/FUK/DHDDS/GFPT1</t>
-  </si>
-  <si>
-    <t>CALM1/ATP5A1/CALM2/ATP5F1/ATP5C1/ATP5G2/IDH2/ATP5G3/ATP5B/APOO/ATP5I/CHCHD3/ATP5D/CYCS/MTX1/NCOR1/ATP5O/C19orf70/ATP5L/PRKAG1/ATP5J/PRKAB2/TFAM/HCFC1/GLUD2/CREB1/CALM3/ATP5J2/ATP5E/SAMM50/TGS1/RXRA/MEF2C/ATP5S/CHD9/CRTC1/GABPB1/DNAJC11/TBL1XR1/SSBP1/ESRRA/SIRT5/ACSS2/CREBBP/ATF2/CHCHD6/TFB1M/CARM1/PRKAA2/NRF1/HDAC3/SIRT3/MINOS1/PPARA/CRTC3/NCOA2/POLRMT/TMEM11/HSPA9/SIRT4/GLUD1/PPRC1/POLG2/CRTC2/TBL1X/MED1/IMMT/TFB2M/ATP5H/MAPK14/TWNK/ALAS1/GABPA/NR1D1/SMARCD3/ATP5G1/PPARGC1B/MTX2/NCOA6/PPARGC1A/SOD2/MTERF1/MEF2D/MAPK11/PRKAB1/NCOA1/CAMK4/APOOL/MAPK12/HELZ2/PRKAG2</t>
-  </si>
-  <si>
-    <t>RHOC/ARHGDIA/GDI2/RAC1/ARHGAP24/RAC3/AKAP13/CDC42/RHOB/ARHGEF39/RACGAP1/ARHGAP11A/TIAM2/BCR/ARHGAP18/GDI1/ARAP3/NET1/ARHGDIB/RHOA/ARHGAP35/VAV3/DEPDC1B/SRGAP2/RHOF/ARHGAP29/ARHGAP8/ARHGAP19/ECT2/ARHGEF2/ARHGAP45/RHOU/ARHGAP11B/ITSN1/OCRL/TRIO/RHOG/ARHGAP12/ARHGAP33/PREX1/ARHGAP21/CHN1/ARHGAP31/ARHGEF16/ARHGEF40/ARHGEF35/ARHGEF26/MYO9B/ARHGAP10/ARHGAP1/RHOQ/FGD1/MYO9A/FAM13B/FGD4/RHOD/ARHGAP42/KALRN/RAC2/FAM13A/DLC1/ARAP1/ARHGEF33/RHOBTB1/ARHGEF9/ARHGEF19/ARHGEF1/GNA13/SYDE2/ARHGAP26/RHOH/INPP5B/ARHGAP17/RALBP1/RHOBTB2/SYDE1/ARHGEF4/ARHGAP6/ARHGAP44/RHOT1/ARHGEF15/PIK3R2/ARHGEF12/ARHGEF7/OBSCN/SRGAP1/ARHGAP23/ARHGEF37/SOS2/ARHGAP32/TIAM1/CHN2/RHOJ/ARHGAP9/ARHGDIG/FGD3/ARHGEF5/SRGAP3/MCF2L/ARHGEF17/ARHGEF6/STARD8/OPHN1/GMIP/TRIP10/RHOT2/VAV2/ARHGAP39/DEPDC7/ARHGEF10L/ARHGAP4/ARHGAP5/STARD13/ARHGAP27/ARHGAP36/ARHGAP15/NGEF/ARHGEF3/ARHGEF11/RHOV/SOS1/ARHGAP25/PLEKHG5/ARHGEF10/PLEKHG2/ABR/ARAP2/ARHGAP22</t>
-  </si>
-  <si>
-    <t>BIRC5/HIST1H4C/AURKB/TOP2A/PCNA/SAE1/NSMCE3/RAD21/SMC1A/SUMO1/CBX5/HNRNPC/PARP1/AURKA/HNRNPK/TOP1/SUMO3/BLM/TDG/SMC3/TPR/RPA1/NUP62/PCGF2/RANGAP1/NOP58/CDCA8/PHC1/STAG2/NUP37/NUP35/BRCA1/XRCC4/TP53BP1/RNF168/SMC5/RING1/RNF2/NUP43/NSMCE4A/HDAC1/SUMO2/HDAC7/NUP50/MDC1/SP3/PIAS2/PML/SMC6/UBE2I/TOP2B/SENP5/RAE1/NUP153/POM121/NUP107/PHC2/HERC2/INCENP/SENP1/NUP88/RANBP2/MITF/STAG1/NUP133/NSMCE1/NDC1/SCMH1/MTA1/NUP93/CETN2/NUP58/UBA2/HDAC2/NUP85/PIAS4/CBX8/SUZ12/NUP210/NUP54/RWDD3/TFAP2A/NUP160/HIST1H4J/SATB1/CBX2/SEH1L/XPC/RAD52/HDAC4/NUP98/FOXL2/SATB2/NSMCE2/SP100/PIAS3/NUP214/HIST1H4H/CBX4/PHC3/NUPL2/ZBED1/MDM2/NUP155/WRN/AAAS/BMI1/SENP2/EID3/HIST1H4E/CHD3/HIST4H4/CDKN2A/TFAP2C/HIST1H4I/HIST1H4A/HIST1H4D/TP53/NUP188/L3MBTL2/PIAS1/NUP205</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/FXR1/AGTRAP/VCL/PEBP1/AKAP9/RAP1B/SND1/MAP2K1/ESRP1/MACF1/HRAS/KDM7A/ACTG1/LMNA/PAPSS1/RAF1/MARK3/RAP1A/TRIM24/ARRB2/SRC/MAPK3/ZC3HAV1/KIAA1549/SPRED2/QKI/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/PHB/MAP2K2/FGB/FGA/TRAK1/AGK/RASA4/CNKSR2/MAP3K11/MPRIP/SPRED1/DAB2IP/MAPK1/PAPD7/VWF/RASA1/BRAF/KRAS/ATG7/CNKSR1/AGGF1/KSR1/NF1/BRAP/SPRED3/CSK/RASA2/AP3B1/KSR2/FGG/RASA3/CLCN6/FAM114A2/APBB1IP/RASAL1/RASAL3/JAK2/RASAL2/SYNGAP1/BCL2L11/NRAS</t>
-  </si>
-  <si>
-    <t>PABPC1/EIF4B/EIF4A2/LSM4/LSM3/EXOSC8/EXOSC9/LSM5/EIF4E/DCP1A/LSM1/EXOSC3/CNOT1/EXOSC2/HBS1L/LSM2/EXOSC7/DCP1B/SKIV2L/CNOT10/DDX6/EIF4A1/WDR61/EXOSC6/ZCCHC11/CNOT11/NT5C3B/LSM7/DCP2/TNKS1BP1/EIF4A3/PAN2/TTC37/XRN1/PARN/PAIP1/CNOT2/CNOT6/CNOT9/EDC3/EXOSC4/EXOSC5/EIF4G1/CNOT6L/DIS3/CNOT8/DCPS/ZCCHC6/CNOT4/PATL1/CNOT3/EXOSC1/LSM6/EDC4/PAN3/CNOT7</t>
-  </si>
-  <si>
-    <t>AP1M2/FTH1/RAB5C/HSPA8/FTL/SNX5/VAMP8/ARF1/AP1S2/BLOC1S1/TPD52L1/CLTA/BLOC1S4/BLOC1S6/TPD52/PICALM/PUM1/TGOLN2/SORT1/AP1G1/CLINT1/CLTC/AP1B1/NAPA/AP1S1/OCRL/ARRB1/SH3D19/YIPF6/ACBD3/GOLGB1/DNM2/DTNBP1/SH3GL2/SNX2/SNX9/VAMP7/AP3S1/IGF2R/PIK3C2A/AP1S3/VAMP2/TBC1D8B/DNAJC6/AP4B1/AP4E1/TFRC/BLOC1S3/HIP1R/SNAPIN/TXNDC5/CPD/AP3B1/NECAP1/GAK/AP1M1</t>
-  </si>
-  <si>
-    <t>SRSF2/SNRPB/SRSF7/SLBP/DDX39A/SNRPG/SRSF5/PAPOLA/NCBP2/MAGOHB/RBM8A/PABPN1/SRSF4/SRSF3/MAGOH/RNPS1/CPSF2/CSTF3/CPSF4/CASC3/SRSF11/SNRPD3/LSM10/THOC7/SNRPF/NCBP1/SLU7/UPF3B/SRSF1/PCF11/CPSF3/THOC5/ALYREF/EIF4A3/WDR33/SNRPE/CSTF2/SRRM1/U2AF1/SARNP/CPSF7/U2AF1L5/ZC3H11A/THOC2/DHX38/CDC40/CSTF2T/CHTOP/SYMPK/POLDIP3/CPSF1/FIP1L1/FYTTD1/THOC6/LSM11/SRSF9/NUDT21/THOC3/U2AF2/THOC1/CSTF1/ZNF473/CLP1/U2AF1L4/SRSF6/DDX39B</t>
-  </si>
-  <si>
-    <t>FEN1/ORC6/PCNA/GINS2/MCM3/RPA3/PSMC3/GMNN/PSME2/MCM7/RFC4/POLE4/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/RPA2/RFC2/MCM4/PSMD11/PSMB2/PSMD7/LIG1/GINS4/POLD3/PSMD14/MCM2/PSMC5/PSME1/PSMB6/POLE/CDT1/CDC45/PSMF1/RFC5/POLA2/RPA1/POLD2/MCM10/GINS1/ORC4/PSMB1/RFC1/CDC6/PSMA1/POLD1/PSMA3/RFC3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/DBF4/POLE2/PSMD6/POLE3/PSMD4/CDKN1B/E2F1/PSMA6/PSMD10/POLA1/PSMA2/PSMD2/GINS3/FZR1/PSMD13/CDK2/RB1/PSMB10/CDC7/ORC2/CDKN1A/UBC/PSMC1/ORC5/PSMD9/PSMA5/PRIM1/POLD4/PSMD5/PRIM2/PSMC6/ORC1/PSMD3/RPA4/E2F2/PSMD1/DNA2/PSMB5/ORC3/CCNA1/E2F3</t>
-  </si>
-  <si>
-    <t>FDPS/FDFT1/TM7SF2/IDI1/RAN/FASN/SQLE/GGPS1/KPNB1/INSIG1/MVK/TGS1/SC5D/NFYC/RXRA/MVD/ELOVL6/CHD9/MBTPS1/TBL1XR1/SEC24B/CREBBP/SAR1B/CARM1/LSS/SREBF2/HMGCS1/PPARA/NCOA2/SCD/SEC24A/SEC23A/HMGCR/INSIG2/SEC24D/TBL1X/MED1/PMVK/SP1/SCAP/ACACA/ACACB/MTF1/SMARCD3/MBTPS2/GPAM/NCOA6/DHCR7/NFYB/CYP51A1/SREBF1/NCOA1/HELZ2/SEC24C/NFYA</t>
-  </si>
-  <si>
-    <t>SRSF2/SRSF7/DDX39A/NXT1/SRSF5/NCBP2/MAGOHB/RBM8A/SRSF4/SRSF3/TPR/MAGOH/NUP62/RNPS1/NUP37/NUP35/CASC3/NUP43/SRSF11/THOC7/NUP50/RAE1/NCBP1/SLU7/UPF3B/NUP153/POM121/SRSF1/NUP107/NUP88/RANBP2/THOC5/ALYREF/EIF4A3/NUP133/NXF1/SRRM1/NDC1/U2AF1/SARNP/NUP93/NUP58/U2AF1L5/NUP85/ZC3H11A/THOC2/DHX38/CDC40/NUP210/NUP54/CHTOP/NUP160/POLDIP3/SEH1L/FYTTD1/NUP98/THOC6/SRSF9/THOC3/NUP214/NUPL2/U2AF2/NUP155/THOC1/AAAS/GLE1/U2AF1L4/NXF2B/NUP188/SRSF6/NUP205/DDX39B</t>
-  </si>
-  <si>
-    <t>CLNS1A/SNRPB/SNRPD1/SNRPG/NCBP2/GEMIN8/TPR/SNRPD2/NUP62/NUP37/NUP35/PRMT5/NUP43/TGS1/SNRPD3/NUP50/SNRPF/RAE1/NCBP1/PHAX/NUP153/WDR77/POM121/NUP107/NUP88/RANBP2/SNRPE/NUP133/NDC1/GEMIN6/NUP93/NUP58/SMN2/NUP85/DDX20/NUP210/NUP54/SNUPN/GEMIN2/SMN1/NUP160/SEH1L/GEMIN7/GEMIN5/NUP98/NUP214/NUPL2/GEMIN4/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>SRSF2/SNRPB/SNRPD1/SRSF7/POLR2L/SNRPG/GTF2F1/NCBP2/SNRNP25/POLR2F/POLR2J/SF3B6/SF3B5/GTF2F2/SF3B4/POLR2K/POLR2A/TXNL4A/SNRPD2/YBX1/SNRNP200/DDX23/PRPF6/LSM2/POLR2D/SNU13/POLR2I/SNRPD3/SNRPF/RNPC3/NCBP1/POLR2G/SRSF1/POLR2E/ZCRB1/SF3B1/SNRPE/PRPF8/POLR2H/SNRNP40/DDX42/SF3B3/ZMAT5/POLR2C/SNRNP35/POLR2B/PDCD7/ZRSR2/SNRNP48/SF3B2/SRSF6/EFTUD2</t>
-  </si>
-  <si>
-    <t>BIRC5/HIST1H4C/AURKB/TOP2A/PCNA/NSMCE3/RAD21/SMC1A/SUMO1/CBX5/HNRNPC/PARP1/AURKA/HNRNPK/TOP1/SUMO3/BLM/TDG/SMC3/TPR/RPA1/NUP62/PCGF2/RANGAP1/NOP58/CDCA8/PHC1/STAG2/NUP37/NUP35/BRCA1/XRCC4/TP53BP1/RNF168/SMC5/RING1/RNF2/NUP43/NSMCE4A/HDAC1/SUMO2/HDAC7/NUP50/MDC1/SP3/PIAS2/PML/SMC6/UBE2I/TOP2B/RAE1/NUP153/POM121/NUP107/PHC2/HERC2/INCENP/NUP88/RANBP2/MITF/STAG1/NUP133/NSMCE1/NDC1/SCMH1/MTA1/NUP93/CETN2/NUP58/HDAC2/NUP85/PIAS4/CBX8/SUZ12/NUP210/NUP54/TFAP2A/NUP160/HIST1H4J/SATB1/CBX2/SEH1L/XPC/RAD52/HDAC4/NUP98/FOXL2/SATB2/NSMCE2/SP100/PIAS3/NUP214/HIST1H4H/CBX4/PHC3/NUPL2/ZBED1/MDM2/NUP155/WRN/AAAS/BMI1/EID3/HIST1H4E/CHD3/HIST4H4/CDKN2A/TFAP2C/HIST1H4I/HIST1H4A/HIST1H4D/TP53/NUP188/L3MBTL2/PIAS1/NUP205</t>
-  </si>
-  <si>
-    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/CALM1/YWHAH/HIST1H4C/MAD2L1/CENPF/RHOC/AURKB/TUBB4B/PPP1CC/MYL9/MYL6/H2AFV/ACTB/ARPC2/CENPM/CALM2/ARPC5/CDC20/MYL12A/CENPA/CENPN/FLNA/DYNLL1/SPC25/PLK1/MYH10/PFN1/H2AFX/MYH9/YWHAQ/ARPC1B/YWHAB/CENPU/RAC1/ITGB1/DIAPH3/MYL12B/PRC1/SGO1/BRK1/TUBB2A/NUDC/TAX1BP3/SGO2/CENPH/CENPK/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/CYBA/NDC80/CKAP5/ACTR2/SPC24/PAK2/CENPS/ARPC1A/SPDL1/YWHAZ/H2AFJ/PPP1R14A/CYFIP2/ITGB3BP/CDC42/PPP2CB/RHOB/TUBB2B/ZWILCH/ABI2/ACTR3/WASF2/CENPQ/PPP2R5C/MAPRE1/DYNC1LI1/RANGAP1/CDCA8/CENPO/NUP37/CDH1/SRF/ACTG1/H3F3A/RCC2/KDM1A/CENPL/BUB1/CENPC/CTTN/WIPF2/PPP1CB/PFN2/DYNLL2/CALM3/KNL1/PPP2CA/CENPP/KIF14/NUP43/CENPT/RHOA/PMF1/MEN1/H3F3B/GRB2/IQGAP2/DYNC1LI2/KTN1/SRGAP2/XPO1/SRC/ROCK1/KIF2A/PPP2R1B/MAPK3/TUBA4A/TAOK1/CDKN1B/WASF1/KLC2/BUB1B/CDC25C/NCKIPSD/TUBA1C/PPP2R5A/NDEL1/PPP1R12A/HIST1H2AC/CTNNB1/NDE1/ERCC6L/YWHAE/WIPF3/NUP107/CYFIP1/CIT/HIST2H2AC/ARPC4/INCENP/IQGAP1/PAFAH1B1/WIPF1/RANBP2/SCAI/NF2/RHOG/DIAPH1/PPP1R12B/HIST1H2BG/PKN3/LIMK2/NUP133/PAK1/KLC3/FMNL3/HIST2H2BE/ZW10/LIMK1/DYNC1I1/DSN1/NCKAP1/ROCK2/RHOQ/EHHADH/LIN7B/DVL3/NCOA2/DVL2/RHOD/CTNNA1/NUP85/PPP2R5E/PKN2/BAIAP2/HIST1H3B/PDPK1/GOPC/DVL1/MAPK1/RAC2/KIF5B/PKN1/DLG4/HIST1H2BH/WASL/DYNC1H1/HIST1H3F/RHPN1/SKA1/PMF1-BGLAP/HIST1H2BD/PTK2/DIAPH2/HIST1H3A/NCK1/ARPC3/NUP160/HIST1H4J/WAS/SEH1L/PPP2R5D/ABI1/CLASP2/KDM4C/NUP98/CLIP1/NSL1/DYNC1I2/HIST1H2AB/CENPI/IQGAP3/PIK3C3/MIS12/DAAM1/BTK/KLC4/MYH14/AR/WASF3/RTKN/HIST1H4H/TUBB8/B9D2/RHPN2/NOXA1/HIST1H3G/HIST1H2BN/FMNL2/HIST1H3E/NCKAP1L/HIST1H3H/ABL1/PPP2R5B/HIST1H4E/HIST1H2BL/TUBB4A/HIST1H2BC/HIST1H2AE/AHCTF1/PIK3R4/HIST1H2BF/NCF1/HIST4H4/EVL/KNTC1/CFTR/HIST1H4I/NOXO1/MYLK/SFN/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/KIF18A/HIST1H2BE/HIST1H2BJ/HIST1H2BK/PAK3/MKL1/FMNL1/HIST1H3I/MAD1L1/CLASP1/YWHAG/KLC1</t>
-  </si>
-  <si>
-    <t>DUSP4/ARHGDIA/RALA/BEX3/AP2S1/RTN4/YWHAB/RAC1/UBA52/UBB/PPP2R1A/SHC1/AP2A1/AKAP13/RALB/NFKBIA/CLTA/AP2M1/AATF/ITGB3BP/PPP2CB/ARHGEF39/HRAS/DUSP6/CASP3/TIAM2/BAD/PRKCI/NCSTN/MAGED1/VRK3/CREB1/PPP2CA/RIPK2/SQSTM1/NET1/RHOA/HDAC1/PIK3R1/RAP1A/GRB2/CRK/VAV3/DNAL4/MEF2C/NTRK2/SRC/CLTC/PPP2R1B/MAPK3/PLCG1/AP2A2/ECT2/MAPK7/ARHGEF2/NTRK1/YWHAE/KIDINS220/CRKL/STAT3/DUSP3/ITSN1/MAP2K5/TRIO/MYD88/SHC2/PREX1/ADAM17/ARHGEF16/ATF1/ARHGEF40/HDAC3/ARHGEF35/RIT1/ARHGEF26/FURIN/PSEN1/FGD1/FGD4/HDAC2/DNM2/PCSK5/CASP2/IKBKB/KALRN/SH3GL2/MAPK1/RALGDS/UBC/APH1B/ARHGEF33/ARHGEF9/PCSK6/ARHGEF19/BRAF/ARHGEF1/GNA13/DNM1/KRAS/MAPK14/PIK3CB/PSENEN/APH1A/IRS1/ARHGEF4/PPP2R5D/ARHGEF15/PIK3R2/PRDM4/PSEN2/MAPKAPK3/RAPGEF1/ARHGEF12/MAPK13/ARHGEF7/OBSCN/MAPKAPK2/NFKB1/ARHGEF37/SOS2/DUSP7/PIK3CA/RELA/ELK1/TIAM1/TRAF6/MAPK11/FGD3/ARHGEF5/MCF2L/MEF2A/ARHGEF17/FRS2/ARHGEF6/VAV2/IRS2/ARHGEF10L/MAPK8/SMPD2/RIT2/AP2B1/RTN4R/IRAK1/LINGO1/ADCYAP1R1/SHC3/NGEF/ARHGEF3/ARHGEF11/SOS1/PLEKHG5/BCL2L11/ARHGEF10/MAPK12/PLEKHG2/NRAS/ABR/NGF</t>
-  </si>
-  <si>
-    <t>CCNB1/CDK1/PLK1/VRK1/TMPO/CCNB2/LMNB1/BANF1/TPR/LPIN2/NUP62/NUP37/NUP35/EMD/LMNA/NEK6/NEK9/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/CTDNEP1/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/LEMD3/NEK7/NUP210/NUP54/NUP160/SEH1L/CNEP1R1/NUP98/PRKCA/LEMD2/NUP214/NUPL2/NUP155/AAAS/LPIN3/VRK2/NUP188/LPIN1/NUP205/PRKCB</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/DYNLL1/SPTBN1/TMED9/TUBB2A/DCTN3/TRAPPC6A/SEC13/CTSC/B4GALT4/ACTR1A/FOLR1/ARF1/TRAPPC2L/TRAPPC1/ARF5/TRAPPC4/TRAPPC3/COPB2/B4GALT2/MGAT2/TUBB2B/SPTAN1/GOSR1/DCTN2/CAPZA1/STX5/GOLGA2/DYNC1LI1/COPB1/LMAN2/ANK3/DCTN5/TMED7/ST6GAL1/USO1/KDELR2/SEC31A/TMED2/DYNLL2/TMED3/ARFGAP3/YKT6/B4GALT3/ARF4/MGAT1/CAPZA2/MAN2A1/DYNC1LI2/TBC1D20/CNIH1/ARF3/LMAN1/COG4/TUBA4A/GBF1/TMED10/TUBA1C/CD59/PPP6R1/PREB/SEC16A/MAN1A1/GOSR2/NAPA/MAN1A2/ARFGAP1/NAPB/B4GALT1/SEC24B/TRAPPC6B/MANEA/DCTN4/FUCA1/COG8/SAR1B/SPTBN2/COPA/SCFD1/PPP6C/RAB1B/DYNC1I1/RAB1A/ST3GAL4/COPG2/FUT8/EHHADH/KDELR3/BET1/CHST8/MGAT3/DCTN1/SEC24A/GOLGB1/TRAPPC2/NSF/ARFGAP2/SEC23A/CSNK1D/SEC23IP/DYNC1H1/NAPG/SERPINA1/TRAPPC5/SEC24D/COG2/COG6/B4GALT6/MGAT5/TFG/COPE/MCFD2/LMAN2L/MIA3/B4GALT5/DYNC1I2/TRAPPC10/COPZ2/CD55/COG3/COL7A1/GORASP1/COPG1/ANKRD28/CNIH3/MAN2A2/SEC22A/TUBB8/TRAPPC9/CAPZB/BET1L/COG7/COG1/MGAT4B/ST8SIA6/MGAT4A/ST8SIA2/COG5/CTSZ/ST8SIA3/TUBB4A/CNIH2/SEC22B/SEC22C/STX17/F8/TMEM115/ACTR10/SPTB/SPTBN5/SEC16B/ANK1/FUT3/LHB/SPTBN4/ANK2/ARCN1/SEC24C/DCTN6/MAN1C1/CHST10/PPP6R3/COPZ1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/CTGF/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/MYC/SPP1/CCND1/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/RBPJ/PSMF1/SNW1/JAG1/TGFB1/PSMB1/PSMA1/PSMA3/TCF7L2/NOTCH1/SMAD3/PSMD8/PSMC2/PSME3/LEF1/BRD2/PSMD12/TEAD1/PSMB4/ZFHX3/TGS1/PSMB7/WWTR1/RXRA/MAML3/PSMD6/SRC/TEAD4/PSMD4/CHD9/PSMA6/PSMD10/CTNNB1/CBFB/TBL1XR1/SMAD4/CREBBP/PSMA2/HES1/PSMD2/TEAD3/TCF7/CARM1/EP300/PSMD13/TCF7L1/PSMB10/PPARA/TEAD2/NCOA2/MAML1/CDKN1A/UBC/SMURF2/PSMC1/TBL1X/MED1/KRAS/PSMD9/SMURF1/PSMA5/PSMD5/SMARCD3/HDAC4/NCOA6/PSMC6/PSMD3/YAP1/MDM2/PSMD1/KAT2A/PSMB5/NCOA1/CDKN2A/RUNX3/FOXO3/RUNX1/MAMLD1/KAT2B/TP53/BCL2L11/HELZ2/MAML2</t>
-  </si>
-  <si>
-    <t>H2AFZ/HIST1H4C/H2AFV/ACTB/H2AFX/HIST3H2A/ASH2L/MORF4L2/CDK4/ELP2/HAT1/NCOR1/CCND1/ACTL6A/EZH2/H2AFJ/CHD4/ING4/KMT2E/ARID5B/HCFC1/ARID1A/PHF20/KDM7A/MEAF6/MTA3/NSD1/VPS72/COPRS/KMT2A/KDM5B/KDM1A/ENY2/EP400/ARID4A/KDM6A/ARID1B/KAT8/KDM3B/PRMT5/KAT6B/SAP130/TADA3/SMARCE1/HDAC1/HDAC8/SAP30L/RBBP7/SUPT3H/SUV39H2/SMARCA4/KDM2A/ELP5/SMARCC1/EHMT2/DMAP1/SMARCC2/MORF4L1/HMG20B/SMARCA2/PBRM1/KMT5C/DR1/SUPT7L/PRMT1/OGT/KAT6A/TADA2A/SGF29/WDR77/RUVBL2/HIST1H2AC/KMT5B/KANSL2/ARID4B/GATAD2A/KMT5A/TBL1XR1/ELP6/HIST2H2AC/WDR5/MCRS1/MSL3/EED/REST/CREBBP/SAP18/ATF2/TAF10/ELP4/HIST1H2BG/BRPF1/GATAD2B/HDAC10/CARM1/JMJD6/MECOM/HIST1H2AG/EP300/HIST2H2BE/HDAC3/PHF21A/KMT2C/MTA1/YEATS4/SETD6/TAF12/SMARCD2/KDM6B/NCOA2/SUDS3/SUPT20H/DNMT3A/MBIP/KDM5A/HDAC2/ATXN7L3/SETD2/PRMT3/KDM2B/SMARCD1/HIST1H3B/SETD7/KDM4A/KMT2B/KAT14/JADE3/ATF7IP/JADE1/SMYD3/SETD1A/HIST1H2BH/MTA2/KAT5/MSL2/USP22/KDM3A/KANSL3/ATXN7/KMT2D/SUZ12/MSL1/SETDB1/TBL1X/HIST1H3F/PRMT7/KDM5C/ELP3/HIST1H2BD/HIST1H3A/HIST1H2AH/HIST1H4J/TRRAP/SMARCD3/SAP30/KDM4C/BRWD1/ING3/NCOR2/KDM4B/HIST1H2AL/HIST1H2AB/NFKB1/PRDM16/EPC1/TADA1/TAF6L/AEBP2/CLOCK/RELA/KANSL1/ARID2/PRMT6/HIST1H4H/ASH1L/MRGBP/PHF2/KDM1B/BRD8/DPY30/RBBP4/HIST1H2AK/HIST1H3G/TAF5L/SUV39H1/GPS2/KAT2A/HIST1H2BN/SMYD2/UTY/NFKB2/HIST1H3E/TAF9/HIST1H3H/RUVBL1/HIST1H4E/KDM4D/HIST1H2BL/SMARCB1/HIST1H2BC/HIST1H2AE/PHF8/NCOA1/CHD3/RBBP5/HIST2H2AB/HIST1H2BF/HIST4H4/PRDM9/SETDB2/ING5/HIST1H2AI/HIST1H4I/KDM8/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST2H2BF/HIST1H2BE/HIST1H2BJ/HIST1H2BK/KAT2B/TADA2B/JADE2/JAK2/SETD1B/KDM5D/BRPF3/DOT1L/RCOR1/ZZZ3/EHMT1/BRD1/HIST1H3I/YEATS2/SETD3/KAT7/MBD3/BRMS1</t>
-  </si>
-  <si>
-    <t>NPM1/PCNA/CCNB1/CDK1/CCNA2/GADD45A/AURKA/TFDP1/BTG2/PLK2/TFDP2/E2F4/ZNF385A/CNOT1/CNOT10/BAX/CENPJ/E2F8/CDKN1B/E2F1/CDC25C/PRMT1/PCBP4/PLAGL1/ARID3A/RBL2/CNOT11/RGCC/TNKS1BP1/RBL1/CARM1/EP300/CDK2/CNOT2/CNOT6/CDKN1A/CNOT9/CNOT6L/E2F7/CNOT8/CCNE1/CNOT4/PLK3/CNOT3/CCNE2/CCNA1/SFN/TP53/CNOT7</t>
-  </si>
-  <si>
-    <t>FEN1/ORC6/PCNA/GINS2/MCM3/RPA3/PSMC3/PSME2/MCM7/RFC4/POLE4/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/RPA2/RFC2/MCM4/PSMD11/PSMB2/PSMD7/LIG1/GINS4/POLD3/PSMD14/MCM2/PSMC5/PSME1/PSMB6/POLE/CDT1/CDC45/PSMF1/RFC5/POLA2/RPA1/POLD2/GINS1/ORC4/PSMB1/RFC1/CDC6/PSMA1/POLD1/PSMA3/RFC3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/POLE2/PSMD6/POLE3/PSMD4/CDKN1B/PSMA6/PSMD10/POLA1/PSMA2/PSMD2/GINS3/FZR1/PSMD13/CDK2/RB1/PSMB10/ORC2/CDKN1A/UBC/PSMC1/ORC5/PSMD9/PSMA5/PRIM1/POLD4/PSMD5/PRIM2/PSMC6/ORC1/PSMD3/PSMD1/DNA2/PSMB5/ORC3/CCNA1</t>
-  </si>
-  <si>
-    <t>CALM1/HSP90AA1/HSPB1/KDR/ACTB/CALM2/PGF/RAC1/BRK1/FLT1/CYBA/BCAR1/PAK2/NRP2/CYFIP2/ITGAV/CDH5/CDC42/ABI2/WASF2/FYN/HRAS/NRP1/MLST8/AKT2/MAPKAP1/ACTG1/PRR5/ELMO1/CALM3/DOCK1/PRKCD/RHOA/PIK3R1/CRK/VAV3/AXL/TRIB3/SRC/ROCK1/PLCG1/WASF1/AHCYL1/CTNNB1/PRKCZ/VEGFB/CYFIP1/FLT4/AKT3/VEGFA/SHC2/PXN/PAK1/JUP/NOS3/MTOR/NCKAP1/ROCK2/CAV1/ELMO2/AKT1/RICTOR/CTNNA1/CTNND1/BAIAP2/PDPK1/PTK2B/RASA1/NCK2/KRAS/MAPK14/PIK3CB/ITPR3/PTK2/NCK1/ABI1/ITPR2/PIK3R2/MAPKAPK3/MAPK13/MAPKAPK2/PRKCA/PRKACA/SH2D2A/PIK3CA/WASF3/PRKACB/MAPK11/THEM4/NCKAP1L/VAV2/SHB/NCF1/VEGFC/SPHK1/PAK3/ITPR1/MAPK12/NRAS/PRKCB</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/MAD2L1/CENPF/AURKB/TUBB4B/PPP1CC/CENPM/CDC20/CENPA/CCNB1/CENPN/CDK1/DYNLL1/SPC25/PLK1/RAD21/SMC1A/CENPU/CCNB2/SGO1/TUBB2A/NUDC/SGO2/CENPH/CENPK/SEC13/KIF2C/PPP2R1A/SKA2/NUF2/BUB3/CENPE/NDC80/CDCA5/CKAP5/SPC24/CENPS/SPDL1/SMC3/ITGB3BP/PPP2CB/TUBB2B/ZWILCH/CENPQ/PPP2R5C/MAPRE1/DYNC1LI1/RANGAP1/CDCA8/STAG2/CENPO/NUP37/RCC2/CENPL/BUB1/CENPC/DYNLL2/KNL1/PPP2CA/CENPP/NUP43/CENPT/PMF1/HDAC8/PDS5B/DYNC1LI2/XPO1/KIF2A/PPP2R1B/TUBA4A/TAOK1/BUB1B/TUBA1C/PPP2R5A/NDEL1/NDE1/ERCC6L/NUP107/WAPL/INCENP/PAFAH1B1/RANBP2/STAG1/NUP133/ZW10/DYNC1I1/DSN1/EHHADH/NUP85/PPP2R5E/DYNC1H1/PDS5A/SKA1/PMF1-BGLAP/NUP160/SEH1L/PPP2R5D/CLASP2/NUP98/CLIP1/NSL1/DYNC1I2/CENPI/MIS12/TUBB8/B9D2/PPP2R5B/TUBB4A/AHCTF1/KNTC1/KIF18A/MAD1L1/CLASP1</t>
-  </si>
-  <si>
-    <t>RPA3/HSPA1A/HSPA8/HSPA2/RPA2/ST13/HSF1/TPR/HSPA5/RPA1/NUP62/HSPA1B/BAG3/NUP37/NUP35/DNAJB1/NUP43/HIKESHI/HSPH1/DNAJB6/NUP50/MAPK3/RAE1/NUP153/POM121/YWHAE/NUP107/HSPA14/NUP88/RANBP2/BAG4/HSPA4/BAG2/NUP133/NDC1/DNAJC7/NUP93/NUP58/ATR/BAG5/NUP85/ATM/HSPA9/MAPK1/GSK3B/NUP210/BAG1/NUP54/HSPA12B/NUP160/SEH1L/NUP98/MAPKAPK2/DNAJC2/HSPA12A/NUP214/NUPL2/HSPA4L/NUP155/HSPA13/SIRT1/AAAS/HSPA1L/NUP188/NUP205/CCAR2</t>
-  </si>
-  <si>
-    <t>FEN1/POLR2L/RANBP1/PSIP1/CXCR4/UBA52/PPIA/SUPT4H1/UBB/GTF2F1/SUPT16H/NCBP2/RAN/BANF1/GTF2A2/POLR2F/XRCC6/POLR2J/TCEA1/GTF2F2/CHMP2A/SSRP1/LIG1/CHMP4B/POLR2K/HMGA1/XRCC5/TPR/POLR2A/TAF9B/NUP62/NELFE/RANGAP1/RNMT/NUP37/NUP35/XRCC4/MVB12A/PDCD6IP/NEDD4L/UBAP1/NELFA/NUP43/POLR2D/POLR2I/TAF3/CDK9/CHMP7/NUP50/CHMP5/XPO1/ERCC2/NMT1/RAE1/NCBP1/SUPT5H/MNAT1/MVB12B/TAF4/POLR2G/NUP153/POM121/GTF2E2/GTF2B/NUP107/CHMP4C/ERCC3/TSG101/POLR2E/NELFCD/NUP88/TBP/RANBP2/TAF1/CTDP1/TAF10/GTF2H5/GTF2H1/NUP133/VPS37B/NDC1/POLR2H/CDK7/ELL/VPS28/FURIN/TAF12/NUP93/NUP58/CCNH/GTF2E1/NUP85/VPS37A/CCNT1/NMT2/UBC/NELFB/CHMP3/RCC1/NUP210/NUP54/TAF5/TAF11/NUP160/SEH1L/TAF6/CHMP2B/NUP98/CCNT2/VTA1/POLR2C/LIG4/VPS37D/VPS4A/VPS4B/KPNA1/GTF2H2/GTF2H3/CCNK/NUP214/CHMP6/NUPL2/POLR2B/TAF2/NUP155/TAF9/AAAS/GTF2A1/CD4/VPS37C/TAF7/GTF2H4/RNGTT/TAF4B/TAF13/NUP188/NUP205/CHMP4A</t>
-  </si>
-  <si>
-    <t>CALM1/HSP90AA1/HSPB1/KDR/ACTB/CALM2/RAC1/BRK1/CYBA/BCAR1/PAK2/CYFIP2/ITGAV/CDH5/CDC42/ABI2/WASF2/FYN/HRAS/MLST8/AKT2/MAPKAP1/ACTG1/PRR5/ELMO1/CALM3/DOCK1/PRKCD/RHOA/PIK3R1/CRK/VAV3/AXL/TRIB3/SRC/ROCK1/PLCG1/WASF1/AHCYL1/CTNNB1/PRKCZ/CYFIP1/AKT3/VEGFA/SHC2/PXN/PAK1/JUP/NOS3/MTOR/NCKAP1/ROCK2/CAV1/ELMO2/AKT1/RICTOR/CTNNA1/CTNND1/BAIAP2/PDPK1/PTK2B/RASA1/NCK2/KRAS/MAPK14/PIK3CB/ITPR3/PTK2/NCK1/ABI1/ITPR2/PIK3R2/MAPKAPK3/MAPK13/MAPKAPK2/PRKCA/PRKACA/SH2D2A/PIK3CA/WASF3/PRKACB/MAPK11/THEM4/NCKAP1L/VAV2/SHB/NCF1/SPHK1/PAK3/ITPR1/MAPK12/NRAS/PRKCB</t>
-  </si>
-  <si>
-    <t>AURKB/RPA3/TPX2/RFC4/CCNA2/UBA52/UBB/SUPT16H/AURKA/RHNO1/RPA2/PIN1/RFC2/SSRP1/BARD1/BLM/NUAK1/PRKAG1/NOC2L/RMI2/PRKAB2/CSNK2B/TP53RK/RFC5/RPA1/TAF9B/CSNK2A2/RFC3/STK11/BRCA1/CHEK2/PRKAA1/TAF3/EXO1/CDK5/TOP3A/RBBP8/CSNK2A1/TAF4/HIPK2/TBP/TAF1/TAF10/MAPKAPK5/RAD50/NBN/BRIP1/RAD17/PRKAA2/CDK2/DYRK2/MDM4/TAF12/ATR/RAD9A/ATM/UBC/KAT5/TP53INP1/RMI1/MAPK14/TAF5/TAF11/RAD1/TAF6/HIPK1/TOPBP1/HUS1/MRE11/TAF2/MDM2/MAPK11/PLK3/PRKAB1/WRN/TAF9/DNA2/TAF7/ATRIP/CCNA1/TAF4B/CDK5R1/TAF13/TP53/CHEK1/PRKAG2</t>
-  </si>
-  <si>
-    <t>SRSF2/SRSF7/DDX39A/SRSF5/PAPOLA/NCBP2/MAGOHB/RBM8A/PABPN1/SRSF4/SRSF3/MAGOH/RNPS1/CPSF2/CSTF3/CPSF4/CASC3/SRSF11/THOC7/NCBP1/SLU7/UPF3B/SRSF1/PCF11/CPSF3/THOC5/ALYREF/EIF4A3/WDR33/CSTF2/SRRM1/U2AF1/SARNP/CPSF7/U2AF1L5/ZC3H11A/THOC2/DHX38/CDC40/CSTF2T/CHTOP/SYMPK/POLDIP3/CPSF1/FIP1L1/FYTTD1/THOC6/SRSF9/NUDT21/THOC3/U2AF2/THOC1/CSTF1/CLP1/U2AF1L4/SRSF6/DDX39B</t>
-  </si>
-  <si>
-    <t>EXOSC8/ATF3/MYDGF/ATF4/SHC1/HDGF/CALR/XBP1/SERP1/EXOSC9/ACADVL/SEC61G/HSPA5/WIPI1/DDX11/KLHDC3/GSK3A/EIF2S1/EXOSC3/LMNA/DNAJB11/CREB3/SEC31A/ADD1/EXOSC2/SEC62/EXOSC7/HSP90B1/HERPUD1/CREB3L1/NFYC/CUL7/CREB3L4/MBTPS1/ASNA1/PREB/GOSR2/ARFGAP1/EXOSC6/CXXC1/WFS1/PDIA6/TLN1/FKBP14/DDIT3/DCP2/SRPRA/ASNS/SEC61A1/SSR1/KHSRP/DNAJC3/YIF1A/SEC63/KDELR3/DCTN1/PARN/PDIA5/CCL2/EXTL2/EXOSC4/EIF2AK3/EXOSC5/CTDSP2/SYVN1/SEC61B/DIS3/CREBRF/SEC61A2/MBTPS2/DNAJB9/ATF6/ZBTB17/EXTL1/EDEM1/NFYB/CREB3L3/TSPYL2/TPP1/SRPRB/PPP2R5B/EXOSC1/EXTL3/JMJD7-PLA2G4B/SULT1A3/ERN1/CREB3L2/ATP6V0D1/HYOU1/GFPT1/TATDN2/NFYA</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR1D/TAF1D/POLR2F/POLR2K/TTF1/CHD4/MTA3/HDAC1/RBBP7/EHMT2/CD3EAP/ERCC2/MNAT1/RRN3/TWISTNB/GATAD2A/ERCC3/ZNRD1/POLR2E/TBP/GTF2H5/GATAD2B/GTF2H1/TAF1B/POLR2H/CDK7/MTA1/POLR1E/CCNH/TAF1A/POLR1B/HDAC2/POLR1A/MTA2/POLR1C/UBTF/GTF2H2/GTF2H3/ERCC6/RBBP4/KAT2A/CHD3/GTF2H4/KAT2B/TAF1C/MBD3</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/POLR2L/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/POLR2F/RBX1/DDB1/POLR2J/TCEA1/POLD3/POLR2K/POLE/PRPF19/ERCC1/POLR2A/RFC5/RPA1/POLD2/HMGN1/RFC1/POLD1/ERCC8/RFC3/POLR2D/POLR2I/ZNF830/POLE2/POLE3/ERCC2/MNAT1/PPIE/POLK/POLR2G/CUL4B/XPA/ERCC3/POLR2E/ISY1/GTF2H5/GTF2H1/XAB2/EP300/POLR2H/CDK7/AQR/ERCC5/CCNH/USP7/UBC/UVSSA/ERCC4/POLD4/POLR2C/CUL4A/GTF2H2/GTF2H3/POLR2B/ERCC6/GTF2H4</t>
-  </si>
-  <si>
-    <t>CKS1B/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/CDK4/PSMD11/MYC/CCND1/PSMB2/PSMD7/TFDP1/PSMD14/SKP2/PSMC5/PSME1/PSMB6/PSMF1/TFDP2/CDC25A/E2F4/PSMB1/PSMA1/AKT2/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/E2F1/MNAT1/SKP1/PSMA6/PSMD10/WEE1/MAX/RBL2/AKT3/PSMA2/PSMD2/PSMD13/CDK2/CDK7/RB1/PSMB10/CCNH/AKT1/CDKN1A/UBC/PSMC1/LIN54/LIN9/PSMD9/PSMA5/PSMD5/E2F5/LIN52/PSMC6/CCNE1/PSMD3/LIN37/RBBP4/PSMD1/PTK6/PSMB5/CCNE2/CCNA1/CUL1</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/PSMC3/PSME2/PSMC4/UBA52/PSMA4/TUBB2A/UBB/PSMA7/PSMB3/RBX1/VCP/PSMD11/IHH/PSMB2/PSMD7/PSMD14/PSMC5/GNAS/PSME1/PSMB6/PRKAR1A/PSMF1/P4HB/TUBB2B/PSMB1/PSMA1/PSMA3/OFD1/PSMD8/PSMC2/GLI2/PSME3/CSNK1A1/PSMD12/PSME4/PSMB4/PSMB7/ADCY3/ARRB2/IFT52/PSMD6/PSMD4/TUBA4A/DERL2/GPR161/SKP1/TULP3/TUBA1C/PRKAR2A/SPOP/PSMA6/PSMD10/ITCH/MKS1/CDC73/DZIP1/EVC2/PSMA2/ARRB1/PSMD2/ADAM17/NUMB/IFT57/PSMD13/HHIP/FUZ/SUFU/TTC21B/PSMB10/BOC/GLI3/IFT172/SEL1L/GAS1/BTRC/UBC/INTU/SMURF2/CUL3/PSMC1/IFT88/PTCH1/KIF3A/PRKAR1B/GSK3B/SPOPL/OS9/PSMD9/GLI1/SMURF1/SYVN1/PSMA5/NOTUM/ADCY2/RPGRIP1L/PSMD5/GAS8/EFCAB7/WDR35/KIF7/WDR19/GRK2/IFT140/PRKACA/PSMC6/ERLEC1/PSMD3/SCUBE2/PRKACB/PSMD1/ADCY7/ADCY1/TUBB4A/PSMB5/ADCY10/PRKAR2B/SMO/IFT122/ADCY5/ADCY4/DISP2/SHH/ADCY8/ADCY9/HHAT/ULK3/DYNC2H1/IQCE/ADCY6/CDON/CUL1</t>
-  </si>
-  <si>
-    <t>TYMS/DUT/DTYMK/TK1/APRT/IMPDH2/RRM2/NUDT1/GUK1/ATIC/DNPH1/AK4/GMPR2/NME3/NME4/NME1/DCTPP1/NUDT5/CTPS1/UCK2/PAICS/ENTPD4/ADSL/NUDT15/DCTD/DCK/ADA/RRM1/AK1/TXN/PUDP/NT5C/AK6/PNP/ADSS/TXNRD1/GLRX/NUDT16/NME6/NT5C3A/ENTPD6/UMPS/UPP1/GPX1/IMPDH1/TYMP/CAD/HPRT1/UCKL1/GMPR/ADK/ADPRM/ADAL/RRM2B/ITPA/CDA/SAMHD1/PFAS/CTPS2/AK2/CMPK1/NME7/ENTPD1/ENTPD7/DHODH/ENTPD5/NUDT9/GSR/ENTPD2/DPYD/NME2/PPAT/UCK1/NT5M/GART/GMPS/UPB1/DGUOK/AK7/AMPD2/TK2/AK8/NT5E/ADSSL1/AK5/ENTPD3/NT5C2/AK9/NUDT13/AMPD3/XDH/DPYS/NME1-NME2/NUDT18/LHPP/ENTPD8</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/IDH2/ATP5B/CYCS/NCOR1/TFAM/HCFC1/GLUD2/CREB1/CALM3/TGS1/RXRA/MEF2C/CHD9/CRTC1/GABPB1/TBL1XR1/SSBP1/ESRRA/SIRT5/ACSS2/CREBBP/ATF2/TFB1M/CARM1/NRF1/HDAC3/SIRT3/PPARA/CRTC3/NCOA2/POLRMT/SIRT4/GLUD1/PPRC1/POLG2/CRTC2/TBL1X/MED1/TFB2M/TWNK/ALAS1/GABPA/NR1D1/SMARCD3/PPARGC1B/NCOA6/PPARGC1A/SOD2/MTERF1/MEF2D/NCOA1/CAMK4/HELZ2</t>
-  </si>
-  <si>
-    <t>RPP25/POP7/RAN/RPP30/TPR/NUP62/DDX1/NUP37/CPSF4/NUP35/TSEN15/NUP43/NUP50/RAE1/RTCB/NUP153/POM121/POP4/NUP107/RPP21/FAM98B/NUP88/RANBP2/CSTF2/NUP133/NDC1/NUP93/ELAC2/NUP58/NUP85/RPP40/C2orf49/NUP210/ZBTB8OS/NUP54/NUP160/SEH1L/TSEN34/RPP38/CPSF1/TSEN54/NUP98/POP5/RPP14/NUP214/NUPL2/NUP155/AAAS/TSEN2/CLP1/TRNT1/POP1/NUP188/XPOT/NUP205</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/POLR2L/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/POLR2F/RBX1/DDB1/POLR2J/TCEA1/LIG1/POLD3/POLR2K/POLE/PRPF19/POLR2A/RFC5/RPA1/POLD2/HMGN1/RFC1/POLD1/ERCC8/RFC3/POLR2D/POLR2I/ZNF830/POLE2/POLE3/ERCC2/MNAT1/PPIE/POLK/POLR2G/CUL4B/ERCC3/POLR2E/ISY1/GTF2H5/GTF2H1/XAB2/EP300/POLR2H/CDK7/AQR/CCNH/USP7/UBC/LIG3/UVSSA/POLD4/POLR2C/CUL4A/GTF2H2/GTF2H3/POLR2B/ERCC6/GTF2H4/XRCC1</t>
-  </si>
-  <si>
-    <t>CKS1B/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/CDK4/PSMD11/MYC/CCND1/PSMB2/PSMD7/TFDP1/PSMD14/SKP2/PSMC5/PSME1/PSMB6/PSMF1/TFDP2/CDC25A/CDC25B/E2F4/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/E2F1/MNAT1/SKP1/PSMA6/PSMD10/WEE1/MAX/RBL2/PSMA2/PSMD2/FZR1/PSMD13/CDK2/CDK7/RB1/PSMB10/CCNH/CDKN1A/UBC/PSMC1/LIN54/LIN9/PSMD9/PSMA5/PSMD5/E2F5/LIN52/PSMC6/CCNE1/PSMD3/LIN37/RBBP4/PSMD1/PTK6/PSMB5/CCNE2/CCNA1/CUL1</t>
-  </si>
-  <si>
-    <t>TGIF1/PPP1CC/FKBP1A/UBA52/UBB/PPP1CA/PARP1/CCNC/BAMBI/MYC/NCOR1/STRAP/TFDP1/CGN/SNW1/TFDP2/F11R/E2F4/TGFB1/USP9X/SERPINE1/SMAD3/PPP1CB/PARD3/NEDD4L/RHOA/HDAC1/MEN1/JUNB/WWTR1/CDK9/UBE2D3/XPO1/STUB1/UBE2M/SKIL/PRKCZ/TRIM33/SMAD4/RBL1/TGFBR1/SMAD2/CBL/ZFYVE9/FURIN/CDKN2B/TGIF2/CCNT1/USP15/UBC/SMURF2/NEDD8/PPP1R15A/SMURF1/SP1/E2F5/CCNT2/NCOR2/PARD6A/SKI/CCNK/CDK8/TGFBR2/MTMR4/UCHL5/SMAD7/RNF111/PPM1A/PMEPA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>DLK1/UBA52/UBB/CCNC/RBX1/MYC/NCOR1/TLE1/RBPJ/SNW1/JAG1/NOTCH1/NCSTN/TLE3/HDAC1/HDAC8/ARRB2/MAML3/HDAC7/TLE4/SKP1/TLE2/TBL1XR1/ITCH/MIB1/DLL1/CREBBP/ARRB1/HES1/ADAM17/NUMB/HDAC10/HDAC5/HDAC6/MIB2/EP300/HIF1A/HDAC3/PSEN1/FBXW7/HDAC2/MAML1/UBC/APH1B/TBL1X/JAG2/PSENEN/HEY2/APH1A/DLL4/HEYL/PSEN2/DTX4/HDAC4/NCOR2/ADAM10/HDAC11/DTX2/CDK8/HEY1/KAT2A/CNTN1/DTX1/MAMLD1/KAT2B/NEURL1B/NEURL1/HDAC9/MAML2/CUL1</t>
-  </si>
-  <si>
-    <t>JUN/CCND1/TFDP1/RBPJ/SNW1/TFDP2/NOTCH1/TMED2/MOV10/MAML3/ATP2A2/AGO1/E2F1/RFNG/B4GALT1/CREBBP/POFUT1/LFNG/EP300/NOTCH3/NOTCH2/FURIN/ST3GAL4/SEL1L/RAB6A/ST3GAL6/MAML1/POGLUT1/TNRC6B/TNRC6A/ATP2A3/AGO3/AGO2/ATP2A1/TNRC6C/NOTCH4/ST3GAL3/KAT2A/AGO4/MFNG/MAMLD1/KAT2B/TP53/MAML2/E2F3</t>
-  </si>
-  <si>
-    <t>B2M/NPM1/SLC25A6/AP1M2/PSMC3/RANBP1/PSIP1/PSME2/AP2S1/RAC1/PSMC4/UBA52/PSMA4/PPIA/UBB/PSMA7/RAN/BANF1/PSMB3/RBX1/ARF1/PSMD11/AP2A1/PSMB2/PSMD7/AP1S2/PAK2/PSMD14/HMGA1/PSMC5/PSME1/PSMB6/AP2M1/TPR/PSMF1/KPNB1/SLC25A5/NUP62/PSMB1/FYN/RANGAP1/PSMA1/NUP37/PSMA3/NUP35/PSMD8/PSMC2/PSME3/ELMO1/PSMD12/PSME4/NUP43/PSMB4/PSMB7/AP1G1/CUL5/CDK9/NUP50/PSMD6/XPO1/PSMD4/AP2A2/RAE1/AP1B1/SKP1/PSMA6/ATP6V1H/NUP153/PSMD10/POM121/SLC25A4/NUP107/AP1S1/NUP88/RANBP2/PSMA2/PSMD2/NUP133/NDC1/PSMD13/PSMB10/NUP93/NUP58/NUP85/CCNT1/BTRC/PACS1/UBC/PSMC1/RCC1/NUP210/NUP54/PSMD9/PSMA5/NUP160/PSMD5/SEH1L/AP1S3/NUP98/PSMC6/DOCK2/PSMD3/KPNA1/NUP214/NUPL2/NUP155/PSMD1/APOBEC3G/AAAS/LCK/PSMB5/CD4/AP2B1/NUP188/AP1M1/NUP205/CD247</t>
-  </si>
-  <si>
-    <t>BIRC5/AURKB/TOP2A/PCNA/SUMO1/AURKA/TOP1/SUMO3/TPR/NUP62/RANGAP1/CDCA8/NUP37/NUP35/NUP43/SUMO2/NUP50/UBE2I/TOP2B/RAE1/NUP153/POM121/NUP107/INCENP/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/PIAS4/NUP210/NUP54/NUP160/SEH1L/NUP98/PIAS3/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>PMM1/NANS/GNPNAT1/SRD5A3/DPM3/UAP1/ST6GAL1/ST6GALNAC3/GMDS/FUOM/MVD/DPM1/NANP/ST6GALNAC6/MPI/ALG5/AMDHD2/CTSA/GLB1/GFPT2/DOLPP1/DPM2/NAGK/ST3GAL4/GMPPB/PGM3/GMPPA/ST3GAL6/ST8SIA1/TSTA3/SLC35C1/ST6GALNAC4/PMM2/DOLK/NUS1/NEU1/ST3GAL1/ST6GALNAC5/RENBP/ST8SIA4/ST3GAL2/GNE/CMAS/FPGT/NEU4/SLC17A5/ST3GAL3/ST8SIA6/ST6GALNAC2/ST3GAL5/SLC35A1/ST8SIA2/ST8SIA3/NEU3/NPL/NUDT14/ST6GAL2/ST6GALNAC1/FUK/DHDDS/GFPT1</t>
-  </si>
-  <si>
-    <t>POLR2L/RANBP1/UBA52/PPIA/SUPT4H1/UBB/GTF2F1/SUPT16H/NCBP2/RAN/GTF2A2/POLR2F/POLR2J/TCEA1/GTF2F2/CHMP2A/SSRP1/CHMP4B/POLR2K/TPR/POLR2A/TAF9B/NUP62/NELFE/RANGAP1/RNMT/NUP37/NUP35/MVB12A/PDCD6IP/NEDD4L/UBAP1/NELFA/NUP43/POLR2D/POLR2I/TAF3/CDK9/CHMP7/NUP50/CHMP5/XPO1/ERCC2/NMT1/RAE1/NCBP1/SUPT5H/MNAT1/MVB12B/TAF4/POLR2G/NUP153/POM121/GTF2E2/GTF2B/NUP107/CHMP4C/ERCC3/TSG101/POLR2E/NELFCD/NUP88/TBP/RANBP2/TAF1/CTDP1/TAF10/GTF2H5/GTF2H1/NUP133/VPS37B/NDC1/POLR2H/CDK7/ELL/VPS28/FURIN/TAF12/NUP93/NUP58/CCNH/GTF2E1/NUP85/VPS37A/CCNT1/NMT2/UBC/NELFB/CHMP3/RCC1/NUP210/NUP54/TAF5/TAF11/NUP160/SEH1L/TAF6/CHMP2B/NUP98/CCNT2/VTA1/POLR2C/VPS37D/VPS4A/VPS4B/GTF2H2/GTF2H3/CCNK/NUP214/CHMP6/NUPL2/POLR2B/TAF2/NUP155/TAF9/AAAS/GTF2A1/VPS37C/TAF7/GTF2H4/RNGTT/TAF4B/TAF13/NUP188/NUP205/CHMP4A</t>
-  </si>
-  <si>
-    <t>YWHAH/COX7C/COX7A2L/RHEB/COX4I1/COX5B/YWHAQ/YWHAB/LRPPRC/COX6B1/COX8A/CYCS/PRKAG1/PRDX1/YWHAZ/PRKAB2/COX7B/TXN/SURF1/MLST8/AKT2/LAMTOR1/LAMTOR5/TXNRD1/MOV10/COX11/PRKAA1/AGO1/LAMTOR4/RRAGC/DDIT4/YWHAE/LAMTOR2/PRDX2/PTEN/COX18/NDUFA4/PRDX5/AKT3/GPI/RRAGA/COX5A/RRM2B/PRKAA2/TACO1/MTOR/COX14/SESN2/AKT1/SESN3/RPTOR/SLC38A9/RRAGD/RRAGB/TNRC6B/COX6A1/LAMTOR3/TNRC6A/GSR/GLS/COX16/COX6C/TSC2/AGO3/AGO2/TNRC6C/TSC1/SCO1/PRKAB1/AGO4/COX20/SESN1/G6PD/GPX2/GLS2/SCO2/SFN/TP53/TIGAR/PRKAG2/YWHAG</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/VCL/PEBP1/RAP1B/MAP2K1/HRAS/ACTG1/RAF1/MARK3/RAP1A/ARRB2/SRC/MAPK3/SPRED2/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/PHB/MAP2K2/FGB/FGA/RASA4/CNKSR2/MAP3K11/SPRED1/DAB2IP/MAPK1/VWF/RASA1/BRAF/KRAS/CNKSR1/KSR1/NF1/BRAP/SPRED3/CSK/RASA2/KSR2/FGG/RASA3/APBB1IP/RASAL1/RASAL3/JAK2/RASAL2/SYNGAP1/NRAS</t>
-  </si>
-  <si>
-    <t>MYL9/MYL6/ACTB/ARPC2/ARPC5/MYL12A/MYH10/CLTB/CFL1/AP2S1/MYH9/ARPC1B/RAC1/MYL12B/MMP2/AP2A1/ACTR2/PAK2/SDCBP/ARPC1A/CLTA/AP2M1/CDC42/ACTR3/FYN/HRAS/EFNB2/SDC2/ACTG1/NCSTN/LYN/RHOA/EFNA1/EPHA4/VAV3/GIT1/YES1/SRC/ROCK1/CLTC/AP2A2/EPHB3/EFNA4/ARPC4/ITSN1/EPHA6/LIMK2/PAK1/EFNB1/LIMK1/EPHA1/ROCK2/PSEN1/EPHB6/EFNA3/KALRN/APH1B/WASL/RASA1/CLTCL1/NCK2/DNM1/EPHA2/PSENEN/EFNA5/PTK2/EPHB2/ARPC3/APH1A/GRIN2B/PSEN2/EPHB4/ARHGEF7/ADAM10/MYH14/TIAM1/EFNB3/VAV2/EPHB1/EPHA7/AP2B1/MMP9/ARHGEF28/EPHA8/PAK3/NGEF</t>
-  </si>
-  <si>
-    <t>POLR2L/GTF2F1/POLR2F/POLR2J/GTF2F2/POLR2K/TPR/POLR2A/NUP62/NUP37/NUP35/NUP43/POLR2D/POLR2I/NUP50/RAE1/POLR2G/NUP153/POM121/NUP107/POLR2E/NUP88/RANBP2/NUP133/NDC1/POLR2H/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/POLR2C/NUP214/NUPL2/POLR2B/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>FDPS/FDFT1/TM7SF2/IDI1/FASN/SQLE/GGPS1/MVK/TGS1/SC5D/NFYC/RXRA/MVD/ELOVL6/CHD9/TBL1XR1/CREBBP/CARM1/LSS/SREBF2/HMGCS1/PPARA/NCOA2/SCD/HMGCR/TBL1X/MED1/PMVK/SP1/ACACA/ACACB/MTF1/SMARCD3/GPAM/NCOA6/DHCR7/NFYB/CYP51A1/SREBF1/NCOA1/HELZ2/NFYA</t>
-  </si>
-  <si>
-    <t>YARS/PPA1/QARS/DARS/EEF1E1/YARS2/SARS/NARS/EPRS/MARS/KARS/AARS/RARS/GARS/FARSA/PPA2/AIMP1/NARS2/LARS/PARS2/SARS2/AIMP2/CARS/WARS2/DARS2/IARS2/WARS/MARS2/RARS2/VARS2/EARS2/LARS2/IARS/HARS/FARS2/TARS/HARS2/FARSB/TARS2/VARS/AARS2/CARS2</t>
-  </si>
-  <si>
-    <t>GNG11/CALM1/CALM2/GNG5/GNB1/GNB2/FZD5/GNB5/GNB4/GNG12/FZD2/TCF7L2/LEF1/CALM3/GNB3/MOV10/AGO1/FZD4/CAMK2A/CTNNB1/MAP3K7/WNT5A/PPP3CA/PLCB1/TCF7/TCF7L1/PRKG1/PLCB2/PDE6B/PPP3CB/NFATC1/NLK/GNG4/TNRC6B/ITPR3/TNRC6A/FZD6/GNG7/PDE6G/ITPR2/AGO3/PRKCA/PLCB3/AGO2/GNAO1/TNRC6C/FZD3/AGO4/WNT11/PDE6A/GNGT1/GNG2/PPP3R1/GNG3/GNG10/PRKG2/GNG13/GNG8/ITPR1</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/FXR1/AGTRAP/VCL/PEBP1/AKAP9/RAP1B/SND1/MAP2K1/ESRP1/MACF1/HRAS/KDM7A/ACTG1/LMNA/PAPSS1/RAF1/MARK3/RAP1A/TRIM24/ARRB2/SRC/MAPK3/ZC3HAV1/KIAA1549/QKI/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/MAP2K2/FGB/FGA/TRAK1/AGK/CNKSR2/MPRIP/MAPK1/PAPD7/VWF/BRAF/KRAS/ATG7/CNKSR1/AGGF1/KSR1/CSK/AP3B1/KSR2/FGG/CLCN6/FAM114A2/APBB1IP/JAK2/BCL2L11/NRAS</t>
-  </si>
-  <si>
-    <t>RHEB/JUN/SALL4/EZH2/CHD4/PHC1/MLST8/MTA3/KDM1A/LAMTOR1/RING1/LAMTOR5/RNF2/SNAI2/HDAC1/RBBP7/HDAC7/MAPK3/LAMTOR4/RRAGC/LAMTOR2/GATAD2A/PHC2/ATN1/EED/REST/MAF1/ATF2/RRAGA/SNAI1/GATAD2B/HDAC5/MECOM/HDAC3/SCMH1/MTA1/MTOR/HDAC2/MAPK1/RPTOR/SLC38A9/MTA2/RRAGD/RRAGB/CBX8/SUZ12/LAMTOR3/CBX2/CBX4/PHC3/EGR1/RBBP4/BMI1/CHD3/PPARG/TP53/RCOR1/CBX6/MBD3</t>
-  </si>
-  <si>
-    <t>SLBP/NCBP2/EIF4E/TPR/NUP62/CPSF2/NUP37/CPSF4/NUP35/NUP43/NUP50/RAE1/NCBP1/NUP153/POM121/NUP107/NUP88/RANBP2/CPSF3/ALYREF/WDR33/NUP133/NXF1/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/SYMPK/NUP160/SEH1L/CPSF1/FIP1L1/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>RHEB/DYNLL1/MAP1LC3B/MAP1LC3A/CHMP2A/CHMP4B/GABARAPL2/PRKAG1/PRKAB2/WIPI1/MLST8/LAMTOR1/LAMTOR5/DYNLL2/ATG4D/PRKAA1/ATG101/CHMP7/LAMTOR4/RRAGC/LAMTOR2/ATG5/CHMP4C/MTMR3/RRAGA/WIPI2/PRKAA2/MTOR/WDR45/ATG4C/RPTOR/SLC38A9/ULK1/AMBRA1/ATG3/RRAGD/RRAGB/CHMP3/ATG7/ATG9A/ATG13/LAMTOR3/BECN1/ATG10/ATG12/UVRAG/TSC2/CHMP2B/ATG16L1/ATG4B/ATG4A/PIK3C3/CHMP6/TSC1/PRKAB1/WDR45B/ATG9B/GABARAPL1/GABARAP/ATG14/RB1CC1/PIK3R4/MTMR14/PRKAG2/CHMP4A</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/DYNLL1/KIF22/TMED9/TUBB2A/DCTN3/RAB18/KIF2C/KIF23/ACTR1A/CENPE/ARF1/KIF20A/KIF20B/PAFAH1B3/SURF4/KIF21A/ARF5/KIF4A/COPB2/KIFC1/TUBB2B/DCTN2/CAPZA1/KIF12/RACGAP1/DYNC1LI1/COPB1/DCTN5/KIF3C/TMED7/KIFAP3/KDELR2/TMED2/DYNLL2/TMED3/ARFGAP3/KIF26B/ARF4/PAFAH1B2/CAPZA2/DYNC1LI2/BICD1/ARF3/KIF9/KIF2A/USE1/TUBA4A/GBF1/TMED10/KLC2/KIF11/TUBA1C/KIF18B/KIF1B/KIF15/NAPA/ARFGAP1/NAPB/GALNT2/GALNT1/PAFAH1B1/DCTN4/NBAS/KIF26A/COPA/KLC3/ZW10/RAB1B/DYNC1I1/BICD2/RAB1A/COPG2/EHHADH/KDELR3/DCTN1/RAB6A/KIF13B/NSF/ARFGAP2/KIFC2/KIF5B/BNIP1/RINT1/PLA2G6/DYNC1H1/NAPG/KIF3A/STX18/KIF1C/COPE/RAB3GAP1/KIF16B/AGPAT3/DYNC1I2/COPZ2/KIF27/COPG1/KLC4/TUBB8/KIF3B/KIF1A/CAPZB/KIF19/TUBB4A/SEC22B/KIF21B/ACTR10/KIF6/KIF18A/KIF25/RAB3GAP2/ARCN1/DCTN6/RAB6B/KLC1/COPZ1</t>
-  </si>
-  <si>
-    <t>NCBP2/EIF4E/TPR/NUP62/CPSF2/NUP37/CPSF4/NUP35/NUP43/NUP50/RAE1/NCBP1/NUP153/POM121/NUP107/NUP88/RANBP2/CPSF3/ALYREF/WDR33/NUP133/NXF1/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/SYMPK/NUP160/SEH1L/CPSF1/FIP1L1/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>TGIF1/FOXH1/FSTL1/PPP1CC/FKBP1A/UBA52/UBB/PPP1CA/PARP1/CCNC/SMAD9/BAMBI/MYC/NCOR1/STRAP/TFDP1/DRAP1/CGN/SNW1/TFDP2/F11R/E2F4/TGFB1/USP9X/SERPINE1/SMAD3/AMHR2/PPP1CB/PARD3/NEDD4L/RHOA/HDAC1/MEN1/JUNB/WWTR1/CDK9/UBE2D3/XPO1/STUB1/UBE2M/BMPR2/SKIL/PRKCZ/TRIM33/SMAD4/AMH/RBL1/TGFBR1/SMAD2/CBL/ZFYVE9/SMAD1/FURIN/CDKN2B/TGIF2/BMPR1A/CCNT1/USP15/SMAD5/UBC/SMURF2/NEDD8/PPP1R15A/BMP2/SMURF1/FST/SP1/INHBA/FSTL3/E2F5/CCNT2/NCOR2/PARD6A/SKI/ACVR2B/CCNK/SMAD6/CDK8/GREM2/ACVRL1/NOG/TGFBR2/MTMR4/BMPR1B/UCHL5/ACVR1B/ACVR2A/SMAD7/RNF111/PPM1A/ZFYVE16/ACVR1C/PMEPA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>POLR2L/SUPT4H1/GTF2F1/NCBP2/GTF2A2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/RPRD1B/SNAPC5/SRRT/SNAPC1/INTS10/SNAPC2/POLR2D/POLR2I/CDK9/RPRD2/NCBP1/SUPT5H/PHAX/NABP2/POLR2G/INTS6/GTF2E2/GTF2B/POLR2E/TBP/PCF11/RPAP2/SSU72/RPRD1A/POLR2H/CDK7/ELL/ZNF143/ICE1/ZC3H8/GTF2E1/NABP1/CCNT1/ICE2/SNAPC3/INTS3/TAF5/SP1/TAF11/TAF6/POU2F1/INTS1/CCNT2/POLR2C/INTS2/INTS12/TAF8/CCNK/POLR2B/INTS8/INTS9/SNAPC4/INTS7/TAF9/GTF2A1/ELL2/POU2F2/TAF13/INTS5/INTS4</t>
-  </si>
-  <si>
-    <t>FN1/CALM1/HSPB1/ACTB/DUSP4/FGFR1/CALM2/CDK1/PSMC3/PSME2/SPTBN1/FGFR4/YWHAB/RAC1/PSMC4/PEA15/UBA52/RASGRP3/SEPT7/PSMA4/JUN/UBB/PSMA7/VCL/PSMB3/PEBP1/AKAP9/PPP2R1A/RBX1/SHC1/PSMD11/ERBB4/MYC/DUSP1/PSMB2/PSMD7/RAP1B/PAK2/PSMD14/CCND3/JAK1/PSMC5/PSME1/PSMB6/TEK/PDGFRA/PSMF1/MAP2K1/CDC42/PDGFRB/PPP2CB/SPTAN1/PSMB1/PPP2R5C/FYN/HRAS/DUSP6/PSMA1/CAMK2D/PSMA3/ACTG1/ERBB3/CDC42EP3/PSMD8/PSMC2/PSME3/DNAJB1/CALM3/RAF1/PPP2CA/PSMD12/PSME4/MOV10/PSMB4/MARK3/PSMB7/RAP1A/GRB2/ETV4/ARRB2/IGF2BP1/PSMD6/XPO1/SRC/AGO1/ANGPT1/PPP2R1B/MAPK3/PSMD4/CAMK2A/PTPRA/PPP2R5A/PSMA6/SPRED2/PSMD10/FGFR2/MAPK6/LAMTOR2/TYK2/CAMK2G/NCAM1/ERBB2/IQGAP1/ARAF/ITGA2B/TLN1/PSMA2/CDC14B/ARRB1/SHC2/MAPKAPK5/PSMD2/PHB/GRIN2A/MAP2K2/SPTBN2/FGB/PAK1/FGA/PSMD13/PPP5C/HBEGF/PDGFA/DUSP5/PSMB10/PTPN11/PSPN/FGF7/RASA4/CNKSR2/FRS3/MAP3K11/DUSP9/PPP2R5E/SPRED1/DAB2IP/KALRN/KIT/NRG1/MAPK1/NRG2/UBC/DLG4/GFRA2/CUL3/FGF1/DUSP10/DUSP2/WDR83/PSMC1/VWF/RASA1/BRAF/KRAS/TNRC6B/PSMD9/PTK2/CNKSR1/FGFR3/PSMA5/LAMTOR3/TNRC6A/GRIN2B/FGF19/FGF10/PSMD5/IRS1/PAQR3/RASGRP1/FGF17/PPP2R5D/KBTBD7/CDC42EP2/KSR1/AGO3/FGF8/RANBP9/GFRA3/RAPGEF2/CAMK2B/PRKACA/NF1/PSMC6/AGO2/DUSP7/PSMD3/BRAP/TNRC6C/FOXO1/PRKACB/ACTN2/NCOA3/FGF22/SPRED3/GRIN2D/KITLG/RASGEF1A/PSMD1/CSK/IL6ST/AGO4/FRS2/KLB/NRG4/CDC14A/RASA2/IRS2/PPP2R5B/KSR2/FGG/EGFR/PSMB5/CSF2RA/FGF23/IL6R/SPTB/RASA3/FOXO3/SPTBN5/JAK3/FGF18/FGF9/IL6/MAPK4/NRTN/IL17RD/PDGFB/LAT/GDNF/HGF/IL2RG/SHC3/APBB1IP/RASAL1/RASAL3/DUSP8/PAK3/SPTBN4/EGF/JAK2/RASAL2/SOS1/DUSP16/SYNGAP1/NRAS/FGF2/MET</t>
-  </si>
-  <si>
-    <t>HMGB2/HMGB1/YWHAH/H1F0/PSMC3/DYNLL1/CLSPN/DSP/PSME2/YWHAQ/YWHAB/PSMC4/UBA52/PSMA4/UBB/TJP1/PSMA7/LMNB1/PSMB3/APPL1/PSMD11/CYCS/PSMB2/PSMD7/TFDP1/HIST1H1D/PAK2/PSMD14/PSMC5/PSME1/PSMB6/YWHAZ/FNTA/CFLAR/PSMF1/KPNB1/TFDP2/TRAF2/SPTAN1/PSMB1/GSN/DFFA/HIST1H1B/DBNL/PSMA1/AKT2/CDH1/PSMA3/CASP3/BIRC2/BAD/LMNA/PPP3CC/MAGED1/BCAP31/PSMD8/PSMC2/PSME3/DYNLL2/ADD1/PSMD12/PRKCD/PSME4/DNM1L/PSMB4/HIST1H1E/PSMB7/HIST1H1C/BAX/PMAIP1/OPA1/DAPK3/PSMD6/ROCK1/PSMD4/NMT1/E2F1/BAK1/ACIN1/OMA1/PSMA6/PLEC/PSMD10/CTNNB1/OCLN/YWHAE/AKT3/PSMA2/RIPK1/PSMD2/UNC5B/FADD/VIM/TLR4/PSMD13/TP53BP2/DSG2/ARHGAP10/PPP1R13B/PSMB10/CASP9/XIAP/BBC3/AKT1/UBC/PSMC1/APC/BCL2L1/TRADD/STK24/PSMD9/PTK2/PSMA5/BID/SATB1/PSMD5/DFFB/APAF1/BCL2/TNFRSF10B/CASP7/PSMC6/PSMD3/GAS2/PRKCQ/KPNA1/DCC/TICAM1/CASP8/PSMD1/STK26/DIABLO/PPP3R1/MAPT/TNFRSF10A/PSMB5/DAPK1/MAPK8/TNFSF10/TP73/SFN/DAPK2/FAS/BMF/TP53/BCL2L11/YWHAG/CASP6/TJP2</t>
-  </si>
-  <si>
-    <t>COX7C/ATP5A1/COX7A2L/COX4I1/NDUFA10/UQCRH/NDUFB5/COX5B/ATP5F1/NDUFA6/ATP5C1/MDH2/ATP5G2/UQCRB/IDH2/LDHB/UQCRC2/ATP5G3/ATP5B/LRPPRC/CYC1/NDUFA1/ATP5I/COX6B1/NDUFS4/COX8A/SLC16A3/ATP5D/TRAP1/CYCS/NDUFB9/HAGH/NDUFB2/ATP5O/ACO2/NDUFC2/ATP5L/NDUFS6/SUCLG1/NDUFAB1/SUCLG2/NDUFAF3/ATP5J/GLO1/IDH3B/NDUFS7/LDHA/PDHB/SDHD/COX7B/SLC16A1/SURF1/DLD/UQCR10/ETFA/DLAT/NDUFAF2/MPC2/NDUFA8/UQCR11/NDUFS2/UQCRQ/NDUFB6/NDUFA13/TIMMDC1/SDHA/UQCRFS1/SDHC/BSG/ATP5J2/NDUFS8/PDHA1/ATP5E/NDUFB7/NDUFS3/PDK1/COX11/NDUFB3/RXRA/ECSIT/TMEM126B/PDHX/SUCLA2/ATP5S/NDUFA11/IDH3G/NDUFA12/NDUFB10/PDK3/NDUFV3/IDH3A/D2HGDH/MPC1/NDUFS1/COX18/NDUFB4/NDUFAF4/NDUFA2/NDUFA4/ADHFE1/NDUFS5/UQCRC1/PDPR/COX5A/NUBPL/NDUFA5/SLC25A14/NDUFA7/TACO1/NDUFB11/COX14/CS/NDUFA3/NDUFV1/NNT/NDUFC1/ATP5H/COX6A1/NDUFB8/PPARD/ETFB/PDP2/COX16/ACAD9/NDUFV2/COX6C/ATP5G1/NDUFAF6/NDUFAF7/NDUFB1/ETFDH/L2HGDH/UCP3/DLST/SLC25A27/OGDH/COQ10A/FH/SCO1/COQ10B/NDUFAF1/COX20/NDUFA9/PDP1/SCO2/NDUFAF5/UCP2/PDK2/SDHB</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/CCNC/RBX1/MYC/NCOR1/RBPJ/SNW1/JAG1/NOTCH1/NCSTN/HDAC1/HDAC8/MAML3/HDAC7/SKP1/TBL1XR1/MIB1/DLL1/CREBBP/HES1/ADAM17/HDAC10/HDAC5/HDAC6/MIB2/EP300/HDAC3/PSEN1/FBXW7/HDAC2/MAML1/UBC/APH1B/TBL1X/JAG2/PSENEN/HEY2/APH1A/DLL4/HEYL/PSEN2/HDAC4/NCOR2/ADAM10/HDAC11/CDK8/HEY1/KAT2A/MAMLD1/KAT2B/NEURL1B/NEURL1/HDAC9/MAML2/CUL1</t>
-  </si>
-  <si>
-    <t>FEN1/APEX1/PCNA/RPA3/RFC4/POLE4/PARP1/RPA2/RFC2/BPHL/MPG/LIG1/POLD3/TDG/POLE/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/PARG/NEIL2/UNG/POLE2/POLE3/NEIL1/PNKP/OGG1/MUTYH/MBD4/SMUG1/ADPRHL2/NTHL1/PARP2/LIG3/POLD4/POLB/XRCC1</t>
-  </si>
-  <si>
-    <t>ARFIP2/RHOBTB3/TGOLN2/NAA38/VAMP3/COG4/GOLGA4/NAPA/NAPB/COG8/VPS51/STX10/SYS1/RAB9A/GCC2/NAA30/RGP1/ARL1/RAB6A/NSF/PLIN3/GOLGA1/NAPG/COG2/STX16/COG6/IGF2R/COG3/VAMP4/TMF1/RIC1/GCC1/VPS53/NAA35/STX6/COG7/COG1/SCOC/COG5/VTI1A/VPS52/RABEPK/USP6NL/RAB9B/RAB6B/ARFRP1/VPS54/M6PR</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/DYNLL1/SPTBN1/TMED9/TUBB2A/DCTN3/TRAPPC6A/SEC13/CTSC/ACTR1A/FOLR1/ARF1/TRAPPC2L/TRAPPC1/ARF5/TRAPPC4/TRAPPC3/COPB2/TUBB2B/SPTAN1/GOSR1/DCTN2/CAPZA1/STX5/GOLGA2/DYNC1LI1/COPB1/LMAN2/ANK3/DCTN5/TMED7/USO1/KDELR2/SEC31A/TMED2/DYNLL2/TMED3/ARFGAP3/YKT6/ARF4/CAPZA2/DYNC1LI2/TBC1D20/CNIH1/ARF3/LMAN1/COG4/TUBA4A/GBF1/TMED10/TUBA1C/CD59/PPP6R1/PREB/SEC16A/GOSR2/NAPA/ARFGAP1/NAPB/SEC24B/TRAPPC6B/DCTN4/COG8/SAR1B/SPTBN2/COPA/SCFD1/PPP6C/RAB1B/DYNC1I1/RAB1A/COPG2/EHHADH/KDELR3/BET1/DCTN1/SEC24A/GOLGB1/TRAPPC2/NSF/ARFGAP2/SEC23A/CSNK1D/SEC23IP/DYNC1H1/NAPG/SERPINA1/TRAPPC5/SEC24D/COG2/COG6/TFG/COPE/MCFD2/LMAN2L/MIA3/DYNC1I2/TRAPPC10/COPZ2/CD55/COG3/COL7A1/GORASP1/COPG1/ANKRD28/CNIH3/SEC22A/TUBB8/TRAPPC9/CAPZB/BET1L/COG7/COG1/COG5/CTSZ/TUBB4A/CNIH2/SEC22B/SEC22C/STX17/F8/TMEM115/ACTR10/SPTB/SPTBN5/SEC16B/ANK1/SPTBN4/ANK2/ARCN1/SEC24C/DCTN6/PPP6R3/COPZ1</t>
-  </si>
-  <si>
-    <t>PTTG1/MAD2L1/AURKB/UBE2C/ANAPC11/CDC20/CCNB1/CDK1/PSMC3/PLK1/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/AURKA/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/SKP2/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/FBXO5/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/NEK2/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/SKP1/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/FZR1/PSMD13/CDK2/PSMB10/BTRC/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/CDC14A/PSMB5/CCNA1/UBE2D1/CUL1</t>
-  </si>
-  <si>
-    <t>H2AFZ/GNG11/CALM1/HIST1H4C/H2AFV/CALM2/GNG5/SNX3/PSMC3/GNB1/PFN1/CLTB/SOST/H2AFX/PSME2/SOX17/AP2S1/RSPO3/RAC1/PSMC4/VPS29/UBA52/ASH2L/WLS/PSMA4/UBB/PSMA7/GNB2/RAC3/PSMB3/SOX7/PPP2R1A/SOX4/RBX1/SFRP1/PSMD11/DKK1/MYC/AP2A1/PSMB2/PSMD7/TLE1/FZD5/PSMD14/PSMC5/PSME1/PSMB6/ROR1/GNB5/YWHAZ/H2AFJ/CLTA/AP2M1/CSNK2B/GNB4/PSMF1/FZD7/PPP2CB/PSMB1/GNG12/PPP2R5C/SRY/PSMA1/FZD2/AKT2/PSMA3/RSPO4/CSNK2A2/TCF7L2/H3F3A/PSMD8/PSMC2/PSME3/LEF1/CALM3/GNB3/PPP2CA/CSNK1A1/PSMD12/TLE3/PSME4/MOV10/PSMB4/RHOA/HDAC1/MEN1/H3F3B/PSMB7/RNF146/SMARCA4/ARRB2/PSMD6/TLE4/XPO1/CSNK1E/AGO1/CHD8/CLTC/PPP2R1B/VPS26A/PSMD4/AES/FZD4/AP2A2/CAMK2A/SKP1/TLE2/CSNK2A1/PPP2R5A/PSMA6/PSMD10/HIST1H2AC/CTNNB1/MAP3K7/LRP5/WNT5A/KREMEN2/WNT3/HIST2H2AC/LEO1/CTNNBIP1/CDC73/PPP3CA/CREBBP/VPS35/PSMA2/CBY1/PSMD2/HIST1H2BG/PLCB1/TCF7/WNT5B/EP300/PSMD13/HIST2H2BE/TCF7L1/ROR2/LGR4/TMED5/AXIN1/PSMB10/PYGO1/CAV1/DVL3/XIAP/DVL2/PRKG1/CCDC88C/AKT1/CTBP1/PPP2R5E/PLCB2/PDE6B/BTRC/HIST1H3B/AXIN2/DVL1/PPP3CB/ZNRF3/RAC2/PRICKLE1/UBC/NFATC1/SMURF2/HIST1H2BH/BCL9L/CUL3/KAT5/PSMC1/APC/KMT2D/HIST1H3F/GSK3B/NLK/USP34/SOX9/GNG4/VANGL2/TNRC6B/PSMD9/SMURF1/ITPR3/HIST1H2BD/PSMA5/HIST1H3A/TNRC6A/RNF43/HIST1H4J/TRRAP/PSMD5/RYK/SCRIB/SOX13/PPP2R5D/FZD6/GNG7/PDE6G/ITPR2/SOX6/RSPO2/AGO3/HIST1H2AB/PRKCA/TNKS2/PARD6A/PORCN/PLCB3/DAAM1/PSMC6/AGO2/GNAO1/PSMD3/AMER1/PYGO2/TNRC6C/FZD3/HIST1H4H/WNT2B/HIST1H3G/FZD8/PSMD1/USP8/HIST1H2BN/AGO4/WNT11/FRAT1/PDE6A/HIST1H3E/GNGT1/HIST1H3H/KLHL12/RUVBL1/GNG2/TNKS/PPP3R1/DACT1/PPP2R5B/HIST1H4E/GNG3/HIST1H2BL/PSMB5/HIST1H2BC/HIST1H2AE/FRAT2/RBBP5/GNG10/HIST1H2BF/HIST4H4/AP2B1/WNT2/RUNX3/KREMEN1/LRP6/PRKG2/HIST1H4I/SOX2/RSPO1/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/WNT16/GNG13/GNG8/HIST1H2BE/TERT/HIST1H2BJ/HIST1H2BK/PRKCG/ITPR1/CSNK1G2/HIST1H3I/BCL9/SFRP2/PRKCB/LGR5/PIP5K1B/FZD1/CTBP2/CUL1</t>
-  </si>
-  <si>
-    <t>TOMM7/SLC25A6/ATP5A1/TOMM20/TIMM13/PMPCB/HSPD1/CMC2/TIMM9/DNAJC19/ATP5B/CYC1/COX17/TOMM22/CHCHD3/COA4/CHCHD10/MTX1/ACO2/CHCHD5/TIMM17B/TIMM23/VDAC1/SAMM50/PMPCA/TOMM5/TIMM50/GFER/TIMM10/IDH3G/TIMM21/TIMM17A/TIMM44/GRPEL2/SLC25A4/TIMM8B/SLC25A13/CHCHD7/COA6/TOMM40/CS/HSCB/GRPEL1/FXN/TIMM8A/HSPA9/BCS1L/NDUFB8/COX19/TAZ/TIMM10B/ATP5G1/MTX2/LDHD/CHCHD4/TOMM70/COQ2/SLC25A12/TIMM22/CMC4/PAM16</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/RPA3/PSMC3/GMNN/PSME2/MCM7/POLE4/PSMC4/MCM6/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/RPA2/MCM4/PSMD11/PSMB2/PSMD7/PSMD14/MCM2/PSMC5/PSME1/PSMB6/POLE/CDT1/CDC45/PSMF1/POLA2/RPA1/MCM10/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/DBF4/POLE2/PSMD6/POLE3/PSMD4/E2F1/PSMA6/PSMD10/POLA1/PSMA2/PSMD2/PSMD13/CDK2/PSMB10/CDC7/ORC2/UBC/PSMC1/ORC5/PSMD9/PSMA5/PRIM1/PSMD5/PRIM2/PSMC6/ORC1/PSMD3/RPA4/E2F2/PSMD1/PSMB5/ORC3/E2F3</t>
-  </si>
-  <si>
-    <t>EIF4A2/KPNA2/UBA52/UBB/PIN1/ISG15/UBE2N/JAK1/EIF4E/TPR/KPNB1/NUP62/IRF3/UBE2L6/NUP37/NUP35/FLNB/NUP43/USP18/EIF4A1/NUP50/MAPK3/PLCG1/RAE1/NUP153/POM121/KPNA4/NUP107/EIF4G2/NUP88/RANBP2/UBE2E1/EIF4A3/NUP133/NDC1/EIF2AK2/NUP93/NUP58/TRIM25/NEDD4/NUP85/UBC/NUP210/EIF4G1/NUP54/KPNA5/DDX58/NUP160/SEH1L/STAT1/NUP98/EIF4E3/EIF4G3/KPNA1/NUP214/NUPL2/PPM1B/NUP155/EIF4E2/HERC5/AAAS/KPNA3/UBA7/NUP188/NUP205/ARIH1/IFIT1</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PSMC3/PSME2/RAC1/PSMC4/UBA52/PSMA4/JUN/UBB/PSMA7/RASGRP2/PSMB3/UBE2N/SHC1/PSMD11/PSMB2/PSMD7/PAK2/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/GRAP2/PSMB1/FYN/HRAS/MAP2K7/MAPK10/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/UBE2D2/CALM3/LYN/PSMD12/PSME4/PSMB4/PSMB7/PIK3R1/PLCG2/CDC34/GRB2/VAV3/PSMD6/MAPK3/PSMD4/PLCG1/NFATC3/SKP1/AHCYL1/FOS/PSMA6/PSMD10/MAP3K7/PPP3CA/PSMA2/PSMD2/TAB1/MAP3K1/PAK1/PSMD13/GAB2/PSMB10/FBXW11/BCL10/BTRC/IKBKB/PDPK1/MAPK1/PPP3CB/UBC/NFATC1/TAB3/MAPK9/CHUK/PSMC1/MALT1/KRAS/PIK3CB/PSMD9/ITPR3/TAB2/PSMA5/PSMD5/RASGRP1/ITPR2/PIK3R2/NFKB1/PSMC6/BTK/PIK3CA/PSMD3/PRKCQ/RELA/TRAF6/PSMD1/TEC/MAP2K4/VAV2/PPP3R1/NFATC2/CARD11/PSMB5/IKBKG/MAPK8/LCP2/UBE2V1/LAT/LAT2/FCER1G/SOS1/ITPR1/NRAS/UBE2D1/CUL1</t>
-  </si>
-  <si>
-    <t>SUMO1/HNRNPC/HNRNPK/TPR/NUP62/PCGF2/NOP58/PHC1/NUP37/NUP35/RING1/RNF2/NUP43/SUMO2/NUP50/UBE2I/RAE1/NUP153/POM121/NUP107/PHC2/NUP88/RANBP2/NUP133/NDC1/SCMH1/NUP93/NUP58/NUP85/CBX8/NUP210/NUP54/NUP160/CBX2/SEH1L/NUP98/NUP214/CBX4/PHC3/NUPL2/NUP155/AAAS/BMI1/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>ACTB/ARPC2/ARPC5/ARPC1B/RAC1/BRK1/ACTR2/ARPC1A/CYFIP2/CDC42/ABI2/ACTR3/WASF2/ACTG1/WIPF2/GRB2/MAPK3/WASF1/NCKIPSD/WIPF3/CYFIP1/ARPC4/WIPF1/NCKAP1/BAIAP2/MAPK1/WASL/PTK2/NCK1/ARPC3/WAS/ABI1/BTK/WASF3/NCKAP1L/ABL1</t>
-  </si>
-  <si>
-    <t>POLR2L/UBA52/UBB/POLR2F/COPS5/RBX1/DDB1/POLR2J/COPS3/TCEA1/POLR2K/COPS8/PRPF19/POLR2A/GPS1/HMGN1/ERCC8/COPS2/POLR2D/POLR2I/ZNF830/ERCC2/COPS6/MNAT1/PPIE/POLR2G/CUL4B/XPA/ERCC3/POLR2E/ISY1/GTF2H5/GTF2H1/XAB2/EP300/POLR2H/CDK7/COPS4/AQR/CCNH/USP7/UBC/UVSSA/POLR2C/CUL4A/GTF2H2/GTF2H3/COPS7B/POLR2B/ERCC6/COPS7A/GTF2H4</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/FKBP1A/PSMC3/PSME2/PSMC4/UBA52/RASGRP3/PSMA4/PPIA/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/PSMB1/HRAS/PSMA1/NFKBIB/PSMA3/PSMD8/PSMC2/PSME3/CALM3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/NFATC3/SKP1/PSMA6/PSMD10/MAP3K7/NFKBIE/PPP3CA/PSMA2/REL/PSMD2/PSMD13/PSMB10/FBXW11/BCL10/BTRC/IKBKB/PPP3CB/UBC/NFATC1/CHUK/PSMC1/MALT1/KRAS/PSMD9/PSMA5/PSMD5/RASGRP1/NFKB1/PSMC6/PSMD3/RELA/PSMD1/PPP3R1/NFATC2/CARD11/PSMB5/IKBKG/NRAS/PRKCB/CUL1</t>
-  </si>
-  <si>
-    <t>SLC25A6/PSIP1/BANF1/HMGA1/TPR/SLC25A5/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/SLC25A4/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/KPNA1/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>NPM1/RANBP1/RAN/TPR/KPNB1/NUP62/RANGAP1/NUP37/NUP35/NUP43/NUP50/XPO1/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/RCC1/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>AP1M2/CLTB/HSPA8/VAMP8/ARF1/CHMP2A/AP1S2/APP/BLOC1S1/CLTA/AP1G1/CLTC/AP1B1/AP1S1/CLVS2/AP4S1/ARRB1/DNM2/SH3GL2/VAMP7/GNS/HGS/AP1S3/AP1G2/VAMP2/DNAJC6/DNASE2/AP4B1/AP4E1/TXNDC5/AP4M1/CTSZ/CLVS1/AP1M1/M6PR</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PPP2R1A/RBX1/PSMD11/PSMB2/PSMD7/TLE1/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PPP2CB/PSMB1/PPP2R5C/PSMA1/PSMA3/TCF7L2/PSMD8/PSMC2/PSME3/LEF1/PPP2CA/CSNK1A1/PSMD12/TLE3/PSME4/PSMB4/HDAC1/PSMB7/PSMD6/TLE4/PPP2R1B/PSMD4/AES/SKP1/TLE2/PPP2R5A/PSMA6/PSMD10/CTNNB1/PSMA2/PSMD2/TCF7/PSMD13/TCF7L1/AXIN1/PSMB10/CTBP1/PPP2R5E/BTRC/UBC/PSMC1/APC/GSK3B/PSMD9/PSMA5/PSMD5/PPP2R5D/PSMC6/PSMD3/AMER1/PSMD1/FRAT1/PPP2R5B/PSMB5/FRAT2/CTBP2/CUL1</t>
-  </si>
-  <si>
-    <t>HSP90AA1/RHOC/MYL9/MYL6/MYL12A/MYH10/HSP90AB1/CFL1/MYH9/RAC1/ITGB1/MYL12B/SEMA5A/DPYSL3/PAK2/CDC42/RHOB/FYN/PLXND1/NRP1/RRAS/PLXNA2/SEMA3E/RHOA/ARHGAP35/CDK5/ROCK1/SEMA6A/ERBB2/TLN1/RHOG/SEMA6D/LIMK2/PAK1/LIMK1/PIP5K1C/ROCK2/SEMA3A/CRMP1/SEMA7A/RAC2/PLXNA1/PLXNB1/GSK3B/FES/DPYSL2/ARHGEF12/MYH14/SEMA4D/PLXNA3/RND1/SEMA4A/FARP2/PLXNC1/DPYSL4/DPYSL5/CD72/TYROBP/PLXNA4/ITGA1/CDK5R1/PAK3/ARHGEF11/MET</t>
-  </si>
-  <si>
-    <t>HMGB2/HMGB1/YWHAH/H1F0/PSMC3/DYNLL1/CLSPN/DSP/PSME2/YWHAQ/YWHAB/PSMC4/UBA52/PSMA4/UBB/TJP1/PSMA7/LMNB1/PSMB3/APPL1/PSMD11/CYCS/PSMB2/PSMD7/TFDP1/HIST1H1D/PAK2/PSMD14/PSMC5/PSME1/PSMB6/YWHAZ/FNTA/CFLAR/PSMF1/KPNB1/TFDP2/TRAF2/SPTAN1/PSMB1/GSN/DFFA/HIST1H1B/DBNL/PSMA1/AKT2/CDH1/PSMA3/CASP3/BIRC2/BAD/LMNA/PPP3CC/MAGED1/BCAP31/PSMD8/PSMC2/PSME3/DYNLL2/ADD1/PSMD12/PRKCD/PSME4/DNM1L/PSMB4/HIST1H1E/PSMB7/HIST1H1C/BAX/PMAIP1/OPA1/DAPK3/PSMD6/ROCK1/PSMD4/NMT1/E2F1/BAK1/ACIN1/OMA1/PSMA6/PLEC/PSMD10/CTNNB1/OCLN/YWHAE/AKT3/PSMA2/RIPK1/PSMD2/UNC5B/FADD/VIM/TLR4/PSMD13/TP53BP2/DSG2/ARHGAP10/PPP1R13B/PSMB10/CASP9/XIAP/BBC3/AKT1/UBC/PSMC1/APC/BCL2L1/TRADD/STK24/PSMD9/PTK2/PSMA5/BID/SATB1/PSMD5/DFFB/APAF1/BCL2/TNFRSF10B/CASP7/PSMC6/PSMD3/GAS2/PRKCQ/KPNA1/DCC/TICAM1/CASP8/PSMD1/STK26/DIABLO/PPP3R1/MAPT/TNFRSF10A/PSMB5/DAPK1/MAPK8/TNFSF10/TP73/MLKL/SFN/DAPK2/FAS/BMF/TP53/BCL2L11/YWHAG/CASP6/TJP2</t>
-  </si>
-  <si>
-    <t>PABPC1/HSPB1/PSMC3/PSME2/HSPA1A/YWHAB/PSMC4/EXOSC8/UBA52/PSMA4/HSPA8/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/ZFP36L1/PSMD14/EXOSC9/HNRNPD/PSMC5/PSME1/PSMB6/YWHAZ/ELAVL1/PSMF1/PSMB1/DCP1A/HSPA1B/PSMA1/PSMA3/EXOSC3/PSMD8/PSMC2/PSME3/ANP32A/EXOSC2/PSMD12/PRKCD/PSME4/EXOSC7/PSMB4/TNPO1/PSMB7/PSMD6/XPO1/PSMD4/PSMA6/PSMD10/SET/EXOSC6/PSMA2/PSMD2/DCP2/PSMD13/KHSRP/PSMB10/XRN1/PARN/AKT1/UBC/PSMC1/EXOSC4/EXOSC5/EIF4G1/MAPK14/PSMD9/PSMA5/DIS3/PSMD5/MAPKAPK2/PRKCA/ZFP36/PSMC6/PSMD3/NUP214/MAPK11/PSMD1/EXOSC1/PSMB5</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/PSMC3/PSME2/PSMC4/UBA52/PSMA4/TUBB2A/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/GNAS/PSME1/PSMB6/PRKAR1A/PSMF1/TUBB2B/PSMB1/PSMA1/PSMA3/OFD1/PSMD8/PSMC2/GLI2/PSME3/CSNK1A1/PSMD12/PSME4/PSMB4/PSMB7/ADCY3/IFT52/PSMD6/PSMD4/TUBA4A/GPR161/SKP1/TULP3/TUBA1C/PRKAR2A/PSMA6/PSMD10/ITCH/MKS1/PSMA2/PSMD2/NUMB/IFT57/PSMD13/FUZ/SUFU/TTC21B/PSMB10/GLI3/IFT172/BTRC/UBC/INTU/PSMC1/IFT88/PTCH1/KIF3A/PRKAR1B/GSK3B/PSMD9/GLI1/PSMA5/ADCY2/RPGRIP1L/PSMD5/WDR35/KIF7/WDR19/IFT140/PRKACA/PSMC6/PSMD3/PRKACB/PSMD1/ADCY7/ADCY1/TUBB4A/PSMB5/ADCY10/PRKAR2B/SMO/IFT122/ADCY5/ADCY4/ADCY8/ADCY9/DYNC2H1/ADCY6/CUL1</t>
-  </si>
-  <si>
-    <t>MYDGF/SHC1/HDGF/XBP1/SERP1/ACADVL/SEC61G/HSPA5/WIPI1/DDX11/KLHDC3/GSK3A/LMNA/DNAJB11/SEC31A/ADD1/SEC62/CUL7/ASNA1/PREB/GOSR2/ARFGAP1/CXXC1/WFS1/PDIA6/TLN1/FKBP14/SRPRA/SEC61A1/SSR1/DNAJC3/YIF1A/SEC63/KDELR3/DCTN1/PDIA5/EXTL2/CTDSP2/SYVN1/SEC61B/SEC61A2/DNAJB9/ZBTB17/EXTL1/EDEM1/TSPYL2/TPP1/SRPRB/PPP2R5B/EXTL3/JMJD7-PLA2G4B/SULT1A3/ERN1/ATP6V0D1/HYOU1/GFPT1/TATDN2</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/TUBB4B/TUBB/TUBG1/CDK1/DYNLL1/PLK1/MZT1/TUBB2A/DCTN3/AKAP9/PPP2R1A/ACTR1A/CKAP5/HAUS8/TUBB2B/MZT2A/DCTN2/NEDD1/HAUS1/PCNT/MAPRE1/ODF2/OFD1/CEP78/CEP41/NEK2/CEP290/CENPJ/CEP164/CDK5RAP2/HAUS6/NINL/CNTRL/CSNK1E/TUBA4A/TUBA1C/HAUS7/NDE1/HAUS2/YWHAE/FGFR1OP/HAUS4/TUBGCP3/PAFAH1B1/TUBGCP5/HAUS5/NUMA1/CCP110/CEP135/CETN2/EHHADH/DCTN1/TUBGCP2/SSNA1/CSNK1D/DYNC1H1/CEP72/TUBGCP4/CEP76/TUBGCP6/SFI1/CEP70/SDCCAG8/PLK4/ALMS1/DYNC1I2/PRKACA/TUBB8/HAUS3/CEP192/CEP63/MZT2B/TUBG2/TUBB4A/PRKAR2B/CEP250/PCM1/CEP152/CEP131/CLASP1/YWHAG/CEP57</t>
-  </si>
-  <si>
-    <t>SLBP/NCBP2/EIF4E/TPR/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NCBP1/NUP153/POM121/NUP107/NUP88/RANBP2/ALYREF/NUP133/NXF1/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>CCNB1/CDK1/CCNB2/TPR/NUP62/NUP37/NUP35/NEK6/NEK9/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NEK7/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RAD51/RFC4/POLE4/UBA52/UBB/RHNO1/RAD51AP1/RPA2/RFC2/BARD1/BLM/POLD3/BRCA2/POLE/RMI2/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/BRCA1/EME1/EXO1/POLE2/POLE3/TOP3A/RBBP8/POLK/MUS81/RAD51C/RAD50/NBN/BRIP1/RAD17/GEN1/ATR/SPIDR/RAD9A/ATM/UBC/XRCC2/RAD51B/KAT5/EME2/RMI1/XRCC3/POLD4/RAD1/TOPBP1/HUS1/PALB2/MRE11/SLX4/WRN/DNA2/ATRIP/POLH/CHEK1/SLX1A/RAD51D</t>
-  </si>
-  <si>
-    <t>MAD2L1/UBE2C/ANAPC11/CDC20/CCNB1/CDK1/PSMC3/PLK1/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/FBXO5/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/SKP1/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/FZR1/PSMD13/CDK2/PSMB10/BTRC/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/CCNA1/UBE2D1/CUL1</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/SHC1/CDC42/HRAS/SH3KBP1/PIK3R1/GRB2/EPS15/SRC/PLCG1/SH3GL1/SH3GL3/ADAM17/PXN/SPRY2/CBL/PTPN11/SH3GL2/UBC/HGS/PTPN12/KRAS/EPN1/PTPN3/ARHGEF7/ADAM10/PIK3CA/EPS15L1/STAM2/CSK/STAM/ADAM12/PTPRK/EGFR/PAG1/SPRY1/GAB1/EGF/SOS1/LRIG1/NRAS</t>
-  </si>
-  <si>
-    <t>RPA3/UBA52/SUMO1/UBB/PARP1/RPA2/RBX1/UBE2N/DDB1/SUMO3/UBE2V2/ERCC1/RPA1/RAD23B/SUMO2/ERCC2/UBE2I/MNAT1/RAD23A/CUL4B/CHD1L/XPA/ERCC3/GTF2H5/GTF2H1/CDK7/CETN2/ERCC5/CCNH/PARP2/UBC/DDB2/ERCC4/XPC/CUL4A/PIAS3/GTF2H2/GTF2H3/USP45/GTF2H4/RNF111/PIAS1</t>
-  </si>
-  <si>
-    <t>URM1/LAGE3/THG1L/TP53RK/TRMT112/EPRS/TPRKB/TYW3/QTRT1/METTL1/PUS3/TYW5/TRMT6/FTSJ1/KIAA1456/OSGEP/TRMT13/PUS7/TRMT5/TRMT44/TRIT1/TRDMT1/TRMT10A/ADAT3/TRMT61A/DUS2/TRMT1/ADAT1/CTU2/WDR4/CDKAL1/THADA/ADAT2/QTRT2/TYW1/ALKBH8/TRMT11/PUS1/NSUN2/LCMT2/TRMT12/NSUN6</t>
-  </si>
-  <si>
-    <t>CLTB/AP2S1/UBA52/DAB2/UBB/COPS5/VAMP8/COPS3/AP2A1/NECAP2/UBQLN1/COPS8/CLTA/AP2M1/GPS1/SH3KBP1/LDLR/COPS2/TOR1A/PICALM/AAK1/TGOLN2/APOB/GRB2/UBQLN2/ARRB2/SLC2A8/EPS15/VAMP3/CLTC/COPS6/FZD4/AP2A2/SH3GL1/WNT5A/REPS1/SH3GL3/ITSN1/ARRB1/CBL/COPS4/SGIP1/FCHO2/DVL2/SH3GL2/UBC/SCARB2/VAMP7/HGS/NEDD8/SYT11/ITSN2/CLTCL1/LRP2/STON2/FCHO1/AVP/EPN1/IGF2R/SLC18A3/SYT2/VAMP2/TF/VAMP4/GRK2/CHRM2/STON1/COPS7B/EPS15L1/STAM2/TFRC/TOR1B/SYT9/STAM/COPS7A/EGFR/CD4/AGFG1/NECAP1/SYT1/REPS2/AP2B1/LDLRAP1/EPN2/ADRB2/CFTR/KIAA0319/EGF/GRK3/M6PR</t>
-  </si>
-  <si>
-    <t>COX7C/ATP5A1/COX7A2L/COX4I1/NDUFA10/UQCRH/NDUFB5/COX5B/ATP5F1/NDUFA6/ATP5C1/ATP5G2/UQCRB/UQCRC2/ATP5G3/ATP5B/LRPPRC/CYC1/NDUFA1/ATP5I/COX6B1/NDUFS4/COX8A/ATP5D/TRAP1/CYCS/NDUFB9/NDUFB2/ATP5O/NDUFC2/ATP5L/NDUFS6/NDUFAB1/NDUFAF3/ATP5J/NDUFS7/SDHD/COX7B/SURF1/UQCR10/ETFA/NDUFAF2/NDUFA8/UQCR11/NDUFS2/UQCRQ/NDUFB6/NDUFA13/TIMMDC1/SDHA/UQCRFS1/SDHC/ATP5J2/NDUFS8/ATP5E/NDUFB7/NDUFS3/COX11/NDUFB3/ECSIT/TMEM126B/ATP5S/NDUFA11/NDUFA12/NDUFB10/NDUFV3/NDUFS1/COX18/NDUFB4/NDUFAF4/NDUFA2/NDUFA4/NDUFS5/UQCRC1/COX5A/NUBPL/NDUFA5/SLC25A14/NDUFA7/TACO1/NDUFB11/COX14/NDUFA3/NDUFV1/NDUFC1/ATP5H/COX6A1/NDUFB8/ETFB/COX16/ACAD9/NDUFV2/COX6C/ATP5G1/NDUFAF6/NDUFAF7/NDUFB1/ETFDH/UCP3/SLC25A27/COQ10A/SCO1/COQ10B/NDUFAF1/COX20/NDUFA9/SCO2/NDUFAF5/UCP2/SDHB</t>
-  </si>
-  <si>
-    <t>POLR2L/SUPT4H1/GTF2F1/NCBP2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/NELFE/NELFA/POLR2D/POLR2I/ERCC2/NCBP1/SUPT5H/MNAT1/POLR2G/ERCC3/POLR2E/NELFCD/CTDP1/GTF2H5/GTF2H1/POLR2H/CDK7/CCNH/NELFB/POLR2C/GTF2H2/GTF2H3/POLR2B/GTF2H4</t>
-  </si>
-  <si>
-    <t>NCBP2/EIF4E/TPR/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NCBP1/NUP153/POM121/NUP107/NUP88/RANBP2/ALYREF/NUP133/NXF1/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>RANBP1/RAN/TPR/NUP62/RANGAP1/NUP37/NUP35/NUP43/NUP50/XPO1/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/RCC1/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>PSMC3/PFN1/CLTB/PSME2/AP2S1/RAC1/PSMC4/UBA52/PSMA4/UBB/PSMA7/RAC3/PSMB3/PSMD11/AP2A1/PSMB2/PSMD7/FZD5/PSMD14/PSMC5/PSME1/PSMB6/ROR1/CLTA/AP2M1/PSMF1/FZD7/PSMB1/PSMA1/FZD2/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/RHOA/PSMB7/ARRB2/PSMD6/CLTC/PSMD4/FZD4/AP2A2/PSMA6/PSMD10/WNT5A/PSMA2/PSMD2/WNT5B/PSMD13/ROR2/PSMB10/DVL3/DVL2/DVL1/RAC2/PRICKLE1/UBC/SMURF2/PSMC1/VANGL2/PSMD9/SMURF1/PSMA5/PSMD5/RYK/SCRIB/FZD6/PRKCA/PARD6A/DAAM1/PSMC6/PSMD3/FZD3/FZD8/PSMD1/WNT11/PSMB5/AP2B1/PRKCG/PRKCB/FZD1</t>
-  </si>
-  <si>
-    <t>MYDGF/SHC1/HDGF/XBP1/SERP1/ACADVL/SEC61G/WIPI1/DDX11/KLHDC3/GSK3A/LMNA/DNAJB11/SEC31A/ADD1/SEC62/CUL7/ASNA1/PREB/GOSR2/ARFGAP1/CXXC1/WFS1/PDIA6/TLN1/FKBP14/SRPRA/SEC61A1/SSR1/DNAJC3/YIF1A/SEC63/KDELR3/DCTN1/PDIA5/EXTL2/CTDSP2/SYVN1/SEC61B/SEC61A2/DNAJB9/ZBTB17/EXTL1/EDEM1/TSPYL2/TPP1/SRPRB/PPP2R5B/EXTL3/JMJD7-PLA2G4B/SULT1A3/ATP6V0D1/HYOU1/GFPT1/TATDN2</t>
-  </si>
-  <si>
-    <t>ACTB/ARPC2/ARPC5/CFL1/ARPC1B/RAC1/ACTR2/ARPC1A/CDC42/ACTR3/FYN/HRAS/EFNB2/SDC2/ACTG1/LYN/RHOA/YES1/SRC/ROCK1/EPHB3/ARPC4/ITSN1/LIMK2/PAK1/EFNB1/LIMK1/ROCK2/EPHB6/KALRN/WASL/RASA1/PTK2/EPHB2/ARPC3/GRIN2B/EPHB4/TIAM1/EFNB3/EPHB1/ARHGEF28</t>
-  </si>
-  <si>
-    <t>RPA3/RAD51/RFC4/RHNO1/RAD51AP1/RPA2/RFC2/BARD1/BLM/BRCA2/RMI2/RFC5/RPA1/RFC3/BRCA1/EXO1/TOP3A/RBBP8/RAD51C/RAD50/NBN/BRIP1/RAD17/ATR/RAD9A/ATM/XRCC2/RAD51B/KAT5/RMI1/XRCC3/RAD1/TOPBP1/HUS1/PALB2/MRE11/WRN/DNA2/ATRIP/CHEK1/RAD51D</t>
-  </si>
-  <si>
-    <t>HSPA1A/RAN/TPR/NUP62/HSPA1B/NUP37/NUP35/NUP43/NUP50/XPO1/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>NPM1/RAN/TPR/KPNB1/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/RCC1/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>PSIP1/BANF1/HMGA1/TPR/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/KPNA1/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>TYMS/DUT/DTYMK/RRM2/GUK1/AK4/NME3/NME4/NME1/DCTPP1/CTPS1/DCTD/RRM1/AK1/TXN/AK6/TXNRD1/GLRX/NME6/RRM2B/CTPS2/AK2/CMPK1/NME7/GSR/NME2/AK7/AK8/AK5/AK9/NUDT13/NME1-NME2</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/RPA3/MCM7/POLE4/MCM6/MCM5/RPA2/MCM4/MCM2/POLE/CDT1/CDC45/POLA2/RPA1/MCM10/ORC4/CDC6/MCM8/DBF4/POLE2/POLE3/POLA1/CDK2/CDC7/ORC2/ORC5/PRIM1/PRIM2/ORC1/RPA4/ORC3</t>
-  </si>
-  <si>
-    <t>FEN1/PCNA/GINS2/MCM3/RPA3/MCM7/RFC4/MCM6/MCM5/RPA2/RFC2/MCM4/LIG1/GINS4/POLD3/MCM2/CDC45/RFC5/POLA2/RPA1/POLD2/GINS1/RFC1/POLD1/RFC3/MCM8/POLA1/GINS3/PRIM1/POLD4/PRIM2/DNA2</t>
-  </si>
-  <si>
-    <t>COL1A1/CCNB1/CDK1/PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/CDK4/RBX1/PSMD11/IHH/CCND1/PSMB2/PSMD7/PSMD14/SKP2/PSMC5/PSME1/HAND2/PSMB6/ITGA5/PSMF1/PSMB1/LGALS3/PSMA1/AKT2/PSMA3/RBM14/PSMD8/PSMC2/GLI2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/BAX/WWTR1/PSMD6/YES1/SRC/ZNF521/MAPK3/PSMD4/STUB1/SKP1/PSMA6/PSMD10/CBFB/ESRRA/SMAD4/AKT3/PSMA2/HES1/PSMD2/HDAC6/PSMD13/MAF/HDAC3/SMAD1/RB1/PSMB10/GLI3/MSX2/FBXW7/PPM1D/AKT1/CDKN1A/MAPK1/WWP1/UBC/PSMC1/TWIST2/NR3C1/GSK3B/SOX9/BMP2/PSMD9/SMURF1/HEY2/PSMA5/NKX3-2/PSMD5/PPARGC1B/HDAC4/STAT1/SATB2/PSMC6/PSMD3/PPARGC1A/AR/SMAD6/YAP1/HEY1/PSMD1/ABL1/HIVEP3/PSMB5/TWIST1/RBM14-RBM4/RUNX1/UCMA/BGLAP/CUL1</t>
-  </si>
-  <si>
-    <t>HIST1H4C/FEN1/PCNA/RPA3/KPNA2/CLSPN/H2AFX/RAD51/RFC4/POLE4/CCNA2/UBA52/SUMO1/UBB/PARP1/RHNO1/RAD51AP1/RPA2/RFC2/UBE2N/XRCC6/BARD1/BLM/POLD3/TIMELESS/BRCA2/PPP4C/SIRT6/UBE2V2/POLE/XRCC5/RMI2/ERCC1/BAZ1B/TDP2/RFC5/RPA1/POLD2/RFC1/APBB1/PPP4R2/POLD1/RFC3/BRCA1/XRCC4/PRKDC/EME1/TP53BP1/CHEK2/RNF168/SUMO2/BABAM1/RIF1/EXO1/POLE2/RNF4/MDC1/POLE3/POLL/UBE2I/TOP3A/RBBP8/POLK/RNF8/MUS81/HERC2/PAXIP1/RAD51C/DCLRE1C/HIST1H2BG/RAD50/NBN/BRIP1/RAD17/CDK2/HIST2H2BE/PPP5C/GEN1/TDP1/ATR/SPIDR/PARP2/RAD9A/ATM/PIAS4/EYA3/POLM/POLQ/KDM4A/UBC/TIPIN/HIST1H2BH/XRCC2/RAD51B/LIG3/KAT5/EME2/SMARCA5/RMI1/ERCC4/XRCC3/HIST1H2BD/BRCC3/HIST1H4J/POLD4/RAD1/RAD52/TOPBP1/KDM4B/LIG4/HUS1/PALB2/MRE11/SLX4/HIST1H4H/EYA1/HIST1H2BN/WRN/ABL1/BAP1/DNA2/HIST1H4E/HIST1H2BL/NHEJ1/HIST1H2BC/MAPK8/HIST1H2BF/HIST4H4/ATRIP/HIST1H4I/CCNA1/POLH/HIST3H2BB/HIST1H4A/HIST1H4D/EYA2/HIST1H2BE/HIST1H2BJ/HIST1H2BK/TP53/CHEK1/XRCC1/SLX1A/RAD51D/UIMC1</t>
-  </si>
-  <si>
-    <t>RAB25/RAB4A/RAB5C/RAB18/RAB11A/RAB3B/RAB31/RAB4B/RABGGTB/RAB10/RAB2A/RAB32/RAB40B/RAB38/RAB35/RAB8A/RAB17/RAB13/RAB21/RAB5B/RAB9A/CHM/RAB3C/RAB34/RAB1B/RAB1A/RAB6A/RAB27A/RAB11B/RAB37/RAB5A/RAB29/RAB30/RAB14/RAB20/RAB7A/RAB3A/RAB22A/RAB2B/RAB8B/PTP4A2/RAB40C/RAB23/RAB12/RAB24/RAB36/RAB39A/RAB3D/RABGGTA/RAB39B/RAB33B/RAB26/RAB42/CHML/RAB33A/RAB40A/RAB27B/RAB15/RAB9B/RAB6B</t>
-  </si>
-  <si>
-    <t>SLC25A6/KPNA2/ISG15/PABPN1/TPR/KPNB1/NUP62/TGFB1/NUP37/CPSF4/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/KPNA4/NUP107/NUP88/RANBP2/NUP133/NDC1/EIF2AK2/NUP93/NUP58/NUP85/NUP210/NUP54/KPNA5/NUP160/SEH1L/NUP98/KPNA1/NUP214/NUPL2/NUP155/AAAS/KPNA3/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/PARP1/RPA2/RFC2/RBX1/DDB1/POLD3/POLE/ERCC1/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/POLE2/POLE3/ERCC2/POLK/CUL4B/CHD1L/XPA/ERCC3/GTF2H5/GTF2H1/ERCC5/PARP2/UBC/DDB2/ERCC4/POLD4/CUL4A/GTF2H2/GTF2H3/GTF2H4</t>
-  </si>
-  <si>
-    <t>UBE2T/UBE2S/UBE2C/PCNA/UBA52/UBB/HLA-A/UBE2A/HLTF/UBE2N/VCP/RNF181/UBE2V2/DERL1/USP9X/RTF1/PRKDC/UBE2D2/UCHL3/USP5/SHPRH/CDC34/UBA1/UBE2H/PAF1/UBE2D3/WDR61/RAD18/PEX2/TMEM129/UBE2J2/LEO1/UBE2K/CDC73/UBE2E3/PEX10/SELENOS/RNF20/UBE2Q2/UBE2E1/UBE2L3/RRAGA/HIST1H2BG/BCL10/OTULIN/USP7/UBA6/UBC/HIST1H2BH/UBE2W/RNF152/HIST1H2BD/UBE2B/RNF40/CTR9/PEX12/UBE2G1/UBE2Z/HIST1H2BN/RNF144A/UBE2R2/HIST1H2BL/HIST1H2BC/HIST1H2BF/WAC/HIST1H2BE/HIST1H2BJ/HIST1H2BK/PEX5/UBE2G2/UBE2D1</t>
-  </si>
-  <si>
-    <t>FN1/CALM1/ACTB/DUSP4/FGFR1/CALM2/CDK1/PSMC3/PSME2/SPTBN1/FGFR4/YWHAB/PSMC4/PEA15/UBA52/RASGRP3/PSMA4/UBB/PSMA7/VCL/PSMB3/PEBP1/AKAP9/PPP2R1A/RBX1/SHC1/PSMD11/ERBB4/DUSP1/PSMB2/PSMD7/RAP1B/PSMD14/JAK1/PSMC5/PSME1/PSMB6/TEK/PDGFRA/PSMF1/MAP2K1/PDGFRB/PPP2CB/SPTAN1/PSMB1/PPP2R5C/FYN/HRAS/DUSP6/PSMA1/CAMK2D/PSMA3/ACTG1/ERBB3/PSMD8/PSMC2/PSME3/CALM3/RAF1/PPP2CA/PSMD12/PSME4/PSMB4/MARK3/PSMB7/RAP1A/GRB2/ARRB2/PSMD6/SRC/ANGPT1/PPP2R1B/MAPK3/PSMD4/CAMK2A/PTPRA/PPP2R5A/PSMA6/SPRED2/PSMD10/FGFR2/LAMTOR2/TYK2/CAMK2G/NCAM1/ERBB2/IQGAP1/ARAF/ITGA2B/TLN1/PSMA2/ARRB1/SHC2/PSMD2/PHB/GRIN2A/MAP2K2/SPTBN2/FGB/FGA/PSMD13/PPP5C/HBEGF/PDGFA/DUSP5/PSMB10/PTPN11/PSPN/FGF7/RASA4/CNKSR2/FRS3/MAP3K11/DUSP9/PPP2R5E/SPRED1/DAB2IP/KIT/NRG1/MAPK1/NRG2/UBC/DLG4/GFRA2/CUL3/FGF1/DUSP10/DUSP2/WDR83/PSMC1/VWF/RASA1/BRAF/KRAS/PSMD9/PTK2/CNKSR1/FGFR3/PSMA5/LAMTOR3/GRIN2B/FGF19/FGF10/PSMD5/IRS1/PAQR3/RASGRP1/FGF17/PPP2R5D/KBTBD7/KSR1/FGF8/RANBP9/GFRA3/RAPGEF2/CAMK2B/NF1/PSMC6/DUSP7/PSMD3/BRAP/ACTN2/FGF22/SPRED3/GRIN2D/KITLG/RASGEF1A/PSMD1/CSK/IL6ST/FRS2/KLB/NRG4/RASA2/IRS2/PPP2R5B/KSR2/FGG/EGFR/PSMB5/CSF2RA/FGF23/IL6R/SPTB/RASA3/SPTBN5/JAK3/FGF18/FGF9/IL6/NRTN/IL17RD/PDGFB/LAT/GDNF/HGF/IL2RG/SHC3/APBB1IP/RASAL1/RASAL3/DUSP8/SPTBN4/EGF/JAK2/RASAL2/SOS1/DUSP16/SYNGAP1/NRAS/FGF2/MET</t>
-  </si>
-  <si>
-    <t>RALA/YWHAB/SHC1/RALB/HRAS/RAP1A/GRB2/CRK/SRC/PLCG1/NTRK1/KIDINS220/CRKL/SHC2/RIT1/RALGDS/BRAF/KRAS/MAPK14/MAPKAPK3/RAPGEF1/MAPK13/MAPKAPK2/MAPK11/FRS2/RIT2/SHC3/SOS1/MAPK12/NRAS/NGF</t>
-  </si>
-  <si>
-    <t>GNG11/CALM1/CALM2/GNG5/GNB1/PPP1CA/GNB2/PPP2R1A/GNAI1/POMC/GNB5/PRKAR1A/GNB4/PPP2CB/GNG12/GNAI2/PPP3CC/CREB1/CALM3/GNB3/PPP2CA/PRKCD/ADCY3/CDK5/PPP2R1B/AHCYL1/PRKAR2A/PPP3CA/PLCB1/GNAL/PLCB2/MAPK1/PPP3CB/PRKAR1B/GNG4/ITPR3/ADCY2/PPP2R5D/GNG7/ITPR2/PDE4A/PDE4B/PRKCA/GRK2/PRKACA/PLCB3/GNAO1/PRKACB/PDYN/ADCY7/ADCY1/GNGT1/GNAZ/GNG2/PDE1B/PPP3R1/GNG3/PDE4D/PDE1C/GNAI3/PRKAR2B/GNG10/ADCY5/ADCY4/PPP1R1B/PDE1A/ADCY8/GNG13/ADCY9/GNG8/PRKCG/CAMK4/ITPR1/ADCY6/PLCB4/PDE4C</t>
-  </si>
-  <si>
-    <t>UBE2C/ANAPC11/PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSMB4/PSMB7/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/FZR1/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/UBE2D1</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/VCL/PEBP1/RAP1B/MAP2K1/HRAS/ACTG1/RAF1/MARK3/RAP1A/ARRB2/SRC/MAPK3/LAMTOR2/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/MAP2K2/FGB/FGA/CNKSR2/MAPK1/WDR83/VWF/BRAF/KRAS/CNKSR1/LAMTOR3/KSR1/CSK/KSR2/FGG/IL17RD/APBB1IP/NRAS</t>
-  </si>
-  <si>
-    <t>DUSP4/YWHAB/UBA52/UBB/PEBP1/PPP2R1A/DUSP1/MAP2K1/PPP2CB/PPP2R5C/HRAS/DUSP6/RAF1/PPP2CA/MARK3/PPP2R1B/MAPK3/PPP2R5A/ARAF/MAP2K2/PPP5C/DUSP5/DUSP9/PPP2R5E/MAPK1/UBC/DUSP10/DUSP2/BRAF/KRAS/PAQR3/PPP2R5D/KSR1/DUSP7/BRAP/PPP2R5B/DUSP8/DUSP16/NRAS</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/VCL/PEBP1/RAP1B/MAP2K1/HRAS/ACTG1/RAF1/MARK3/RAP1A/ARRB2/SRC/MAPK3/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/PHB/MAP2K2/FGB/FGA/CNKSR2/MAP3K11/MAPK1/VWF/BRAF/KRAS/CNKSR1/KSR1/BRAP/CSK/KSR2/FGG/APBB1IP/JAK2/NRAS</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/UBE2N/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/UBE2D2/CALM3/PSMD12/PRKCD/PSME4/PSMB4/UBA3/PSMB7/PLCG2/CDC34/PSMD6/SRC/PSMD4/NFATC3/SKP1/AHCYL1/UBE2M/PSMA6/PSMD10/MAP3K7/PPP3CA/PSMA2/PSMD2/TAB1/PSMD13/PSMB10/FBXW11/BCL10/BTRC/IKBKB/PDPK1/PPP3CB/PYCARD/UBC/NFATC1/TAB3/CHUK/PSMC1/MALT1/PSMD9/ITPR3/TAB2/PSMA5/PSMD5/ITPR2/NFKB1/PSMC6/PSMD3/RELA/TRAF6/CASP8/PSMD1/NFKB2/MAP3K14/PPP3R1/NFATC2/CARD11/PSMB5/IKBKG/UBE2V1/CARD9/RELB/ITPR1/UBE2D1/CUL1</t>
-  </si>
-  <si>
-    <t>PTTG1/MAD2L1/UBE2C/ANAPC11/CDC20/CCNB1/CDK1/PSMC3/PLK1/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/NEK2/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/CCNA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/PSMC3/GMNN/PSME2/MCM7/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/MCM4/PSMD11/PSMB2/PSMD7/PSMD14/MCM2/PSMC5/PSME1/PSMB6/CDT1/PSMF1/MCM10/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/E2F1/PSMA6/PSMD10/PSMA2/PSMD2/FZR1/PSMD13/CDK2/RB1/PSMB10/ORC2/CDKN1A/UBC/PSMC1/ORC5/PSMD9/PSMA5/PSMD5/PSMC6/ORC1/PSMD3/E2F2/PSMD1/PSMB5/ORC3/CCNA1/E2F3</t>
-  </si>
-  <si>
-    <t>TPR/KPNB1/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/KPNA1/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>RAN/TPR/NUP62/NUP37/NUP35/NUP43/NUP50/XPO1/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>TPR/NUP62/NUP37/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/NUP107/NUP88/RANBP2/NUP133/NDC1/NUP93/NUP58/GCK/NUP85/NUP210/NUP54/NUP160/SEH1L/NUP98/NUP214/NUPL2/NUP155/AAAS/GCKR/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>FEN1/PCNA/RPA3/RFC4/POLE4/RPA2/RFC2/LIG1/POLD3/POLE/RFC5/POLA2/RPA1/POLD2/RFC1/POLD1/RFC3/WRAP53/POLE2/POLE3/RUVBL2/DKC1/POLA1/PRIM1/POLD4/PRIM2/RUVBL1/DNA2/NHP2/TERT</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR1D/TAF1D/POLR2F/POLR2K/CD3EAP/ERCC2/MNAT1/RRN3/TWISTNB/ERCC3/ZNRD1/POLR2E/TBP/GTF2H5/GTF2H1/TAF1B/POLR2H/CDK7/POLR1E/CCNH/TAF1A/POLR1B/POLR1A/POLR1C/UBTF/GTF2H2/GTF2H3/GTF2H4/TAF1C</t>
-  </si>
-  <si>
-    <t>COX7C/COX7A2L/COX4I1/NDUFA10/UQCRH/NDUFB5/COX5B/NDUFA6/UQCRB/UQCRC2/LRPPRC/CYC1/NDUFA1/COX6B1/NDUFS4/COX8A/TRAP1/CYCS/NDUFB9/NDUFB2/NDUFC2/NDUFS6/NDUFAB1/NDUFAF3/NDUFS7/SDHD/COX7B/SURF1/UQCR10/ETFA/NDUFAF2/NDUFA8/UQCR11/NDUFS2/UQCRQ/NDUFB6/NDUFA13/TIMMDC1/SDHA/UQCRFS1/SDHC/NDUFS8/NDUFB7/NDUFS3/COX11/NDUFB3/ECSIT/TMEM126B/NDUFA11/NDUFA12/NDUFB10/NDUFV3/NDUFS1/COX18/NDUFB4/NDUFAF4/NDUFA2/NDUFA4/NDUFS5/UQCRC1/COX5A/NUBPL/NDUFA5/NDUFA7/TACO1/NDUFB11/COX14/NDUFA3/NDUFV1/NDUFC1/COX6A1/NDUFB8/ETFB/COX16/ACAD9/NDUFV2/COX6C/NDUFAF6/NDUFAF7/NDUFB1/ETFDH/COQ10A/SCO1/COQ10B/NDUFAF1/COX20/NDUFA9/SCO2/NDUFAF5/SDHB</t>
-  </si>
-  <si>
-    <t>PTTG1/MAD2L1/UBE2C/ANAPC11/CDC20/CCNB1/CDK1/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/NEK2/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/CCNA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>KPNA2/ISG15/PABPN1/TPR/KPNB1/NUP62/NUP37/CPSF4/NUP35/NUP43/NUP50/RAE1/NUP153/POM121/KPNA4/NUP107/NUP88/RANBP2/NUP133/NDC1/EIF2AK2/NUP93/NUP58/NUP85/NUP210/NUP54/KPNA5/NUP160/SEH1L/NUP98/KPNA1/NUP214/NUPL2/NUP155/AAAS/KPNA3/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>RPA3/RAD51/RFC4/RHNO1/RPA2/RFC2/BARD1/BLM/BRCA2/RMI2/RFC5/RPA1/RFC3/BRCA1/EXO1/TOP3A/RBBP8/RAD51C/RAD50/NBN/BRIP1/RAD17/ATR/RAD9A/ATM/XRCC2/RAD51B/KAT5/RMI1/RAD1/TOPBP1/HUS1/MRE11/WRN/DNA2/ATRIP/CHEK1/RAD51D</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/CCNC/RBX1/MYC/NCOR1/TLE1/RBPJ/SNW1/NOTCH1/TLE3/HDAC1/HDAC8/MAML3/HDAC7/TLE4/SKP1/TLE2/TBL1XR1/CREBBP/HES1/HDAC10/HDAC5/HDAC6/EP300/HIF1A/HDAC3/FBXW7/HDAC2/MAML1/UBC/TBL1X/HEY2/HEYL/HDAC4/NCOR2/HDAC11/CDK8/HEY1/KAT2A/MAMLD1/KAT2B/HDAC9/MAML2/CUL1</t>
-  </si>
-  <si>
-    <t>TRAPPC6A/SEC13/CTSC/FOLR1/TRAPPC2L/TRAPPC1/TRAPPC4/TRAPPC3/STX5/GOLGA2/LMAN2/USO1/SEC31A/TMED2/YKT6/TBC1D20/CNIH1/LMAN1/TMED10/CD59/PPP6R1/PREB/SEC16A/GOSR2/NAPA/NAPB/SEC24B/TRAPPC6B/SAR1B/SCFD1/PPP6C/RAB1B/RAB1A/BET1/SEC24A/TRAPPC2/NSF/SEC23A/CSNK1D/SEC23IP/NAPG/SERPINA1/TRAPPC5/SEC24D/TFG/MCFD2/LMAN2L/TRAPPC10/COL7A1/GORASP1/ANKRD28/CNIH3/SEC22A/TRAPPC9/CTSZ/CNIH2/SEC22B/SEC22C/STX17/F8/SEC16B/SEC24C/PPP6R3</t>
-  </si>
-  <si>
-    <t>BCAR1/PDGFRA/PDGFRB/HRAS/GRB7/STAT5B/PIK3R1/GRB2/CRK/SRC/PLCG1/CRKL/STAT3/PDGFA/PTPN11/STAT5A/RASA1/NCK2/KRAS/PIK3CB/NCK1/PIK3R2/RAPGEF1/STAT1/PIK3CA/PDGFB/SOS1/STAT6/NRAS</t>
-  </si>
-  <si>
-    <t>JUN/CCND1/TFDP1/RBPJ/SNW1/TFDP2/NOTCH1/MOV10/MAML3/AGO1/E2F1/CREBBP/EP300/NOTCH3/NOTCH2/MAML1/TNRC6B/TNRC6A/AGO3/AGO2/TNRC6C/NOTCH4/KAT2A/AGO4/MAMLD1/KAT2B/TP53/MAML2/E2F3</t>
-  </si>
-  <si>
-    <t>POLR2L/GTF2F1/NCBP2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/RNMT/POLR2D/POLR2I/ERCC2/NCBP1/SUPT5H/MNAT1/POLR2G/ERCC3/POLR2E/GTF2H5/GTF2H1/POLR2H/CDK7/CCNH/POLR2C/GTF2H2/GTF2H3/POLR2B/GTF2H4/RNGTT</t>
-  </si>
-  <si>
-    <t>ACTB/UBA52/UBB/PARP1/COPS5/RBX1/DDB1/COPS3/ACTL6A/COPS8/GPS1/COPS2/RAD23B/INO80C/COPS6/RAD23A/CUL4B/MCRS1/NFRKB/COPS4/ACTR5/CETN2/INO80E/YY1/PARP2/TFPT/UBC/INO80/INO80B/DDB2/XPC/CUL4A/COPS7B/COPS7A/RUVBL1/INO80D/ACTR8</t>
-  </si>
-  <si>
-    <t>POLR2L/GTF2F1/GTF2A2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/TAF9B/POLR2D/POLR2I/TAF3/ERCC2/MNAT1/TAF4/POLR2G/GTF2E2/GTF2B/ERCC3/POLR2E/TBP/TAF1/TAF10/GTF2H5/GTF2H1/POLR2H/CDK7/TAF12/CCNH/GTF2E1/TAF5/TAF11/TAF6/POLR2C/GTF2H2/GTF2H3/POLR2B/TAF2/TAF9/GTF2A1/TAF7/GTF2H4/TAF4B/TAF13</t>
-  </si>
-  <si>
-    <t>FN1/CALM1/ACTB/DUSP4/FGFR1/CALM2/PSMC3/PSME2/SPTBN1/FGFR4/YWHAB/PSMC4/PEA15/UBA52/RASGRP3/PSMA4/UBB/PSMA7/VCL/PSMB3/PEBP1/AKAP9/PPP2R1A/RBX1/SHC1/PSMD11/ERBB4/DUSP1/PSMB2/PSMD7/RAP1B/PSMD14/JAK1/PSMC5/PSME1/PSMB6/TEK/PDGFRA/PSMF1/MAP2K1/PDGFRB/PPP2CB/SPTAN1/PSMB1/PPP2R5C/FYN/HRAS/DUSP6/PSMA1/CAMK2D/PSMA3/ACTG1/ERBB3/PSMD8/PSMC2/PSME3/CALM3/RAF1/PPP2CA/PSMD12/PSME4/PSMB4/MARK3/PSMB7/RAP1A/GRB2/ARRB2/PSMD6/SRC/ANGPT1/PPP2R1B/MAPK3/PSMD4/CAMK2A/PTPRA/PPP2R5A/PSMA6/SPRED2/PSMD10/FGFR2/LAMTOR2/CAMK2G/NCAM1/ERBB2/IQGAP1/ARAF/ITGA2B/TLN1/PSMA2/ARRB1/SHC2/PSMD2/PHB/GRIN2A/MAP2K2/SPTBN2/FGB/FGA/PSMD13/PPP5C/HBEGF/PDGFA/DUSP5/PSMB10/PSPN/FGF7/RASA4/CNKSR2/FRS3/MAP3K11/DUSP9/PPP2R5E/SPRED1/DAB2IP/KIT/NRG1/MAPK1/NRG2/UBC/DLG4/GFRA2/CUL3/FGF1/DUSP10/DUSP2/WDR83/PSMC1/VWF/RASA1/BRAF/KRAS/PSMD9/PTK2/CNKSR1/FGFR3/PSMA5/LAMTOR3/GRIN2B/FGF19/FGF10/PSMD5/IRS1/PAQR3/RASGRP1/FGF17/PPP2R5D/KBTBD7/KSR1/FGF8/RANBP9/GFRA3/RAPGEF2/CAMK2B/NF1/PSMC6/DUSP7/PSMD3/BRAP/ACTN2/FGF22/SPRED3/GRIN2D/KITLG/RASGEF1A/PSMD1/CSK/FRS2/KLB/NRG4/RASA2/IRS2/PPP2R5B/KSR2/FGG/EGFR/PSMB5/CSF2RA/FGF23/SPTB/RASA3/SPTBN5/JAK3/FGF18/FGF9/NRTN/IL17RD/PDGFB/LAT/GDNF/HGF/IL2RG/SHC3/APBB1IP/RASAL1/RASAL3/DUSP8/SPTBN4/EGF/JAK2/RASAL2/SOS1/DUSP16/SYNGAP1/NRAS/FGF2/MET</t>
-  </si>
-  <si>
-    <t>CKS1B/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/CDK4/PSMD11/CCND1/PSMB2/PSMD7/PSMD14/SKP2/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/SKP1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/CDK2/PSMB10/CDKN1A/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/CCNE1/PSMD3/PSMD1/PTK6/PSMB5/CCNE2/CCNA1/CUL1</t>
-  </si>
-  <si>
-    <t>MAD2L1/UBE2C/ANAPC11/CDC20/CDK1/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/NEK2/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/CCNA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/PSMC3/GMNN/PSME2/MCM7/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/MCM4/PSMD11/PSMB2/PSMD7/PSMD14/MCM2/PSMC5/PSME1/PSMB6/CDT1/PSMF1/MCM10/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/PSMA6/PSMD10/PSMA2/PSMD2/FZR1/PSMD13/CDK2/RB1/PSMB10/ORC2/CDKN1A/UBC/PSMC1/ORC5/PSMD9/PSMA5/PSMD5/PSMC6/ORC1/PSMD3/PSMD1/PSMB5/ORC3/CCNA1</t>
-  </si>
-  <si>
-    <t>FN1/SPINT2/COL3A1/COL1A1/RAB4A/COL1A2/COL5A1/RAC1/ITGB1/HPN/UBA52/UBB/SPINT1/SHC1/PTPN2/RAP1B/LAMC1/COL5A2/RAB4B/COL2A1/HRAS/LAMC3/SH3KBP1/LAMA5/PTPN1/LAMB1/PIK3R1/RAP1A/GRB2/CRK/EPS15/LAMB2/SRC/COL27A1/SH3GL1/GGA3/SH3GL3/CRKL/STAT3/PTPRJ/ITGA3/DOCK7/CBL/TNS3/PTPN11/SH3GL2/UBC/HGS/KRAS/PTK2/LAMA2/COL11A2/RAPGEF1/RANBP9/LAMA1/PIK3CA/LAMC2/STAM2/RANBP10/USP8/ITGA2/STAM/ARF6/LAMA4/GAB1/HGF/COL11A1/SOS1/LRIG1/NRAS/MET/MUC20</t>
-  </si>
-  <si>
-    <t>TYMS/TK1/DHFR/PCNA/CDK1/RRM2/TFDP1/CDT1/CDC45/TFDP2/E2F4/CDC6/FBXO5/HDAC1/E2F1/RBL2/POLA1/RBL1/LIN54/LIN9/E2F5/LIN52/ORC1/CCNE1/LIN37/RBBP4/CCNA1/E2F6</t>
-  </si>
-  <si>
-    <t>SNRPB/SLBP/SNRPG/PAPOLA/NCBP2/PABPN1/CPSF2/CSTF3/CPSF4/SNRPD3/LSM10/SNRPF/NCBP1/PCF11/CPSF3/WDR33/SNRPE/CSTF2/CPSF7/CSTF2T/SYMPK/CPSF1/FIP1L1/LSM11/NUDT21/CSTF1/ZNF473/CLP1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/IHH/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/GLI2/PSME3/CSNK1A1/PSMD12/PSME4/PSMB4/PSMB7/ARRB2/PSMD6/PSMD4/GPR161/SPOP/PSMA6/PSMD10/ITCH/CDC73/DZIP1/EVC2/PSMA2/ARRB1/PSMD2/NUMB/PSMD13/HHIP/SUFU/PSMB10/BOC/GLI3/GAS1/UBC/SMURF2/CUL3/PSMC1/PTCH1/KIF3A/SPOPL/PSMD9/GLI1/SMURF1/PSMA5/PSMD5/GAS8/EFCAB7/KIF7/GRK2/PSMC6/PSMD3/PSMD1/PSMB5/SMO/SHH/ULK3/IQCE/CDON</t>
-  </si>
-  <si>
-    <t>ARHGDIA/BEX3/RTN4/RAC1/UBA52/UBB/AKAP13/NFKBIA/AATF/ITGB3BP/ARHGEF39/CASP3/TIAM2/BAD/PRKCI/NCSTN/MAGED1/RIPK2/SQSTM1/NET1/RHOA/HDAC1/VAV3/ECT2/ARHGEF2/YWHAE/ITSN1/TRIO/MYD88/PREX1/ADAM17/ARHGEF16/ARHGEF40/HDAC3/ARHGEF35/ARHGEF26/PSEN1/FGD1/FGD4/HDAC2/CASP2/IKBKB/KALRN/UBC/APH1B/ARHGEF33/ARHGEF9/ARHGEF19/ARHGEF1/GNA13/PSENEN/APH1A/ARHGEF4/ARHGEF15/PRDM4/PSEN2/ARHGEF12/ARHGEF7/OBSCN/NFKB1/ARHGEF37/SOS2/RELA/TIAM1/TRAF6/FGD3/ARHGEF5/MCF2L/ARHGEF17/ARHGEF6/VAV2/ARHGEF10L/MAPK8/SMPD2/RTN4R/IRAK1/LINGO1/NGEF/ARHGEF3/ARHGEF11/SOS1/PLEKHG5/BCL2L11/ARHGEF10/PLEKHG2/ABR/NGF</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/RPA3/CLSPN/MCM7/RFC4/MCM6/MCM5/RPA2/RFC2/MCM4/MCM2/CDC45/RFC5/RPA1/MCM10/CDC25A/ORC4/CDC6/RFC3/MCM8/DBF4/CDC25C/RAD17/CDK2/ATR/RAD9A/CDC7/ORC2/ORC5/RAD1/HUS1/ORC1/ORC3/ATRIP/CHEK1</t>
-  </si>
-  <si>
-    <t>RPA3/RAD51/RFC4/RHNO1/RPA2/RFC2/BARD1/BLM/RMI2/ERCC1/RFC5/RPA1/RFC3/BRCA1/EXO1/TOP3A/RBBP8/RAD50/NBN/BRIP1/RAD17/ATR/RAD9A/ATM/KAT5/RMI1/ERCC4/RAD1/RAD52/TOPBP1/HUS1/MRE11/WRN/ABL1/DNA2/ATRIP</t>
-  </si>
-  <si>
-    <t>CCNG1/CDK1/CCNA2/UBA52/UBB/PPP2R1A/DAXX/PPP2CB/PPP2R5C/PHF20/MLST8/AKT2/MAPKAP1/CHEK2/PRR5/PPP2CA/PPP2R1B/RNF34/PRDM1/AKT3/CDK2/MTOR/RFFL/MDM4/AKT1/RICTOR/USP7/ATM/PDPK1/UBC/SGK1/MDM2/CDKN2A/CCNA1/USP2/TP53</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR3K/POLR1D/GTF3A/POLR2F/POLR3D/POLR2K/GTF3C5/SNAPC5/GTF3C3/SNAPC1/SNAPC2/POLR3E/POLR3H/GTF3C6/POLR3GL/POLR3C/POLR3A/GTF3C2/POLR2E/TBP/POLR2H/ZNF143/GTF3C1/SNAPC3/POLR3B/POLR3F/BDP1/POLR3G/POU2F1/CRCP/BRF2/POLR1C/GTF3C4/SNAPC4/BRF1</t>
-  </si>
-  <si>
-    <t>PTTG1/AURKB/UBE2C/ANAPC11/CDC20/PSMC3/PLK1/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/ANAPC16/AURKA/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/SKP2/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/FZR1/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/UBE2D1</t>
-  </si>
-  <si>
-    <t>MAD2L1/UBE2C/ANAPC11/CDC20/CDK1/PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/BUB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/BUB1B/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/CCNA1/UBE2D1</t>
-  </si>
-  <si>
-    <t>ACTB/PSMC3/ADRM1/PSME2/HIST3H2A/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/UCHL1/PSMD11/BARD1/PSMB2/PSMD7/ACTL6A/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/TGFB1/PSMB1/HCFC1/PSMA1/ASXL1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/UCHL3/PSME4/PSMB4/INO80C/PSMB7/PSMD6/PSMD4/FOXK1/OGT/PSMA6/PSMD10/HIST1H2AC/HIST2H2AC/MCRS1/PSMA2/PSMD2/NFRKB/MBD6/TGFBR1/HIST1H2AG/PSMD13/SENP8/PSMB10/ACTR5/INO80E/YY1/USP15/TFPT/UBC/NEDD8/PSMC1/INO80/INO80B/PSMD9/PSMA5/HIST1H2AH/PSMD5/MBD5/ASXL2/HIST1H2AL/HIST1H2AB/PSMC6/PSMD3/KDM1B/HIST1H2AK/PSMD1/FOXK2/TGFBR2/RUVBL1/BAP1/PSMB5/HIST1H2AE/UCHL5/HIST2H2AB/INO80D/HIST1H2AI/HIST1H2AJ/SMAD7/ACTR8</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/DYNLL1/SPTBN1/TMED9/TUBB2A/DCTN3/ACTR1A/FOLR1/ARF1/ARF5/COPB2/TUBB2B/SPTAN1/GOSR1/DCTN2/CAPZA1/STX5/GOLGA2/DYNC1LI1/COPB1/ANK3/DCTN5/TMED7/USO1/KDELR2/TMED2/DYNLL2/TMED3/ARFGAP3/YKT6/ARF4/CAPZA2/DYNC1LI2/ARF3/COG4/TUBA4A/GBF1/TMED10/TUBA1C/CD59/GOSR2/NAPA/ARFGAP1/NAPB/DCTN4/COG8/SPTBN2/COPA/RAB1B/DYNC1I1/RAB1A/COPG2/EHHADH/KDELR3/BET1/DCTN1/GOLGB1/NSF/ARFGAP2/DYNC1H1/NAPG/COG2/COG6/COPE/DYNC1I2/COPZ2/CD55/COG3/GORASP1/COPG1/TUBB8/CAPZB/BET1L/COG7/COG1/COG5/TUBB4A/TMEM115/ACTR10/SPTB/SPTBN5/ANK1/SPTBN4/ANK2/ARCN1/DCTN6/COPZ1</t>
-  </si>
-  <si>
-    <t>DUSP4/RALA/AP2S1/YWHAB/PPP2R1A/SHC1/AP2A1/RALB/CLTA/AP2M1/PPP2CB/HRAS/DUSP6/VRK3/CREB1/PPP2CA/RHOA/PIK3R1/RAP1A/GRB2/CRK/DNAL4/MEF2C/NTRK2/SRC/CLTC/PPP2R1B/MAPK3/PLCG1/AP2A2/MAPK7/NTRK1/KIDINS220/CRKL/STAT3/DUSP3/MAP2K5/SHC2/ATF1/RIT1/DNM2/SH3GL2/MAPK1/RALGDS/BRAF/DNM1/KRAS/MAPK14/PIK3CB/IRS1/PPP2R5D/PIK3R2/MAPKAPK3/RAPGEF1/MAPK13/MAPKAPK2/DUSP7/PIK3CA/ELK1/MAPK11/MEF2A/FRS2/IRS2/RIT2/AP2B1/ADCYAP1R1/SHC3/SOS1/MAPK12/NRAS/NGF</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/FKBP1A/PSMC3/PSME2/PSMC4/UBA52/RASGRP3/PSMA4/PPIA/UBB/PSMA7/PSMB3/SHC1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/PSMB1/FYN/HRAS/SH3KBP1/PSMA1/NFKBIB/PSMA3/PSMD8/PSMC2/PSME3/CALM3/LYN/PSMD12/PSME4/PSMB4/PSMB7/PIK3R1/PLCG2/GRB2/PSMD6/PSMD4/PLCG1/NFATC3/ORAI1/SKP1/AHCYL1/PSMA6/PSMD10/MAP3K7/NFKBIE/PPP3CA/PSMA2/REL/PSMD2/PSMD13/CBL/PIK3CD/PSMB10/FBXW11/BCL10/BTRC/IKBKB/PPP3CB/UBC/NFATC1/CHUK/ORAI2/PSMC1/MALT1/KRAS/PSMD9/ITPR3/PSMA5/NCK1/TRPC1/PSMD5/RASGRP1/ITPR2/CBLB/CD79A/CD79B/NFKB1/PSMC6/BTK/STIM1/PSMD3/RELA/PSMD1/CD19/PPP3R1/NFATC2/CARD11/PSMB5/IKBKG/PTPN6/DAPP1/PIK3AP1/SOS1/ITPR1/NRAS/PRKCB/CUL1</t>
-  </si>
-  <si>
-    <t>YWHAH/HIST1H4C/ORC6/MCM3/RPA3/CCNB1/GTSE1/CDK1/PSMC3/CLSPN/H2AFX/PSME2/MCM7/YWHAQ/RFC4/YWHAB/CCNB2/PSMC4/MCM6/UBA52/SUMO1/PSMA4/UBB/MCM5/PSMA7/RHNO1/PSMB3/RPA2/RFC2/MCM4/UBE2N/PSMD11/BARD1/PSMB2/PSMD7/BLM/PSMD14/MCM2/PSMC5/UBE2V2/PSME1/PSMB6/YWHAZ/RMI2/PKMYT1/CDC45/PSMF1/RFC5/RPA1/MCM10/CDC25A/ORC4/PSMB1/CDC6/PSMA1/PSMA3/RFC3/MCM8/BRCA1/TP53BP1/PSMD8/PSMC2/CHEK2/RNF168/PSME3/PSMD12/PSME4/PSMB4/PSMB7/BABAM1/DBF4/EXO1/PSMD6/MDC1/TOP3A/PSMD4/RBBP8/CDC25C/PSMA6/PSMD10/RNF8/YWHAE/WEE1/HERC2/PSMA2/PSMD2/HIST1H2BG/RAD50/NBN/BRIP1/RAD17/PSMD13/CDK2/HIST2H2BE/PSMB10/ATR/RAD9A/CDC7/ATM/PIAS4/ORC2/UBC/HIST1H2BH/KAT5/PSMC1/RMI1/ORC5/PSMD9/HIST1H2BD/BRCC3/PSMA5/HIST1H4J/RAD1/PSMD5/TOPBP1/HUS1/PSMC6/ORC1/PSMD3/MRE11/HIST1H4H/PSMD1/HIST1H2BN/WRN/DNA2/HIST1H4E/HIST1H2BL/PSMB5/HIST1H2BC/ORC3/HIST1H2BF/HIST4H4/ATRIP/HIST1H4I/SFN/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2BE/HIST1H2BJ/HIST1H2BK/TP53/CHEK1/YWHAG/UIMC1</t>
-  </si>
-  <si>
-    <t>PGP/MDH2/PFKP/GAPDH/PPP2R1A/SLC37A4/PGAM1/HK1/GNPDA1/TPR/PPP2CB/ALDOA/NUP62/NUP37/NUP35/PPP2CA/PFKM/ENO2/ENO3/NUP43/MDH1/NUP50/PPP2R1B/SLC25A1/RAE1/NUP153/POM121/PFKFB3/PCK2/NUP107/PGAM2/SLC25A13/HK2/NUP88/RANBP2/PGM2L1/SLC37A1/GPI/NUP133/GOT1/FBP1/GNPDA2/NDC1/SLC25A11/BPGM/PGK1/NUP93/NUP58/SLC25A10/GCK/NUP85/PFKL/ALDOC/NUP210/NUP54/ENO1/PKM/NUP160/SEH1L/TPI1/PPP2R5D/FBP2/NUP98/PRKACA/PFKFB2/PC/G6PC3/PFKFB4/NUP214/PRKACB/NUPL2/SLC25A12/NUP155/AAAS/ADPGK/GCKR/PFKFB1/SLC37A2/NUP188/NUP205/GOT2</t>
-  </si>
-  <si>
-    <t>APOA1/TMSB4X/GNG11/FN1/CALM1/SPARC/COL1A1/CALM2/CLU/IGF2/GNG5/TAGLN2/COL1A2/FLNA/OLA1/GNB1/PFN1/TIMP3/CFL1/ACTN1/ACTN4/TIMP1/RAC1/PSAP/PPIA/CAP1/MANF/RASGRP2/GNB2/SELENOP/VCL/APLP2/F2/GNAI1/SHC1/BCAR1/RAP1B/FAM49B/APP/JAK1/LHFPL2/GNB5/WDR1/YWHAZ/CALU/PROS1/HSPA5/GNB4/ANXA5/CD63/CDC42/RHOB/ALDOA/TGFB1/GNG12/THBS1/FYN/F2R/AKT2/F2RL2/QSOX1/PHACTR2/SERPINE1/PTPN1/GNAI2/SOD1/RARRES2/CALM3/LYN/RAF1/GNB3/PRKCD/GAS6/RHOA/ABHD12/PIK3R1/PLCG2/RAP1A/SCG3/GRB2/ARRB2/CRK/VAV3/TTN/SRC/CFD/MAPK3/PRKCH/TUBA4A/LAMP2/PECAM1/DGKI/DGKB/PRKCZ/ABHD6/VEGFB/ECM1/SERPINF2/ITGA2B/TLN1/AKT3/VEGFA/A1BG/ARRB1/RHOG/HABP4/PCDH7/FGB/CYB5R1/TGFB2/FGA/DGKH/DGKD/GAB2/NHLRC2/PIK3CD/PDGFA/DGKZ/PF4/STX4/PTPN11/RAPGEF3/CDC37L1/AKT1/GNA11/PDPK1/CHID1/FAM3C/STXBP3/MAPK1/RAC2/ADRA2C/PIK3R3/SERPINA1/VWF/VTI1B/SERPING1/PDPN/ENDOD1/GNA13/GNG4/DGKQ/TEX264/MAPK14/PIK3CB/ADRA2B/DGKK/ITPR3/PTK2/TGFB3/PCYOX1L/RASGRP1/P2RY1/GNG7/ITPR2/PIK3R2/TF/PRKCA/LGALS3BP/PIK3CA/FERMT3/PRKCQ/ACTN2/GNA14/TBXA2R/ISLR/TOR4A/CSK/GNAQ/LEFTY2/THPO/MGLL/F2RL3/GNGT1/DGKE/DAGLB/TMX3/STXBP2/GNG2/VAV2/GNG3/AHSG/CD36/LCK/FGG/GNAI3/CD109/MAGED2/SCCPDH/CD9/PTPN6/GNG10/F8/PIK3R5/CSF2RA/DAGLA/PLG/SERPINA4/ORM2/VEGFC/ALB/ABCC4/SYTL4/LCP2/GP1BA/GTPBP2/ITIH4/JAK3/DGKA/PPBP/IGF1/PDGFB/LAT/RAPGEF4/DGKG/MMRN1/HGF/IL2RG/TRPC6/APBB1IP/ADRA2A/GNG13/RAB27B/GNG8/FCER1G/PRKCG/PRKCE/EGF/JAK2/SOS1/BRPF3/APOOL/GNA12/ITPR1/PRKCB</t>
-  </si>
-  <si>
-    <t>TGIF1/UBA52/UBB/PARP1/CCNC/MYC/NCOR1/TFDP1/SNW1/TFDP2/E2F4/USP9X/SERPINE1/SMAD3/NEDD4L/HDAC1/MEN1/JUNB/WWTR1/CDK9/UBE2D3/SKIL/TRIM33/SMAD4/RBL1/SMAD2/CDKN2B/TGIF2/CCNT1/UBC/SMURF2/SP1/E2F5/CCNT2/NCOR2/SKI/CCNK/CDK8/SMAD7/RNF111/PPM1A/UBE2D1</t>
-  </si>
-  <si>
-    <t>CKS1B/CCND2/UBA52/UBB/CDK6/CDK4/PPP2R1A/CCND1/TFDP1/CCND3/SKP2/CDKN1C/PPP2CB/TFDP2/E2F4/LYN/PPP2CA/CDKN2D/SRC/PPP2R1B/CDKN1B/E2F1/MNAT1/SKP1/PPP2R2A/RBL2/RBL1/CDK7/RB1/CDKN2B/CCNH/CDKN1A/UBC/E2F5/PPP2R3B/E2F2/ABL1/PTK6/CDKN2A/JAK2/E2F3/CUL1</t>
-  </si>
-  <si>
-    <t>TOP2A/PCNA/CDK1/MYBL2/CCNA2/MYC/TFDP1/TFDP2/CDC25A/E2F4/CDC6/HDAC1/DYRK1A/E2F1/MAX/RBL2/RBL1/CDK2/LIN54/LIN9/E2F5/LIN52/CCNE1/LIN37/RBBP4/CCNE2/CCNA1</t>
-  </si>
-  <si>
-    <t>POLR2L/GTF2F1/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/RNMT/POLR2D/POLR2I/ERCC2/SUPT5H/MNAT1/POLR2G/ERCC3/POLR2E/GTF2H5/GTF2H1/POLR2H/CDK7/CCNH/POLR2C/GTF2H2/GTF2H3/POLR2B/GTF2H4/RNGTT</t>
-  </si>
-  <si>
-    <t>FN1/ACTB/YWHAB/VCL/PEBP1/RAP1B/MAP2K1/HRAS/ACTG1/RAF1/MARK3/RAP1A/ARRB2/SRC/MAPK3/IQGAP1/ARAF/ITGA2B/TLN1/ARRB1/MAP2K2/FGB/FGA/CNKSR2/MAPK1/VWF/BRAF/KRAS/CNKSR1/KSR1/CSK/KSR2/FGG/APBB1IP/NRAS</t>
-  </si>
-  <si>
-    <t>CCNG1/CDK1/CCNA2/UBA52/UBB/PPP2R1A/DAXX/PPP2CB/PPP2R5C/PHF20/MLST8/AKT2/MAPKAP1/CHEK2/PRR5/PPP2CA/PPP2R1B/RNF34/AKT3/CDK2/MTOR/RFFL/MDM4/AKT1/RICTOR/USP7/ATM/PDPK1/UBC/SGK1/MDM2/CDKN2A/CCNA1/USP2/TP53</t>
-  </si>
-  <si>
-    <t>COL3A1/COL5A1/COL9A2/COL9A3/COL6A2/BCAR1/SPP1/COL6A1/COL5A2/PDGFRA/PDGFRB/THBS1/COL2A1/HRAS/COL4A1/GRB7/STAT5B/PIK3R1/GRB2/CRK/SRC/PLCG1/CRKL/STAT3/COL9A1/PLAT/PDGFA/FURIN/PTPN11/STAT5A/COL4A5/RASA1/PTPN12/NCK2/THBS4/KRAS/PIK3CB/COL4A2/NCK1/COL6A3/PDGFC/PIK3R2/RAPGEF1/THBS3/STAT1/PIK3CA/COL6A6/PDGFD/PLG/COL4A4/PDGFB/SOS1/STAT6/NRAS</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/PSMC3/PSME2/MCM7/PSMC4/MCM6/CCNA2/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/MCM4/PSMD11/PSMB2/PSMD7/PSMD14/MCM2/PSMC5/PSME1/PSMB6/CDT1/PSMF1/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/PSMA6/PSMD10/PSMA2/PSMD2/FZR1/PSMD13/CDK2/RB1/PSMB10/ORC2/CDKN1A/UBC/PSMC1/ORC5/PSMD9/PSMA5/PSMD5/PSMC6/ORC1/PSMD3/PSMD1/PSMB5/ORC3/CCNA1</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/KDELR1/KIF22/TMED9/TUBB2A/KIF2C/KIF23/CENPE/ARF1/KIF20A/KIF20B/SURF4/KIF21A/ARF5/KIF4A/COPB2/KIFC1/TUBB2B/KIF12/RACGAP1/COPB1/KIF3C/TMED7/KIFAP3/KDELR2/TMED2/TMED3/ARFGAP3/KIF26B/ARF4/ARF3/KIF9/KIF2A/USE1/TUBA4A/GBF1/TMED10/KLC2/KIF11/TUBA1C/KIF18B/KIF1B/KIF15/NAPA/ARFGAP1/NAPB/NBAS/KIF26A/COPA/KLC3/ZW10/RAB1B/RAB1A/COPG2/EHHADH/KDELR3/KIF13B/NSF/ARFGAP2/KIFC2/KIF5B/BNIP1/RINT1/NAPG/KIF3A/STX18/KIF1C/COPE/KIF16B/COPZ2/KIF27/COPG1/KLC4/TUBB8/KIF3B/KIF1A/KIF19/TUBB4A/SEC22B/KIF21B/KIF6/KIF18A/KIF25/ARCN1/KLC1/COPZ1</t>
-  </si>
-  <si>
-    <t>PPP1CC/UBA52/UBB/PPP1CA/NCOR1/RBM4/RORA/SERPINE1/PPP1CB/CREB1/TGS1/RXRA/MEF2C/NAMPT/CSNK1E/CHD9/CRTC1/SKP1/TBL1XR1/DBP/CREBBP/CREM/ATF2/FBXL3/CARM1/EP300/HIF1A/HDAC3/PER2/PPARA/CRTC3/NCOA2/BTRC/CSNK1D/UBC/CRTC2/TBL1X/MED1/NR3C1/F7/AVP/NR1D1/SMARCD3/KLF15/ARNTL2/CPT1A/NCOA6/PPARGC1A/CLOCK/RAI1/ARNTL/MEF2D/SIRT1/SREBF1/NCOA1/NFIL3/PER1/NOCT/BHLHE40/NRIP1/CRY1/CRY2/HELZ2/CUL1</t>
-  </si>
-  <si>
-    <t>PGP/PFKP/GAPDH/PPP2R1A/PGAM1/HK1/GNPDA1/TPR/PPP2CB/ALDOA/NUP62/NUP37/NUP35/PPP2CA/PFKM/ENO2/ENO3/NUP43/NUP50/PPP2R1B/RAE1/NUP153/POM121/PFKFB3/NUP107/PGAM2/HK2/NUP88/RANBP2/PGM2L1/GPI/NUP133/GNPDA2/NDC1/BPGM/PGK1/NUP93/NUP58/GCK/NUP85/PFKL/ALDOC/NUP210/NUP54/ENO1/PKM/NUP160/SEH1L/TPI1/PPP2R5D/NUP98/PRKACA/PFKFB2/PFKFB4/NUP214/PRKACB/NUPL2/NUP155/AAAS/ADPGK/GCKR/PFKFB1/NUP188/NUP205</t>
-  </si>
-  <si>
-    <t>YWHAH/DYNLL1/YWHAQ/YWHAB/CYCS/TFDP1/YWHAZ/TFDP2/AKT2/CASP3/BAD/PPP3CC/DYNLL2/BAX/PMAIP1/NMT1/E2F1/BAK1/YWHAE/AKT3/TP53BP2/PPP1R13B/CASP9/XIAP/BBC3/AKT1/BCL2L1/BID/APAF1/BCL2/CASP7/CASP8/DIABLO/PPP3R1/MAPK8/TP73/SFN/BMF/TP53/BCL2L11/YWHAG</t>
-  </si>
-  <si>
-    <t>RAC1/GRAP2/FYN/HRAS/GRB7/LYN/STAT5B/PIK3R1/GRB2/YES1/SRC/STAT3/GAB2/CBL/PTPN11/STAT5A/PTPRU/KIT/PIK3R3/KRAS/FES/GRB10/PIK3R2/STAT1/PRKCA/FER/PIK3CA/KITLG/SOCS1/TEC/SOCS6/LCK/PTPN6/SH2B3/GRAP/MMP9/JAK2/SOS1/CHEK1/NRAS/SH2B2</t>
-  </si>
-  <si>
-    <t>FEN1/APEX1/PCNA/RPA3/RFC4/POLE4/PARP1/RPA2/RFC2/BPHL/LIG1/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/PARG/POLE2/POLE3/ADPRHL2/PARP2/POLD4/POLB</t>
-  </si>
-  <si>
-    <t>HNRNPA1/POLR2L/GTF2F1/NCBP2/POLR2F/HNRNPM/POLR2J/GTF2F2/POLR2K/POLR2A/PTBP1/ESRP1/HNRNPF/POLR2D/POLR2I/NCBP1/POLR2G/TIA1/POLR2E/TIAL1/RBFOX2/POLR2H/HNRNPH1/POLR2C/POLR2B/ESRP2</t>
-  </si>
-  <si>
-    <t>UBXN1/PRKCSH/UBA52/UBB/VCP/CALR/RNF5/DERL1/CANX/RAD23B/TRIM13/DERL2/GANAB/EDEM2/MAN1B1/MOGS/UGGT1/SEL1L/UGGT2/AMFR/UBC/PSMC1/RNF139/OS9/EDEM3/RNF103/SYVN1/EDEM1/ENGASE/PDIA3/NGLY1/MLEC/MARCH6/RNF185</t>
-  </si>
-  <si>
-    <t>RRM2/RAD51/CBX5/TFDP1/EZH2/TFDP2/PCGF2/PCGF6/PHC1/BRCA1/RYBP/RING1/RNF2/RBBP7/EHMT2/RBBP8/E2F1/MAX/YAF2/EED/CBX3/UXT/CDC7/SUZ12/MGA/APAF1/EPC1/PHC3/RBBP4/BMI1/CHEK1/L3MBTL2/EHMT1/E2F6</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/CSNK2B/PSMF1/PSMB1/PSMA1/AKT2/PSMA3/CSNK2A2/MKRN1/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/RNF146/PSMD6/PSMD4/STUB1/WWP2/CSNK2A1/PSMA6/PSMD10/TRIM27/OTUD3/PTEN/AKT3/PSMA2/PSMD2/PSMD13/USP13/PSMB10/XIAP/AKT1/NEDD4/UBC/PSMC1/PSMD9/PSMA5/PSMD5/TNKS2/PSMC6/PSMD3/PREX2/PSMD1/TNKS/PSMB5/FRK</t>
-  </si>
-  <si>
-    <t>GNG11/RHOC/GNG5/GNB1/RAC1/GNB2/AKAP13/GNB5/GNB4/CDC42/RHOB/ARHGEF39/GNG12/TIAM2/GNB3/NET1/RHOA/PIK3R1/VAV3/ROCK1/ECT2/ARHGEF2/ITSN1/TRIO/RHOG/PREX1/ARHGEF16/ARHGEF40/ARHGEF35/ARHGEF26/ROCK2/FGD1/FGD4/KALRN/RAC2/ARHGEF33/PIK3R3/ARHGEF9/ARHGEF19/PLXNB1/ARHGEF1/GNA13/GNG4/ARHGEF4/GNG7/ARHGEF15/PIK3R2/ARHGEF12/ARHGEF7/OBSCN/ARHGEF37/SOS2/PIK3CA/TIAM1/TBXA2R/FGD3/ARHGEF5/MCF2L/ARHGEF17/ARHGEF6/GNGT1/GNG2/VAV2/GNG3/ARHGEF10L/GNG10/ADRA1D/GNG13/GNG8/NGEF/ARHGEF3/ARHGEF11/SOS1/PLEKHG5/GNA12/ARHGEF10/PLEKHG2/ABR</t>
-  </si>
-  <si>
-    <t>SOX17/UBA52/ASH2L/UBB/SOX7/SOX4/TLE1/YWHAZ/SRY/AKT2/TCF7L2/LEF1/TLE3/HDAC1/MEN1/TLE4/XPO1/CHD8/TLE2/CTNNB1/CTNNBIP1/CBY1/TCF7/TCF7L1/PYGO1/XIAP/AKT1/CTBP1/BTRC/UBC/BCL9L/APC/KMT2D/SOX9/SOX13/SOX6/PYGO2/RBBP5/SOX2/BCL9</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR3K/POLR1D/GTF3A/POLR2F/POLR3D/POLR2K/GTF3C5/SNAPC5/GTF3C3/SNAPC1/SNAPC2/POLR3E/POLR3H/GTF3C6/NFIC/POLR3GL/POLR3C/POLR3A/GTF3C2/POLR2E/TBP/POLR2H/ZNF143/GTF3C1/SNAPC3/SSB/POLR3B/POLR3F/BDP1/POLR3G/POU2F1/CRCP/NFIB/BRF2/POLR1C/GTF3C4/NFIA/SNAPC4/BRF1</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/PRKCD/ADCY3/PLCG1/AHCYL1/PRKAR2A/PRKAR1B/ITPR3/ADCY2/ITPR2/PRKCA/GRK2/PRKACA/PRKACB/ADCY7/ADCY1/PDE1B/PDE1C/PRKAR2B/ADCY5/ADCY4/PDE1A/ADCY8/ADCY9/PRKCG/PRKCE/CAMK4/ITPR1/ADCY6</t>
-  </si>
-  <si>
-    <t>TTR/APOA1/APOA2/APOM/APOE/DHFR/MTHFD2/RBP1/QPRT/FASN/MTHFD1/CYB5R3/COQ9/GPC3/MMAB/MTHFS/SLC2A1/ENPP2/COASY/SHMT1/NAXE/NAPRT/RFK/LDLR/MTHFD1L/SDC2/PCCA/RBP4/ABCD4/MCCC1/FLAD1/CD320/MMADHC/AGRN/GPC6/APOB/SHMT2/GSTO2/GSTO1/COQ5/PPCS/NAMPT/RDH11/VKORC1/MOCS2/TCN2/PDXK/HSPG2/MTHFD2L/AKR1C3/GPC2/GPC4/PANK2/AKR1C1/SDC4/AMN/BTD/LRP12/PPCDC/APOC3/LRP1/MOCS1/SLC2A3/TPK1/PDZD11/MOCS3/UBIAD1/BST1/COQ6/NFS1/ENPP1/PARP16/RETSAT/LMBRD1/SLC52A2/NAXD/PANK1/MUT/NUDT12/MCCC2/MTHFR/SLC25A32/PARP6/HLCS/PDSS1/LRP2/CYB5A/SLC19A3/VKORC1L1/THTPA/ACACA/COQ7/MTR/ACACB/MMAA/PARP8/PTGIS/PARP4/GPHN/AASDHPPT/SLC25A16/PRSS1/BCO2/DHFR2/PANK3/LRP8/SLC19A2/CUBN/PC/NMRK1/LRP10/PNPO/COQ2/ABCC1/AOX1/SLC23A1/BCO1/SLC25A19/PANK4/NADK2/NMNAT1/NMRK2/LRAT/IDH1/NT5E/MMACHC/NMNAT2/PARP14/PDSS2/GPC1/SLC52A3/NMNAT3/AKR1B10/SDC1/SLC19A1/NADSYN1/RNLS/SLC5A6/ALDH1L1/PARP9/PCCB/MTRR/COQ3/FPGS/TTPA/SLC46A1/PARP10/SLC23A2/RBP2/NNMT/PLB1/SDC3/NADK</t>
-  </si>
-  <si>
-    <t>PABPC1/EIF4B/EIF4A2/EIF4E/CNOT1/CNOT10/EIF4A1/ZCCHC11/CNOT11/TNKS1BP1/EIF4A3/PAN2/PARN/PAIP1/CNOT2/CNOT6/CNOT9/EIF4G1/CNOT6L/CNOT8/ZCCHC6/CNOT4/CNOT3/PAN3/CNOT7</t>
-  </si>
-  <si>
-    <t>YWHAB/PPP2R1A/MAP2K1/PPP2CB/PPP2R5C/HRAS/RAF1/PPP2CA/MARK3/SRC/PPP2R1B/PPP2R5A/ARAF/PHB/MAP2K2/MAP3K11/PPP2R5E/BRAF/KRAS/PPP2R5D/KSR1/BRAP/PPP2R5B/JAK2/NRAS</t>
-  </si>
-  <si>
-    <t>CCNB1/CDK1/LCMT1/PLK1/CCNB2/CCNA2/PPP2R1A/FOXM1/PKMYT1/PPP2CB/CDC25A/CDC25B/PPP2CA/PPME1/XPO1/PPP2R1B/MNAT1/CDC25C/PPP2R2A/WEE1/CDK2/CDK7/CCNH/PPP2R3B/CCNA1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/HRAS/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/PSMA6/SPRED2/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/RASA4/SPRED1/DAB2IP/UBC/CUL3/PSMC1/RASA1/KRAS/PSMD9/PSMA5/PSMD5/KBTBD7/NF1/PSMC6/PSMD3/SPRED3/PSMD1/RASA2/PSMB5/RASA3/RASAL1/RASAL3/RASAL2/SYNGAP1/NRAS</t>
-  </si>
-  <si>
-    <t>ORC6/MCM3/PSMC3/GMNN/PSME2/MCM7/PSMC4/MCM6/UBA52/PSMA4/UBB/MCM5/PSMA7/PSMB3/MCM4/PSMD11/PSMB2/PSMD7/PSMD14/MCM2/PSMC5/PSME1/PSMB6/CDT1/PSMF1/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/E2F1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/ORC2/UBC/PSMC1/ORC5/PSMD9/PSMA5/PSMD5/PSMC6/ORC1/PSMD3/E2F2/PSMD1/PSMB5/ORC3/E2F3</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/CDC25A/PSMB1/PSMA1/PHF20/PSMA3/ZNF385A/PSMD8/PSMC2/CHEK2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/PCBP4/PSMA6/PSMD10/RFWD2/PSMA2/PSMD2/PSMD13/CDK2/MDM4/PSMB10/ATM/CDKN1A/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/CCNE1/PSMD3/MDM2/PSMD1/PSMB5/CCNE2/CDKN2A/CCNA1/TP53/CHEK1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/TGFB1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSMB4/PSMB7/PSMD6/SRC/PSMD4/PSMA6/PSMD10/CBFB/PSMA2/PSMD2/EP300/PSMD13/PSMB10/UBC/SMURF2/PSMC1/PSMD9/SMURF1/PSMA5/PSMD5/PSMC6/PSMD3/MDM2/PSMD1/PSMB5/CDKN2A/RUNX3</t>
-  </si>
-  <si>
-    <t>RAD51/RAD51AP1/BARD1/BLM/BRCA2/RMI2/BRCA1/EME1/EXO1/TOP3A/RBBP8/MUS81/RAD51C/RAD50/NBN/BRIP1/GEN1/SPIDR/ATM/XRCC2/RAD51B/KAT5/EME2/RMI1/XRCC3/PALB2/MRE11/SLX4/WRN/DNA2/SLX1A/RAD51D</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/PSMB1/PSMA1/NFKBIB/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/MAP3K7/NFKBIE/PSMA2/REL/PSMD2/PSMD13/PSMB10/FBXW11/BCL10/BTRC/IKBKB/UBC/CHUK/PSMC1/MALT1/PSMD9/PSMA5/PSMD5/NFKB1/PSMC6/PSMD3/RELA/PSMD1/CARD11/PSMB5/IKBKG/PRKCB/CUL1</t>
-  </si>
-  <si>
-    <t>PTTG1/UBE2C/ANAPC11/CDC20/PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/ANAPC16/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/ANAPC7/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/ANAPC5/CDC26/PSMD6/PSMD4/CDC16/PSMA6/PSMD10/ANAPC1/CDC27/PSMA2/ANAPC10/UBE2E1/CDC23/PSMD2/PSMD13/PSMB10/UBC/ANAPC15/PSMC1/PSMD9/PSMA5/PSMD5/ANAPC2/PSMC6/PSMD3/PSMD1/ANAPC4/PSMB5/UBE2D1</t>
-  </si>
-  <si>
-    <t>FEN1/PCNA/RPA3/RFC4/POLE4/RPA2/RFC2/LIG1/POLD3/POLE/RFC5/POLA2/RPA1/POLD2/RFC1/POLD1/RFC3/POLE2/POLE3/POLA1/PRIM1/POLD4/PRIM2/DNA2</t>
-  </si>
-  <si>
-    <t>HSP90AA1/HSP90AB1/HSPA1A/HSPA8/HSPA2/FKBP4/HSBP1/HSF1/PTGES3/HSPA1B/MLST8/CAMK2D/DNAJB1/CAMK2A/CAMK2G/AKT1S1/CREBBP/EP300/MTOR/CRYAB/RPTOR/HSPB8/CAMK2B/HSPA1L</t>
-  </si>
-  <si>
-    <t>YARS/PPA1/QARS/DARS/EEF1E1/SARS/NARS/EPRS/MARS/KARS/AARS/RARS/GARS/FARSA/AIMP1/LARS/AIMP2/CARS/WARS/IARS/HARS/TARS/FARSB/VARS</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/DYNLL1/HSPB11/TUBB2A/WDR34/WDR60/CLUAP1/IFT20/TUBB2B/KIF3C/KIFAP3/DYNLL2/DYNC2LI1/TNPO1/IFT74/IFT52/IFT27/DYNLRB1/IFT81/TUBA4A/TUBA1C/TCTEX1D2/IFT57/TTC21B/IFT80/IFT172/IFT22/TTC30A/IFT88/IFT46/KIF3A/TRAF3IP1/IFT43/WDR35/WDR19/DYNLRB2/IFT140/KIF3B/TTC30B/TUBB4A/TCTEX1D1/IFT122/KIF17/TTC26/DYNC2H1/TCTE3/TRIP11</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/GNB1/GNB2/GNAI1/GNAS/GNB5/GNB4/GNG12/GNAI2/GNB3/PRKCD/ADCY3/PRKCH/RGS19/RGS4/ADRA2C/GNG4/RGS17/ADRA2B/ADCY2/GNG7/PRKCA/PRKCQ/RGS20/ADCY7/ADCY1/GNGT1/GNAZ/GNG2/GNG3/GNAI3/GNG10/ADCY5/ADCY4/ADCY8/ADRA2A/GNG13/ADCY9/GNG8/PRKCG/PRKCE/ADCY6/PRKCB</t>
-  </si>
-  <si>
-    <t>APOA1/TMSB4X/FN1/CALM1/SPARC/CALM2/CLU/IGF2/TAGLN2/FLNA/OLA1/PFN1/TIMP3/CFL1/ACTN1/ACTN4/TIMP1/PSAP/PPIA/CAP1/MANF/SELENOP/VCL/APLP2/FAM49B/APP/LHFPL2/WDR1/CALU/PROS1/HSPA5/ANXA5/CD63/ALDOA/TGFB1/THBS1/QSOX1/PHACTR2/SERPINE1/SOD1/RARRES2/CALM3/GAS6/SCG3/TTN/CFD/TUBA4A/LAMP2/PECAM1/VEGFB/ECM1/SERPINF2/ITGA2B/TLN1/VEGFA/A1BG/HABP4/PCDH7/FGB/CYB5R1/TGFB2/FGA/NHLRC2/PDGFA/PF4/STX4/CDC37L1/CHID1/FAM3C/STXBP3/SERPINA1/VWF/VTI1B/SERPING1/ENDOD1/TEX264/TGFB3/PCYOX1L/TF/PRKCA/LGALS3BP/FERMT3/ACTN2/ISLR/TOR4A/LEFTY2/TMX3/STXBP2/AHSG/CD36/FGG/CD109/MAGED2/SCCPDH/CD9/F8/PLG/SERPINA4/ORM2/VEGFC/ALB/ABCC4/SYTL4/GTPBP2/ITIH4/PPBP/IGF1/PDGFB/MMRN1/HGF/RAB27B/PRKCG/EGF/BRPF3/APOOL/PRKCB</t>
-  </si>
-  <si>
-    <t>VCAN/LUM/B4GALT4/HMMR/HEXB/B4GALT2/GPC3/HAS2/SDC2/PAPSS1/EXT2/B3GNT2/AGRN/SLC35B2/BGN/GPC6/B4GALT3/IDS/HYAL2/CHST13/GUSB/CD44/CHST12/CHPF/HSPG2/CHPF2/SLC35D2/NDST1/B4GALT1/GPC2/GPC4/GLB1/DSE/CHST9/EXT1/SDC4/DSEL/HS3ST3A1/GLCE/CHST3/HEXA/ST3GAL4/HYAL3/ST3GAL6/HS6ST1/CHP1/B4GAT1/CHST11/HS3ST5/GNS/CSGALNACT2/CHST7/B4GALT6/HS2ST1/NAGLU/SLC26A2/GALNS/SLC35B3/B3GAT2/SLC26A1/HYAL1/ST3GAL1/CHST1/SLC9A1/B3GNT7/HS6ST2/UST/B4GALT5/B3GAT3/CHSY1/ABCC5/GLB1L/SGSH/ST3GAL2/B3GNT4/HAS1/HS6ST3/CSGALNACT1/CHST2/CHST15/ST3GAL3/HS3ST1/HPSE2/CSPG5/HS3ST3B1/XYLT1/GPC1/B3GALT6/B3GAT1/NDST2/HAS3/PAPSS2/SDC1/CSPG4/CHST6/BCAN/XYLT2/CEMIP/HS3ST4/PRELP/IDUA/SDC3/FMOD/HGSNAT/B4GALT7/ARSB/CHST14</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PHF20/PSMA3/ZNF385A/PSMD8/PSMC2/CHEK2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/CDKN1B/PCBP4/PSMA6/PSMD10/RFWD2/PSMA2/PSMD2/PSMD13/CDK2/MDM4/PSMB10/ATM/CDKN1A/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/CCNE1/PSMD3/MDM2/PSMD1/PSMB5/CCNE2/CDKN2A/CCNA1/TP53</t>
-  </si>
-  <si>
-    <t>PPP1CC/FKBP1A/UBA52/UBB/PPP1CA/BAMBI/STRAP/TGFB1/SMAD3/PPP1CB/NEDD4L/XPO1/STUB1/UBE2M/SMAD4/TGFBR1/SMAD2/CBL/ZFYVE9/FURIN/USP15/UBC/SMURF2/NEDD8/PPP1R15A/SMURF1/TGFBR2/MTMR4/UCHL5/SMAD7/PMEPA1</t>
-  </si>
-  <si>
-    <t>HSPB1/CDK1/PSMC3/PSME2/RAC1/PSMC4/UBA52/SEPT7/PSMA4/JUN/UBB/PSMA7/PSMB3/PSMD11/MYC/PSMB2/PSMD7/PAK2/PSMD14/CCND3/PSMC5/PSME1/PSMB6/PSMF1/CDC42/PSMB1/PSMA1/PSMA3/CDC42EP3/PSMD8/PSMC2/PSME3/DNAJB1/PSMD12/PSME4/MOV10/PSMB4/PSMB7/ETV4/IGF2BP1/PSMD6/XPO1/AGO1/PSMD4/PSMA6/PSMD10/MAPK6/PSMA2/CDC14B/MAPKAPK5/PSMD2/PAK1/PSMD13/PSMB10/KALRN/UBC/PSMC1/TNRC6B/PSMD9/PSMA5/TNRC6A/PSMD5/CDC42EP2/AGO3/PRKACA/PSMC6/AGO2/PSMD3/TNRC6C/FOXO1/PRKACB/NCOA3/PSMD1/AGO4/CDC14A/PSMB5/FOXO3/MAPK4/PAK3</t>
-  </si>
-  <si>
-    <t>DUSP4/CDK1/PEA15/DUSP1/JAK1/MAP2K1/DUSP6/MAPK3/TYK2/MAP2K2/DUSP5/PTPN11/DUSP9/MAPK1/DUSP10/DUSP2/DUSP7/IL6ST/IL6R/IL6/DUSP8/JAK2/DUSP16</t>
-  </si>
-  <si>
-    <t>POLR2L/SUPT4H1/GTF2F1/NCBP2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/NELFE/NELFA/POLR2D/POLR2I/NCBP1/SUPT5H/POLR2G/POLR2E/NELFCD/CTDP1/POLR2H/NELFB/POLR2C/POLR2B</t>
-  </si>
-  <si>
-    <t>POLR2L/RAN/POLR2F/POLR2J/POLR2K/PRKRA/POLR2A/POLR2D/POLR2I/DGCR8/AGO1/POLR2G/POLR2E/XPO5/DROSHA/POLR2H/TARBP2/DICER1/AGO3/POLR2C/AGO2/POLR2B/AGO4</t>
-  </si>
-  <si>
-    <t>CCT8/TCP1/CCT3/XRN2/CCT4/CCT5/FBXO6/WRAP53/FBXW2/NOP56/SKIV2L/CCT2/CCT6A/FBXW9/KIF13A/STAT3/USP11/FBXL3/DCAF7/AP3M1/HDAC3/FBXL5/LONP2/FBXW7/FKBP9/FBXW4/CCT7/KIFC3/CCNE1/FBXW5/ARFGEF2/CCNE2/CCT6B/SPHK1/TP53/FBXO4/GBA</t>
-  </si>
-  <si>
-    <t>CALM1/EEF2/HSP90AA1/CALM2/HSP90AB1/MAP2K1/MAP2K7/MAP2K3/PDCD6IP/TXNRD1/CALM3/MAP2K6/ANTXR2/SNAP25/SV2A/ANTXR1/MAP2K2/HBEGF/FURIN/VAMP1/PDZD3/SYT2/VAMP2/STX1A/SV2C/MAP2K4/CD9/SYT1/GUCY2C/STX1B</t>
-  </si>
-  <si>
-    <t>FTH1/UBA52/FTL/UBB/ATP6V0B/HMOX2/ATP6V0E1/ATP6V1G1/SLC40A1/SLC22A17/ATP6V1F/SLC11A2/SKP1/HEPH/ATP6V1H/GLRX3/HMOX1/ATP6V1A/ATP6V0A2/MCOLN1/TCIRG1/CYBRD1/CAND1/ATP6V0A1/ATP6V1D/FBXL5/ATP6V1B2/IREB2/UBC/NEDD8/STEAP2/ATP6V1C1/ATP6V0D2/TF/ATP6V1G2/TFRC/STEAP3/ATP6V0E2/ATP6V1E2/ATP6V1E1/ATP6V1B1/LCN2/ABCG2/SLC46A1/HFE/ATP6V0C/ATP6V1C2/FLVCR1/ATP6V0D1/ACO1/ATP6AP1/TFR2/CUL1</t>
-  </si>
-  <si>
-    <t>BEX3/RAC1/UBA52/UBB/AKAP13/AATF/ITGB3BP/ARHGEF39/CASP3/TIAM2/BAD/NCSTN/MAGED1/SQSTM1/NET1/VAV3/ECT2/ARHGEF2/YWHAE/ITSN1/TRIO/PREX1/ARHGEF16/ARHGEF40/ARHGEF35/ARHGEF26/PSEN1/FGD1/FGD4/CASP2/KALRN/UBC/APH1B/ARHGEF33/ARHGEF9/ARHGEF19/ARHGEF1/GNA13/PSENEN/APH1A/ARHGEF4/ARHGEF15/PSEN2/ARHGEF12/ARHGEF7/OBSCN/ARHGEF37/SOS2/TIAM1/TRAF6/FGD3/ARHGEF5/MCF2L/ARHGEF17/ARHGEF6/VAV2/ARHGEF10L/MAPK8/NGEF/ARHGEF3/ARHGEF11/SOS1/PLEKHG5/BCL2L11/ARHGEF10/PLEKHG2/ABR/NGF</t>
-  </si>
-  <si>
-    <t>FN1/FBLN1/ITGB1/FBLN2/LOXL2/MFAP2/ITGA8/ITGA5/VTN/EMILIN1/MFAP4/ITGAV/LOXL1/TGFB1/LTBP4/BMP7/BMP4/EMILIN2/TGFB2/FURIN/LTBP1/MFAP1/FBN2/LOXL3/EFEMP2/LOX/ITGB5/EFEMP1/LTBP3/LOXL4/ITGB8/BMP2/TGFB3/EMILIN3/FBN1/FBLN5/LTBP2/GDF5/FBN3/ITGB6/MFAP3/ELN</t>
-  </si>
-  <si>
-    <t>HIST1H4C/SUMO1/CBX5/SUMO3/TPR/NUP62/PCGF2/PHC1/NUP37/NUP35/RING1/RNF2/NUP43/HDAC1/SUMO2/NUP50/PIAS2/UBE2I/RAE1/NUP153/POM121/NUP107/PHC2/NUP88/RANBP2/NUP133/NDC1/SCMH1/NUP93/NUP58/HDAC2/NUP85/CBX8/SUZ12/NUP210/NUP54/NUP160/HIST1H4J/SATB1/CBX2/SEH1L/HDAC4/NUP98/SATB2/NUP214/HIST1H4H/CBX4/PHC3/NUPL2/ZBED1/NUP155/AAAS/BMI1/HIST1H4E/CHD3/HIST4H4/HIST1H4I/HIST1H4A/HIST1H4D/NUP188/L3MBTL2/PIAS1/NUP205</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/FZD5/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/FZD7/PSMB1/PSMA1/FZD2/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/FZD4/PSMA6/PSMD10/WNT5A/PSMA2/PSMD2/PSMD13/PSMB10/DVL2/PRICKLE1/UBC/SMURF2/PSMC1/VANGL2/PSMD9/SMURF1/PSMA5/PSMD5/SCRIB/PARD6A/PSMC6/PSMD3/FZD3/FZD8/PSMD1/PSMB5/FZD1</t>
-  </si>
-  <si>
-    <t>ORC6/CCNB1/CDK1/PPP2R1A/TFDP1/POLA2/PPP2CB/TFDP2/ORC4/MCM8/PPP2CA/PPP2R1B/E2F1/POLA1/RB1/ORC2/ORC5/PRIM1/PRIM2/ORC1/PPP2R3B/ORC3</t>
-  </si>
-  <si>
-    <t>CALM1/HSP90AA1/DHFR/CALM2/DDAH2/NOSIP/CALM3/NOSTRIN/DDAH1/SPR/NOS3/CAV1/AKT1/DNM2/WASL/LYPLA1/GCHFR/PTS/ZDHHC21/PRKG2/CYGB/GCH1</t>
-  </si>
-  <si>
-    <t>CTGF/TEAD1/TGS1/WWTR1/RXRA/TEAD4/CHD9/TBL1XR1/CREBBP/TEAD3/CARM1/PPARA/TEAD2/NCOA2/TBL1X/MED1/SMARCD3/NCOA6/YAP1/NCOA1/RUNX3/HELZ2</t>
-  </si>
-  <si>
-    <t>ACTL6A/CSNK2B/PHC1/ARID1A/CSNK2A2/RYBP/RING1/ARID1B/RNF2/SMARCE1/SMARCA4/SMARCC1/SMARCC2/SMARCA2/PBRM1/CSNK2A1/CBFB/PHC2/HIPK2/YAF2/EP300/PCGF5/SCMH1/SMARCD2/SMARCD1/CBX8/CBX2/SMARCD3/ARID2/CBX4/PHC3/AUTS2/BMI1/SMARCB1/RUNX1/CBX6</t>
-  </si>
-  <si>
-    <t>FN1/CALM1/ACTB/DUSP4/FGFR1/CALM2/CDK1/PSMC3/PSME2/SPTBN1/FGFR4/YWHAB/PSMC4/PEA15/UBA52/RASGRP3/PSMA4/UBB/PSMA7/VCL/PSMB3/PEBP1/AKAP9/PPP2R1A/RBX1/SHC1/PSMD11/ERBB4/DUSP1/PSMB2/PSMD7/RAP1B/PSMD14/JAK1/PSMC5/PSME1/PSMB6/TEK/PDGFRA/PSMF1/MAP2K1/PDGFRB/PPP2CB/SPTAN1/PSMB1/PPP2R5C/FYN/HRAS/DUSP6/PSMA1/CAMK2D/PSMA3/ACTG1/ERBB3/PSMD8/PSMC2/PSME3/CALM3/RAF1/PPP2CA/PSMD12/PSME4/PSMB4/MARK3/PSMB7/RAP1A/GRB2/ARRB2/PSMD6/SRC/ANGPT1/PPP2R1B/MAPK3/PSMD4/CAMK2A/PTPRA/PPP2R5A/PSMA6/SPRED2/PSMD10/FGFR2/LAMTOR2/TYK2/CAMK2G/NCAM1/STAT3/ERBB2/IQGAP1/ARAF/ITGA2B/TLN1/PSMA2/ARRB1/SHC2/PSMD2/PHB/GRIN2A/MAP2K2/SPTBN2/FGB/FGA/PSMD13/PPP5C/HBEGF/PDGFA/DUSP5/PSMB10/PTPN11/PSPN/FGF7/RASA4/CNKSR2/FRS3/MAP3K11/DUSP9/PPP2R5E/SPRED1/DAB2IP/KIT/IFNLR1/NRG1/MAPK1/NRG2/UBC/DLG4/GFRA2/CUL3/FGF1/DUSP10/DUSP2/WDR83/PSMC1/VWF/RASA1/BRAF/KRAS/PSMD9/PTK2/CNKSR1/FGFR3/PSMA5/LAMTOR3/GRIN2B/FGF19/FGF10/PSMD5/IRS1/PAQR3/RASGRP1/FGF17/PPP2R5D/KBTBD7/IL20RB/KSR1/FGF8/RANBP9/GFRA3/RAPGEF2/CAMK2B/IL10RB/NF1/PSMC6/DUSP7/PSMD3/BRAP/ACTN2/FGF22/SPRED3/GRIN2D/KITLG/RASGEF1A/PSMD1/CSK/IL6ST/FRS2/KLB/NRG4/IL20RA/RASA2/IRS2/PPP2R5B/KSR2/FGG/EGFR/PSMB5/CSF2RA/FGF23/IL6R/SPTB/RASA3/SPTBN5/JAK3/FGF18/FGF9/IL6/NRTN/IL17RD/PDGFB/LAT/GDNF/HGF/IL2RG/SHC3/APBB1IP/RASAL1/RASAL3/DUSP8/SPTBN4/EGF/JAK2/RASAL2/SOS1/DUSP16/SYNGAP1/NRAS/FGF2/MET</t>
-  </si>
-  <si>
-    <t>ACTB/CLTB/AP2S1/RAC1/MMP2/AP2A1/CLTA/AP2M1/FYN/EFNB2/ACTG1/NCSTN/LYN/EFNA1/EPHA4/VAV3/YES1/SRC/CLTC/AP2A2/EPHB3/EFNA4/EPHA6/EFNB1/EPHA1/PSEN1/EPHB6/EFNA3/APH1B/CLTCL1/DNM1/EPHA2/PSENEN/EFNA5/EPHB2/APH1A/PSEN2/EPHB4/ADAM10/TIAM1/EFNB3/VAV2/EPHB1/EPHA7/AP2B1/MMP9/EPHA8</t>
-  </si>
-  <si>
-    <t>CCT8/TCP1/RAB11A/CCT3/CCT4/RAB3IP/CCT5/BBIP1/BBS4/MKKS/ARL3/ARF4/EXOC5/RAB8A/CCT2/ASAP1/ARL13B/GBF1/EXOC4/BBS12/UNC119B/INPP5E/BBS7/PDE6D/PKD2/EXOC7/BBS2/BBS9/ARL6/EXOC1/EXOC2/EXOC3/RAB11FIP3/LZTFL1/BBS10/PKD1/BBS5/EXOC6/BBS1/CYS1/EXOC8/RP2/SMO/CNGB1/MCHR1/NPHP3/TTC8</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/HIGD1A/PSMF1/EGLN2/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/UBE2D2/HIF3A/PSMD12/PSME4/PSMB4/PSMB7/WTIP/PSMD6/UBE2D3/PSMD4/PSMA6/VHL/PSMD10/HIF1AN/EGLN1/CREBBP/PSMA2/VEGFA/PSMD2/EP300/PSMD13/HIF1A/PSMB10/EGLN3/UBC/PSMC1/LIMD1/PSMD9/PSMA5/CITED2/PSMD5/AJUBA/CA9/PSMC6/PSMD3/EPO/EPAS1/PSMD1/CUL2/ARNT/PSMB5/UBE2D1</t>
-  </si>
-  <si>
-    <t>YWHAH/DYNLL1/YWHAQ/YWHAB/TFDP1/YWHAZ/TFDP2/AKT2/BAD/PPP3CC/DYNLL2/PMAIP1/E2F1/YWHAE/AKT3/TP53BP2/PPP1R13B/BBC3/AKT1/BID/BCL2/PPP3R1/MAPK8/TP73/SFN/BMF/TP53/BCL2L11/YWHAG</t>
-  </si>
-  <si>
-    <t>PIN1/CHD4/MEAF6/AKT2/HDAC1/RBBP7/MAP2K6/PML/KAT6A/GATAD2A/PIP4K2B/AKT3/ING2/BRPF1/GATAD2B/EP300/AKT1/HDAC2/PIP4K2A/PIP4K2C/MTA2/RBBP4/CHD3/BRD7/ING5/BRPF3/TP53/BRD1/MBD3</t>
-  </si>
-  <si>
-    <t>UBE2T/UBE2S/UBE2C/UBA52/UBB/UBE2A/USP9X/UBE2D2/UCHL3/USP5/CDC34/UBA1/UBE2H/UBE2K/UBE2E3/UBE2Q2/UBE2E1/UBE2L3/OTULIN/USP7/UBA6/UBC/UBE2W/UBE2B/UBE2G1/UBE2Z/UBE2R2/UBE2G2/UBE2D1</t>
-  </si>
-  <si>
-    <t>FGFR1/POLR2L/FGFR4/GTF2F1/NCBP2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/HRAS/ZMYM2/BCR/CUX1/CPSF6/LRRFIP1/POLR2D/STAT5B/PIK3R1/TRIM24/GRB2/POLR2I/CNTRL/PLCG1/NCBP1/POLR2G/FGFR2/FGFR1OP/STAT3/POLR2E/BAG4/ERLIN2/GAB2/POLR2H/FGF7/STAT5A/FGF1/KRAS/FGFR3/FGF10/FGF17/STAT1/FGF8/POLR2C/PIK3CA/POLR2B/MYO18A/FGF22/FRS2/FGF23/GAB1/FGF18/FGF9/SOS1/FGFR1OP2/NRAS/FGF2</t>
-  </si>
-  <si>
-    <t>ARF1/GOSR1/STX5/CUX1/YKT6/MAN2A1/COG4/SNAP29/GOLIM4/MAN1A1/GOSR2/NAPA/MAN1A2/VPS45/NAPB/GOLGA5/COG8/RGP1/NSF/CYTH3/CYTH2/NAPG/COG2/RAB30/STX16/COG6/COG3/CYTH1/RIC1/MAN2A2/STX6/BET1L/COG7/COG1/RAB36/RAB39A/COG5/RAB33B/VTI1A/MAN1C1/TRIP11</t>
-  </si>
-  <si>
-    <t>HSP90AA1/ACTB/ARPC2/ARPC5/HSP90AB1/CFL1/MYH9/ARPC1B/RAC1/BRK1/ACTR2/ARPC1A/CYFIP2/CDC42/MYO1C/ABI2/ACTR3/WASF2/FYN/ACTG1/WIPF2/ELMO1/LYN/DOCK1/PRKCD/PLD3/PIK3R1/PLCG2/GRB2/CRK/VAV3/PLPP5/YES1/SRC/MAPK3/PLCG1/WASF1/AHCYL1/NCKIPSD/WIPF3/CYFIP1/MYO10/ARPC4/WIPF1/NF2/PAK1/LIMK1/MYO9B/NCKAP1/ELMO2/BAIAP2/PLD1/MAPK1/PLA2G6/WASL/PIK3CB/ITPR3/PTK2/NCK1/ARPC3/WAS/ABI1/ITPR2/PIK3R2/BTK/PIK3CA/WASF3/MYO5A/NCKAP1L/ABL1/VAV2/PLPP4/PRKCE/ITPR1/PLD2/CD247</t>
-  </si>
-  <si>
-    <t>MYL7/CALM1/CALD1/MYL9/MYL6/TPM4/CALM2/TPM1/MYL12A/TPM2/ACTA2/MYL12B/MYL6B/VCL/ANXA6/PAK2/DYSF/ANXA1/CALM3/SORBS3/LMOD1/ACTG2/ANXA2/SORBS1/TLN1/PXN/PAK1/MYL5/ITGB5/TPM3/MYLPF/MYL10/ITGA1/MYLK/TRIM72</t>
-  </si>
-  <si>
-    <t>APOA1/TMSB4X/FN1/CALM1/SPARC/CALM2/CLU/IGF2/TAGLN2/FLNA/OLA1/PFN1/TIMP3/CFL1/ACTN1/ACTN4/TIMP1/PSAP/PPIA/CAP1/MANF/SELENOP/VCL/APLP2/FAM49B/APP/LHFPL2/WDR1/CALU/PROS1/HSPA5/ANXA5/CD63/ALDOA/TGFB1/THBS1/QSOX1/PHACTR2/SERPINE1/SOD1/RARRES2/CALM3/GAS6/SCG3/TTN/CFD/TUBA4A/LAMP2/PECAM1/VEGFB/ECM1/SERPINF2/ITGA2B/TLN1/VEGFA/A1BG/HABP4/PCDH7/FGB/CYB5R1/TGFB2/FGA/NHLRC2/PDGFA/PF4/CDC37L1/CHID1/FAM3C/SERPINA1/VWF/VTI1B/SERPING1/ENDOD1/TEX264/TGFB3/PCYOX1L/TF/LGALS3BP/FERMT3/ACTN2/ISLR/TOR4A/LEFTY2/TMX3/STXBP2/AHSG/CD36/FGG/CD109/MAGED2/SCCPDH/CD9/F8/PLG/SERPINA4/ORM2/VEGFC/ALB/ABCC4/SYTL4/GTPBP2/ITIH4/PPBP/IGF1/PDGFB/MMRN1/HGF/RAB27B/EGF/BRPF3/APOOL</t>
-  </si>
-  <si>
-    <t>QARS/YARS2/KARS/GARS/PPA2/NARS2/PARS2/SARS2/WARS2/DARS2/IARS2/MARS2/RARS2/VARS2/EARS2/LARS2/FARS2/HARS2/TARS2/AARS2/CARS2</t>
-  </si>
-  <si>
-    <t>CALM1/KDR/CALM2/HRAS/CALM3/PRKCD/SRC/PLCG1/AHCYL1/PRKCZ/VEGFA/PDPK1/RASA1/KRAS/ITPR3/ITPR2/PRKCA/SPHK1/ITPR1/NRAS/PRKCB</t>
-  </si>
-  <si>
-    <t>FEN1/APEX1/PCNA/RPA3/RFC4/POLE4/RPA2/RFC2/LIG1/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/POLE2/POLE3/POLD4/POLB</t>
-  </si>
-  <si>
-    <t>NPM1/BTG2/PLK2/CNOT1/CNOT10/CENPJ/CDC25C/PLAGL1/CNOT11/RGCC/TNKS1BP1/CNOT2/CNOT6/CNOT9/CNOT6L/CNOT8/CNOT4/PLK3/CNOT3/TP53/CNOT7</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/GNG11/TUBA1A/TUBB4B/ACTB/GNG5/CCT8/GNB1/PFDN5/TUBB2A/VBP1/TBCA/GNB2/TCP1/TBCB/PFDN2/CCT3/GNAI1/XRN2/CCT4/GNB5/CSNK2B/GNB4/TUBB2B/CCT5/GNG12/FBXO6/CSNK2A2/GNAI2/RGS9/TBCD/WRAP53/GNB3/FBXW2/NOP56/SKIV2L/CCT2/CCT6A/TUBA4A/FBXW9/TUBA1C/CSNK2A1/PFDN1/KIF13A/PFDN6/STAT3/USP11/PFDN4/FBXL3/TBCC/DCAF7/AP3M1/HDAC3/FBXL5/LONP2/EHHADH/FBXW7/FKBP9/FBXW4/CCT7/PDCL/GNG4/GNG7/KIFC3/RGS6/ARL2/GNAO1/CCNE1/RGS11/FBXW5/ARFGEF2/GNGT1/GNAZ/GNG2/GNG3/TUBB4A/GNAI3/CCNE2/GNG10/CCT6B/SPHK1/RGS7/GNG13/GNG8/TP53/FBXO4/TBCE/GBA</t>
-  </si>
-  <si>
-    <t>HSP90AA1/CDC37/UBA52/UBB/SHC1/ERBB4/FYN/HRAS/AKT2/ERBB3/GRB7/PRKCD/RHOA/PIK3R1/CUL5/GRB2/YES1/SRC/STUB1/PLCG1/ERBB2/AKT3/DIAPH1/PTPN18/HBEGF/MATK/AKT1/NRG1/NRG2/UBC/ERBIN/PTPN12/KRAS/RNF41/PRKCA/PIK3CA/USP8/NRG4/PTK6/EGFR/GAB1/PRKCE/EGF/SOS1/MEMO1/NRAS</t>
-  </si>
-  <si>
-    <t>VCAN/HEXB/GPC3/SDC2/AGRN/BGN/GPC6/IDS/CHST13/CHST12/CHPF/HSPG2/CHPF2/GPC2/GPC4/DSE/CHST9/SDC4/DSEL/CHST3/HEXA/HYAL3/CHST11/CSGALNACT2/CHST7/B3GAT2/HYAL1/UST/B3GAT3/CHSY1/CSGALNACT1/CHST15/CSPG5/XYLT1/GPC1/B3GALT6/B3GAT1/SDC1/CSPG4/BCAN/XYLT2/IDUA/SDC3/B4GALT7/ARSB/CHST14</t>
-  </si>
-  <si>
-    <t>CTGF/NKX2-5/GATA4/TEAD1/TGS1/NPPA/WWTR1/RXRA/TBX5/TEAD4/CHD9/TBL1XR1/HIPK2/CREBBP/TEAD3/CARM1/PPARA/TEAD2/NCOA2/TBL1X/MED1/HIPK1/SMARCD3/NCOA6/YAP1/NCOA1/KAT2B/HELZ2</t>
-  </si>
-  <si>
-    <t>RHEB/PRKAG1/PRKAB2/STRADB/MLST8/STK11/LAMTOR1/LAMTOR5/PRKAA1/LAMTOR4/RRAGC/LAMTOR2/CAB39/CAB39L/RRAGA/PRKAA2/MTOR/RPTOR/SLC38A9/RRAGD/RRAGB/LAMTOR3/TSC2/TSC1/PRKAB1/STRADA/PPM1A/PRKAG2</t>
-  </si>
-  <si>
-    <t>CALM1/HSP90AA1/CALM2/RAC1/PAK2/CDH5/MLST8/AKT2/MAPKAP1/PRR5/CALM3/VAV3/TRIB3/CTNNB1/AKT3/PAK1/JUP/NOS3/MTOR/CAV1/AKT1/RICTOR/CTNNA1/CTNND1/PDPK1/THEM4/VAV2/PAK3</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR3K/POLR1D/GTF3A/POLR2F/POLR3D/POLR2K/GTF3C5/GTF3C3/POLR3E/POLR3H/GTF3C6/POLR3GL/POLR3C/POLR3A/GTF3C2/POLR2E/TBP/POLR2H/GTF3C1/POLR3B/POLR3F/BDP1/POLR3G/CRCP/POLR1C/GTF3C4/BRF1</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR3K/POLR1D/POLR2F/POLR3D/POLR2K/SNAPC5/SNAPC1/SNAPC2/POLR3E/POLR3H/POLR3GL/POLR3C/POLR3A/POLR2E/TBP/POLR2H/ZNF143/SNAPC3/POLR3B/POLR3F/BDP1/POLR3G/POU2F1/CRCP/BRF2/POLR1C/SNAPC4</t>
-  </si>
-  <si>
-    <t>HIST1H4C/FEN1/PCNA/RPA3/CLSPN/H2AFX/RAD51/RFC4/POLE4/CCNA2/UBA52/SUMO1/UBB/PARP1/RHNO1/RAD51AP1/RPA2/RFC2/UBE2N/BARD1/BLM/POLD3/TIMELESS/BRCA2/PPP4C/SIRT6/UBE2V2/POLE/RMI2/ERCC1/RFC5/RPA1/POLD2/RFC1/PPP4R2/POLD1/RFC3/BRCA1/EME1/TP53BP1/RNF168/SUMO2/BABAM1/EXO1/POLE2/RNF4/MDC1/POLE3/UBE2I/TOP3A/RBBP8/POLK/RNF8/MUS81/HERC2/RAD51C/HIST1H2BG/RAD50/NBN/BRIP1/RAD17/CDK2/HIST2H2BE/GEN1/ATR/SPIDR/PARP2/RAD9A/ATM/PIAS4/POLQ/UBC/TIPIN/HIST1H2BH/XRCC2/RAD51B/LIG3/KAT5/EME2/RMI1/ERCC4/XRCC3/HIST1H2BD/BRCC3/HIST1H4J/POLD4/RAD1/RAD52/TOPBP1/HUS1/PALB2/MRE11/SLX4/HIST1H4H/HIST1H2BN/WRN/ABL1/DNA2/HIST1H4E/HIST1H2BL/HIST1H2BC/HIST1H2BF/HIST4H4/ATRIP/HIST1H4I/CCNA1/POLH/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2BE/HIST1H2BJ/HIST1H2BK/CHEK1/XRCC1/SLX1A/RAD51D/UIMC1</t>
-  </si>
-  <si>
-    <t>RAB4A/ARF1/GDE1/INPP5F/GDPD5/PLEKHA6/MTMR2/PTPN13/PIK3R1/PLEKHA4/ARF3/TNFAIP8/INPP4A/PTEN/MTMR3/SBF2/OCRL/INPP5E/PIP4K2B/SACM1L/PLEKHA1/RUFY1/PITPNB/PI4KA/SYNJ1/PI4KB/PIP5K1C/PIK3CD/PIP4K2A/INPPL1/GDPD1/PIP4K2C/SBF1/MTM1/PIK3R3/RAB5A/MTMR9/PIK3CB/RAB14/PIK3C2A/PIKFYVE/PLEKHA3/PIK3R2/MTMR6/VAC14/PNPLA6/INPP5J/MTMR10/PIK3C3/PIK3CA/TNFAIP8L1/MTMR1/MTMR8/PIK3C2B/PI4K2A/PI4K2B/MTMR12/TNFAIP8L3/MTMR4/PLEKHA2/GDPD3/PIK3R4/PIK3R5/MTMR14/SYNJ2/PNPLA7/MTMR7/PLEKHA8/FIG4/INPP5K/INPP5D/PIP5K1B/PLEKHA5/PIP5K1A</t>
-  </si>
-  <si>
-    <t>CCNC/CDK4/MED19/NCOR1/MED28/CCND3/TGFB1/MED27/CEBPD/MED17/MED13L/MED22/MED25/TGS1/RXRA/CHD9/MED4/TBL1XR1/MED10/CDK19/MED24/CREBBP/MED8/MED31/CARM1/SREBF2/EP300/HDAC3/MED30/PPARA/NCOA2/MED15/ZNF638/MED18/TBL1X/MED1/MED6/MED26/MED21/MED9/MED29/ANGPTL4/THRAP3/SMARCD3/NCOR2/NFKB1/CEBPB/NCOA6/MED7/PPARGC1A/RELA/MED20/CDK8/NCOA3/KLF5/SLC2A4/MED14/NR2F2/MED13/MED16/SREBF1/CD36/MED11/KLF4/NCOA1/EBF1/MED12/ADIRF/PPARG/MED23/FAM120B/ZNF467/HELZ2/CEBPA</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/VCP/PSMD11/PSMB2/PSMD7/PSMD14/RNF5/PSMC5/PSME1/PSMB6/PSMF1/DERL1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/DERL2/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/ERLIN2/PSMB10/ERLIN1/SEL1L/DERL3/UBC/PSMC1/OS9/PSMD9/PSMA5/PSMD5/PSMC6/ERLEC1/PSMD3/PSMD1/PSMB5/CFTR/RNF185</t>
-  </si>
-  <si>
-    <t>MAD2L1/UBE2C/ANAPC11/CDC20/ANAPC16/BUB3/ANAPC7/ANAPC5/CDC26/CDC16/BUB1B/ANAPC1/CDC27/ANAPC10/UBE2E1/CDC23/ANAPC15/ANAPC2/ANAPC4/UBE2D1</t>
-  </si>
-  <si>
-    <t>RALA/SHC1/RALB/HRAS/GRB2/SRC/NTRK1/SHC2/RALGDS/KRAS/MAPK14/MAPKAPK3/MAPK13/MAPKAPK2/MAPK11/SHC3/SOS1/MAPK12/NRAS/NGF</t>
-  </si>
-  <si>
-    <t>YWHAB/TJP1/AMOTL2/CASP3/MOB1A/WWTR1/YWHAE/STK3/LATS2/DVL2/STK4/AMOTL1/SAV1/LATS1/YAP1/WWC1/MOB1B/AMOT/NPHP4/TJP2</t>
-  </si>
-  <si>
-    <t>FEN1/PCNA/RPA3/RFC4/RPA2/RFC2/LIG1/POLD3/RFC5/POLA2/RPA1/POLD2/RFC1/POLD1/RFC3/POLA1/PRIM1/POLD4/PRIM2/DNA2</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/PRKCD/ADCY3/PRKAR2A/PRKAR1B/ADCY2/PRKCA/GRK2/PRKACA/PRKACB/ADCY7/ADCY1/PDE1B/PDE1C/PRKAR2B/ADCY5/ADCY4/PDE1A/ADCY8/ADCY9/PRKCG/CAMK4/ADCY6</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/GNB1/GNB2/GNAI1/GNB5/GNB4/GNG12/GNAI2/GNB3/CACNA1D/ADRA2C/GNG4/GNG7/CACNA1C/CACNB3/CACNB2/GNGT1/GNG2/GNG3/GNG10/ADCY5/ADRA2A/GNG13/GNG8/CACNA2D2/ADCY6</t>
-  </si>
-  <si>
-    <t>RHOC/MYL9/MYL6/MYL12A/MYH10/MYH9/RAC1/MYL12B/CDC42/RHOB/RRAS/RHOA/ARHGAP35/ROCK1/ERBB2/RHOG/LIMK2/LIMK1/ROCK2/RAC2/PLXNB1/ARHGEF12/MYH14/SEMA4D/RND1/ARHGEF11/MET</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR3K/POLR1D/POLR2F/POLR3D/POLR2K/GTF3C5/GTF3C3/POLR3E/POLR3H/GTF3C6/POLR3GL/POLR3C/POLR3A/GTF3C2/POLR2E/TBP/POLR2H/GTF3C1/POLR3B/POLR3F/BDP1/POLR3G/CRCP/POLR1C/GTF3C4/BRF1</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/USP1/RPA2/RFC2/ISG15/RBX1/DDB1/VCP/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/UBE2L6/POLD1/RFC3/POLI/POLE2/NPLOC4/POLE3/RCHY1/DTL/RAD18/POLK/CUL4B/USP10/MAD2L2/TRIM25/UBC/REV1/UBE2B/POLD4/CUL4A/REV3L/SPRTN/USP43/UBA7/POLH</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/UBA3/PSMB7/PSMD6/PSMD4/SKP1/UBE2M/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/FBXW11/BTRC/UBC/CHUK/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/RELA/PSMD1/NFKB2/MAP3K14/PSMB5/RELB/CUL1</t>
-  </si>
-  <si>
-    <t>GATA3/TOMM20/ACTB/CDC20/SNX3/CDK1/PSMC3/CLSPN/ADRM1/PSME2/HIST3H2A/PSMC4/CCNA2/UBA52/PSMA4/UBB/PSMA7/PSMB3/UCHL1/FKBP8/VCP/PSMD11/MYC/BARD1/PSMB2/PSMD7/ACTL6A/PSMD14/SKP2/PSMC5/PSME1/PSMB6/NFKBIA/VDAC3/OTUB1/PSMF1/TAF9B/TRAF2/CDC25A/TGFB1/PSMB1/USP9X/HCFC1/VDAC1/PSMA1/VDAC2/ASXL1/PSMA3/BIRC2/SMAD3/BRCA1/PSMD8/PSMC2/PSME3/USP3/RAD23B/PSMD12/UCHL3/RIPK2/PSME4/TADA3/PSMB4/INO80C/SIAH2/RHOA/USP18/PSMB7/USP5/RNF146/BABAM1/ARRB2/USP44/PSMD6/OTUD7B/USP16/PSMD4/WDR48/FOXK1/RAD23A/OGT/ATXN3/PSMA6/TNIP2/USP42/PSMD10/HIST1H2AC/RNF135/MAP3K7/USP28/OTUD3/PTEN/HIST2H2AC/MYSM1/TNIP1/RCE1/MCRS1/USP11/SMAD4/USP10/USP19/PSMA2/ARRB1/RIPK1/TAF10/MAVS/PSMD2/HIST1H2BG/ZRANB1/TAB1/NFRKB/MBD6/TGFBR1/CCP110/HIST1H2AG/EP300/PSMD13/HIF1A/NOD1/HIST2H2BE/SMAD2/SENP8/USP13/PTRH2/USP33/SMAD1/MDM4/AXIN1/PSMB10/ACTR5/WDR20/SUDS3/TRIM25/INO80E/YY1/USP7/USP4/USP25/USP15/AXIN2/TFPT/USP14/UBC/SMURF2/HIST1H2BH/KEAP1/STAMBPL1/HGS/NEDD8/USP47/USP22/PSMC1/INO80/APC/RNF128/ATXN7/USP34/INO80B/DDB2/PSMD9/HIST1H2BD/OTUD5/BRCC3/PSMA5/HIST1H2AH/JOSD1/DDX58/TRRAP/PSMD5/BECN1/USP49/MBD5/TNFAIP3/RHOT1/USP20/ASXL2/HIST1H2AL/HIST1H2AB/OTUB2/USP24/TNKS2/PSMC6/YOD1/PSMD3/AR/STAM2/POLB/TOMM70/MDM2/TRAF6/KDM1B/JOSD2/HIST1H2AK/USP30/IDE/PSMD1/USP8/KAT2A/HIST1H2BN/FOXK2/STAM/TGFBR2/STAMBP/RUVBL1/MUL1/BAP1/TNKS/USP37/HIST1H2BL/USP48/PSMB5/HIST1H2BC/USP21/HIST1H2AE/RNF123/UCHL5/IKBKG/CYLD/HIST2H2AB/HIST1H2BF/OTUD7A/INO80D/HIST1H2AI/ADRB2/CFTR/CCNA1/USP2/HIST3H2BB/HIST1H2AJ/HIST2H2BF/HIST1H2BE/HIST1H2BJ/HIST1H2BK/KAT2B/TADA2B/FOXO4/SMAD7/TP53/TRAF3/ACTR8/VCPIP1/MAT2B/USP12/UIMC1/UBE2D1</t>
-  </si>
-  <si>
-    <t>TOP2A/PCNA/MYC/TFDP1/TFDP2/CDC25A/E2F4/CDC6/HDAC1/E2F1/MAX/RBL2/RBL1/LIN54/LIN9/E2F5/LIN52/LIN37/RBBP4</t>
-  </si>
-  <si>
-    <t>UBE2C/ANAPC11/CDC20/ANAPC16/ANAPC7/ANAPC5/CDC26/CDC16/ANAPC1/CDC27/ANAPC10/UBE2E1/CDC23/FZR1/ANAPC15/ANAPC2/ANAPC4/CDC14A/UBE2D1</t>
-  </si>
-  <si>
-    <t>UBE2C/ANAPC11/CCNB1/CDK1/PLK1/ANAPC16/ANAPC7/ANAPC5/CDC26/CDC16/ANAPC1/CDC27/ANAPC10/UBE2E1/CDC23/ANAPC15/ANAPC2/ANAPC4/UBE2D1</t>
-  </si>
-  <si>
-    <t>MYL12A/RAC1/PAK2/SDCBP/FYN/EFNB2/GIT1/SRC/EPHB3/PAK1/EFNB1/EPHB6/NCK2/EPHB2/EPHB4/ARHGEF7/EFNB3/EPHB1/PAK3</t>
-  </si>
-  <si>
-    <t>MDH2/IDH2/ACO2/SUCLG1/SUCLG2/IDH3B/SDHD/DLD/SDHA/SDHC/SUCLA2/IDH3G/IDH3A/CS/NNT/DLST/OGDH/FH/SDHB</t>
-  </si>
-  <si>
-    <t>PAPOLA/NCBP2/PABPN1/CPSF2/CSTF3/CPSF4/NCBP1/PCF11/CPSF3/WDR33/CSTF2/CPSF7/CSTF2T/SYMPK/CPSF1/FIP1L1/NUDT21/CSTF1/CLP1</t>
-  </si>
-  <si>
-    <t>POLR2L/GTF2F1/NCBP2/POLR2F/POLR2J/GTF2F2/POLR2K/POLR2A/POLR2D/POLR2I/NCBP1/POLR2G/FGFR2/POLR2E/POLR2H/FGF1/POLR2C/POLR2B/FGF2</t>
-  </si>
-  <si>
-    <t>AP2S1/NPC2/AP2A1/CLTA/AP2M1/LSR/SOAT2/LDLR/APOB/CLTC/AP2A2/NPC1/LIPA/CES3/AP2B1/LDLRAP1/NCEH1/SOAT1/PCSK9</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/RASGRP2/PSMB3/UBE2N/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/NFKBIA/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/UBE2D2/LYN/PSMD12/PSME4/PSMB4/PSMB7/CDC34/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/MAP3K7/PSMA2/PSMD2/TAB1/PSMD13/PSMB10/FBXW11/BCL10/BTRC/IKBKB/PDPK1/UBC/TAB3/CHUK/PSMC1/MALT1/PSMD9/TAB2/PSMA5/PSMD5/RASGRP1/NFKB1/PSMC6/PSMD3/PRKCQ/RELA/TRAF6/PSMD1/CARD11/PSMB5/IKBKG/UBE2V1/FCER1G/UBE2D1/CUL1</t>
-  </si>
-  <si>
-    <t>NCOR1/RORA/TGS1/RXRA/CHD9/TBL1XR1/CREBBP/CARM1/EP300/HDAC3/PPARA/NCOA2/TBL1X/MED1/NR1D1/SMARCD3/CPT1A/NCOA6/PPARGC1A/CLOCK/ARNTL/SIRT1/SREBF1/NCOA1/NRIP1/HELZ2</t>
-  </si>
-  <si>
-    <t>NCOR1/RBM4/RORA/SERPINE1/CREB1/TGS1/RXRA/NAMPT/CHD9/CRTC1/TBL1XR1/DBP/CREBBP/CREM/CARM1/EP300/HIF1A/HDAC3/PER2/PPARA/NCOA2/TBL1X/MED1/NR3C1/F7/AVP/NR1D1/SMARCD3/KLF15/ARNTL2/NCOA6/PPARGC1A/CLOCK/ARNTL/NCOA1/NFIL3/PER1/NOCT/BHLHE40/NRIP1/CRY1/CRY2/HELZ2</t>
-  </si>
-  <si>
-    <t>TTR/FN1/COL3A1/COL1A1/COL1A2/COL5A1/COL4A6/ACTN1/ITGB1/TNC/TRAPPC4/LAMC1/VTN/COL5A2/ITGAV/TGFB1/THBS1/COL2A1/COL4A1/LAMC3/LAMA5/SDC2/DAG1/AGRN/LAMB1/LAMB2/HSPG2/NTN4/SDC4/PDGFA/DDR1/ITGA6/DMD/DDR2/ITGB5/COL4A5/COL4A2/NRXN1/LAMA2/COL11A2/CASK/LAMA1/PRKCA/LAMC2/ITGA2/SDC1/LAMA4/COL4A4/PDGFB/COL11A1/ITGB4/SDC3/FGF2</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/UBA3/PSMB7/PSMD6/PSMD4/SKP1/UBE2M/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/FBXW11/BTRC/UBC/CHUK/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/NFKB2/MAP3K14/PSMB5/RELB/CUL1</t>
-  </si>
-  <si>
-    <t>ORC6/PSMC3/GMNN/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/CDT1/PSMF1/ORC4/PSMB1/CDC6/PSMA1/PSMA3/MCM8/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/ORC2/UBC/PSMC1/ORC5/PSMD9/PSMA5/PSMD5/PSMC6/ORC1/PSMD3/PSMD1/PSMB5/ORC3</t>
-  </si>
-  <si>
-    <t>RAB4A/ARF1/PLEKHA6/MTMR2/PTPN13/PIK3R1/PLEKHA4/INPP4A/PTEN/MTMR3/SBF2/OCRL/PIP4K2B/PLEKHA1/RUFY1/SYNJ1/PIP5K1C/PIK3CD/PIP4K2A/INPPL1/PIP4K2C/MTM1/PIK3R3/RAB5A/MTMR9/PIK3CB/RAB14/PIK3C2A/PLEKHA3/PIK3R2/MTMR6/INPP5J/PIK3CA/MTMR1/MTMR8/PIK3C2B/PI4K2A/PI4K2B/PLEKHA2/PIK3R5/MTMR14/SYNJ2/PLEKHA8/INPP5K/INPP5D/PIP5K1B/PLEKHA5/PIP5K1A</t>
-  </si>
-  <si>
-    <t>HNRNPA1/FGFR1/POLR2L/FGFR4/UBA52/UBB/GTF2F1/NCBP2/PPP2R1A/POLR2F/HNRNPM/SHC1/POLR2J/GTF2F2/POLR2K/POLR2A/PTBP1/FLRT3/PPP2CB/ESRP1/HNRNPF/HRAS/PPP2CA/POLR2D/PIK3R1/GRB2/POLR2I/SRC/MAPK3/PLCG1/NCBP1/POLR2G/SPRED2/FGFR2/FLRT2/TIA1/POLR2E/TIAL1/RBFOX2/SPRY2/CBL/POLR2H/PTPN11/FGF7/FRS3/MKNK1/SPRED1/MAPK1/FGFRL1/UBC/FGF1/BRAF/GALNT3/KRAS/HNRNPH1/FGFR3/FGF19/FGF10/FGF17/FGF8/POLR2C/PIK3CA/FGFBP3/ANOS1/POLR2B/FGF22/FRS2/KLB/ESRP2/FGF23/GAB1/FGF18/FGF9/SOS1/NRAS/FGF2</t>
-  </si>
-  <si>
-    <t>DUSP4/UBA52/JUN/UBB/PPP2R1A/UBE2N/MAP2K1/PPP2CB/MAP2K7/MAPK10/DUSP6/MAP2K3/VRK3/CREB1/PPP2CA/RIPK2/MAP2K6/MEF2C/PPP2R1B/MAPK3/SKP1/FOS/TNIP2/MAPK7/MAP3K7/DUSP3/ATF2/TAB1/ATF1/NOD1/FBXW11/BTRC/IKBKB/MAPK1/UBC/TAB3/MAPK9/CHUK/MAP3K8/MAPK14/TAB2/PPP2R5D/MAPKAPK3/MAPKAPK2/NFKB1/DUSP7/ELK1/TRAF6/MAPK11/MEF2A/MAP2K4/IKBKG/MAPK8/IRAK1/UBE2V1/IRAK2/CUL1</t>
-  </si>
-  <si>
-    <t>CKB/GAMT/PSMC3/SAT1/PSME2/PSMC4/PSMA4/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/ADI1/PSMC5/PSME1/ASS1/PSMB6/GATM/OAZ1/PSMF1/PSMB1/ENOPH1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/AZIN1/PSMD12/PSME4/NQO1/PSMB4/ODC1/PSMB7/SRM/PSMD6/AMD1/PSMD4/PAOX/PSMA6/PSMD10/ARG2/SMOX/MTAP/AGMAT/CKM/PSMA2/PSMD2/NAGS/GOT1/PSMD13/ASL/PSMB10/CKMT1B/MRI1/APIP/SMS/PSMC1/OAZ2/PSMD9/PSMA5/PSMD5/CPS1/SLC6A8/PSMC6/CKMT2/SLC25A15/PSMD3/AZIN2/PSMD1/PSMB5/OAZ3/SLC6A12/NMRAL1</t>
-  </si>
-  <si>
-    <t>RAB4A/RAB5C/MAP1LC3B/RAB11A/GABARAPL2/RABEP1/TBC1D7/TBC1D13/RAB35/RAB8A/TBC1D20/SYTL1/OPTN/GGA2/TBC1D14/RABGAP1/GGA3/GGA1/TBC1D24/RAB5B/TBC1D16/TBC1D25/RAB6A/RAB11B/ULK1/TBC1D15/RAB5A/RAB7A/TSC2/RAB8B/TBC1D17/TBC1D10A/TSC1/TBC1D10B/RABGEF1/ARF6/GABARAP/RAB33B/RAB33A/TBC1D10C/TBC1D2/RAB6B</t>
-  </si>
-  <si>
-    <t>HMGB2/HMGB1/H1F0/CLSPN/DSP/TJP1/LMNB1/HIST1H1D/PAK2/FNTA/KPNB1/SPTAN1/GSN/DFFA/HIST1H1B/DBNL/CDH1/CASP3/BIRC2/LMNA/BCAP31/ADD1/PRKCD/DNM1L/HIST1H1E/HIST1H1C/ROCK1/ACIN1/PLEC/CTNNB1/OCLN/VIM/DSG2/APC/STK24/PTK2/SATB1/DFFB/CASP7/GAS2/PRKCQ/KPNA1/CASP8/STK26/MAPT/CASP6/TJP2</t>
-  </si>
-  <si>
-    <t>RAB4A/CPNE1/STARD10/PLA2G12A/ARF1/OSBPL8/CDIPT/GDE1/AGPAT1/CSNK2B/PLA2G16/LPIN2/HADHB/PCYT2/CSNK2A2/INPP5F/ABHD3/GDPD5/HADHA/PLEKHA6/DDHD1/LPCAT3/MTMR2/CRLS1/PLD3/AGPAT4/PTPN13/PIK3R1/SLC44A2/PLEKHA4/PTDSS1/ARF3/GNPAT/CSNK2A1/TNFAIP8/PCTP/SLC44A4/INPP4A/PTEN/PGS1/SELENOI/PITPNM1/LPGAT1/MTMR3/SBF2/DGAT2/OCRL/INPP5E/PIP4K2B/SACM1L/PLEKHA1/RUFY1/PITPNB/PI4KA/LCLAT1/SYNJ1/PI4KB/LPCAT4/SLC44A3/PTPMT1/PIP5K1C/OSBPL5/PEMT/PIK3CD/PNPLA3/SLC44A5/AGK/PCYT1B/AGPAT5/CDS2/MIGA2/DDHD2/HRASLS/PIP4K2A/INPPL1/GPD1/GDPD1/PLD1/SLC44A1/PIP4K2C/SBF1/CHPT1/ACP6/PLA2G6/PCYT1A/PLBD1/MTM1/PIK3R3/PTDSS2/TMEM86B/MIGA1/PNPLA2/RAB5A/MTMR9/PIK3CB/RAB14/GPCPD1/AGPAT2/LPCAT2/PIK3C2A/OSBPL10/PIKFYVE/PLEKHA3/CHKA/TAZ/PIK3R2/MTMR6/VAC14/PNPLA6/INPP5J/GPAM/AGPAT3/MTMR10/ACHE/PIK3C3/LPCAT1/PIK3CA/TNFAIP8L1/DGAT1/CEPT1/PNPLA8/MTMR1/GPAT4/MBOAT7/MTMR8/PLA2G4C/MBOAT1/CDS1/PIK3C2B/PI4K2A/PI4K2B/MTMR12/MGLL/CPNE7/PLD6/BCHE/TNFAIP8L3/MFSD2A/GPD2/MBOAT2/MTMR4/ABHD4/CHKB/LPIN3/GPD1L/PLEKHA2/GDPD3/ETNK1/PIK3R4/STARD7/PIK3R5/ETNPPL/HRASLS5/JMJD7-PLA2G4B/MTMR14/SYNJ2/PNPLA7/PLA1A/MTMR7/PLA2G3/PITPNM3/PLB1/PITPNM2/PLEKHA8/FIG4/ETNK2/LPIN1/PLD2/PISD/INPP5K/INPP5D/PLA2G15/PIP5K1B/PLEKHA5/CPNE3/PIP5K1A</t>
-  </si>
-  <si>
-    <t>ZMYM2/BCR/CUX1/CPSF6/LRRFIP1/STAT5B/PIK3R1/TRIM24/GRB2/CNTRL/FGFR1OP/STAT3/GAB2/STAT5A/STAT1/PIK3CA/MYO18A/FGFR1OP2</t>
-  </si>
-  <si>
-    <t>NOTCH1/TMED2/ATP2A2/RFNG/B4GALT1/LFNG/NOTCH3/NOTCH2/FURIN/ST3GAL4/SEL1L/RAB6A/ST3GAL6/ATP2A3/ATP2A1/NOTCH4/ST3GAL3/MFNG</t>
-  </si>
-  <si>
-    <t>ACTB/FLNA/ACTN1/FLNC/ITGB1/ILK/PARVA/LIMS1/RSU1/ACTG1/FERMT2/VASP/LIMS2/PXN/TESK1/FBLIM1/ARHGEF6/PARVB</t>
-  </si>
-  <si>
-    <t>PCNA/CCNB1/CDK1/GADD45A/AURKA/TFDP1/TFDP2/E2F4/ZNF385A/BAX/CDC25C/PRMT1/RBL2/RBL1/CARM1/EP300/SFN/TP53</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PGM1/CALM3/PHKB/GAA/AGL/PGM2L1/GYG2/GYG1/PHKA1/PHKG1/PGM2/PYGL/PYGB/PYGM/PHKA2/PHKG2</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PPP1CA/PPP2R1A/PRKAR1A/PPP2CB/PPP3CC/CALM3/PPP2CA/CDK5/PPP2R1B/PRKAR2A/PPP3CA/PPP3CB/PRKAR1B/PPP2R5D/PDE4A/PDE4B/PRKACA/PRKACB/PPP3R1/PDE4D/PRKAR2B/PPP1R1B/PDE4C</t>
-  </si>
-  <si>
-    <t>PPP1CC/UBA52/UBB/PPP1CA/BAMBI/STRAP/TGFB1/SMAD3/PPP1CB/NEDD4L/XPO1/STUB1/TGFBR1/SMAD2/ZFYVE9/USP15/UBC/SMURF2/PPP1R15A/SMURF1/TGFBR2/MTMR4/UCHL5/SMAD7/PMEPA1</t>
-  </si>
-  <si>
-    <t>RAD51/RAD51AP1/BARD1/BLM/BRCA2/RMI2/BRCA1/EXO1/TOP3A/RBBP8/RAD51C/RAD50/NBN/BRIP1/ATM/XRCC2/RAD51B/KAT5/RMI1/XRCC3/PALB2/MRE11/WRN/DNA2/RAD51D</t>
-  </si>
-  <si>
-    <t>PRKCSH/UBA52/UBB/CALR/RNF5/CANX/TRIM13/DERL2/GANAB/EDEM2/MAN1B1/UGGT1/SEL1L/UGGT2/AMFR/UBC/RNF139/OS9/EDEM3/RNF103/SYVN1/EDEM1/PDIA3/MARCH6/RNF185</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/GNB1/GNB2/GNAS/PRKAR1A/GNB4/GNG12/GNB3/ADCY3/PRKAR2A/PRKAR1B/GNG4/ADCY2/GNG7/PRKACA/PRKACB/ADCY7/ADCY1/GNG2/GNG3/GCGR/PRKAR2B/GNG10/ADCY5/ADCY4/ADCY8/GNG13/ADCY9/GNG8/ADCY6</t>
-  </si>
-  <si>
-    <t>ID1/UBA52/UBB/CDK6/CDK4/TFDP1/TFDP2/MOV10/CDKN2D/AGO1/MAPK3/E2F1/ERF/ETS1/RB1/MDM4/CDKN2B/MAPK1/UBC/ETS2/TNRC6B/SP1/TNRC6A/AGO3/TNRC6C/MDM2/E2F2/AGO4/CDKN2A/TP53/E2F3</t>
-  </si>
-  <si>
-    <t>NANS/ST6GAL1/ST6GALNAC3/NANP/ST6GALNAC6/CTSA/GLB1/ST3GAL4/ST3GAL6/ST8SIA1/ST6GALNAC4/NEU1/ST3GAL1/ST6GALNAC5/ST8SIA4/ST3GAL2/GNE/CMAS/NEU4/SLC17A5/ST3GAL3/ST8SIA6/ST6GALNAC2/ST3GAL5/SLC35A1/ST8SIA2/ST8SIA3/NEU3/NPL/ST6GAL2/ST6GALNAC1</t>
-  </si>
-  <si>
-    <t>APOA1/APOC1/APOE/AP2S1/NPC2/AP2A1/CLTA/AP2M1/LSR/SOAT2/LDLR/APOB/CLTC/AP2A2/MYLIP/NPC1/AMN/SCARB1/HDLBP/NR1H3/NR1H2/CUBN/LIPA/CES3/LIPC/AP2B1/LDLRAP1/NCEH1/SOAT1/PCSK9/VLDLR</t>
-  </si>
-  <si>
-    <t>TUBA1B/TUBB6/GNG11/TUBA1A/TUBB4B/ACTB/GNG5/CCT8/GNB1/PFDN5/TUBB2A/VBP1/GNB2/TCP1/PFDN2/CCT3/GNAI1/XRN2/CCT4/GNB5/CSNK2B/GNB4/TUBB2B/CCT5/GNG12/FBXO6/CSNK2A2/GNAI2/RGS9/WRAP53/GNB3/FBXW2/NOP56/SKIV2L/CCT2/CCT6A/TUBA4A/FBXW9/TUBA1C/CSNK2A1/PFDN1/KIF13A/PFDN6/STAT3/USP11/PFDN4/FBXL3/DCAF7/AP3M1/HDAC3/FBXL5/LONP2/EHHADH/FBXW7/FKBP9/FBXW4/CCT7/PDCL/GNG4/GNG7/KIFC3/RGS6/GNAO1/CCNE1/RGS11/FBXW5/ARFGEF2/GNGT1/GNAZ/GNG2/GNG3/TUBB4A/GNAI3/CCNE2/GNG10/CCT6B/SPHK1/RGS7/GNG13/GNG8/TP53/FBXO4/GBA</t>
-  </si>
-  <si>
-    <t>HIST1H4C/PCNA/RPA3/CLSPN/H2AFX/RAD51/RFC4/POLE4/CCNA2/UBA52/SUMO1/UBB/RHNO1/RAD51AP1/RPA2/RFC2/UBE2N/BARD1/BLM/POLD3/TIMELESS/BRCA2/PPP4C/SIRT6/UBE2V2/POLE/RMI2/ERCC1/RFC5/RPA1/POLD2/RFC1/PPP4R2/POLD1/RFC3/BRCA1/EME1/TP53BP1/RNF168/SUMO2/BABAM1/EXO1/POLE2/RNF4/MDC1/POLE3/UBE2I/TOP3A/RBBP8/POLK/RNF8/MUS81/HERC2/RAD51C/HIST1H2BG/RAD50/NBN/BRIP1/RAD17/CDK2/HIST2H2BE/GEN1/ATR/SPIDR/RAD9A/ATM/PIAS4/UBC/TIPIN/HIST1H2BH/XRCC2/RAD51B/KAT5/EME2/RMI1/ERCC4/XRCC3/HIST1H2BD/BRCC3/HIST1H4J/POLD4/RAD1/RAD52/TOPBP1/HUS1/PALB2/MRE11/SLX4/HIST1H4H/HIST1H2BN/WRN/ABL1/DNA2/HIST1H4E/HIST1H2BL/HIST1H2BC/HIST1H2BF/HIST4H4/ATRIP/HIST1H4I/CCNA1/POLH/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2BE/HIST1H2BJ/HIST1H2BK/CHEK1/SLX1A/RAD51D/UIMC1</t>
-  </si>
-  <si>
-    <t>H2AFZ/HIST1H4C/H2AFV/ACTB/DEK/DNMT1/POLR2L/POLR1D/H2AFX/UHRF1/TAF1D/POLR2F/TDG/POLR2K/EZH2/H2AFJ/TTF1/PHF19/BAZ1B/MYO1C/JARID2/CHD4/MTA3/MTF2/H3F3A/SAP130/HDAC1/H3F3B/SAP30L/RBBP7/DDX21/EHMT2/CD3EAP/ERCC2/MNAT1/DNMT3B/HIST1H2AC/ARID4B/TWISTNB/GATAD2A/ERCC3/HIST2H2AC/ZNRD1/POLR2E/TBP/EED/MYBBP1A/SAP18/GTF2H5/HIST1H2BG/SF3B1/GATAD2B/GTF2H1/TAF1B/EP300/HIST2H2BE/POLR2H/CDK7/MTA1/RRP8/POLR1E/CBX3/CCNH/SUDS3/DNMT3A/TAF1A/POLR1B/HDAC2/POLR1A/HIST1H3B/HIST1H2BH/MTA2/SUZ12/SMARCA5/HIST1H3F/GSK3B/HIST1H2BD/HIST1H3A/HIST1H4J/SAP30/POLR1C/UBTF/HIST1H2AB/SAP30BP/AEBP2/GTF2H2/GTF2H3/PHF1/SIN3A/HIST1H4H/TET1/ERCC6/RBBP4/HIST1H3G/SUV39H1/SIN3B/KAT2A/HIST1H2BN/SIRT1/HIST1H3E/HIST1H3H/TET2/HIST1H4E/HIST1H2BL/BAZ2A/HIST1H2BC/HIST1H2AE/CHD3/GTF2H4/HIST1H2BF/HIST4H4/HIST1H4I/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST1H2BE/HIST1H2BJ/HIST1H2BK/KAT2B/HIST1H3I/TAF1C/MBD2/MBD3</t>
-  </si>
-  <si>
-    <t>POLR2L/SUPT4H1/GTF2F1/SUPT16H/NCBP2/GTF2A2/POLR2F/POLR2J/TCEA1/GTF2F2/SSRP1/POLR2K/POLR2A/TAF9B/NELFE/RTF1/NELFA/POLR2D/SUPT6H/POLR2I/TAF3/CDK9/PAF1/ERCC2/WDR61/NCBP1/SUPT5H/MNAT1/TAF4/POLR2G/GTF2E2/GTF2B/ERCC3/EAF2/LEO1/AFF4/CDC73/POLR2E/NELFCD/TBP/IWS1/TAF1/CTDP1/TAF10/GTF2H5/GTF2H1/MLLT3/POLR2H/CDK7/ELL/TAF12/CCNH/GTF2E1/CCNT1/NELFB/TAF5/TAF11/TAF6/CTR9/CCNT2/POLR2C/GTF2H2/GTF2H3/CCNK/POLR2B/TAF2/MLLT1/TAF9/GTF2A1/EAF1/TAF7/GTF2H4/TAF4B/TAF13</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/ISG15/VCP/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/UBE2L6/POLD1/RFC3/POLI/POLE2/NPLOC4/POLE3/RCHY1/POLK/USP10/MAD2L2/TRIM25/UBC/REV1/POLD4/REV3L/SPRTN/USP43/UBA7/POLH</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PHF20/PSMA3/PSMD8/PSMC2/CHEK2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/PSMA6/PSMD10/RFWD2/PSMA2/PSMD2/PSMD13/MDM4/PSMB10/ATM/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/MDM2/PSMD1/PSMB5/CDKN2A/TP53</t>
-  </si>
-  <si>
-    <t>PCNA/UBA52/UBB/HLA-A/UBE2A/HLTF/UBE2N/VCP/RNF181/UBE2V2/DERL1/RTF1/PRKDC/UBE2D2/SHPRH/PAF1/UBE2D3/WDR61/RAD18/PEX2/TMEM129/UBE2J2/LEO1/CDC73/PEX10/SELENOS/RNF20/UBE2E1/UBE2L3/RRAGA/HIST1H2BG/BCL10/UBC/HIST1H2BH/RNF152/HIST1H2BD/UBE2B/RNF40/CTR9/PEX12/HIST1H2BN/RNF144A/HIST1H2BL/HIST1H2BC/HIST1H2BF/WAC/HIST1H2BE/HIST1H2BJ/HIST1H2BK/PEX5/UBE2D1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/PSMA4/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/OAZ1/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/AZIN1/PSMD12/PSME4/NQO1/PSMB4/ODC1/PSMB7/PSMD6/PSMD4/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/PSMC1/OAZ2/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/PSMB5/OAZ3</t>
-  </si>
-  <si>
-    <t>TGIF1/UBA52/UBB/CCNC/MYC/TFDP1/SNW1/TFDP2/E2F4/SERPINE1/SMAD3/HDAC1/MEN1/JUNB/WWTR1/CDK9/SMAD4/RBL1/SMAD2/CDKN2B/TGIF2/CCNT1/UBC/SP1/E2F5/CCNT2/CCNK/CDK8/SMAD7/RNF111</t>
-  </si>
-  <si>
-    <t>GNG11/CALM1/CALM2/GNG5/GNB1/GNB2/GNB5/GNB4/GNG12/CALM3/GNB3/PLCB1/PLCB2/DLG4/DLG3/GNG4/NCALD/GNG7/PLCB3/DLG1/GNGT1/GNG2/GNG3/GRIK1/GNG10/GRIK3/GRIK5/GRIK4/GNG13/GNG8</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/GNB1/GNB2/F2/GNB5/GNB4/GNG12/F2R/F2RL2/GNB3/ARRB2/SRC/MAPK3/ARRB1/GNA11/MAPK1/GNA13/GNG4/GNG7/GNA14/GNAQ/F2RL3/GNGT1/GNG2/GNG3/GNG10/GNG13/GNG8/GNA12</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/ISG15/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/UBE2L6/POLD1/RFC3/POLI/POLE2/POLE3/POLK/USP10/TRIM25/UBC/REV1/POLD4/USP43/UBA7/POLH</t>
-  </si>
-  <si>
-    <t>POLR2L/POLR1D/TAF1D/POLR2F/POLR2K/TTF1/CD3EAP/ERCC2/MNAT1/TWISTNB/ERCC3/ZNRD1/POLR2E/TBP/GTF2H5/GTF2H1/TAF1B/POLR2H/CDK7/POLR1E/CCNH/TAF1A/POLR1B/POLR1A/POLR1C/UBTF/GTF2H2/GTF2H3/GTF2H4/TAF1C</t>
-  </si>
-  <si>
-    <t>COL1A1/IHH/RBM14/GLI2/WWTR1/YES1/SRC/ZNF521/MAPK3/CBFB/SMAD4/HES1/HDAC6/MAF/HDAC3/SMAD1/RB1/GLI3/MAPK1/HEY2/HDAC4/SATB2/AR/SMAD6/YAP1/HEY1/ABL1/RBM14-RBM4/UCMA/BGLAP</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/SNF8/CHMP2A/CHMP4B/MVB12A/UBAP1/VPS36/CHMP7/CHMP5/MVB12B/CHMP4C/TSG101/VPS37B/VPS28/VPS37A/UBC/HGS/CHMP3/CHMP2B/VTA1/VPS25/VPS37D/VPS4A/VPS4B/CHMP6/STAM2/STAM/VPS37C/CHMP4A</t>
-  </si>
-  <si>
-    <t>H2AFZ/HIST1H4C/IGFBP7/UBE2C/H2AFV/ANAPC11/ID1/H1F0/TERF1/H2AFX/CCNA2/UBA52/JUN/UBB/LMNB1/CDK6/ANAPC16/CDK4/TFDP1/HMGA2/HIST1H1D/HMGA1/EZH2/H2AFJ/TFDP2/TXN/HIST1H1B/MAP2K7/ANAPC7/MAPK10/PHC1/H3F3A/EP400/MAP2K3/RING1/ACD/RNF2/MOV10/HIST1H1E/H3F3B/HIST1H1C/RBBP7/ANAPC5/CDC26/EHMT2/MAP2K6/CDKN2D/TNIK/AGO1/CABIN1/MAPK3/CDC16/CDKN1B/E2F1/FOS/TINF2/HIST1H2AC/MAPK7/ANAPC1/HIST2H2AC/PHC2/CDC27/STAT3/ERF/EED/ETS1/ANAPC10/UBE2E1/MAPKAPK5/CDC23/HIST1H2BG/RAD50/NBN/FZR1/CDK2/UBN1/HIST2H2BE/SCMH1/RB1/MDM4/CDKN2B/MAP4K4/KDM6B/ATM/HIST1H3B/CDKN1A/MAPK1/UBC/TERF2IP/ETS2/HIST1H2BH/ANAPC15/MAPK9/KAT5/ASF1A/CBX8/SUZ12/HIST1H3F/MAPK14/TNRC6B/HIST1H2BD/SP1/HIST1H3A/TNRC6A/HIST1H4J/CBX2/TERF2/MAPKAPK3/ANAPC2/AGO3/MAPKAPK2/HIST1H2AB/NFKB1/CEBPB/HIRA/CCNE1/MRE11/MINK1/RELA/TNRC6C/HIST1H4H/CBX4/PHC3/MDM2/RBBP4/MAPK11/HIST1H3G/E2F2/HIST1H2BN/AGO4/ANAPC4/HIST1H3E/HIST1H3H/BMI1/MAP2K4/HIST1H4E/HIST1H2BL/CCNE2/HIST1H2BC/HIST1H2AE/MAPK8/POT1/HIST1H2BF/HIST4H4/CDKN2A/MAP3K5/HIST1H4I/CCNA1/IL6/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST1H2BE/HIST1H2BJ/HIST1H2BK/TP53/EHMT1/HIST1H3I/CBX6/E2F3/UBE2D1</t>
-  </si>
-  <si>
-    <t>MAD2L1/UBE2C/ANAPC11/CDC20/UBA52/UBB/ANAPC16/BUB3/ANAPC7/NEK2/ANAPC5/CDC26/CDC16/BUB1B/ANAPC1/CDC27/ANAPC10/UBE2E1/CDC23/UBC/ANAPC15/ANAPC2/ANAPC4/UBE2D1</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/CDC42/SH3KBP1/GRB2/EPS15/SH3GL1/SH3GL3/SPRY2/CBL/SH3GL2/UBC/HGS/PTPN12/EPN1/PTPN3/ARHGEF7/EPS15L1/STAM2/STAM/PTPRK/EGFR/SPRY1/EGF</t>
-  </si>
-  <si>
-    <t>FDPS/ACAT2/FDFT1/TM7SF2/IDI1/SQLE/LBR/GGPS1/DHCR24/MVK/MSMO1/SC5D/MVD/PLPP6/NSDHL/EBP/LSS/HMGCS1/HMGCR/PMVK/DHCR7/CYP51A1/ARV1/HSD17B7</t>
-  </si>
-  <si>
-    <t>RHOC/MYL9/MYL6/MYL12A/MYH10/MYH9/RAC1/MYL12B/CDC42/RHOB/RHOA/ROCK1/ERBB2/RHOG/LIMK2/LIMK1/ROCK2/RAC2/PLXNB1/ARHGEF12/MYH14/SEMA4D/RND1/ARHGEF11</t>
-  </si>
-  <si>
-    <t>MLST8/AKT2/GSK3A/MAPKAP1/BAD/PRR5/CREB1/CDKN1B/AKT1S1/AKT3/NR4A1/MTOR/CASP9/AKT1/RICTOR/CDKN1A/PDPK1/CHUK/GSK3B/TSC2/FOXO1/MDM2/FOXO3/FOXO4</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/RPA2/RFC2/LIG1/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/POLE2/POLE3/POLK/UBC/LIG3/POLD4/XRCC1</t>
-  </si>
-  <si>
-    <t>PPP2R1A/PPP2CB/PPP2R5C/PPP2CA/CSNK1A1/PPP2R1B/PPP2R5A/CTNNB1/AXIN1/PPP2R5E/APC/GSK3B/PPP2R5D/AMER1/FRAT1/PPP2R5B/FRAT2</t>
-  </si>
-  <si>
-    <t>ALG3/MGAT2/MPDU1/DPAGT1/ALG2/B4GALT1/ALG8/MAN1B1/MOGS/ALG1/RFT1/ALG6/ALG14/ALG11/ALG9/ALG12/ALG13</t>
-  </si>
-  <si>
-    <t>SLC39A5/SLC39A7/SLC39A3/SLC39A1/SLC39A14/SLC30A3/SLC39A10/SLC30A6/SLC30A7/SLC39A8/SLC39A2/SLC39A6/SLC39A4/SLC30A1/SLC30A5/SLC30A2/SLC30A8</t>
-  </si>
-  <si>
-    <t>YWHAB/EXOSC8/ZFP36L1/EXOSC9/DCP1A/EXOSC3/EXOSC2/EXOSC7/EXOSC6/DCP2/XRN1/AKT1/EXOSC4/EXOSC5/DIS3/MAPKAPK2/EXOSC1</t>
-  </si>
-  <si>
-    <t>YWHAB/EXOSC8/EXOSC9/DCP1A/EXOSC3/EXOSC2/EXOSC7/TNPO1/EXOSC6/DCP2/XRN1/EXOSC4/EXOSC5/DIS3/MAPKAPK2/ZFP36/EXOSC1</t>
-  </si>
-  <si>
-    <t>EXOSC8/EXOSC9/YWHAZ/EXOSC3/EXOSC2/EXOSC7/EXOSC6/DCP2/KHSRP/PARN/AKT1/EXOSC4/EXOSC5/MAPK14/DIS3/MAPK11/EXOSC1</t>
-  </si>
-  <si>
-    <t>CCND2/CDK6/CCND1/CCND3/MOV10/PML/SRC/AGO1/CBFB/PTPN11/TNRC6B/TNRC6A/AGO3/AGO2/TNRC6C/AGO4/RUNX1</t>
-  </si>
-  <si>
-    <t>HNRNPA1/POLR2L/UBA52/UBB/GTF2F1/NCBP2/PPP2R1A/POLR2F/HNRNPM/SHC1/POLR2J/GTF2F2/POLR2K/POLR2A/PTBP1/PPP2CB/ESRP1/HNRNPF/HRAS/PPP2CA/POLR2D/PIK3R1/GRB2/POLR2I/SRC/MAPK3/PLCG1/NCBP1/POLR2G/FGFR2/TIA1/POLR2E/TIAL1/RBFOX2/SPRY2/CBL/POLR2H/PTPN11/FGF7/FRS3/MKNK1/MAPK1/UBC/FGF1/BRAF/KRAS/HNRNPH1/FGF10/FGF17/FGF8/POLR2C/PIK3CA/FGFBP3/POLR2B/FGF22/FRS2/ESRP2/FGF23/GAB1/FGF18/FGF9/SOS1/NRAS/FGF2</t>
-  </si>
-  <si>
-    <t>GNG11/SLC25A6/TKT/GNG5/GNB1/MARCKS/GNB2/FASN/PPP2R1A/GNAI1/AGPAT1/GNAS/GNB5/PRKAB2/TALDO1/PRKAR1A/GNB4/SLC25A5/PPP2CB/ADIPOR1/SLC2A1/GNG12/STK11/GNAI2/GNB3/PPP2CA/ADCY3/RAP1A/MLXIPL/PPP2R1B/AHCYL1/PRKAR2A/SLC25A4/ADIPOR2/IQGAP1/SNAP25/ACLY/MLX/PLCB1/AKAP5/STXBP1/PRKAA2/CACNA1D/RAPGEF3/CACNA1A/GNA11/PLCB2/ARL2BP/ADRA2C/PRKAR1B/GNG4/ITPR3/KCNS3/ADCY2/ACACA/ACACB/PPP2R5D/GNG7/ITPR2/CACNA1C/CHRM3/ARL2/VAMP2/PRKCA/PRKACA/PLCB3/PRKACB/GNA14/GNAQ/CACNB3/ADCY7/ADCY1/STX1A/CACNB2/GNGT1/GNG2/GNG3/GCGR/PRKAR2B/GNG10/PFKFB1/ADCY5/ADCY4/RAPGEF4/ADCY8/ADRA2A/GNG13/ADCY9/GNG8/KCNJ11/CACNA2D2/ITPR1/ADCY6/PRKAG2</t>
-  </si>
-  <si>
-    <t>PABPC1/HSPB1/PSMC3/PSME2/HSPA1A/PSMC4/UBA52/PSMA4/HSPA8/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/HNRNPD/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/HSPA1B/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/UBC/PSMC1/EIF4G1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/PSMB5</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/VCP/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/DERL2/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/SEL1L/UBC/PSMC1/OS9/PSMD9/SYVN1/PSMA5/PSMD5/PSMC6/ERLEC1/PSMD3/PSMD1/PSMB5/SHH</t>
-  </si>
-  <si>
-    <t>FN1/FBLN1/ITGB1/FBLN2/MFAP2/ITGA8/VTN/EMILIN1/MFAP4/ITGAV/TGFB1/LTBP4/BMP7/BMP4/EMILIN2/TGFB2/LTBP1/MFAP1/FBN2/EFEMP2/ITGB5/EFEMP1/LTBP3/ITGB8/BMP2/TGFB3/EMILIN3/FBN1/FBLN5/LTBP2/GDF5/FBN3/ITGB6/MFAP3/ELN</t>
-  </si>
-  <si>
-    <t>RACK1/UBA52/UBB/CFLAR/TRAF2/BIRC2/TNFRSF1A/OTUD7B/TAX1BP1/SHARPIN/CLIP3/MAP3K7/SPPL2A/BAG4/RIPK1/TAB1/FADD/ADAM17/XIAP/OTULIN/USP4/IKBKB/UBC/TAB3/CHUK/TRADD/SPPL2B/MADD/TAB2/TNFAIP3/TNFRSF10B/CASP8/RBCK1/TNFRSF10A/USP21/IKBKG/CYLD/SMPD2/TNFSF10/CASP10/NSMAF/RNF31/USP2/FAS/TRAF1</t>
-  </si>
-  <si>
-    <t>BIRC5/PERP/IGFBP3/PRELID1/RABGGTB/BAX/PMAIP1/TMEM219/BNIP3L/CREBBP/TP53I3/CHM/TP53BP2/PPP1R13B/BBC3/NDRG1/ATM/CASP2/ZNF420/TRIAP1/TP53INP1/TNFRSF10C/BID/APAF1/TNFRSF10B/PIDD1/STEAP3/TNFRSF10D/RABGGTA/CRADD/TNFRSF10A/BCL6/TP73/CASP10/AIFM2/BCL2L14/FAS/TP53/PRELID3A/CASP6</t>
-  </si>
-  <si>
-    <t>HSP90AA1/ACTB/ARPC2/ARPC5/HSP90AB1/CFL1/MYH9/ARPC1B/RAC1/BRK1/ACTR2/ARPC1A/CYFIP2/CDC42/MYO1C/ABI2/ACTR3/WASF2/ACTG1/WIPF2/ELMO1/DOCK1/GRB2/CRK/VAV3/MAPK3/WASF1/NCKIPSD/WIPF3/CYFIP1/MYO10/ARPC4/WIPF1/NF2/PAK1/LIMK1/MYO9B/NCKAP1/ELMO2/BAIAP2/MAPK1/WASL/PTK2/NCK1/ARPC3/WAS/ABI1/BTK/WASF3/MYO5A/NCKAP1L/ABL1/VAV2/CD247</t>
-  </si>
-  <si>
-    <t>DLK1/UBA52/UBB/JAG1/NOTCH1/NCSTN/ARRB2/ITCH/MIB1/DLL1/ARRB1/ADAM17/NUMB/MIB2/PSEN1/UBC/APH1B/JAG2/PSENEN/APH1A/DLL4/PSEN2/DTX4/ADAM10/DTX2/CNTN1/DTX1/NEURL1B/NEURL1</t>
-  </si>
-  <si>
-    <t>ATP5A1/ATP5F1/ATP5C1/ATP5G2/ATP5G3/ATP5B/APOO/ATP5I/CHCHD3/ATP5D/MTX1/ATP5O/C19orf70/ATP5L/ATP5J/ATP5J2/ATP5E/SAMM50/ATP5S/DNAJC11/CHCHD6/MINOS1/TMEM11/HSPA9/IMMT/ATP5H/ATP5G1/MTX2/APOOL</t>
-  </si>
-  <si>
-    <t>ATP6V0B/ATP6V0E1/ATP6V1G1/ATP6V1F/ATP6V1H/ATP6V1A/ATP6V0A2/MCOLN1/TCIRG1/ATP6V0A1/ATP6V1D/ATP6V1B2/STEAP2/ATP6V1C1/ATP6V0D2/TF/ATP6V1G2/TFRC/STEAP3/ATP6V0E2/ATP6V1E2/ATP6V1E1/ATP6V1B1/HFE/ATP6V0C/ATP6V1C2/ATP6V0D1/ATP6AP1/TFR2</t>
-  </si>
-  <si>
-    <t>CDC20/PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/FBXO5/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/PSMA2/PSMD2/FZR1/PSMD13/PSMB10/BTRC/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/PSMB5/CUL1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/RNF146/PSMD6/PSMD4/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/AXIN1/PSMB10/AXIN2/UBC/SMURF2/PSMC1/PSMD9/PSMA5/PSMD5/TNKS2/PSMC6/PSMD3/PSMD1/TNKS/PSMB5</t>
-  </si>
-  <si>
-    <t>NDUFA10/NDUFB5/NDUFA6/NDUFA1/NDUFS4/NDUFB9/NDUFB2/NDUFC2/NDUFS6/NDUFAB1/NDUFAF3/NDUFS7/NDUFAF2/NDUFA8/NDUFS2/NDUFB6/NDUFA13/TIMMDC1/NDUFS8/NDUFB7/NDUFS3/NDUFB3/ECSIT/TMEM126B/NDUFA11/NDUFA12/NDUFB10/NDUFV3/NDUFS1/NDUFB4/NDUFAF4/NDUFA2/NDUFS5/NUBPL/NDUFA5/NDUFA7/NDUFB11/NDUFA3/NDUFV1/NDUFC1/NDUFB8/ACAD9/NDUFV2/NDUFAF6/NDUFAF7/NDUFB1/NDUFAF1/NDUFA9/NDUFAF5</t>
-  </si>
-  <si>
-    <t>CALM1/MYL9/MYL6/CALM2/MYL12A/FLNA/MYH10/MYH9/RAC1/MYL12B/PAK2/CDC42/CTTN/PPP1CB/CALM3/PPP1R12A/NF2/PPP1R12B/PAK1/LIMK1/MYH14/MYLK/PAK3</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/EGLN2/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/UBE2D2/HIF3A/PSMD12/PSME4/PSMB4/PSMB7/WTIP/PSMD6/UBE2D3/PSMD4/PSMA6/VHL/PSMD10/EGLN1/PSMA2/PSMD2/PSMD13/HIF1A/PSMB10/EGLN3/UBC/PSMC1/LIMD1/PSMD9/PSMA5/PSMD5/AJUBA/PSMC6/PSMD3/EPAS1/PSMD1/CUL2/PSMB5/UBE2D1</t>
-  </si>
-  <si>
-    <t>CDK1/MYBL2/CCNA2/TFDP1/TFDP2/E2F4/HDAC1/E2F1/RBL2/RBL1/LIN54/LIN9/E2F5/LIN52/LIN37/RBBP4</t>
-  </si>
-  <si>
-    <t>FYN/LYN/GRB2/YES1/SRC/CBL/KIT/PRKCA/KITLG/SOCS1/SOCS6/LCK/PTPN6/SH2B3/SOS1/SH2B2</t>
-  </si>
-  <si>
-    <t>CENPF/CCNB1/PLK1/MYBL2/CCNB2/FOXM1/PKMYT1/CDC25A/CDC25C/WEE1/EP300/LIN54/LIN9/LIN52/LIN37/RBBP4</t>
-  </si>
-  <si>
-    <t>HSP90AA1/HSP90AB1/CFL1/RAC1/PAK2/FYN/NRP1/PLXNA2/PAK1/LIMK1/SEMA3A/PLXNA1/FES/PLXNA3/PLXNA4/PAK3</t>
-  </si>
-  <si>
-    <t>DPYSL3/FYN/NRP1/PLXNA2/CDK5/SEMA3A/CRMP1/PLXNA1/GSK3B/FES/DPYSL2/PLXNA3/DPYSL4/DPYSL5/PLXNA4/CDK5R1</t>
-  </si>
-  <si>
-    <t>EXOSC8/EXOSC9/EXOSC3/EXOSC2/HBS1L/EXOSC7/SKIV2L/WDR61/EXOSC6/NT5C3B/TTC37/EXOSC4/EXOSC5/DIS3/DCPS/EXOSC1</t>
-  </si>
-  <si>
-    <t>PMPCB/SMDT1/MCUB/PHB2/PARL/PMPCA/STOML2/YME1L1/SPG7/PHB/MAIP1/MICU1/AFG3L2/MICU2/MICU3/MCU</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/GNB1/GNB2/RAB11A/GNAS/GNB5/PRKAR1A/GNB4/GNG12/GNB3/ADCY3/PRKAR2A/PRKAR1B/GNG4/AVP/ADCY2/GNG7/PRKACA/AQP4/AQP3/PRKACB/RAB11FIP2/AQP1/ADCY7/ADCY1/GNGT1/GNG2/MYO5B/GNG3/PRKAR2B/GNG10/ADCY5/ADCY4/ADCY8/GNG13/ADCY9/GNG8/ADCY6</t>
-  </si>
-  <si>
-    <t>RACK1/UBA52/UBB/TRAF2/BIRC2/TNFRSF1A/OTUD7B/TAX1BP1/SHARPIN/CLIP3/MAP3K7/SPPL2A/BAG4/RIPK1/TAB1/FADD/ADAM17/XIAP/OTULIN/USP4/IKBKB/UBC/TAB3/CHUK/TRADD/SPPL2B/MADD/TAB2/TNFAIP3/CASP8/RBCK1/USP21/IKBKG/CYLD/SMPD2/NSMAF/RNF31/USP2/TRAF1</t>
-  </si>
-  <si>
-    <t>DHFR/MTHFD2/QPRT/FASN/MTHFD1/CYB5R3/MMAB/MTHFS/SLC2A1/ENPP2/COASY/SHMT1/NAXE/NAPRT/RFK/MTHFD1L/PCCA/ABCD4/MCCC1/FLAD1/CD320/MMADHC/SHMT2/GSTO2/GSTO1/PPCS/NAMPT/MOCS2/TCN2/PDXK/MTHFD2L/PANK2/AMN/BTD/PPCDC/MOCS1/SLC2A3/TPK1/PDZD11/MOCS3/BST1/NFS1/ENPP1/PARP16/LMBRD1/SLC52A2/NAXD/PANK1/MUT/NUDT12/MCCC2/MTHFR/SLC25A32/PARP6/HLCS/CYB5A/SLC19A3/THTPA/ACACA/MTR/ACACB/MMAA/PARP8/PTGIS/PARP4/GPHN/AASDHPPT/SLC25A16/PRSS1/DHFR2/PANK3/SLC19A2/CUBN/PC/NMRK1/PNPO/ABCC1/AOX1/SLC23A1/SLC25A19/PANK4/NADK2/NMNAT1/NMRK2/NT5E/MMACHC/NMNAT2/PARP14/SLC52A3/NMNAT3/SLC19A1/NADSYN1/RNLS/SLC5A6/ALDH1L1/PARP9/PCCB/MTRR/FPGS/SLC46A1/PARP10/SLC23A2/NNMT/NADK</t>
-  </si>
-  <si>
-    <t>MYL7/CALM1/CALD1/MYL9/MYL6/TPM4/CALM2/TPM1/MYL12A/TPM2/ATP1B3/ACTA2/ACTC1/MYL12B/MYL6B/VCL/FXYD6/TNNT1/AKAP9/MYH6/ANXA6/TNNT2/MYL4/TNNC1/PAK2/DYSF/DES/ACTA1/TRDN/TNNI1/ANXA1/TMOD1/KCNK12/NKX2-5/CAMK2D/GATA4/KCNK1/SRI/ATP1A1/CALM3/FKBP1B/SORBS3/KCNH2/RANGRF/NPPA/WWTR1/KCNK6/ATP2A2/TTN/TBX5/CAMK2A/ORAI1/AHCYL1/LMOD1/ACTG2/ANXA2/KCNIP4/CAMK2G/HIPK2/TNNI3/SORBS1/DMPK/TLN1/TMOD3/ATP2B4/VIM/PXN/PAK1/ASPH/SCN3B/FGF13/CACNA1D/NPR1/MYL5/MYBPC3/DMD/PLN/ITGB5/ATP2B1/ATP1B2/MYL3/FGF12/ORAI2/SCN7A/KCNK5/ITPR3/CACNG4/RYR2/TRPC1/FXYD1/HIPK1/ATP2A3/ITPR2/CACNA1C/TPM3/SLC8A1/CAMK2B/KCND1/KCNQ1/PRKACA/ATP2A1/SLN/MYLPF/KCNE5/STIM1/SCN8A/SCN11A/KCNIP2/KCNK13/ACTN2/FGF11/CASQ2/FXYD7/CACNG8/CORIN/CACNB3/CACNB1/ATP1A2/KCNE1/KCNE2/KCNK10/CACNG6/FXYD4/CACNB2/MYH3/MYL10/CACNA2D1/TNNC2/SCN9A/FXYD3/KCNK3/TMOD2/ATP1A4/KCNJ12/FXYD2/KCNE3/KCNK17/KCNK15/CACNA2D3/SCN5A/CACNG3/SCN4B/KCNJ4/TNNT3/ITGA1/MYLK/ACTN3/KCND3/KCNIP1/CLIC2/CACNA2D4/FGF14/TRIM72/CACNG1/MYBPC2/NPR2/SLC8A2/CACNA1F/NPPC/KCNJ11/CACNB4/SCN4A/KAT2B/SCN1B/KCNJ14/CACNA2D2/ITPR1/ATP1B1/TCAP/RYR3</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/ITCH/PSMA2/PSMD2/NUMB/PSMD13/SUFU/PSMB10/BTRC/UBC/PSMC1/PSMD9/GLI1/PSMA5/PSMD5/PRKACA/PSMC6/PSMD3/PRKACB/PSMD1/PSMB5/CUL1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/GLI2/PSME3/CSNK1A1/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/SUFU/PSMB10/BTRC/UBC/PSMC1/GSK3B/PSMD9/PSMA5/PSMD5/PRKACA/PSMC6/PSMD3/PRKACB/PSMD1/PSMB5/CUL1</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/CSNK1A1/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/SUFU/PSMB10/GLI3/BTRC/UBC/PSMC1/GSK3B/PSMD9/PSMA5/PSMD5/PRKACA/PSMC6/PSMD3/PRKACB/PSMD1/PSMB5/CUL1</t>
-  </si>
-  <si>
-    <t>RAC1/UBA52/UBB/CDK4/SFPQ/ERBB4/BCAR1/CCND1/HRAS/PTPN1/KHDRBS1/ERBB3/ELMO1/DOCK1/RHOA/ARHGAP35/CRK/CDKN1B/STAT3/SOCS3/ERBB2/PXN/PELP1/CDK2/HIF1A/CBL/HBEGF/ELMO2/AKT1/NRG1/NRG2/UBC/ARAP1/KHDRBS3/RASA1/NR3C1/KRAS/STAP2/CCNE1/EPAS1/DOK1/NRG4/PTK6/EGFR/KHDRBS2/EGF/NRAS/LRRK2</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/AURKA/PSMB3/RBX1/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/SKP1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/UBC/PSMC1/PSMD9/PSMA5/PSMD5/FBXL7/PSMC6/PSMD3/PSMD1/PSMB5/CUL1</t>
-  </si>
-  <si>
-    <t>PCNA/RPA3/RFC4/POLE4/UBA52/UBB/USP1/RPA2/RFC2/RBX1/DDB1/POLD3/POLE/RFC5/RPA1/POLD2/RFC1/POLD1/RFC3/POLE2/POLE3/DTL/RAD18/CUL4B/UBC/UBE2B/POLD4/CUL4A</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/PRKCD/ADCY3/PRKAR2A/MAPK1/PRKAR1B/ADCY2/PRKCA/GRK2/PRKACA/PRKACB/ADCY7/ADCY1/PDE1B/PDE1C/PRKAR2B/ADCY5/ADCY4/PDE1A/ADCY8/ADCY9/PRKCG/CAMK4/ADCY6</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/VCP/PSMD11/IHH/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/P4HB/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/DERL2/PSMA6/PSMD10/PSMA2/PSMD2/ADAM17/PSMD13/PSMB10/SEL1L/UBC/PSMC1/OS9/PSMD9/SYVN1/PSMA5/NOTUM/PSMD5/PSMC6/ERLEC1/PSMD3/SCUBE2/PSMD1/PSMB5/DISP2/SHH/HHAT</t>
-  </si>
-  <si>
-    <t>H2AFZ/HIST1H4C/H2AFV/PSMC3/SOST/H2AFX/PSME2/SOX17/RSPO3/PSMC4/UBA52/ASH2L/PSMA4/UBB/PSMA7/PSMB3/SOX7/PPP2R1A/SOX4/RBX1/SFRP1/PSMD11/DKK1/MYC/PSMB2/PSMD7/TLE1/FZD5/PSMD14/PSMC5/PSME1/PSMB6/YWHAZ/H2AFJ/CSNK2B/PSMF1/PPP2CB/PSMB1/PPP2R5C/SRY/PSMA1/FZD2/AKT2/PSMA3/RSPO4/CSNK2A2/TCF7L2/H3F3A/PSMD8/PSMC2/PSME3/LEF1/PPP2CA/CSNK1A1/PSMD12/TLE3/PSME4/PSMB4/HDAC1/MEN1/H3F3B/PSMB7/RNF146/SMARCA4/PSMD6/TLE4/XPO1/CSNK1E/CHD8/PPP2R1B/PSMD4/FZD4/TLE2/CSNK2A1/PPP2R5A/PSMA6/PSMD10/HIST1H2AC/CTNNB1/LRP5/WNT5A/KREMEN2/WNT3/HIST2H2AC/LEO1/CTNNBIP1/CDC73/CREBBP/PSMA2/CBY1/PSMD2/HIST1H2BG/TCF7/EP300/PSMD13/HIST2H2BE/TCF7L1/LGR4/AXIN1/PSMB10/PYGO1/CAV1/DVL3/XIAP/DVL2/CCDC88C/AKT1/CTBP1/PPP2R5E/BTRC/HIST1H3B/AXIN2/DVL1/ZNRF3/UBC/SMURF2/HIST1H2BH/BCL9L/CUL3/KAT5/PSMC1/APC/KMT2D/HIST1H3F/GSK3B/USP34/SOX9/PSMD9/HIST1H2BD/PSMA5/HIST1H3A/RNF43/HIST1H4J/TRRAP/PSMD5/RYK/SOX13/PPP2R5D/FZD6/SOX6/RSPO2/HIST1H2AB/TNKS2/PSMC6/PSMD3/AMER1/PYGO2/HIST1H4H/HIST1H3G/FZD8/PSMD1/USP8/HIST1H2BN/FRAT1/HIST1H3E/HIST1H3H/KLHL12/RUVBL1/TNKS/DACT1/PPP2R5B/HIST1H4E/HIST1H2BL/PSMB5/HIST1H2BC/HIST1H2AE/FRAT2/RBBP5/HIST1H2BF/HIST4H4/RUNX3/KREMEN1/LRP6/HIST1H4I/SOX2/RSPO1/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST1H2BE/TERT/HIST1H2BJ/HIST1H2BK/CSNK1G2/HIST1H3I/BCL9/SFRP2/LGR5/PIP5K1B/FZD1</t>
-  </si>
-  <si>
-    <t>HMGB1/DUSP4/UBA52/JUN/UBB/PPP2R1A/UBE2N/APP/NFKBIA/MAP2K1/PPP2CB/MAP2K7/MAPK10/DUSP6/NFKBIB/MAP2K3/VRK3/CREB1/PPP2CA/RIPK2/ECSIT/MAP2K6/MEF2C/DHX9/PPP2R1B/MAPK3/SKP1/FOS/TNIP2/MAPK7/MAP3K7/DUSP3/NKIRAS2/MYD88/ATF2/TAB1/MAP3K1/ATF1/NOD1/FBXW11/BTRC/IKBKB/AGER/MAPK1/UBC/TAB3/PELI2/MAPK9/CHUK/MAP3K8/MAPK14/TAB2/IRAK4/PPP2R5D/MAPKAPK3/MAPKAPK2/NFKB1/DUSP7/RELA/ELK1/PELI1/TRAF6/MAPK11/MEF2A/NFKB2/MAP2K4/PELI3/IKBKG/MAPK8/IRAK1/UBE2V1/IRAK2/NKIRAS1/CUL1</t>
-  </si>
-  <si>
-    <t>UBE2C/ANAPC11/CDC20/CCNB1/CDK1/UBA52/UBB/ANAPC16/ANAPC7/ANAPC5/CDC26/CDC16/ANAPC1/CDC27/ANAPC10/UBE2E1/CDC23/UBC/ANAPC15/ANAPC2/ANAPC4/UBE2D1</t>
-  </si>
-  <si>
-    <t>TGIF1/UBA52/UBB/PARP1/NCOR1/USP9X/SMAD3/NEDD4L/HDAC1/UBE2D3/SKIL/TRIM33/SMAD4/SMAD2/TGIF2/UBC/SMURF2/NCOR2/SKI/RNF111/PPM1A/UBE2D1</t>
-  </si>
-  <si>
-    <t>CCT8/TCP1/CCT3/CCT4/RAB3IP/CCT5/BBIP1/BBS4/MKKS/CCT2/BBS12/BBS7/BBS2/BBS9/ARL6/LZTFL1/BBS10/BBS5/BBS1/SMO/MCHR1/TTC8</t>
-  </si>
-  <si>
-    <t>HIBADH/BCAT1/ACADSB/HSD17B10/BCAT2/SHMT1/DLD/MCCC1/ACAT1/ALDH9A1/HIBCH/PPM1K/TMLHE/ALDH6A1/ACAD8/BCKDK/MCCC2/IVD/DBT/AUH/BCKDHB/BCKDHA</t>
-  </si>
-  <si>
-    <t>PMPCB/SMDT1/MCUB/PHB2/VDAC3/PARL/VDAC1/VDAC2/PMPCA/AKAP1/STOML2/YME1L1/SPG7/PHB/MAIP1/MICU1/SLC8B1/LETM1/AFG3L2/MICU2/MICU3/MCU</t>
-  </si>
-  <si>
-    <t>POLR2L/TDGF1/SALL1/LIN28A/POLR2F/POLR2J/SALL4/NR6A1/POLR2K/POLR2A/POU5F1/HIF3A/POLR2D/PBX1/POLR2I/POLR2G/STAT3/POLR2E/SMAD4/FOXP1/SMAD2/POLR2H/EPHA1/DPPA4/ZIC3/POLR2C/ZSCAN10/EPAS1/POLR2B/KLF4/NANOG/SOX2/FGF2</t>
-  </si>
-  <si>
-    <t>GNG11/GNG5/CCT8/GNB1/GNB2/TCP1/CCT3/GNAI1/CCT4/GNB5/CSNK2B/GNB4/CCT5/GNG12/CSNK2A2/GNAI2/RGS9/GNB3/CCT2/CCT6A/CSNK2A1/CCT7/PDCL/GNG4/GNG7/RGS6/GNAO1/RGS11/GNGT1/GNAZ/GNG2/GNG3/GNAI3/GNG10/CCT6B/RGS7/GNG13/GNG8</t>
-  </si>
-  <si>
-    <t>RAC1/AKAP13/AATF/ARHGEF39/TIAM2/BAD/MAGED1/NET1/VAV3/ECT2/ARHGEF2/ITSN1/TRIO/PREX1/ARHGEF16/ARHGEF40/ARHGEF35/ARHGEF26/FGD1/FGD4/KALRN/ARHGEF33/ARHGEF9/ARHGEF19/ARHGEF1/GNA13/ARHGEF4/ARHGEF15/ARHGEF12/ARHGEF7/OBSCN/ARHGEF37/SOS2/TIAM1/FGD3/ARHGEF5/MCF2L/ARHGEF17/ARHGEF6/VAV2/ARHGEF10L/MAPK8/NGEF/ARHGEF3/ARHGEF11/SOS1/PLEKHG5/BCL2L11/ARHGEF10/PLEKHG2/ABR/NGF</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/VCP/PSMD11/IHH/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/DERL2/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/SEL1L/UBC/PSMC1/OS9/PSMD9/SYVN1/PSMA5/PSMD5/PSMC6/ERLEC1/PSMD3/PSMD1/PSMB5/SHH/HHAT</t>
-  </si>
-  <si>
-    <t>HMGB1/DUSP4/UBA52/JUN/UBB/PPP2R1A/UBE2N/APP/NFKBIA/MAP2K1/PPP2CB/MAP2K7/MAPK10/DUSP6/NFKBIB/MAP2K3/SIGIRR/VRK3/CREB1/PPP2CA/RIPK2/ECSIT/MAP2K6/MEF2C/DHX9/PPP2R1B/MAPK3/SKP1/FOS/TNIP2/MAPK7/MAP3K7/DUSP3/NKIRAS2/MYD88/ATF2/TAB1/MAP3K1/TLR4/ATF1/NOD1/FBXW11/BTRC/IKBKB/AGER/MAPK1/UBC/TAB3/PELI2/MAPK9/CHUK/MAP3K8/MAPK14/TAB2/IRAK4/PPP2R5D/MAPKAPK3/MAPKAPK2/NFKB1/BTK/DUSP7/RELA/ELK1/PELI1/TRAF6/TIRAP/TLR6/IRAK3/MAPK11/MEF2A/SOCS1/NFKB2/MAP2K4/CD36/PELI3/IKBKG/MAPK8/IRAK1/UBE2V1/IRAK2/NKIRAS1/CUL1</t>
-  </si>
-  <si>
-    <t>H2AFZ/HIST1H4C/SMC4/H2AFV/CCNB1/CDK1/PLK1/VRK1/H2AFX/TMPO/CCNB2/LMNB1/BANF1/PPP2R1A/SMC2/ARPP19/NCAPH2/ENSA/H2AFJ/TPR/MASTL/PPP2CB/LPIN2/NUP62/GOLGA2/NUP37/NUP35/EMD/H3F3A/LMNA/USO1/RAB2A/NEK6/PPP2CA/NCAPD3/NEK9/NCAPG2/NUP43/H3F3B/NUP50/PPP2R1B/MAPK3/RAE1/NUP153/POM121/SET/HIST1H2AC/NUP107/KMT5A/HIST2H2AC/CTDNEP1/NUP88/RANBP2/HIST1H2BG/NUMA1/NUP133/NDC1/HIST2H2BE/MCPH1/RAB1B/RAB1A/RB1/NUP93/NUP58/NUP85/LEMD3/NEK7/HIST1H3B/MAPK1/HIST1H2BH/BLZF1/HIST1H3F/NUP210/PPP2R2D/NUP54/HIST1H2BD/HIST1H3A/NUP160/HIST1H4J/SEH1L/CNEP1R1/NUP98/HIST1H2AB/PRKCA/GORASP1/LEMD2/GORASP2/NUP214/HIST1H4H/NUPL2/HIST1H3G/NUP155/HIST1H2BN/HIST1H3E/HIST1H3H/AAAS/HIST1H4E/LPIN3/HIST1H2BL/HIST1H2BC/HIST1H2AE/PHF8/VRK2/HIST1H2BF/HIST4H4/HIST1H4I/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H2AJ/HIST1H2BE/HIST1H2BJ/HIST1H2BK/NUP188/LPIN1/NUP205/HIST1H3I/PRKCB</t>
-  </si>
-  <si>
-    <t>YWHAH/YWHAQ/YWHAB/YWHAZ/AKT2/BAD/PPP3CC/YWHAE/AKT3/AKT1/BID/BCL2/PPP3R1/SFN/YWHAG</t>
-  </si>
-  <si>
-    <t>LSM4/LSM3/LSM5/DCP1A/LSM1/LSM2/DCP1B/DDX6/LSM7/DCP2/XRN1/EDC3/PATL1/LSM6/EDC4</t>
-  </si>
-  <si>
-    <t>CCNB1/CDK1/TMPO/LMNB1/LPIN2/EMD/LMNA/CTDNEP1/LEMD3/CNEP1R1/PRKCA/LEMD2/LPIN3/LPIN1/PRKCB</t>
-  </si>
-  <si>
-    <t>PPP2R1A/PPP2CB/PPP2R5C/PPP2CA/CSNK1A1/PPP2R1B/PPP2R5A/CTNNB1/AXIN1/PPP2R5E/APC/GSK3B/PPP2R5D/AMER1/PPP2R5B</t>
-  </si>
-  <si>
-    <t>CLTB/AP2S1/AP2A1/CLTA/AP2M1/ARRB2/CLTC/FZD4/AP2A2/WNT5A/DVL2/PRKCA/AP2B1/PRKCG/PRKCB</t>
-  </si>
-  <si>
-    <t>PGM1/SRD5A3/DPM3/GALK1/DPM1/MPI/GALT/GALE/DPM2/PMM2/DOLK/NEU1/GNE/DHDDS/GFPT1</t>
-  </si>
-  <si>
-    <t>HSP90AA1/CDC37/SHC1/HRAS/PIK3R1/GRB2/PLCG1/CBL/KRAS/PIK3CA/EGFR/GAB1/EGF/SOS1/NRAS</t>
-  </si>
-  <si>
-    <t>FEN1/PCNA/RPA3/RPA2/LIG1/POLD3/POLA2/RPA1/POLD2/POLD1/POLA1/PRIM1/POLD4/PRIM2/DNA2</t>
-  </si>
-  <si>
-    <t>IMPDH2/ATIC/PAICS/ADSL/ADSS/UMPS/IMPDH1/CAD/PFAS/DHODH/PPAT/GART/GMPS/ADSSL1/LHPP</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PAK2/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/OPA1/PSMD6/PSMD4/OMA1/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/ARHGAP10/PSMB10/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/PSMB5</t>
-  </si>
-  <si>
-    <t>PSMC3/PSME2/PSMC4/UBA52/PSMA4/UBB/PSMA7/PSMB3/PSMD11/PSMB2/PSMD7/PSMD14/PSMC5/PSME1/PSMB6/PSMF1/CDC25A/PSMB1/PSMA1/PSMA3/PSMD8/PSMC2/CHEK2/PSME3/PSMD12/PSME4/PSMB4/PSMB7/PSMD6/PSMD4/PSMA6/PSMD10/PSMA2/PSMD2/PSMD13/PSMB10/ATM/UBC/PSMC1/PSMD9/PSMA5/PSMD5/PSMC6/PSMD3/PSMD1/PSMB5/CHEK1</t>
-  </si>
-  <si>
-    <t>GNG11/CALM1/CALM2/GNG5/GNB1/GNB2/PPP2R1A/GNAS/GUCY1A3/GNB5/GNB4/PPP2CB/GNG12/PPP2R5C/SRI/CALM3/GNB3/PPP2CA/APOB/PDE3A/ATP2A2/PPP2R1B/PECAM1/ORAI1/PPP2R5A/PDE9A/P2RX4/ATP2B4/NOS3/PTPN11/PRKG1/PPP2R5E/ATP2B1/GUCY1B3/ORAI2/GNG4/MAPK14/ITPR3/GUCY1A2/PAFAH2/PPP2R5D/GNG7/ATP2A3/ITPR2/SLC8A1/PDE3B/ATP2A1/LRP8/STIM1/NOS2/P2RX6/P2RX2/KCNMB4/GNGT1/KCNMA1/GNG2/PDE1B/PDE10A/PPP2R5B/GNG3/PDE5A/PTPN6/GNG10/PTGIR/PDE11A/PRKG2/PDE2A/PDE1A/TRPC6/P2RX7/GNG13/GNG8/SLC8A2/KCNMB3/KCNMB1/ITPR1/MRVI1</t>
-  </si>
-  <si>
-    <t>UBA52/PPIA/UBB/CHMP2A/CHMP4B/MVB12A/PDCD6IP/NEDD4L/UBAP1/CHMP7/CHMP5/MVB12B/CHMP4C/TSG101/VPS37B/VPS28/VPS37A/UBC/CHMP3/CHMP2B/VTA1/VPS37D/VPS4A/VPS4B/CHMP6/VPS37C/CHMP4A</t>
-  </si>
-  <si>
-    <t>SCP2/HSD17B4/NUDT7/ECI2/SLC25A17/CRAT/ACAA1/HACL1/DECR2/ACBD5/ACOT8/ACOX3/EHHADH/MLYCD/PECR/ACOX2/NUDT19/ALDH3A2/ACBD4/SLC27A2/CROT/PHYH/ABCD1/AMACR/ACOT4/ACOX1/ACOXL</t>
-  </si>
-  <si>
-    <t>CALM1/CALM2/GNAI1/PRKAR1A/GNAI2/CREB1/CALM3/PRKCD/ADCY3/AHCYL1/PRKAR2A/PLCB1/GNAL/PLCB2/MAPK1/PRKAR1B/ITPR3/ADCY2/ITPR2/PRKCA/GRK2/PRKACA/PLCB3/GNAO1/PRKACB/ADCY7/ADCY1/GNAZ/PDE1B/PDE1C/GNAI3/PRKAR2B/ADCY5/ADCY4/PDE1A/ADCY8/ADCY9/PRKCG/CAMK4/ITPR1/ADCY6/PLCB4</t>
-  </si>
-  <si>
-    <t>EIF4EBP1/EIF4B/RHEB/YWHAB/PRKAG1/EIF4E/PRKAB2/STRADB/MLST8/AKT2/STK11/LAMTOR1/LAMTOR5/PRKAA1/LAMTOR4/RRAGC/LAMTOR2/AKT1S1/CAB39/CAB39L/RRAGA/PRKAA2/MTOR/AKT1/RPTOR/SLC38A9/RRAGD/RRAGB/EIF4G1/LAMTOR3/TSC2/TSC1/PRKAB1/EEF2K/STRADA/PPM1A/PRKAG2</t>
-  </si>
-  <si>
-    <t>UBA52/UBB/JAG1/MDK/NCSTN/MIB1/DLL1/MIB2/NOTCH2/PSEN1/UBC/APH1B/JAG2/PSENEN/APH1A/DLL4/PSEN2/ADAM10/CNTN1/NEURL1B/NEURL1</t>
-  </si>
-  <si>
-    <t>MMAB/PCCA/ABCD4/MCCC1/CD320/MMADHC/TCN2/AMN/BTD/LMBRD1/MUT/MCCC2/HLCS/ACACA/MTR/MMAA/CUBN/PC/MMACHC/PCCB/MTRR</t>
+    <t>SRSF2/PCBP2/RBMX/HNRNPA1/SNRPB/SLBP/LSM4/HNRNPA2B1/SRSF7/SRSF5/SNRPN/SNRPG/SYF2/SNRPD1/HSPA8/LSM3/LSM8/POLR2L/NXT1/DNAJC8/EIF4E/DDX39A/SNRPA1/HNRNPC/SNW1/SNRNP25/SNRNP70/GTF2F2/RBM8A/FUS/POLR2J/LSM2/GTF2F1/MAGOHB/SNRPF/SRSF3/SNRPD2/WBP11/SRRT/PPIL3/PAPOLA/HNRNPD/SNRNP200/NCBP2/SF3B4/PPIL1/HNRNPU/SRSF4/SNRPC/PHF5A/PQBP1/HNRNPUL1/POLR2K/SNRPA/SRSF1/HNRNPK/SF3B6/CTNNBL1/CHERP/YBX1/POLR2F/TRA2B/RBM17/NUP62/CWC27/CPSF2/SF3B5/RNPS1/PRPF6/HNRNPM/SF3B2/LSM6/SRRM1/SF1/PABPN1/PUF60/POLR2A/ELAVL1/PCBP1/CPSF4/CSTF3/PPWD1/EIF4A3/HNRNPF/DDX23/METTL3/UPF3B/THOC5/POLR2I/CWC15/THOC6/SNRPE/DHX15/CD2BP2/DHX9/PRPF8/NUP93/SNRNP40/RANBP2/NUP88/PRPF40A/CDC40/NUP37/HNRNPH1/NCBP1/NUP43/SART1/SNRNP27/SF3A2/RNPC3/BCAS2/FYTTD1/NUP50/CHTOP/PLRG1/THOC2/SLU7/HNRNPR/SRSF10/TFIP11/PDCD7/NUP35/PPIE/RAE1/PPIL4/PTBP1/SRRM2/NUP107/SNRPD3/CSTF2T/PCF11/PRPF38A/SNRPB2/THOC3/SF3A1/PPIH/ISY1/HNRNPA3/PRCC/SNU13/USP39/GPKOW/NUP153/U2AF1/SYMPK/DHX38/TPR/NUP98/CASC3/WBP4/LSM7/SF3B3/POLR2E/SNRNP35/TXNL4A/U2AF1L4/U2AF1L5/PPIL6/AQR/POLR2C/THOC1/PRPF19/RBM22/XAB2/CWC25/SMNDC1/SNRNP48/SUGP1/POLDIP3/HNRNPL/CWC22/CCAR1/WTAP/HNRNPA0/NUP54/NDC1/EFTUD2/POM121/CPSF3/SEH1L/PRPF31/POLR2G/RBM5/ZC3H11A/U2AF2/NUP214/GCFC2/CPSF7/BUD31/PRPF4/ALYREF/POLR2D/FIP1L1/WDR33/CSTF1/NUP160/SF3A3/NUPL2/MAGOH/GLE1/POLR2B/ZMAT5/DDX39B/CLP1/SRSF6/ZRSR2/NUP58/CPSF1/METTL14/NUP188/CRNKL1/POLR2H/SRSF9/HNRNPH2/SKIV2L2/DDX42/DDX46/NUP205/CSTF2/LSM5/NUP133/DDX5/NUP85/SARNP/DHX16/SNURF/THOC7/SRSF11/U2SURP/NUP155/PRPF3/ELAVL2/NXF2B/AAAS/NUP210/CDC5L/NXF1/NUDT21/SF3B1/ZCRB1</t>
+  </si>
+  <si>
+    <t>SRSF2/PCBP2/RBMX/HNRNPA1/SNRPB/LSM4/HNRNPA2B1/SRSF7/SRSF5/SNRPN/SNRPG/SYF2/SNRPD1/HSPA8/LSM3/LSM8/POLR2L/DNAJC8/SNRPA1/HNRNPC/SNW1/SNRNP25/SNRNP70/GTF2F2/RBM8A/FUS/POLR2J/LSM2/GTF2F1/MAGOHB/SNRPF/SRSF3/SNRPD2/WBP11/SRRT/PPIL3/PAPOLA/HNRNPD/SNRNP200/NCBP2/SF3B4/PPIL1/HNRNPU/SRSF4/SNRPC/PHF5A/PQBP1/HNRNPUL1/POLR2K/SNRPA/SRSF1/HNRNPK/SF3B6/CTNNBL1/CHERP/YBX1/POLR2F/TRA2B/RBM17/CWC27/CPSF2/SF3B5/RNPS1/PRPF6/HNRNPM/SF3B2/LSM6/SRRM1/SF1/PABPN1/PUF60/POLR2A/ELAVL1/PCBP1/CPSF4/CSTF3/PPWD1/EIF4A3/HNRNPF/DDX23/UPF3B/POLR2I/CWC15/SNRPE/DHX15/CD2BP2/DHX9/PRPF8/SNRNP40/PRPF40A/CDC40/HNRNPH1/NCBP1/SART1/SNRNP27/SF3A2/RNPC3/BCAS2/PLRG1/SLU7/HNRNPR/SRSF10/TFIP11/PDCD7/PPIE/PPIL4/PTBP1/SRRM2/SNRPD3/CSTF2T/PCF11/PRPF38A/SNRPB2/SF3A1/PPIH/ISY1/HNRNPA3/PRCC/SNU13/USP39/GPKOW/U2AF1/SYMPK/DHX38/CASC3/WBP4/LSM7/SF3B3/POLR2E/SNRNP35/TXNL4A/U2AF1L4/U2AF1L5/PPIL6/AQR/POLR2C/PRPF19/RBM22/XAB2/CWC25/SMNDC1/SNRNP48/SUGP1/HNRNPL/CWC22/CCAR1/HNRNPA0/EFTUD2/CPSF3/PRPF31/POLR2G/RBM5/U2AF2/GCFC2/CPSF7/BUD31/PRPF4/ALYREF/POLR2D/FIP1L1/WDR33/CSTF1/SF3A3/MAGOH/POLR2B/ZMAT5/CLP1/SRSF6/ZRSR2/CPSF1/CRNKL1/POLR2H/SRSF9/HNRNPH2/SKIV2L2/DDX42/DDX46/CSTF2/LSM5/DDX5/DHX16/SNURF/SRSF11/U2SURP/PRPF3/ELAVL2/CDC5L/NUDT21/SF3B1/ZCRB1</t>
+  </si>
+  <si>
+    <t>SRSF2/PCBP2/RBMX/HNRNPA1/SNRPB/LSM4/HNRNPA2B1/SRSF7/SRSF5/SNRPN/SNRPG/SYF2/SNRPD1/HSPA8/LSM3/LSM8/POLR2L/DNAJC8/SNRPA1/HNRNPC/SNW1/SNRNP70/GTF2F2/RBM8A/FUS/POLR2J/LSM2/GTF2F1/MAGOHB/SNRPF/SRSF3/SNRPD2/WBP11/SRRT/PPIL3/PAPOLA/HNRNPD/SNRNP200/NCBP2/SF3B4/PPIL1/HNRNPU/SRSF4/SNRPC/PHF5A/PQBP1/HNRNPUL1/POLR2K/SNRPA/SRSF1/HNRNPK/SF3B6/CTNNBL1/CHERP/YBX1/POLR2F/TRA2B/RBM17/CWC27/CPSF2/SF3B5/RNPS1/PRPF6/HNRNPM/SF3B2/LSM6/SRRM1/SF1/PABPN1/PUF60/POLR2A/ELAVL1/PCBP1/CPSF4/CSTF3/PPWD1/EIF4A3/HNRNPF/DDX23/UPF3B/POLR2I/CWC15/SNRPE/DHX15/CD2BP2/DHX9/PRPF8/SNRNP40/PRPF40A/CDC40/HNRNPH1/NCBP1/SART1/SNRNP27/SF3A2/BCAS2/PLRG1/SLU7/HNRNPR/SRSF10/TFIP11/PPIE/PPIL4/PTBP1/SRRM2/SNRPD3/CSTF2T/PCF11/PRPF38A/SNRPB2/SF3A1/PPIH/ISY1/HNRNPA3/PRCC/SNU13/USP39/GPKOW/U2AF1/SYMPK/DHX38/CASC3/WBP4/LSM7/SF3B3/POLR2E/TXNL4A/U2AF1L4/U2AF1L5/PPIL6/AQR/POLR2C/PRPF19/RBM22/XAB2/CWC25/SMNDC1/SUGP1/HNRNPL/CWC22/CCAR1/HNRNPA0/EFTUD2/CPSF3/PRPF31/POLR2G/RBM5/U2AF2/GCFC2/CPSF7/BUD31/PRPF4/ALYREF/POLR2D/FIP1L1/WDR33/CSTF1/SF3A3/MAGOH/POLR2B/CLP1/SRSF6/CPSF1/CRNKL1/POLR2H/SRSF9/HNRNPH2/SKIV2L2/DDX42/DDX46/CSTF2/LSM5/DDX5/DHX16/SNURF/SRSF11/U2SURP/PRPF3/ELAVL2/CDC5L/NUDT21/SF3B1</t>
+  </si>
+  <si>
+    <t>BIRC5/YWHAH/NPM1/CCNG1/COX7C/AURKB/CCNB1/COX7A2L/RPA3/PERP/CDK1/PCNA/COX4I1/YWHAQ/TPX2/PPP2R1A/RHEB/JUN/POLR2L/UBA52/GADD45A/CCNA2/RFC4/SUPT4H1/COX5B/RFC2/CSNK2B/GTF2F2/COX6B1/POLR2J/GTF2F1/RFC5/PRELID1/YWHAB/SUPT16H/BTG2/PPP2CB/RHNO1/RMI2/UBB/RPA2/MEAF6/MLST8/AURKA/NUAK1/SURF1/BLM/RBBP7/BARD1/NELFA/LAMTOR1/TP53RK/DDIT4/IGFBP3/TXN/PPP2R5C/RABGGTB/FANCI/LRPPRC/POLR2K/RFC3/PRKAB2/PRKAG1/TAF12/PRDX1/POLR2F/MAPKAP1/RRAGA/PLK2/NELFE/AKT2/CHEK2/TCEA1/TFDP2/RPA1/TMEM219/PTEN/COX8A/MOV10/CNOT7/YWHAZ/PRDX5/CNOT1/TXNRD1/POLR2A/CSNK2A2/PHF20/PRR5/POLR2I/BAX/ING2/ZNF385A/TAF9B/COX14/HIPK2/DAXX/RAD50/CDK9/CCNH/RAD1/RNF34/CDK7/CYCS/RBL2/CDK12/CDK5/MDC1/EXO1/TOP3A/TACO1/CARM1/TRIAP1/CTDP1/BNIP3L/TTC5/PML/TFDP1/LAMTOR2/CDKN1B/CDK2/CNOT11/PCBP4/BRCA1/E2F1/CSNK2A1/PMAIP1/MNAT1/PIN1/DYRK2/TP53BP2/PRMT5/GTF2H5/PIP4K2B/CDC25C/CREBBP/TAF9/COX20/RAD17/MAP2K6/E2F8/NDUFA4/COX18/ERCC3/CNOT3/GATAD2B/AKT1/PRKAA1/RICTOR/MTOR/BRIP1/PRMT1/RRM2B/BRPF1/E2F4/CHM/BBC3/COX7B/HDAC2/TAF7/CNOT9/RBBP4/CNOT10/POLR2E/CCNT2/STK11/UBC/ATF2/GATAD2A/FANCD2/ERCC2/TNRC6A/BID/POLR2C/PRKAA2/TAF4/PPP2CA/AKT3/RGCC/PRDM1/AGO1/CNOT6/NOC2L/SESN3/TAF6/COX6C/SMYD2/PPP1R13B/CASP2/SETD9/CDKN1A/COX16/GSR/TAF10/HDAC1/GTF2H2/SESN2/CENPJ/LAMTOR5/HIPK1/TNFRSF10B/CASP6/NBN/PDPK1/ELL/NELFCD/FANCC/MTA2/TP53I3/CHD3/CNOT2/PMS2/SUPT5H/TSC2/SGK1/KAT5/NELFB/BRD7/ATM/TNRC6C/MAPK14/POLR2G/RRAGC/FOS/SSRP1/RMI1/TIGAR/TAF1/USP2/ATR/CNOT4/TP53/CDK5R1/KAT6A/PIDD1/MAPKAPK5/POLR2D/AGO4/RAD9A/CDK13/TAF13/NDRG1/USP7/TOPBP1/TNRC6B/SCO2/BRD1/HUS1/COX5A/SCO1/POLR2B/EP300/RBBP8/TSC1/PRKAG2/TAF11/CCNT1/LAMTOR3/TAF3/COX6A1/RBL1/GPI/CNOT6L/RPTOR/PPP2R1B/CHEK1/MRE11/MDM4/DNA2/AGO2/YWHAE/RRAGD/GLS/POLR2H/SLC38A9/TNFRSF10C/SESN1/ZNF420/RABGGTA/EHMT2/PLAGL1/BRPF3/ING5/AIFM2/WRN/STEAP3/TP73/GTF2H4/AGO3/TAF5/RFFL/PIP4K2A/COX11/RAD51D/CRADD/L3MBTL1/CDKN2A/FAS/MAPK11/BCL2L14/CCNK/PRELID3A/CASP10/TAF4B/TAF2/CCNE2/CHD4/BANP/GLS2/E2F7/PRKAB1/DDB2/BCL6/PIP4K2C/MDM2/TP53INP1/PLK3/GPX2/SFN/ATRIP/TNFRSF10A/CCNA1/APAF1/KMT5A/GTF2H3/MBD3/TBP/JMY/TNFRSF10D/CNOT8/RRAGB/MSH2/MLH1/YWHAG/EHMT1/TNKS1BP1/CCNE1/ARID3A/PPP1R13L/LAMTOR4/G6PD/GTF2H1/PRDX2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/CALM1/TUBA1A/HSP90AA1/TUBB4B/ATP5A1/CALM2/TUBB/ATP5F1/DYNLL1/CDK1/CCT8/HSPB11/PLK1/PPP2R1A/ATP5G2/TUBG1/TUBB2A/TCP1/WDR34/DCTN3/AKAP9/ATP5G3/CCT3/TUBB2B/ATP5I/CCT5/IDH2/CEP290/CHCHD3/TMEM216/CKAP5/ATP5J/ATP5C1/CLUAP1/ARF4/ARL3/PCNT/HAUS8/CREB1/MKKS/TFAM/PRKAB2/IFT20/PRKAG1/APOO/SSBP1/ATP5O/CALM3/ODF2/ACTR1A/KIFAP3/IFT22/TCTN1/DCTN2/C19orf70/TNPO1/ATP5L/CEP78/CCT4/CRTC1/ATAT1/SEPT2/ATP5D/RAB8A/IQCB1/KIF3C/MINOS1/CHCHD6/DYNC2LI1/MAPRE1/HAUS1/ATP5S/TCTEX1D2/SAMM50/ATP5B/WDR60/GLUD2/TUBA1C/CEP89/ASAP1/IFT81/HAUS7/CYCS/MEF2C/BBS4/NEDD1/BBIP1/RAB3IP/NCOR1/NINL/SSNA1/CARM1/ARL6/IFT43/TBL1XR1/CEP63/SCLT1/CSNK1E/CSNK1D/CC2D2A/ESRRA/HAUS2/EXOC5/MARK4/EXOC1/TGS1/SMO/RAB11A/PDE6D/DYNLRB1/DYNLL2/HAUS6/IFT74/MTX1/HDAC3/CREBBP/GABPB1/ATP5E/TBL1X/FGFR1OP/IFT57/HCFC1/MTERF1/IFT52/ATP5G1/CCT2/IMMT/UNC119B/BBS12/OFD1/TUBA4A/POLRMT/PKD1/CNTRL/CEP76/ATF2/RXRA/B9D2/ACSS2/IFT27/CEP41/HAUS4/IFT80/EXOC3/GBF1/HDAC6/FBF1/PRKAA2/TRIP11/ATP5H/CEP97/IFT46/PPRC1/NEK2/MTX2/MED1/CENPJ/CETN2/DNAJC11/SOD2/NCOA2/CEP164/CEP152/SMARCD3/KIF3B/MAPK12/NCOA6/SDCCAG8/B9D1/NCOA1/SIRT5/CEP57/HSPA9/MAPK14/CEP131/BBS7/RP2/TMEM11/CEP83/CCP110/CEP70/KIF24/PCM1/CEP162/CHD9/EHHADH/TRAF3IP1/ARL13B/PLK4/IFT88/TTC30B/HAUS5/ATP5J2/EXOC6/LZTFL1/IFT172/DCTN1/PRKAG2/C2CD3/KIF3A/TCTN3/KIF17/CDK5RAP2/BBS5/TCTN2/TFB2M/NPHP1/EXOC4/PKD2/BBS9/PAFAH1B1/TTC21B/GABPA/MKS1/YWHAE/PPARGC1B/TTC30A/ALAS1/HELZ2/EXOC8/POLG2/EXOC7/TCTE3/NDE1/IFT140/RPGRIP1L/AHI1/PPARA/PRKAR2B/SIRT3/EXOC2/TTC8/WDR35/GLUD1/NR1D1/TMEM67/CYS1/TTC26/MEF2D/CEP135/MCHR1/MAPK11/PRKACA/HAUS3/TUBB4A/CEP192/PPARGC1A/PRKAB1/ALMS1/NPHP3/DYNLRB2/SIRT4/RAB11FIP3/CAMK4/CEP250/BBS10/NPHP4/BBS2/CNGB1/APOOL/TWNK/BBS1/NRF1/INPP5E/DYNC2H1/TTBK2/CRTC2/TFB1M/YWHAG/CRTC3/CEP72/TUBB8/IFT122/DYNC1I2/DYNC1H1/CLASP1/SFI1/TCTEX1D1/WDR19</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DDOST/UBXN1/DYNLL1/PRKCSH/DAD1/TUBB2A/UBA52/SPTBN1/TRAPPC6A/DCTN3/B4GALT4/SEC13/TUBB2B/CALR/TMED9/PMM1/ANK3/VCP/CTSC/UAP1/TRAPPC1/NANS/DPM3/ASGR1/UBB/ALG3/FOLR1/TRAPPC2L/ARF1/ARF4/TMED10/DCTN5/TRAPPC4/TRAPPC3/CAPZA1/GNPNAT1/LMAN2/PDIA3/ACTR1A/DCTN2/TMED3/RNF5/DERL1/TMED2/USO1/PREB/MGAT1/CANX/STX5/COPB1/SEC31A/DYNC1LI1/MAN2A1/ARF5/GOLGA2/B4GALT2/TRIM13/COG4/MGAT2/SRD5A3/TBC1D20/TUBA1C/CD59/RPN2/SLC35C1/CNIH1/B4GALT3/DERL2/MAN1A2/COPB2/YKT6/RNF185/PPP6C/ALG14/FUOM/TFG/CAPZA2/ASGR2/CSNK1D/STX17/CAPZB/MAN1B1/GOSR2/TUSC3/SPTAN1/DYNLL2/GOSR1/TMED7/UGGT1/ST6GALNAC3/NUDT14/LMAN1/PPP6R1/MLEC/MAN1A1/DCTN6/ARFGAP3/B4GALT1/COPA/ALG12/DPAGT1/GANAB/MIA3/FUCA1/ST3GAL1/CMAS/GLB1/MCFD2/DCTN4/EDEM3/CHST8/NUS1/MPDU1/TUBA4A/GMDS/STT3A/ARF3/FPGT/UBC/ST3GAL4/AMDHD2/ALG5/GFPT2/GBF1/DOLPP1/CTSA/ARFGAP1/MVD/ARFGAP2/MGAT5/COG5/BET1/RAD23B/NAPB/GOLGB1/MOGS/ST6GALNAC6/DYNC1I1/COL7A1/KDELR2/TMEM115/COG8/ALG6/SEC16A/COG6/TRAPPC2/TSTA3/SPTBN2/ALG13/SEC23IP/ST8SIA1/RAB1A/SLC35A1/TRAPPC6B/FUT8/OS9/DOLK/RNF103/PPP6R3/SEC22B/MGAT4B/NGLY1/SEC22A/SAR1B/NEU3/EHHADH/DYNC1LI2/SEL1L/NSF/GORASP1/RAB1B/MPI/DCTN1/EDEM2/ST6GAL1/B4GALT5/COPE/ALG10B/ALG11/NAPA/TRAPPC5/SEC24D/CHST10/COPZ2/GNE/ST8SIA2/COG1/UGGT2/EDEM1/SYVN1/ACTR10/PSMC1/PGM3/COPG2/ST8SIA4/MGAT3/RNF139/SERPINA1/MGAT4A/ST3GAL2/MAN2A2/MANEA/ST3GAL3/ST6GALNAC5/COG2/SEC24B/COG7/LMAN2L/CD55/SEC23A/SEC24C/GMPPB/MARCH6/MAGT1/COPZ1/ST8SIA3/DPM1/RENBP/ANKRD28/TRAPPC9/DPM2/TRAPPC10/ALG8/RFT1/ST3GAL6/GMPPA/COPG1/ALG1/ALG9/NPL/SEC24A/ANK2/ST6GALNAC2/TUBB4A/FUK/F8/ENGASE/NEU1/BET1L/ST6GAL2/SPTBN4/CNIH2/ST8SIA6/ALG10/B4GALT6/PMM2/CNIH3/SEC16B/NEU4/ANK1/SPTB/SPTBN5/ST6GALNAC1/FUT3/LHB/ST3GAL5/COG3/DHDDS/MAN1C1/ST6GALNAC4/SEC22C/NAPG/GFPT1/TUBB8/DYNC1I2/DYNC1H1/AMFR/SLC17A5/CTSZ/SCFD1/NANP/RPN1/NAGK/ALG2/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>TTR/HSP90AA1/FN1/ACTB/FGFR1/PSMC3/PSMC4/PPP2R1A/CDC37/POLR2L/PSMA4/PSME2/FGFR4/PSMA7/VCL/UBA52/PEBP1/PSMB2/FKBP1A/AGTRAP/SNW1/PSMB3/AKAP9/PSMD14/SND1/RAP1B/RBP1/GTF2F2/POLR2J/VCP/GTF2F1/YWHAB/ACTG1/PDGFRB/PPP2CB/PSMD4/CCNC/UBB/PSMD7/FXR1/JAG1/MLST8/RBX1/PSME1/RBPJ/NCBP2/PSMC5/MYC/PPP2R5C/FZD5/DKK1/CREB1/IHH/SHC1/POLR2K/PSMD13/MAP2K2/ERBB4/HRAS/PSME3/MACF1/CUX1/POLR2F/MAPKAP1/PSMB6/PSMD12/AKT2/PSMD11/QKI/PTEN/ZMYM2/PSMF1/PDGFRA/POLR2A/PSMB4/TCF7L2/RBP4/TGFB1/ESRP1/PRR5/POLR2I/PSMC2/GSK3A/NCOR2/KDM7A/NAPEPLD/ERBB3/LMNA/PSME4/PSMB1/DERL2/PSMA6/AKT1S1/NCSTN/NCBP1/HES1/NCOR1/FZD4/TBL1XR1/RAF1/MAP2K1/BAG4/CDKN1B/MAML3/NOTCH1/BCR/PIK3R1/RAP1A/TRIM24/PHB/GRB2/ARRB1/SRC/HDAC3/CREBBP/MARK3/KRAS/FGFR2/FGF8/TBL1X/FGFR1OP/FGFR3/FGFR1OP2/ADAM17/AKT1/ARAF/RICTOR/MTOR/GSK3B/ZC3HAV1/PSMB10/PSMB5/SMAD4/TGFBR1/HDAC2/RASA4/STAT3/BAD/PSMD9/FAM114A2/LRP5/HEY2/POLR2E/LRRFIP1/CNTRL/UBC/PIK3CD/PSMD10/PSMA3/IQGAP1/ERLEC1/ITGA2B/POLR2C/TRAK1/AXIN1/HDAC6/GAB2/ERLIN2/DAB2IP/SMAD3/PPP2CA/JAG2/AKT3/HDAC4/KREMEN2/PPP2R5A/AGGF1/AMER1/SPRED2/FYN/MAP3K11/PSMD1/CDKN1A/FGA/ARRB2/HDAC8/HDAC1/ZFYVE9/PSEN2/BRAF/KIAA1549/CTBP2/FGF10/NF1/PDPK1/FZD6/HDAC10/KIT/NRG2/FBXW7/TNKS/DLL1/LRP6/CTNNB1/STAT5B/TSC2/MAML1/NRAS/APC/STAT1/PLCG1/POLR2G/FZD8/OS9/CBL/TNKS2/FOXO1/BCL2L11/RASA1/AGK/PSMD8/CSK/HDAC7/PTPN11/PSMB7/POLR2D/PAPSS1/CNKSR2/VWF/SEL1L/RASAL2/TLN1/TGFBR2/NEURL1B/SKP1/PDGFA/NR4A1/NRG1/FOXO4/MAPK1/CASP9/FGB/HBEGF/ADAM10/POLR2B/PSENEN/PSMD5/EP300/FGF2/MIB1/HDAC5/SPRED1/CPSF6/IRS1/PIK3R2/ATG7/MPRIP/PSMA1/PPP2R5B/PIK3R3/SYVN1/PPP2R1B/PSMC1/MYO18A/MIB2/APH1B/FGF1/RASA3/HEY1/PSMC6/MAPK3/APH1A/POLR2H/CSNK1A1/PSEN1/CUL1/PSMD6/PIK3CB/FGF17/PPP2R5D/SOS1/STAT5A/DLL4/EGF/HHAT/RDH5/RNF43/PAPD7/CHUK/PSMD3/KLB/SYNGAP1/JAK2/BRAP/ABCA4/MET/FRS2/GAB1/KAT2B/HDAC9/PSMD2/ERBB2/AP3B1/MAML2/PIK3CA/KSR1/FOXO3/PSMA5/EGFR/SPRED3/FGF23/PPP2R5E/LRAT/FGF18/FGF9/LCK/FGF22/NEURL1/MDM2/PDGFB/FGG/HGF/SHH/MAMLD1/FGF19/APBB1IP/PIK3AP1/RASAL1/KSR2/RDH12/NRG4/CD19/RASAL3/CLCN6/CNKSR1/HEYL/KREMEN1/PORCN/KAT2A/RASA2/FGF7/CTBP1/IRS2/SMAD2/STRA6/CDK8/KITLG/HDAC11/PSMA2</t>
+  </si>
+  <si>
+    <t>UBE2T/HIST1H4C/ACTB/FEN1/RPA3/APEX1/H2AFX/KPNA2/PCNA/POLR2L/CLSPN/UBA52/USP1/RAD51/CCNA2/RFC4/MPG/CENPX/RFC2/PARP1/SUMO1/POLR2J/VCP/RFC5/ACTL6A/POLE4/COPS5/RHNO1/RMI2/UBB/RAD51AP1/UBE2N/RPA2/COPS3/BAZ1B/BLM/TDP2/FANCA/BARD1/RBX1/CENPS/BPHL/FANCF/PPP4C/FANCL/XRCC6/SIRT6/FANCI/POLR2K/UBE2V2/RFC3/ALKBH5/SUMO3/LIG1/UNG/HMGN1/BRCA2/POLR2F/DDB1/COPS2/RNF168/PRKDC/CHEK2/TCEA1/PPP4R2/RPA1/CHD1L/TP53BP1/MUS81/XRCC5/FANCG/POLD2/TDG/PARG/POLD3/RFC1/POLR2A/PIAS1/POLE2/TIMELESS/RNF4/APBB1/POLR2I/RAD50/POLL/CCNH/RAD1/CDK7/POLE/INO80C/SUMO2/ISG15/COPS6/ZNF830/NEIL2/RIF1/ERCC8/MDC1/EXO1/TRIM25/CUL4B/TOP3A/RNF8/CDK2/BRCA1/LIG3/EME1/GEN1/BRCC3/TFPT/INO80E/MNAT1/DTL/POLK/COPS8/GTF2H5/PPIE/UBE2I/FTO/COPS7B/RAD17/GPS1/COPS4/UBE2L6/ISY1/XRCC4/XPA/KDM4A/MSH6/ERCC3/ALKBH3/POLE3/POLD1/BRIP1/MAPK8/OGG1/POLR2E/YY1/UBC/RAD51C/MAD2L2/PAXIP1/FANCD2/ERCC2/AQR/UIMC1/DCLRE1B/POLR2C/FAAP24/MBD4/HERC2/NTHL1/PRPF19/POLQ/ERCC4/ASCC3/XAB2/NEIL1/RAD23B/ADPRHL2/SMARCA5/ERCC1/GTF2H2/CETN2/ABL1/INO80/HIST1H2BD/USP10/SMUG1/PARP2/RAD52/HIST1H2BH/NBN/UBE2B/BAP1/PIAS3/ELL/FANCC/MSH3/PMS2/FANCE/MUTYH/HIST2H2BE/KAT5/BABAM1/INO80B/ATM/HIST1H2BN/DCLRE1C/TIPIN/POLI/POLR2G/POLM/POLB/FAAP100/XPC/RMI1/ASCC2/POLD4/ATR/TP53/POLR2D/COPS7A/RUVBL1/XRCC3/MGMT/RAD23A/RAD9A/USP7/TOPBP1/PIAS4/RCHY1/HUS1/SPRTN/ERCC5/POLR2B/EP300/RBBP8/RAD51B/FAAP20/NPLOC4/FANCB/ACTR5/XRCC2/EME2/CHEK1/MRE11/XRCC1/EYA3/DNA2/CUL4A/ACTR8/POLR2H/RAD18/HIST1H2BG/REV1/TDP1/ALKBH2/PPP5C/ASCC1/WRN/ERCC6/PNKP/GTF2H4/UBA7/EYA1/DCLRE1A/NFRKB/HIST1H4J/HIST1H4E/RAD51D/HIST1H2BK/SPIDR/LIG4/DDB2/SLX4/UVSSA/HIST1H2BL/HIST1H2BE/HIST1H2BF/USP43/HIST4H4/POLH/HIST1H2BJ/HIST1H2BC/REV3L/INO80D/FANCM/HIST3H2BB/NHEJ1/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/CCNA1/EYA2/PALB2/GTF2H3/POLN/FAN1/USP45/RNF111/KDM4B/MSH2/MLH1/MCRS1/SLX1A/GTF2H1</t>
+  </si>
+  <si>
+    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/PTTG1/ZWINT/TUBA1A/HSP90AA1/HIST1H4C/MAD2L1/PPP1CC/SMC4/CENPF/AURKB/TUBB4B/ANAPC11/UBE2C/H2AFV/TUBB/CCNB1/CDC20/PSMC3/CENPM/H2AFX/DYNLL1/CENPN/CDK1/SMC1A/SPC25/RAD21/PLK1/PSMC4/PPP2R1A/CENPA/TUBG1/CCNB2/PSMA4/TUBB2A/PSME2/LMNB1/PSMA7/VRK1/UBA52/SGO1/MZT1/PSMB2/SKA2/ANAPC16/SGO2/NUDC/DCTN3/PSMB3/AKAP9/PSMD14/TMPO/SEC13/CSNK2B/TUBB2B/NCAPG/BUB3/KIF2C/PMF1/KIF23/PPP2CB/NUF2/PSMD4/KIF20A/CEP290/UBB/PSMD7/CENPK/CKAP5/NCAPH2/PSME1/CENPS/NDC80/SMC3/EMD/CDCA5/ARPP19/CENPU/PSMC5/PCNT/CENPH/PPP2R5C/HAUS8/H2AFJ/BANF1/CENPE/ENSA/PSMD13/STAG2/ZWILCH/CENPO/ANAPC7/LPIN2/PSME3/SPDL1/ITGB3BP/ODF2/PSMB6/NUP62/ACTR1A/PSMD12/NCAPH/DCTN2/PSMD11/KNL1/SMC2/USO1/NCAPD3/SPC24/CEP78/CDC16/PPP2R2A/PSMF1/DYNC1LI1/PSMB4/CSNK2A2/GOLGA2/MAPRE1/RAB2A/NEK6/HAUS1/NIPBL/PDS5B/SET/PSMC2/TUBA1C/NCAPG2/CENPQ/H3F3A/RCC2/HAUS7/ANAPC1/NUP93/BUB1B/LMNA/RANBP2/PSME4/PSMB1/NUP88/PSMA6/NEDD1/NUP37/NUP43/XPO1/NINL/CDC23/CDC26/CENPC/SSNA1/PPP2R2D/ERCC6L/CEP63/CSNK1E/CSNK1D/NUP50/MASTL/CENPT/RANGAP1/NDEL1/HAUS2/INCENP/CSNK2A1/MIS12/DYNLL2/RB1/NUP35/HAUS6/RAE1/NUP107/TUBGCP5/TUBGCP2/BLZF1/CENPL/CDCA8/FGFR1OP/UBE2D1/NEK9/LPIN1/NUP153/BUB1/TPR/NUP98/NCAPD2/PSMB10/TUBGCP4/PSMB5/TAOK1/HIST2H2AC/OFD1/PSMD9/TUBA4A/CNTRL/CEP76/UBC/PSMD10/MZT2B/PSMA3/B9D2/CENPP/CEP41/MAU2/HAUS4/FBXO5/MAD1L1/PPP2CA/PPP2R5A/MZT2A/PSMD1/HIST1H3B/CDC27/NSL1/NEK2/HDAC8/CENPJ/CETN2/GORASP2/HIST1H2BD/DYNC1I1/HIST1H2BH/VRK2/NUP54/ANAPC10/CEP164/CEP152/NDC1/LEMD3/RAB1A/PDS5A/SDCCAG8/KNTC1/HIST2H2BE/POM121/TUBGCP3/SEH1L/HIST1H2BN/CEP57/H3F3B/CEP131/CCP110/KIF2A/NUP214/PSMD8/CEP70/ANKLE2/CTDNEP1/PCM1/ANAPC2/STAG1/PSMB7/EHHADH/DYNC1LI2/NUP160/PLK4/HAUS5/GORASP1/SKA1/NUPL2/MAPK1/RAB1B/CLASP2/CENPI/ESPL1/DCTN1/PSMD5/CDK5RAP2/TUBG2/NUP58/PSMA1/PPP2R5B/PPP2R1B/PSMC1/PMF1-BGLAP/ZW10/PAFAH1B1/HIST1H2AE/HIST1H3A/MCPH1/PSMC6/YWHAE/NUP188/MAPK3/UBE2E1/CNEP1R1/ANAPC15/PSMD6/NDE1/PPP2R5D/HIST1H2BG/HIST1H3G/NUP205/ANAPC5/PRKAR2B/NUMA1/NUP133/PHF8/PSMD3/LPIN3/HIST1H3E/DSN1/PRKCA/NUP85/HIST1H4J/HIST1H4E/HIST1H2AC/CEP135/HIST1H2AB/HIST1H2BK/PSMD2/PRKACA/HAUS3/PSMA5/NUP155/TUBB4A/CEP192/PPP2R5E/ALMS1/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/HIST4H4/PRKCB/HIST1H2BJ/HIST1H2BC/TUBGCP6/CEP250/ANAPC4/KIF18A/NEK7/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/KMT5A/CLIP1/LEMD2/AHCTF1/AAAS/NUP210/YWHAG/CEP72/TUBB8/DYNC1I2/DYNC1H1/CLASP1/SFI1/PSMA2/WAPL</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/HSP90AA1/MAD2L1/PPP1CC/SMC4/CENPF/AURKB/TUBB4B/TUBB/CCNB1/CDC20/CENPM/DYNLL1/CENPN/CDK1/SMC1A/SPC25/RAD21/PLK1/PPP2R1A/CENPA/TUBG1/CCNB2/TUBB2A/SGO1/MZT1/SKA2/SGO2/NUDC/DCTN3/AKAP9/SEC13/CSNK2B/TUBB2B/NCAPG/BUB3/KIF2C/PMF1/PPP2CB/NUF2/CEP290/CENPK/CKAP5/CENPS/NDC80/SMC3/CDCA5/CENPU/PCNT/CENPH/PPP2R5C/HAUS8/CENPE/STAG2/ZWILCH/CENPO/SPDL1/ITGB3BP/ODF2/ACTR1A/NCAPH/DCTN2/KNL1/SMC2/SPC24/CEP78/DYNC1LI1/CSNK2A2/MAPRE1/HAUS1/PDS5B/TUBA1C/CENPQ/RCC2/HAUS7/BUB1B/RANBP2/NEDD1/NUP37/NUP43/XPO1/NINL/CENPC/SSNA1/ERCC6L/CEP63/CSNK1E/CSNK1D/CENPT/RANGAP1/NDEL1/HAUS2/INCENP/CSNK2A1/MIS12/DYNLL2/HAUS6/NUP107/TUBGCP5/TUBGCP2/CENPL/CDCA8/FGFR1OP/BUB1/NUP98/NCAPD2/TUBGCP4/TAOK1/OFD1/TUBA4A/CNTRL/CEP76/MZT2B/B9D2/CENPP/CEP41/HAUS4/MAD1L1/PPP2CA/PPP2R5A/MZT2A/NSL1/NEK2/HDAC8/CENPJ/CETN2/DYNC1I1/CEP164/CEP152/PDS5A/SDCCAG8/KNTC1/TUBGCP3/SEH1L/CEP57/CEP131/CCP110/KIF2A/CEP70/PCM1/STAG1/EHHADH/DYNC1LI2/NUP160/PLK4/HAUS5/SKA1/CLASP2/CENPI/DCTN1/CDK5RAP2/TUBG2/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/YWHAE/NDE1/PPP2R5D/PRKAR2B/NUMA1/NUP133/DSN1/NUP85/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/PPP2R5E/ALMS1/TUBGCP6/CEP250/KIF18A/CLIP1/AHCTF1/YWHAG/CEP72/TUBB8/DYNC1I2/DYNC1H1/CLASP1/SFI1/WAPL</t>
+  </si>
+  <si>
+    <t>CKS1B/TYMS/TOP2A/ORC6/CCNB1/RPA3/PSMC3/DHFR/TK1/CCND2/CDK1/PCNA/PSMC4/PPP2R1A/CDK6/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/RRM2/CDKN1C/CCNA2/PSMB2/MYBL2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PPP2CB/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/CDC45/PSME1/CDK4/MCM10/PSMC5/MYC/PSMD13/MAX/SKP2/PSME3/PSMB6/PSMD12/AKT2/PSMD11/TFDP2/RPA1/CDT1/PPP2R2A/POLA2/PSMF1/PSMB4/CCND3/POLE2/MCM8/PSMC2/CCNH/ORC4/LYN/CDK7/POLE/PSMB1/PSMA6/RBL2/CDC6/CDC25A/CCND1/TFDP1/CDKN1B/CDK2/E2F1/MNAT1/RB1/SRC/E2F3/POLA1/AKT1/POLE3/CDKN2D/DYRK1A/PSMB10/PSMB5/E2F4/ORC3/PSMD9/RBBP4/UBC/PSMD10/PSMA3/FBXO5/WEE1/PPP2CA/AKT3/PSMD1/CDKN1A/HDAC1/ABL1/LIN52/CDKN2B/PSMD8/ORC2/PSMB7/SKP1/E2F6/DBF4/PSMD5/PRIM2/PSMA1/RBL1/CDC7/PPP2R1B/PSMC1/ORC1/LIN9/PSMC6/LIN37/E2F2/CUL1/PSMD6/PRIM1/LIN54/PSMD3/JAK2/PPP2R3B/CDKN2A/PSMD2/CCNE2/PSMA5/RPA4/E2F5/PTK6/CCNA1/ORC5/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/CCT8/HSPB11/PLK1/PPP2R1A/TUBG1/TUBB2A/TCP1/WDR34/DCTN3/AKAP9/CCT3/TUBB2B/CCT5/CEP290/TMEM216/CKAP5/CLUAP1/ARF4/ARL3/PCNT/HAUS8/MKKS/IFT20/ODF2/ACTR1A/KIFAP3/IFT22/TCTN1/DCTN2/TNPO1/CEP78/CCT4/ATAT1/SEPT2/RAB8A/IQCB1/KIF3C/DYNC2LI1/MAPRE1/HAUS1/TCTEX1D2/WDR60/TUBA1C/CEP89/ASAP1/IFT81/HAUS7/BBS4/NEDD1/BBIP1/RAB3IP/NINL/SSNA1/ARL6/IFT43/CEP63/SCLT1/CSNK1E/CSNK1D/CC2D2A/HAUS2/EXOC5/MARK4/EXOC1/SMO/RAB11A/PDE6D/DYNLRB1/DYNLL2/HAUS6/IFT74/FGFR1OP/IFT57/IFT52/CCT2/UNC119B/BBS12/OFD1/TUBA4A/PKD1/CNTRL/CEP76/B9D2/IFT27/CEP41/HAUS4/IFT80/EXOC3/GBF1/HDAC6/FBF1/TRIP11/CEP97/IFT46/NEK2/CENPJ/CETN2/CEP164/CEP152/KIF3B/SDCCAG8/B9D1/CEP57/CEP131/BBS7/RP2/CEP83/CCP110/CEP70/KIF24/PCM1/CEP162/EHHADH/TRAF3IP1/ARL13B/PLK4/IFT88/TTC30B/HAUS5/EXOC6/LZTFL1/IFT172/DCTN1/C2CD3/KIF3A/TCTN3/KIF17/CDK5RAP2/BBS5/TCTN2/NPHP1/EXOC4/PKD2/BBS9/PAFAH1B1/TTC21B/MKS1/YWHAE/TTC30A/EXOC8/EXOC7/TCTE3/NDE1/IFT140/RPGRIP1L/AHI1/PRKAR2B/EXOC2/TTC8/WDR35/TMEM67/CYS1/TTC26/CEP135/MCHR1/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/NPHP3/DYNLRB2/RAB11FIP3/CEP250/BBS10/NPHP4/BBS2/CNGB1/BBS1/INPP5E/DYNC2H1/TTBK2/YWHAG/CEP72/TUBB8/IFT122/DYNC1I2/DYNC1H1/CLASP1/SFI1/TCTEX1D1/WDR19</t>
+  </si>
+  <si>
+    <t>BIRC5/YWHAH/ZWINT/HIST1H4C/MAD2L1/PPP1CC/CENPF/AURKB/ANAPC11/UBE2C/ORC6/CCNB1/RPA3/CDC20/PSMC3/CENPM/H2AFX/GTSE1/DYNLL1/CENPN/CDK1/SPC25/YWHAQ/PLK1/PSMC4/PPP2R1A/CENPA/CLSPN/CCNB2/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/SGO1/CCNA2/PSMB2/RFC4/SKA2/ANAPC16/SGO2/MCM4/NUDC/PSMB3/PSMD14/MCM2/RFC2/SEC13/MCM7/SUMO1/BUB3/KIF2C/PMF1/RFC5/YWHAB/PPP2CB/NUF2/PSMD4/RHNO1/RMI2/UBB/PSMD7/UBE2N/RPA2/CENPK/CKAP5/MCM5/BLM/BARD1/CDC45/PSME1/CENPS/NDC80/CENPU/MCM10/PSMC5/CENPH/PPP2R5C/UBE2V2/RFC3/CENPE/PSMD13/ZWILCH/CENPO/ANAPC7/PSME3/SPDL1/ITGB3BP/PSMB6/PSMD12/RNF168/CHEK2/PSMD11/KNL1/RPA1/SPC24/TP53BP1/CDC16/YWHAZ/PSMF1/DYNC1LI1/PSMB4/MAPRE1/PHF20/MCM8/ZNF385A/PSMC2/RAD50/CENPQ/ORC4/RAD1/RCC2/ANAPC1/BUB1B/RANBP2/PSME4/PSMB1/PSMA6/NUP37/NUP43/XPO1/CDC23/MDC1/EXO1/CDC26/TOP3A/CENPC/CDC6/ERCC6L/RNF8/CDC25A/CDKN1B/CDK2/PCBP4/CENPT/RANGAP1/NDEL1/BRCA1/RFWD2/INCENP/BRCC3/MIS12/DYNLL2/NUP107/CDC25C/RAD17/PKMYT1/CENPL/CDCA8/UBE2D1/BUB1/NUP98/PSMB10/BRIP1/PSMB5/TAOK1/ORC3/PSMD9/UBC/PSMD10/PSMA3/B9D2/CENPP/UIMC1/MAD1L1/WEE1/HERC2/PPP2CA/PPP2R5A/PSMD1/CDC27/NSL1/CDKN1A/HIST1H2BD/DYNC1I1/HIST1H2BH/NBN/ANAPC10/KNTC1/HIST2H2BE/KAT5/BABAM1/SEH1L/ATM/HIST1H2BN/RMI1/KIF2A/PSMD8/ATR/TP53/ANAPC2/ORC2/PSMB7/DYNC1LI2/NUP160/SKA1/RAD9A/TOPBP1/PIAS4/HUS1/CLASP2/CENPI/DBF4/PSMD5/RBBP8/PSMA1/CDC7/PPP2R5B/PPP2R1B/CHEK1/PSMC1/PMF1-BGLAP/ZW10/MRE11/PAFAH1B1/MDM4/ORC1/DNA2/PSMC6/YWHAE/UBE2E1/ANAPC15/PSMD6/NDE1/PPP2R5D/HIST1H2BG/ANAPC5/NUP133/WRN/PSMD3/DSN1/NUP85/HIST1H4J/HIST1H4E/CDKN2A/HIST1H2BK/PSMD2/CCNE2/PSMA5/PPP2R5E/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST4H4/HIST1H2BJ/HIST1H2BC/MDM2/ANAPC4/KIF18A/SFN/HIST3H2BB/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/CCNA1/CLIP1/ORC5/AHCTF1/YWHAG/DYNC1I2/DYNC1H1/CCNE1/CLASP1/PSMA2</t>
+  </si>
+  <si>
+    <t>MRPL10/TUFM/MRPL32/MRPL16/MRPS25/MTRF1L/MRPL9/MRPS23/MRPS9/MRPS30/MRPL34/MRPL44/MRPS31/MRPS33/MRPS26/MRPL11/MRPS21/MRPL14/MRPL48/MRPS27/MRPL50/MRPL49/MRPL13/MRPL43/MRPL4/MRPL55/MRPS18C/MRPL17/MRPS6/MRPL57/MRPL1/AURKAIP1/MTIF2/MRPL36/MRPL19/MRPL35/MRPS11/PTCD3/MRPL15/MRPS10/MRPL42/MRPS14/MRPS15/MRPL18/MRPL47/MRPL3/MRPS36/ERAL1/MRPL39/MRPS34/MRPL2/MRPS18B/MRPS18A/MTIF3/MRPL37/TSFM/MRPL41/GADD45GIP1/MRPS5/MRPL33/MTFMT/MRPL52/MRPL46/MRPL21/MRPL23/MRPL12/MRPL30/MRPL27/MRPL51/MRPS7/MRPS17/MRPS16/MRPS35/MRPL28/MRPS28/CHCHD1/MRPL53/MRPL40/MRPL24/MRPL54/GFM2/GFM1/MRPS12/MRPS2/MRPL22/MRPS24/MRRF/MRPS22/DAP3/MRPL38/MRPL20/MRPL58</t>
+  </si>
+  <si>
+    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/YWHAH/ZWINT/CALM1/TUBA1A/MYL9/HIST1H4C/MAD2L1/PPP1CC/CENPF/ACTB/AURKB/TUBB4B/CALM2/RHOC/H2AFV/ARPC2/MYL6/MYH10/CDC20/CENPM/H2AFX/DYNLL1/CENPN/ARPC5/SPC25/GDI2/YWHAQ/PLK1/ARPC1B/FLNA/PPP2R1A/ARHGDIA/MYH9/CENPA/MYL12A/TUBB2A/PFN1/BRK1/DIAPH3/SGO1/ARHGAP24/SKA2/ITGB1/SGO2/PRC1/ARPC1A/TAX1BP3/NUDC/RAC3/MYL12B/SEC13/TUBB2B/BUB3/KIF2C/PMF1/YWHAB/ACTG1/PPP2CB/NUF2/CENPK/CKAP5/RAC1/PPP1CB/CENPS/NDC80/CENPU/CENPH/PPP2R5C/CDC42/ACTR3/H2AFJ/ACTR2/CENPE/AKAP13/ZWILCH/CENPO/SPDL1/ITGB3BP/CALM3/SRF/TRIP10/RACGAP1/ARHGAP35/KNL1/RHOB/SPC24/ECT2/PAK2/YWHAZ/KIF14/DYNC1LI1/WASL/MAPRE1/CYFIP2/KTN1/CDH1/ARHGAP29/TUBA1C/CENPQ/H3F3A/RCC2/NET1/BUB1B/RANBP2/ARHGAP18/NUP37/NUP43/XPO1/ARHGEF2/KDM1A/DIAPH1/CENPC/ARHGEF26/ERCC6L/MEN1/ARHGDIB/ARHGEF16/ARHGEF1/CDKN1B/CENPT/RANGAP1/NDEL1/ARPC4/INCENP/BCR/MIS12/PPP1R12A/ARHGAP12/CTTN/FAM13A/DYNLL2/GRB2/NCKIPSD/ARHGAP45/SRC/NUP107/CYBA/CDC25C/ROCK1/RHOF/ABI2/PPP1R14A/CENPL/CDCA8/RHOU/DEPDC1B/MYO9B/PKN3/BUB1/PKN1/CHN1/ARHGEF40/NUP98/INPP5B/FMNL2/TAOK1/CIT/DIAPH2/HIST2H2AC/PFN2/TUBA4A/RHOT2/RHOA/RHOT1/WIPF3/VAV3/WIPF2/ARHGAP21/ARHGAP8/ARHGEF39/SRGAP2/B9D2/ARHGAP11A/IQGAP1/CENPP/MAD1L1/IQGAP2/ARHGEF4/FGD4/PPP2CA/PPP2R5A/TRIO/FMNL3/HIST1H3B/ARHGAP11B/NSL1/ARHGAP1/ABI1/ABL1/DVL1/HIST1H2BD/WIPF1/DYNC1I1/ARHGAP26/KLC3/LIMK2/HIST1H2BH/GDI1/RHPN1/SRGAP1/KLC2/RHPN2/CTNNA1/NCOA2/PDPK1/MYO9A/ARHGAP17/FAM13B/OCRL/CTNNB1/ARHGAP44/ARHGAP10/SCAI/FGD1/KNTC1/HIST2H2BE/ARHGAP33/SEH1L/PIK3R4/HIST1H2BN/RHOQ/H3F3B/NCK1/ARHGEF7/NCKAP1/PKN2/PLEKHG2/ARAP1/LIN7B/PPP1R12B/KLC4/KIF2A/RHOBTB1/RAC2/WASF2/KALRN/RHOD/EHHADH/DVL3/DLC1/DAAM1/ARHGAP42/DYNC1LI2/NUP160/CYFIP1/SKA1/ARHGEF33/ARHGEF9/MAPK1/CLASP2/WAS/CENPI/ARHGEF19/ITSN1/ARHGAP22/PREX1/ARHGAP31/PIK3R2/NOXA1/ARHGAP32/BTK/FGD3/OPHN1/PPP2R5B/ARHGAP39/SOS2/PPP2R1B/TIAM2/PMF1-BGLAP/OBSCN/ZW10/PAFAH1B1/RALBP1/HIST1H2AE/ARHGAP9/HIST1H3A/ARHGAP19/ROCK2/TIAM1/YWHAE/WASF3/DEPDC7/RHOH/IQGAP3/ABR/MAPK3/ARPC3/NDE1/PPP2R5D/SOS1/HIST1H2BG/ARHGEF6/HIST1H3G/MCF2L/CHN2/PLEKHG5/PAK1/KLC1/NUP133/DVL2/GNA13/WASF1/BAIAP2/VAV2/ARHGAP25/NF2/ARHGAP23/MKL1/NCKAP1L/HIST1H3E/DSN1/RHOBTB2/ARHGEF12/NUP85/HIST1H4J/ARHGEF5/HIST1H4E/HIST1H2AC/ARAP3/ARHGAP4/HIST1H2AB/HIST1H2BK/STARD13/FMNL1/RHOV/SRGAP3/ARHGEF35/TUBB4A/PPP2R5E/RTKN/AR/HIST1H2BL/HIST1H2BE/HIST1H3F/ARHGAP15/HIST1H2BF/ARHGAP36/HIST1H3I/HIST1H3H/NOXO1/HIST4H4/KDM4C/ARHGEF37/ARHGEF11/ARHGEF3/HIST1H2BJ/HIST1H2BC/GMIP/KIF18A/SFN/HIST3H2BB/ARAP2/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/NCF1/CFTR/STARD8/PAK3/RHOJ/MYH14/ARHGEF10/ARHGEF17/CLIP1/ARHGEF15/ARHGDIG/NGEF/MYLK/ARHGEF10L/ARHGAP6/PIK3C3/ARHGAP5/AHCTF1/SYDE2/SYDE1/LIMK1/PTK2/YWHAG/DLG4/TUBB8/RHOG/DYNC1I2/DYNC1H1/CLASP1/EVL/GOPC/ARHGAP27/KIF5B</t>
+  </si>
+  <si>
+    <t>ACTB/RPA3/PCNA/POLR2L/UBA52/RFC4/RFC2/PARP1/SUMO1/POLR2J/RFC5/ACTL6A/POLE4/COPS5/UBB/UBE2N/RPA2/COPS3/RBX1/POLR2K/UBE2V2/RFC3/SUMO3/LIG1/HMGN1/POLR2F/DDB1/COPS2/TCEA1/RPA1/CHD1L/POLD2/POLD3/RFC1/POLR2A/PIAS1/POLE2/POLR2I/CCNH/CDK7/POLE/INO80C/SUMO2/COPS6/ZNF830/ERCC8/CUL4B/LIG3/TFPT/INO80E/MNAT1/POLK/COPS8/GTF2H5/PPIE/UBE2I/COPS7B/GPS1/COPS4/ISY1/XPA/ERCC3/POLE3/POLD1/POLR2E/YY1/UBC/ERCC2/AQR/POLR2C/PRPF19/ERCC4/XAB2/RAD23B/ERCC1/GTF2H2/CETN2/INO80/PARP2/PIAS3/ELL/INO80B/POLR2G/XPC/POLD4/POLR2D/COPS7A/RUVBL1/RAD23A/USP7/ERCC5/POLR2B/EP300/ACTR5/XRCC1/CUL4A/ACTR8/POLR2H/ERCC6/GTF2H4/NFRKB/DDB2/UVSSA/INO80D/GTF2H3/USP45/RNF111/MCRS1/GTF2H1</t>
+  </si>
+  <si>
+    <t>UBE2S/ANAPC11/UBE2C/CDC20/PSMC3/PSMC4/PSMA4/PSME2/WSB1/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/RNF7/UBE2A/UBE2D3/PSMD4/UBB/PSMD7/UBE2N/FBXO2/RBX1/PSME1/MKRN1/BLMH/PSMC5/RNF126/TPP2/UBE2V2/PSMD13/UBA1/SKP2/ANAPC7/PSME3/DZIP3/PSMB6/PSMD12/PSMD11/NPEPPS/CCNF/FBXO6/UBE2H/CDC16/TRIP12/UBE2D2/FBXO7/UBA3/PSMF1/RNF213/LTN1/PSMB4/LRR1/RNF4/RBCK1/PSMC2/ZBTB16/UNKL/MGRN1/RNF220/HERC4/UBE2E3/RNF34/ANAPC1/PSME4/FBXW5/PSMB1/PSMA6/PJA1/LRRC41/UBE3A/SPSB1/FBXO32/CDC23/CDC26/UBE3C/KLHL9/SIAH2/FBXW4/UBR2/UBR4/NEDD4L/FBXO9/FBXO44/UBE2R2/UBE2L3/CUL3/FBXL19/HERC1/UBE2G2/KEAP1/KLHL21/UBAC1/UBE2L6/UBE2D1/ZNRF1/TRAIP/FBXO17/KLHL25/ITCH/RBBP6/PSMB10/TRAF7/PSMB5/RNF41/KLHL5/SPSB4/CUL5/FBXW11/RNF114/PSMD9/KLHL42/GAN/CBLB/FBXL4/KBTBD6/UBC/FBXL20/PSMD10/ASB1/PSMA3/UBE3B/DCAF1/CUL7/HERC2/FBXW9/TRIM11/UBE2G1/LMO7/UBE2J1/BTBD1/SIAH1/MEX3C/PSMD1/CDC27/UBE2Z/FBXL7/HECTD3/FBXW2/MYLIP/LONRF1/ARIH2/UBE2B/HECTD1/FBXL3/LNX1/ANAPC10/FBXO22/FBXO11/VHL/FBXW7/FBXW8/FBXL5/TRIM39/TRIM71/RNF6/HACE1/ASB3/FBXO31/LRSAM1/DET1/PSMD8/RNF182/FBXO41/ANAPC2/RNF14/FBXL15/STUB1/SH3RF1/PSMB7/UBE2E2/KCTD6/KLHL2/TRIM37/CUL2/HECW2/SKP1/TRIM32/TRIM41/RCHY1/UBA5/CDC34/PSMD5/ANAPC13/KLHL20/WWP1/ATG7/KLHL22/KLHL13/PSMA1/TRIM69/FBXO30/HUWE1/UBE2O/PSMC1/PJA2/MIB2/FZR1/PSMC6/ASB9/HERC3/UBE2E1/RNF115/FBXL12/CUL1/PSMD6/AREL1/UBE2K/ZNRF2/SMURF2/KBTBD7/NEDD4/UBE2W/SPSB2/ANAPC5/RLIM/UBA6/KLHL3/PSMD3/FBXO15/BTRC/GLMN/KBTBD8/FBXL13/UBA7/HECTD2/TRIM21/RNF138/UBE2J2/ASB7/FBXL22/FBXL16/KLHL11/FBXL14/PSMD2/SOCS1/SMURF1/ASB8/PSMA5/FBXW12/TRIM4/ASB15/RNF19B/FBXO27/RNF25/ASB6/HERC6/HERC5/UBE2V1/KLHL41/TRIM36/RNF123/KCTD7/ANAPC4/UBOX5/DTX3L/TRIM9/ASB2/UBE2D4/ASB13/FBXO4/UBE2Q1/LNPEP/RNF217/RNF19A/RNF111/UBE3D/UBE2Q2/BTBD6/THOP1/UBE2M/UBE2F/UBR1/UFL1/FBXO10/FBXO21/SOCS3/PSMA2/UBE4A/RNF130</t>
+  </si>
+  <si>
+    <t>CKS1B/TYMS/ORC6/CCNB1/RPA3/PSMC3/DHFR/TK1/CDK1/PCNA/PSMC4/PPP2R1A/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/RRM2/CCNA2/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PPP2CB/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/CDC45/PSME1/CDK4/MCM10/PSMC5/MYC/PSMD13/MAX/SKP2/PSME3/PSMB6/PSMD12/AKT2/PSMD11/TFDP2/RPA1/CDT1/POLA2/PSMF1/PSMB4/POLE2/MCM8/PSMC2/CCNH/ORC4/CDK7/POLE/PSMB1/PSMA6/RBL2/CDC6/CDC25A/CCND1/TFDP1/CDKN1B/CDK2/E2F1/MNAT1/RB1/POLA1/AKT1/POLE3/PSMB10/PSMB5/E2F4/ORC3/PSMD9/RBBP4/UBC/PSMD10/PSMA3/FBXO5/WEE1/PPP2CA/AKT3/PSMD1/CDKN1A/HDAC1/LIN52/PSMD8/ORC2/PSMB7/SKP1/E2F6/DBF4/PSMD5/PRIM2/PSMA1/RBL1/CDC7/PPP2R1B/PSMC1/ORC1/LIN9/PSMC6/LIN37/CUL1/PSMD6/PRIM1/LIN54/PSMD3/PPP2R3B/PSMD2/CCNE2/PSMA5/RPA4/E2F5/PTK6/CCNA1/ORC5/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>MRPL10/MRPL32/MRPL16/MRPS25/MRPL9/MRPS23/MRPS9/MRPS30/MRPL34/MRPL44/MRPS31/MRPS33/MRPS26/MRPL11/MRPS21/MRPL14/MRPL48/MRPS27/MRPL50/MRPL49/MRPL13/MRPL43/MRPL4/MRPL55/MRPS18C/MRPL17/MRPS6/MRPL57/MRPL1/AURKAIP1/MTIF2/MRPL36/MRPL19/MRPL35/MRPS11/PTCD3/MRPL15/MRPS10/MRPL42/MRPS14/MRPS15/MRPL18/MRPL47/MRPL3/MRPS36/ERAL1/MRPL39/MRPS34/MRPL2/MRPS18B/MRPS18A/MTIF3/MRPL37/MRPL41/GADD45GIP1/MRPS5/MRPL33/MTFMT/MRPL52/MRPL46/MRPL21/MRPL23/MRPL12/MRPL30/MRPL27/MRPL51/MRPS7/MRPS17/MRPS16/MRPS35/MRPL28/MRPS28/CHCHD1/MRPL53/MRPL40/MRPL24/MRPL54/MRPS12/MRPS2/MRPL22/MRPS24/MRPS22/DAP3/MRPL38/MRPL20/MRPL58</t>
+  </si>
+  <si>
+    <t>MRPL10/TUFM/MRPL32/MRPL16/MRPS25/MRPL9/MRPS23/MRPS9/MRPS30/MRPL34/MRPL44/MRPS31/MRPS33/MRPS26/MRPL11/MRPS21/MRPL14/MRPL48/MRPS27/MRPL50/MRPL49/MRPL13/MRPL43/MRPL4/MRPL55/MRPS18C/MRPL17/MRPS6/MRPL57/MRPL1/AURKAIP1/MRPL36/MRPL19/MRPL35/MRPS11/PTCD3/MRPL15/MRPS10/MRPL42/MRPS14/MRPS15/MRPL18/MRPL47/MRPL3/MRPS36/ERAL1/MRPL39/MRPS34/MRPL2/MRPS18B/MRPS18A/MRPL37/TSFM/MRPL41/GADD45GIP1/MRPS5/MRPL33/MRPL52/MRPL46/MRPL21/MRPL23/MRPL12/MRPL30/MRPL27/MRPL51/MRPS7/MRPS17/MRPS16/MRPS35/MRPL28/MRPS28/CHCHD1/MRPL53/MRPL40/MRPL24/MRPL54/GFM1/MRPS12/MRPS2/MRPL22/MRPS24/MRPS22/DAP3/MRPL38/MRPL20/MRPL58</t>
+  </si>
+  <si>
+    <t>MRPL10/MRPL32/MRPL16/MRPS25/MTRF1L/MRPL9/MRPS23/MRPS9/MRPS30/MRPL34/MRPL44/MRPS31/MRPS33/MRPS26/MRPL11/MRPS21/MRPL14/MRPL48/MRPS27/MRPL50/MRPL49/MRPL13/MRPL43/MRPL4/MRPL55/MRPS18C/MRPL17/MRPS6/MRPL57/MRPL1/AURKAIP1/MRPL36/MRPL19/MRPL35/MRPS11/PTCD3/MRPL15/MRPS10/MRPL42/MRPS14/MRPS15/MRPL18/MRPL47/MRPL3/MRPS36/ERAL1/MRPL39/MRPS34/MRPL2/MRPS18B/MRPS18A/MRPL37/MRPL41/GADD45GIP1/MRPS5/MRPL33/MRPL52/MRPL46/MRPL21/MRPL23/MRPL12/MRPL30/MRPL27/MRPL51/MRPS7/MRPS17/MRPS16/MRPS35/MRPL28/MRPS28/CHCHD1/MRPL53/MRPL40/MRPL24/MRPL54/GFM2/MRPS12/MRPS2/MRPL22/MRPS24/MRRF/MRPS22/DAP3/MRPL38/MRPL20/MRPL58</t>
+  </si>
+  <si>
+    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/PLK1/PPP2R1A/TUBG1/DCTN3/AKAP9/CEP290/TMEM216/CKAP5/PCNT/HAUS8/ODF2/ACTR1A/TCTN1/DCTN2/CEP78/SEPT2/RAB8A/IQCB1/MAPRE1/HAUS1/CEP89/HAUS7/NEDD1/RAB3IP/NINL/SSNA1/CEP63/SCLT1/CSNK1E/CSNK1D/CC2D2A/HAUS2/MARK4/RAB11A/HAUS6/FGFR1OP/OFD1/TUBA4A/CNTRL/CEP76/B9D2/CEP41/HAUS4/FBF1/CEP97/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/B9D1/CEP57/CEP131/CEP83/CCP110/CEP70/KIF24/PCM1/CEP162/PLK4/HAUS5/DCTN1/C2CD3/TCTN3/CDK5RAP2/TCTN2/NPHP1/PAFAH1B1/MKS1/YWHAE/NDE1/RPGRIP1L/AHI1/PRKAR2B/TMEM67/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/CEP250/NPHP4/TTBK2/YWHAG/CEP72/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>RPP25/POP7/RAN/TP53RK/THG1L/RPP30/RTCB/LAGE3/POP4/HSD17B10/NUP62/URM1/EPRS/CPSF4/TSEN15/TRMT112/NUP93/METTL1/RANBP2/NUP88/NUP37/NUP43/TRMT1/PUS3/PUS7/NUP50/QTRT1/NUP35/RAE1/NUP107/TYW5/RPP21/NUP153/TPR/NUP98/TRMU/RPP38/FAM98B/FTSJ1/WDR4/KIAA1456/TRDMT1/TPRKB/OSGEP/TRIT1/TRMT6/TSEN2/ADAT1/TRMT13/NUP54/NDC1/QTRT2/POM121/SEH1L/TRMT10C/TRMT44/TRMT5/NUP214/THADA/RPP14/NUP160/TYW1/DDX1/DUS2/C2orf49/NUPL2/TSEN54/PUS1/CLP1/TSEN34/CDKAL1/NUP58/TRMT11/KIAA0391/CPSF1/TRMT12/NUP188/ADAT3/ALKBH8/NSUN6/MTO1/NUP205/ADAT2/GTPBP3/CSTF2/TYW3/NUP133/RPP40/LCMT2/TRMT61A/TRMT10A/XPOT/ELAC2/POP5/NUP85/CTU2/TRMT61B/NUP155/NSUN2/TRNT1/POP1/AAAS/NUP210/ZBTB8OS</t>
+  </si>
+  <si>
+    <t>RAB4A/GDI2/MAP1LC3B/RAB5C/RAB18/TRAPPC6A/DENND2C/TRAPPC1/TRAPPC2L/TRAPPC4/TRAPPC3/HPS1/RAB31/RABEP1/AKT2/RAB32/GABARAPL2/OPTN/RAB8A/RAB10/RAB7A/TBC1D20/RAB38/RAB3IP/RABGAP1/RAB11B/DENND5A/SYTL1/TBC1D7/RAB21/ST5/RAB11A/RAB13/GGA1/RAB14/RAB5B/TBC1D24/AKT1/RAB3GAP2/RGP1/CHM/DENND4B/ARF6/TRAPPC13/TRAPPC12/ULK1/RAB3IL1/AKT3/TBC1D14/RAB35/SBF1/GGA3/GDI1/TRAPPC2/TBC1D10A/TRAPPC11/RAB3A/RAB1A/TSC2/SBF2/DENND1A/TRAPPC6B/GAPVD1/TRAPPC8/DENND2A/TBC1D17/DENND4C/GGA2/RAB1B/TSC1/TRAPPC5/CHML/HPS4/RAB39B/TBC1D13/TBC1D16/RIN2/RAB6A/RAB5A/RIN3/RAB8B/YWHAE/TBC1D10B/GABARAP/DENND6B/RAB3GAP1/RAB9B/RAB39A/TBC1D25/DENND1C/MON1B/DENND5B/DENND6A/RIC1/ALS2CL/RINL/MON1A/TRAPPC9/RAB33B/DENND1B/TRAPPC10/RAB9A/MADD/RIN1/RAB33A/RAB6B/DENND2D/CCZ1B/TBC1D10C/RAB12/RAB27B/ANKRD27/TBC1D2/RAB27A/TBC1D15/DENND4A/CCZ1/ALS2/DENND3/RABGEF1</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/CENPF/TUBB4B/TUBB/CCNB1/PSMC3/LCMT1/GTSE1/DYNLL1/CDK1/HSP90AB1/TPX2/PLK1/PSMC4/PPP2R1A/TUBG1/CCNB2/PSMA4/TUBB2A/PSME2/PSMA7/UBA52/MZT1/CCNA2/PSMB2/MYBL2/FOXM1/DCTN3/PSMB3/AKAP9/PSMD14/TUBB2B/PPP2CB/PSMD4/CEP290/UBB/PSMD7/CKAP5/AURKA/RBX1/PSME1/PPP1CB/PSMC5/PCNT/HAUS8/CDK11B/PHLDA1/PSMD13/CDC25B/PSME3/HMMR/ODF2/PSMB6/ACTR1A/PSMD12/DCTN2/PSMD11/CEP78/PPP2R2A/OPTN/RAB8A/PSMF1/PSMB4/MAPRE1/HAUS1/PSMC2/TUBA1C/CCNH/HAUS7/CDK7/PSME4/PSMB1/PSMA6/NEDD1/XPO1/NINL/SSNA1/CEP63/CDC25A/CSNK1E/CSNK1D/CDK2/HAUS2/E2F1/MNAT1/PPP1R12A/HAUS6/CDC25C/TUBGCP5/TUBGCP2/E2F3/PKMYT1/FGFR1OP/PSMB10/TUBGCP4/PSMB5/FBXW11/OFD1/PSMD9/TUBA4A/RBBP4/CNTRL/CEP76/UBC/PSMD10/MZT2B/PSMA3/CEP41/HAUS4/WEE1/BORA/PPP2CA/MZT2A/PSMD1/NEK2/CDKN1A/FBXL7/CENPJ/CETN2/LIN52/CEP164/CEP152/SDCCAG8/TUBGCP3/CEP57/CEP131/PPP1R12B/CCP110/PSMD8/CEP70/TP53/PCM1/PSMB7/EHHADH/PLK4/HAUS5/SKP1/DCTN1/PSMD5/EP300/CDK5RAP2/TUBG2/PSMA1/PPP2R1B/PSMC1/PAFAH1B1/LIN9/PSMC6/PPME1/YWHAE/LIN37/CUL1/PSMD6/NDE1/LIN54/PRKAR2B/PSMD3/BTRC/PPP2R3B/CEP135/AJUBA/PSMD2/PRKACA/HAUS3/PSMA5/TUBB4A/CEP192/ALMS1/TUBGCP6/CEP250/CCNA1/FKBPL/YWHAG/CEP72/CDK11A/TUBB8/DYNC1I2/DYNC1H1/CLASP1/SFI1/PSMA2</t>
+  </si>
+  <si>
+    <t>CKS1B/GINS2/FEN1/ORC6/RPA3/PSMC3/PCNA/SMC1A/RAD21/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/RFC4/MCM4/PSMB3/PSMD14/MCM2/RFC2/MCM7/RFC5/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/GINS4/CDC45/PSME1/CDK4/SMC3/CDCA5/PSMC5/MYC/RFC3/PSMD13/STAG2/MAX/LIG1/SKP2/CDC25B/PSME3/PSMB6/PSMD12/PSMD11/TFDP2/RPA1/CDT1/POLA2/POLD2/PSMF1/POLD3/RFC1/PSMB4/POLE2/MCM8/PDS5B/PSMC2/CCNH/ORC4/CDK7/GINS1/POLE/PSME4/PSMB1/PSMA6/RBL2/CDC6/CDC25A/CCND1/TFDP1/CDKN1B/CDK2/E2F1/MNAT1/RB1/POLA1/ESCO2/POLE3/POLD1/PSMB10/PSMB5/E2F4/ORC3/PSMD9/RBBP4/UBC/PSMD10/PSMA3/WEE1/GINS3/PSMD1/CDKN1A/LIN52/PDS5A/ESCO1/POLD4/PSMD8/ORC2/STAG1/PSMB7/SKP1/PSMD5/PRIM2/PSMA1/PSMC1/ORC1/LIN9/DNA2/FZR1/PSMC6/LIN37/CUL1/PSMD6/PRIM1/LIN54/PSMD3/PSMD2/CCNE2/PSMA5/E2F5/PTK6/CCNA1/ORC5/CCNE1/PSMA2/WAPL</t>
+  </si>
+  <si>
+    <t>BIRC5/ZWINT/MAD2L1/PPP1CC/CENPF/AURKB/ANAPC11/UBE2C/CDC20/CENPM/DYNLL1/CENPN/SPC25/PLK1/PPP2R1A/CENPA/SGO1/SKA2/ANAPC16/SGO2/NUDC/SEC13/BUB3/KIF2C/PMF1/PPP2CB/NUF2/CENPK/CKAP5/CENPS/NDC80/CENPU/CENPH/PPP2R5C/CENPE/ZWILCH/CENPO/ANAPC7/SPDL1/ITGB3BP/KNL1/SPC24/CDC16/DYNC1LI1/MAPRE1/CENPQ/RCC2/ANAPC1/BUB1B/RANBP2/NUP37/NUP43/XPO1/CDC23/CDC26/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/UBE2D1/BUB1/NUP98/TAOK1/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/CDC27/NSL1/DYNC1I1/ANAPC10/KNTC1/SEH1L/KIF2A/ANAPC2/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/UBE2E1/ANAPC15/NDE1/PPP2R5D/ANAPC5/NUP133/DSN1/NUP85/PPP2R5E/ANAPC4/KIF18A/CLIP1/AHCTF1/DYNC1I2/DYNC1H1/CLASP1</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/CENPF/TUBB4B/TUBB/CCNB1/PSMC3/LCMT1/GTSE1/DYNLL1/CDK1/HSP90AB1/TPX2/PLK1/PSMC4/PPP2R1A/TUBG1/CCNB2/PSMA4/TUBB2A/PSME2/PSMA7/UBA52/MZT1/CCNA2/PSMB2/MYBL2/FOXM1/DCTN3/PSMB3/AKAP9/PSMD14/TUBB2B/PPP2CB/PSMD4/CEP290/UBB/PSMD7/CKAP5/AURKA/RBX1/PSME1/PPP1CB/PSMC5/PCNT/HAUS8/CDK11B/PHLDA1/PSMD13/CDC25B/PSME3/HMMR/ODF2/PSMB6/ACTR1A/PSMD12/DCTN2/PSMD11/CEP78/PPP2R2A/OPTN/RAB8A/PSMF1/PSMB4/MAPRE1/HAUS1/PSMC2/TUBA1C/CCNH/HAUS7/CDK7/PSME4/PSMB1/PSMA6/NEDD1/XPO1/NINL/SSNA1/CEP63/CDC25A/CSNK1E/CSNK1D/CDK2/HAUS2/MNAT1/PPP1R12A/HAUS6/CDC25C/TUBGCP5/TUBGCP2/PKMYT1/FGFR1OP/PSMB10/TUBGCP4/PSMB5/FBXW11/OFD1/PSMD9/TUBA4A/RBBP4/CNTRL/CEP76/UBC/PSMD10/MZT2B/PSMA3/CEP41/HAUS4/WEE1/BORA/PPP2CA/MZT2A/PSMD1/NEK2/CDKN1A/FBXL7/CENPJ/CETN2/LIN52/CEP164/CEP152/SDCCAG8/TUBGCP3/CEP57/CEP131/PPP1R12B/CCP110/PSMD8/CEP70/TP53/PCM1/PSMB7/EHHADH/PLK4/HAUS5/SKP1/DCTN1/PSMD5/EP300/CDK5RAP2/TUBG2/PSMA1/PPP2R1B/PSMC1/PAFAH1B1/LIN9/PSMC6/PPME1/YWHAE/LIN37/CUL1/PSMD6/NDE1/LIN54/PRKAR2B/PSMD3/BTRC/PPP2R3B/CEP135/AJUBA/PSMD2/PRKACA/HAUS3/PSMA5/TUBB4A/CEP192/ALMS1/TUBGCP6/CEP250/CCNA1/FKBPL/YWHAG/CEP72/CDK11A/TUBB8/DYNC1I2/DYNC1H1/CLASP1/SFI1/PSMA2</t>
+  </si>
+  <si>
+    <t>HLA-B/B2M/UBE2S/ANAPC11/UBE2C/CDC20/PSMC3/HLA-C/CTSL/PSMC4/HLA-E/PSMA4/PSME2/WSB1/PSMA7/UBA52/HLA-A/PSMB2/PSMB3/PSMD14/SEC13/RNF7/CALR/UBE2A/VAMP8/UBE2D3/PSMD4/UBB/PSMD7/UBE2N/FBXO2/RBX1/PSME1/MKRN1/HSPA5/BLMH/PSMC5/RNF126/TPP2/UBE2V2/PSMD13/UBA1/SKP2/ANAPC7/PSME3/DZIP3/PSMB6/PDIA3/PSMD12/ITGAV/BCAP31/PSMD11/NPEPPS/CCNF/FBXO6/UBE2H/CDC16/TRIP12/CANX/UBE2D2/FBXO7/UBA3/PSMF1/SEC31A/RNF213/LTN1/PSMB4/LRR1/RNF4/RBCK1/PSMC2/ZBTB16/UNKL/MGRN1/RNF220/HERC4/UBE2E3/RNF34/ANAPC1/PSME4/FBXW5/PSMB1/PSMA6/PJA1/LRRC41/UBE3A/SPSB1/FBXO32/CDC23/CDC26/UBE3C/KLHL9/SIAH2/FBXW4/UBR2/UBR4/NEDD4L/FBXO9/FBXO44/UBE2R2/UBE2L3/VAMP3/CUL3/FBXL19/HERC1/UBE2G2/CYBA/KEAP1/KLHL21/UBAC1/UBE2L6/UBE2D1/TLR4/ZNRF1/TRAIP/FBXO17/KLHL25/ITCH/RBBP6/PSMB10/TRAF7/PSMB5/RNF41/KLHL5/SPSB4/CUL5/FBXW11/RNF114/PSMD9/KLHL42/IKBKG/GAN/CBLB/FBXL4/KBTBD6/UBC/FBXL20/PSMD10/ASB1/PSMA3/UBE3B/DCAF1/CUL7/HERC2/FBXW9/TRIM11/UBE2G1/LMO7/UBE2J1/BTBD1/SIAH1/MEX3C/PSMD1/CDC27/UBE2Z/FBXL7/HECTD3/SEC61G/FBXW2/MYLIP/LONRF1/ARIH2/UBE2B/HECTD1/FBXL3/SEC61B/LNX1/ANAPC10/FBXO22/FBXO11/VHL/FBXW7/FBXW8/CTSV/FBXL5/TRIM39/IKBKB/SEC61A1/TRIM71/RNF6/HACE1/SEC22B/ASB3/FBXO31/LRSAM1/DET1/PSMD8/RNF182/FBXO41/STX4/ANAPC2/SAR1B/RNF14/FBXL15/STUB1/SH3RF1/PSMB7/UBE2E2/KCTD6/KLHL2/TRIM37/CUL2/HECW2/SKP1/TRIM32/TRIM41/RCHY1/UBA5/CDC34/PSMD5/ANAPC13/SEC24D/KLHL20/WWP1/ATG7/MYD88/KLHL22/KLHL13/PSMA1/BTK/TRIM69/FBXO30/HUWE1/UBE2O/PSMC1/PJA2/MIB2/MRC1/TIRAP/FZR1/PSMC6/ASB9/HERC3/UBE2E1/RNF115/FBXL12/CUL1/PSMD6/AREL1/UBE2K/ZNRF2/SMURF2/KBTBD7/NEDD4/SEC24B/UBE2W/SPSB2/ANAPC5/RLIM/UBA6/KLHL3/CHUK/SEC23A/PSMD3/SEC24C/FBXO15/BTRC/TAPBP/GLMN/KBTBD8/FBXL13/UBA7/HECTD2/TRIM21/MRC2/ITGB5/RNF138/UBE2J2/ASB7/FBXL22/FBXL16/KLHL11/FBXL14/PSMD2/SOCS1/SMURF1/SEC24A/ASB8/PSMA5/FBXW12/TRIM4/ASB15/RNF19B/FBXO27/SEC61A2/RNF25/ASB6/TLR6/CD36/HLA-G/TAP2/HERC6/HERC5/UBE2V1/KLHL41/TRIM36/RNF123/KCTD7/ANAPC4/UBOX5/ERAP1/DTX3L/ERAP2/NCF1/TRIM9/ASB2/UBE2D4/ASB13/FBXO4/UBE2Q1/LNPEP/RNF217/RNF19A/RNF111/UBE3D/UBE2Q2/BTBD6/THOP1/UBE2M/SNAP23/UBE2F/UBR1/UFL1/FBXO10/FBXO21/SOCS3/PSMA2/UBE4A/RNF130</t>
+  </si>
+  <si>
+    <t>CCNG1/AURKB/RPA3/CDK1/TPX2/PPP2R1A/UBA52/CCNA2/RFC4/RFC2/CSNK2B/RFC5/SUPT16H/PPP2CB/RHNO1/RMI2/UBB/RPA2/MEAF6/MLST8/AURKA/NUAK1/BLM/RBBP7/BARD1/TP53RK/PPP2R5C/RFC3/PRKAB2/PRKAG1/TAF12/MAPKAP1/AKT2/CHEK2/RPA1/CSNK2A2/PHF20/PRR5/ING2/ZNF385A/TAF9B/HIPK2/DAXX/RAD50/RAD1/RNF34/CDK5/EXO1/TOP3A/TTC5/PML/CDK2/BRCA1/CSNK2A1/PIN1/DYRK2/TP53BP2/PRMT5/PIP4K2B/TAF9/RAD17/MAP2K6/GATAD2B/AKT1/PRKAA1/RICTOR/MTOR/BRIP1/BRPF1/HDAC2/TAF7/RBBP4/STK11/UBC/GATAD2A/PRKAA2/TAF4/PPP2CA/AKT3/PRDM1/NOC2L/TAF6/SMYD2/PPP1R13B/SETD9/TAF10/HDAC1/HIPK1/NBN/PDPK1/MTA2/CHD3/SGK1/KAT5/BRD7/ATM/MAPK14/SSRP1/RMI1/TAF1/USP2/ATR/TP53/CDK5R1/KAT6A/MAPKAPK5/RAD9A/TAF13/USP7/TOPBP1/BRD1/HUS1/EP300/RBBP8/PRKAG2/TAF11/TAF3/PPP2R1B/CHEK1/MRE11/MDM4/DNA2/EHMT2/BRPF3/ING5/WRN/TP73/TAF5/RFFL/PIP4K2A/L3MBTL1/CDKN2A/MAPK11/TAF4B/TAF2/CHD4/BANP/PRKAB1/PIP4K2C/MDM2/TP53INP1/PLK3/ATRIP/CCNA1/KMT5A/MBD3/TBP/JMY/EHMT1/PPP1R13L</t>
+  </si>
+  <si>
+    <t>GDI2/RAB5C/RAB18/TRAPPC6A/DENND2C/TRAPPC1/TRAPPC2L/TRAPPC4/TRAPPC3/HPS1/RAB31/AKT2/RAB32/RAB8A/RAB10/RAB7A/RAB38/RAB3IP/DENND5A/RAB21/ST5/RAB13/RAB14/RAB5B/AKT1/RAB3GAP2/RGP1/CHM/DENND4B/TRAPPC13/TRAPPC12/ULK1/RAB3IL1/AKT3/RAB35/SBF1/GDI1/TRAPPC2/TRAPPC11/RAB3A/RAB1A/SBF2/DENND1A/TRAPPC6B/GAPVD1/TRAPPC8/DENND2A/DENND4C/RAB1B/TRAPPC5/CHML/HPS4/RAB39B/RIN2/RAB6A/RAB5A/RIN3/RAB8B/YWHAE/DENND6B/RAB3GAP1/RAB9B/RAB39A/DENND1C/MON1B/DENND5B/DENND6A/RIC1/ALS2CL/RINL/MON1A/TRAPPC9/DENND1B/TRAPPC10/RAB9A/MADD/RIN1/RAB6B/DENND2D/CCZ1B/RAB12/RAB27B/ANKRD27/RAB27A/DENND4A/CCZ1/ALS2/DENND3/RABGEF1</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/FGFR1/PSMC3/PSMC4/PPP2R1A/RHEB/JUN/PSMA4/PSME2/FGFR4/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/CSNK2B/PDGFRB/PPP2CB/PSMD4/IER3/UBB/PSMD7/MLST8/RBBP7/PRKAR1A/PSME1/MKRN1/LAMTOR1/PSMC5/PPP2R5C/CREB1/PSMD13/ERBB4/REST/SALL4/PSME3/RING1/MAPKAP1/CALM3/RRAGA/PSMB6/PSMD12/AKT2/PSMD11/RNF146/PTEN/MOV10/AHCYL1/PSMF1/PDGFRA/PSMB4/CSNK2A2/PRKCD/PRR5/PSMC2/MAF1/GSK3A/MTA3/PHC1/ERBB3/PSME4/PSMB1/PSMA6/AKT1S1/SCMH1/RNF2/KDM1A/PML/PRKAR2A/LAMTOR2/CDKN1B/CSNK2A1/WWP2/PIK3R1/GRB2/EED/SRC/PIP4K2B/HDAC3/SNAI2/ADCY3/FGFR2/FGF8/FGFR3/GATAD2B/USP13/AKT1/MTA1/MECOM/SNAI1/RICTOR/MTOR/GSK3B/PSMB10/PSMB5/HDAC2/BAD/PSMD9/INSR/TRIM27/RBBP4/UBC/PIK3CD/PSMD10/ATF2/PSMA3/GATAD2A/OTUD3/TNRC6A/PHC2/PPP2CA/TRIB3/AKT3/PPP2R5A/AGO1/FYN/PIP5K1C/PSMD1/CDKN1A/PIP5K1A/EZH2/HDAC1/LAMTOR5/EGR1/FGF10/PDPK1/PHC3/KIT/NRG2/MTA2/TNKS/CHD3/IRAK4/TSC2/ITPR1/ADCY7/TNRC6C/PLCG1/RRAGC/TNKS2/FOXO1/PSMD8/HDAC7/PTPN11/TP53/SUZ12/PDE1B/STUB1/ATN1/PSMB7/AGO4/ITPR3/PDGFA/ADCY1/USP7/RCOR1/NR4A1/TNRC6B/NRG1/FOXO4/MAPK1/CASP9/HBEGF/PSMD5/FGF2/PREX2/HDAC5/ADCY6/LAMTOR3/IRS1/PIK3R2/MYD88/PPARG/PSMA1/PPP2R5B/PIK3R3/RPTOR/PPP2R1B/PSMC1/FGF1/AGO2/PSMC6/RRAGD/CBX4/MAPK3/SLC38A9/PSMD6/PIK3CB/FGF17/PPP2R5D/XIAP/EGF/NEDD4/ITPR2/PRKAR2B/CHUK/IRAK1/PSMD3/KLB/PRKCE/MET/PRKAR1B/AGO3/FRS2/PRKCA/PRKACB/GAB1/PIP4K2A/PHLPP2/PSMD2/ERBB2/THEM4/ADCY2/PRKACA/PIK3CA/FOXO3/CHD4/PSMA5/EGFR/FGF23/PPP2R5E/PDE1C/PRKCG/FGF18/FGF9/LCK/FGF22/CAMK4/TRAF6/PIP4K2C/MDM2/PDGFB/PDE1A/ADCY5/IL1RAP/FRK/HGF/ADCY8/FGF19/PIK3AP1/ADCY4/NRG4/ADCY9/CD19/PIP5K1B/GRK2/MBD3/RRAGB/CBX6/FGF7/IRS2/KITLG/CBX2/CBX8/PHLPP1/LAMTOR4/BMI1/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/PTTG1/ZWINT/TUBA1A/MAD2L1/PPP1CC/CENPF/AURKB/TUBB4B/ANAPC11/UBE2C/CDC20/PSMC3/CENPM/DYNLL1/CENPN/SMC1A/SPC25/RAD21/PLK1/PSMC4/PPP2R1A/CENPA/PSMA4/TUBB2A/PSME2/LMNB1/PSMA7/VRK1/UBA52/SGO1/PSMB2/SKA2/ANAPC16/SGO2/NUDC/PSMB3/PSMD14/TMPO/SEC13/TUBB2B/BUB3/KIF2C/PMF1/PPP2CB/NUF2/PSMD4/UBB/PSMD7/CENPK/CKAP5/PSME1/CENPS/NDC80/SMC3/EMD/CDCA5/CENPU/PSMC5/CENPH/PPP2R5C/BANF1/CENPE/PSMD13/STAG2/ZWILCH/CENPO/ANAPC7/PSME3/SPDL1/ITGB3BP/PSMB6/PSMD12/PSMD11/KNL1/SPC24/CDC16/PPP2R2A/PSMF1/DYNC1LI1/PSMB4/MAPRE1/PDS5B/PSMC2/TUBA1C/CENPQ/RCC2/ANAPC1/BUB1B/LMNA/RANBP2/PSME4/PSMB1/PSMA6/NUP37/NUP43/XPO1/CDC23/CDC26/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/UBE2D1/BUB1/NUP98/PSMB10/PSMB5/TAOK1/PSMD9/TUBA4A/UBC/PSMD10/PSMA3/B9D2/CENPP/FBXO5/MAD1L1/PPP2CA/PPP2R5A/PSMD1/CDC27/NSL1/HDAC8/DYNC1I1/VRK2/ANAPC10/LEMD3/PDS5A/KNTC1/SEH1L/KIF2A/PSMD8/ANKLE2/ANAPC2/STAG1/PSMB7/EHHADH/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/ESPL1/PSMD5/PSMA1/PPP2R5B/PPP2R1B/PSMC1/PMF1-BGLAP/ZW10/PAFAH1B1/PSMC6/UBE2E1/ANAPC15/PSMD6/NDE1/PPP2R5D/ANAPC5/NUP133/PSMD3/DSN1/NUP85/PSMD2/PSMA5/TUBB4A/PPP2R5E/ANAPC4/KIF18A/CLIP1/LEMD2/AHCTF1/TUBB8/DYNC1I2/DYNC1H1/CLASP1/PSMA2/WAPL</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/PTTG1/ZWINT/TUBA1A/MAD2L1/PPP1CC/CENPF/AURKB/TUBB4B/ANAPC11/UBE2C/CDC20/PSMC3/CENPM/DYNLL1/CENPN/SMC1A/SPC25/RAD21/PLK1/PSMC4/PPP2R1A/CENPA/PSMA4/TUBB2A/PSME2/LMNB1/PSMA7/VRK1/UBA52/SGO1/PSMB2/SKA2/ANAPC16/SGO2/NUDC/PSMB3/PSMD14/TMPO/SEC13/TUBB2B/BUB3/KIF2C/PMF1/PPP2CB/NUF2/PSMD4/UBB/PSMD7/CENPK/CKAP5/PSME1/CENPS/NDC80/SMC3/EMD/CDCA5/CENPU/PSMC5/CENPH/PPP2R5C/BANF1/CENPE/PSMD13/STAG2/ZWILCH/CENPO/ANAPC7/PSME3/SPDL1/ITGB3BP/PSMB6/PSMD12/PSMD11/KNL1/SPC24/CDC16/PPP2R2A/PSMF1/DYNC1LI1/PSMB4/MAPRE1/PDS5B/PSMC2/TUBA1C/CENPQ/RCC2/ANAPC1/BUB1B/LMNA/RANBP2/PSME4/PSMB1/PSMA6/NUP37/NUP43/XPO1/CDC23/CDC26/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/UBE2D1/BUB1/NUP98/PSMB10/PSMB5/TAOK1/PSMD9/TUBA4A/UBC/PSMD10/PSMA3/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/PSMD1/CDC27/NSL1/HDAC8/DYNC1I1/VRK2/ANAPC10/LEMD3/PDS5A/KNTC1/SEH1L/KIF2A/PSMD8/ANKLE2/ANAPC2/STAG1/PSMB7/EHHADH/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/ESPL1/PSMD5/PSMA1/PPP2R5B/PPP2R1B/PSMC1/PMF1-BGLAP/ZW10/PAFAH1B1/PSMC6/UBE2E1/ANAPC15/PSMD6/NDE1/PPP2R5D/ANAPC5/NUP133/PSMD3/DSN1/NUP85/PSMD2/PSMA5/TUBB4A/PPP2R5E/ANAPC4/KIF18A/CLIP1/LEMD2/AHCTF1/TUBB8/DYNC1I2/DYNC1H1/CLASP1/PSMA2/WAPL</t>
+  </si>
+  <si>
+    <t>ACTB/RPA3/PCNA/UBA52/RFC4/RFC2/PARP1/SUMO1/RFC5/ACTL6A/POLE4/COPS5/UBB/UBE2N/RPA2/COPS3/RBX1/UBE2V2/RFC3/SUMO3/LIG1/DDB1/COPS2/RPA1/CHD1L/POLD2/POLD3/RFC1/PIAS1/POLE2/CCNH/CDK7/POLE/INO80C/SUMO2/COPS6/CUL4B/LIG3/TFPT/INO80E/MNAT1/POLK/COPS8/GTF2H5/UBE2I/COPS7B/GPS1/COPS4/XPA/ERCC3/POLE3/POLD1/YY1/UBC/ERCC2/ERCC4/RAD23B/ERCC1/GTF2H2/CETN2/INO80/PARP2/PIAS3/INO80B/XPC/POLD4/COPS7A/RUVBL1/RAD23A/ERCC5/ACTR5/XRCC1/CUL4A/ACTR8/GTF2H4/NFRKB/DDB2/INO80D/GTF2H3/USP45/RNF111/MCRS1/GTF2H1</t>
+  </si>
+  <si>
+    <t>AP1M2/HSPA8/FTL/CLTB/FTH1/RAB5C/APP/VAMP8/CLTA/BLOC1S6/BLOC1S1/CHMP2A/ARF1/BLOC1S4/SNX5/TPD52L1/AP1S2/PUM1/PICALM/TPD52/AP1S1/SORT1/VAMP2/AP4S1/DNASE2/AP3S1/M6PR/IGF2R/SNX9/ARRB1/CLINT1/TFRC/CLVS2/GBF1/GOLGB1/CLTC/AP1M1/OCRL/SH3D19/HGS/DTNBP1/AP1G1/GNS/AP4E1/STX4/AP1G2/DNM2/AP4M1/SH3GL2/NAPA/NECAP1/SNX2/AP1S3/TGOLN2/GAK/AP1B1/AP3B1/HIP1R/CLVS1/TBC1D8B/AP4B1/TXNDC5/DNAJC6/CPD/BLOC1S3/ACBD3/PIK3C2A/YIPF6/SNAP23/SNAPIN/CTSZ/VAMP7</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DYNLL1/TUBB2A/RAB18/DCTN3/KIF22/TUBB2B/TMED9/KIF2C/KIF23/PAFAH1B3/SURF4/KIF20A/KIF20B/ARF1/ARF4/TMED10/DCTN5/CENPE/CAPZA1/KIF4A/CUX1/ACTR1A/RHOBTB3/KIFAP3/RACGAP1/DCTN2/TMED3/SCOC/KIFC1/TMED2/STX5/COPB1/KIF3C/DYNC1LI1/MAN2A1/ARFIP2/ARF5/GOLGA4/KIF26B/COG4/TUBA1C/KIF9/KIF12/MAN1A2/GALNT1/COPB2/YKT6/NAA35/KIF21A/BICD1/CAPZA2/VPS53/GCC2/CAPZB/GOSR2/NAA38/M6PR/IGF2R/VAMP3/DYNLL2/GOSR1/TMED7/KIF15/GOLIM4/VPS51/MAN1A1/KIF18B/DCTN6/ARFGAP3/COPA/RAB3GAP2/RGP1/KIF11/CYTH2/DCTN4/NAA30/TUBA4A/ARF3/VPS52/RABEPK/GBF1/STX18/ARFGAP1/ARFGAP2/TRIP11/KIF1B/COG5/VPS45/GOLGA5/STX10/STX16/NAPB/KIF26A/DYNC1I1/KIFC2/KLC3/KDELR2/COG8/BICD2/COG6/KLC2/KIF3B/RAB1A/STX6/ARL1/NBAS/KIF13B/SEC22B/KLC4/KIF2A/CYTH3/EHHADH/DYNC1LI2/TMF1/SYS1/NSF/BNIP1/RINT1/CYTH1/PLIN3/RAB1B/DCTN1/USE1/COPE/NAPA/GCC1/KIF16B/KIF3A/COPZ2/COG1/VTI1A/RAB6A/ACTR10/COPG2/ZW10/PAFAH1B1/KIF27/PLA2G6/MAN2A2/RAB3GAP1/RAB9B/RAB39A/USP6NL/COG2/COG7/TGOLN2/KLC1/RIC1/COPZ1/RAB33B/AGPAT3/RAB30/KIF1C/ARFRP1/COPG1/KIF1A/RAB9A/TUBB4A/KIF19/BET1L/SNAP29/GOLGA1/KIF25/KIF18A/VPS54/KIF21B/RAB6B/RAB36/KIF6/COG3/MAN1C1/VAMP4/NAPG/GALNT2/TUBB8/DYNC1I2/DYNC1H1/PAFAH1B2/KIF5B/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/PLK1/PPP2R1A/TUBG1/MZT1/DCTN3/AKAP9/CEP290/CKAP5/PCNT/HAUS8/CDK11B/ODF2/ACTR1A/DCTN2/CEP78/MAPRE1/HAUS1/HAUS7/NEDD1/NINL/SSNA1/CEP63/CSNK1E/CSNK1D/HAUS2/HAUS6/TUBGCP5/TUBGCP2/FGFR1OP/TUBGCP4/OFD1/TUBA4A/CNTRL/CEP76/MZT2B/CEP41/HAUS4/MZT2A/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/TUBGCP3/CEP57/CEP131/CCP110/CEP70/PCM1/PLK4/HAUS5/DCTN1/CDK5RAP2/TUBG2/PAFAH1B1/YWHAE/NDE1/PRKAR2B/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/TUBGCP6/CEP250/YWHAG/CEP72/CDK11A/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>B2M/NPM1/SLC25A6/FEN1/AP1M2/RANBP1/PSMC3/PSIP1/PSMC4/POLR2L/PSMA4/PSME2/PSMA7/UBA52/CXCR4/PSMB2/PPIA/SUPT4H1/PSMB3/PSMD14/RAN/GTF2A2/AP2S1/CHMP4B/GTF2F2/POLR2J/GTF2F1/SUPT16H/KPNB1/PSMD4/UBB/PSMD7/RAC1/SLC25A5/RBX1/PSME1/NELFA/CHMP2A/ARF1/HMGA1/NCBP2/ELMO1/PSMC5/AP2M1/XRCC6/BANF1/POLR2K/PSMD13/LIG1/TAF12/PDCD6IP/PSME3/POLR2F/PSMB6/NUP62/PSMD12/AP2A1/NELFE/PSMD11/TCEA1/AP1S2/CHMP5/XRCC5/PAK2/CHMP7/PSMF1/POLR2A/PSMB4/POLR2I/TAF9B/PSMC2/CDK9/CCNH/RNMT/CDK7/NUP93/AP1S1/VPS37A/RANBP2/PSME4/PSMB1/NUP88/PSMA6/UBAP1/NUP37/NCBP1/NUP43/XPO1/CTDP1/RCC1/NUP50/RANGAP1/NEDD4L/MVB12B/MNAT1/APOBEC3G/NUP35/GTF2H5/RAE1/NUP107/VTA1/TAF9/XRCC4/NUP153/ERCC3/TPR/CHMP4C/NUP98/PSMB10/PSMB5/CUL5/TAF7/PSMD9/GTF2B/GTF2E2/POLR2E/CCNT2/UBC/CHMP2B/PSMD10/FURIN/PSMA3/ERCC2/CHMP3/POLR2C/TAF4/TAF6/FYN/PSMD1/TAF10/GTF2H2/TSG101/AP1M1/NUP54/GTF2E1/ELL/NELFCD/NDC1/SUPT5H/POM121/SEH1L/NELFB/CHMP4A/POLR2G/AP1G1/SSRP1/NUP214/PSMD8/TAF1/AP2A2/PSMB7/VPS37D/VPS37C/POLR2D/NUP160/SLC25A4/VPS28/SKP1/TAF13/NUPL2/POLR2B/PSMD5/TAF11/CCNT1/KPNA1/PACS1/MVB12A/TAF3/NUP58/PSMA1/PSMC1/RNGTT/PSMC6/NUP188/POLR2H/AP2B1/PSMD6/ATP6V1H/CHMP6/AP1S3/NUP205/NUP133/PSMD3/BTRC/GTF2H4/TAF5/NUP85/AP1B1/PSMD2/CCNK/TAF4B/TAF2/LIG4/PSMA5/NUP155/CD4/DOCK2/LCK/VPS37B/GTF2H3/TBP/CD247/NMT2/AAAS/NUP210/VPS4A/GTF2A1/VPS4B/PSMA2/GTF2H1/NMT1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/RHEB/JUN/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/CSNK2B/PSMD4/UBB/PSMD7/MLST8/RBBP7/PSME1/MKRN1/LAMTOR1/PSMC5/PSMD13/REST/SALL4/PSME3/RING1/RRAGA/PSMB6/PSMD12/AKT2/PSMD11/RNF146/PTEN/MOV10/PSMF1/PSMB4/CSNK2A2/PSMC2/MAF1/MTA3/PHC1/PSME4/PSMB1/PSMA6/SCMH1/RNF2/KDM1A/PML/LAMTOR2/CSNK2A1/WWP2/EED/HDAC3/SNAI2/GATAD2B/USP13/AKT1/MTA1/MECOM/SNAI1/MTOR/PSMB10/PSMB5/HDAC2/PSMD9/TRIM27/RBBP4/UBC/PSMD10/ATF2/PSMA3/GATAD2A/OTUD3/TNRC6A/PHC2/AKT3/AGO1/PSMD1/EZH2/HDAC1/LAMTOR5/EGR1/PHC3/MTA2/TNKS/CHD3/TNRC6C/RRAGC/TNKS2/PSMD8/HDAC7/TP53/SUZ12/STUB1/ATN1/PSMB7/AGO4/USP7/RCOR1/TNRC6B/MAPK1/PSMD5/PREX2/HDAC5/LAMTOR3/PPARG/PSMA1/RPTOR/PSMC1/AGO2/PSMC6/RRAGD/CBX4/MAPK3/SLC38A9/PSMD6/XIAP/NEDD4/PSMD3/AGO3/PSMD2/CHD4/PSMA5/FRK/MBD3/RRAGB/CBX6/CBX2/CBX8/LAMTOR4/BMI1/PSMA2</t>
+  </si>
+  <si>
+    <t>APOA1/APOA2/FDFT1/ANKRD1/CTGF/FADS1/HMGCS2/CCNC/MED19/PLIN2/MED6/MED25/MED28/MED13L/RORA/TXNRD1/ACADM/MED17/MED27/NCOR2/MED31/NCOR1/THRAP3/FABP1/CARM1/MED22/TBL1XR1/TEAD3/ESRRA/MED24/TGS1/MED15/ARNT2/MED29/HDAC3/WWTR1/CREBBP/ABCA1/TBL1X/TEAD2/NFYC/HMGCR/RXRA/HMGCS1/G0S2/MED8/CPT2/TRIB3/MED13/ANGPTL4/SP1/CDK19/MED1/NCOA2/MED14/NFYB/MED30/SMARCD3/NCOA6/NCOA1/MED10/AHRR/ARNT/MED20/FHL2/CHD9/MED16/PEX11A/MED21/MED7/MED9/ACOX1/MED12/ARNTL/EP300/TEAD1/AGT/MED11/PPARG/TIAM2/SREBF2/ACSL1/SREBF1/SIN3B/PPARGC1B/ALAS1/HELZ2/YAP1/FAM120B/RGL1/ABCB4/PPARA/SLC27A1/MED18/MED4/NR1D1/TEAD4/CPT1A/MED23/ME1/NCOA3/CYP4A11/PPARGC1A/CD36/GLIPR1/NFYA/TNFRSF21/CYP1A1/CLOCK/AHR/GRHL1/NRF1/MED26/MTF1/CDK8/SIN3A</t>
+  </si>
+  <si>
+    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/CCNB1/DYNLL1/CDK1/PLK1/PPP2R1A/TUBG1/CCNB2/UBA52/DCTN3/AKAP9/CEP290/UBB/CKAP5/AURKA/PPP1CB/PCNT/HAUS8/ODF2/ACTR1A/DCTN2/CEP78/OPTN/RAB8A/MAPRE1/HAUS1/HAUS7/NEDD1/NINL/SSNA1/CEP63/CSNK1E/CSNK1D/HAUS2/PPP1R12A/HAUS6/FGFR1OP/FBXW11/OFD1/TUBA4A/CNTRL/CEP76/UBC/CEP41/HAUS4/BORA/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/CEP57/CEP131/PPP1R12B/CCP110/CEP70/PCM1/PLK4/HAUS5/SKP1/DCTN1/CDK5RAP2/PAFAH1B1/YWHAE/CUL1/NDE1/PRKAR2B/BTRC/CEP135/AJUBA/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/CEP250/YWHAG/CEP72/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>HSP90AA1/EEF1A1/RPA3/HSP90AB1/HSPA8/FKBP4/HSPA1A/ST13/VCP/HSPA2/RPA2/MLST8/HSBP1/HSPA5/NUP62/RPA1/DNAJB1/PTGES3/CCAR2/BAG3/DNAJB6/NUP93/RANBP2/NUP88/BAG2/AKT1S1/NUP37/NUP43/NUP50/BAG4/HSPA4/NUP35/HSPA14/RAE1/NUP107/CREBBP/HSF1/NUP153/CAMK2D/TPR/NUP98/MTOR/GSK3B/HSPA1B/CRYAB/CAMK2A/HDAC6/HSPH1/CAMK2G/SIRT1/NUP54/NDC1/POM121/SEH1L/ATM/HSPA9/DNAJC7/NUP214/ATR/HSPA13/NUP160/NUPL2/MAPK1/HSPA12B/EP300/HSPB8/NUP58/DNAJC2/RPTOR/HSPA12A/YWHAE/NUP188/HSPA4L/MAPK3/BAG5/MAPKAPK2/NUP205/NUP133/CAMK2B/NUP85/HIKESHI/NUP155/HSPA1L/AAAS/NUP210/BAG1</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/PTTG1/ZWINT/TUBA1A/MAD2L1/PPP1CC/CENPF/AURKB/TUBB4B/ANAPC11/UBE2C/CDC20/PSMC3/CENPM/DYNLL1/CENPN/SMC1A/SPC25/RAD21/PLK1/PSMC4/PPP2R1A/CENPA/PSMA4/TUBB2A/PSME2/PSMA7/UBA52/SGO1/PSMB2/SKA2/ANAPC16/SGO2/NUDC/PSMB3/PSMD14/SEC13/TUBB2B/BUB3/KIF2C/PMF1/PPP2CB/NUF2/PSMD4/UBB/PSMD7/CENPK/CKAP5/PSME1/CENPS/NDC80/SMC3/CDCA5/CENPU/PSMC5/CENPH/PPP2R5C/CENPE/PSMD13/STAG2/ZWILCH/CENPO/ANAPC7/PSME3/SPDL1/ITGB3BP/PSMB6/PSMD12/PSMD11/KNL1/SPC24/CDC16/PSMF1/DYNC1LI1/PSMB4/MAPRE1/PDS5B/PSMC2/TUBA1C/CENPQ/RCC2/ANAPC1/BUB1B/RANBP2/PSME4/PSMB1/PSMA6/NUP37/NUP43/XPO1/CDC23/CDC26/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/UBE2D1/BUB1/NUP98/PSMB10/PSMB5/TAOK1/PSMD9/TUBA4A/UBC/PSMD10/PSMA3/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/PSMD1/CDC27/NSL1/HDAC8/DYNC1I1/ANAPC10/PDS5A/KNTC1/SEH1L/KIF2A/PSMD8/ANAPC2/STAG1/PSMB7/EHHADH/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/ESPL1/PSMD5/PSMA1/PPP2R5B/PPP2R1B/PSMC1/PMF1-BGLAP/ZW10/PAFAH1B1/PSMC6/UBE2E1/ANAPC15/PSMD6/NDE1/PPP2R5D/ANAPC5/NUP133/PSMD3/DSN1/NUP85/PSMD2/PSMA5/TUBB4A/PPP2R5E/ANAPC4/KIF18A/CLIP1/AHCTF1/TUBB8/DYNC1I2/DYNC1H1/CLASP1/PSMA2/WAPL</t>
+  </si>
+  <si>
+    <t>BIRC5/ZWINT/MAD2L1/PPP1CC/CENPF/AURKB/CDC20/CENPM/DYNLL1/CENPN/SPC25/PLK1/PPP2R1A/CENPA/SGO1/SKA2/SGO2/NUDC/SEC13/BUB3/KIF2C/PMF1/PPP2CB/NUF2/CENPK/CKAP5/CENPS/NDC80/CENPU/CENPH/PPP2R5C/CENPE/ZWILCH/CENPO/SPDL1/ITGB3BP/KNL1/SPC24/DYNC1LI1/MAPRE1/CENPQ/RCC2/BUB1B/RANBP2/NUP37/NUP43/XPO1/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/BUB1/NUP98/TAOK1/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/NSL1/DYNC1I1/KNTC1/SEH1L/KIF2A/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/NDE1/PPP2R5D/NUP133/DSN1/NUP85/PPP2R5E/KIF18A/CLIP1/AHCTF1/DYNC1I2/DYNC1H1/CLASP1</t>
+  </si>
+  <si>
+    <t>CALM1/VCAN/TKT/CALM2/AKR1B1/LUM/AKR1A1/PPP2R1A/PFKP/PGLS/MDH2/PGP/UBA52/PGM1/PGAM1/GAPDH/B4GALT4/HEXB/SLC37A4/PPP2CB/UBB/SDC2/GPC3/GOT1/GNPDA1/PGD/HMMR/CHPF2/CALM3/NUP62/HK1/HAS2/ENO3/DCXR/ALDOA/B4GALT2/PFKM/CHST12/GUSB/GALT/CHST9/CHPF/ADPGK/NUP93/RANBP2/B4GALT3/NUP88/PCK2/SLC35B2/NUP37/SLC2A1/CD44/NUP43/UGP2/EXT1/GALK1/BGN/HYAL2/B3GAT3/NUP50/EXT2/ENO2/DERA/PFKFB3/DSE/GALE/HEXA/PKM/PHKB/NUP35/B3GNT2/RAE1/SLC25A11/NUP107/IDS/GCK/PGAM2/PYGL/AGRN/GLYCTK/CHST13/NUP153/RPIA/GPC6/B4GALT1/PRPS2/TPR/NUP98/CHST3/ST3GAL1/GLB1/PGM2L1/ENO1/SLC35D2/UBC/ST3GAL4/CHP1/FBP1/MANBA/MDH1/SLC25A10/RBKS/PPP2CA/NDST1/HSPG2/GLCE/GAA/GYG2/SLC35B3/SLC37A1/GPC1/NUP54/PRPS1/PHKA1/PPP1R3C/PGM2/NDC1/GNPDA2/TALDO1/PFKL/CHST7/POM121/SEH1L/GALNS/FBP2/SLC25A12/TPI1/GNS/UST/HYAL1/NUP214/HS3ST1/XYLB/GPC4/HYAL3/MAN2B2/GYG1/TKFC/SORD/HS3ST3A1/PAPSS1/NUP160/GPC2/PFKFB2/CRYL1/HK2/NUPL2/AGL/B3GAT2/MAN2B1/B4GALT5/NAGLU/G6PC3/SDC3/HGSNAT/SLC25A1/SGSH/CHSY1/NUP58/PHKG1/CHST15/B3GALT6/GPI/CSGALNACT2/PPP2R1B/MAN2C1/B4GAT1/DSEL/FMOD/NUP188/GLB1L/XYLT1/BPGM/PYGB/SDC4/ST3GAL2/ABCC5/ST3GAL3/PPP2R5D/CSPG5/CSGALNACT1/NUP205/B4GALT7/PGK1/HS6ST3/SLC26A1/XYLT2/GOT2/NUP133/SDC1/CHST11/SLC9A1/HAS1/HS2ST1/GBE1/CHST6/NUP85/PRKACB/PRELP/ST3GAL6/PRKACA/CHST1/PHKG2/NUP155/HAS3/GCKR/SLC37A2/B3GNT4/B3GAT1/PFKFB4/B3GNT7/HPSE2/ALDH1A1/CHST2/SLC26A2/B4GALT6/EPM2A/PAPSS2/PC/BCAN/PFKFB1/NDST2/RPEL1/CSPG4/CEMIP/HS3ST4/HS3ST3B1/HS6ST1/CHST14/SHPK/GYS1/PHKA2/IDUA/ARSB/AAAS/NUP210/RPE/KHK/PYGM/HS3ST5/HS6ST2/SLC25A13/G6PD/ALDOC</t>
+  </si>
+  <si>
+    <t>H2AFZ/TUBA1B/TUBB6/TUBA1A/IGFBP7/HSP90AA1/HIST1H4C/DNAJA1/TUBB4B/ANAPC11/UBE2C/H2AFV/EEF1A1/RPA3/PSMC3/H2AFX/H1F0/TERF1/DYNLL1/HSP90AB1/ID1/PSMC4/HSPA8/JUN/CDK6/PSMA4/TUBB2A/PSME2/LMNB1/FKBP4/PSMA7/HSPA1A/UBA52/STIP1/ST13/CCNA2/PRDX6/PSMB2/ANAPC16/DCTN3/PSMB3/PSMD14/TUBB2B/VCP/HSPA2/UBE2D3/PSMD4/UBB/PSMD7/RPA2/MLST8/MAP2K3/HSBP1/HIST1H1D/RBBP7/RBX1/PSME1/CDK4/TXN2/HSPA5/HMGA1/TXN/PSMC5/DCTN5/CABIN1/H2AFJ/PSMD13/CAPZA1/ATOX1/ANAPC7/PSME3/RING1/PRDX1/HIGD1A/PSMB6/NUP62/ACTR1A/PSMD12/DCTN2/PSMD11/EGLN2/TFDP2/RPA1/ACD/PRDX3/DNAJB1/NUDT2/P4HB/CDC16/MOV10/PTGES3/UBE2D2/CCAR2/PRDX5/PSMF1/GPX7/SOD3/TXNRD1/DYNC1LI1/MAPK10/PSMB4/HIF3A/HIST1H1E/HMGA2/BAG3/MAPK7/PSMC2/TUBA1C/DNAJB6/RAD50/H3F3A/PHC1/DNAJA2/ANAPC1/NUP93/CYCS/RANBP2/PSME4/PSMB1/NUP88/ETS2/PSMA6/BAG2/AKT1S1/NUP37/SCMH1/NUP43/RNF2/CDC23/CDC26/HIRA/CAPZA2/TFDP1/NUP50/BAG4/CDKN1B/CDK2/EGLN1/CAPZB/E2F1/HIST1H1B/HSPA4/MAP2K7/GPX3/DYNLL2/RB1/TINF2/ERO1A/NUP35/HSPA14/RAE1/EED/NUP107/CYBA/CREBBP/FKBP5/HIF1AN/E2F3/HSF1/MAP2K6/DCTN6/UBE2D1/SOD1/NUP153/CAMK2D/TPR/CDKN2D/NUP98/MTOR/GSK3B/HSPA1B/PSMB10/MAPK8/CRYAB/PSMB5/DCTN4/HIST2H2AC/STAT3/PSMD9/TUBA4A/RBBP4/ERF/MAP2K4/TXNRD2/UBC/CAMK2A/RELA/PSMD10/MAP4K4/CCS/PSMA3/NFKB1/TNRC6A/PHC2/HDAC6/ETS1/MAPKAPK3/AGO1/HSPH1/PSMD1/CAMK2G/HIST1H3B/CDC27/CDKN1A/SP1/EZH2/GSR/HIST1H2BD/DYNC1I1/HIST1H2BH/NBN/SIRT1/GPX8/GSTP1/SOD2/NUP54/TERF2IP/GPX1/ANAPC10/PHC3/VHL/NDC1/CDKN2B/UBN1/HIST2H2BE/KAT5/POM121/SEH1L/ATM/HIST1H2BN/HSPA9/WTIP/H3F3B/TNRC6C/MAPK14/FOS/ARNT/EPAS1/DNAJC7/NUP214/PSMD8/ATR/TP53/SUZ12/CEBPB/ANAPC2/HSPA13/MAPKAPK5/PSMB7/EHHADH/AGO4/CUL2/DYNC1LI2/NUP160/VEGFA/TNRC6B/NUPL2/MAPK1/HSPA12B/DCTN1/CAT/PSMD5/EP300/EP400/HSPB8/NUP58/DNAJC2/PSMA1/KDM6B/RPTOR/HSPA12A/ACTR10/PSMC1/EGLN3/MRE11/MDM4/HIST1H2AE/HIST1H3A/FZR1/PSMC6/YWHAE/NUP188/HSPA4L/CBX4/MAPK3/UBE2E1/E2F2/ANAPC15/BAG5/MAPKAPK2/PSMD6/HIST1H2BG/HIST1H3G/NUP205/ANAPC5/EHMT2/NUP133/NR3C1/PSMD3/MAPK9/CAMK2B/PGR/EPO/HIST1H3E/HIST1H1C/AGO3/NUP85/HIST1H4J/HIST1H4E/TNIK/HIST1H2AC/CDKN2A/MAPK11/HIST1H2AB/HIST1H2BK/HIKESHI/AJUBA/PSMD2/CCNE2/HIF1A/PSMA5/NUP155/CA9/TUBB4A/CITED2/AR/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/IL6/HIST4H4/NOX4/HIST1H2BJ/HIST1H2BC/MDM2/POT1/ANAPC4/GPX2/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/MAP3K5/NCF1/CCNA1/LIMD1/DNAJA4/HSPA1L/MINK1/CBX6/AAAS/NUP210/TERF2/TUBB8/EHMT1/DYNC1I2/DYNC1H1/CCNE1/ASF1A/CBX2/CBX8/ATP7A/BMI1/PSMA2/BAG1/PRDX2</t>
+  </si>
+  <si>
+    <t>SMC1A/RAD21/NSMCE3/PARP1/SUMO1/BLM/SMC3/PCGF2/SUMO3/STAG2/RING1/NUP62/RNF168/RPA1/TDG/PIAS1/PHC1/NUP93/RANBP2/NUP88/NUP37/SUMO2/SCMH1/NUP43/RNF2/MDC1/PML/NUP50/BRCA1/SMC6/NUP35/RAE1/UBE2I/NSMCE2/NUP107/XRCC4/NUP153/TPR/NUP98/NSMCE4A/PHC2/HERC2/CETN2/RAD52/NUP54/PHC3/SMC5/NDC1/POM121/SEH1L/NSMCE1/XPC/NUP214/HDAC7/STAG1/NUP160/NUPL2/PIAS4/PIAS2/NUP58/EID3/NUP188/CBX4/NUP205/NUP133/WRN/NUP85/CDKN2A/NUP155/SP100/AAAS/NUP210/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>APOA1/APOA2/FDFT1/ANKRD1/CTGF/FADS1/HMGCS2/CCNC/MED19/PLIN2/MED6/MED25/MED28/MED13L/RORA/TXNRD1/ACADM/MED17/MED27/MED31/NCOR1/THRAP3/FABP1/CARM1/MED22/TBL1XR1/TEAD3/ESRRA/MED24/TGS1/MED15/ARNT2/MED29/HDAC3/WWTR1/CREBBP/ABCA1/TBL1X/TEAD2/NFYC/HMGCR/RXRA/HMGCS1/G0S2/MED8/CPT2/TRIB3/MED13/ANGPTL4/SP1/CDK19/MED1/NCOA2/MED14/NFYB/MED30/SMARCD3/NCOA6/NCOA1/MED10/AHRR/ARNT/MED20/FHL2/CHD9/MED16/PEX11A/MED21/MED7/MED9/ACOX1/MED12/ARNTL/EP300/TEAD1/AGT/MED11/PPARG/TIAM2/SREBF2/ACSL1/SREBF1/PPARGC1B/ALAS1/HELZ2/YAP1/FAM120B/RGL1/ABCB4/PPARA/SLC27A1/MED18/MED4/NR1D1/TEAD4/CPT1A/MED23/ME1/NCOA3/CYP4A11/PPARGC1A/CD36/GLIPR1/NFYA/TNFRSF21/CYP1A1/CLOCK/AHR/GRHL1/NRF1/MED26/MTF1/CDK8</t>
+  </si>
+  <si>
+    <t>DLK1/JUN/UBA52/SNW1/CCNC/UBB/JAG1/RBX1/RBPJ/MYC/CREB1/TLE1/TMED2/TFDP2/MOV10/MDK/NCOR2/NOTCH2/NCSTN/HES1/NCOR1/NOTCH3/RFNG/TLE3/TBL1XR1/TLE4/CCND1/TFDP1/E2F1/MAML3/NOTCH1/ARRB1/HDAC3/CREBBP/ATP2A2/E2F3/TBL1X/ADAM17/B4GALT1/ITCH/HDAC2/TLE2/HEY2/UBC/ST3GAL4/FURIN/TNRC6A/HDAC6/JAG2/HDAC4/AGO1/ARRB2/HDAC8/HDAC1/PSEN2/HDAC10/FBXW7/DLL1/MAML1/TNRC6C/HDAC7/TP53/LFNG/AGO4/SEL1L/NEURL1B/SKP1/TNRC6B/ADAM10/PSENEN/EP300/MIB1/HDAC5/RAB6A/MIB2/APH1B/HEY1/AGO2/NOTCH4/APH1A/PSEN1/CUL1/ST3GAL3/MFNG/DLL4/ATP2A1/DTX4/AGO3/NUMB/KAT2B/HDAC9/ST3GAL6/MAML2/HIF1A/DTX2/NEURL1/MAMLD1/CNTN1/DTX1/HEYL/ATP2A3/KAT2A/POGLUT1/POFUT1/CDK8/HDAC11</t>
+  </si>
+  <si>
+    <t>BIRC5/PSMC3/PSMC4/PSMA4/PSME2/COMMD6/WSB1/PSMA7/UBA52/COMMD1/PSMB2/NAE1/PSMB3/PSMD14/RNF7/COMMD4/UBE2D3/PSMD4/COPS5/UBB/PSMD7/COPS3/FBXO2/RBBP7/RBX1/PSME1/COMMD10/PSMC5/PSMD13/SKP2/PSME3/PSMB6/DDB1/COPS2/PSMD12/PSMD11/CCNF/COMMD8/FBXO6/UBE2D2/FBXO7/UBA3/PSMF1/PSMB4/HIF3A/LRR1/PSMC2/DCAF11/ZBTB16/PSME4/FBXW5/PSMB1/COMMD2/PSMA6/LRRC41/COPS6/SPSB1/FBXO32/ERCC8/COMMD7/CUL4B/UCHL3/UBXN7/DDA1/KLHL9/FBXW4/COMMD9/RFWD2/FBXO9/FBXO44/DCAF4/CUL3/DCUN1D5/FBXL19/DTL/COPS8/KEAP1/COPS7B/SPSB3/KLHL21/GPS1/COPS4/NEDD8/UBE2D1/FBXO17/KLHL25/PSMB10/PSMB5/PUM2/DCAF10/KLHL5/SPSB4/CUL5/FBXW11/PSMD9/KLHL42/GAN/FBXL4/KBTBD6/DCAF5/UBC/FBXL20/PSMD10/ASB1/PSMA3/CUL7/FBXW9/LMO7/FEM1C/BTBD1/SOCS2/WSB2/PSMD1/FBXL7/SOCS6/DCAF8/FBXW2/FBXL3/FBXO22/FBXO11/VHL/FBXW7/FBXW8/FBXL5/NEURL2/COMMD3/EPAS1/ASB3/FBXO31/CISH/PSMD8/FBXO41/FBXL15/PSMB7/CUL9/KCTD6/KLHL2/CUL2/COPS7A/SKP1/OBSL1/PSMD5/CCDC8/KLHL20/KLHL22/KLHL13/PSMA1/FBXO30/PSMC1/SOCS5/DCUN1D3/ANKRD9/COMMD5/CUL4A/PSMC6/ASB9/DCUN1D2/FBXL12/CUL1/PSMD6/KBTBD7/SPSB2/WDTC1/KLHL3/DCAF13/CAND1/FEM1A/WDR5/CCDC22/PSMD3/FBXO15/BTRC/NUB1/KBTBD8/FBXL13/DCUN1D1/DCAF17/ASB7/FBXL22/FBXL16/KLHL11/FBXL14/PSMD2/HIF1A/ASB8/PSMA5/DCAF16/FBXW12/ASB15/FBXO27/DDB2/ASB6/KLHL41/KCTD7/DCUN1D4/ASB2/RBBP5/ASB13/DCAF6/SENP8/FBXO4/TULP4/FEM1B/BTBD6/UBE2M/UBE2F/FBXO10/FBXO21/SOCS3/PSMA2/DCAF7</t>
+  </si>
+  <si>
+    <t>SRSF2/SLBP/SRSF7/SRSF5/NXT1/EIF4E/DDX39A/RBM8A/MAGOHB/SRSF3/NCBP2/SRSF4/SRSF1/NUP62/CPSF2/RNPS1/SRRM1/CPSF4/EIF4A3/UPF3B/THOC5/THOC6/NUP93/RANBP2/NUP88/CDC40/NUP37/NCBP1/NUP43/FYTTD1/NUP50/CHTOP/THOC2/SLU7/NUP35/RAE1/NUP107/THOC3/NUP153/U2AF1/SYMPK/DHX38/TPR/NUP98/CASC3/U2AF1L4/U2AF1L5/THOC1/POLDIP3/NUP54/NDC1/POM121/CPSF3/SEH1L/ZC3H11A/U2AF2/NUP214/ALYREF/FIP1L1/WDR33/NUP160/NUPL2/MAGOH/GLE1/DDX39B/SRSF6/NUP58/CPSF1/NUP188/SRSF9/NUP205/NUP133/NUP85/SARNP/THOC7/SRSF11/NUP155/NXF2B/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>GNG11/CALM1/CALM2/PSMC3/GNG5/PSMC4/GNB1/PSMA4/PFN1/PSME2/CLTB/PSMA7/UBA52/PSMB2/RAC3/PSMB3/PSMD14/AP2S1/GNB2/PSMD4/CLTA/UBB/PSMD7/GNB5/RAC1/PSME1/GNG12/PSMC5/AP2M1/FZD5/PSMD13/PSME3/CALM3/PSMB6/LEF1/PSMD12/AP2A1/PSMD11/MOV10/PSMF1/FZD2/PSMB4/TCF7L2/GNB3/ROR1/PSMC2/TCF7L1/GNB4/PSME4/PSMB1/PSMA6/FZD4/RYK/PRICKLE1/PSMB10/PSMB5/PSMD9/RHOA/MAP3K7/UBC/CAMK2A/PSMD10/PSMA3/TNRC6A/PPP3CB/NLK/AGO1/PSMD1/WNT5B/ARRB2/CLTC/DVL1/PPP3CA/FZD6/CTNNB1/ITPR1/PPP3R1/TNRC6C/GNG7/FZD8/RAC2/PSMD8/AP2A2/PSMB7/DVL3/DAAM1/AGO4/ITPR3/FZD3/TNRC6B/GNGT1/PSMD5/NFATC1/VANGL2/GNG3/PSMA1/WNT5A/PSMC1/PRKG1/AGO2/PSMC6/AP2B1/GNG10/PSMD6/FZD1/SMURF2/PARD6A/GNG4/ITPR2/PDE6B/DVL2/ROR2/PSMD3/GNG2/PLCB2/AGO3/PRKCA/TCF7/GNG8/GNAO1/PSMD2/PLCB1/SMURF1/PSMA5/SCRIB/WNT11/PRKCG/PDE6A/PRKCB/PRKG2/GNG13/PLCB3/PDE6G/FZD7/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/TPX2/PLK1/PPP2R1A/TUBG1/DCTN3/AKAP9/CEP290/CKAP5/AURKA/PCNT/HAUS8/HMMR/ODF2/ACTR1A/DCTN2/CEP78/MAPRE1/HAUS1/HAUS7/NEDD1/NINL/SSNA1/CEP63/CSNK1E/CSNK1D/HAUS2/HAUS6/FGFR1OP/OFD1/TUBA4A/CNTRL/CEP76/CEP41/HAUS4/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/CEP57/CEP131/CCP110/CEP70/PCM1/PLK4/HAUS5/DCTN1/CDK5RAP2/PAFAH1B1/YWHAE/NDE1/PRKAR2B/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/CEP250/YWHAG/CEP72/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>FGFR1/PSMC3/PSMC4/PPP2R1A/RHEB/JUN/PSMA4/PSME2/FGFR4/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/CSNK2B/PDGFRB/PPP2CB/PSMD4/IER3/UBB/PSMD7/MLST8/RBBP7/PSME1/MKRN1/LAMTOR1/PSMC5/PPP2R5C/CREB1/PSMD13/ERBB4/REST/SALL4/PSME3/RING1/MAPKAP1/RRAGA/PSMB6/PSMD12/AKT2/PSMD11/RNF146/PTEN/MOV10/PSMF1/PDGFRA/PSMB4/CSNK2A2/PRR5/PSMC2/MAF1/GSK3A/MTA3/PHC1/ERBB3/PSME4/PSMB1/PSMA6/AKT1S1/SCMH1/RNF2/KDM1A/PML/LAMTOR2/CDKN1B/CSNK2A1/WWP2/PIK3R1/GRB2/EED/SRC/PIP4K2B/HDAC3/SNAI2/FGFR2/FGF8/FGFR3/GATAD2B/USP13/AKT1/MTA1/MECOM/SNAI1/RICTOR/MTOR/GSK3B/PSMB10/PSMB5/HDAC2/BAD/PSMD9/INSR/TRIM27/RBBP4/UBC/PIK3CD/PSMD10/ATF2/PSMA3/GATAD2A/OTUD3/TNRC6A/PHC2/PPP2CA/TRIB3/AKT3/PPP2R5A/AGO1/FYN/PIP5K1C/PSMD1/CDKN1A/PIP5K1A/EZH2/HDAC1/LAMTOR5/EGR1/FGF10/PDPK1/PHC3/KIT/NRG2/MTA2/TNKS/CHD3/IRAK4/TSC2/TNRC6C/RRAGC/TNKS2/FOXO1/PSMD8/HDAC7/PTPN11/TP53/SUZ12/STUB1/ATN1/PSMB7/AGO4/PDGFA/USP7/RCOR1/NR4A1/TNRC6B/NRG1/FOXO4/MAPK1/CASP9/HBEGF/PSMD5/FGF2/PREX2/HDAC5/LAMTOR3/IRS1/PIK3R2/MYD88/PPARG/PSMA1/PPP2R5B/PIK3R3/RPTOR/PPP2R1B/PSMC1/FGF1/AGO2/PSMC6/RRAGD/CBX4/MAPK3/SLC38A9/PSMD6/PIK3CB/FGF17/PPP2R5D/XIAP/EGF/NEDD4/CHUK/IRAK1/PSMD3/KLB/MET/AGO3/FRS2/GAB1/PIP4K2A/PHLPP2/PSMD2/ERBB2/THEM4/PIK3CA/FOXO3/CHD4/PSMA5/EGFR/FGF23/PPP2R5E/FGF18/FGF9/LCK/FGF22/TRAF6/PIP4K2C/MDM2/PDGFB/IL1RAP/FRK/HGF/FGF19/PIK3AP1/NRG4/CD19/PIP5K1B/MBD3/RRAGB/CBX6/FGF7/IRS2/KITLG/CBX2/CBX8/PHLPP1/LAMTOR4/BMI1/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/MAD2L1/PPP1CC/CENPF/ACTB/AURKB/TUBB4B/RHOC/CDC20/CENPM/DYNLL1/CENPN/SPC25/PLK1/PPP2R1A/CENPA/TUBB2A/PFN1/DIAPH3/SGO1/SKA2/ITGB1/SGO2/NUDC/SEC13/TUBB2B/BUB3/KIF2C/PMF1/ACTG1/PPP2CB/NUF2/CENPK/CKAP5/RAC1/CENPS/NDC80/CENPU/CENPH/PPP2R5C/CDC42/CENPE/ZWILCH/CENPO/SPDL1/ITGB3BP/SRF/KNL1/RHOB/SPC24/DYNC1LI1/MAPRE1/TUBA1C/CENPQ/RCC2/BUB1B/RANBP2/NUP37/NUP43/XPO1/DIAPH1/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/SRC/NUP107/CENPL/CDCA8/BUB1/NUP98/FMNL2/TAOK1/DIAPH2/PFN2/TUBA4A/RHOA/SRGAP2/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/FMNL3/NSL1/DVL1/DYNC1I1/SCAI/KNTC1/SEH1L/KIF2A/RHOD/EHHADH/DVL3/DAAM1/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/NDE1/PPP2R5D/NUP133/DVL2/MKL1/DSN1/NUP85/FMNL1/TUBB4A/PPP2R5E/KIF18A/CLIP1/AHCTF1/TUBB8/DYNC1I2/DYNC1H1/CLASP1/EVL</t>
+  </si>
+  <si>
+    <t>TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/PLK1/PPP2R1A/TUBG1/DCTN3/AKAP9/CEP290/CKAP5/PCNT/HAUS8/ODF2/ACTR1A/DCTN2/CEP78/MAPRE1/HAUS1/HAUS7/NEDD1/NINL/SSNA1/CEP63/CSNK1E/CSNK1D/HAUS2/HAUS6/FGFR1OP/OFD1/TUBA4A/CNTRL/CEP76/CEP41/HAUS4/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/CEP57/CEP131/CCP110/CEP70/PCM1/PLK4/HAUS5/DCTN1/CDK5RAP2/PAFAH1B1/YWHAE/NDE1/PRKAR2B/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/CEP250/YWHAG/CEP72/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/POLR2L/UBA52/RFC4/RFC2/POLR2J/RFC5/POLE4/COPS5/UBB/RPA2/COPS3/RBX1/POLR2K/RFC3/LIG1/HMGN1/POLR2F/DDB1/COPS2/TCEA1/RPA1/POLD2/POLD3/RFC1/POLR2A/POLE2/POLR2I/CCNH/CDK7/POLE/COPS6/ZNF830/ERCC8/CUL4B/LIG3/MNAT1/POLK/COPS8/GTF2H5/PPIE/COPS7B/GPS1/COPS4/ISY1/XPA/ERCC3/POLE3/POLD1/POLR2E/UBC/ERCC2/AQR/POLR2C/PRPF19/ERCC4/XAB2/ERCC1/GTF2H2/ELL/POLR2G/POLD4/POLR2D/COPS7A/USP7/ERCC5/POLR2B/EP300/XRCC1/CUL4A/POLR2H/ERCC6/GTF2H4/UVSSA/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>ACTB/ARPC2/ARPC5/HSPA8/DAB2/CLTB/UBA52/RAB5C/ARPC1A/AP2S1/VAMP8/ACTG1/CLTA/COPS5/UBB/COPS3/LDLR/AP2M1/ACTR3/NECAP2/ACTR2/TRIP10/COPS2/AP2A1/PACSIN2/WASL/PICALM/EPS15/FNBP1/EPN1/APOB/UBQLN1/SH3GL1/SH3KBP1/COPS6/FZD4/VAMP2/AAK1/ARPC4/M6PR/IGF2R/VAMP3/BIN1/CTTN/SNX9/GRB2/COPS8/ARRB1/ITSN2/COPS7B/FNBP1L/GPS1/COPS4/NEDD8/UBQLN2/RAB5B/PACSIN3/TFRC/ARF6/UBC/EPS15L1/SGIP1/ARFGAP1/TOR1B/PIP5K1C/ARRB2/CLTC/SYNJ1/OCRL/HGS/CLTCL1/STON1/GAPVD1/CBL/DNM1/SH3GL3/TOR1A/AP2A2/PACSIN1/DNM2/EPN2/COPS7A/LRP2/GRK3/CHRM2/SH3GL2/AVP/AMPH/ITSN1/SLC2A8/WNT5A/FCHO2/RAB5A/STON2/SLC18A3/TF/SYNJ2/LDLRAP1/ARPC3/AP2B1/STAM2/NECAP1/SYT1/EGF/TGOLN2/STAM/DVL2/GAK/SYT2/FCHO1/SCARB2/HIP1R/EGFR/REPS2/HIP1/REPS1/CD4/SYT11/DNAJC6/ADRB2/CFTR/GRK2/SYT9/KIAA0319/AGFG1/VAMP4/PIK3C2A/SNX18/VAMP7</t>
+  </si>
+  <si>
+    <t>PMM1/UAP1/NANS/DPM3/ALG3/GNPNAT1/SRD5A3/SLC35C1/ALG14/FUOM/ST6GALNAC3/NUDT14/ALG12/DPAGT1/ST3GAL1/CMAS/GLB1/NUS1/MPDU1/GMDS/FPGT/ST3GAL4/AMDHD2/ALG5/GFPT2/DOLPP1/CTSA/MVD/ST6GALNAC6/ALG6/TSTA3/ALG13/ST8SIA1/SLC35A1/DOLK/NEU3/MPI/ST6GAL1/ALG10B/ALG11/GNE/ST8SIA2/PGM3/ST8SIA4/ST3GAL2/ST3GAL3/ST6GALNAC5/GMPPB/ST8SIA3/DPM1/RENBP/DPM2/ALG8/RFT1/ST3GAL6/GMPPA/ALG1/ALG9/NPL/ST6GALNAC2/FUK/NEU1/ST6GAL2/ST8SIA6/ALG10/PMM2/NEU4/ST6GALNAC1/ST3GAL5/DHDDS/ST6GALNAC4/GFPT1/SLC17A5/NANP/NAGK/ALG2</t>
+  </si>
+  <si>
+    <t>CALM1/ATP5A1/CALM2/ATP5F1/ATP5G2/ATP5G3/ATP5I/IDH2/CHCHD3/ATP5J/ATP5C1/CREB1/TFAM/PRKAB2/PRKAG1/APOO/SSBP1/ATP5O/CALM3/C19orf70/ATP5L/CRTC1/ATP5D/MINOS1/CHCHD6/ATP5S/SAMM50/ATP5B/GLUD2/CYCS/MEF2C/NCOR1/CARM1/TBL1XR1/ESRRA/TGS1/MTX1/HDAC3/CREBBP/GABPB1/ATP5E/TBL1X/HCFC1/MTERF1/ATP5G1/IMMT/POLRMT/ATF2/RXRA/ACSS2/PRKAA2/ATP5H/PPRC1/MTX2/MED1/DNAJC11/SOD2/NCOA2/SMARCD3/MAPK12/NCOA6/NCOA1/SIRT5/HSPA9/MAPK14/TMEM11/CHD9/ATP5J2/PRKAG2/TFB2M/GABPA/PPARGC1B/ALAS1/HELZ2/POLG2/PPARA/SIRT3/GLUD1/NR1D1/MEF2D/MAPK11/PPARGC1A/PRKAB1/SIRT4/CAMK4/APOOL/TWNK/NRF1/CRTC2/TFB1M/CRTC3</t>
+  </si>
+  <si>
+    <t>RHOC/GDI2/ARHGDIA/ARHGAP24/RAC3/RAC1/CDC42/AKAP13/TRIP10/RACGAP1/ARHGAP35/RHOB/ECT2/ARHGAP29/NET1/ARHGAP18/ARHGEF2/ARHGEF26/ARHGDIB/ARHGEF16/ARHGEF1/BCR/ARHGAP12/FAM13A/ARHGAP45/RHOF/RHOU/DEPDC1B/MYO9B/CHN1/ARHGEF40/INPP5B/RHOT2/RHOA/RHOT1/VAV3/ARHGAP21/ARHGAP8/ARHGEF39/SRGAP2/ARHGAP11A/ARHGEF4/FGD4/TRIO/ARHGAP11B/ARHGAP1/ARHGAP26/GDI1/SRGAP1/MYO9A/ARHGAP17/FAM13B/OCRL/ARHGAP44/ARHGAP10/FGD1/ARHGAP33/RHOQ/ARHGEF7/PLEKHG2/ARAP1/RHOBTB1/RAC2/KALRN/RHOD/DLC1/ARHGAP42/ARHGEF33/ARHGEF9/ARHGEF19/ITSN1/ARHGAP22/PREX1/ARHGAP31/PIK3R2/ARHGAP32/FGD3/OPHN1/ARHGAP39/SOS2/TIAM2/OBSCN/RALBP1/ARHGAP9/ARHGAP19/TIAM1/DEPDC7/RHOH/ABR/SOS1/ARHGEF6/MCF2L/CHN2/PLEKHG5/GNA13/VAV2/ARHGAP25/ARHGAP23/RHOBTB2/ARHGEF12/ARHGEF5/ARAP3/ARHGAP4/STARD13/RHOV/SRGAP3/ARHGEF35/ARHGAP15/ARHGAP36/ARHGEF37/ARHGEF11/ARHGEF3/GMIP/ARAP2/STARD8/RHOJ/ARHGEF10/ARHGEF17/ARHGEF15/ARHGDIG/NGEF/ARHGEF10L/ARHGAP6/ARHGAP5/SYDE2/SYDE1/RHOG/ARHGAP27</t>
+  </si>
+  <si>
+    <t>BIRC5/HIST1H4C/AURKB/TOP2A/PCNA/SMC1A/RAD21/NSMCE3/SAE1/CBX5/HNRNPC/TOP1/PARP1/SUMO1/AURKA/BLM/SMC3/PCGF2/SUMO3/STAG2/HNRNPK/RING1/NUP62/RNF168/RPA1/TP53BP1/TDG/PIAS1/UBA2/PHC1/NUP93/RANBP2/NUP88/NUP37/SUMO2/SCMH1/NUP43/RNF2/MITF/MDC1/PML/NUP50/RANGAP1/BRCA1/INCENP/SMC6/NUP35/RAE1/UBE2I/NSMCE2/NUP107/CDCA8/XRCC4/NUP153/MTA1/TPR/NUP98/HDAC2/SENP1/NSMCE4A/PHC2/HERC2/HDAC4/SENP2/HDAC1/NOP58/CETN2/TOP2B/SENP5/RAD52/NUP54/PIAS3/PHC3/SMC5/NDC1/CHD3/POM121/SEH1L/ZBED1/NSMCE1/XPC/SP3/NUP214/HDAC7/TP53/SUZ12/STAG1/NUP160/NUPL2/PIAS4/PIAS2/NUP58/EID3/NUP188/TFAP2A/RWDD3/CBX4/L3MBTL2/NUP205/NUP133/WRN/NUP85/HIST1H4J/HIST1H4E/CDKN2A/FOXL2/SATB2/NUP155/SATB1/HIST4H4/MDM2/SP100/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/TFAP2C/AAAS/NUP210/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/AGTRAP/AKAP9/SND1/RAP1B/YWHAB/ACTG1/FXR1/MAP2K2/HRAS/MACF1/QKI/ESRP1/KDM7A/LMNA/RAF1/MAP2K1/RAP1A/TRIM24/PHB/ARRB1/SRC/MARK3/KRAS/ARAF/ZC3HAV1/RASA4/FAM114A2/IQGAP1/ITGA2B/TRAK1/DAB2IP/AGGF1/SPRED2/MAP3K11/FGA/ARRB2/BRAF/KIAA1549/NF1/NRAS/BCL2L11/RASA1/AGK/CSK/PAPSS1/CNKSR2/VWF/RASAL2/TLN1/MAPK1/FGB/SPRED1/ATG7/MPRIP/RASA3/MAPK3/PAPD7/SYNGAP1/JAK2/BRAP/AP3B1/KSR1/SPRED3/FGG/APBB1IP/RASAL1/KSR2/RASAL3/CLCN6/CNKSR1/RASA2</t>
+  </si>
+  <si>
+    <t>PABPC1/EIF4A2/EIF4B/LSM4/LSM3/EIF4E/EXOSC8/LSM2/DCP1A/EXOSC9/NT5C3B/PAIP1/DDX6/LSM6/CNOT7/CNOT1/EXOSC3/EIF4A3/HBS1L/ZCCHC11/LSM1/EXOSC1/CNOT11/EIF4A1/EIF4G1/CNOT3/LSM7/TTC37/CNOT9/CNOT10/EXOSC5/DCP2/EXOSC6/EDC3/CNOT6/XRN1/EXOSC7/CNOT2/DCPS/SKIV2L/CNOT4/EXOSC2/ZCCHC6/CNOT6L/PAN3/WDR61/LSM5/PATL1/DCP1B/PAN2/EDC4/PARN/CNOT8/DIS3/TNKS1BP1/EXOSC4</t>
+  </si>
+  <si>
+    <t>AP1M2/HSPA8/FTL/FTH1/RAB5C/VAMP8/CLTA/BLOC1S6/BLOC1S1/ARF1/BLOC1S4/SNX5/TPD52L1/AP1S2/PUM1/PICALM/TPD52/AP1S1/SORT1/VAMP2/AP3S1/IGF2R/SNX9/ARRB1/CLINT1/TFRC/GOLGB1/CLTC/AP1M1/OCRL/SH3D19/DTNBP1/AP1G1/AP4E1/DNM2/SH3GL2/NAPA/NECAP1/SNX2/AP1S3/TGOLN2/GAK/AP1B1/AP3B1/HIP1R/TBC1D8B/AP4B1/TXNDC5/DNAJC6/CPD/BLOC1S3/ACBD3/PIK3C2A/YIPF6/SNAPIN/VAMP7</t>
+  </si>
+  <si>
+    <t>SRSF2/SNRPB/SLBP/SRSF7/SRSF5/SNRPG/DDX39A/RBM8A/MAGOHB/SNRPF/SRSF3/PAPOLA/NCBP2/SRSF4/SRSF1/CPSF2/RNPS1/SRRM1/PABPN1/CPSF4/CSTF3/EIF4A3/UPF3B/THOC5/THOC6/SNRPE/CDC40/NCBP1/LSM10/FYTTD1/CHTOP/THOC2/SLU7/SNRPD3/CSTF2T/PCF11/THOC3/U2AF1/SYMPK/DHX38/CASC3/U2AF1L4/U2AF1L5/THOC1/POLDIP3/CPSF3/ZC3H11A/U2AF2/CPSF7/ALYREF/FIP1L1/WDR33/CSTF1/MAGOH/DDX39B/CLP1/SRSF6/CPSF1/SRSF9/CSTF2/ZNF473/SARNP/THOC7/SRSF11/LSM11/NUDT21</t>
+  </si>
+  <si>
+    <t>GINS2/FEN1/ORC6/RPA3/PSMC3/PCNA/GMNN/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/RFC4/MCM4/PSMB3/PSMD14/MCM2/RFC2/MCM7/RFC5/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/GINS4/CDC45/PSME1/MCM10/PSMC5/RFC3/PSMD13/LIG1/PSME3/PSMB6/PSMD12/PSMD11/RPA1/CDT1/POLA2/POLD2/PSMF1/POLD3/RFC1/PSMB4/POLE2/MCM8/PSMC2/ORC4/GINS1/POLE/PSME4/PSMB1/PSMA6/CDC6/CDKN1B/CDK2/E2F1/RB1/E2F3/POLA1/POLE3/POLD1/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/GINS3/PSMD1/CDKN1A/POLD4/PSMD8/ORC2/PSMB7/DBF4/PSMD5/PRIM2/PSMA1/CDC7/PSMC1/ORC1/DNA2/FZR1/PSMC6/E2F2/PSMD6/PRIM1/PSMD3/PSMD2/PSMA5/RPA4/CCNA1/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>FDPS/FDFT1/TM7SF2/FASN/SQLE/IDI1/RAN/KPNB1/SC5D/ELOVL6/GGPS1/SCD/MBTPS1/INSIG1/CARM1/TBL1XR1/TGS1/CREBBP/TBL1X/NFYC/HMGCR/RXRA/HMGCS1/DHCR7/MVD/PMVK/SP1/INSIG2/LSS/MED1/NCOA2/NFYB/SMARCD3/NCOA6/NCOA1/MBTPS2/SAR1B/CHD9/MVK/SCAP/SEC24D/ACACB/SREBF2/SREBF1/HELZ2/CYP51A1/GPAM/SEC24B/PPARA/SEC23A/SEC24C/SEC24A/NFYA/ACACA/MTF1</t>
+  </si>
+  <si>
+    <t>SRSF2/SRSF7/SRSF5/NXT1/DDX39A/RBM8A/MAGOHB/SRSF3/NCBP2/SRSF4/SRSF1/NUP62/RNPS1/SRRM1/EIF4A3/UPF3B/THOC5/THOC6/NUP93/RANBP2/NUP88/CDC40/NUP37/NCBP1/NUP43/FYTTD1/NUP50/CHTOP/THOC2/SLU7/NUP35/RAE1/NUP107/THOC3/NUP153/U2AF1/DHX38/TPR/NUP98/CASC3/U2AF1L4/U2AF1L5/THOC1/POLDIP3/NUP54/NDC1/POM121/SEH1L/ZC3H11A/U2AF2/NUP214/ALYREF/NUP160/NUPL2/MAGOH/GLE1/DDX39B/SRSF6/NUP58/NUP188/SRSF9/NUP205/NUP133/NUP85/SARNP/THOC7/SRSF11/NUP155/NXF2B/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>CLNS1A/SNRPB/SNRPG/SNRPD1/SNRPF/SNRPD2/PHAX/NCBP2/NUP62/WDR77/GEMIN8/SNRPE/NUP93/RANBP2/NUP88/NUP37/NCBP1/NUP43/NUP50/GEMIN7/TGS1/SNUPN/NUP35/PRMT5/RAE1/NUP107/SNRPD3/NUP153/TPR/NUP98/GEMIN6/GEMIN2/GEMIN5/GEMIN4/NUP54/NDC1/POM121/DDX20/SEH1L/SMN2/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/SMN1/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>SRSF2/SNRPB/SRSF7/SNRPG/SNRPD1/POLR2L/SNRNP25/GTF2F2/POLR2J/LSM2/GTF2F1/SNRPF/SNRPD2/SNRNP200/NCBP2/SF3B4/POLR2K/SRSF1/SF3B6/YBX1/POLR2F/SF3B5/PRPF6/SF3B2/POLR2A/DDX23/POLR2I/SNRPE/PRPF8/SNRNP40/NCBP1/RNPC3/PDCD7/SNRPD3/SNU13/SF3B3/POLR2E/SNRNP35/TXNL4A/POLR2C/SNRNP48/EFTUD2/POLR2G/POLR2D/POLR2B/ZMAT5/SRSF6/ZRSR2/POLR2H/DDX42/SF3B1/ZCRB1</t>
+  </si>
+  <si>
+    <t>BIRC5/HIST1H4C/AURKB/TOP2A/PCNA/SMC1A/RAD21/NSMCE3/CBX5/HNRNPC/TOP1/PARP1/SUMO1/AURKA/BLM/SMC3/PCGF2/SUMO3/STAG2/HNRNPK/RING1/NUP62/RNF168/RPA1/TP53BP1/TDG/PIAS1/PHC1/NUP93/RANBP2/NUP88/NUP37/SUMO2/SCMH1/NUP43/RNF2/MITF/MDC1/PML/NUP50/RANGAP1/BRCA1/INCENP/SMC6/NUP35/RAE1/UBE2I/NSMCE2/NUP107/CDCA8/XRCC4/NUP153/MTA1/TPR/NUP98/HDAC2/NSMCE4A/PHC2/HERC2/HDAC4/HDAC1/NOP58/CETN2/TOP2B/RAD52/NUP54/PIAS3/PHC3/SMC5/NDC1/CHD3/POM121/SEH1L/ZBED1/NSMCE1/XPC/SP3/NUP214/HDAC7/TP53/SUZ12/STAG1/NUP160/NUPL2/PIAS4/PIAS2/NUP58/EID3/NUP188/TFAP2A/CBX4/L3MBTL2/NUP205/NUP133/WRN/NUP85/HIST1H4J/HIST1H4E/CDKN2A/FOXL2/SATB2/NUP155/SATB1/HIST4H4/MDM2/SP100/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/TFAP2C/AAAS/NUP210/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>H2AFZ/TUBA1B/TUBB6/BIRC5/YWHAH/ZWINT/CALM1/TUBA1A/MYL9/HIST1H4C/MAD2L1/PPP1CC/CENPF/ACTB/AURKB/TUBB4B/CALM2/RHOC/H2AFV/ARPC2/MYL6/MYH10/CDC20/CENPM/H2AFX/DYNLL1/CENPN/ARPC5/SPC25/YWHAQ/PLK1/ARPC1B/FLNA/PPP2R1A/MYH9/CENPA/MYL12A/TUBB2A/PFN1/BRK1/DIAPH3/SGO1/SKA2/ITGB1/SGO2/PRC1/ARPC1A/TAX1BP3/NUDC/MYL12B/SEC13/TUBB2B/BUB3/KIF2C/PMF1/YWHAB/ACTG1/PPP2CB/NUF2/CENPK/CKAP5/RAC1/PPP1CB/CENPS/NDC80/CENPU/CENPH/PPP2R5C/CDC42/ACTR3/H2AFJ/ACTR2/CENPE/ZWILCH/CENPO/SPDL1/ITGB3BP/CALM3/SRF/KNL1/RHOB/SPC24/PAK2/YWHAZ/KIF14/DYNC1LI1/WASL/MAPRE1/CYFIP2/KTN1/CDH1/TUBA1C/CENPQ/H3F3A/RCC2/BUB1B/RANBP2/NUP37/NUP43/XPO1/KDM1A/DIAPH1/CENPC/ERCC6L/MEN1/CDKN1B/CENPT/RANGAP1/NDEL1/ARPC4/INCENP/MIS12/PPP1R12A/CTTN/DYNLL2/GRB2/NCKIPSD/SRC/NUP107/CYBA/CDC25C/ROCK1/ABI2/PPP1R14A/CENPL/CDCA8/PKN3/BUB1/PKN1/NUP98/FMNL2/TAOK1/CIT/DIAPH2/HIST2H2AC/PFN2/TUBA4A/RHOA/WIPF3/WIPF2/SRGAP2/B9D2/IQGAP1/CENPP/MAD1L1/IQGAP2/PPP2CA/PPP2R5A/FMNL3/HIST1H3B/NSL1/ABI1/ABL1/DVL1/HIST1H2BD/WIPF1/DYNC1I1/KLC3/LIMK2/HIST1H2BH/RHPN1/KLC2/RHPN2/CTNNA1/NCOA2/PDPK1/CTNNB1/SCAI/KNTC1/HIST2H2BE/SEH1L/PIK3R4/HIST1H2BN/RHOQ/H3F3B/NCK1/NCKAP1/PKN2/LIN7B/PPP1R12B/KLC4/KIF2A/RAC2/WASF2/RHOD/EHHADH/DVL3/DAAM1/DYNC1LI2/NUP160/CYFIP1/SKA1/MAPK1/CLASP2/WAS/CENPI/NOXA1/BTK/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/HIST1H2AE/HIST1H3A/ROCK2/YWHAE/WASF3/IQGAP3/MAPK3/ARPC3/NDE1/PPP2R5D/HIST1H2BG/HIST1H3G/PAK1/KLC1/NUP133/DVL2/WASF1/BAIAP2/NF2/MKL1/NCKAP1L/HIST1H3E/DSN1/NUP85/HIST1H4J/HIST1H4E/HIST1H2AC/HIST1H2AB/HIST1H2BK/FMNL1/TUBB4A/PPP2R5E/RTKN/AR/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/NOXO1/HIST4H4/KDM4C/HIST1H2BJ/HIST1H2BC/KIF18A/SFN/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/NCF1/CFTR/PAK3/MYH14/CLIP1/MYLK/PIK3C3/AHCTF1/LIMK1/PTK2/YWHAG/DLG4/TUBB8/RHOG/DYNC1I2/DYNC1H1/CLASP1/EVL/GOPC/KIF5B</t>
+  </si>
+  <si>
+    <t>DUSP4/BEX3/PPP2R1A/ARHGDIA/UBA52/RALA/RTN4/AP2S1/YWHAB/AATF/PPP2CB/CLTA/UBB/RALB/RAC1/DUSP6/MAGED1/AP2M1/CREB1/SHC1/AKAP13/NFKBIA/HRAS/ITGB3BP/AP2A1/ATF1/ECT2/KIDINS220/MAPK7/CRKL/NET1/MEF2C/NCSTN/ARHGEF2/ARHGEF26/NTRK1/ARHGEF16/ARHGEF1/PIK3R1/RAP1A/GRB2/SRC/MAP2K5/HDAC3/KRAS/RIT1/DUSP3/ADAM17/NTRK2/ARHGEF40/MAPK8/HDAC2/STAT3/BAD/RHOA/VAV3/ARHGEF39/UBC/RELA/FURIN/NFKB1/SHC2/ARHGEF4/FGD4/PPP2CA/MAPKAPK3/TRIO/CASP2/HDAC1/CLTC/PSEN2/VRK3/BRAF/CASP3/RALGDS/MAPK12/FGD1/NRAS/IKBKB/MAPK14/ARHGEF7/PLCG1/PLEKHG2/DNM1/BCL2L11/KALRN/AP2A2/DNM2/NGF/RAPGEF1/ARHGEF33/ARHGEF9/MAPK1/SH3GL2/PCSK6/ARHGEF19/PSENEN/PRKCI/ITSN1/RIPK2/PREX1/IRS1/PIK3R2/MYD88/FGD3/SOS2/PPP2R1B/TIAM2/OBSCN/APH1B/TIAM1/DNAL4/YWHAE/ABR/MAPK3/APH1A/AP2B1/MAPKAPK2/PSEN1/PIK3CB/SMPD2/PCSK5/PPP2R5D/SOS1/MEF2A/ARHGEF6/MCF2L/PLEKHG5/GNA13/IRAK1/VAV2/MAPK13/FRS2/ARHGEF12/ELK1/ARHGEF5/MAPK11/PIK3CA/ARHGEF35/CRK/RIT2/LINGO1/ADCYAP1R1/ARHGEF37/ARHGEF11/ARHGEF3/RTN4R/TRAF6/SHC3/PRDM4/ARHGEF10/DUSP7/ARHGEF17/ARHGEF15/NGEF/ARHGEF10L/IRS2/SQSTM1</t>
+  </si>
+  <si>
+    <t>CCNB1/CDK1/PLK1/CCNB2/LMNB1/VRK1/TMPO/EMD/BANF1/LPIN2/NUP62/NEK6/NUP93/LMNA/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NEK9/LPIN1/NUP153/TPR/NUP98/VRK2/NUP54/NDC1/LEMD3/POM121/SEH1L/NUP214/CTDNEP1/NUP160/NUPL2/NUP58/NUP188/CNEP1R1/NUP205/NUP133/LPIN3/PRKCA/NUP85/NUP155/PRKCB/NEK7/LEMD2/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DYNLL1/TUBB2A/SPTBN1/TRAPPC6A/DCTN3/B4GALT4/SEC13/TUBB2B/TMED9/ANK3/CTSC/TRAPPC1/FOLR1/TRAPPC2L/ARF1/ARF4/TMED10/DCTN5/TRAPPC4/TRAPPC3/CAPZA1/LMAN2/ACTR1A/DCTN2/TMED3/TMED2/USO1/PREB/MGAT1/STX5/COPB1/SEC31A/DYNC1LI1/MAN2A1/ARF5/GOLGA2/B4GALT2/COG4/MGAT2/TBC1D20/TUBA1C/CD59/CNIH1/B4GALT3/MAN1A2/COPB2/YKT6/PPP6C/TFG/CAPZA2/CSNK1D/STX17/CAPZB/GOSR2/SPTAN1/DYNLL2/GOSR1/TMED7/LMAN1/PPP6R1/MAN1A1/DCTN6/ARFGAP3/B4GALT1/COPA/MIA3/FUCA1/MCFD2/DCTN4/CHST8/TUBA4A/ARF3/ST3GAL4/GBF1/ARFGAP1/ARFGAP2/MGAT5/COG5/BET1/NAPB/GOLGB1/DYNC1I1/COL7A1/KDELR2/TMEM115/COG8/SEC16A/COG6/TRAPPC2/SPTBN2/SEC23IP/RAB1A/TRAPPC6B/FUT8/PPP6R3/SEC22B/MGAT4B/SEC22A/SAR1B/EHHADH/DYNC1LI2/NSF/GORASP1/RAB1B/DCTN1/ST6GAL1/B4GALT5/COPE/NAPA/TRAPPC5/SEC24D/CHST10/COPZ2/ST8SIA2/COG1/ACTR10/COPG2/MGAT3/SERPINA1/MGAT4A/MAN2A2/MANEA/COG2/SEC24B/COG7/LMAN2L/CD55/SEC23A/SEC24C/COPZ1/ST8SIA3/ANKRD28/TRAPPC9/TRAPPC10/COPG1/SEC24A/ANK2/TUBB4A/F8/BET1L/SPTBN4/CNIH2/ST8SIA6/B4GALT6/CNIH3/SEC16B/ANK1/SPTB/SPTBN5/FUT3/LHB/COG3/MAN1C1/SEC22C/NAPG/TUBB8/DYNC1I2/DYNC1H1/CTSZ/SCFD1/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>PSMC3/CTGF/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/SNW1/PSMB3/PSMD14/PSMD4/UBB/PSMD7/JAG1/PSME1/RBPJ/PSMC5/MYC/PSMD13/SPP1/PSME3/PSMB6/LEF1/PSMD12/PSMD11/PSMF1/PSMB4/TCF7L2/TGFB1/PSMC2/TCF7L1/CBFB/ZFHX3/PSMB1/PSMA6/HES1/CARM1/TBL1XR1/CCND1/TEAD3/MAML3/NOTCH1/TGS1/SRC/WWTR1/CREBBP/KRAS/TBL1X/TEAD2/PSMB10/PSMB5/SMAD4/PSMD9/UBC/PSMD10/RXRA/PSMA3/SMAD3/HDAC4/PSMD1/CDKN1A/MED1/NCOA2/SMARCD3/CTNNB1/NCOA6/MAML1/NCOA1/BCL2L11/PSMD8/TP53/CHD9/PSMB7/PSMD5/EP300/TEAD1/PSMA1/PSMC1/PSMC6/HELZ2/YAP1/PSMD6/SMURF2/PPARA/PSMD3/TEAD4/TCF7/BRD2/CDKN2A/KAT2B/PSMD2/MAML2/SMURF1/FOXO3/PSMA5/RUNX1/MDM2/RUNX3/MAMLD1/KAT2A/PSMA2</t>
+  </si>
+  <si>
+    <t>H2AFZ/HIST1H4C/ACTB/H2AFV/H2AFX/HIST3H2A/MORF4L2/KMT2E/ACTL6A/ASH2L/MEAF6/HAT1/RBBP7/SMARCB1/CDK4/ELP2/H2AFJ/ARID1B/COPRS/TADA3/TAF12/REST/MORF4L1/ING4/SMARCC2/ELP5/WDR77/RUVBL2/ENY2/KDM5B/PHF20/ARID1A/VPS72/SGF29/NCOR2/KDM7A/MTA3/NSD1/SUPT20H/NCOR1/MRGBP/BRWD1/SAP30L/KDM1A/USP22/ELP4/CARM1/KAT6B/DR1/TBL1XR1/CCND1/ARID4A/SMARCD2/KMT2B/KAT8/DMAP1/PBRM1/ARID5B/KDM2A/KDM6A/SUV39H2/PRMT5/JMJD6/SUPT7L/EED/HDAC3/ATF7IP/CREBBP/DPY30/TAF9/SAP18/KMT5B/TBL1X/SMYD3/MBIP/EPC1/HCFC1/KDM4A/GATAD2B/MTA1/SMARCE1/MECOM/YEATS4/ELP6/PRMT1/SETD7/BRPF1/KMT5C/HIST2H2AC/HDAC2/SETD1A/RBBP4/SUPT3H/RELA/ATF2/GATAD2A/KAT14/NFKB1/OGT/JADE1/ATXN7L3/SMARCA2/ARID4B/PHF21A/SMYD2/HMG20B/HIST1H3B/KANSL1/SMARCD1/EZH2/HDAC8/TAF10/HDAC1/TADA2A/HIST1H2BD/YEATS2/MSL2/HIST1H2BH/NCOA2/KANSL3/PRMT3/HDAC10/KANSL2/SMARCD3/MTA2/BRMS1/CHD3/MSL1/HIST2H2BE/KAT5/NCOA1/TADA1/KDM2B/BRD8/HIST1H2BN/PRMT6/SETD1B/SMARCA4/SUZ12/TADA2B/KDM5C/JADE3/KAT6A/ING3/RUVBL1/KAT7/HIST1H2AH/RCOR1/KDM5A/BRD1/ARID2/TAF6L/KDM3B/EP300/EP400/ASH1L/SETD2/KDM6B/TRRAP/ELP3/GPS2/TAF5L/HIST1H2AE/HIST1H2AG/HIST1H3A/SUDS3/PRDM16/PRMT7/SETD6/HIST1H2BG/ATXN7/HIST1H3G/DOT1L/DNMT3A/EHMT2/BRPF3/SMARCC1/ING5/PHF8/WDR5/KDM1B/JAK2/HIST1H3E/KMT2D/SETDB1/HIST1H4J/HIST1H4E/KMT2C/HIST1H2AC/HIST1H2AK/KAT2B/HIST1H2AB/HIST1H2BK/HIST1H2AL/KDM4D/KDM8/CHD4/HIST2H2BF/AEBP2/MSL3/PRDM9/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST2H2AB/HIST1H3I/HIST1H3H/HIST4H4/KDM4C/JADE2/HIST1H2BJ/HIST1H2BC/KDM3A/NFKB2/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AI/HIST1H2AJ/SAP30/SUV39H1/CLOCK/KMT5A/RBBP5/MBD3/SAP130/KAT2A/PHF2/KDM5D/ZZZ3/KDM4B/EHMT1/UTY/MCRS1/SETDB2/SETD3/KMT2A</t>
+  </si>
+  <si>
+    <t>NPM1/CCNB1/CDK1/PCNA/GADD45A/CCNA2/BTG2/AURKA/PLK2/TFDP2/CNOT7/CNOT1/BAX/ZNF385A/RBL2/CARM1/TFDP1/CDKN1B/CDK2/CNOT11/PCBP4/E2F1/CDC25C/E2F8/CNOT3/PRMT1/E2F4/CNOT9/CNOT10/RGCC/CNOT6/CDKN1A/CENPJ/CNOT2/CNOT4/TP53/EP300/RBL1/CNOT6L/PLAGL1/CCNE2/E2F7/PLK3/SFN/CCNA1/CNOT8/TNKS1BP1/CCNE1/ARID3A</t>
+  </si>
+  <si>
+    <t>GINS2/FEN1/ORC6/RPA3/PSMC3/PCNA/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/RFC4/MCM4/PSMB3/PSMD14/MCM2/RFC2/MCM7/RFC5/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/GINS4/CDC45/PSME1/PSMC5/RFC3/PSMD13/LIG1/PSME3/PSMB6/PSMD12/PSMD11/RPA1/CDT1/POLA2/POLD2/PSMF1/POLD3/RFC1/PSMB4/POLE2/MCM8/PSMC2/ORC4/GINS1/POLE/PSME4/PSMB1/PSMA6/CDC6/CDKN1B/CDK2/RB1/POLA1/POLE3/POLD1/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/GINS3/PSMD1/CDKN1A/POLD4/PSMD8/ORC2/PSMB7/PSMD5/PRIM2/PSMA1/PSMC1/ORC1/DNA2/FZR1/PSMC6/PSMD6/PRIM1/PSMD3/PSMD2/PSMA5/CCNA1/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>CALM1/HSP90AA1/ACTB/CALM2/HSPB1/KDR/PGF/BRK1/ACTG1/RAC1/MLST8/FLT1/ELMO1/CDC42/BCAR1/HRAS/MAPKAP1/CALM3/ITGAV/AKT2/NRP1/PAK2/AHCYL1/NRP2/CYFIP2/PRKCD/PRR5/DOCK1/CDH5/PIK3R1/SRC/CYBA/ROCK1/ABI2/KRAS/AXL/JUP/NOS3/AKT1/RICTOR/MTOR/RHOA/VAV3/SHC2/TRIB3/AKT3/MAPKAPK3/FYN/ABI1/CTNND1/CTNNA1/PDPK1/PRKCZ/CTNNB1/MAPK12/VEGFB/ITPR1/NRAS/NCK1/MAPK14/PXN/PLCG1/NCKAP1/RASA1/WASF2/FLT4/CYFIP1/ITPR3/VEGFA/PIK3R2/ELMO2/NCK2/ROCK2/WASF3/MAPKAPK2/PIK3CB/ITPR2/PTK2B/PAK1/WASF1/BAIAP2/VAV2/MAPK13/NCKAP1L/PRKCA/PRKACB/CAV1/MAPK11/THEM4/SH2D2A/PRKACA/PIK3CA/CRK/VEGFC/PRKCB/SHB/NCF1/PAK3/SPHK1/PTK2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/BIRC5/ZWINT/TUBA1A/MAD2L1/PPP1CC/CENPF/AURKB/TUBB4B/CCNB1/CDC20/CENPM/DYNLL1/CENPN/CDK1/SMC1A/SPC25/RAD21/PLK1/PPP2R1A/CENPA/CCNB2/TUBB2A/SGO1/SKA2/SGO2/NUDC/SEC13/TUBB2B/BUB3/KIF2C/PMF1/PPP2CB/NUF2/CENPK/CKAP5/CENPS/NDC80/SMC3/CDCA5/CENPU/CENPH/PPP2R5C/CENPE/STAG2/ZWILCH/CENPO/SPDL1/ITGB3BP/KNL1/SPC24/DYNC1LI1/MAPRE1/PDS5B/TUBA1C/CENPQ/RCC2/BUB1B/RANBP2/NUP37/NUP43/XPO1/CENPC/ERCC6L/CENPT/RANGAP1/NDEL1/INCENP/MIS12/DYNLL2/NUP107/CENPL/CDCA8/BUB1/NUP98/TAOK1/TUBA4A/B9D2/CENPP/MAD1L1/PPP2CA/PPP2R5A/NSL1/HDAC8/DYNC1I1/PDS5A/KNTC1/SEH1L/KIF2A/STAG1/EHHADH/DYNC1LI2/NUP160/SKA1/CLASP2/CENPI/PPP2R5B/PPP2R1B/PMF1-BGLAP/ZW10/PAFAH1B1/NDE1/PPP2R5D/NUP133/DSN1/NUP85/TUBB4A/PPP2R5E/KIF18A/CLIP1/AHCTF1/TUBB8/DYNC1I2/DYNC1H1/CLASP1/WAPL</t>
+  </si>
+  <si>
+    <t>RPA3/HSPA8/HSPA1A/ST13/HSPA2/RPA2/HSPA5/NUP62/RPA1/DNAJB1/CCAR2/BAG3/DNAJB6/NUP93/RANBP2/NUP88/BAG2/NUP37/NUP43/NUP50/BAG4/HSPA4/NUP35/HSPA14/RAE1/NUP107/HSF1/NUP153/TPR/NUP98/GSK3B/HSPA1B/HSPH1/SIRT1/NUP54/NDC1/POM121/SEH1L/ATM/HSPA9/DNAJC7/NUP214/ATR/HSPA13/NUP160/NUPL2/MAPK1/HSPA12B/NUP58/DNAJC2/HSPA12A/YWHAE/NUP188/HSPA4L/MAPK3/BAG5/MAPKAPK2/NUP205/NUP133/NUP85/HIKESHI/NUP155/HSPA1L/AAAS/NUP210/BAG1</t>
+  </si>
+  <si>
+    <t>FEN1/RANBP1/PSIP1/POLR2L/UBA52/CXCR4/PPIA/SUPT4H1/RAN/GTF2A2/CHMP4B/GTF2F2/POLR2J/GTF2F1/SUPT16H/UBB/NELFA/CHMP2A/HMGA1/NCBP2/XRCC6/BANF1/POLR2K/LIG1/TAF12/PDCD6IP/POLR2F/NUP62/NELFE/TCEA1/CHMP5/XRCC5/CHMP7/POLR2A/POLR2I/TAF9B/CDK9/CCNH/RNMT/CDK7/NUP93/VPS37A/RANBP2/NUP88/UBAP1/NUP37/NCBP1/NUP43/XPO1/CTDP1/RCC1/NUP50/RANGAP1/NEDD4L/MVB12B/MNAT1/NUP35/GTF2H5/RAE1/NUP107/VTA1/TAF9/XRCC4/NUP153/ERCC3/TPR/CHMP4C/NUP98/TAF7/GTF2B/GTF2E2/POLR2E/CCNT2/UBC/CHMP2B/FURIN/ERCC2/CHMP3/POLR2C/TAF4/TAF6/TAF10/GTF2H2/TSG101/NUP54/GTF2E1/ELL/NELFCD/NDC1/SUPT5H/POM121/SEH1L/NELFB/CHMP4A/POLR2G/SSRP1/NUP214/TAF1/VPS37D/VPS37C/POLR2D/NUP160/VPS28/TAF13/NUPL2/POLR2B/TAF11/CCNT1/KPNA1/MVB12A/TAF3/NUP58/RNGTT/NUP188/POLR2H/CHMP6/NUP205/NUP133/GTF2H4/TAF5/NUP85/CCNK/TAF4B/TAF2/LIG4/NUP155/CD4/VPS37B/GTF2H3/TBP/NMT2/AAAS/NUP210/VPS4A/GTF2A1/VPS4B/GTF2H1/NMT1</t>
+  </si>
+  <si>
+    <t>CALM1/HSP90AA1/ACTB/CALM2/HSPB1/KDR/BRK1/ACTG1/RAC1/MLST8/ELMO1/CDC42/BCAR1/HRAS/MAPKAP1/CALM3/ITGAV/AKT2/PAK2/AHCYL1/CYFIP2/PRKCD/PRR5/DOCK1/CDH5/PIK3R1/SRC/CYBA/ROCK1/ABI2/KRAS/AXL/JUP/NOS3/AKT1/RICTOR/MTOR/RHOA/VAV3/SHC2/TRIB3/AKT3/MAPKAPK3/FYN/ABI1/CTNND1/CTNNA1/PDPK1/PRKCZ/CTNNB1/MAPK12/ITPR1/NRAS/NCK1/MAPK14/PXN/PLCG1/NCKAP1/RASA1/WASF2/CYFIP1/ITPR3/VEGFA/PIK3R2/ELMO2/NCK2/ROCK2/WASF3/MAPKAPK2/PIK3CB/ITPR2/PTK2B/PAK1/WASF1/BAIAP2/VAV2/MAPK13/NCKAP1L/PRKCA/PRKACB/CAV1/MAPK11/THEM4/SH2D2A/PRKACA/PIK3CA/CRK/PRKCB/SHB/NCF1/PAK3/SPHK1/PTK2</t>
+  </si>
+  <si>
+    <t>AURKB/RPA3/TPX2/UBA52/CCNA2/RFC4/RFC2/CSNK2B/RFC5/SUPT16H/RHNO1/RMI2/UBB/RPA2/AURKA/NUAK1/BLM/BARD1/TP53RK/RFC3/PRKAB2/PRKAG1/TAF12/CHEK2/RPA1/CSNK2A2/TAF9B/HIPK2/RAD50/RAD1/CDK5/EXO1/TOP3A/CDK2/BRCA1/CSNK2A1/PIN1/DYRK2/TAF9/RAD17/PRKAA1/BRIP1/TAF7/STK11/UBC/PRKAA2/TAF4/NOC2L/TAF6/TAF10/HIPK1/NBN/KAT5/ATM/MAPK14/SSRP1/RMI1/TAF1/ATR/TP53/CDK5R1/MAPKAPK5/RAD9A/TAF13/TOPBP1/HUS1/RBBP8/PRKAG2/TAF11/TAF3/CHEK1/MRE11/MDM4/DNA2/WRN/TAF5/MAPK11/TAF4B/TAF2/PRKAB1/MDM2/TP53INP1/PLK3/ATRIP/CCNA1/TBP</t>
+  </si>
+  <si>
+    <t>SRSF2/SRSF7/SRSF5/DDX39A/RBM8A/MAGOHB/SRSF3/PAPOLA/NCBP2/SRSF4/SRSF1/CPSF2/RNPS1/SRRM1/PABPN1/CPSF4/CSTF3/EIF4A3/UPF3B/THOC5/THOC6/CDC40/NCBP1/FYTTD1/CHTOP/THOC2/SLU7/CSTF2T/PCF11/THOC3/U2AF1/SYMPK/DHX38/CASC3/U2AF1L4/U2AF1L5/THOC1/POLDIP3/CPSF3/ZC3H11A/U2AF2/CPSF7/ALYREF/FIP1L1/WDR33/CSTF1/MAGOH/DDX39B/CLP1/SRSF6/CPSF1/SRSF9/CSTF2/SARNP/THOC7/SRSF11/NUDT21</t>
+  </si>
+  <si>
+    <t>ATF3/EXOSC8/ATF4/CALR/HDGF/EXOSC9/HSPA5/CREB3L1/EIF2S1/SHC1/ACADVL/SERP1/DNAJB11/WIPI1/CREB3/HERPUD1/PREB/XBP1/MBTPS1/SEC31A/MYDGF/EXOSC3/GSK3A/SEC62/DNAJC3/LMNA/EXOSC1/SSR1/KHSRP/DDIT3/DDX11/HSP90B1/CREB3L4/GOSR2/PDIA6/ADD1/ASNS/CREB3L3/NFYC/ATP6V0D1/EXOSC5/DCP2/EXOSC6/ZBTB17/CUL7/ARFGAP1/SRPRB/YIF1A/KLHDC3/EXTL3/CTDSP2/FKBP14/WFS1/EXOSC7/SEC61G/SEC61B/NFYB/SRPRA/TPP1/SEC61A1/MBTPS2/ASNA1/PDIA5/TLN1/CXXC1/EIF2AK3/CCL2/DCTN1/EXOSC2/EDEM1/PPP2R5B/SYVN1/HYOU1/EXTL2/EXTL1/TSPYL2/SEC63/DNAJB9/CREBRF/ERN1/SEC61A2/JMJD7-PLA2G4B/SULT1A3/NFYA/TATDN2/PARN/GFPT1/CREB3L2/DIS3/ATF6/EXOSC4/KDELR3</t>
+  </si>
+  <si>
+    <t>POLR2L/POLR1D/TAF1D/RBBP7/POLR2K/POLR2F/MTA3/CCNH/TTF1/CDK7/ZNRD1/POLR1C/MNAT1/GTF2H5/TAF1A/ERCC3/GATAD2B/MTA1/POLR1A/HDAC2/RBBP4/POLR2E/GATAD2A/TAF1B/ERCC2/POLR1E/HDAC1/GTF2H2/MTA2/CHD3/TWISTNB/TAF1C/POLR1B/UBTF/POLR2H/EHMT2/ERCC6/CD3EAP/GTF2H4/RRN3/KAT2B/CHD4/GTF2H3/MBD3/TBP/KAT2A/GTF2H1</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/POLR2L/UBA52/RFC4/RFC2/POLR2J/RFC5/POLE4/UBB/RPA2/RBX1/POLR2K/RFC3/HMGN1/POLR2F/DDB1/TCEA1/RPA1/POLD2/POLD3/RFC1/POLR2A/POLE2/POLR2I/CCNH/CDK7/POLE/ZNF830/ERCC8/CUL4B/MNAT1/POLK/GTF2H5/PPIE/ISY1/XPA/ERCC3/POLE3/POLD1/POLR2E/UBC/ERCC2/AQR/POLR2C/PRPF19/ERCC4/XAB2/ERCC1/GTF2H2/POLR2G/POLD4/POLR2D/USP7/ERCC5/POLR2B/EP300/CUL4A/POLR2H/ERCC6/GTF2H4/UVSSA/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>CKS1B/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/CDK4/PSMC5/MYC/PSMD13/MAX/SKP2/PSME3/PSMB6/PSMD12/AKT2/PSMD11/TFDP2/PSMF1/PSMB4/PSMC2/CCNH/CDK7/PSMB1/PSMA6/RBL2/CDC25A/CCND1/TFDP1/CDKN1B/CDK2/E2F1/MNAT1/RB1/AKT1/PSMB10/PSMB5/E2F4/PSMD9/RBBP4/UBC/PSMD10/PSMA3/WEE1/AKT3/PSMD1/CDKN1A/LIN52/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/LIN9/PSMC6/LIN37/CUL1/PSMD6/LIN54/PSMD3/PSMD2/CCNE2/PSMA5/E2F5/PTK6/CCNA1/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/PSMC3/PSMC4/PSMA4/TUBB2A/PSME2/PSMA7/UBA52/PSMB2/GNAS/PSMB3/PSMD14/TUBB2B/VCP/PSMD4/UBB/PSMD7/PRKAR1A/RBX1/PSME1/PSMC5/IHH/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/SPOP/P4HB/PSMF1/PSMB4/TULP3/PSMC2/TUBA1C/GPR161/PTCH1/PSME4/PSMB1/DERL2/PSMA6/GAS1/PRKAR2A/SMO/HHIP/CUL3/ARRB1/ADCY3/IFT57/ADAM17/IFT52/ITCH/GSK3B/PSMB10/PSMB5/OFD1/PSMD9/TUBA4A/UBC/PSMD10/PSMA3/ERLEC1/FUZ/PSMD1/INTU/ARRB2/GLI2/EFCAB7/EVC2/ADCY7/CDC73/OS9/ULK3/PSMD8/PSMB7/SEL1L/IFT88/SKP1/ADCY1/IFT172/PSMD5/ADCY6/KIF3A/PSMA1/SYVN1/PSMC1/NOTUM/TTC21B/MKS1/PSMC6/CSNK1A1/CUL1/PSMD6/CDON/IFT140/GAS8/RPGRIP1L/SMURF2/HHAT/PRKAR2B/BOC/WDR35/PSMD3/SCUBE2/GLI3/BTRC/PRKAR1B/IQCE/NUMB/PRKACB/DISP2/PSMD2/ADCY2/PRKACA/SMURF1/PSMA5/DZIP1/TUBB4A/ADCY10/KIF7/ADCY5/SHH/ADCY8/ADCY4/ADCY9/GRK2/SPOPL/DYNC2H1/GLI1/SUFU/IFT122/WDR19/PSMA2</t>
+  </si>
+  <si>
+    <t>TYMS/DUT/DTYMK/APRT/TK1/IMPDH2/NUDT1/GMPR2/GUK1/RRM2/ATIC/NME3/DCTPP1/AK4/DCTD/DNPH1/NME4/NUDT5/PAICS/ENTPD4/NME1/CTPS1/ADSL/DCK/TXN/PUDP/NT5C/AK1/UCK2/NME6/ADA/NUDT15/AK6/NUDT16/TXNRD1/PNP/GART/UCKL1/GLRX/ENTPD6/UPP1/RRM2B/IMPDH1/PFAS/CDA/UMPS/ADSS/NT5C2/TYMP/NME7/PPAT/RRM1/DGUOK/GSR/GPX1/CAD/ADSSL1/DHODH/GMPR/CMPK1/SAMHD1/NME2/HPRT1/DPYD/ENTPD2/CTPS2/ADPRM/NUDT18/NT5M/NT5C3A/LHPP/UPB1/NUDT13/AK7/ADAL/AK9/ENTPD7/XDH/ENTPD5/ENTPD1/NT5E/GMPS/AK8/ENTPD3/TK2/NUDT9/AMPD3/ENTPD8/AK5/DPYS/NME1-NME2/AMPD2/ADK/UCK1/AK2/ITPA</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/IDH2/CREB1/TFAM/SSBP1/CALM3/CRTC1/ATP5B/GLUD2/CYCS/MEF2C/NCOR1/CARM1/TBL1XR1/ESRRA/TGS1/HDAC3/CREBBP/GABPB1/TBL1X/HCFC1/MTERF1/POLRMT/ATF2/RXRA/ACSS2/PPRC1/MED1/SOD2/NCOA2/SMARCD3/NCOA6/NCOA1/SIRT5/CHD9/TFB2M/GABPA/PPARGC1B/ALAS1/HELZ2/POLG2/PPARA/SIRT3/GLUD1/NR1D1/MEF2D/PPARGC1A/SIRT4/CAMK4/TWNK/NRF1/CRTC2/TFB1M/CRTC3</t>
+  </si>
+  <si>
+    <t>RPP25/POP7/RAN/RPP30/RTCB/POP4/NUP62/CPSF4/TSEN15/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/RPP21/NUP153/TPR/NUP98/RPP38/FAM98B/TSEN2/NUP54/NDC1/POM121/SEH1L/NUP214/RPP14/NUP160/DDX1/C2orf49/NUPL2/TSEN54/CLP1/TSEN34/NUP58/CPSF1/NUP188/NUP205/CSTF2/NUP133/RPP40/XPOT/ELAC2/POP5/NUP85/NUP155/TRNT1/POP1/AAAS/NUP210/ZBTB8OS</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/POLR2L/UBA52/RFC4/RFC2/POLR2J/RFC5/POLE4/UBB/RPA2/RBX1/POLR2K/RFC3/LIG1/HMGN1/POLR2F/DDB1/TCEA1/RPA1/POLD2/POLD3/RFC1/POLR2A/POLE2/POLR2I/CCNH/CDK7/POLE/ZNF830/ERCC8/CUL4B/LIG3/MNAT1/POLK/GTF2H5/PPIE/ISY1/ERCC3/POLE3/POLD1/POLR2E/UBC/ERCC2/AQR/POLR2C/PRPF19/XAB2/GTF2H2/POLR2G/POLD4/POLR2D/USP7/POLR2B/EP300/XRCC1/CUL4A/POLR2H/ERCC6/GTF2H4/UVSSA/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>CKS1B/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/CDK4/PSMC5/MYC/PSMD13/MAX/SKP2/CDC25B/PSME3/PSMB6/PSMD12/PSMD11/TFDP2/PSMF1/PSMB4/PSMC2/CCNH/CDK7/PSMB1/PSMA6/RBL2/CDC25A/CCND1/TFDP1/CDKN1B/CDK2/E2F1/MNAT1/RB1/PSMB10/PSMB5/E2F4/PSMD9/RBBP4/UBC/PSMD10/PSMA3/WEE1/PSMD1/CDKN1A/LIN52/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/LIN9/FZR1/PSMC6/LIN37/CUL1/PSMD6/LIN54/PSMD3/PSMD2/CCNE2/PSMA5/E2F5/PTK6/CCNA1/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>TGIF1/PPP1CC/PPP1CA/UBA52/FKBP1A/SNW1/PARP1/BAMBI/UBE2D3/CCNC/UBB/PPP1CB/STRAP/MYC/USP9X/CGN/TFDP2/TGFB1/NCOR2/CDK9/NCOR1/XPO1/PARD3/MEN1/SKIL/TFDP1/NEDD4L/SERPINE1/WWTR1/NEDD8/UBE2D1/UCHL5/E2F4/SMAD4/TGFBR1/F11R/RHOA/CCNT2/UBC/FURIN/SMAD3/TRIM33/USP15/SP1/HDAC1/ZFYVE9/PRKCZ/PPP1R15A/CDKN2B/CBL/SMAD7/STUB1/JUNB/TGFBR2/CCNT1/MTMR4/PPM1A/RBL1/TGIF2/SKI/PMEPA1/SMURF2/PARD6A/CCNK/SMURF1/E2F5/RNF111/UBE2M/SMAD2/CDK8</t>
+  </si>
+  <si>
+    <t>DLK1/UBA52/SNW1/CCNC/UBB/JAG1/RBX1/RBPJ/MYC/TLE1/NCOR2/NCSTN/HES1/NCOR1/TLE3/TBL1XR1/TLE4/MAML3/NOTCH1/ARRB1/HDAC3/CREBBP/TBL1X/ADAM17/ITCH/HDAC2/TLE2/HEY2/UBC/HDAC6/JAG2/HDAC4/ARRB2/HDAC8/HDAC1/PSEN2/HDAC10/FBXW7/DLL1/MAML1/HDAC7/NEURL1B/SKP1/ADAM10/PSENEN/EP300/MIB1/HDAC5/MIB2/APH1B/HEY1/APH1A/PSEN1/CUL1/DLL4/DTX4/NUMB/KAT2B/HDAC9/MAML2/HIF1A/DTX2/NEURL1/MAMLD1/CNTN1/DTX1/HEYL/KAT2A/CDK8/HDAC11</t>
+  </si>
+  <si>
+    <t>JUN/SNW1/RBPJ/TMED2/TFDP2/MOV10/NOTCH2/NOTCH3/RFNG/CCND1/TFDP1/E2F1/MAML3/NOTCH1/CREBBP/ATP2A2/E2F3/B4GALT1/ST3GAL4/FURIN/TNRC6A/AGO1/MAML1/TNRC6C/TP53/LFNG/AGO4/SEL1L/TNRC6B/EP300/RAB6A/AGO2/NOTCH4/ST3GAL3/MFNG/ATP2A1/AGO3/KAT2B/ST3GAL6/MAML2/MAMLD1/ATP2A3/KAT2A/POGLUT1/POFUT1</t>
+  </si>
+  <si>
+    <t>B2M/NPM1/SLC25A6/AP1M2/RANBP1/PSMC3/PSIP1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PPIA/PSMB3/PSMD14/RAN/AP2S1/KPNB1/PSMD4/UBB/PSMD7/RAC1/SLC25A5/RBX1/PSME1/ARF1/HMGA1/ELMO1/PSMC5/AP2M1/BANF1/PSMD13/PSME3/PSMB6/NUP62/PSMD12/AP2A1/PSMD11/AP1S2/PAK2/PSMF1/PSMB4/PSMC2/CDK9/NUP93/AP1S1/RANBP2/PSME4/PSMB1/NUP88/PSMA6/NUP37/NUP43/XPO1/RCC1/NUP50/RANGAP1/APOBEC3G/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/PSMB10/PSMB5/CUL5/PSMD9/UBC/PSMD10/PSMA3/FYN/PSMD1/AP1M1/NUP54/NDC1/POM121/SEH1L/AP1G1/NUP214/PSMD8/AP2A2/PSMB7/NUP160/SLC25A4/SKP1/NUPL2/PSMD5/CCNT1/KPNA1/PACS1/NUP58/PSMA1/PSMC1/PSMC6/NUP188/AP2B1/PSMD6/ATP6V1H/AP1S3/NUP205/NUP133/PSMD3/BTRC/NUP85/AP1B1/PSMD2/PSMA5/NUP155/CD4/DOCK2/LCK/CD247/AAAS/NUP210/PSMA2</t>
+  </si>
+  <si>
+    <t>BIRC5/AURKB/TOP2A/PCNA/TOP1/SUMO1/AURKA/SUMO3/NUP62/NUP93/RANBP2/NUP88/NUP37/SUMO2/NUP43/NUP50/RANGAP1/INCENP/NUP35/RAE1/UBE2I/NUP107/CDCA8/NUP153/TPR/NUP98/TOP2B/NUP54/PIAS3/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/PIAS4/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>PMM1/UAP1/NANS/DPM3/GNPNAT1/SRD5A3/SLC35C1/FUOM/ST6GALNAC3/NUDT14/ST3GAL1/CMAS/GLB1/NUS1/GMDS/FPGT/ST3GAL4/AMDHD2/ALG5/GFPT2/DOLPP1/CTSA/MVD/ST6GALNAC6/TSTA3/ST8SIA1/SLC35A1/DOLK/NEU3/MPI/ST6GAL1/GNE/ST8SIA2/PGM3/ST8SIA4/ST3GAL2/ST3GAL3/ST6GALNAC5/GMPPB/ST8SIA3/DPM1/RENBP/DPM2/ST3GAL6/GMPPA/NPL/ST6GALNAC2/FUK/NEU1/ST6GAL2/ST8SIA6/PMM2/NEU4/ST6GALNAC1/ST3GAL5/DHDDS/ST6GALNAC4/GFPT1/SLC17A5/NANP/NAGK</t>
+  </si>
+  <si>
+    <t>RANBP1/POLR2L/UBA52/PPIA/SUPT4H1/RAN/GTF2A2/CHMP4B/GTF2F2/POLR2J/GTF2F1/SUPT16H/UBB/NELFA/CHMP2A/NCBP2/POLR2K/TAF12/PDCD6IP/POLR2F/NUP62/NELFE/TCEA1/CHMP5/CHMP7/POLR2A/POLR2I/TAF9B/CDK9/CCNH/RNMT/CDK7/NUP93/VPS37A/RANBP2/NUP88/UBAP1/NUP37/NCBP1/NUP43/XPO1/CTDP1/RCC1/NUP50/RANGAP1/NEDD4L/MVB12B/MNAT1/NUP35/GTF2H5/RAE1/NUP107/VTA1/TAF9/NUP153/ERCC3/TPR/CHMP4C/NUP98/TAF7/GTF2B/GTF2E2/POLR2E/CCNT2/UBC/CHMP2B/FURIN/ERCC2/CHMP3/POLR2C/TAF4/TAF6/TAF10/GTF2H2/TSG101/NUP54/GTF2E1/ELL/NELFCD/NDC1/SUPT5H/POM121/SEH1L/NELFB/CHMP4A/POLR2G/SSRP1/NUP214/TAF1/VPS37D/VPS37C/POLR2D/NUP160/VPS28/TAF13/NUPL2/POLR2B/TAF11/CCNT1/MVB12A/TAF3/NUP58/RNGTT/NUP188/POLR2H/CHMP6/NUP205/NUP133/GTF2H4/TAF5/NUP85/CCNK/TAF4B/TAF2/NUP155/VPS37B/GTF2H3/TBP/NMT2/AAAS/NUP210/VPS4A/GTF2A1/VPS4B/GTF2H1/NMT1</t>
+  </si>
+  <si>
+    <t>YWHAH/COX7C/COX7A2L/COX4I1/YWHAQ/RHEB/COX5B/COX6B1/YWHAB/MLST8/SURF1/LAMTOR1/DDIT4/TXN/LRPPRC/PRKAB2/PRKAG1/PRDX1/RRAGA/AKT2/PTEN/COX8A/MOV10/YWHAZ/PRDX5/TXNRD1/COX14/CYCS/TACO1/LAMTOR2/COX20/NDUFA4/COX18/AKT1/PRKAA1/MTOR/RRM2B/COX7B/TNRC6A/PRKAA2/AKT3/AGO1/SESN3/COX6C/COX16/GSR/SESN2/LAMTOR5/TSC2/TNRC6C/RRAGC/TIGAR/TP53/AGO4/TNRC6B/SCO2/COX5A/SCO1/TSC1/PRKAG2/LAMTOR3/COX6A1/GPI/RPTOR/AGO2/YWHAE/RRAGD/GLS/SLC38A9/SESN1/AGO3/COX11/GLS2/PRKAB1/GPX2/SFN/RRAGB/YWHAG/LAMTOR4/G6PD/PRDX2</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/RAP1B/YWHAB/ACTG1/MAP2K2/HRAS/RAF1/MAP2K1/RAP1A/PHB/ARRB1/SRC/MARK3/KRAS/ARAF/RASA4/IQGAP1/ITGA2B/DAB2IP/SPRED2/MAP3K11/FGA/ARRB2/BRAF/NF1/NRAS/RASA1/CSK/CNKSR2/VWF/RASAL2/TLN1/MAPK1/FGB/SPRED1/RASA3/MAPK3/SYNGAP1/JAK2/BRAP/KSR1/SPRED3/FGG/APBB1IP/RASAL1/KSR2/RASAL3/CNKSR1/RASA2</t>
+  </si>
+  <si>
+    <t>MYL9/ACTB/ARPC2/MYL6/MYH10/ARPC5/ARPC1B/MYH9/MYL12A/CLTB/CFL1/ARPC1A/MYL12B/MMP2/AP2S1/ACTG1/CLTA/RAC1/SDC2/AP2M1/CDC42/ACTR3/ACTR2/HRAS/EFNA1/AP2A1/PAK2/WASL/EFNB2/EPHB2/LYN/GIT1/NCSTN/EPHA4/EPHB6/ARPC4/EPHB3/SRC/ROCK1/YES1/EPHA6/RHOA/VAV3/EFNB1/FYN/EFNA3/CLTC/PSEN2/LIMK2/SDCBP/EPHA1/EFNA5/CLTCL1/ARHGEF7/DNM1/RASA1/KALRN/EPHA2/AP2A2/EFNA4/GRIN2B/ADAM10/PSENEN/ITSN1/NCK2/APH1B/ROCK2/TIAM1/APH1A/ARPC3/AP2B1/EFNB3/PSEN1/MMP9/PAK1/VAV2/EPHB1/EPHA8/EPHA7/ARHGEF28/PAK3/MYH14/NGEF/LIMK1/EPHB4/PTK2</t>
+  </si>
+  <si>
+    <t>POLR2L/GTF2F2/POLR2J/GTF2F1/POLR2K/POLR2F/NUP62/POLR2A/POLR2I/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/POLR2E/POLR2C/NUP54/NDC1/POM121/SEH1L/POLR2G/NUP214/POLR2D/NUP160/NUPL2/POLR2B/NUP58/NUP188/POLR2H/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>FDPS/FDFT1/TM7SF2/FASN/SQLE/IDI1/SC5D/ELOVL6/GGPS1/SCD/CARM1/TBL1XR1/TGS1/CREBBP/TBL1X/NFYC/HMGCR/RXRA/HMGCS1/DHCR7/MVD/PMVK/SP1/LSS/MED1/NCOA2/NFYB/SMARCD3/NCOA6/NCOA1/CHD9/MVK/ACACB/SREBF2/SREBF1/HELZ2/CYP51A1/GPAM/PPARA/NFYA/ACACA/MTF1</t>
+  </si>
+  <si>
+    <t>YARS/QARS/DARS/SARS/KARS/PPA1/MARS/RARS/NARS/EPRS/FARSA/EEF1E1/AARS/LARS/AIMP1/YARS2/NARS2/SARS2/WARS/VARS2/CARS2/HARS/TARS/TARS2/AIMP2/RARS2/FARSB/IARS2/HARS2/WARS2/EARS2/PARS2/LARS2/DARS2/PPA2/FARS2/IARS/GARS/MARS2/VARS/AARS2/CARS</t>
+  </si>
+  <si>
+    <t>GNG11/CALM1/CALM2/GNG5/GNB1/GNB2/GNB5/GNG12/FZD5/CALM3/LEF1/MOV10/FZD2/TCF7L2/GNB3/TCF7L1/GNB4/FZD4/MAP3K7/CAMK2A/TNRC6A/PPP3CB/NLK/AGO1/PPP3CA/FZD6/CTNNB1/ITPR1/PPP3R1/TNRC6C/GNG7/AGO4/ITPR3/FZD3/TNRC6B/GNGT1/NFATC1/GNG3/WNT5A/PRKG1/AGO2/GNG10/GNG4/ITPR2/PDE6B/GNG2/PLCB2/AGO3/PRKCA/TCF7/GNG8/GNAO1/PLCB1/WNT11/PDE6A/PRKG2/GNG13/PLCB3/PDE6G</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/AGTRAP/AKAP9/SND1/RAP1B/YWHAB/ACTG1/FXR1/MAP2K2/HRAS/MACF1/QKI/ESRP1/KDM7A/LMNA/RAF1/MAP2K1/RAP1A/TRIM24/ARRB1/SRC/MARK3/KRAS/ARAF/ZC3HAV1/FAM114A2/IQGAP1/ITGA2B/TRAK1/AGGF1/FGA/ARRB2/BRAF/KIAA1549/NRAS/BCL2L11/AGK/CSK/PAPSS1/CNKSR2/VWF/TLN1/MAPK1/FGB/ATG7/MPRIP/MAPK3/PAPD7/JAK2/AP3B1/KSR1/FGG/APBB1IP/KSR2/CLCN6/CNKSR1</t>
+  </si>
+  <si>
+    <t>RHEB/JUN/MLST8/RBBP7/LAMTOR1/REST/SALL4/RING1/RRAGA/MAF1/MTA3/PHC1/SCMH1/RNF2/KDM1A/LAMTOR2/EED/HDAC3/SNAI2/GATAD2B/MTA1/MECOM/SNAI1/MTOR/HDAC2/RBBP4/ATF2/GATAD2A/PHC2/EZH2/HDAC1/LAMTOR5/EGR1/PHC3/MTA2/CHD3/RRAGC/HDAC7/TP53/SUZ12/ATN1/RCOR1/MAPK1/HDAC5/LAMTOR3/PPARG/RPTOR/RRAGD/CBX4/MAPK3/SLC38A9/CHD4/MBD3/RRAGB/CBX6/CBX2/CBX8/LAMTOR4/BMI1</t>
+  </si>
+  <si>
+    <t>SLBP/EIF4E/NCBP2/NUP62/CPSF2/CPSF4/NUP93/RANBP2/NUP88/NUP37/NCBP1/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/SYMPK/TPR/NUP98/NUP54/NDC1/POM121/CPSF3/SEH1L/NUP214/ALYREF/FIP1L1/WDR33/NUP160/NUPL2/NUP58/CPSF1/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>DYNLL1/RHEB/MAP1LC3B/CHMP4B/MAP1LC3A/MLST8/CHMP2A/LAMTOR1/PRKAB2/PRKAG1/WIPI1/RRAGA/ATG4D/GABARAPL2/CHMP7/RB1CC1/AMBRA1/LAMTOR2/ATG101/DYNLL2/ATG12/WDR45/PRKAA1/CHMP4C/MTOR/WDR45B/CHMP2B/CHMP3/ATG5/ATG3/PRKAA2/ULK1/WIPI2/ATG10/LAMTOR5/TSC2/PIK3R4/CHMP4A/RRAGC/MTMR3/ATG4C/ATG16L1/ATG13/TSC1/PRKAG2/MTMR14/LAMTOR3/ATG9B/ATG7/GABARAPL1/RPTOR/BECN1/ATG9A/ATG4B/RRAGD/GABARAP/SLC38A9/CHMP6/ATG4A/UVRAG/ATG14/PRKAB1/PIK3C3/RRAGB/LAMTOR4</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DYNLL1/TUBB2A/RAB18/DCTN3/KIF22/TUBB2B/TMED9/KIF2C/KIF23/PAFAH1B3/SURF4/KIF20A/KIF20B/ARF1/ARF4/TMED10/DCTN5/CENPE/CAPZA1/KIF4A/ACTR1A/KIFAP3/RACGAP1/DCTN2/TMED3/KIFC1/TMED2/COPB1/KIF3C/DYNC1LI1/ARF5/KIF26B/TUBA1C/KIF9/KIF12/GALNT1/COPB2/KIF21A/BICD1/CAPZA2/CAPZB/DYNLL2/TMED7/KIF15/KIF18B/DCTN6/ARFGAP3/COPA/RAB3GAP2/KIF11/DCTN4/TUBA4A/ARF3/GBF1/STX18/ARFGAP1/ARFGAP2/KIF1B/NAPB/KIF26A/DYNC1I1/KIFC2/KLC3/KDELR2/BICD2/KLC2/KIF3B/RAB1A/NBAS/KIF13B/SEC22B/KLC4/KIF2A/EHHADH/DYNC1LI2/NSF/BNIP1/RINT1/RAB1B/DCTN1/USE1/COPE/NAPA/KIF16B/KIF3A/COPZ2/RAB6A/ACTR10/COPG2/ZW10/PAFAH1B1/KIF27/PLA2G6/RAB3GAP1/KLC1/COPZ1/AGPAT3/KIF1C/COPG1/KIF1A/TUBB4A/KIF19/KIF25/KIF18A/KIF21B/RAB6B/KIF6/NAPG/GALNT2/TUBB8/DYNC1I2/DYNC1H1/PAFAH1B2/KIF5B/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>EIF4E/NCBP2/NUP62/CPSF2/CPSF4/NUP93/RANBP2/NUP88/NUP37/NCBP1/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/SYMPK/TPR/NUP98/NUP54/NDC1/POM121/CPSF3/SEH1L/NUP214/ALYREF/FIP1L1/WDR33/NUP160/NUPL2/NUP58/CPSF1/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>TGIF1/PPP1CC/FOXH1/FSTL1/PPP1CA/UBA52/FKBP1A/SNW1/PARP1/BAMBI/UBE2D3/DRAP1/CCNC/UBB/SMAD9/PPP1CB/STRAP/MYC/USP9X/CGN/TFDP2/AMHR2/TGFB1/NCOR2/CDK9/NCOR1/XPO1/PARD3/MEN1/SKIL/TFDP1/NEDD4L/SMAD6/SERPINE1/BMPR2/WWTR1/NEDD8/UBE2D1/UCHL5/E2F4/SMAD4/TGFBR1/F11R/RHOA/BMPR1A/CCNT2/UBC/FURIN/SMAD3/TRIM33/USP15/SP1/HDAC1/ZFYVE9/PRKCZ/PPP1R15A/CDKN2B/FST/CBL/SMAD7/SMAD5/STUB1/JUNB/GREM2/TGFBR2/INHBA/ZFYVE16/CCNT1/MTMR4/AMH/PPM1A/RBL1/TGIF2/ACVR2B/SKI/PMEPA1/FSTL3/SMURF2/PARD6A/ACVR1B/BMP2/CCNK/SMURF1/BMPR1B/E2F5/ACVRL1/ACVR2A/ACVR1C/NOG/SMAD1/RNF111/UBE2M/SMAD2/CDK8</t>
+  </si>
+  <si>
+    <t>POLR2L/SUPT4H1/GTF2A2/GTF2F2/POLR2J/GTF2F1/SNAPC5/SRRT/PHAX/NCBP2/POLR2K/POLR2F/RPRD1B/POLR2A/ZNF143/POLR2I/CDK9/CDK7/RPAP2/NCBP1/RPRD2/SNAPC2/NABP2/INTS6/SNAPC3/TAF9/PCF11/INTS10/ICE2/GTF2B/GTF2E2/POLR2E/CCNT2/SNAPC1/POLR2C/INTS1/POU2F1/TAF6/SP1/GTF2E1/ELL/TAF8/SUPT5H/POLR2G/SSU72/ICE1/INTS12/POLR2D/INTS3/TAF13/POLR2B/TAF11/CCNT1/ELL2/INTS9/POU2F2/SNAPC4/POLR2H/ZC3H8/INTS8/TAF5/INTS5/CCNK/INTS4/NABP1/INTS2/TBP/INTS7/RPRD1A/GTF2A1</t>
+  </si>
+  <si>
+    <t>CALM1/FN1/DUSP4/ACTB/CALM2/FGFR1/HSPB1/PSMC3/CDK1/SEPT7/PSMC4/PPP2R1A/JUN/PSMA4/PSME2/FGFR4/PSMA7/VCL/UBA52/PEBP1/PSMB2/SPTBN1/PEA15/RASGRP3/PSMB3/AKAP9/PSMD14/RAP1B/YWHAB/ACTG1/PDGFRB/PPP2CB/PSMD4/UBB/PSMD7/RAC1/DUSP6/RBX1/PSME1/TEK/PSMC5/MYC/PPP2R5C/CDC42/SHC1/PSMD13/MAP2K2/ERBB4/HRAS/PSME3/CALM3/JAK1/PSMB6/PSMD12/DUSP1/PSMD11/DNAJB1/MOV10/PAK2/PSMF1/PDGFRA/PSMB4/CCND3/PSMC2/ERBB3/PSME4/PSMB1/ANGPT1/PSMA6/CDC42EP3/XPO1/GRIN2A/PTPRA/RAF1/LAMTOR2/MAP2K1/ETV4/SPTAN1/RAP1A/CUL3/PHB/GRB2/DUSP5/ARRB1/SRC/MARK3/KRAS/FGFR2/FGF8/FGFR3/CAMK2D/ARAF/PSMB10/PSMB5/RASA4/ACTN2/PSMD9/UBC/CAMK2A/PSMD10/PSMA3/IQGAP1/TNRC6A/ITGA2B/SHC2/DAB2IP/PPP2CA/PPP2R5A/AGO1/SPRED2/FYN/MAP3K11/PSMD1/CAMK2G/RAPGEF2/FGA/ARRB2/RANBP9/BRAF/FGF10/DUSP9/NF1/SPTBN2/KIT/NRG2/NRAS/PSPN/CDC14B/TNRC6C/CDC42EP2/FOXO1/RASA1/PSMD8/TYK2/CSK/PTPN11/KALRN/MAPKAPK5/PSMB7/AGO4/CNKSR2/GRIN2B/VWF/RASAL2/TLN1/WDR83/NCAM1/GFRA2/IGF2BP1/PDGFA/TNRC6B/NRG1/MAPK1/FGB/HBEGF/FRS3/PSMD5/MAPK6/FGF2/SPRED1/LAMTOR3/IRS1/PSMA1/PPP2R5B/DUSP10/PPP2R1B/PSMC1/GRIN2D/FGF1/RASA3/AGO2/PSMC6/GFRA3/MAPK3/IL6ST/PSMD6/FGF17/PPP2R5D/SOS1/DUSP2/KBTBD7/EGF/RASGRP1/CDC14A/LAT/DUSP16/PPP5C/PAK1/PSMD3/KLB/SYNGAP1/RASGEF1A/MAPK4/JAK2/BRAP/CAMK2B/MET/AGO3/FRS2/PRKACB/PAQR3/PSMD2/ERBB2/PRKACA/NCOA3/KSR1/FOXO3/PSMA5/EGFR/SPRED3/FGF23/PPP2R5E/IL17RD/IL6R/SPTBN4/FGF18/CSF2RA/FGF9/IL6/FGF22/NRTN/DUSP8/PDGFB/FGG/GDNF/HGF/IL2RG/PAK3/SHC3/FGF19/APBB1IP/RASAL1/KSR2/SPTB/SPTBN5/NRG4/RASAL3/JAK3/DUSP7/CNKSR1/RASA2/FGF7/IRS2/PTK2/DLG4/KITLG/PSMA2</t>
+  </si>
+  <si>
+    <t>HMGB2/YWHAH/HMGB1/PSMC3/H1F0/DYNLL1/DSP/YWHAQ/PSMC4/CLSPN/PSMA4/APPL1/PSME2/LMNB1/PSMA7/UBA52/TJP1/PSMB2/PSMB3/PSMD14/YWHAB/KPNB1/PSMD4/DBNL/UBB/PSMD7/HIST1H1D/FNTA/PSME1/MAGED1/PSMC5/TRAF2/PSMD13/PSME3/DFFA/DNM1L/PPP3CC/PSMB6/CFLAR/PSMD12/GSN/BCAP31/AKT2/PSMD11/TFDP2/PAK2/YWHAZ/PSMF1/ACIN1/PSMB4/HIST1H1E/PRKCD/CDH1/BAX/PSMC2/OMA1/CYCS/LMNA/PSME4/PSMB1/PSMA6/DAPK3/TFDP1/E2F1/HIST1H1B/BIRC2/SPTAN1/PMAIP1/OPA1/ADD1/DYNLL2/OCLN/TP53BP2/STK26/ROCK1/FADD/TLR4/AKT1/PSMB10/MAPK8/PSMB5/PLEC/BBC3/BAD/PSMD9/RIPK1/UBC/PSMD10/PSMA3/DIABLO/CASP7/BID/AKT3/PSMD1/PPP1R13B/TNFRSF10B/CASP6/CASP3/CTNNB1/ARHGAP10/PPP3R1/APC/VIM/STK24/BCL2L11/PSMD8/BAK1/TP53/PSMB7/DSG2/TJP2/CASP9/PSMD5/DAPK1/KPNA1/PSMA1/PSMC1/UNC5B/PSMC6/YWHAE/DCC/BMF/PSMD6/XIAP/GAS2/MAPT/TICAM1/PSMD3/TP73/HIST1H1C/TRADD/FAS/PSMD2/PSMA5/PRKCQ/SATB1/CASP8/DAPK2/BCL2/DFFB/SFN/TNFSF10/TNFRSF10A/APAF1/PTK2/YWHAG/BCL2L1/PSMA2/NMT1</t>
+  </si>
+  <si>
+    <t>COX7C/ATP5A1/NDUFB5/COX7A2L/ATP5F1/UQCRH/COX4I1/NDUFA6/UQCRB/ATP5G2/MDH2/CYC1/LDHB/COX5B/UQCRC2/NDUFA10/ATP5G3/NDUFS6/COX6B1/NDUFB2/NDUFB9/ATP5I/IDH2/GLO1/NDUFA1/ATP5J/NDUFA11/ATP5C1/SURF1/TRAP1/ETFA/UQCRQ/IDH3G/HAGH/TIMMDC1/NDUFS1/LRPPRC/DLD/SUCLG2/NDUFC1/UQCR11/NDUFB6/PDK1/NDUFAF3/ATP5O/ETFB/NDUFS7/LDHA/NDUFC2/ACO2/NDUFB10/ATP5L/NDUFV2/IDH3B/COX8A/NDUFS3/ATP5D/UQCRC1/TMEM126B/NDUFAB1/PDHB/NDUFV1/ATP5S/SLC16A3/COX14/SDHA/ATP5B/NDUFB4/IDH3A/CYCS/SDHD/PDK3/BSG/NDUFB7/NDUFS4/UQCR10/TACO1/NDUFB11/NDUFA13/PDHX/NDUFA9/SLC16A1/SDHB/UQCRFS1/NDUFS8/D2HGDH/ATP5E/NDUFB1/COX20/NNT/NDUFA4/DLAT/MPC1/COX18/ATP5G1/ECSIT/NDUFS5/NDUFA2/FH/COX7B/ACAD9/ADHFE1/RXRA/NDUFB8/ATP5H/PDHA1/SUCLG1/COX6C/PDP2/NDUFAF1/COX16/UCP2/MPC2/NDUFA7/PDPR/NDUFS2/SDHC/NDUFB3/NDUFAF5/SUCLA2/NDUFAF2/ATP5J2/SCO2/COX5A/SCO1/NDUFAF6/COX6A1/COQ10A/PPARD/CS/NUBPL/NDUFA3/SLC25A14/NDUFAF4/NDUFA5/DLST/NDUFA8/PDP1/COX11/NDUFAF7/L2HGDH/NDUFA12/SLC25A27/OGDH/UCP3/ETFDH/NDUFV3/COQ10B/PDK2</t>
+  </si>
+  <si>
+    <t>UBA52/SNW1/CCNC/UBB/JAG1/RBX1/RBPJ/MYC/NCOR2/NCSTN/HES1/NCOR1/TBL1XR1/MAML3/NOTCH1/HDAC3/CREBBP/TBL1X/ADAM17/HDAC2/HEY2/UBC/HDAC6/JAG2/HDAC4/HDAC8/HDAC1/PSEN2/HDAC10/FBXW7/DLL1/MAML1/HDAC7/NEURL1B/SKP1/ADAM10/PSENEN/EP300/MIB1/HDAC5/MIB2/APH1B/HEY1/APH1A/PSEN1/CUL1/DLL4/KAT2B/HDAC9/MAML2/NEURL1/MAMLD1/HEYL/KAT2A/CDK8/HDAC11</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/APEX1/PCNA/RFC4/MPG/RFC2/PARP1/RFC5/POLE4/RPA2/BPHL/RFC3/LIG1/UNG/RPA1/POLD2/TDG/PARG/POLD3/RFC1/POLE2/POLE/NEIL2/LIG3/POLE3/POLD1/OGG1/MBD4/NTHL1/NEIL1/ADPRHL2/SMUG1/PARP2/MUTYH/POLB/POLD4/XRCC1/PNKP</t>
+  </si>
+  <si>
+    <t>RHOBTB3/SCOC/ARFIP2/GOLGA4/COG4/NAA35/VPS53/GCC2/NAA38/M6PR/IGF2R/VAMP3/VPS51/RGP1/NAA30/VPS52/RABEPK/COG5/STX10/STX16/NAPB/COG8/COG6/STX6/ARL1/TMF1/SYS1/NSF/PLIN3/NAPA/GCC1/COG1/VTI1A/RAB6A/RAB9B/USP6NL/COG2/COG7/TGOLN2/RIC1/ARFRP1/RAB9A/GOLGA1/VPS54/RAB6B/COG3/VAMP4/NAPG</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DYNLL1/TUBB2A/SPTBN1/TRAPPC6A/DCTN3/SEC13/TUBB2B/TMED9/ANK3/CTSC/TRAPPC1/FOLR1/TRAPPC2L/ARF1/ARF4/TMED10/DCTN5/TRAPPC4/TRAPPC3/CAPZA1/LMAN2/ACTR1A/DCTN2/TMED3/TMED2/USO1/PREB/STX5/COPB1/SEC31A/DYNC1LI1/ARF5/GOLGA2/COG4/TBC1D20/TUBA1C/CD59/CNIH1/COPB2/YKT6/PPP6C/TFG/CAPZA2/CSNK1D/STX17/CAPZB/GOSR2/SPTAN1/DYNLL2/GOSR1/TMED7/LMAN1/PPP6R1/DCTN6/ARFGAP3/COPA/MIA3/MCFD2/DCTN4/TUBA4A/ARF3/GBF1/ARFGAP1/ARFGAP2/COG5/BET1/NAPB/GOLGB1/DYNC1I1/COL7A1/KDELR2/TMEM115/COG8/SEC16A/COG6/TRAPPC2/SPTBN2/SEC23IP/RAB1A/TRAPPC6B/PPP6R3/SEC22B/SEC22A/SAR1B/EHHADH/DYNC1LI2/NSF/GORASP1/RAB1B/DCTN1/COPE/NAPA/TRAPPC5/SEC24D/COPZ2/COG1/ACTR10/COPG2/SERPINA1/COG2/SEC24B/COG7/LMAN2L/CD55/SEC23A/SEC24C/COPZ1/ANKRD28/TRAPPC9/TRAPPC10/COPG1/SEC24A/ANK2/TUBB4A/F8/BET1L/SPTBN4/CNIH2/CNIH3/SEC16B/ANK1/SPTB/SPTBN5/COG3/SEC22C/NAPG/TUBB8/DYNC1I2/DYNC1H1/CTSZ/SCFD1/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>PTTG1/MAD2L1/AURKB/ANAPC11/UBE2C/CCNB1/CDC20/PSMC3/CDK1/PLK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/AURKA/PSME1/PSMC5/PSMD13/SKP2/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/CDK2/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/FBXO5/PSMD1/CDC27/NEK2/ANAPC10/PSMD8/ANAPC2/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/FZR1/PSMC6/UBE2E1/ANAPC15/CUL1/PSMD6/CDC14A/ANAPC5/PSMD3/BTRC/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>H2AFZ/GNG11/CALM1/HIST1H4C/CALM2/H2AFV/PSMC3/H2AFX/GNG5/WLS/PSMC4/PPP2R1A/GNB1/PSMA4/SOST/SNX3/PFN1/PSME2/SOX17/CLTB/VPS29/PSMA7/UBA52/PSMB2/SOX4/RAC3/PSMB3/PSMD14/CSNK2B/AP2S1/SOX7/RSPO3/PPP2CB/GNB2/PSMD4/CLTA/UBB/ASH2L/PSMD7/GNB5/RAC1/RBX1/PSME1/GNG12/SFRP1/PSMC5/MYC/PPP2R5C/AP2M1/FZD5/DKK1/H2AFJ/CBY1/PSMD13/PSME3/CALM3/PSMB6/LEF1/PSMD12/AP2A1/TLE1/AKT2/PSMD11/RSPO4/RNF146/MOV10/YWHAZ/PSMF1/SRY/FZD2/LGR4/PSMB4/TCF7L2/CSNK2A2/GNB3/ROR1/PSMC2/TCF7L1/GNB4/H3F3A/PSME4/PSMB1/PSMA6/XPO1/FZD4/TLE3/MEN1/VPS35/TLE4/CSNK1E/CSNK2A1/CUL3/AES/RYK/CREBBP/WNT3/TMED5/VPS26A/CTNNBIP1/PRICKLE1/AKT1/GSK3B/PSMB10/PSMB5/HIST2H2AC/PSMD9/LRP5/RHOA/TLE2/MAP3K7/UBC/CAMK2A/PSMD10/PSMA3/TNRC6A/PPP3CB/AXIN1/PPP2CA/NLK/KREMEN2/PPP2R5A/AMER1/AGO1/PSMD1/HIST1H3B/WNT5B/ARRB2/HDAC1/USP34/CLTC/CHD8/DVL1/HIST1H2BD/CSNK1G2/PPP3CA/PYGO1/CTBP2/HIST1H2BH/FZD6/CCDC88C/TNKS/LRP6/CTNNB1/ITPR1/AXIN2/HIST2H2BE/KAT5/PPP3R1/CDC73/HIST1H2BN/H3F3B/TNRC6C/APC/GNG7/FZD8/TNKS2/SMARCA4/RAC2/PSMD8/USP8/AP2A2/PSMB7/DVL3/DAAM1/AGO4/SOX9/RUVBL1/ITPR3/SKP1/FZD3/TNRC6B/ZNRF3/GNGT1/LGR5/PSMD5/EP300/NFATC1/VANGL2/GNG3/PSMA1/WNT5A/TRRAP/PPP2R5B/PPP2R1B/PSMC1/HIST1H2AE/PRKG1/HIST1H3A/BCL9L/AGO2/PSMC6/WNT2B/AP2B1/GNG10/CSNK1A1/CUL1/PSMD6/FZD1/PPP2R5D/HIST1H2BG/XIAP/HIST1H3G/SMURF2/SFRP2/PARD6A/GNG4/ITPR2/PDE6B/DVL2/RNF43/ROR2/PSMD3/BTRC/GNG2/PLCB2/HIST1H3E/AGO3/SOX13/PRKCA/TCF7/KMT2D/HIST1H4J/DACT1/HIST1H4E/HIST1H2AC/CAV1/GNG8/HIST1H2AB/HIST1H2BK/GNAO1/PSMD2/PLCB1/RSPO1/SMURF1/BCL9/PSMA5/KLHL12/SOX6/PPP2R5E/SCRIB/WNT11/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/PRKCG/PDE6A/HIST1H3I/HIST1H3H/HIST4H4/PRKCB/HIST1H2BJ/HIST1H2BC/RSPO2/TERT/RUNX3/HIST3H2BB/SOX2/PRKG2/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/WNT2/WNT16/GNG13/PIP5K1B/PLCB3/PYGO2/RBBP5/FRAT2/KREMEN1/PDE6G/FRAT1/PORCN/LEO1/CTBP1/FZD7/PSMA2</t>
+  </si>
+  <si>
+    <t>TOMM7/SLC25A6/TOMM20/TIMM13/ATP5A1/PMPCB/HSPD1/DNAJC19/CYC1/CMC2/CHCHD10/COX17/TIMM9/TOMM22/COA4/CHCHD3/IDH3G/CHCHD5/TIMM8B/ACO2/TIMM21/VDAC1/SAMM50/ATP5B/TOMM40/TIMM17A/TIMM17B/TOMM5/GRPEL2/MTX1/TIMM10B/ATP5G1/TIMM23/NDUFB8/CHCHD4/TIMM8A/BCS1L/MTX2/CHCHD7/TIMM44/COQ2/PMPCA/HSPA9/SLC25A12/TIMM50/SLC25A4/PAM16/GFER/TIMM10/CS/TIMM22/COX19/TAZ/GRPEL1/FXN/LDHD/CMC4/HSCB/TOMM70/SLC25A13/COA6</t>
+  </si>
+  <si>
+    <t>ORC6/RPA3/PSMC3/GMNN/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PSMD4/POLE4/UBB/PSMD7/RPA2/MCM5/CDC45/PSME1/MCM10/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/RPA1/CDT1/POLA2/PSMF1/PSMB4/POLE2/MCM8/PSMC2/ORC4/POLE/PSME4/PSMB1/PSMA6/CDC6/CDK2/E2F1/E2F3/POLA1/POLE3/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/ORC2/PSMB7/DBF4/PSMD5/PRIM2/PSMA1/CDC7/PSMC1/ORC1/PSMC6/E2F2/PSMD6/PRIM1/PSMD3/PSMD2/PSMA5/RPA4/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>EIF4A2/KPNA2/EIF4E/UBA52/KPNB1/UBB/UBE2N/IRF3/JAK1/NUP62/EIF4E2/EIF4A3/NUP93/RANBP2/FLNB/NUP88/NUP37/NUP43/ISG15/TRIM25/NUP50/EIF2AK2/PIN1/USP18/EIF4A1/NUP35/EIF4G1/RAE1/NUP107/UBE2L6/NUP153/KPNA4/TPR/NUP98/UBC/NUP54/NDC1/POM121/SEH1L/IFIT1/STAT1/PLCG1/NUP214/NUP160/KPNA5/NUPL2/EIF4G3/EIF4E3/KPNA1/DDX58/NUP58/NUP188/MAPK3/UBE2E1/NUP205/NEDD4/NUP133/EIF4G2/UBA7/NUP85/KPNA3/NUP155/HERC5/PPM1B/ARIH1/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PSMC3/PSMC4/JUN/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/RASGRP2/PSMD4/UBB/PSMD7/UBE2N/RAC1/PSME1/PSMC5/SHC1/PSMD13/NFKBIA/HRAS/PSME3/CALM3/PSMB6/PSMD12/PSMD11/UBE2D2/PAK2/AHCYL1/PSMF1/MAPK10/PSMB4/PSMC2/LYN/PSME4/PSMB1/PSMA6/MAP2K7/PIK3R1/MAP3K1/GRB2/GRAP2/KRAS/UBE2D1/PSMB10/MAPK8/PSMB5/FBXW11/PSMD9/NFATC3/IKBKG/VAV3/MAP3K7/MAP2K4/UBC/RELA/PSMD10/PSMA3/NFKB1/PPP3CB/GAB2/PLCG2/FYN/PSMD1/TAB1/PPP3CA/PDPK1/ITPR1/NRAS/IKBKB/PPP3R1/TAB3/PLCG1/FOS/PSMD8/PSMB7/ITPR3/SKP1/MAPK1/CDC34/PSMD5/TAB2/NFATC1/PIK3R2/BCL10/MALT1/PSMA1/BTK/PSMC1/PSMC6/MAPK3/CUL1/PSMD6/PIK3CB/SOS1/RASGRP1/LAT/ITPR2/PAK1/CHUK/VAV2/PSMD3/BTRC/MAPK9/CARD11/TEC/PSMD2/PIK3CA/PSMA5/PRKCQ/UBE2V1/TRAF6/FCER1G/LCP2/LAT2/NFATC2/PSMA2</t>
+  </si>
+  <si>
+    <t>HNRNPC/SUMO1/PCGF2/HNRNPK/RING1/NUP62/PHC1/NUP93/RANBP2/NUP88/NUP37/SUMO2/SCMH1/NUP43/RNF2/NUP50/NUP35/RAE1/UBE2I/NUP107/NUP153/TPR/NUP98/PHC2/NOP58/NUP54/PHC3/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/CBX4/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>ACTB/ARPC2/ARPC5/ARPC1B/BRK1/ARPC1A/ACTG1/RAC1/CDC42/ACTR3/ACTR2/WASL/CYFIP2/ARPC4/GRB2/NCKIPSD/ABI2/WIPF3/WIPF2/ABI1/ABL1/WIPF1/NCK1/NCKAP1/WASF2/CYFIP1/MAPK1/WAS/BTK/WASF3/MAPK3/ARPC3/WASF1/BAIAP2/NCKAP1L/PTK2</t>
+  </si>
+  <si>
+    <t>POLR2L/UBA52/POLR2J/COPS5/UBB/COPS3/RBX1/POLR2K/HMGN1/POLR2F/DDB1/COPS2/TCEA1/POLR2A/POLR2I/CCNH/CDK7/COPS6/ZNF830/ERCC8/CUL4B/MNAT1/COPS8/GTF2H5/PPIE/COPS7B/GPS1/COPS4/ISY1/XPA/ERCC3/POLR2E/UBC/ERCC2/AQR/POLR2C/PRPF19/XAB2/GTF2H2/POLR2G/POLR2D/COPS7A/USP7/POLR2B/EP300/CUL4A/POLR2H/ERCC6/GTF2H4/UVSSA/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PPIA/FKBP1A/RASGRP3/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/NFKBIA/HRAS/PSME3/CALM3/PSMB6/NFKBIB/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/REL/KRAS/PSMB10/PSMB5/FBXW11/PSMD9/NFATC3/IKBKG/MAP3K7/UBC/RELA/PSMD10/PSMA3/NFKB1/PPP3CB/PSMD1/PPP3CA/NRAS/IKBKB/PPP3R1/PSMD8/PSMB7/SKP1/PSMD5/NFATC1/BCL10/MALT1/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/RASGRP1/CHUK/PSMD3/BTRC/CARD11/PSMD2/PSMA5/PRKCB/NFATC2/NFKBIE/PSMA2</t>
+  </si>
+  <si>
+    <t>SLC25A6/PSIP1/SLC25A5/HMGA1/BANF1/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/SLC25A4/NUPL2/KPNA1/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>NPM1/RANBP1/RAN/KPNB1/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/XPO1/RCC1/NUP50/RANGAP1/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>AP1M2/HSPA8/CLTB/APP/VAMP8/CLTA/BLOC1S1/CHMP2A/ARF1/AP1S2/AP1S1/VAMP2/AP4S1/DNASE2/M6PR/ARRB1/CLVS2/CLTC/AP1M1/HGS/AP1G1/GNS/AP4E1/AP1G2/DNM2/AP4M1/SH3GL2/AP1S3/AP1B1/CLVS1/AP4B1/TXNDC5/DNAJC6/CTSZ/VAMP7</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PPP2R1A/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PPP2CB/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PPP2R5C/PSMD13/PSME3/PSMB6/LEF1/PSMD12/TLE1/PSMD11/PSMF1/PSMB4/TCF7L2/PSMC2/TCF7L1/PSME4/PSMB1/PSMA6/TLE3/TLE4/AES/GSK3B/PSMB10/PSMB5/PSMD9/TLE2/UBC/PSMD10/PSMA3/AXIN1/PPP2CA/PPP2R5A/AMER1/PSMD1/HDAC1/CTBP2/CTNNB1/APC/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PPP2R5B/PPP2R1B/PSMC1/PSMC6/CSNK1A1/CUL1/PSMD6/PPP2R5D/PSMD3/BTRC/TCF7/PSMD2/PSMA5/PPP2R5E/FRAT2/FRAT1/CTBP1/PSMA2</t>
+  </si>
+  <si>
+    <t>HSP90AA1/MYL9/RHOC/MYL6/MYH10/HSP90AB1/MYH9/MYL12A/SEMA5A/CFL1/ITGB1/MYL12B/DPYSL3/RAC1/CDC42/RRAS/ARHGAP35/NRP1/RHOB/PAK2/PLXND1/CDK5/SEMA6A/SEMA3E/ROCK1/GSK3B/RHOA/PLXNA1/SEMA6D/FYN/PIP5K1C/LIMK2/PLXNA2/DPYSL2/SEMA3A/RAC2/CDK5R1/FARP2/TLN1/RND1/SEMA4A/SEMA4D/CRMP1/FES/ROCK2/SEMA7A/DPYSL4/PAK1/ITGA1/MET/PLXNA3/ARHGEF12/ERBB2/ARHGEF11/PLXNC1/DPYSL5/CD72/PAK3/TYROBP/MYH14/PLXNB1/LIMK1/RHOG/PLXNA4</t>
+  </si>
+  <si>
+    <t>HMGB2/YWHAH/HMGB1/PSMC3/H1F0/DYNLL1/DSP/YWHAQ/PSMC4/CLSPN/PSMA4/APPL1/PSME2/LMNB1/PSMA7/UBA52/TJP1/PSMB2/PSMB3/PSMD14/YWHAB/KPNB1/PSMD4/DBNL/UBB/PSMD7/HIST1H1D/FNTA/PSME1/MAGED1/PSMC5/TRAF2/PSMD13/PSME3/DFFA/DNM1L/PPP3CC/PSMB6/CFLAR/PSMD12/GSN/BCAP31/AKT2/PSMD11/TFDP2/PAK2/YWHAZ/PSMF1/ACIN1/PSMB4/HIST1H1E/PRKCD/CDH1/BAX/PSMC2/OMA1/CYCS/LMNA/PSME4/PSMB1/PSMA6/DAPK3/TFDP1/E2F1/HIST1H1B/BIRC2/SPTAN1/PMAIP1/OPA1/ADD1/DYNLL2/OCLN/TP53BP2/STK26/ROCK1/FADD/TLR4/AKT1/PSMB10/MAPK8/PSMB5/PLEC/BBC3/BAD/PSMD9/RIPK1/UBC/PSMD10/PSMA3/DIABLO/CASP7/BID/AKT3/PSMD1/PPP1R13B/TNFRSF10B/CASP6/CASP3/CTNNB1/ARHGAP10/PPP3R1/APC/VIM/STK24/BCL2L11/PSMD8/BAK1/TP53/PSMB7/DSG2/TJP2/CASP9/PSMD5/DAPK1/KPNA1/PSMA1/PSMC1/UNC5B/PSMC6/YWHAE/DCC/BMF/PSMD6/XIAP/GAS2/MAPT/TICAM1/PSMD3/TP73/HIST1H1C/TRADD/FAS/PSMD2/PSMA5/PRKCQ/SATB1/MLKL/CASP8/DAPK2/BCL2/DFFB/SFN/TNFSF10/TNFRSF10A/APAF1/PTK2/YWHAG/BCL2L1/PSMA2/NMT1</t>
+  </si>
+  <si>
+    <t>PABPC1/HSPB1/PSMC3/PSMC4/HSPA8/PSMA4/PSME2/PSMA7/HSPA1A/UBA52/PSMB2/EXOSC8/PSMB3/PSMD14/YWHAB/PSMD4/DCP1A/ZFP36L1/UBB/PSMD7/PSME1/EXOSC9/HNRNPD/ANP32A/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/TNPO1/YWHAZ/PSMF1/ELAVL1/PSMB4/EXOSC3/PRKCD/SET/PSMC2/PSME4/PSMB1/EXOSC1/PSMA6/XPO1/KHSRP/EIF4G1/AKT1/HSPA1B/PSMB10/PSMB5/PSMD9/EXOSC5/DCP2/UBC/PSMD10/EXOSC6/PSMA3/PSMD1/XRN1/EXOSC7/ZFP36/MAPK14/NUP214/PSMD8/PSMB7/PSMD5/EXOSC2/PSMA1/PSMC1/PSMC6/MAPKAPK2/PSMD6/PSMD3/PRKCA/MAPK11/PSMD2/PSMA5/PARN/DIS3/EXOSC4/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/PSMC3/PSMC4/PSMA4/TUBB2A/PSME2/PSMA7/UBA52/PSMB2/GNAS/PSMB3/PSMD14/TUBB2B/PSMD4/UBB/PSMD7/PRKAR1A/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/TULP3/PSMC2/TUBA1C/GPR161/PTCH1/PSME4/PSMB1/PSMA6/PRKAR2A/SMO/ADCY3/IFT57/IFT52/ITCH/GSK3B/PSMB10/PSMB5/OFD1/PSMD9/TUBA4A/UBC/PSMD10/PSMA3/FUZ/PSMD1/INTU/GLI2/ADCY7/PSMD8/PSMB7/IFT88/SKP1/ADCY1/IFT172/PSMD5/ADCY6/KIF3A/PSMA1/PSMC1/TTC21B/MKS1/PSMC6/CSNK1A1/CUL1/PSMD6/IFT140/RPGRIP1L/PRKAR2B/WDR35/PSMD3/GLI3/BTRC/PRKAR1B/NUMB/PRKACB/PSMD2/ADCY2/PRKACA/PSMA5/TUBB4A/ADCY10/KIF7/ADCY5/ADCY8/ADCY4/ADCY9/DYNC2H1/GLI1/SUFU/IFT122/WDR19/PSMA2</t>
+  </si>
+  <si>
+    <t>HDGF/HSPA5/SHC1/ACADVL/SERP1/DNAJB11/WIPI1/PREB/XBP1/SEC31A/MYDGF/GSK3A/SEC62/DNAJC3/LMNA/SSR1/DDX11/GOSR2/PDIA6/ADD1/ATP6V0D1/ZBTB17/CUL7/ARFGAP1/SRPRB/YIF1A/KLHDC3/EXTL3/CTDSP2/FKBP14/WFS1/SEC61G/SEC61B/SRPRA/TPP1/SEC61A1/ASNA1/PDIA5/TLN1/CXXC1/DCTN1/EDEM1/PPP2R5B/SYVN1/HYOU1/EXTL2/EXTL1/TSPYL2/SEC63/DNAJB9/ERN1/SEC61A2/JMJD7-PLA2G4B/SULT1A3/TATDN2/GFPT1/KDELR3</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/HSP90AA1/TUBB4B/TUBB/DYNLL1/CDK1/PLK1/PPP2R1A/TUBG1/TUBB2A/MZT1/DCTN3/AKAP9/TUBB2B/CEP290/CKAP5/PCNT/HAUS8/ODF2/ACTR1A/DCTN2/CEP78/MAPRE1/HAUS1/TUBA1C/HAUS7/NEDD1/NINL/SSNA1/CEP63/CSNK1E/CSNK1D/HAUS2/HAUS6/TUBGCP5/TUBGCP2/FGFR1OP/TUBGCP4/OFD1/TUBA4A/CNTRL/CEP76/MZT2B/CEP41/HAUS4/MZT2A/NEK2/CENPJ/CETN2/CEP164/CEP152/SDCCAG8/TUBGCP3/CEP57/CEP131/CCP110/CEP70/PCM1/EHHADH/PLK4/HAUS5/DCTN1/CDK5RAP2/TUBG2/PAFAH1B1/YWHAE/NDE1/PRKAR2B/NUMA1/CEP135/PRKACA/HAUS3/TUBB4A/CEP192/ALMS1/TUBGCP6/CEP250/YWHAG/CEP72/TUBB8/DYNC1I2/DYNC1H1/CLASP1/SFI1</t>
+  </si>
+  <si>
+    <t>SLBP/EIF4E/NCBP2/NUP62/NUP93/RANBP2/NUP88/NUP37/NCBP1/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/ALYREF/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>CCNB1/CDK1/CCNB2/NUP62/NEK6/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NEK9/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/NEK7/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/RAD51/RFC4/RFC2/RFC5/POLE4/RHNO1/RMI2/UBB/RAD51AP1/RPA2/BLM/BARD1/RFC3/BRCA2/RPA1/MUS81/POLD2/POLD3/RFC1/POLE2/RAD50/RAD1/POLE/EXO1/TOP3A/BRCA1/EME1/GEN1/POLK/RAD17/POLE3/POLD1/BRIP1/UBC/RAD51C/NBN/KAT5/ATM/RMI1/POLD4/ATR/XRCC3/RAD9A/TOPBP1/HUS1/RBBP8/RAD51B/XRCC2/EME2/CHEK1/MRE11/DNA2/WRN/RAD51D/SPIDR/SLX4/POLH/ATRIP/PALB2/SLX1A</t>
+  </si>
+  <si>
+    <t>MAD2L1/ANAPC11/UBE2C/CCNB1/CDC20/PSMC3/CDK1/PLK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/CDK2/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/FBXO5/PSMD1/CDC27/ANAPC10/PSMD8/ANAPC2/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/FZR1/PSMC6/UBE2E1/ANAPC15/CUL1/PSMD6/ANAPC5/PSMD3/BTRC/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>UBA52/UBB/CDC42/SHC1/HRAS/EPS15/EPN1/SH3GL1/SH3KBP1/PIK3R1/GRB2/SRC/KRAS/SPRY2/ADAM17/UBC/EPS15L1/HGS/NRAS/ARHGEF7/PXN/PLCG1/CBL/SH3GL3/CSK/PTPN11/SH3GL2/ADAM10/PTPN3/ADAM12/STAM2/SOS1/EGF/SPRY1/STAM/LRIG1/PTPN12/GAB1/PTPRK/PIK3CA/EGFR/PAG1</t>
+  </si>
+  <si>
+    <t>RPA3/UBA52/PARP1/SUMO1/UBB/UBE2N/RPA2/RBX1/UBE2V2/SUMO3/DDB1/RPA1/CHD1L/PIAS1/CCNH/CDK7/SUMO2/CUL4B/MNAT1/GTF2H5/UBE2I/XPA/ERCC3/UBC/ERCC2/ERCC4/RAD23B/ERCC1/GTF2H2/CETN2/PARP2/PIAS3/XPC/RAD23A/ERCC5/CUL4A/GTF2H4/DDB2/GTF2H3/USP45/RNF111/GTF2H1</t>
+  </si>
+  <si>
+    <t>TP53RK/THG1L/LAGE3/URM1/EPRS/TRMT112/METTL1/TRMT1/PUS3/PUS7/QTRT1/TYW5/FTSJ1/WDR4/KIAA1456/TRDMT1/TPRKB/OSGEP/TRIT1/TRMT6/ADAT1/TRMT13/QTRT2/TRMT44/TRMT5/THADA/TYW1/DUS2/PUS1/CDKAL1/TRMT11/TRMT12/ADAT3/ALKBH8/NSUN6/ADAT2/TYW3/LCMT2/TRMT61A/TRMT10A/CTU2/NSUN2</t>
+  </si>
+  <si>
+    <t>DAB2/CLTB/UBA52/AP2S1/VAMP8/CLTA/COPS5/UBB/COPS3/LDLR/AP2M1/NECAP2/COPS2/AP2A1/PICALM/EPS15/EPN1/APOB/UBQLN1/SH3GL1/SH3KBP1/COPS6/FZD4/VAMP2/AAK1/M6PR/IGF2R/VAMP3/GRB2/COPS8/ARRB1/ITSN2/COPS7B/GPS1/COPS4/NEDD8/UBQLN2/TFRC/UBC/EPS15L1/SGIP1/TOR1B/ARRB2/CLTC/HGS/CLTCL1/STON1/CBL/SH3GL3/TOR1A/AP2A2/EPN2/COPS7A/LRP2/GRK3/CHRM2/SH3GL2/AVP/ITSN1/SLC2A8/WNT5A/FCHO2/STON2/SLC18A3/TF/LDLRAP1/AP2B1/STAM2/NECAP1/SYT1/EGF/TGOLN2/STAM/DVL2/SYT2/FCHO1/SCARB2/EGFR/REPS2/REPS1/CD4/SYT11/ADRB2/CFTR/GRK2/SYT9/KIAA0319/AGFG1/VAMP4/VAMP7</t>
+  </si>
+  <si>
+    <t>COX7C/ATP5A1/NDUFB5/COX7A2L/ATP5F1/UQCRH/COX4I1/NDUFA6/UQCRB/ATP5G2/CYC1/COX5B/UQCRC2/NDUFA10/ATP5G3/NDUFS6/COX6B1/NDUFB2/NDUFB9/ATP5I/NDUFA1/ATP5J/NDUFA11/ATP5C1/SURF1/TRAP1/ETFA/UQCRQ/TIMMDC1/NDUFS1/LRPPRC/NDUFC1/UQCR11/NDUFB6/NDUFAF3/ATP5O/ETFB/NDUFS7/NDUFC2/NDUFB10/ATP5L/NDUFV2/COX8A/NDUFS3/ATP5D/UQCRC1/TMEM126B/NDUFAB1/NDUFV1/ATP5S/COX14/SDHA/ATP5B/NDUFB4/CYCS/SDHD/NDUFB7/NDUFS4/UQCR10/TACO1/NDUFB11/NDUFA13/NDUFA9/SDHB/UQCRFS1/NDUFS8/ATP5E/NDUFB1/COX20/NDUFA4/COX18/ATP5G1/ECSIT/NDUFS5/NDUFA2/COX7B/ACAD9/NDUFB8/ATP5H/COX6C/NDUFAF1/COX16/UCP2/NDUFA7/NDUFS2/SDHC/NDUFB3/NDUFAF5/NDUFAF2/ATP5J2/SCO2/COX5A/SCO1/NDUFAF6/COX6A1/COQ10A/NUBPL/NDUFA3/SLC25A14/NDUFAF4/NDUFA5/NDUFA8/COX11/NDUFAF7/NDUFA12/SLC25A27/UCP3/ETFDH/NDUFV3/COQ10B</t>
+  </si>
+  <si>
+    <t>POLR2L/SUPT4H1/GTF2F2/POLR2J/GTF2F1/NELFA/NCBP2/POLR2K/POLR2F/NELFE/POLR2A/POLR2I/CCNH/CDK7/NCBP1/CTDP1/MNAT1/GTF2H5/ERCC3/POLR2E/ERCC2/POLR2C/GTF2H2/NELFCD/SUPT5H/NELFB/POLR2G/POLR2D/POLR2B/POLR2H/GTF2H4/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>EIF4E/NCBP2/NUP62/NUP93/RANBP2/NUP88/NUP37/NCBP1/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/ALYREF/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210/NXF1</t>
+  </si>
+  <si>
+    <t>RANBP1/RAN/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/XPO1/RCC1/NUP50/RANGAP1/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PFN1/PSME2/CLTB/PSMA7/UBA52/PSMB2/RAC3/PSMB3/PSMD14/AP2S1/PSMD4/CLTA/UBB/PSMD7/RAC1/PSME1/PSMC5/AP2M1/FZD5/PSMD13/PSME3/PSMB6/PSMD12/AP2A1/PSMD11/PSMF1/FZD2/PSMB4/ROR1/PSMC2/PSME4/PSMB1/PSMA6/FZD4/RYK/PRICKLE1/PSMB10/PSMB5/PSMD9/RHOA/UBC/PSMD10/PSMA3/PSMD1/WNT5B/ARRB2/CLTC/DVL1/FZD6/FZD8/RAC2/PSMD8/AP2A2/PSMB7/DVL3/DAAM1/FZD3/PSMD5/VANGL2/PSMA1/WNT5A/PSMC1/PSMC6/AP2B1/PSMD6/FZD1/SMURF2/PARD6A/DVL2/ROR2/PSMD3/PRKCA/PSMD2/SMURF1/PSMA5/SCRIB/WNT11/PRKCG/PRKCB/FZD7/PSMA2</t>
+  </si>
+  <si>
+    <t>HDGF/SHC1/ACADVL/SERP1/DNAJB11/WIPI1/PREB/XBP1/SEC31A/MYDGF/GSK3A/SEC62/DNAJC3/LMNA/SSR1/DDX11/GOSR2/PDIA6/ADD1/ATP6V0D1/ZBTB17/CUL7/ARFGAP1/SRPRB/YIF1A/KLHDC3/EXTL3/CTDSP2/FKBP14/WFS1/SEC61G/SEC61B/SRPRA/TPP1/SEC61A1/ASNA1/PDIA5/TLN1/CXXC1/DCTN1/EDEM1/PPP2R5B/SYVN1/HYOU1/EXTL2/EXTL1/TSPYL2/SEC63/DNAJB9/SEC61A2/JMJD7-PLA2G4B/SULT1A3/TATDN2/GFPT1/KDELR3</t>
+  </si>
+  <si>
+    <t>ACTB/ARPC2/ARPC5/ARPC1B/CFL1/ARPC1A/ACTG1/RAC1/SDC2/CDC42/ACTR3/ACTR2/HRAS/WASL/EFNB2/EPHB2/LYN/EPHB6/ARPC4/EPHB3/SRC/ROCK1/YES1/RHOA/EFNB1/FYN/LIMK2/RASA1/KALRN/GRIN2B/ITSN1/ROCK2/TIAM1/ARPC3/EFNB3/PAK1/EPHB1/ARHGEF28/LIMK1/EPHB4/PTK2</t>
+  </si>
+  <si>
+    <t>RPA3/RAD51/RFC4/RFC2/RFC5/RHNO1/RMI2/RAD51AP1/RPA2/BLM/BARD1/RFC3/BRCA2/RPA1/RAD50/RAD1/EXO1/TOP3A/BRCA1/RAD17/BRIP1/RAD51C/NBN/KAT5/ATM/RMI1/ATR/XRCC3/RAD9A/TOPBP1/HUS1/RBBP8/RAD51B/XRCC2/CHEK1/MRE11/DNA2/WRN/RAD51D/ATRIP/PALB2</t>
+  </si>
+  <si>
+    <t>HSPA1A/RAN/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/XPO1/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/HSPA1B/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>NPM1/RAN/KPNB1/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/RCC1/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>PSIP1/HMGA1/BANF1/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/KPNA1/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>TYMS/DUT/DTYMK/GUK1/RRM2/NME3/DCTPP1/AK4/DCTD/NME4/NME1/CTPS1/TXN/AK1/NME6/AK6/TXNRD1/GLRX/RRM2B/NME7/RRM1/GSR/CMPK1/NME2/CTPS2/NUDT13/AK7/AK9/AK8/AK5/NME1-NME2/AK2</t>
+  </si>
+  <si>
+    <t>ORC6/RPA3/MCM6/MCM3/MCM4/MCM2/MCM7/POLE4/RPA2/MCM5/CDC45/MCM10/RPA1/CDT1/POLA2/POLE2/MCM8/ORC4/POLE/CDC6/CDK2/POLA1/POLE3/ORC3/ORC2/DBF4/PRIM2/CDC7/ORC1/PRIM1/RPA4/ORC5</t>
+  </si>
+  <si>
+    <t>GINS2/FEN1/RPA3/PCNA/MCM6/MCM3/RFC4/MCM4/MCM2/RFC2/MCM7/RFC5/RPA2/MCM5/GINS4/CDC45/RFC3/LIG1/RPA1/POLA2/POLD2/POLD3/RFC1/MCM8/GINS1/POLA1/POLD1/GINS3/POLD4/PRIM2/DNA2/PRIM1</t>
+  </si>
+  <si>
+    <t>COL1A1/CCNB1/PSMC3/CDK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/CDK4/PSMC5/IHH/PSMD13/SKP2/PSME3/PSMB6/PSMD12/HAND2/AKT2/PSMD11/LGALS3/PSMF1/PSMB4/BAX/PSMC2/CBFB/PSME4/PSMB1/PSMA6/HES1/ITGA5/CCND1/ESRRA/SMAD6/RB1/SRC/HDAC3/WWTR1/YES1/MAF/AKT1/GSK3B/PSMB10/PSMB5/SMAD4/PSMD9/HEY2/UBC/PSMD10/RBM14/PSMA3/HDAC6/AKT3/HDAC4/PSMD1/CDKN1A/GLI2/ABL1/FBXW7/MSX2/STAT1/PSMD8/STUB1/PSMB7/SOX9/SKP1/MAPK1/PSMD5/WWP1/PSMA1/PPM1D/PSMC1/HEY1/PSMC6/PPARGC1B/MAPK3/YAP1/CUL1/PSMD6/NR3C1/PSMD3/GLI3/ZNF521/HIVEP3/TWIST1/BGLAP/PSMD2/BMP2/SMURF1/SATB2/PSMA5/NKX3-2/PPARGC1A/AR/RUNX1/TWIST2/RBM14-RBM4/UCMA/SMAD1/PSMA2</t>
+  </si>
+  <si>
+    <t>HIST1H4C/FEN1/RPA3/H2AFX/KPNA2/PCNA/CLSPN/UBA52/RAD51/CCNA2/RFC4/RFC2/PARP1/SUMO1/RFC5/POLE4/RHNO1/RMI2/UBB/RAD51AP1/UBE2N/RPA2/BAZ1B/BLM/TDP2/BARD1/PPP4C/XRCC6/SIRT6/UBE2V2/RFC3/BRCA2/RNF168/PRKDC/CHEK2/PPP4R2/RPA1/TP53BP1/MUS81/XRCC5/POLD2/POLD3/RFC1/POLE2/TIMELESS/RNF4/APBB1/RAD50/POLL/RAD1/POLE/SUMO2/RIF1/MDC1/EXO1/TOP3A/RNF8/CDK2/BRCA1/LIG3/EME1/GEN1/BRCC3/POLK/UBE2I/RAD17/XRCC4/KDM4A/POLE3/POLD1/BRIP1/MAPK8/UBC/RAD51C/PAXIP1/UIMC1/HERC2/POLQ/ERCC4/SMARCA5/ERCC1/ABL1/HIST1H2BD/PARP2/RAD52/HIST1H2BH/NBN/BAP1/HIST2H2BE/KAT5/BABAM1/ATM/HIST1H2BN/DCLRE1C/TIPIN/POLM/RMI1/POLD4/ATR/TP53/XRCC3/RAD9A/TOPBP1/PIAS4/HUS1/RBBP8/RAD51B/XRCC2/EME2/CHEK1/MRE11/XRCC1/EYA3/DNA2/HIST1H2BG/TDP1/PPP5C/WRN/EYA1/HIST1H4J/HIST1H4E/RAD51D/HIST1H2BK/SPIDR/LIG4/SLX4/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST4H4/POLH/HIST1H2BJ/HIST1H2BC/HIST3H2BB/NHEJ1/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/CCNA1/EYA2/PALB2/KDM4B/SLX1A</t>
+  </si>
+  <si>
+    <t>RAB25/RAB4A/RAB3B/RAB5C/RAB18/RABGGTB/RAB4B/RAB31/RAB32/RAB8A/RAB2A/RAB10/RAB7A/RAB40B/RAB38/RAB11B/RAB21/RAB11A/RAB13/RAB3C/RAB14/RAB5B/CHM/RAB17/RAB35/RAB20/RAB3A/RAB1A/RAB3D/RAB29/RAB37/RAB1B/CHML/RAB39B/RAB6A/RAB5A/PTP4A2/RAB8B/RAB9B/RAB39A/RABGGTA/RAB2B/RAB24/RAB15/RAB22A/RAB26/RAB33B/RAB34/RAB30/RAB23/RAB9A/RAB42/RAB33A/RAB6B/RAB36/RAB40A/RAB12/RAB27B/RAB27A/RAB40C</t>
+  </si>
+  <si>
+    <t>SLC25A6/KPNA2/KPNB1/NUP62/PABPN1/CPSF4/TGFB1/NUP93/RANBP2/NUP88/NUP37/NUP43/ISG15/NUP50/EIF2AK2/NUP35/RAE1/NUP107/NUP153/KPNA4/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/KPNA5/NUPL2/KPNA1/NUP58/NUP188/NUP205/NUP133/NUP85/KPNA3/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/RFC4/RFC2/PARP1/RFC5/POLE4/UBB/RPA2/RBX1/RFC3/DDB1/RPA1/CHD1L/POLD2/POLD3/RFC1/POLE2/POLE/CUL4B/POLK/GTF2H5/XPA/ERCC3/POLE3/POLD1/UBC/ERCC2/ERCC4/ERCC1/GTF2H2/PARP2/POLD4/ERCC5/CUL4A/GTF2H4/DDB2/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>UBE2T/UBE2S/UBE2C/PCNA/UBA52/HLA-A/HLTF/UBE2A/VCP/UBE2D3/RTF1/UBB/UBE2N/USP9X/UBE2V2/UBA1/RRAGA/PRKDC/PEX10/DERL1/UBE2H/UBE2D2/UBE2E3/UCHL3/PEX2/UBE2R2/UBE2L3/UBE2G2/WAC/UBE2D1/SHPRH/RNF181/UBC/UBE2G1/UBE2Z/HIST1H2BD/HIST1H2BH/UBE2B/CDC73/HIST1H2BN/SELENOS/USP7/USP5/CDC34/CTR9/BCL10/RNF40/PAF1/UBE2E1/RAD18/HIST1H2BG/UBE2K/UBE2W/WDR61/UBA6/TMEM129/RNF144A/OTULIN/UBE2J2/HIST1H2BK/PEX5/RNF152/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST1H2BJ/HIST1H2BC/PEX12/RNF20/LEO1/UBE2Q2</t>
+  </si>
+  <si>
+    <t>CALM1/FN1/DUSP4/ACTB/CALM2/FGFR1/PSMC3/CDK1/PSMC4/PPP2R1A/PSMA4/PSME2/FGFR4/PSMA7/VCL/UBA52/PEBP1/PSMB2/SPTBN1/PEA15/RASGRP3/PSMB3/AKAP9/PSMD14/RAP1B/YWHAB/ACTG1/PDGFRB/PPP2CB/PSMD4/UBB/PSMD7/DUSP6/RBX1/PSME1/TEK/PSMC5/PPP2R5C/SHC1/PSMD13/MAP2K2/ERBB4/HRAS/PSME3/CALM3/JAK1/PSMB6/PSMD12/DUSP1/PSMD11/PSMF1/PDGFRA/PSMB4/PSMC2/ERBB3/PSME4/PSMB1/ANGPT1/PSMA6/GRIN2A/PTPRA/RAF1/LAMTOR2/MAP2K1/SPTAN1/RAP1A/CUL3/PHB/GRB2/DUSP5/ARRB1/SRC/MARK3/KRAS/FGFR2/FGF8/FGFR3/CAMK2D/ARAF/PSMB10/PSMB5/RASA4/ACTN2/PSMD9/UBC/CAMK2A/PSMD10/PSMA3/IQGAP1/ITGA2B/SHC2/DAB2IP/PPP2CA/PPP2R5A/SPRED2/FYN/MAP3K11/PSMD1/CAMK2G/RAPGEF2/FGA/ARRB2/RANBP9/BRAF/FGF10/DUSP9/NF1/SPTBN2/KIT/NRG2/NRAS/PSPN/RASA1/PSMD8/TYK2/CSK/PTPN11/PSMB7/CNKSR2/GRIN2B/VWF/RASAL2/TLN1/WDR83/NCAM1/GFRA2/PDGFA/NRG1/MAPK1/FGB/HBEGF/FRS3/PSMD5/FGF2/SPRED1/LAMTOR3/IRS1/PSMA1/PPP2R5B/DUSP10/PPP2R1B/PSMC1/GRIN2D/FGF1/RASA3/PSMC6/GFRA3/MAPK3/IL6ST/PSMD6/FGF17/PPP2R5D/SOS1/DUSP2/KBTBD7/EGF/RASGRP1/LAT/DUSP16/PPP5C/PSMD3/KLB/SYNGAP1/RASGEF1A/JAK2/BRAP/CAMK2B/MET/FRS2/PAQR3/PSMD2/ERBB2/KSR1/PSMA5/EGFR/SPRED3/FGF23/PPP2R5E/IL17RD/IL6R/SPTBN4/FGF18/CSF2RA/FGF9/IL6/FGF22/NRTN/DUSP8/PDGFB/FGG/GDNF/HGF/IL2RG/SHC3/FGF19/APBB1IP/RASAL1/KSR2/SPTB/SPTBN5/NRG4/RASAL3/JAK3/DUSP7/CNKSR1/RASA2/FGF7/IRS2/PTK2/DLG4/KITLG/PSMA2</t>
+  </si>
+  <si>
+    <t>RALA/YWHAB/RALB/SHC1/HRAS/KIDINS220/CRKL/NTRK1/RAP1A/GRB2/SRC/KRAS/RIT1/SHC2/MAPKAPK3/BRAF/RALGDS/MAPK12/NRAS/MAPK14/PLCG1/NGF/RAPGEF1/MAPKAPK2/SOS1/MAPK13/FRS2/MAPK11/CRK/RIT2/SHC3</t>
+  </si>
+  <si>
+    <t>GNG11/CALM1/CALM2/GNG5/PPP2R1A/GNB1/PPP1CA/PPP2CB/GNB2/GNAI1/GNB5/POMC/PRKAR1A/GNG12/CREB1/CALM3/PPP3CC/AHCYL1/GNB3/PRKCD/GNB4/CDK5/PRKAR2A/ADCY3/GNAI2/PPP3CB/PPP2CA/PPP3CA/GNAL/GNAZ/ITPR1/ADCY7/PPP3R1/GNG7/PDE1B/ITPR3/ADCY1/MAPK1/GNGT1/GNAI3/ADCY6/PDE4D/GNG3/PPP2R1B/GNG10/PPP2R5D/GNG4/ITPR2/PRKAR2B/GNG2/PLCB2/PRKAR1B/PLCB4/PRKCA/PRKACB/GNG8/GNAO1/PLCB1/ADCY2/PRKACA/PDE4C/PDE1C/PRKCG/PPP1R1B/CAMK4/PDE4B/PDE1A/ADCY5/ADCY8/ADCY4/GNG13/ADCY9/PDYN/GRK2/PLCB3/PDE4A</t>
+  </si>
+  <si>
+    <t>ANAPC11/UBE2C/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/ANAPC16/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/FZR1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/PSMA2</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/RAP1B/YWHAB/ACTG1/MAP2K2/HRAS/RAF1/LAMTOR2/MAP2K1/RAP1A/ARRB1/SRC/MARK3/KRAS/ARAF/IQGAP1/ITGA2B/FGA/ARRB2/BRAF/NRAS/CSK/CNKSR2/VWF/TLN1/WDR83/MAPK1/FGB/LAMTOR3/MAPK3/KSR1/IL17RD/FGG/APBB1IP/KSR2/CNKSR1</t>
+  </si>
+  <si>
+    <t>DUSP4/PPP2R1A/UBA52/PEBP1/YWHAB/PPP2CB/UBB/DUSP6/PPP2R5C/MAP2K2/HRAS/DUSP1/RAF1/MAP2K1/DUSP5/MARK3/KRAS/ARAF/UBC/PPP2CA/PPP2R5A/BRAF/DUSP9/NRAS/MAPK1/PPP2R5B/DUSP10/PPP2R1B/MAPK3/PPP2R5D/DUSP2/DUSP16/PPP5C/BRAP/PAQR3/KSR1/PPP2R5E/DUSP8/DUSP7</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/RAP1B/YWHAB/ACTG1/MAP2K2/HRAS/RAF1/MAP2K1/RAP1A/PHB/ARRB1/SRC/MARK3/KRAS/ARAF/IQGAP1/ITGA2B/MAP3K11/FGA/ARRB2/BRAF/NRAS/CSK/CNKSR2/VWF/TLN1/MAPK1/FGB/MAPK3/JAK2/BRAP/KSR1/FGG/APBB1IP/KSR2/CNKSR1</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/UBE2N/PSME1/PSMC5/PSMD13/NFKBIA/PSME3/CALM3/PSMB6/PSMD12/PSMD11/UBE2D2/AHCYL1/UBA3/PSMF1/PSMB4/PRKCD/PSMC2/PSME4/PSMB1/PSMA6/SRC/UBE2D1/PSMB10/PSMB5/FBXW11/PSMD9/NFATC3/IKBKG/MAP3K7/UBC/RELA/PSMD10/PSMA3/NFKB1/PPP3CB/PYCARD/PLCG2/PSMD1/TAB1/PPP3CA/PDPK1/ITPR1/IKBKB/PPP3R1/TAB3/PSMD8/PSMB7/ITPR3/SKP1/CDC34/PSMD5/TAB2/NFATC1/BCL10/MALT1/PSMA1/PSMC1/PSMC6/MAP3K14/CUL1/PSMD6/ITPR2/CHUK/PSMD3/BTRC/CARD11/PSMD2/PSMA5/CASP8/UBE2V1/TRAF6/NFKB2/RELB/CARD9/NFATC2/UBE2M/PSMA2</t>
+  </si>
+  <si>
+    <t>PTTG1/MAD2L1/ANAPC11/UBE2C/CCNB1/CDC20/PSMC3/CDK1/PLK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/NEK2/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>ORC6/PSMC3/GMNN/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PSMD4/UBB/PSMD7/MCM5/PSME1/MCM10/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/CDT1/PSMF1/PSMB4/MCM8/PSMC2/ORC4/PSME4/PSMB1/PSMA6/CDC6/CDKN1B/CDK2/E2F1/RB1/E2F3/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/PSMD8/ORC2/PSMB7/PSMD5/PSMA1/PSMC1/ORC1/FZR1/PSMC6/E2F2/PSMD6/PSMD3/PSMD2/PSMA5/CCNA1/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>KPNB1/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/KPNA1/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>RAN/NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/XPO1/NUP50/NUP35/RAE1/NUP107/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>NUP62/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/NUP35/RAE1/NUP107/GCK/NUP153/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/NUPL2/NUP58/NUP188/NUP205/NUP133/NUP85/NUP155/GCKR/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/PCNA/RFC4/RFC2/RFC5/POLE4/RPA2/RFC3/LIG1/RPA1/RUVBL2/POLA2/POLD2/POLD3/RFC1/POLE2/POLE/WRAP53/POLA1/POLE3/POLD1/POLD4/RUVBL1/PRIM2/DNA2/PRIM1/NHP2/TERT/DKC1</t>
+  </si>
+  <si>
+    <t>POLR2L/POLR1D/TAF1D/POLR2K/POLR2F/CCNH/CDK7/ZNRD1/POLR1C/MNAT1/GTF2H5/TAF1A/ERCC3/POLR1A/POLR2E/TAF1B/ERCC2/POLR1E/GTF2H2/TWISTNB/TAF1C/POLR1B/UBTF/POLR2H/CD3EAP/GTF2H4/RRN3/GTF2H3/TBP/GTF2H1</t>
+  </si>
+  <si>
+    <t>COX7C/NDUFB5/COX7A2L/UQCRH/COX4I1/NDUFA6/UQCRB/CYC1/COX5B/UQCRC2/NDUFA10/NDUFS6/COX6B1/NDUFB2/NDUFB9/NDUFA1/NDUFA11/SURF1/TRAP1/ETFA/UQCRQ/TIMMDC1/NDUFS1/LRPPRC/NDUFC1/UQCR11/NDUFB6/NDUFAF3/ETFB/NDUFS7/NDUFC2/NDUFB10/NDUFV2/COX8A/NDUFS3/UQCRC1/TMEM126B/NDUFAB1/NDUFV1/COX14/SDHA/NDUFB4/CYCS/SDHD/NDUFB7/NDUFS4/UQCR10/TACO1/NDUFB11/NDUFA13/NDUFA9/SDHB/UQCRFS1/NDUFS8/NDUFB1/COX20/NDUFA4/COX18/ECSIT/NDUFS5/NDUFA2/COX7B/ACAD9/NDUFB8/COX6C/NDUFAF1/COX16/NDUFA7/NDUFS2/SDHC/NDUFB3/NDUFAF5/NDUFAF2/SCO2/COX5A/SCO1/NDUFAF6/COX6A1/COQ10A/NUBPL/NDUFA3/NDUFAF4/NDUFA5/NDUFA8/COX11/NDUFAF7/NDUFA12/ETFDH/NDUFV3/COQ10B</t>
+  </si>
+  <si>
+    <t>PTTG1/MAD2L1/ANAPC11/UBE2C/CCNB1/CDC20/PSMC3/CDK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/NEK2/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>KPNA2/KPNB1/NUP62/PABPN1/CPSF4/NUP93/RANBP2/NUP88/NUP37/NUP43/ISG15/NUP50/EIF2AK2/NUP35/RAE1/NUP107/NUP153/KPNA4/TPR/NUP98/NUP54/NDC1/POM121/SEH1L/NUP214/NUP160/KPNA5/NUPL2/KPNA1/NUP58/NUP188/NUP205/NUP133/NUP85/KPNA3/NUP155/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>RPA3/RAD51/RFC4/RFC2/RFC5/RHNO1/RMI2/RPA2/BLM/BARD1/RFC3/BRCA2/RPA1/RAD50/RAD1/EXO1/TOP3A/BRCA1/RAD17/BRIP1/RAD51C/NBN/KAT5/ATM/RMI1/ATR/RAD9A/TOPBP1/HUS1/RBBP8/RAD51B/XRCC2/CHEK1/MRE11/DNA2/WRN/RAD51D/ATRIP</t>
+  </si>
+  <si>
+    <t>UBA52/SNW1/CCNC/UBB/RBX1/RBPJ/MYC/TLE1/NCOR2/HES1/NCOR1/TLE3/TBL1XR1/TLE4/MAML3/NOTCH1/HDAC3/CREBBP/TBL1X/HDAC2/TLE2/HEY2/UBC/HDAC6/HDAC4/HDAC8/HDAC1/HDAC10/FBXW7/MAML1/HDAC7/SKP1/EP300/HDAC5/HEY1/CUL1/KAT2B/HDAC9/MAML2/HIF1A/MAMLD1/HEYL/KAT2A/CDK8/HDAC11</t>
+  </si>
+  <si>
+    <t>TRAPPC6A/SEC13/CTSC/TRAPPC1/FOLR1/TRAPPC2L/TMED10/TRAPPC4/TRAPPC3/LMAN2/TMED2/USO1/PREB/STX5/SEC31A/GOLGA2/TBC1D20/CD59/CNIH1/YKT6/PPP6C/TFG/CSNK1D/STX17/GOSR2/LMAN1/PPP6R1/MCFD2/BET1/NAPB/COL7A1/SEC16A/TRAPPC2/SEC23IP/RAB1A/TRAPPC6B/PPP6R3/SEC22B/SEC22A/SAR1B/NSF/GORASP1/RAB1B/NAPA/TRAPPC5/SEC24D/SERPINA1/SEC24B/LMAN2L/SEC23A/SEC24C/ANKRD28/TRAPPC9/TRAPPC10/SEC24A/F8/CNIH2/CNIH3/SEC16B/SEC22C/NAPG/CTSZ/SCFD1</t>
+  </si>
+  <si>
+    <t>PDGFRB/BCAR1/HRAS/PDGFRA/CRKL/GRB7/PIK3R1/GRB2/SRC/KRAS/STAT3/STAT5B/NRAS/NCK1/STAT1/PLCG1/RASA1/PTPN11/RAPGEF1/PDGFA/PIK3R2/NCK2/PIK3CB/SOS1/STAT5A/PIK3CA/CRK/STAT6/PDGFB</t>
+  </si>
+  <si>
+    <t>JUN/SNW1/RBPJ/TFDP2/MOV10/NOTCH2/NOTCH3/CCND1/TFDP1/E2F1/MAML3/NOTCH1/CREBBP/E2F3/TNRC6A/AGO1/MAML1/TNRC6C/TP53/AGO4/TNRC6B/EP300/AGO2/NOTCH4/AGO3/KAT2B/MAML2/MAMLD1/KAT2A</t>
+  </si>
+  <si>
+    <t>POLR2L/GTF2F2/POLR2J/GTF2F1/NCBP2/POLR2K/POLR2F/POLR2A/POLR2I/CCNH/RNMT/CDK7/NCBP1/MNAT1/GTF2H5/ERCC3/POLR2E/ERCC2/POLR2C/GTF2H2/SUPT5H/POLR2G/POLR2D/POLR2B/RNGTT/POLR2H/GTF2H4/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>ACTB/UBA52/PARP1/ACTL6A/COPS5/UBB/COPS3/RBX1/DDB1/COPS2/INO80C/COPS6/CUL4B/TFPT/INO80E/COPS8/COPS7B/GPS1/COPS4/YY1/UBC/RAD23B/CETN2/INO80/PARP2/INO80B/XPC/COPS7A/RUVBL1/RAD23A/ACTR5/CUL4A/ACTR8/NFRKB/DDB2/INO80D/MCRS1</t>
+  </si>
+  <si>
+    <t>POLR2L/GTF2A2/GTF2F2/POLR2J/GTF2F1/POLR2K/TAF12/POLR2F/POLR2A/POLR2I/TAF9B/CCNH/CDK7/MNAT1/GTF2H5/TAF9/ERCC3/TAF7/GTF2B/GTF2E2/POLR2E/ERCC2/POLR2C/TAF4/TAF6/TAF10/GTF2H2/GTF2E1/POLR2G/TAF1/POLR2D/TAF13/POLR2B/TAF11/TAF3/POLR2H/GTF2H4/TAF5/TAF4B/TAF2/GTF2H3/TBP/GTF2A1/GTF2H1</t>
+  </si>
+  <si>
+    <t>CALM1/FN1/DUSP4/ACTB/CALM2/FGFR1/PSMC3/PSMC4/PPP2R1A/PSMA4/PSME2/FGFR4/PSMA7/VCL/UBA52/PEBP1/PSMB2/SPTBN1/PEA15/RASGRP3/PSMB3/AKAP9/PSMD14/RAP1B/YWHAB/ACTG1/PDGFRB/PPP2CB/PSMD4/UBB/PSMD7/DUSP6/RBX1/PSME1/TEK/PSMC5/PPP2R5C/SHC1/PSMD13/MAP2K2/ERBB4/HRAS/PSME3/CALM3/JAK1/PSMB6/PSMD12/DUSP1/PSMD11/PSMF1/PDGFRA/PSMB4/PSMC2/ERBB3/PSME4/PSMB1/ANGPT1/PSMA6/GRIN2A/PTPRA/RAF1/LAMTOR2/MAP2K1/SPTAN1/RAP1A/CUL3/PHB/GRB2/DUSP5/ARRB1/SRC/MARK3/KRAS/FGFR2/FGF8/FGFR3/CAMK2D/ARAF/PSMB10/PSMB5/RASA4/ACTN2/PSMD9/UBC/CAMK2A/PSMD10/PSMA3/IQGAP1/ITGA2B/SHC2/DAB2IP/PPP2CA/PPP2R5A/SPRED2/FYN/MAP3K11/PSMD1/CAMK2G/RAPGEF2/FGA/ARRB2/RANBP9/BRAF/FGF10/DUSP9/NF1/SPTBN2/KIT/NRG2/NRAS/PSPN/RASA1/PSMD8/CSK/PSMB7/CNKSR2/GRIN2B/VWF/RASAL2/TLN1/WDR83/NCAM1/GFRA2/PDGFA/NRG1/MAPK1/FGB/HBEGF/FRS3/PSMD5/FGF2/SPRED1/LAMTOR3/IRS1/PSMA1/PPP2R5B/DUSP10/PPP2R1B/PSMC1/GRIN2D/FGF1/RASA3/PSMC6/GFRA3/MAPK3/PSMD6/FGF17/PPP2R5D/SOS1/DUSP2/KBTBD7/EGF/RASGRP1/LAT/DUSP16/PPP5C/PSMD3/KLB/SYNGAP1/RASGEF1A/JAK2/BRAP/CAMK2B/MET/FRS2/PAQR3/PSMD2/ERBB2/KSR1/PSMA5/EGFR/SPRED3/FGF23/PPP2R5E/IL17RD/SPTBN4/FGF18/CSF2RA/FGF9/FGF22/NRTN/DUSP8/PDGFB/FGG/GDNF/HGF/IL2RG/SHC3/FGF19/APBB1IP/RASAL1/KSR2/SPTB/SPTBN5/NRG4/RASAL3/JAK3/DUSP7/CNKSR1/RASA2/FGF7/IRS2/PTK2/DLG4/KITLG/PSMA2</t>
+  </si>
+  <si>
+    <t>CKS1B/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/CDK4/PSMC5/PSMD13/SKP2/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSMB1/PSMA6/CCND1/CDKN1B/CDK2/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/PSMD3/PSMD2/CCNE2/PSMA5/PTK6/CCNA1/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>MAD2L1/ANAPC11/UBE2C/CDC20/PSMC3/CDK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/NEK2/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>ORC6/PSMC3/GMNN/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PSMD4/UBB/PSMD7/MCM5/PSME1/MCM10/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/CDT1/PSMF1/PSMB4/MCM8/PSMC2/ORC4/PSME4/PSMB1/PSMA6/CDC6/CDKN1B/CDK2/RB1/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/PSMD8/ORC2/PSMB7/PSMD5/PSMA1/PSMC1/ORC1/FZR1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/CCNA1/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>FN1/SPINT2/COL3A1/COL1A1/RAB4A/COL1A2/UBA52/COL5A1/ITGB1/HPN/RAP1B/PTPN2/SPINT1/UBB/RAC1/SHC1/HRAS/RAB4B/LAMC1/LAMA5/LAMC3/COL5A2/EPS15/CRKL/SH3GL1/SH3KBP1/LAMA1/COL2A1/PTPN1/PIK3R1/RAP1A/GRB2/SRC/KRAS/COL27A1/STAT3/ARF6/UBC/RANBP9/PTPRJ/GGA3/HGS/NRAS/ITGA3/CBL/SH3GL3/USP8/PTPN11/RAPGEF1/SH3GL2/LAMB2/DOCK7/TNS3/STAM2/SOS1/LAMA2/COL11A2/STAM/LRIG1/LAMB1/MET/GAB1/PIK3CA/LAMA4/ITGA2/CRK/MUC20/COL11A1/HGF/PTK2/LAMC2/RANBP10</t>
+  </si>
+  <si>
+    <t>TYMS/DHFR/TK1/CDK1/PCNA/RRM2/CDC45/TFDP2/CDT1/RBL2/CDC6/TFDP1/E2F1/POLA1/E2F4/RBBP4/FBXO5/HDAC1/LIN52/E2F6/RBL1/ORC1/LIN9/LIN37/LIN54/E2F5/CCNA1/CCNE1</t>
+  </si>
+  <si>
+    <t>SNRPB/SLBP/SNRPG/SNRPF/PAPOLA/NCBP2/CPSF2/PABPN1/CPSF4/CSTF3/SNRPE/NCBP1/LSM10/SNRPD3/CSTF2T/PCF11/SYMPK/CPSF3/CPSF7/FIP1L1/WDR33/CSTF1/CLP1/CPSF1/CSTF2/ZNF473/LSM11/NUDT21</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/IHH/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/SPOP/PSMF1/PSMB4/PSMC2/GPR161/PTCH1/PSME4/PSMB1/PSMA6/GAS1/SMO/HHIP/CUL3/ARRB1/ITCH/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/ARRB2/GLI2/EFCAB7/EVC2/CDC73/ULK3/PSMD8/PSMB7/PSMD5/KIF3A/PSMA1/PSMC1/PSMC6/CSNK1A1/PSMD6/CDON/GAS8/SMURF2/BOC/PSMD3/GLI3/IQCE/NUMB/PSMD2/SMURF1/PSMA5/DZIP1/KIF7/SHH/GRK2/SPOPL/GLI1/SUFU/PSMA2</t>
+  </si>
+  <si>
+    <t>BEX3/ARHGDIA/UBA52/RTN4/AATF/UBB/RAC1/MAGED1/AKAP13/NFKBIA/ITGB3BP/ECT2/NET1/NCSTN/ARHGEF2/ARHGEF26/ARHGEF16/ARHGEF1/HDAC3/ADAM17/ARHGEF40/MAPK8/HDAC2/BAD/RHOA/VAV3/ARHGEF39/UBC/RELA/NFKB1/ARHGEF4/FGD4/TRIO/CASP2/HDAC1/PSEN2/CASP3/FGD1/IKBKB/ARHGEF7/PLEKHG2/BCL2L11/KALRN/NGF/ARHGEF33/ARHGEF9/ARHGEF19/PSENEN/PRKCI/ITSN1/RIPK2/PREX1/MYD88/FGD3/SOS2/TIAM2/OBSCN/APH1B/TIAM1/YWHAE/ABR/APH1A/PSEN1/SMPD2/SOS1/ARHGEF6/MCF2L/PLEKHG5/GNA13/IRAK1/VAV2/ARHGEF12/ARHGEF5/ARHGEF35/LINGO1/ARHGEF37/ARHGEF11/ARHGEF3/RTN4R/TRAF6/PRDM4/ARHGEF10/ARHGEF17/ARHGEF15/NGEF/ARHGEF10L/SQSTM1</t>
+  </si>
+  <si>
+    <t>ORC6/RPA3/CLSPN/MCM6/MCM3/RFC4/MCM4/MCM2/RFC2/MCM7/RFC5/RPA2/MCM5/CDC45/MCM10/RFC3/RPA1/MCM8/ORC4/RAD1/CDC6/CDC25A/CDK2/CDC25C/RAD17/ORC3/ATR/ORC2/RAD9A/HUS1/DBF4/CDC7/CHEK1/ORC1/ATRIP/ORC5</t>
+  </si>
+  <si>
+    <t>RPA3/RAD51/RFC4/RFC2/RFC5/RHNO1/RMI2/RPA2/BLM/BARD1/RFC3/RPA1/RAD50/RAD1/EXO1/TOP3A/BRCA1/RAD17/BRIP1/ERCC4/ERCC1/ABL1/RAD52/NBN/KAT5/ATM/RMI1/ATR/RAD9A/TOPBP1/HUS1/RBBP8/MRE11/DNA2/WRN/ATRIP</t>
+  </si>
+  <si>
+    <t>CCNG1/CDK1/PPP2R1A/UBA52/CCNA2/PPP2CB/UBB/MLST8/PPP2R5C/MAPKAP1/AKT2/CHEK2/PHF20/PRR5/DAXX/RNF34/CDK2/AKT1/RICTOR/MTOR/UBC/PPP2CA/AKT3/PRDM1/PDPK1/SGK1/ATM/USP2/TP53/USP7/PPP2R1B/MDM4/RFFL/CDKN2A/MDM2/CCNA1</t>
+  </si>
+  <si>
+    <t>POLR3K/POLR2L/GTF3A/POLR1D/POLR3D/SNAPC5/GTF3C6/POLR2K/POLR2F/BRF2/GTF3C5/ZNF143/GTF3C3/SNAPC2/POLR1C/POLR3C/SNAPC3/GTF3C2/POLR3A/POLR2E/POLR3H/SNAPC1/POU2F1/GTF3C1/CRCP/POLR3E/POLR3G/BDP1/POLR3B/SNAPC4/POLR2H/BRF1/POLR3F/TBP/POLR3GL/GTF3C4</t>
+  </si>
+  <si>
+    <t>PTTG1/AURKB/ANAPC11/UBE2C/CDC20/PSMC3/PLK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/ANAPC16/PSMB3/PSMD14/PSMD4/UBB/PSMD7/AURKA/PSME1/PSMC5/PSMD13/SKP2/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/FZR1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/PSMA2</t>
+  </si>
+  <si>
+    <t>MAD2L1/ANAPC11/UBE2C/CDC20/PSMC3/CDK1/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/ANAPC16/PSMB3/PSMD14/BUB3/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/BUB1B/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/CCNA1/PSMA2</t>
+  </si>
+  <si>
+    <t>ACTB/PSMC3/PSMC4/PSMA4/PSME2/ADRM1/HIST3H2A/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/ACTL6A/UBB/PSMD7/BARD1/PSME1/PSMC5/PSMD13/ASXL1/PSME3/PSMB6/PSMD12/PSMD11/UCHL1/PSMF1/PSMB4/TGFB1/PSMC2/FOXK1/PSME4/PSMB1/PSMA6/INO80C/UCHL3/TFPT/INO80E/NEDD8/HCFC1/UCHL5/PSMB10/PSMB5/TGFBR1/HIST2H2AC/PSMD9/YY1/UBC/PSMD10/PSMA3/OGT/USP15/PSMD1/INO80/BAP1/INO80B/SMAD7/PSMD8/FOXK2/PSMB7/RUVBL1/TGFBR2/HIST1H2AH/ASXL2/PSMD5/ACTR5/PSMA1/MBD6/PSMC1/HIST1H2AE/HIST1H2AG/PSMC6/ACTR8/PSMD6/PSMD3/KDM1B/NFRKB/HIST1H2AC/HIST1H2AK/HIST1H2AB/HIST1H2AL/PSMD2/PSMA5/HIST2H2AB/INO80D/HIST1H2AI/HIST1H2AJ/SENP8/MBD5/MCRS1/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/DYNLL1/TUBB2A/SPTBN1/DCTN3/TUBB2B/TMED9/ANK3/FOLR1/ARF1/ARF4/TMED10/DCTN5/CAPZA1/ACTR1A/DCTN2/TMED3/TMED2/USO1/STX5/COPB1/DYNC1LI1/ARF5/GOLGA2/COG4/TUBA1C/CD59/COPB2/YKT6/CAPZA2/CAPZB/GOSR2/SPTAN1/DYNLL2/GOSR1/TMED7/DCTN6/ARFGAP3/COPA/DCTN4/TUBA4A/ARF3/GBF1/ARFGAP1/ARFGAP2/COG5/BET1/NAPB/GOLGB1/DYNC1I1/KDELR2/TMEM115/COG8/COG6/SPTBN2/RAB1A/EHHADH/DYNC1LI2/NSF/GORASP1/RAB1B/DCTN1/COPE/NAPA/COPZ2/COG1/ACTR10/COPG2/COG2/COG7/CD55/COPZ1/COPG1/ANK2/TUBB4A/BET1L/SPTBN4/ANK1/SPTB/SPTBN5/COG3/NAPG/TUBB8/DYNC1I2/DYNC1H1/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>DUSP4/PPP2R1A/RALA/AP2S1/YWHAB/PPP2CB/CLTA/RALB/DUSP6/AP2M1/CREB1/SHC1/HRAS/AP2A1/ATF1/KIDINS220/MAPK7/CRKL/MEF2C/NTRK1/PIK3R1/RAP1A/GRB2/SRC/MAP2K5/KRAS/RIT1/DUSP3/NTRK2/STAT3/RHOA/SHC2/PPP2CA/MAPKAPK3/CLTC/VRK3/BRAF/RALGDS/MAPK12/NRAS/MAPK14/PLCG1/DNM1/AP2A2/DNM2/NGF/RAPGEF1/MAPK1/SH3GL2/IRS1/PIK3R2/PPP2R1B/DNAL4/MAPK3/AP2B1/MAPKAPK2/PIK3CB/PPP2R5D/SOS1/MEF2A/MAPK13/FRS2/ELK1/MAPK11/PIK3CA/CRK/RIT2/ADCYAP1R1/SHC3/DUSP7/IRS2</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PPIA/FKBP1A/RASGRP3/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/SHC1/PSMD13/NFKBIA/HRAS/PSME3/CALM3/PSMB6/NFKBIB/PSMD12/PSMD11/AHCYL1/PSMF1/PSMB4/PSMC2/LYN/PSME4/PSMB1/SH3KBP1/PSMA6/PIK3R1/GRB2/REL/KRAS/PSMB10/PSMB5/FBXW11/PSMD9/NFATC3/IKBKG/CBLB/MAP3K7/UBC/PIK3CD/RELA/PSMD10/PSMA3/NFKB1/PPP3CB/PLCG2/FYN/PSMD1/ORAI1/PPP3CA/ITPR1/NRAS/IKBKB/TRPC1/PPP3R1/NCK1/PLCG1/CBL/PSMD8/PSMB7/ITPR3/SKP1/PSMD5/NFATC1/BCL10/MALT1/PSMA1/BTK/PSMC1/PSMC6/CUL1/PSMD6/SOS1/CD79B/RASGRP1/ITPR2/CHUK/STIM1/PSMD3/BTRC/CARD11/PSMD2/PSMA5/PRKCB/DAPP1/PIK3AP1/CD19/CD79A/NFATC2/PTPN6/NFKBIE/PSMA2/ORAI2</t>
+  </si>
+  <si>
+    <t>YWHAH/HIST1H4C/ORC6/CCNB1/RPA3/PSMC3/H2AFX/GTSE1/CDK1/YWHAQ/PSMC4/CLSPN/CCNB2/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/PSMB2/RFC4/MCM4/PSMB3/PSMD14/MCM2/RFC2/MCM7/SUMO1/RFC5/YWHAB/PSMD4/RHNO1/RMI2/UBB/PSMD7/UBE2N/RPA2/MCM5/BLM/BARD1/CDC45/PSME1/MCM10/PSMC5/UBE2V2/RFC3/PSMD13/PSME3/PSMB6/PSMD12/RNF168/CHEK2/PSMD11/RPA1/TP53BP1/YWHAZ/PSMF1/PSMB4/MCM8/PSMC2/RAD50/ORC4/RAD1/PSME4/PSMB1/PSMA6/MDC1/EXO1/TOP3A/CDC6/RNF8/CDC25A/CDK2/BRCA1/BRCC3/CDC25C/RAD17/PKMYT1/PSMB10/BRIP1/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/UIMC1/WEE1/HERC2/PSMD1/HIST1H2BD/HIST1H2BH/NBN/HIST2H2BE/KAT5/BABAM1/ATM/HIST1H2BN/RMI1/PSMD8/ATR/TP53/ORC2/PSMB7/RAD9A/TOPBP1/PIAS4/HUS1/DBF4/PSMD5/RBBP8/PSMA1/CDC7/CHEK1/PSMC1/MRE11/ORC1/DNA2/PSMC6/YWHAE/PSMD6/HIST1H2BG/WRN/PSMD3/HIST1H4J/HIST1H4E/HIST1H2BK/PSMD2/PSMA5/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST4H4/HIST1H2BJ/HIST1H2BC/SFN/HIST3H2BB/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/ORC5/YWHAG/PSMA2</t>
+  </si>
+  <si>
+    <t>PPP2R1A/PFKP/MDH2/PGP/PGAM1/GAPDH/SLC37A4/PPP2CB/GOT1/GNPDA1/NUP62/HK1/ENO3/ALDOA/PFKM/ADPGK/NUP93/RANBP2/NUP88/PCK2/NUP37/NUP43/NUP50/ENO2/PFKFB3/PKM/NUP35/RAE1/SLC25A11/NUP107/GCK/PGAM2/NUP153/TPR/NUP98/PGM2L1/ENO1/FBP1/MDH1/SLC25A10/PPP2CA/SLC37A1/NUP54/NDC1/GNPDA2/PFKL/POM121/SEH1L/FBP2/SLC25A12/TPI1/NUP214/NUP160/PFKFB2/HK2/NUPL2/G6PC3/SLC25A1/NUP58/GPI/PPP2R1B/NUP188/BPGM/PPP2R5D/NUP205/PGK1/GOT2/NUP133/NUP85/PRKACB/PRKACA/NUP155/GCKR/SLC37A2/PFKFB4/PC/PFKFB1/AAAS/NUP210/SLC25A13/ALDOC</t>
+  </si>
+  <si>
+    <t>APOA1/TMSB4X/GNG11/CALM1/SPARC/FN1/CALM2/IGF2/COL1A1/TAGLN2/COL1A2/CLU/GNG5/ACTN4/TIMP1/MANF/FLNA/ACTN1/PSAP/GNB1/TIMP3/PFN1/VCL/SELENOP/OLA1/CFL1/CAP1/PPIA/APLP2/RAP1B/RASGRP2/APP/F2/FAM49B/GNB2/GNAI1/GNB5/RAC1/THBS1/GNG12/CALU/HSPA5/PROS1/CDC42/CHID1/BCAR1/SHC1/CALM3/JAK1/GAS6/WDR1/AKT2/F2R/RHOB/YWHAZ/ALDOA/TGFB1/GNB3/PRKCD/DGKI/SCG3/GNB4/LYN/F2RL2/A1BG/ABHD12/CD63/TEX264/RAF1/PTPN1/CDC37L1/PIK3R1/RAP1A/SERPING1/SERPINE1/GRB2/QSOX1/ARRB1/SRC/SERPINF2/CFD/GNAI2/TTN/SOD1/AKT1/NHLRC2/PHACTR2/MAGED2/HABP4/ACTN2/TUBA4A/RHOA/VAV3/PIK3CD/PDPN/ITGA2B/ANXA5/GAB2/PLCG2/AKT3/RARRES2/LHFPL2/FYN/DGKB/TGFB2/FGA/ARRB2/ABHD6/CYB5R1/TGFB3/PDPK1/LAMP2/PRKCZ/LGALS3BP/PECAM1/VEGFB/ITPR1/PRKCH/MAPK14/GNG7/RAC2/CSK/ADRA2C/PTPN11/STX4/VWF/TLN1/ITPR3/VEGFA/PDGFA/DGKZ/DGKE/MAPK1/FGB/GNGT1/GNAI3/GNG3/ECM1/PIK3R2/GNA12/TMX3/PIK3R3/PF4/FAM3C/GNA11/DGKQ/TF/RAPGEF3/STXBP3/SERPINA1/MAPK3/GNG10/PIK3CB/SOS1/TOR4A/LEFTY2/EGF/GNG4/F2RL3/RASGRP1/LAT/ITPR2/BRPF3/GNA13/P2RY1/VAV2/GTPBP2/MGLL/GNAQ/GNG2/JAK2/PRKCE/AHSG/PRKCA/DAGLB/GNG8/TBXA2R/SCCPDH/CD9/DGKK/PIK3CA/PRKCQ/ADRA2B/F8/PCDH7/PCYOX1L/ENDOD1/CRK/CD36/ISLR/PRKCG/VEGFC/DGKA/CSF2RA/SERPINA4/ALB/PLG/LCK/PPBP/THPO/PRKCB/DAGLA/PDGFB/PIK3R5/FCER1G/RAPGEF4/ITIH4/DGKG/MMRN1/FGG/LCP2/HGF/IL2RG/SYTL4/GNA14/ORM2/FERMT3/TRPC6/APBB1IP/ADRA2A/IGF1/ABCC4/GNG13/GP1BA/RAB27B/JAK3/DGKH/APOOL/CD109/PTK2/DGKD/STXBP2/RHOG/PTPN6/VTI1B</t>
+  </si>
+  <si>
+    <t>TGIF1/UBA52/SNW1/PARP1/UBE2D3/CCNC/UBB/MYC/USP9X/TFDP2/NCOR2/CDK9/NCOR1/MEN1/SKIL/TFDP1/NEDD4L/SERPINE1/WWTR1/UBE2D1/E2F4/SMAD4/CCNT2/UBC/SMAD3/TRIM33/SP1/HDAC1/CDKN2B/SMAD7/JUNB/CCNT1/PPM1A/RBL1/TGIF2/SKI/SMURF2/CCNK/E2F5/RNF111/SMAD2/CDK8</t>
+  </si>
+  <si>
+    <t>CKS1B/CCND2/PPP2R1A/CDK6/UBA52/CDKN1C/PPP2CB/UBB/CDK4/SKP2/TFDP2/PPP2R2A/CCND3/CCNH/LYN/CDK7/RBL2/CCND1/TFDP1/CDKN1B/E2F1/MNAT1/RB1/SRC/E2F3/CDKN2D/E2F4/UBC/PPP2CA/CDKN1A/ABL1/CDKN2B/SKP1/RBL1/PPP2R1B/E2F2/CUL1/JAK2/PPP2R3B/CDKN2A/E2F5/PTK6</t>
+  </si>
+  <si>
+    <t>TOP2A/CDK1/PCNA/CCNA2/MYBL2/MYC/MAX/TFDP2/RBL2/CDC6/CDC25A/TFDP1/CDK2/E2F1/DYRK1A/E2F4/RBBP4/HDAC1/LIN52/RBL1/LIN9/LIN37/LIN54/CCNE2/E2F5/CCNA1/CCNE1</t>
+  </si>
+  <si>
+    <t>POLR2L/GTF2F2/POLR2J/GTF2F1/POLR2K/POLR2F/POLR2A/POLR2I/CCNH/RNMT/CDK7/MNAT1/GTF2H5/ERCC3/POLR2E/ERCC2/POLR2C/GTF2H2/SUPT5H/POLR2G/POLR2D/POLR2B/RNGTT/POLR2H/GTF2H4/GTF2H3/GTF2H1</t>
+  </si>
+  <si>
+    <t>FN1/ACTB/VCL/PEBP1/RAP1B/YWHAB/ACTG1/MAP2K2/HRAS/RAF1/MAP2K1/RAP1A/ARRB1/SRC/MARK3/KRAS/ARAF/IQGAP1/ITGA2B/FGA/ARRB2/BRAF/NRAS/CSK/CNKSR2/VWF/TLN1/MAPK1/FGB/MAPK3/KSR1/FGG/APBB1IP/KSR2/CNKSR1</t>
+  </si>
+  <si>
+    <t>CCNG1/CDK1/PPP2R1A/UBA52/CCNA2/PPP2CB/UBB/MLST8/PPP2R5C/MAPKAP1/AKT2/CHEK2/PHF20/PRR5/DAXX/RNF34/CDK2/AKT1/RICTOR/MTOR/UBC/PPP2CA/AKT3/PDPK1/SGK1/ATM/USP2/TP53/USP7/PPP2R1B/MDM4/RFFL/CDKN2A/MDM2/CCNA1</t>
+  </si>
+  <si>
+    <t>COL3A1/COL9A2/COL5A1/COL9A3/PDGFRB/COL6A2/PLAT/THBS1/COL6A1/BCAR1/HRAS/SPP1/COL4A1/PDGFRA/COL5A2/CRKL/GRB7/COL2A1/PIK3R1/GRB2/SRC/KRAS/STAT3/FURIN/COL4A2/STAT5B/NRAS/NCK1/STAT1/PLCG1/RASA1/PTPN11/COL6A3/THBS4/RAPGEF1/PDGFA/THBS3/COL4A5/COL9A1/PIK3R2/NCK2/PIK3CB/SOS1/STAT5A/COL6A6/PTPN12/PDGFD/PIK3CA/CRK/PLG/PDGFC/STAT6/PDGFB/COL4A4</t>
+  </si>
+  <si>
+    <t>ORC6/PSMC3/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/CCNA2/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PSMD4/UBB/PSMD7/MCM5/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/CDT1/PSMF1/PSMB4/MCM8/PSMC2/ORC4/PSME4/PSMB1/PSMA6/CDC6/CDKN1B/CDK2/RB1/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/PSMD8/ORC2/PSMB7/PSMD5/PSMA1/PSMC1/ORC1/FZR1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/CCNA1/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/KDELR1/TUBB4B/TUBB2A/KIF22/TUBB2B/TMED9/KIF2C/KIF23/SURF4/KIF20A/KIF20B/ARF1/ARF4/TMED10/CENPE/KIF4A/KIFAP3/RACGAP1/TMED3/KIFC1/TMED2/COPB1/KIF3C/ARF5/KIF26B/TUBA1C/KIF9/KIF12/COPB2/KIF21A/TMED7/KIF15/KIF18B/ARFGAP3/COPA/KIF11/TUBA4A/ARF3/GBF1/STX18/ARFGAP1/ARFGAP2/KIF1B/NAPB/KIF26A/KIFC2/KLC3/KDELR2/KLC2/KIF3B/RAB1A/NBAS/KIF13B/SEC22B/KLC4/KIF2A/EHHADH/NSF/BNIP1/RINT1/RAB1B/USE1/COPE/NAPA/KIF16B/KIF3A/COPZ2/COPG2/ZW10/KIF27/KLC1/COPZ1/KIF1C/COPG1/KIF1A/TUBB4A/KIF19/KIF25/KIF18A/KIF21B/KIF6/NAPG/TUBB8/KIF5B/ARCN1/KDELR3</t>
+  </si>
+  <si>
+    <t>PPP1CC/PPP1CA/UBA52/CREM/UBB/PPP1CB/CREB1/RBM4/CRTC1/RORA/MEF2C/NCOR1/CARM1/TBL1XR1/CSNK1E/CSNK1D/TGS1/SERPINE1/HDAC3/CREBBP/TBL1X/UBC/ATF2/RXRA/CRY2/DBP/MED1/SIRT1/NCOA2/FBXL3/SMARCD3/NCOA6/CRY1/NCOA1/NRIP1/KLF15/CHD9/SKP1/AVP/ARNTL/EP300/F7/NAMPT/SREBF1/RAI1/PER2/HELZ2/CUL1/PER1/ARNTL2/PPARA/NR3C1/NR1D1/BTRC/CPT1A/MEF2D/BHLHE40/HIF1A/PPARGC1A/NOCT/NFIL3/CLOCK/CRTC2/CRTC3</t>
+  </si>
+  <si>
+    <t>PPP2R1A/PFKP/PGP/PGAM1/GAPDH/PPP2CB/GNPDA1/NUP62/HK1/ENO3/ALDOA/PFKM/ADPGK/NUP93/RANBP2/NUP88/NUP37/NUP43/NUP50/ENO2/PFKFB3/PKM/NUP35/RAE1/NUP107/GCK/PGAM2/NUP153/TPR/NUP98/PGM2L1/ENO1/PPP2CA/NUP54/NDC1/GNPDA2/PFKL/POM121/SEH1L/TPI1/NUP214/NUP160/PFKFB2/HK2/NUPL2/NUP58/GPI/PPP2R1B/NUP188/BPGM/PPP2R5D/NUP205/PGK1/NUP133/NUP85/PRKACB/PRKACA/NUP155/GCKR/PFKFB4/PFKFB1/AAAS/NUP210/ALDOC</t>
+  </si>
+  <si>
+    <t>YWHAH/DYNLL1/YWHAQ/YWHAB/PPP3CC/AKT2/TFDP2/YWHAZ/BAX/CYCS/TFDP1/E2F1/PMAIP1/DYNLL2/TP53BP2/AKT1/MAPK8/BBC3/BAD/DIABLO/CASP7/BID/AKT3/PPP1R13B/CASP3/PPP3R1/BCL2L11/BAK1/TP53/CASP9/YWHAE/BMF/XIAP/TP73/CASP8/BCL2/SFN/APAF1/YWHAG/BCL2L1/NMT1</t>
+  </si>
+  <si>
+    <t>RAC1/HRAS/LYN/GRB7/PIK3R1/GRB2/SRC/GRAP2/KRAS/YES1/STAT3/GAB2/FER/FYN/SOCS6/PTPRU/KIT/STAT5B/NRAS/STAT1/CBL/PTPN11/GRB10/PIK3R2/PIK3R3/CHEK1/FES/SOS1/MMP9/STAT5A/JAK2/TEC/PRKCA/SH2B2/GRAP/SOCS1/PIK3CA/LCK/SH2B3/KITLG/PTPN6</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/APEX1/PCNA/RFC4/RFC2/PARP1/RFC5/POLE4/RPA2/BPHL/RFC3/LIG1/RPA1/POLD2/PARG/POLD3/RFC1/POLE2/POLE/POLE3/POLD1/ADPRHL2/PARP2/POLB/POLD4</t>
+  </si>
+  <si>
+    <t>HNRNPA1/POLR2L/GTF2F2/POLR2J/GTF2F1/NCBP2/POLR2K/POLR2F/HNRNPM/POLR2A/ESRP1/HNRNPF/POLR2I/HNRNPH1/NCBP1/RBFOX2/PTBP1/POLR2E/POLR2C/POLR2G/POLR2D/POLR2B/ESRP2/POLR2H/TIA1/TIAL1</t>
+  </si>
+  <si>
+    <t>UBXN1/PRKCSH/UBA52/CALR/VCP/UBB/PDIA3/RNF5/DERL1/CANX/TRIM13/DERL2/RNF185/MAN1B1/UGGT1/MLEC/GANAB/EDEM3/UBC/RAD23B/MOGS/OS9/RNF103/NGLY1/SEL1L/EDEM2/UGGT2/EDEM1/SYVN1/PSMC1/RNF139/MARCH6/ENGASE/AMFR</t>
+  </si>
+  <si>
+    <t>CBX5/RAD51/RRM2/RBBP7/PCGF2/MAX/RING1/TFDP2/PHC1/RNF2/CBX3/RYBP/TFDP1/BRCA1/E2F1/PCGF6/EED/EPC1/RBBP4/EZH2/YAF2/PHC3/SUZ12/E2F6/RBBP8/CDC7/CHEK1/UXT/L3MBTL2/EHMT2/APAF1/MGA/EHMT1/BMI1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/CSNK2B/PSMD4/UBB/PSMD7/PSME1/MKRN1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/AKT2/PSMD11/RNF146/PTEN/PSMF1/PSMB4/CSNK2A2/PSMC2/PSME4/PSMB1/PSMA6/CSNK2A1/WWP2/USP13/AKT1/PSMB10/PSMB5/PSMD9/TRIM27/UBC/PSMD10/PSMA3/OTUD3/AKT3/PSMD1/TNKS/TNKS2/PSMD8/STUB1/PSMB7/PSMD5/PREX2/PSMA1/PSMC1/PSMC6/PSMD6/XIAP/NEDD4/PSMD3/PSMD2/PSMA5/FRK/PSMA2</t>
+  </si>
+  <si>
+    <t>GNG11/RHOC/GNG5/GNB1/GNB2/GNB5/RAC1/GNG12/CDC42/AKAP13/RHOB/ECT2/GNB3/GNB4/NET1/ARHGEF2/ARHGEF26/ARHGEF16/ARHGEF1/PIK3R1/ROCK1/ARHGEF40/RHOA/VAV3/ARHGEF39/ARHGEF4/FGD4/TRIO/FGD1/ARHGEF7/GNG7/PLEKHG2/RAC2/KALRN/ARHGEF33/ARHGEF9/GNGT1/ARHGEF19/ITSN1/PREX1/GNG3/PIK3R2/GNA12/FGD3/PIK3R3/SOS2/TIAM2/OBSCN/ROCK2/TIAM1/ABR/GNG10/SOS1/ARHGEF6/MCF2L/ADRA1D/GNG4/PLEKHG5/GNA13/VAV2/GNG2/ARHGEF12/ARHGEF5/GNG8/TBXA2R/PIK3CA/ARHGEF35/ARHGEF37/ARHGEF11/ARHGEF3/GNG13/ARHGEF10/PLXNB1/ARHGEF17/ARHGEF15/NGEF/ARHGEF10L/RHOG</t>
+  </si>
+  <si>
+    <t>SOX17/UBA52/SOX4/SOX7/UBB/ASH2L/CBY1/LEF1/TLE1/AKT2/YWHAZ/SRY/TCF7L2/TCF7L1/XPO1/TLE3/MEN1/TLE4/CTNNBIP1/AKT1/TLE2/UBC/HDAC1/CHD8/PYGO1/CTNNB1/APC/SOX9/BCL9L/XIAP/BTRC/SOX13/TCF7/KMT2D/BCL9/SOX6/SOX2/PYGO2/RBBP5/CTBP1</t>
+  </si>
+  <si>
+    <t>POLR3K/POLR2L/GTF3A/POLR1D/POLR3D/SNAPC5/GTF3C6/POLR2K/POLR2F/BRF2/GTF3C5/ZNF143/GTF3C3/SSB/SNAPC2/POLR1C/POLR3C/SNAPC3/GTF3C2/POLR3A/POLR2E/NFIC/POLR3H/SNAPC1/POU2F1/GTF3C1/CRCP/POLR3E/POLR3G/BDP1/POLR3B/SNAPC4/POLR2H/BRF1/NFIA/POLR3F/NFIB/TBP/POLR3GL/GTF3C4</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/AHCYL1/PRKCD/PRKAR2A/ADCY3/ITPR1/ADCY7/PLCG1/PDE1B/ITPR3/ADCY1/ADCY6/ITPR2/PRKAR2B/PRKCE/PRKAR1B/PRKCA/PRKACB/ADCY2/PRKACA/PDE1C/PRKCG/CAMK4/PDE1A/ADCY5/ADCY8/ADCY4/ADCY9/GRK2</t>
+  </si>
+  <si>
+    <t>TTR/APOA1/APOA2/APOM/APOE/DHFR/MTHFD2/FASN/QPRT/RBP1/MTHFD1/SDC2/COASY/PPCS/MMADHC/GPC3/LDLR/NAXE/SHMT1/RFK/ENPP2/MTHFD1L/FLAD1/MMAB/GSTO2/RBP4/COQ9/VKORC1/APOB/COQ5/CYB5A/GSTO1/MTHFD2L/SLC2A1/SLC52A2/TCN2/IDH1/NAXD/MTHFR/MTHFS/PANK2/CYB5R3/LRP12/PCCA/CD320/MCCC1/RDH11/BTD/COQ7/NAPRT/AGRN/VKORC1L1/AKR1C3/PPCDC/GPC6/APOC3/LMBRD1/NADK/LRP10/ABCD4/NADSYN1/AMN/HSPG2/THTPA/BST1/MOCS1/NMRK1/GPC1/UBIAD1/PTGIS/COQ2/MOCS3/SLC2A3/LRP8/PARP16/PARP6/GPC4/COQ3/ABCC1/RETSAT/PDSS2/SHMT2/NFS1/LRP2/GPC2/GPHN/PANK4/RNLS/AKR1C1/PANK3/MMAA/SLC25A32/TPK1/SDC3/PDZD11/SLC19A1/PRSS1/ACACB/FPGS/COQ6/PNPO/NAMPT/ENPP1/MUT/PARP8/DHFR2/NMNAT1/SDC4/HLCS/MOCS2/NADK2/PARP9/AOX1/PARP10/SLC25A16/PDSS1/SDC1/MTR/PDXK/AKR1B10/SLC23A1/CUBN/LRP1/NT5E/SLC46A1/MMACHC/BCO1/SLC25A19/PLB1/LRAT/TTPA/ALDH1L1/SLC23A2/MTRR/NUDT12/SLC19A2/NMNAT3/SLC19A3/PC/RBP2/NNMT/NMNAT2/MCCC2/SLC52A3/NMRK2/PANK1/ACACA/BCO2/PCCB/SLC5A6/AASDHPPT/PARP14/PARP4</t>
+  </si>
+  <si>
+    <t>PABPC1/EIF4A2/EIF4B/EIF4E/PAIP1/CNOT7/CNOT1/EIF4A3/ZCCHC11/CNOT11/EIF4A1/EIF4G1/CNOT3/CNOT9/CNOT10/CNOT6/CNOT2/CNOT4/ZCCHC6/CNOT6L/PAN3/PAN2/PARN/CNOT8/TNKS1BP1</t>
+  </si>
+  <si>
+    <t>PPP2R1A/YWHAB/PPP2CB/PPP2R5C/MAP2K2/HRAS/RAF1/MAP2K1/PHB/SRC/MARK3/KRAS/ARAF/PPP2CA/PPP2R5A/MAP3K11/BRAF/NRAS/PPP2R5B/PPP2R1B/PPP2R5D/JAK2/BRAP/KSR1/PPP2R5E</t>
+  </si>
+  <si>
+    <t>CCNB1/LCMT1/CDK1/PLK1/PPP2R1A/CCNB2/CCNA2/FOXM1/PPP2CB/CDC25B/PPP2R2A/CCNH/CDK7/XPO1/CDC25A/CDK2/MNAT1/CDC25C/PKMYT1/WEE1/PPP2CA/PPP2R1B/PPME1/PPP2R3B/CCNA1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/HRAS/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/CUL3/KRAS/PSMB10/PSMB5/RASA4/PSMD9/UBC/PSMD10/PSMA3/DAB2IP/SPRED2/PSMD1/NF1/NRAS/RASA1/PSMD8/PSMB7/RASAL2/PSMD5/SPRED1/PSMA1/PSMC1/RASA3/PSMC6/PSMD6/KBTBD7/PSMD3/SYNGAP1/PSMD2/PSMA5/SPRED3/RASAL1/RASAL3/RASA2/PSMA2</t>
+  </si>
+  <si>
+    <t>ORC6/PSMC3/GMNN/PSMC4/PSMA4/MCM6/PSME2/PSMA7/MCM3/UBA52/PSMB2/MCM4/PSMB3/PSMD14/MCM2/MCM7/PSMD4/UBB/PSMD7/MCM5/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/CDT1/PSMF1/PSMB4/MCM8/PSMC2/ORC4/PSME4/PSMB1/PSMA6/CDC6/E2F1/E2F3/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/ORC2/PSMB7/PSMD5/PSMA1/PSMC1/ORC1/PSMC6/E2F2/PSMD6/PSMD3/PSMD2/PSMA5/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/CHEK2/PSMD11/PSMF1/PSMB4/PHF20/ZNF385A/PSMC2/PSME4/PSMB1/PSMA6/CDC25A/CDKN1B/CDK2/PCBP4/RFWD2/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/ATM/PSMD8/TP53/PSMB7/PSMD5/PSMA1/CHEK1/PSMC1/MDM4/PSMC6/PSMD6/PSMD3/CDKN2A/PSMD2/CCNE2/PSMA5/MDM2/CCNA1/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/TGFB1/PSMC2/CBFB/PSMB1/PSMA6/SRC/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/PSMD5/EP300/PSMA1/PSMC1/PSMC6/PSMD6/SMURF2/PSMD3/CDKN2A/PSMD2/SMURF1/PSMA5/MDM2/RUNX3/PSMA2</t>
+  </si>
+  <si>
+    <t>RAD51/RMI2/RAD51AP1/BLM/BARD1/BRCA2/MUS81/RAD50/EXO1/TOP3A/BRCA1/EME1/GEN1/BRIP1/RAD51C/NBN/KAT5/ATM/RMI1/XRCC3/RBBP8/RAD51B/XRCC2/EME2/MRE11/DNA2/WRN/RAD51D/SPIDR/SLX4/PALB2/SLX1A</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/NFKBIA/PSME3/PSMB6/NFKBIB/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/REL/PSMB10/PSMB5/FBXW11/PSMD9/IKBKG/MAP3K7/UBC/RELA/PSMD10/PSMA3/NFKB1/PSMD1/IKBKB/PSMD8/PSMB7/SKP1/PSMD5/BCL10/MALT1/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/CHUK/PSMD3/BTRC/CARD11/PSMD2/PSMA5/PRKCB/NFKBIE/PSMA2</t>
+  </si>
+  <si>
+    <t>PTTG1/ANAPC11/UBE2C/CDC20/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/ANAPC16/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/ANAPC7/PSME3/PSMB6/PSMD12/PSMD11/CDC16/PSMF1/PSMB4/PSMC2/ANAPC1/PSME4/PSMB1/PSMA6/CDC23/CDC26/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDC27/ANAPC10/PSMD8/ANAPC2/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/UBE2E1/ANAPC15/PSMD6/ANAPC5/PSMD3/PSMD2/PSMA5/ANAPC4/PSMA2</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/PCNA/RFC4/RFC2/RFC5/POLE4/RPA2/RFC3/LIG1/RPA1/POLA2/POLD2/POLD3/RFC1/POLE2/POLE/POLA1/POLE3/POLD1/POLD4/PRIM2/DNA2/PRIM1</t>
+  </si>
+  <si>
+    <t>HSP90AA1/HSP90AB1/HSPA8/FKBP4/HSPA1A/HSPA2/MLST8/HSBP1/DNAJB1/PTGES3/AKT1S1/CREBBP/HSF1/CAMK2D/MTOR/HSPA1B/CRYAB/CAMK2A/CAMK2G/EP300/HSPB8/RPTOR/CAMK2B/HSPA1L</t>
+  </si>
+  <si>
+    <t>YARS/QARS/DARS/SARS/KARS/PPA1/MARS/RARS/NARS/EPRS/FARSA/EEF1E1/AARS/LARS/AIMP1/WARS/HARS/TARS/AIMP2/FARSB/IARS/GARS/VARS/CARS</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/TUBA1A/TUBB4B/DYNLL1/HSPB11/TUBB2A/WDR34/TUBB2B/CLUAP1/IFT20/KIFAP3/IFT22/TNPO1/KIF3C/DYNC2LI1/TCTEX1D2/WDR60/TUBA1C/IFT81/IFT43/DYNLRB1/DYNLL2/IFT74/IFT57/IFT52/TUBA4A/IFT27/IFT80/TRIP11/IFT46/KIF3B/TRAF3IP1/IFT88/TTC30B/IFT172/KIF3A/KIF17/TTC21B/TTC30A/TCTE3/IFT140/WDR35/TTC26/TUBB4A/DYNLRB2/DYNC2H1/IFT122/TCTEX1D1/WDR19</t>
+  </si>
+  <si>
+    <t>GNG11/GNG5/GNB1/GNAS/GNB2/GNAI1/GNB5/GNG12/RGS4/GNB3/PRKCD/GNB4/RGS19/ADCY3/GNAI2/GNAZ/PRKCH/ADCY7/GNG7/ADRA2C/RGS17/ADCY1/GNGT1/GNAI3/ADCY6/GNG3/GNG10/GNG4/GNG2/PRKCE/PRKCA/GNG8/ADCY2/PRKCQ/ADRA2B/PRKCG/PRKCB/ADCY5/RGS20/ADCY8/ADRA2A/ADCY4/GNG13/ADCY9</t>
+  </si>
+  <si>
+    <t>APOA1/TMSB4X/CALM1/SPARC/FN1/CALM2/IGF2/TAGLN2/CLU/ACTN4/TIMP1/MANF/FLNA/ACTN1/PSAP/TIMP3/PFN1/VCL/SELENOP/OLA1/CFL1/CAP1/PPIA/APLP2/APP/FAM49B/THBS1/CALU/HSPA5/PROS1/CHID1/CALM3/GAS6/WDR1/ALDOA/TGFB1/SCG3/A1BG/CD63/TEX264/CDC37L1/SERPING1/SERPINE1/QSOX1/SERPINF2/CFD/TTN/SOD1/NHLRC2/PHACTR2/MAGED2/HABP4/ACTN2/TUBA4A/ITGA2B/ANXA5/RARRES2/LHFPL2/TGFB2/FGA/CYB5R1/TGFB3/LAMP2/LGALS3BP/PECAM1/VEGFB/STX4/VWF/TLN1/VEGFA/PDGFA/FGB/ECM1/TMX3/PF4/FAM3C/TF/STXBP3/SERPINA1/TOR4A/LEFTY2/EGF/BRPF3/GTPBP2/AHSG/PRKCA/SCCPDH/CD9/F8/PCDH7/PCYOX1L/ENDOD1/CD36/ISLR/PRKCG/VEGFC/SERPINA4/ALB/PLG/PPBP/PRKCB/PDGFB/ITIH4/MMRN1/FGG/HGF/SYTL4/ORM2/FERMT3/IGF1/ABCC4/RAB27B/APOOL/CD109/STXBP2/VTI1B</t>
+  </si>
+  <si>
+    <t>VCAN/LUM/B4GALT4/HEXB/SDC2/GPC3/HMMR/CHPF2/HAS2/B4GALT2/CHST12/GUSB/CHST9/CHPF/B4GALT3/SLC35B2/CD44/EXT1/BGN/HYAL2/B3GAT3/EXT2/DSE/HEXA/B3GNT2/IDS/AGRN/CHST13/GPC6/B4GALT1/CHST3/ST3GAL1/GLB1/SLC35D2/ST3GAL4/CHP1/NDST1/HSPG2/GLCE/SLC35B3/GPC1/CHST7/GALNS/GNS/UST/HYAL1/HS3ST1/GPC4/HYAL3/HS3ST3A1/PAPSS1/GPC2/B3GAT2/B4GALT5/NAGLU/SDC3/HGSNAT/SGSH/CHSY1/CHST15/B3GALT6/CSGALNACT2/B4GAT1/DSEL/FMOD/GLB1L/XYLT1/SDC4/ST3GAL2/ABCC5/ST3GAL3/CSPG5/CSGALNACT1/B4GALT7/HS6ST3/SLC26A1/XYLT2/SDC1/CHST11/SLC9A1/HAS1/HS2ST1/CHST6/PRELP/ST3GAL6/CHST1/HAS3/B3GNT4/B3GAT1/B3GNT7/HPSE2/CHST2/SLC26A2/B4GALT6/PAPSS2/BCAN/NDST2/CSPG4/CEMIP/HS3ST4/HS3ST3B1/HS6ST1/CHST14/IDUA/ARSB/HS3ST5/HS6ST2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/CCNA2/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/CHEK2/PSMD11/PSMF1/PSMB4/PHF20/ZNF385A/PSMC2/PSME4/PSMB1/PSMA6/CDKN1B/CDK2/PCBP4/RFWD2/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/CDKN1A/ATM/PSMD8/TP53/PSMB7/PSMD5/PSMA1/PSMC1/MDM4/PSMC6/PSMD6/PSMD3/CDKN2A/PSMD2/CCNE2/PSMA5/MDM2/CCNA1/CCNE1/PSMA2</t>
+  </si>
+  <si>
+    <t>PPP1CC/PPP1CA/UBA52/FKBP1A/BAMBI/UBB/PPP1CB/STRAP/TGFB1/XPO1/NEDD4L/NEDD8/UCHL5/SMAD4/TGFBR1/UBC/FURIN/SMAD3/USP15/ZFYVE9/PPP1R15A/CBL/SMAD7/STUB1/TGFBR2/MTMR4/PMEPA1/SMURF2/SMURF1/UBE2M/SMAD2</t>
+  </si>
+  <si>
+    <t>HSPB1/PSMC3/CDK1/SEPT7/PSMC4/JUN/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RAC1/PSME1/PSMC5/MYC/CDC42/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/DNAJB1/MOV10/PAK2/PSMF1/PSMB4/CCND3/PSMC2/PSME4/PSMB1/PSMA6/CDC42EP3/XPO1/ETV4/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/TNRC6A/AGO1/PSMD1/CDC14B/TNRC6C/CDC42EP2/FOXO1/PSMD8/KALRN/MAPKAPK5/PSMB7/AGO4/IGF2BP1/TNRC6B/PSMD5/MAPK6/PSMA1/PSMC1/AGO2/PSMC6/PSMD6/CDC14A/PAK1/PSMD3/MAPK4/AGO3/PRKACB/PSMD2/PRKACA/NCOA3/FOXO3/PSMA5/PAK3/PSMA2</t>
+  </si>
+  <si>
+    <t>DUSP4/CDK1/PEA15/DUSP6/MAP2K2/JAK1/DUSP1/MAP2K1/DUSP5/DUSP9/TYK2/PTPN11/MAPK1/DUSP10/MAPK3/IL6ST/DUSP2/DUSP16/JAK2/IL6R/IL6/DUSP8/DUSP7</t>
+  </si>
+  <si>
+    <t>POLR2L/SUPT4H1/GTF2F2/POLR2J/GTF2F1/NELFA/NCBP2/POLR2K/POLR2F/NELFE/POLR2A/POLR2I/NCBP1/CTDP1/POLR2E/POLR2C/NELFCD/SUPT5H/NELFB/POLR2G/POLR2D/POLR2B/POLR2H</t>
+  </si>
+  <si>
+    <t>POLR2L/RAN/POLR2J/POLR2K/POLR2F/PRKRA/POLR2A/POLR2I/XPO5/DROSHA/POLR2E/POLR2C/AGO1/DICER1/POLR2G/POLR2D/AGO4/POLR2B/TARBP2/AGO2/POLR2H/AGO3/DGCR8</t>
+  </si>
+  <si>
+    <t>CCT8/TCP1/CCT3/CCT5/NOP56/XRN2/FBXO6/CCT4/FBXW5/WRAP53/AP3M1/LONP2/FBXW4/CCT7/HDAC3/CCT2/STAT3/FBXW9/FBXW2/KIF13A/FBXL3/FBXW7/FBXL5/SKIV2L/TP53/CCT6A/ARFGEF2/USP11/FKBP9/CCNE2/CCT6B/SPHK1/GBA/FBXO4/KIFC3/CCNE1/DCAF7</t>
+  </si>
+  <si>
+    <t>CALM1/HSP90AA1/EEF2/CALM2/HSP90AB1/MAP2K3/MAP2K2/PDCD6IP/CALM3/TXNRD1/VAMP2/ANTXR1/MAP2K1/MAP2K7/ANTXR2/MAP2K6/SNAP25/MAP2K4/FURIN/VAMP1/HBEGF/SYT1/PDZD3/SYT2/SV2A/STX1B/CD9/SV2C/GUCY2C/STX1A</t>
+  </si>
+  <si>
+    <t>FTL/FTH1/UBA52/HMOX2/ATP6V0E1/UBB/SLC40A1/ATP6V0B/SLC11A2/ATP6V1F/ATP6V1A/ATP6V1D/ATP6AP1/ATP6V1G1/IREB2/NEDD8/ATP6V0D1/TFRC/UBC/ATP6V0A1/HEPH/SLC22A17/CYBRD1/ATP6V1E1/FBXL5/MCOLN1/HMOX1/TCIRG1/ATP6V1C1/SKP1/STEAP2/ATP6V1G2/GLRX3/ATP6V1B2/TF/CUL1/ATP6V1H/ATP6V1E2/CAND1/STEAP3/ATP6V0D2/SLC46A1/ATP6V0A2/ATP6V0E2/ACO1/ABCG2/ATP6V1B1/HFE/TFR2/LCN2/ATP6V0C/ATP6V1C2/FLVCR1</t>
+  </si>
+  <si>
+    <t>BEX3/UBA52/AATF/UBB/RAC1/MAGED1/AKAP13/ITGB3BP/ECT2/NET1/NCSTN/ARHGEF2/ARHGEF26/ARHGEF16/ARHGEF1/ARHGEF40/MAPK8/BAD/VAV3/ARHGEF39/UBC/ARHGEF4/FGD4/TRIO/CASP2/PSEN2/CASP3/FGD1/ARHGEF7/PLEKHG2/BCL2L11/KALRN/NGF/ARHGEF33/ARHGEF9/ARHGEF19/PSENEN/ITSN1/PREX1/FGD3/SOS2/TIAM2/OBSCN/APH1B/TIAM1/YWHAE/ABR/APH1A/PSEN1/SOS1/ARHGEF6/MCF2L/PLEKHG5/GNA13/VAV2/ARHGEF12/ARHGEF5/ARHGEF35/ARHGEF37/ARHGEF11/ARHGEF3/TRAF6/ARHGEF10/ARHGEF17/ARHGEF15/NGEF/ARHGEF10L/SQSTM1</t>
+  </si>
+  <si>
+    <t>FN1/FBLN1/MFAP2/FBLN2/ITGB1/ITGA8/MFAP4/VTN/ITGAV/EFEMP2/LOXL2/EMILIN1/BMP4/LTBP4/TGFB1/BMP7/LOXL1/ITGA5/FBN2/EMILIN2/LTBP3/FBN3/FURIN/LTBP1/LOXL4/MFAP1/TGFB2/LOXL3/TGFB3/EFEMP1/EMILIN3/ITGB8/FBN1/LOX/FBLN5/ITGB5/ITGB6/BMP2/LTBP2/MFAP3/ELN/GDF5</t>
+  </si>
+  <si>
+    <t>HIST1H4C/CBX5/SUMO1/PCGF2/SUMO3/RING1/NUP62/PIAS1/PHC1/NUP93/RANBP2/NUP88/NUP37/SUMO2/SCMH1/NUP43/RNF2/NUP50/NUP35/RAE1/UBE2I/NUP107/NUP153/TPR/NUP98/HDAC2/PHC2/HDAC4/HDAC1/NUP54/PHC3/NDC1/CHD3/POM121/SEH1L/ZBED1/NUP214/SUZ12/NUP160/NUPL2/PIAS2/NUP58/NUP188/CBX4/L3MBTL2/NUP205/NUP133/NUP85/HIST1H4J/HIST1H4E/SATB2/NUP155/SATB1/HIST4H4/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/AAAS/NUP210/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/FZD5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/FZD2/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/FZD4/PRICKLE1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/FZD8/PSMD8/PSMB7/FZD3/PSMD5/VANGL2/PSMA1/WNT5A/PSMC1/PSMC6/PSMD6/FZD1/SMURF2/PARD6A/DVL2/PSMD3/PSMD2/SMURF1/PSMA5/SCRIB/FZD7/PSMA2</t>
+  </si>
+  <si>
+    <t>ORC6/CCNB1/CDK1/PPP2R1A/PPP2CB/TFDP2/POLA2/MCM8/ORC4/TFDP1/E2F1/RB1/POLA1/ORC3/PPP2CA/ORC2/PRIM2/PPP2R1B/ORC1/PRIM1/PPP2R3B/ORC5</t>
+  </si>
+  <si>
+    <t>CALM1/HSP90AA1/CALM2/DHFR/DDAH2/CALM3/PTS/NOSIP/WASL/LYPLA1/SPR/NOSTRIN/NOS3/AKT1/DDAH1/DNM2/GCHFR/ZDHHC21/CYGB/CAV1/GCH1/PRKG2</t>
+  </si>
+  <si>
+    <t>CTGF/CARM1/TBL1XR1/TEAD3/TGS1/WWTR1/CREBBP/TBL1X/TEAD2/RXRA/MED1/NCOA2/SMARCD3/NCOA6/NCOA1/CHD9/TEAD1/HELZ2/YAP1/PPARA/TEAD4/RUNX3</t>
+  </si>
+  <si>
+    <t>CSNK2B/ACTL6A/SMARCB1/ARID1B/RING1/SMARCC2/CSNK2A2/ARID1A/HIPK2/CBFB/PHC1/SCMH1/RNF2/RYBP/SMARCD2/CSNK2A1/PBRM1/SMARCE1/PHC2/SMARCA2/SMARCD1/YAF2/PHC3/SMARCD3/PCGF5/SMARCA4/ARID2/EP300/AUTS2/CBX4/SMARCC1/RUNX1/CBX6/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>CALM1/FN1/DUSP4/ACTB/CALM2/FGFR1/PSMC3/CDK1/PSMC4/PPP2R1A/PSMA4/PSME2/FGFR4/PSMA7/VCL/UBA52/PEBP1/PSMB2/SPTBN1/PEA15/RASGRP3/PSMB3/AKAP9/PSMD14/RAP1B/YWHAB/ACTG1/PDGFRB/PPP2CB/PSMD4/UBB/PSMD7/DUSP6/RBX1/PSME1/TEK/PSMC5/PPP2R5C/SHC1/PSMD13/MAP2K2/ERBB4/HRAS/PSME3/CALM3/JAK1/PSMB6/PSMD12/DUSP1/PSMD11/PSMF1/PDGFRA/PSMB4/PSMC2/ERBB3/PSME4/PSMB1/ANGPT1/PSMA6/GRIN2A/PTPRA/RAF1/LAMTOR2/MAP2K1/SPTAN1/RAP1A/CUL3/PHB/GRB2/DUSP5/ARRB1/SRC/MARK3/KRAS/FGFR2/FGF8/FGFR3/CAMK2D/ARAF/PSMB10/PSMB5/RASA4/STAT3/ACTN2/PSMD9/UBC/CAMK2A/PSMD10/PSMA3/IQGAP1/ITGA2B/SHC2/DAB2IP/PPP2CA/PPP2R5A/SPRED2/FYN/MAP3K11/PSMD1/CAMK2G/RAPGEF2/FGA/ARRB2/RANBP9/BRAF/FGF10/DUSP9/NF1/SPTBN2/KIT/NRG2/NRAS/PSPN/RASA1/PSMD8/TYK2/CSK/PTPN11/PSMB7/IL20RB/CNKSR2/GRIN2B/VWF/RASAL2/TLN1/WDR83/NCAM1/GFRA2/PDGFA/NRG1/MAPK1/FGB/HBEGF/FRS3/PSMD5/FGF2/SPRED1/LAMTOR3/IRS1/PSMA1/IL10RB/PPP2R5B/DUSP10/PPP2R1B/PSMC1/GRIN2D/FGF1/RASA3/PSMC6/GFRA3/MAPK3/IL6ST/PSMD6/FGF17/PPP2R5D/SOS1/IFNLR1/IL20RA/DUSP2/KBTBD7/EGF/RASGRP1/LAT/DUSP16/PPP5C/PSMD3/KLB/SYNGAP1/RASGEF1A/JAK2/BRAP/CAMK2B/MET/FRS2/PAQR3/PSMD2/ERBB2/KSR1/PSMA5/EGFR/SPRED3/FGF23/PPP2R5E/IL17RD/IL6R/SPTBN4/FGF18/CSF2RA/FGF9/IL6/FGF22/NRTN/DUSP8/PDGFB/FGG/GDNF/HGF/IL2RG/SHC3/FGF19/APBB1IP/RASAL1/KSR2/SPTB/SPTBN5/NRG4/RASAL3/JAK3/DUSP7/CNKSR1/RASA2/FGF7/IRS2/PTK2/DLG4/KITLG/PSMA2</t>
+  </si>
+  <si>
+    <t>ACTB/CLTB/MMP2/AP2S1/ACTG1/CLTA/RAC1/AP2M1/EFNA1/AP2A1/EFNB2/EPHB2/LYN/NCSTN/EPHA4/EPHB6/EPHB3/SRC/YES1/EPHA6/VAV3/EFNB1/FYN/EFNA3/CLTC/PSEN2/EPHA1/EFNA5/CLTCL1/DNM1/EPHA2/AP2A2/EFNA4/ADAM10/PSENEN/APH1B/TIAM1/APH1A/AP2B1/EFNB3/PSEN1/MMP9/VAV2/EPHB1/EPHA8/EPHA7/EPHB4</t>
+  </si>
+  <si>
+    <t>CCT8/TCP1/CCT3/CCT5/ARF4/ARL3/MKKS/CCT4/RAB8A/ASAP1/BBS4/BBIP1/RAB3IP/ARL6/EXOC5/EXOC1/SMO/RAB11A/PDE6D/CCT2/UNC119B/BBS12/PKD1/EXOC3/GBF1/BBS7/RP2/ARL13B/EXOC6/LZTFL1/BBS5/EXOC4/PKD2/BBS9/EXOC8/EXOC7/EXOC2/TTC8/CYS1/MCHR1/NPHP3/RAB11FIP3/BBS10/BBS2/CNGB1/BBS1/INPP5E</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/UBE2D3/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/PSME3/HIGD1A/PSMB6/PSMD12/PSMD11/EGLN2/UBE2D2/PSMF1/PSMB4/HIF3A/PSMC2/PSME4/PSMB1/PSMA6/EGLN1/CREBBP/HIF1AN/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/VHL/WTIP/ARNT/EPAS1/PSMD8/PSMB7/CUL2/VEGFA/PSMD5/EP300/PSMA1/PSMC1/EGLN3/PSMC6/PSMD6/PSMD3/EPO/AJUBA/PSMD2/HIF1A/PSMA5/CA9/CITED2/LIMD1/PSMA2</t>
+  </si>
+  <si>
+    <t>YWHAH/DYNLL1/YWHAQ/YWHAB/PPP3CC/AKT2/TFDP2/YWHAZ/TFDP1/E2F1/PMAIP1/DYNLL2/TP53BP2/AKT1/MAPK8/BBC3/BAD/BID/AKT3/PPP1R13B/PPP3R1/BCL2L11/TP53/YWHAE/BMF/TP73/BCL2/SFN/YWHAG</t>
+  </si>
+  <si>
+    <t>MEAF6/RBBP7/AKT2/ING2/PML/PIN1/PIP4K2B/MAP2K6/GATAD2B/AKT1/BRPF1/HDAC2/RBBP4/GATAD2A/AKT3/HDAC1/MTA2/CHD3/BRD7/TP53/KAT6A/BRD1/EP300/BRPF3/ING5/PIP4K2A/CHD4/PIP4K2C/MBD3</t>
+  </si>
+  <si>
+    <t>UBE2T/UBE2S/UBE2C/UBA52/UBE2A/UBB/USP9X/UBA1/UBE2H/UBE2D2/UBE2E3/UCHL3/UBE2R2/UBE2L3/UBE2G2/UBE2D1/UBC/UBE2G1/UBE2Z/UBE2B/USP7/USP5/CDC34/UBE2E1/UBE2K/UBE2W/UBA6/OTULIN/UBE2Q2</t>
+  </si>
+  <si>
+    <t>FGFR1/POLR2L/FGFR4/GTF2F2/POLR2J/GTF2F1/NCBP2/POLR2K/HRAS/CUX1/POLR2F/ZMYM2/POLR2A/POLR2I/NCBP1/BAG4/BCR/PIK3R1/TRIM24/GRB2/KRAS/FGFR2/FGF8/FGFR1OP/FGFR3/FGFR1OP2/STAT3/POLR2E/LRRFIP1/CNTRL/POLR2C/GAB2/ERLIN2/FGF10/STAT5B/NRAS/STAT1/PLCG1/POLR2G/POLR2D/POLR2B/FGF2/CPSF6/MYO18A/FGF1/POLR2H/FGF17/SOS1/STAT5A/FRS2/GAB1/PIK3CA/FGF23/FGF18/FGF9/FGF22/FGF7</t>
+  </si>
+  <si>
+    <t>ARF1/CUX1/STX5/MAN2A1/COG4/MAN1A2/YKT6/GOSR2/GOSR1/GOLIM4/MAN1A1/RGP1/CYTH2/TRIP11/COG5/VPS45/GOLGA5/STX16/NAPB/COG8/COG6/STX6/CYTH3/NSF/CYTH1/NAPA/COG1/VTI1A/MAN2A2/RAB39A/COG2/COG7/RIC1/RAB33B/RAB30/BET1L/SNAP29/RAB36/COG3/MAN1C1/NAPG</t>
+  </si>
+  <si>
+    <t>HSP90AA1/ACTB/ARPC2/ARPC5/HSP90AB1/ARPC1B/MYH9/BRK1/CFL1/ARPC1A/ACTG1/RAC1/ELMO1/CDC42/ACTR3/ACTR2/PLD3/AHCYL1/PLPP5/WASL/MYO1C/CYFIP2/PRKCD/LYN/DOCK1/ARPC4/PIK3R1/GRB2/NCKIPSD/SRC/ABI2/YES1/MYO9B/WIPF3/VAV3/WIPF2/MYO10/PLCG2/FYN/ABI1/ABL1/WIPF1/ITPR1/NCK1/PLCG1/NCKAP1/WASF2/CYFIP1/ITPR3/MAPK1/WAS/MYO5A/PIK3R2/BTK/ELMO2/WASF3/MAPK3/ARPC3/PLA2G6/PIK3CB/ITPR2/PAK1/WASF1/BAIAP2/VAV2/NF2/PRKCE/NCKAP1L/PIK3CA/CRK/PLD1/PLPP4/CD247/PLD2/LIMK1/PTK2</t>
+  </si>
+  <si>
+    <t>MYL7/CALD1/CALM1/MYL9/CALM2/TPM1/MYL6/ACTA2/TPM4/TPM2/MYL12A/VCL/MYL12B/MYL6B/ANXA6/CALM3/LMOD1/PAK2/ANXA1/DYSF/ACTG2/TPM3/SORBS3/PXN/SORBS1/TLN1/MYL5/MYLPF/ANXA2/PAK1/ITGA1/ITGB5/MYL10/TRIM72/MYLK</t>
+  </si>
+  <si>
+    <t>APOA1/TMSB4X/CALM1/SPARC/FN1/CALM2/IGF2/TAGLN2/CLU/ACTN4/TIMP1/MANF/FLNA/ACTN1/PSAP/TIMP3/PFN1/VCL/SELENOP/OLA1/CFL1/CAP1/PPIA/APLP2/APP/FAM49B/THBS1/CALU/HSPA5/PROS1/CHID1/CALM3/GAS6/WDR1/ALDOA/TGFB1/SCG3/A1BG/CD63/TEX264/CDC37L1/SERPING1/SERPINE1/QSOX1/SERPINF2/CFD/TTN/SOD1/NHLRC2/PHACTR2/MAGED2/HABP4/ACTN2/TUBA4A/ITGA2B/ANXA5/RARRES2/LHFPL2/TGFB2/FGA/CYB5R1/TGFB3/LAMP2/LGALS3BP/PECAM1/VEGFB/VWF/TLN1/VEGFA/PDGFA/FGB/ECM1/TMX3/PF4/FAM3C/TF/SERPINA1/TOR4A/LEFTY2/EGF/BRPF3/GTPBP2/AHSG/SCCPDH/CD9/F8/PCDH7/PCYOX1L/ENDOD1/CD36/ISLR/VEGFC/SERPINA4/ALB/PLG/PPBP/PDGFB/ITIH4/MMRN1/FGG/HGF/SYTL4/ORM2/FERMT3/IGF1/ABCC4/RAB27B/APOOL/CD109/STXBP2/VTI1B</t>
+  </si>
+  <si>
+    <t>QARS/KARS/YARS2/NARS2/SARS2/VARS2/CARS2/TARS2/RARS2/IARS2/HARS2/WARS2/EARS2/PARS2/LARS2/DARS2/PPA2/FARS2/GARS/MARS2/AARS2</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/KDR/HRAS/CALM3/AHCYL1/PRKCD/SRC/KRAS/PDPK1/PRKCZ/ITPR1/NRAS/PLCG1/RASA1/ITPR3/VEGFA/ITPR2/PRKCA/PRKCB/SPHK1</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/APEX1/PCNA/RFC4/RFC2/RFC5/POLE4/RPA2/RFC3/LIG1/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/POLE3/POLD1/POLB/POLD4</t>
+  </si>
+  <si>
+    <t>NPM1/BTG2/PLK2/CNOT7/CNOT1/CNOT11/CDC25C/CNOT3/CNOT9/CNOT10/RGCC/CNOT6/CENPJ/CNOT2/CNOT4/TP53/CNOT6L/PLAGL1/PLK3/CNOT8/TNKS1BP1</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/GNG11/TUBA1A/ACTB/TUBB4B/CCT8/PFDN5/GNG5/GNB1/TUBB2A/TBCA/VBP1/TCP1/CCT3/CSNK2B/TUBB2B/CCT5/GNB2/NOP56/GNAI1/GNB5/PFDN2/XRN2/GNG12/FBXO6/CCT4/TBCB/CSNK2A2/GNB3/TUBA1C/GNB4/FBXW5/WRAP53/AP3M1/LONP2/FBXW4/CCT7/CSNK2A1/PFDN4/HDAC3/ARL2/TBCD/RGS9/GNAI2/PFDN6/CCT2/STAT3/TUBA4A/TBCC/TBCE/FBXW9/FBXW2/KIF13A/GNAZ/FBXL3/FBXW7/FBXL5/GNG7/SKIV2L/TP53/RGS6/EHHADH/CCT6A/GNGT1/GNAI3/GNG3/ARFGEF2/USP11/GNG10/GNG4/FKBP9/GNG2/PFDN1/GNG8/GNAO1/PDCL/CCNE2/TUBB4A/RGS11/CCT6B/RGS7/GNG13/SPHK1/GBA/FBXO4/KIFC3/CCNE1/DCAF7</t>
+  </si>
+  <si>
+    <t>HSP90AA1/CDC37/UBA52/UBB/SHC1/ERBB4/HRAS/AKT2/PRKCD/ERBB3/GRB7/DIAPH1/PIK3R1/GRB2/SRC/KRAS/YES1/AKT1/RNF41/CUL5/RHOA/UBC/AKT3/FYN/NRG2/NRAS/MATK/PLCG1/USP8/STUB1/NRG1/HBEGF/PTPN18/ERBIN/SOS1/EGF/MEMO1/PTPN12/PRKCE/PRKCA/GAB1/ERBB2/PIK3CA/EGFR/PTK6/NRG4</t>
+  </si>
+  <si>
+    <t>VCAN/HEXB/SDC2/GPC3/CHPF2/CHST12/CHST9/CHPF/BGN/B3GAT3/DSE/HEXA/IDS/AGRN/CHST13/GPC6/CHST3/HSPG2/GPC1/CHST7/UST/HYAL1/GPC4/HYAL3/GPC2/B3GAT2/SDC3/CHSY1/CHST15/B3GALT6/CSGALNACT2/DSEL/XYLT1/SDC4/CSPG5/CSGALNACT1/B4GALT7/XYLT2/SDC1/CHST11/B3GAT1/BCAN/CSPG4/CHST14/IDUA/ARSB</t>
+  </si>
+  <si>
+    <t>CTGF/NKX2-5/HIPK2/GATA4/CARM1/TBL1XR1/TEAD3/TBX5/TGS1/WWTR1/CREBBP/TBL1X/TEAD2/NPPA/RXRA/MED1/HIPK1/NCOA2/SMARCD3/NCOA6/NCOA1/CHD9/TEAD1/HELZ2/YAP1/PPARA/TEAD4/KAT2B</t>
+  </si>
+  <si>
+    <t>RHEB/MLST8/STRADB/LAMTOR1/PRKAB2/PRKAG1/RRAGA/LAMTOR2/CAB39L/PRKAA1/MTOR/STK11/PRKAA2/LAMTOR5/TSC2/RRAGC/TSC1/PRKAG2/LAMTOR3/PPM1A/RPTOR/STRADA/RRAGD/SLC38A9/CAB39/PRKAB1/RRAGB/LAMTOR4</t>
+  </si>
+  <si>
+    <t>CALM1/HSP90AA1/CALM2/RAC1/MLST8/MAPKAP1/CALM3/AKT2/PAK2/PRR5/CDH5/JUP/NOS3/AKT1/RICTOR/MTOR/VAV3/TRIB3/AKT3/CTNND1/CTNNA1/PDPK1/CTNNB1/PAK1/VAV2/CAV1/THEM4/PAK3</t>
+  </si>
+  <si>
+    <t>POLR3K/POLR2L/GTF3A/POLR1D/POLR3D/GTF3C6/POLR2K/POLR2F/GTF3C5/GTF3C3/POLR1C/POLR3C/GTF3C2/POLR3A/POLR2E/POLR3H/GTF3C1/CRCP/POLR3E/POLR3G/BDP1/POLR3B/POLR2H/BRF1/POLR3F/TBP/POLR3GL/GTF3C4</t>
+  </si>
+  <si>
+    <t>POLR3K/POLR2L/POLR1D/POLR3D/SNAPC5/POLR2K/POLR2F/BRF2/ZNF143/SNAPC2/POLR1C/POLR3C/SNAPC3/POLR3A/POLR2E/POLR3H/SNAPC1/POU2F1/CRCP/POLR3E/POLR3G/BDP1/POLR3B/SNAPC4/POLR2H/POLR3F/TBP/POLR3GL</t>
+  </si>
+  <si>
+    <t>HIST1H4C/FEN1/RPA3/H2AFX/PCNA/CLSPN/UBA52/RAD51/CCNA2/RFC4/RFC2/PARP1/SUMO1/RFC5/POLE4/RHNO1/RMI2/UBB/RAD51AP1/UBE2N/RPA2/BLM/BARD1/PPP4C/SIRT6/UBE2V2/RFC3/BRCA2/RNF168/PPP4R2/RPA1/TP53BP1/MUS81/POLD2/POLD3/RFC1/POLE2/TIMELESS/RNF4/RAD50/RAD1/POLE/SUMO2/MDC1/EXO1/TOP3A/RNF8/CDK2/BRCA1/LIG3/EME1/GEN1/BRCC3/POLK/UBE2I/RAD17/POLE3/POLD1/BRIP1/UBC/RAD51C/UIMC1/HERC2/POLQ/ERCC4/ERCC1/ABL1/HIST1H2BD/PARP2/RAD52/HIST1H2BH/NBN/HIST2H2BE/KAT5/BABAM1/ATM/HIST1H2BN/TIPIN/RMI1/POLD4/ATR/XRCC3/RAD9A/TOPBP1/PIAS4/HUS1/RBBP8/RAD51B/XRCC2/EME2/CHEK1/MRE11/XRCC1/DNA2/HIST1H2BG/WRN/HIST1H4J/HIST1H4E/RAD51D/HIST1H2BK/SPIDR/SLX4/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST4H4/POLH/HIST1H2BJ/HIST1H2BC/HIST3H2BB/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/CCNA1/PALB2/SLX1A</t>
+  </si>
+  <si>
+    <t>RAB4A/GDE1/ARF1/PTEN/GDPD5/PI4KB/PLEKHA6/PLEKHA4/PTPN13/SACM1L/INPP5F/PIK3R1/PIP4K2B/INPP4A/RAB14/PLEKHA1/ARF3/PIK3CD/TNFAIP8/RUFY1/PIP5K1C/SBF1/PIP5K1A/PI4KA/SYNJ1/MTM1/OCRL/SBF2/PIK3R4/MTMR9/MTMR3/GDPD1/INPP5K/PLEKHA5/PLEKHA8/MTMR4/MTMR14/PIK3R2/MTMR1/PIK3R3/RAB5A/PLEKHA3/SYNJ2/MTMR10/MTMR6/INPPL1/PIK3CB/INPP5J/FIG4/MTMR12/PIP4K2A/MTMR8/PIK3CA/PIKFYVE/PNPLA6/VAC14/PI4K2A/PLEKHA2/PNPLA7/INPP5D/GDPD3/PIP4K2C/PI4K2B/PIK3R5/MTMR7/TNFAIP8L3/PIP5K1B/PIK3C2B/INPP5E/PIK3C3/PIK3C2A/TNFAIP8L1/MTMR2/PITPNB</t>
+  </si>
+  <si>
+    <t>CCNC/MED19/CDK4/MED6/MED25/CEBPD/MED28/MED13L/CCND3/MED17/TGFB1/MED27/NCOR2/MED31/NCOR1/THRAP3/CARM1/MED22/TBL1XR1/MED24/TGS1/MED15/MED29/HDAC3/CREBBP/TBL1X/RELA/RXRA/MED8/NFKB1/MED13/ANGPTL4/CDK19/MED1/NCOA2/MED14/MED30/SMARCD3/NCOA6/NCOA1/MED10/MED20/CEBPB/CHD9/MED16/MED21/MED7/MED9/ZNF638/MED12/EP300/MED11/PPARG/SREBF2/SREBF1/KLF4/HELZ2/FAM120B/ZNF467/PPARA/MED18/MED4/MED23/NCOA3/KLF5/PPARGC1A/CD36/ADIRF/NR2F2/SLC2A4/CEBPA/MED26/EBF1/CDK8</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/VCP/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/RNF5/DERL1/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/DERL2/PSMA6/RNF185/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/ERLEC1/ERLIN2/ERLIN1/PSMD1/OS9/PSMD8/PSMB7/SEL1L/PSMD5/DERL3/PSMA1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/CFTR/PSMA2</t>
+  </si>
+  <si>
+    <t>MAD2L1/ANAPC11/UBE2C/CDC20/ANAPC16/BUB3/ANAPC7/CDC16/ANAPC1/BUB1B/CDC23/CDC26/UBE2D1/CDC27/ANAPC10/ANAPC2/UBE2E1/ANAPC15/ANAPC5/ANAPC4</t>
+  </si>
+  <si>
+    <t>RALA/RALB/SHC1/HRAS/NTRK1/GRB2/SRC/KRAS/SHC2/MAPKAPK3/RALGDS/MAPK12/NRAS/MAPK14/NGF/MAPKAPK2/SOS1/MAPK13/MAPK11/SHC3</t>
+  </si>
+  <si>
+    <t>TJP1/YWHAB/STK3/AMOTL2/MOB1A/WWTR1/CASP3/AMOTL1/LATS2/AMOT/TJP2/YWHAE/YAP1/STK4/SAV1/DVL2/WWC1/LATS1/NPHP4/MOB1B</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/PCNA/RFC4/RFC2/RFC5/RPA2/RFC3/LIG1/RPA1/POLA2/POLD2/POLD3/RFC1/POLA1/POLD1/POLD4/PRIM2/DNA2/PRIM1</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/PRKCD/PRKAR2A/ADCY3/ADCY7/PDE1B/ADCY1/ADCY6/PRKAR2B/PRKAR1B/PRKCA/PRKACB/ADCY2/PRKACA/PDE1C/PRKCG/CAMK4/PDE1A/ADCY5/ADCY8/ADCY4/ADCY9/GRK2</t>
+  </si>
+  <si>
+    <t>GNG11/GNG5/GNB1/GNB2/GNAI1/GNB5/GNG12/GNB3/GNB4/GNAI2/CACNB3/GNG7/ADRA2C/GNGT1/ADCY6/GNG3/CACNA1C/GNG10/GNG4/GNG2/CACNA2D2/GNG8/CACNB2/ADCY5/ADRA2A/GNG13/CACNA1D</t>
+  </si>
+  <si>
+    <t>MYL9/RHOC/MYL6/MYH10/MYH9/MYL12A/MYL12B/RAC1/CDC42/RRAS/ARHGAP35/RHOB/ROCK1/RHOA/LIMK2/RAC2/RND1/SEMA4D/ROCK2/MET/ARHGEF12/ERBB2/ARHGEF11/MYH14/PLXNB1/LIMK1/RHOG</t>
+  </si>
+  <si>
+    <t>POLR3K/POLR2L/POLR1D/POLR3D/GTF3C6/POLR2K/POLR2F/GTF3C5/GTF3C3/POLR1C/POLR3C/GTF3C2/POLR3A/POLR2E/POLR3H/GTF3C1/CRCP/POLR3E/POLR3G/BDP1/POLR3B/POLR2H/BRF1/POLR3F/TBP/POLR3GL/GTF3C4</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/USP1/RFC4/RFC2/VCP/RFC5/POLE4/UBB/RPA2/RBX1/RFC3/DDB1/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/ISG15/TRIM25/CUL4B/DTL/POLK/UBE2L6/POLE3/POLD1/UBC/MAD2L2/USP10/UBE2B/POLI/POLD4/RCHY1/SPRTN/NPLOC4/CUL4A/RAD18/REV1/UBA7/USP43/POLH/REV3L</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/UBA3/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/PSMB10/PSMB5/FBXW11/PSMD9/UBC/RELA/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/MAP3K14/CUL1/PSMD6/CHUK/PSMD3/BTRC/PSMD2/PSMA5/NFKB2/RELB/UBE2M/PSMA2</t>
+  </si>
+  <si>
+    <t>TOMM20/ACTB/GATA3/CDC20/PSMC3/CDK1/PSMC4/CLSPN/PSMA4/SNX3/PSME2/ADRM1/HIST3H2A/PSMA7/UBA52/FKBP8/CCNA2/PSMB2/PSMB3/PSMD14/VCP/VDAC3/PSMD4/ACTL6A/UBB/PSMD7/BARD1/PSME1/PSMC5/OTUB1/MYC/USP9X/TRAF2/PSMD13/TADA3/ASXL1/NFKBIA/SKP2/PSME3/PSMB6/VDAC2/PSMD12/PSMD11/UCHL1/RNF146/PTEN/PSMF1/USP28/PSMB4/TGFB1/TNIP2/VDAC1/TAF9B/PSMC2/FOXK1/PSME4/PSMB1/PSMA6/INO80C/TNIP1/TRIM25/USP22/UCHL3/PTRH2/SIAH2/CDC25A/USP19/ATXN3/BRCA1/BIRC2/BRCC3/TFPT/INO80E/USP18/ARRB1/USP42/OTUD7B/KEAP1/NEDD8/UBE2D1/HCFC1/USP13/MYSM1/UCHL5/PSMB10/USP44/PSMB5/RNF135/SMAD4/TGFBR1/HIST2H2AC/PSMD9/IKBKG/RHOA/MAVS/YY1/RHOT1/RIPK1/MAP3K7/UBC/USP25/PSMD10/PSMA3/ZRANB1/OTUD3/OGT/UIMC1/AXIN1/SMAD3/IDE/USP15/PSMD1/USP49/ARRB2/RAD23B/RCE1/TAB1/TAF10/USP34/INO80/HIST1H2BD/USP10/HIST1H2BH/BAP1/HGS/TNKS/USP48/AXIN2/HIST2H2BE/USP37/CYLD/BABAM1/INO80B/HIST1H2BN/APC/POLB/TNKS2/SMAD7/CCP110/STAMBPL1/PSMD8/USP8/USP2/JOSD2/USP4/TP53/TADA2B/FOXK2/PSMB7/OTUD5/RUVBL1/TGFBR2/HIST1H2AH/RAD23A/USP7/ASXL2/FOXO4/USP3/USP5/WDR48/USP47/JOSD1/PSMD5/EP300/RIPK2/STAMBP/ACTR5/DDX58/RNF128/PSMA1/MBD6/USP11/TRRAP/USP20/NOD1/BECN1/PSMC1/MDM4/HIST1H2AE/HIST1H2AG/PSMC6/SUDS3/ACTR8/STAM2/PSMD6/TNFAIP3/OTUB2/USP24/HIST1H2BG/ATXN7/MAT2B/USP30/SMURF2/USP12/STAM/USP21/PSMD3/KDM1B/MUL1/USP16/NFRKB/HIST1H2AC/TRAF3/HIST1H2AK/KAT2B/HIST1H2AB/HIST1H2BK/HIST1H2AL/PSMD2/HIF1A/PSMA5/HIST2H2BF/DDB2/AR/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST2H2AB/HIST1H2BJ/HIST1H2BC/TRAF6/RNF123/MDM2/INO80D/YOD1/HIST3H2BB/ADRB2/HIST1H2AI/HIST1H2AJ/CFTR/CCNA1/OTUD7A/SENP8/SMAD1/KAT2A/MBD5/USP14/SMAD2/MCRS1/WDR20/TOMM70/VCPIP1/PSMA2/USP33</t>
+  </si>
+  <si>
+    <t>TOP2A/PCNA/MYC/MAX/TFDP2/RBL2/CDC6/CDC25A/TFDP1/E2F1/E2F4/RBBP4/HDAC1/LIN52/RBL1/LIN9/LIN37/LIN54/E2F5</t>
+  </si>
+  <si>
+    <t>ANAPC11/UBE2C/CDC20/ANAPC16/ANAPC7/CDC16/ANAPC1/CDC23/CDC26/UBE2D1/CDC27/ANAPC10/ANAPC2/FZR1/UBE2E1/ANAPC15/CDC14A/ANAPC5/ANAPC4</t>
+  </si>
+  <si>
+    <t>ANAPC11/UBE2C/CCNB1/CDK1/PLK1/ANAPC16/ANAPC7/CDC16/ANAPC1/CDC23/CDC26/UBE2D1/CDC27/ANAPC10/ANAPC2/UBE2E1/ANAPC15/ANAPC5/ANAPC4</t>
+  </si>
+  <si>
+    <t>MYL12A/RAC1/PAK2/EFNB2/EPHB2/GIT1/EPHB6/EPHB3/SRC/EFNB1/FYN/SDCBP/ARHGEF7/NCK2/EFNB3/PAK1/EPHB1/PAK3/EPHB4</t>
+  </si>
+  <si>
+    <t>MDH2/IDH2/IDH3G/DLD/SUCLG2/ACO2/IDH3B/SDHA/IDH3A/SDHD/SDHB/NNT/FH/SUCLG1/SDHC/SUCLA2/CS/DLST/OGDH</t>
+  </si>
+  <si>
+    <t>PAPOLA/NCBP2/CPSF2/PABPN1/CPSF4/CSTF3/NCBP1/CSTF2T/PCF11/SYMPK/CPSF3/CPSF7/FIP1L1/WDR33/CSTF1/CLP1/CPSF1/CSTF2/NUDT21</t>
+  </si>
+  <si>
+    <t>POLR2L/GTF2F2/POLR2J/GTF2F1/NCBP2/POLR2K/POLR2F/POLR2A/POLR2I/NCBP1/FGFR2/POLR2E/POLR2C/POLR2G/POLR2D/POLR2B/FGF2/FGF1/POLR2H</t>
+  </si>
+  <si>
+    <t>NPC2/AP2S1/CLTA/LDLR/AP2M1/LSR/AP2A1/SOAT2/APOB/NPC1/CLTC/LIPA/AP2A2/LDLRAP1/AP2B1/SOAT1/CES3/PCSK9/NCEH1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/RASGRP2/PSMD4/UBB/PSMD7/UBE2N/PSME1/PSMC5/PSMD13/NFKBIA/PSME3/PSMB6/PSMD12/PSMD11/UBE2D2/PSMF1/PSMB4/PSMC2/LYN/PSME4/PSMB1/PSMA6/UBE2D1/PSMB10/PSMB5/FBXW11/PSMD9/IKBKG/MAP3K7/UBC/RELA/PSMD10/PSMA3/NFKB1/PSMD1/TAB1/PDPK1/IKBKB/TAB3/PSMD8/PSMB7/SKP1/CDC34/PSMD5/TAB2/BCL10/MALT1/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/RASGRP1/CHUK/PSMD3/BTRC/CARD11/PSMD2/PSMA5/PRKCQ/UBE2V1/TRAF6/FCER1G/PSMA2</t>
+  </si>
+  <si>
+    <t>RORA/NCOR1/CARM1/TBL1XR1/TGS1/HDAC3/CREBBP/TBL1X/RXRA/MED1/SIRT1/NCOA2/SMARCD3/NCOA6/NCOA1/NRIP1/CHD9/ARNTL/EP300/SREBF1/HELZ2/PPARA/NR1D1/CPT1A/PPARGC1A/CLOCK</t>
+  </si>
+  <si>
+    <t>CREM/CREB1/RBM4/CRTC1/RORA/NCOR1/CARM1/TBL1XR1/TGS1/SERPINE1/HDAC3/CREBBP/TBL1X/RXRA/CRY2/DBP/MED1/NCOA2/SMARCD3/NCOA6/CRY1/NCOA1/NRIP1/KLF15/CHD9/AVP/ARNTL/EP300/F7/NAMPT/PER2/HELZ2/PER1/ARNTL2/PPARA/NR3C1/NR1D1/BHLHE40/HIF1A/PPARGC1A/NOCT/NFIL3/CLOCK</t>
+  </si>
+  <si>
+    <t>TTR/FN1/COL3A1/COL1A1/COL1A2/COL4A6/ACTN1/COL5A1/TNC/ITGB1/THBS1/SDC2/TRAPPC4/VTN/COL4A1/ITGAV/LAMC1/LAMA5/LAMC3/COL5A2/TGFB1/LAMA1/COL2A1/AGRN/NTN4/DAG1/HSPG2/COL4A2/DDR2/PDGFA/LAMB2/FGF2/COL4A5/SDC3/CASK/SDC4/LAMA2/COL11A2/ITGA6/SDC1/LAMB1/PRKCA/ITGB5/ITGB4/DDR1/LAMA4/ITGA2/PDGFB/COL11A1/COL4A4/NRXN1/DMD/LAMC2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/UBA3/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/PSMB10/PSMB5/FBXW11/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/MAP3K14/CUL1/PSMD6/CHUK/PSMD3/BTRC/PSMD2/PSMA5/NFKB2/RELB/UBE2M/PSMA2</t>
+  </si>
+  <si>
+    <t>ORC6/PSMC3/GMNN/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/CDT1/PSMF1/PSMB4/MCM8/PSMC2/ORC4/PSME4/PSMB1/PSMA6/CDC6/PSMB10/PSMB5/ORC3/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/ORC2/PSMB7/PSMD5/PSMA1/PSMC1/ORC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/ORC5/PSMA2</t>
+  </si>
+  <si>
+    <t>RAB4A/ARF1/PTEN/PLEKHA6/PLEKHA4/PTPN13/PIK3R1/PIP4K2B/INPP4A/RAB14/PLEKHA1/PIK3CD/RUFY1/PIP5K1C/PIP5K1A/SYNJ1/MTM1/OCRL/SBF2/MTMR9/MTMR3/INPP5K/PLEKHA5/PLEKHA8/MTMR14/PIK3R2/MTMR1/PIK3R3/RAB5A/PLEKHA3/SYNJ2/MTMR6/INPPL1/PIK3CB/INPP5J/PIP4K2A/MTMR8/PIK3CA/PI4K2A/PLEKHA2/INPP5D/PIP4K2C/PI4K2B/PIK3R5/PIP5K1B/PIK3C2B/PIK3C2A/MTMR2</t>
+  </si>
+  <si>
+    <t>HNRNPA1/FGFR1/PPP2R1A/POLR2L/FGFR4/UBA52/GTF2F2/POLR2J/GTF2F1/PPP2CB/UBB/NCBP2/FLRT3/SHC1/POLR2K/HRAS/POLR2F/HNRNPM/POLR2A/ESRP1/HNRNPF/POLR2I/HNRNPH1/NCBP1/PIK3R1/RBFOX2/GRB2/SRC/PTBP1/KRAS/FGFR2/FGF8/SPRY2/FGFR3/POLR2E/UBC/POLR2C/PPP2CA/SPRED2/BRAF/FGF10/NRAS/GALNT3/PLCG1/POLR2G/CBL/PTPN11/FGFBP3/POLR2D/MAPK1/FRS3/POLR2B/FGF2/SPRED1/FLRT2/ESRP2/FGF1/MAPK3/FGFRL1/POLR2H/FGF17/SOS1/ANOS1/KLB/TIA1/FRS2/GAB1/PIK3CA/FGF23/FGF18/FGF9/FGF22/FGF19/FGF7/MKNK1/TIAL1</t>
+  </si>
+  <si>
+    <t>DUSP4/PPP2R1A/JUN/UBA52/PPP2CB/UBB/UBE2N/MAP2K3/DUSP6/CREB1/ATF1/MAPK10/TNIP2/MAPK7/MEF2C/MAP2K1/MAP2K7/MAP2K6/DUSP3/MAPK8/FBXW11/IKBKG/MAP3K7/MAP2K4/UBC/ATF2/NFKB1/PPP2CA/MAPKAPK3/TAB1/VRK3/IKBKB/TAB3/MAPK14/FOS/SKP1/MAPK1/TAB2/RIPK2/NOD1/PPP2R1B/MAPK3/MAP3K8/MAPKAPK2/CUL1/PPP2R5D/MEF2A/CHUK/IRAK1/BTRC/MAPK9/ELK1/MAPK11/UBE2V1/TRAF6/DUSP7/IRAK2</t>
+  </si>
+  <si>
+    <t>CKB/GAMT/PSMC3/PSMC4/SAT1/PSMA4/PSME2/PSMA7/PSMB2/PSMB3/PSMD14/PSMD4/PSMD7/PSME1/PSMC5/GOT1/ASS1/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/OAZ1/GATM/SMS/PSMF1/AMD1/ADI1/PSMB4/SRM/PSMC2/AZIN1/PSME4/PSMB1/ENOPH1/PSMA6/NAGS/SMOX/OAZ2/ARG2/MTAP/PSMB10/PSMB5/PSMD9/PSMD10/PSMA3/PSMD1/PAOX/MRI1/NQO1/CKM/ODC1/AGMAT/PSMD8/PSMB7/PSMD5/CPS1/PSMA1/APIP/PSMC1/CKMT1B/PSMC6/NMRAL1/PSMD6/SLC6A8/AZIN2/PSMD3/PSMD2/SLC25A15/PSMA5/OAZ3/SLC6A12/CKMT2/ASL/PSMA2</t>
+  </si>
+  <si>
+    <t>RAB4A/MAP1LC3B/RAB5C/RABEP1/GABARAPL2/OPTN/RAB8A/RAB7A/TBC1D20/RABGAP1/RAB11B/SYTL1/TBC1D7/RAB11A/GGA1/RAB5B/TBC1D24/ARF6/ULK1/TBC1D14/RAB35/GGA3/TBC1D10A/TSC2/TBC1D17/GGA2/TSC1/TBC1D13/TBC1D16/RAB6A/RAB5A/RAB8B/TBC1D10B/GABARAP/TBC1D25/RAB33B/RAB33A/RAB6B/TBC1D10C/TBC1D2/TBC1D15/RABGEF1</t>
+  </si>
+  <si>
+    <t>HMGB2/HMGB1/H1F0/DSP/CLSPN/LMNB1/TJP1/KPNB1/DBNL/HIST1H1D/FNTA/DFFA/DNM1L/GSN/BCAP31/PAK2/ACIN1/HIST1H1E/PRKCD/CDH1/LMNA/HIST1H1B/BIRC2/SPTAN1/ADD1/OCLN/STK26/ROCK1/PLEC/CASP7/CASP6/CASP3/CTNNB1/APC/VIM/STK24/DSG2/TJP2/KPNA1/GAS2/MAPT/HIST1H1C/PRKCQ/SATB1/CASP8/DFFB/PTK2</t>
+  </si>
+  <si>
+    <t>RAB4A/CPNE1/CSNK2B/GDE1/HADHB/OSBPL8/STARD10/HADHA/ARF1/PLD3/CDIPT/PLA2G16/PCYT2/LPIN2/AGPAT1/PLA2G12A/PTEN/LPCAT3/CSNK2A2/GDPD5/PI4KB/PLEKHA6/PLEKHA4/ABHD3/LPGAT1/PTPMT1/PTPN13/CRLS1/SACM1L/AGPAT4/INPP5F/CSNK2A1/PIK3R1/PIP4K2B/DGAT2/INPP4A/LPCAT4/CDS2/PEMT/GNPAT/SLC44A4/RAB14/LPIN1/PLEKHA1/PCTP/ARF3/PIK3CD/ACP6/TNFAIP8/RUFY1/PTDSS2/PCYT1A/DDHD1/PIP5K1C/ETNK1/SBF1/SLC44A3/PIP5K1A/PI4KA/CPNE3/HRASLS/SYNJ1/MTM1/OCRL/PISD/SBF2/MBOAT2/LCLAT1/GPCPD1/SLC44A2/PIK3R4/MTMR9/CHKB/MTMR3/MBOAT7/AGK/TMEM86B/GPD1/GDPD1/PNPLA3/INPP5K/AGPAT2/AGPAT5/PLEKHA5/STARD7/PLEKHA8/ETNK2/MTMR4/MTMR14/PITPNM1/GPD2/PIK3R2/SLC44A5/MTMR1/PIK3R3/MIGA2/RAB5A/SELENOI/PLEKHA3/PLA2G15/OSBPL10/SYNJ2/MTMR10/TAZ/PNPLA8/PLA2G6/MTMR6/INPPL1/PIK3CB/ACHE/PLBD1/INPP5J/FIG4/LPCAT1/GPAM/GPAT4/LPCAT2/MGLL/ABHD4/LPIN3/MTMR12/SLC44A1/CEPT1/PGS1/OSBPL5/PIP4K2A/AGPAT3/PITPNM3/MTMR8/PLA2G4C/PIK3CA/PIKFYVE/PTDSS1/PNPLA6/VAC14/ETNPPL/GPD1L/PI4K2A/DGAT1/DDHD2/PLB1/PLEKHA2/PNPLA7/INPP5D/GDPD3/JMJD7-PLA2G4B/BCHE/PLD6/PLD1/MFSD2A/MBOAT1/PIP4K2C/PI4K2B/PITPNM2/PCYT1B/PIK3R5/PLA1A/MTMR7/HRASLS5/TNFAIP8L3/PLA2G3/PIP5K1B/MIGA1/CHPT1/PIK3C2B/CPNE7/CHKA/INPP5E/PLD2/PIK3C3/CDS1/PIK3C2A/TNFAIP8L1/PNPLA2/MTMR2/PITPNB</t>
+  </si>
+  <si>
+    <t>CUX1/ZMYM2/BCR/PIK3R1/TRIM24/GRB2/FGFR1OP/FGFR1OP2/STAT3/LRRFIP1/CNTRL/GAB2/STAT5B/STAT1/CPSF6/MYO18A/STAT5A/PIK3CA</t>
+  </si>
+  <si>
+    <t>TMED2/NOTCH2/NOTCH3/RFNG/NOTCH1/ATP2A2/B4GALT1/ST3GAL4/FURIN/LFNG/SEL1L/RAB6A/NOTCH4/ST3GAL3/MFNG/ATP2A1/ST3GAL6/ATP2A3</t>
+  </si>
+  <si>
+    <t>ACTB/FLNA/ACTN1/FLNC/ITGB1/LIMS1/ACTG1/ILK/PARVA/RSU1/FERMT2/LIMS2/FBLIM1/PXN/ARHGEF6/PARVB/TESK1/VASP</t>
+  </si>
+  <si>
+    <t>CCNB1/CDK1/PCNA/GADD45A/AURKA/TFDP2/BAX/ZNF385A/RBL2/CARM1/TFDP1/CDC25C/PRMT1/E2F4/TP53/EP300/RBL1/SFN</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PGM1/CALM3/PHKB/PYGL/PGM2L1/GAA/GYG2/PHKA1/PGM2/GYG1/AGL/PHKG1/PYGB/PHKG2/PHKA2/PYGM</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PPP2R1A/PPP1CA/PPP2CB/PRKAR1A/CALM3/PPP3CC/CDK5/PRKAR2A/PPP3CB/PPP2CA/PPP3CA/PPP3R1/PDE4D/PPP2R1B/PPP2R5D/PRKAR2B/PRKAR1B/PRKACB/PRKACA/PDE4C/PPP1R1B/PDE4B/PDE4A</t>
+  </si>
+  <si>
+    <t>PPP1CC/PPP1CA/UBA52/BAMBI/UBB/PPP1CB/STRAP/TGFB1/XPO1/NEDD4L/UCHL5/TGFBR1/UBC/SMAD3/USP15/ZFYVE9/PPP1R15A/SMAD7/STUB1/TGFBR2/MTMR4/PMEPA1/SMURF2/SMURF1/SMAD2</t>
+  </si>
+  <si>
+    <t>RAD51/RMI2/RAD51AP1/BLM/BARD1/BRCA2/RAD50/EXO1/TOP3A/BRCA1/BRIP1/RAD51C/NBN/KAT5/ATM/RMI1/XRCC3/RBBP8/RAD51B/XRCC2/MRE11/DNA2/WRN/RAD51D/PALB2</t>
+  </si>
+  <si>
+    <t>PRKCSH/UBA52/CALR/UBB/PDIA3/RNF5/CANX/TRIM13/DERL2/RNF185/MAN1B1/UGGT1/GANAB/EDEM3/UBC/OS9/RNF103/SEL1L/EDEM2/UGGT2/EDEM1/SYVN1/RNF139/MARCH6/AMFR</t>
+  </si>
+  <si>
+    <t>GNG11/GNG5/GNB1/GNAS/GNB2/PRKAR1A/GNG12/GNB3/GNB4/PRKAR2A/ADCY3/ADCY7/GNG7/ADCY1/ADCY6/GNG3/GNG10/GNG4/PRKAR2B/GNG2/GCGR/PRKAR1B/PRKACB/GNG8/ADCY2/PRKACA/ADCY5/ADCY8/ADCY4/GNG13/ADCY9</t>
+  </si>
+  <si>
+    <t>ID1/CDK6/UBA52/UBB/CDK4/TFDP2/MOV10/ETS2/TFDP1/E2F1/RB1/E2F3/CDKN2D/ERF/UBC/TNRC6A/ETS1/AGO1/SP1/CDKN2B/TNRC6C/TP53/AGO4/TNRC6B/MAPK1/MDM4/MAPK3/E2F2/AGO3/CDKN2A/MDM2</t>
+  </si>
+  <si>
+    <t>NANS/ST6GALNAC3/ST3GAL1/CMAS/GLB1/ST3GAL4/CTSA/ST6GALNAC6/ST8SIA1/SLC35A1/NEU3/ST6GAL1/GNE/ST8SIA2/ST8SIA4/ST3GAL2/ST3GAL3/ST6GALNAC5/ST8SIA3/ST3GAL6/NPL/ST6GALNAC2/NEU1/ST6GAL2/ST8SIA6/NEU4/ST6GALNAC1/ST3GAL5/ST6GALNAC4/SLC17A5/NANP</t>
+  </si>
+  <si>
+    <t>APOA1/APOC1/APOE/NPC2/AP2S1/CLTA/LDLR/AP2M1/LSR/AP2A1/SOAT2/APOB/NR1H3/NR1H2/NPC1/HDLBP/AMN/CLTC/MYLIP/LIPA/AP2A2/LDLRAP1/AP2B1/CUBN/SOAT1/VLDLR/LIPC/CES3/PCSK9/NCEH1/SCARB1</t>
+  </si>
+  <si>
+    <t>TUBA1B/TUBB6/GNG11/TUBA1A/ACTB/TUBB4B/CCT8/PFDN5/GNG5/GNB1/TUBB2A/VBP1/TCP1/CCT3/CSNK2B/TUBB2B/CCT5/GNB2/NOP56/GNAI1/GNB5/PFDN2/XRN2/GNG12/FBXO6/CCT4/CSNK2A2/GNB3/TUBA1C/GNB4/FBXW5/WRAP53/AP3M1/LONP2/FBXW4/CCT7/CSNK2A1/PFDN4/HDAC3/RGS9/GNAI2/PFDN6/CCT2/STAT3/TUBA4A/FBXW9/FBXW2/KIF13A/GNAZ/FBXL3/FBXW7/FBXL5/GNG7/SKIV2L/TP53/RGS6/EHHADH/CCT6A/GNGT1/GNAI3/GNG3/ARFGEF2/USP11/GNG10/GNG4/FKBP9/GNG2/PFDN1/GNG8/GNAO1/PDCL/CCNE2/TUBB4A/RGS11/CCT6B/RGS7/GNG13/SPHK1/GBA/FBXO4/KIFC3/CCNE1/DCAF7</t>
+  </si>
+  <si>
+    <t>HIST1H4C/RPA3/H2AFX/PCNA/CLSPN/UBA52/RAD51/CCNA2/RFC4/RFC2/SUMO1/RFC5/POLE4/RHNO1/RMI2/UBB/RAD51AP1/UBE2N/RPA2/BLM/BARD1/PPP4C/SIRT6/UBE2V2/RFC3/BRCA2/RNF168/PPP4R2/RPA1/TP53BP1/MUS81/POLD2/POLD3/RFC1/POLE2/TIMELESS/RNF4/RAD50/RAD1/POLE/SUMO2/MDC1/EXO1/TOP3A/RNF8/CDK2/BRCA1/EME1/GEN1/BRCC3/POLK/UBE2I/RAD17/POLE3/POLD1/BRIP1/UBC/RAD51C/UIMC1/HERC2/ERCC4/ERCC1/ABL1/HIST1H2BD/RAD52/HIST1H2BH/NBN/HIST2H2BE/KAT5/BABAM1/ATM/HIST1H2BN/TIPIN/RMI1/POLD4/ATR/XRCC3/RAD9A/TOPBP1/PIAS4/HUS1/RBBP8/RAD51B/XRCC2/EME2/CHEK1/MRE11/DNA2/HIST1H2BG/WRN/HIST1H4J/HIST1H4E/RAD51D/HIST1H2BK/SPIDR/SLX4/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST4H4/POLH/HIST1H2BJ/HIST1H2BC/HIST3H2BB/ATRIP/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/CCNA1/PALB2/SLX1A</t>
+  </si>
+  <si>
+    <t>H2AFZ/HIST1H4C/ACTB/DEK/H2AFV/DNMT1/H2AFX/UHRF1/POLR2L/POLR1D/TAF1D/PHF19/BAZ1B/RBBP7/H2AFJ/MTF2/POLR2K/JARID2/POLR2F/DDX21/TDG/MYO1C/MTA3/CCNH/H3F3A/TTF1/SAP30BP/CDK7/ZNRD1/SAP30L/CBX3/POLR1C/MNAT1/GTF2H5/EED/SAP18/TAF1A/DNMT3B/ERCC3/GATAD2B/MTA1/GSK3B/POLR1A/HIST2H2AC/HDAC2/RBBP4/POLR2E/GATAD2A/TAF1B/ERCC2/POLR1E/RRP8/ARID4B/HIST1H3B/EZH2/HDAC1/SMARCA5/GTF2H2/HIST1H2BD/BAZ2A/HIST1H2BH/TET1/SIRT1/MTA2/CHD3/HIST2H2BE/HIST1H2BN/H3F3B/SUZ12/TWISTNB/TAF1C/EP300/POLR1B/PHF1/SIN3B/HIST1H2AE/HIST1H3A/SUDS3/UBTF/POLR2H/HIST1H2BG/HIST1H3G/MBD2/DNMT3A/EHMT2/ERCC6/CD3EAP/GTF2H4/HIST1H3E/HIST1H4J/HIST1H4E/HIST1H2AC/KAT2B/HIST1H2AB/HIST1H2BK/CHD4/AEBP2/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/HIST4H4/HIST1H2BJ/HIST1H2BC/TET2/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/SAP30/SUV39H1/GTF2H3/MBD3/TBP/SAP130/KAT2A/MYBBP1A/SIN3A/GTF2H1/SF3B1</t>
+  </si>
+  <si>
+    <t>POLR2L/SUPT4H1/GTF2A2/GTF2F2/POLR2J/GTF2F1/SUPT16H/RTF1/NELFA/NCBP2/POLR2K/TAF12/POLR2F/NELFE/TCEA1/SUPT6H/POLR2A/POLR2I/TAF9B/CDK9/CCNH/CDK7/NCBP1/CTDP1/MNAT1/EAF2/GTF2H5/IWS1/TAF9/ERCC3/TAF7/GTF2B/GTF2E2/POLR2E/CCNT2/ERCC2/POLR2C/MLLT3/TAF4/TAF6/TAF10/GTF2H2/GTF2E1/ELL/NELFCD/SUPT5H/NELFB/CDC73/POLR2G/SSRP1/TAF1/POLR2D/TAF13/POLR2B/CTR9/TAF11/CCNT1/TAF3/AFF4/MLLT1/PAF1/POLR2H/WDR61/EAF1/GTF2H4/TAF5/CCNK/TAF4B/TAF2/GTF2H3/TBP/LEO1/GTF2A1/GTF2H1</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/RFC4/RFC2/VCP/RFC5/POLE4/UBB/RPA2/RFC3/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/ISG15/TRIM25/POLK/UBE2L6/POLE3/POLD1/UBC/MAD2L2/USP10/POLI/POLD4/RCHY1/SPRTN/NPLOC4/REV1/UBA7/USP43/POLH/REV3L</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/CHEK2/PSMD11/PSMF1/PSMB4/PHF20/PSMC2/PSME4/PSMB1/PSMA6/RFWD2/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/ATM/PSMD8/TP53/PSMB7/PSMD5/PSMA1/PSMC1/MDM4/PSMC6/PSMD6/PSMD3/CDKN2A/PSMD2/PSMA5/MDM2/PSMA2</t>
+  </si>
+  <si>
+    <t>PCNA/UBA52/HLA-A/HLTF/UBE2A/VCP/UBE2D3/RTF1/UBB/UBE2N/UBE2V2/RRAGA/PRKDC/PEX10/DERL1/UBE2D2/PEX2/UBE2L3/WAC/UBE2D1/SHPRH/RNF181/UBC/HIST1H2BD/HIST1H2BH/UBE2B/CDC73/HIST1H2BN/SELENOS/CTR9/BCL10/RNF40/PAF1/UBE2E1/RAD18/HIST1H2BG/WDR61/TMEM129/RNF144A/UBE2J2/HIST1H2BK/PEX5/RNF152/HIST1H2BL/HIST1H2BE/HIST1H2BF/HIST1H2BJ/HIST1H2BC/PEX12/RNF20/LEO1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/PSMB2/PSMB3/PSMD14/PSMD4/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/OAZ1/PSMF1/PSMB4/PSMC2/AZIN1/PSME4/PSMB1/PSMA6/OAZ2/PSMB10/PSMB5/PSMD9/PSMD10/PSMA3/PSMD1/NQO1/ODC1/PSMD8/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/OAZ3/PSMA2</t>
+  </si>
+  <si>
+    <t>TGIF1/UBA52/SNW1/CCNC/UBB/MYC/TFDP2/CDK9/MEN1/TFDP1/SERPINE1/WWTR1/E2F4/SMAD4/CCNT2/UBC/SMAD3/SP1/HDAC1/CDKN2B/SMAD7/JUNB/CCNT1/RBL1/TGIF2/CCNK/E2F5/RNF111/SMAD2/CDK8</t>
+  </si>
+  <si>
+    <t>GNG11/CALM1/CALM2/GNG5/GNB1/GNB2/GNB5/GNG12/CALM3/GNB3/GNB4/GNG7/GNGT1/GNG3/GNG10/DLG1/DLG3/GNG4/GNG2/PLCB2/GNG8/PLCB1/NCALD/GRIK1/GRIK3/GRIK5/GRIK4/GNG13/PLCB3/DLG4</t>
+  </si>
+  <si>
+    <t>GNG11/GNG5/GNB1/F2/GNB2/GNB5/GNG12/F2R/GNB3/GNB4/F2RL2/ARRB1/SRC/ARRB2/GNG7/MAPK1/GNGT1/GNG3/GNA12/GNA11/MAPK3/GNG10/GNG4/F2RL3/GNA13/GNAQ/GNG2/GNG8/GNA14/GNG13</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/RFC4/RFC2/RFC5/POLE4/UBB/RPA2/RFC3/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/ISG15/TRIM25/POLK/UBE2L6/POLE3/POLD1/UBC/USP10/POLI/POLD4/REV1/UBA7/USP43/POLH</t>
+  </si>
+  <si>
+    <t>POLR2L/POLR1D/TAF1D/POLR2K/POLR2F/CCNH/TTF1/CDK7/ZNRD1/POLR1C/MNAT1/GTF2H5/TAF1A/ERCC3/POLR1A/POLR2E/TAF1B/ERCC2/POLR1E/GTF2H2/TWISTNB/TAF1C/POLR1B/UBTF/POLR2H/CD3EAP/GTF2H4/GTF2H3/TBP/GTF2H1</t>
+  </si>
+  <si>
+    <t>COL1A1/IHH/CBFB/HES1/SMAD6/RB1/SRC/HDAC3/WWTR1/YES1/MAF/SMAD4/HEY2/RBM14/HDAC6/HDAC4/GLI2/ABL1/MAPK1/HEY1/MAPK3/YAP1/GLI3/ZNF521/BGLAP/SATB2/AR/RBM14-RBM4/UCMA/SMAD1</t>
+  </si>
+  <si>
+    <t>UBA52/SNF8/CHMP4B/UBB/CHMP2A/CHMP5/CHMP7/VPS36/VPS37A/UBAP1/VPS25/MVB12B/VTA1/CHMP4C/UBC/CHMP2B/CHMP3/TSG101/HGS/CHMP4A/VPS37D/VPS37C/VPS28/MVB12A/STAM2/CHMP6/STAM/VPS37B/VPS4A/VPS4B</t>
+  </si>
+  <si>
+    <t>H2AFZ/IGFBP7/HIST1H4C/ANAPC11/UBE2C/H2AFV/H2AFX/H1F0/TERF1/ID1/JUN/CDK6/LMNB1/UBA52/CCNA2/ANAPC16/UBB/MAP2K3/HIST1H1D/RBBP7/CDK4/HMGA1/TXN/CABIN1/H2AFJ/ANAPC7/RING1/TFDP2/ACD/CDC16/MOV10/MAPK10/HIST1H1E/HMGA2/MAPK7/RAD50/H3F3A/PHC1/ANAPC1/ETS2/SCMH1/RNF2/CDC23/CDC26/HIRA/TFDP1/CDKN1B/CDK2/E2F1/HIST1H1B/MAP2K7/RB1/TINF2/EED/E2F3/MAP2K6/UBE2D1/CDKN2D/MAPK8/HIST2H2AC/STAT3/RBBP4/ERF/MAP2K4/UBC/RELA/MAP4K4/NFKB1/TNRC6A/PHC2/ETS1/MAPKAPK3/AGO1/HIST1H3B/CDC27/CDKN1A/SP1/EZH2/HIST1H2BD/HIST1H2BH/NBN/TERF2IP/ANAPC10/PHC3/CDKN2B/UBN1/HIST2H2BE/KAT5/ATM/HIST1H2BN/H3F3B/TNRC6C/MAPK14/FOS/TP53/SUZ12/CEBPB/ANAPC2/MAPKAPK5/AGO4/TNRC6B/MAPK1/EP400/KDM6B/MRE11/MDM4/HIST1H2AE/HIST1H3A/FZR1/CBX4/MAPK3/UBE2E1/E2F2/ANAPC15/MAPKAPK2/HIST1H2BG/HIST1H3G/ANAPC5/EHMT2/MAPK9/HIST1H3E/HIST1H1C/AGO3/HIST1H4J/HIST1H4E/TNIK/HIST1H2AC/CDKN2A/MAPK11/HIST1H2AB/HIST1H2BK/CCNE2/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/IL6/HIST4H4/HIST1H2BJ/HIST1H2BC/MDM2/POT1/ANAPC4/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/MAP3K5/CCNA1/MINK1/CBX6/TERF2/EHMT1/CCNE1/ASF1A/CBX2/CBX8/BMI1</t>
+  </si>
+  <si>
+    <t>MAD2L1/ANAPC11/UBE2C/CDC20/UBA52/ANAPC16/BUB3/UBB/ANAPC7/CDC16/ANAPC1/BUB1B/CDC23/CDC26/UBE2D1/UBC/CDC27/NEK2/ANAPC10/ANAPC2/UBE2E1/ANAPC15/ANAPC5/ANAPC4</t>
+  </si>
+  <si>
+    <t>UBA52/UBB/CDC42/EPS15/EPN1/SH3GL1/SH3KBP1/GRB2/SPRY2/UBC/EPS15L1/HGS/ARHGEF7/CBL/SH3GL3/SH3GL2/PTPN3/STAM2/EGF/SPRY1/STAM/PTPN12/PTPRK/EGFR</t>
+  </si>
+  <si>
+    <t>FDPS/ACAT2/FDFT1/TM7SF2/SQLE/IDI1/SC5D/MSMO1/LBR/GGPS1/DHCR24/EBP/NSDHL/HMGCR/HMGCS1/DHCR7/PLPP6/MVD/PMVK/LSS/ARV1/HSD17B7/MVK/CYP51A1</t>
+  </si>
+  <si>
+    <t>MYL9/RHOC/MYL6/MYH10/MYH9/MYL12A/MYL12B/RAC1/CDC42/RHOB/ROCK1/RHOA/LIMK2/RAC2/RND1/SEMA4D/ROCK2/ARHGEF12/ERBB2/ARHGEF11/MYH14/PLXNB1/LIMK1/RHOG</t>
+  </si>
+  <si>
+    <t>MLST8/CREB1/MAPKAP1/AKT2/PRR5/GSK3A/AKT1S1/CDKN1B/AKT1/RICTOR/MTOR/GSK3B/BAD/AKT3/CDKN1A/PDPK1/TSC2/FOXO1/NR4A1/FOXO4/CASP9/CHUK/FOXO3/MDM2</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/RFC4/RFC2/RFC5/POLE4/UBB/RPA2/RFC3/LIG1/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/LIG3/POLK/POLE3/POLD1/UBC/POLD4/XRCC1</t>
+  </si>
+  <si>
+    <t>PPP2R1A/PPP2CB/PPP2R5C/GSK3B/AXIN1/PPP2CA/PPP2R5A/AMER1/CTNNB1/APC/PPP2R5B/PPP2R1B/CSNK1A1/PPP2R5D/PPP2R5E/FRAT2/FRAT1</t>
+  </si>
+  <si>
+    <t>ALG3/MGAT2/ALG14/MAN1B1/B4GALT1/ALG12/DPAGT1/MPDU1/MOGS/ALG6/ALG13/ALG11/ALG8/RFT1/ALG1/ALG9/ALG2</t>
+  </si>
+  <si>
+    <t>SLC39A3/SLC39A7/SLC39A5/SLC39A1/SLC39A10/SLC39A14/SLC30A6/SLC39A8/SLC30A7/SLC39A6/SLC30A3/SLC30A5/SLC30A2/SLC30A1/SLC30A8/SLC39A4/SLC39A2</t>
+  </si>
+  <si>
+    <t>EXOSC8/YWHAB/DCP1A/ZFP36L1/EXOSC9/EXOSC3/EXOSC1/AKT1/EXOSC5/DCP2/EXOSC6/XRN1/EXOSC7/EXOSC2/MAPKAPK2/DIS3/EXOSC4</t>
+  </si>
+  <si>
+    <t>EXOSC8/YWHAB/DCP1A/EXOSC9/TNPO1/EXOSC3/EXOSC1/EXOSC5/DCP2/EXOSC6/XRN1/EXOSC7/ZFP36/EXOSC2/MAPKAPK2/DIS3/EXOSC4</t>
+  </si>
+  <si>
+    <t>EXOSC8/EXOSC9/YWHAZ/EXOSC3/EXOSC1/KHSRP/AKT1/EXOSC5/DCP2/EXOSC6/EXOSC7/MAPK14/EXOSC2/MAPK11/PARN/DIS3/EXOSC4</t>
+  </si>
+  <si>
+    <t>CCND2/CDK6/MOV10/CCND3/CBFB/PML/CCND1/SRC/TNRC6A/AGO1/TNRC6C/PTPN11/AGO4/TNRC6B/AGO2/AGO3/RUNX1</t>
+  </si>
+  <si>
+    <t>HNRNPA1/PPP2R1A/POLR2L/UBA52/GTF2F2/POLR2J/GTF2F1/PPP2CB/UBB/NCBP2/SHC1/POLR2K/HRAS/POLR2F/HNRNPM/POLR2A/ESRP1/HNRNPF/POLR2I/HNRNPH1/NCBP1/PIK3R1/RBFOX2/GRB2/SRC/PTBP1/KRAS/FGFR2/FGF8/SPRY2/POLR2E/UBC/POLR2C/PPP2CA/BRAF/FGF10/NRAS/PLCG1/POLR2G/CBL/PTPN11/FGFBP3/POLR2D/MAPK1/FRS3/POLR2B/FGF2/ESRP2/FGF1/MAPK3/POLR2H/FGF17/SOS1/TIA1/FRS2/GAB1/PIK3CA/FGF23/FGF18/FGF9/FGF22/FGF7/MKNK1/TIAL1</t>
+  </si>
+  <si>
+    <t>GNG11/SLC25A6/TKT/GNG5/PPP2R1A/GNB1/FASN/GNAS/MARCKS/PPP2CB/GNB2/GNAI1/GNB5/PRKAR1A/SLC25A5/GNG12/PRKAB2/AGPAT1/AHCYL1/GNB3/ACLY/GNB4/SLC2A1/VAMP2/ADIPOR2/PRKAR2A/RAP1A/ADIPOR1/ADCY3/ARL2/GNAI2/SNAP25/ARL2BP/CACNB3/STK11/MLXIPL/IQGAP1/PRKAA2/PPP2CA/MLX/STXBP1/TALDO1/ITPR1/ADCY7/GNG7/ADRA2C/AKAP5/SLC25A4/ITPR3/ADCY1/GNGT1/PRKAG2/ADCY6/GNG3/ACACB/PPP2R1B/GNA11/CACNA1A/CACNA1C/RAPGEF3/GNG10/CHRM3/PPP2R5D/GNG4/ITPR2/PRKAR2B/GNAQ/GNG2/PLCB2/KCNS3/GCGR/PRKAR1B/PRKCA/CACNA2D2/PRKACB/GNG8/KCNJ11/PLCB1/ADCY2/PRKACA/CACNB2/RAPGEF4/ADCY5/PFKFB1/ADCY8/GNA14/ADRA2A/ADCY4/GNG13/ADCY9/PLCB3/ACACA/STX1A/CACNA1D</t>
+  </si>
+  <si>
+    <t>PABPC1/HSPB1/PSMC3/PSMC4/HSPA8/PSMA4/PSME2/PSMA7/HSPA1A/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/HNRNPD/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/EIF4G1/HSPA1B/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/VCP/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/DERL2/PSMA6/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/ERLEC1/PSMD1/OS9/PSMD8/PSMB7/SEL1L/PSMD5/PSMA1/SYVN1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/SHH/PSMA2</t>
+  </si>
+  <si>
+    <t>FN1/FBLN1/MFAP2/FBLN2/ITGB1/ITGA8/MFAP4/VTN/ITGAV/EFEMP2/EMILIN1/BMP4/LTBP4/TGFB1/BMP7/FBN2/EMILIN2/LTBP3/FBN3/LTBP1/MFAP1/TGFB2/TGFB3/EFEMP1/EMILIN3/ITGB8/FBN1/FBLN5/ITGB5/ITGB6/BMP2/LTBP2/MFAP3/ELN/GDF5</t>
+  </si>
+  <si>
+    <t>RACK1/UBA52/UBB/TRAF2/TNFRSF1A/CFLAR/SHARPIN/SPPL2A/RBCK1/BAG4/BIRC2/OTUD7B/FADD/ADAM17/IKBKG/RIPK1/MAP3K7/UBC/TAX1BP1/CLIP3/TAB1/TNFRSF10B/IKBKB/CYLD/TAB3/USP2/USP4/NSMAF/TAB2/TNFAIP3/SMPD2/XIAP/USP21/CHUK/OTULIN/TRADD/FAS/CASP10/MADD/CASP8/TRAF1/TNFSF10/TNFRSF10A/RNF31/SPPL2B</t>
+  </si>
+  <si>
+    <t>BIRC5/PERP/PRELID1/IGFBP3/RABGGTB/TMEM219/BAX/TRIAP1/BNIP3L/PMAIP1/TP53BP2/CREBBP/CHM/BBC3/BID/PPP1R13B/CASP2/TNFRSF10B/CASP6/TP53I3/ATM/TP53/PIDD1/NDRG1/TNFRSF10C/ZNF420/RABGGTA/AIFM2/STEAP3/TP73/CRADD/FAS/BCL2L14/PRELID3A/CASP10/BCL6/TP53INP1/TNFRSF10A/APAF1/TNFRSF10D</t>
+  </si>
+  <si>
+    <t>HSP90AA1/ACTB/ARPC2/ARPC5/HSP90AB1/ARPC1B/MYH9/BRK1/CFL1/ARPC1A/ACTG1/RAC1/ELMO1/CDC42/ACTR3/ACTR2/WASL/MYO1C/CYFIP2/DOCK1/ARPC4/GRB2/NCKIPSD/ABI2/MYO9B/WIPF3/VAV3/WIPF2/MYO10/ABI1/ABL1/WIPF1/NCK1/NCKAP1/WASF2/CYFIP1/MAPK1/WAS/MYO5A/BTK/ELMO2/WASF3/MAPK3/ARPC3/PAK1/WASF1/BAIAP2/VAV2/NF2/NCKAP1L/CRK/CD247/LIMK1/PTK2</t>
+  </si>
+  <si>
+    <t>DLK1/UBA52/UBB/JAG1/NCSTN/NOTCH1/ARRB1/ADAM17/ITCH/UBC/JAG2/ARRB2/PSEN2/DLL1/NEURL1B/ADAM10/PSENEN/MIB1/MIB2/APH1B/APH1A/PSEN1/DLL4/DTX4/NUMB/DTX2/NEURL1/CNTN1/DTX1</t>
+  </si>
+  <si>
+    <t>ATP5A1/ATP5F1/ATP5G2/ATP5G3/ATP5I/CHCHD3/ATP5J/ATP5C1/APOO/ATP5O/C19orf70/ATP5L/ATP5D/MINOS1/CHCHD6/ATP5S/SAMM50/ATP5B/MTX1/ATP5E/ATP5G1/IMMT/ATP5H/MTX2/DNAJC11/HSPA9/TMEM11/ATP5J2/APOOL</t>
+  </si>
+  <si>
+    <t>ATP6V0E1/ATP6V0B/ATP6V1F/ATP6V1A/ATP6V1D/ATP6AP1/ATP6V1G1/ATP6V0D1/TFRC/ATP6V0A1/ATP6V1E1/MCOLN1/TCIRG1/ATP6V1C1/STEAP2/ATP6V1G2/ATP6V1B2/TF/ATP6V1H/ATP6V1E2/STEAP3/ATP6V0D2/ATP6V0A2/ATP6V0E2/ATP6V1B1/HFE/TFR2/ATP6V0C/ATP6V1C2</t>
+  </si>
+  <si>
+    <t>CDC20/PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/FBXO5/PSMD1/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/FZR1/PSMC6/CUL1/PSMD6/PSMD3/BTRC/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/RNF146/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/AXIN1/PSMD1/TNKS/AXIN2/TNKS2/PSMD8/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/PSMD6/SMURF2/PSMD3/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>NDUFB5/NDUFA6/NDUFA10/NDUFS6/NDUFB2/NDUFB9/NDUFA1/NDUFA11/TIMMDC1/NDUFS1/NDUFC1/NDUFB6/NDUFAF3/NDUFS7/NDUFC2/NDUFB10/NDUFV2/NDUFS3/TMEM126B/NDUFAB1/NDUFV1/NDUFB4/NDUFB7/NDUFS4/NDUFB11/NDUFA13/NDUFA9/NDUFS8/NDUFB1/ECSIT/NDUFS5/NDUFA2/ACAD9/NDUFB8/NDUFAF1/NDUFA7/NDUFS2/NDUFB3/NDUFAF5/NDUFAF2/NDUFAF6/NUBPL/NDUFA3/NDUFAF4/NDUFA5/NDUFA8/NDUFAF7/NDUFA12/NDUFV3</t>
+  </si>
+  <si>
+    <t>CALM1/MYL9/CALM2/MYL6/MYH10/FLNA/MYH9/MYL12A/MYL12B/RAC1/PPP1CB/CDC42/CALM3/PAK2/PPP1R12A/CTTN/PPP1R12B/PAK1/NF2/PAK3/MYH14/MYLK/LIMK1</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/UBE2D3/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/EGLN2/UBE2D2/PSMF1/PSMB4/HIF3A/PSMC2/PSME4/PSMB1/PSMA6/EGLN1/UBE2D1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/VHL/WTIP/EPAS1/PSMD8/PSMB7/CUL2/PSMD5/PSMA1/PSMC1/EGLN3/PSMC6/PSMD6/PSMD3/AJUBA/PSMD2/HIF1A/PSMA5/LIMD1/PSMA2</t>
+  </si>
+  <si>
+    <t>CDK1/CCNA2/MYBL2/TFDP2/RBL2/TFDP1/E2F1/E2F4/RBBP4/HDAC1/LIN52/RBL1/LIN9/LIN37/LIN54/E2F5</t>
+  </si>
+  <si>
+    <t>LYN/GRB2/SRC/YES1/FYN/SOCS6/KIT/CBL/SOS1/PRKCA/SH2B2/SOCS1/LCK/SH2B3/KITLG/PTPN6</t>
+  </si>
+  <si>
+    <t>CENPF/CCNB1/PLK1/CCNB2/MYBL2/FOXM1/CDC25A/CDC25C/PKMYT1/RBBP4/WEE1/LIN52/EP300/LIN9/LIN37/LIN54</t>
+  </si>
+  <si>
+    <t>HSP90AA1/HSP90AB1/CFL1/RAC1/NRP1/PAK2/PLXNA1/FYN/PLXNA2/SEMA3A/FES/PAK1/PLXNA3/PAK3/LIMK1/PLXNA4</t>
+  </si>
+  <si>
+    <t>DPYSL3/NRP1/CDK5/GSK3B/PLXNA1/FYN/PLXNA2/DPYSL2/SEMA3A/CDK5R1/CRMP1/FES/DPYSL4/PLXNA3/DPYSL5/PLXNA4</t>
+  </si>
+  <si>
+    <t>EXOSC8/EXOSC9/NT5C3B/EXOSC3/HBS1L/EXOSC1/TTC37/EXOSC5/EXOSC6/EXOSC7/DCPS/SKIV2L/EXOSC2/WDR61/DIS3/EXOSC4</t>
+  </si>
+  <si>
+    <t>PMPCB/SMDT1/PHB2/MCUB/SPG7/PARL/PHB/AFG3L2/MAIP1/MCU/YME1L1/PMPCA/MICU1/STOML2/MICU2/MICU3</t>
+  </si>
+  <si>
+    <t>GNG11/GNG5/GNB1/GNAS/GNB2/GNB5/PRKAR1A/GNG12/GNB3/GNB4/PRKAR2A/RAB11A/ADCY3/ADCY7/GNG7/MYO5B/ADCY1/AVP/GNGT1/ADCY6/GNG3/AQP1/GNG10/AQP4/GNG4/AQP3/PRKAR2B/GNG2/PRKAR1B/RAB11FIP2/PRKACB/GNG8/ADCY2/PRKACA/ADCY5/ADCY8/ADCY4/GNG13/ADCY9</t>
+  </si>
+  <si>
+    <t>RACK1/UBA52/UBB/TRAF2/TNFRSF1A/SHARPIN/SPPL2A/RBCK1/BAG4/BIRC2/OTUD7B/FADD/ADAM17/IKBKG/RIPK1/MAP3K7/UBC/TAX1BP1/CLIP3/TAB1/IKBKB/CYLD/TAB3/USP2/USP4/NSMAF/TAB2/TNFAIP3/SMPD2/XIAP/USP21/CHUK/OTULIN/TRADD/MADD/CASP8/TRAF1/RNF31/SPPL2B</t>
+  </si>
+  <si>
+    <t>DHFR/MTHFD2/FASN/QPRT/MTHFD1/COASY/PPCS/MMADHC/NAXE/SHMT1/RFK/ENPP2/MTHFD1L/FLAD1/MMAB/GSTO2/CYB5A/GSTO1/MTHFD2L/SLC2A1/SLC52A2/TCN2/NAXD/MTHFR/MTHFS/PANK2/CYB5R3/PCCA/CD320/MCCC1/BTD/NAPRT/PPCDC/LMBRD1/NADK/ABCD4/NADSYN1/AMN/THTPA/BST1/MOCS1/NMRK1/PTGIS/MOCS3/SLC2A3/PARP16/PARP6/ABCC1/SHMT2/NFS1/GPHN/PANK4/RNLS/PANK3/MMAA/SLC25A32/TPK1/PDZD11/SLC19A1/PRSS1/ACACB/FPGS/PNPO/NAMPT/ENPP1/MUT/PARP8/DHFR2/NMNAT1/HLCS/MOCS2/NADK2/PARP9/AOX1/PARP10/SLC25A16/MTR/PDXK/SLC23A1/CUBN/NT5E/SLC46A1/MMACHC/SLC25A19/ALDH1L1/SLC23A2/MTRR/NUDT12/SLC19A2/NMNAT3/SLC19A3/PC/NNMT/NMNAT2/MCCC2/SLC52A3/NMRK2/PANK1/ACACA/PCCB/SLC5A6/AASDHPPT/PARP14/PARP4</t>
+  </si>
+  <si>
+    <t>MYL7/CALD1/CALM1/MYL9/CALM2/TPM1/MYL6/ACTA2/TPM4/ACTC1/ATP1B3/TPM2/MYL12A/VCL/MYL12B/AKAP9/TNNT2/ATP2B1/SRI/FXYD6/MYL6B/NKX2-5/ANXA6/MYH6/ACTA1/MYL4/CALM3/KCNK12/TRDN/TNNT1/LMOD1/KCNIP4/PAK2/ANXA1/AHCYL1/DYSF/ATP1A1/KCNH2/HIPK2/TMOD3/TNNC1/KCNK1/GATA4/TNNI1/PLN/TBX5/ACTG2/TMOD1/RYR2/KCNK6/TPM3/WWTR1/ATP2A2/FKBP1B/RANGRF/TTN/FGF13/CAMK2D/DMPK/SORBS3/ACTN2/CACNB3/MYBPC3/NPPA/CAMK2A/CACNG4/ASPH/ORAI1/CAMK2G/TNNI3/HIPK1/MYL3/DES/FGF12/ATP2B4/ITPR1/TRPC1/PXN/SCN3B/VIM/SORBS1/KCNJ12/TLN1/ATP1B1/ITPR3/KCNJ14/MYL5/CACNA1C/ATP1A2/KCND1/FXYD7/MYLPF/ANXA2/SLC8A1/CORIN/ATP1A4/MYH3/ATP2A1/KCNIP2/CASQ2/KCNK5/SCN11A/SCN7A/ACTN3/ITPR2/PAK1/FGF11/STIM1/ITGA1/SCN5A/ATP1B2/SLN/KCNE3/CAMK2B/KCNE2/NPR1/CACNA2D2/ITGB5/KAT2B/CACNA2D3/KCNJ11/SCN1B/FXYD2/PRKACA/MYL10/CACNB2/SCN8A/KCNK10/NPR2/CACNG3/SCN4B/CACNB4/CACNA2D1/SCN4A/KCNK15/FXYD3/FXYD4/CACNG6/SCN9A/KCNK13/RYR3/FXYD1/TNNC2/KCNQ1/KCNE1/CACNB1/SLC8A2/CACNA1F/TCAP/KCND3/KCNK3/KCNIP1/KCNK17/CLIC2/TNNT3/CACNA2D4/FGF14/TRIM72/CACNG1/MYBPC2/KCNJ4/NPPC/TMOD2/MYLK/ATP2A3/KCNE5/DMD/CACNA1D/CACNG8/ORAI2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/ITCH/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/PSMD3/BTRC/NUMB/PRKACB/PSMD2/PRKACA/PSMA5/GLI1/SUFU/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/GSK3B/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/GLI2/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/CSNK1A1/CUL1/PSMD6/PSMD3/BTRC/PRKACB/PSMD2/PRKACA/PSMA5/SUFU/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/GSK3B/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/CSNK1A1/CUL1/PSMD6/PSMD3/GLI3/BTRC/PRKACB/PSMD2/PRKACA/PSMA5/SUFU/PSMA2</t>
+  </si>
+  <si>
+    <t>UBA52/UBB/SFPQ/RAC1/CDK4/ELMO1/BCAR1/ERBB4/HRAS/ARHGAP35/ERBB3/KHDRBS1/DOCK1/CCND1/CDKN1B/CDK2/PTPN1/KRAS/PELP1/AKT1/STAT3/RHOA/UBC/NRG2/NRAS/KHDRBS3/PXN/STAP2/CBL/ARAP1/EPAS1/RASA1/NRG1/HBEGF/ELMO2/DOK1/EGF/NR3C1/KHDRBS2/ERBB2/HIF1A/EGFR/CRK/LRRK2/PTK6/NRG4/CCNE1/SOCS3</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/AURKA/RBX1/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/FBXL7/PSMD8/PSMB7/SKP1/PSMD5/PSMA1/PSMC1/PSMC6/CUL1/PSMD6/PSMD3/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>RPA3/PCNA/UBA52/USP1/RFC4/RFC2/RFC5/POLE4/UBB/RPA2/RBX1/RFC3/DDB1/RPA1/POLD2/POLD3/RFC1/POLE2/POLE/CUL4B/DTL/POLE3/POLD1/UBC/UBE2B/POLD4/CUL4A/RAD18</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/PRKAR1A/CREB1/CALM3/PRKCD/PRKAR2A/ADCY3/ADCY7/PDE1B/ADCY1/MAPK1/ADCY6/PRKAR2B/PRKAR1B/PRKCA/PRKACB/ADCY2/PRKACA/PDE1C/PRKCG/CAMK4/PDE1A/ADCY5/ADCY8/ADCY4/ADCY9/GRK2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/VCP/PSMD4/UBB/PSMD7/PSME1/PSMC5/IHH/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/P4HB/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/DERL2/PSMA6/ADAM17/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/ERLEC1/PSMD1/OS9/PSMD8/PSMB7/SEL1L/PSMD5/PSMA1/SYVN1/PSMC1/NOTUM/PSMC6/PSMD6/HHAT/PSMD3/SCUBE2/DISP2/PSMD2/PSMA5/SHH/PSMA2</t>
+  </si>
+  <si>
+    <t>H2AFZ/HIST1H4C/H2AFV/PSMC3/H2AFX/PSMC4/PPP2R1A/PSMA4/SOST/PSME2/SOX17/PSMA7/UBA52/PSMB2/SOX4/PSMB3/PSMD14/CSNK2B/SOX7/RSPO3/PPP2CB/PSMD4/UBB/ASH2L/PSMD7/RBX1/PSME1/SFRP1/PSMC5/MYC/PPP2R5C/FZD5/DKK1/H2AFJ/CBY1/PSMD13/PSME3/PSMB6/LEF1/PSMD12/TLE1/AKT2/PSMD11/RSPO4/RNF146/YWHAZ/PSMF1/SRY/FZD2/LGR4/PSMB4/TCF7L2/CSNK2A2/PSMC2/TCF7L1/H3F3A/PSME4/PSMB1/PSMA6/XPO1/FZD4/TLE3/MEN1/TLE4/CSNK1E/CSNK2A1/CUL3/RYK/CREBBP/WNT3/CTNNBIP1/AKT1/GSK3B/PSMB10/PSMB5/HIST2H2AC/PSMD9/LRP5/TLE2/UBC/PSMD10/PSMA3/AXIN1/PPP2CA/KREMEN2/PPP2R5A/AMER1/PSMD1/HIST1H3B/HDAC1/USP34/CHD8/DVL1/HIST1H2BD/CSNK1G2/PYGO1/HIST1H2BH/FZD6/CCDC88C/TNKS/LRP6/CTNNB1/AXIN2/HIST2H2BE/KAT5/CDC73/HIST1H2BN/H3F3B/APC/FZD8/TNKS2/SMARCA4/PSMD8/USP8/PSMB7/DVL3/SOX9/RUVBL1/ZNRF3/LGR5/PSMD5/EP300/PSMA1/WNT5A/TRRAP/PPP2R5B/PPP2R1B/PSMC1/HIST1H2AE/HIST1H3A/BCL9L/PSMC6/CSNK1A1/PSMD6/FZD1/PPP2R5D/HIST1H2BG/XIAP/HIST1H3G/SMURF2/SFRP2/DVL2/RNF43/PSMD3/BTRC/HIST1H3E/SOX13/TCF7/KMT2D/HIST1H4J/DACT1/HIST1H4E/HIST1H2AC/CAV1/HIST1H2AB/HIST1H2BK/PSMD2/RSPO1/BCL9/PSMA5/KLHL12/SOX6/PPP2R5E/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/HIST4H4/HIST1H2BJ/HIST1H2BC/RSPO2/TERT/RUNX3/HIST3H2BB/SOX2/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/PIP5K1B/PYGO2/RBBP5/FRAT2/KREMEN1/FRAT1/LEO1/CTBP1/PSMA2</t>
+  </si>
+  <si>
+    <t>HMGB1/DUSP4/PPP2R1A/JUN/UBA52/APP/PPP2CB/UBB/UBE2N/MAP2K3/DUSP6/CREB1/NFKBIA/NFKBIB/ATF1/MAPK10/TNIP2/MAPK7/DHX9/MEF2C/MAP2K1/MAP2K7/MAP3K1/MAP2K6/DUSP3/ECSIT/MAPK8/FBXW11/IKBKG/MAP3K7/MAP2K4/UBC/RELA/ATF2/NKIRAS2/NFKB1/PPP2CA/MAPKAPK3/TAB1/VRK3/IRAK4/AGER/IKBKB/TAB3/MAPK14/FOS/SKP1/MAPK1/PELI2/TAB2/RIPK2/NKIRAS1/MYD88/NOD1/PPP2R1B/MAPK3/MAP3K8/MAPKAPK2/CUL1/PPP2R5D/MEF2A/CHUK/IRAK1/BTRC/MAPK9/ELK1/PELI3/MAPK11/UBE2V1/TRAF6/NFKB2/DUSP7/IRAK2/PELI1</t>
+  </si>
+  <si>
+    <t>ANAPC11/UBE2C/CCNB1/CDC20/CDK1/UBA52/ANAPC16/UBB/ANAPC7/CDC16/ANAPC1/CDC23/CDC26/UBE2D1/UBC/CDC27/ANAPC10/ANAPC2/UBE2E1/ANAPC15/ANAPC5/ANAPC4</t>
+  </si>
+  <si>
+    <t>TGIF1/UBA52/PARP1/UBE2D3/UBB/USP9X/NCOR2/NCOR1/SKIL/NEDD4L/UBE2D1/SMAD4/UBC/SMAD3/TRIM33/HDAC1/PPM1A/TGIF2/SKI/SMURF2/RNF111/SMAD2</t>
+  </si>
+  <si>
+    <t>CCT8/TCP1/CCT3/CCT5/MKKS/CCT4/BBS4/BBIP1/RAB3IP/ARL6/SMO/CCT2/BBS12/BBS7/LZTFL1/BBS5/BBS9/TTC8/MCHR1/BBS10/BBS2/BBS1</t>
+  </si>
+  <si>
+    <t>HIBADH/BCAT1/DLD/HSD17B10/SHMT1/BCAT2/ACADSB/ACAT1/TMLHE/MCCC1/PPM1K/ALDH9A1/BCKDHB/HIBCH/ACAD8/AUH/ALDH6A1/DBT/IVD/BCKDK/BCKDHA/MCCC2</t>
+  </si>
+  <si>
+    <t>PMPCB/SMDT1/PHB2/MCUB/VDAC3/VDAC2/VDAC1/SPG7/AKAP1/LETM1/PARL/PHB/AFG3L2/MAIP1/MCU/SLC8B1/YME1L1/PMPCA/MICU1/STOML2/MICU2/MICU3</t>
+  </si>
+  <si>
+    <t>TDGF1/POLR2L/SALL1/POLR2J/LIN28A/POLR2K/SALL4/POLR2F/POU5F1/NR6A1/POLR2A/HIF3A/POLR2I/SMAD4/STAT3/POLR2E/POLR2C/ZIC3/EPHA1/FOXP1/POLR2G/EPAS1/POLR2D/PBX1/POLR2B/FGF2/KLF4/NANOG/DPPA4/POLR2H/ZSCAN10/SOX2/SMAD2</t>
+  </si>
+  <si>
+    <t>GNG11/CCT8/GNG5/GNB1/TCP1/CCT3/CSNK2B/CCT5/GNB2/GNAI1/GNB5/GNG12/CCT4/CSNK2A2/GNB3/GNB4/CCT7/CSNK2A1/RGS9/GNAI2/CCT2/GNAZ/GNG7/RGS6/CCT6A/GNGT1/GNAI3/GNG3/GNG10/GNG4/GNG2/GNG8/GNAO1/PDCL/RGS11/CCT6B/RGS7/GNG13</t>
+  </si>
+  <si>
+    <t>AATF/RAC1/MAGED1/AKAP13/ECT2/NET1/ARHGEF2/ARHGEF26/ARHGEF16/ARHGEF1/ARHGEF40/MAPK8/BAD/VAV3/ARHGEF39/ARHGEF4/FGD4/TRIO/FGD1/ARHGEF7/PLEKHG2/BCL2L11/KALRN/NGF/ARHGEF33/ARHGEF9/ARHGEF19/ITSN1/PREX1/FGD3/SOS2/TIAM2/OBSCN/TIAM1/ABR/SOS1/ARHGEF6/MCF2L/PLEKHG5/GNA13/VAV2/ARHGEF12/ARHGEF5/ARHGEF35/ARHGEF37/ARHGEF11/ARHGEF3/ARHGEF10/ARHGEF17/ARHGEF15/NGEF/ARHGEF10L</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/VCP/PSMD4/UBB/PSMD7/PSME1/PSMC5/IHH/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/DERL2/PSMA6/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/ERLEC1/PSMD1/OS9/PSMD8/PSMB7/SEL1L/PSMD5/PSMA1/SYVN1/PSMC1/PSMC6/PSMD6/HHAT/PSMD3/PSMD2/PSMA5/SHH/PSMA2</t>
+  </si>
+  <si>
+    <t>HMGB1/DUSP4/PPP2R1A/JUN/UBA52/APP/PPP2CB/UBB/UBE2N/MAP2K3/DUSP6/CREB1/NFKBIA/NFKBIB/SIGIRR/ATF1/MAPK10/TNIP2/MAPK7/DHX9/MEF2C/MAP2K1/MAP2K7/MAP3K1/MAP2K6/DUSP3/TLR4/ECSIT/MAPK8/FBXW11/IKBKG/MAP3K7/MAP2K4/UBC/RELA/ATF2/NKIRAS2/NFKB1/PPP2CA/MAPKAPK3/TAB1/VRK3/IRAK4/AGER/IKBKB/TAB3/MAPK14/FOS/SKP1/MAPK1/PELI2/TAB2/RIPK2/NKIRAS1/MYD88/BTK/NOD1/PPP2R1B/TIRAP/MAPK3/MAP3K8/MAPKAPK2/CUL1/PPP2R5D/MEF2A/CHUK/IRAK1/BTRC/MAPK9/ELK1/PELI3/MAPK11/SOCS1/TLR6/CD36/UBE2V1/TRAF6/NFKB2/IRAK3/DUSP7/IRAK2/PELI1</t>
+  </si>
+  <si>
+    <t>H2AFZ/HIST1H4C/SMC4/H2AFV/CCNB1/H2AFX/CDK1/PLK1/PPP2R1A/CCNB2/LMNB1/VRK1/TMPO/PPP2CB/NCAPH2/EMD/ARPP19/H2AFJ/BANF1/ENSA/LPIN2/NUP62/SMC2/USO1/NCAPD3/GOLGA2/RAB2A/NEK6/SET/NCAPG2/H3F3A/NUP93/LMNA/RANBP2/NUP88/NUP37/NUP43/PPP2R2D/NUP50/MASTL/RB1/NUP35/RAE1/NUP107/BLZF1/NEK9/LPIN1/NUP153/TPR/NUP98/HIST2H2AC/PPP2CA/HIST1H3B/GORASP2/HIST1H2BD/HIST1H2BH/VRK2/NUP54/NDC1/LEMD3/RAB1A/HIST2H2BE/POM121/SEH1L/HIST1H2BN/H3F3B/NUP214/CTDNEP1/NUP160/GORASP1/NUPL2/MAPK1/RAB1B/NUP58/PPP2R1B/HIST1H2AE/HIST1H3A/MCPH1/NUP188/MAPK3/CNEP1R1/HIST1H2BG/HIST1H3G/NUP205/NUMA1/NUP133/PHF8/LPIN3/HIST1H3E/PRKCA/NUP85/HIST1H4J/HIST1H4E/HIST1H2AC/HIST1H2AB/HIST1H2BK/NUP155/HIST1H2BL/HIST1H2BE/HIST1H3F/HIST1H2BF/HIST1H3I/HIST1H3H/HIST4H4/PRKCB/HIST1H2BJ/HIST1H2BC/NEK7/HIST3H2BB/HIST1H4A/HIST1H4D/HIST1H4H/HIST1H4I/HIST1H2AJ/KMT5A/LEMD2/AAAS/NUP210</t>
+  </si>
+  <si>
+    <t>YWHAH/YWHAQ/YWHAB/PPP3CC/AKT2/YWHAZ/AKT1/BAD/BID/AKT3/PPP3R1/YWHAE/BCL2/SFN/YWHAG</t>
+  </si>
+  <si>
+    <t>LSM4/LSM3/LSM2/DCP1A/DDX6/LSM6/LSM1/LSM7/DCP2/EDC3/XRN1/LSM5/PATL1/DCP1B/EDC4</t>
+  </si>
+  <si>
+    <t>CCNB1/CDK1/LMNB1/TMPO/EMD/LPIN2/LMNA/LPIN1/LEMD3/CTDNEP1/CNEP1R1/LPIN3/PRKCA/PRKCB/LEMD2</t>
+  </si>
+  <si>
+    <t>PPP2R1A/PPP2CB/PPP2R5C/GSK3B/AXIN1/PPP2CA/PPP2R5A/AMER1/CTNNB1/APC/PPP2R5B/PPP2R1B/CSNK1A1/PPP2R5D/PPP2R5E</t>
+  </si>
+  <si>
+    <t>CLTB/AP2S1/CLTA/AP2M1/AP2A1/FZD4/ARRB2/CLTC/AP2A2/WNT5A/AP2B1/DVL2/PRKCA/PRKCG/PRKCB</t>
+  </si>
+  <si>
+    <t>PGM1/DPM3/GALT/SRD5A3/GALK1/GALE/DOLK/MPI/GNE/DPM1/DPM2/NEU1/PMM2/DHDDS/GFPT1</t>
+  </si>
+  <si>
+    <t>HSP90AA1/CDC37/SHC1/HRAS/PIK3R1/GRB2/KRAS/NRAS/PLCG1/CBL/SOS1/EGF/GAB1/PIK3CA/EGFR</t>
+  </si>
+  <si>
+    <t>FEN1/RPA3/PCNA/RPA2/LIG1/RPA1/POLA2/POLD2/POLD3/POLA1/POLD1/POLD4/PRIM2/DNA2/PRIM1</t>
+  </si>
+  <si>
+    <t>IMPDH2/ATIC/PAICS/ADSL/GART/IMPDH1/PFAS/UMPS/ADSS/PPAT/CAD/ADSSL1/DHODH/LHPP/GMPS</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/PSMD11/PAK2/PSMF1/PSMB4/PSMC2/OMA1/PSME4/PSMB1/PSMA6/OPA1/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/ARHGAP10/PSMD8/PSMB7/PSMD5/PSMA1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>PSMC3/PSMC4/PSMA4/PSME2/PSMA7/UBA52/PSMB2/PSMB3/PSMD14/PSMD4/UBB/PSMD7/PSME1/PSMC5/PSMD13/PSME3/PSMB6/PSMD12/CHEK2/PSMD11/PSMF1/PSMB4/PSMC2/PSME4/PSMB1/PSMA6/CDC25A/PSMB10/PSMB5/PSMD9/UBC/PSMD10/PSMA3/PSMD1/ATM/PSMD8/PSMB7/PSMD5/PSMA1/CHEK1/PSMC1/PSMC6/PSMD6/PSMD3/PSMD2/PSMA5/PSMA2</t>
+  </si>
+  <si>
+    <t>GNG11/CALM1/CALM2/GNG5/PPP2R1A/GNB1/GNAS/ATP2B1/SRI/PPP2CB/GNB2/GNB5/GNG12/PPP2R5C/CALM3/GUCY1A3/GNB3/APOB/GNB4/PDE3A/P2RX4/ATP2A2/NOS3/PDE9A/PPP2CA/PPP2R5A/ORAI1/GUCY1B3/PECAM1/LRP8/ATP2B4/ITPR1/MAPK14/GNG7/PTPN11/PDE1B/GUCY1A2/ITPR3/GNGT1/GNG3/PDE11A/PPP2R5B/PPP2R1B/PRKG1/P2RX2/GNG10/SLC8A1/PPP2R5D/ATP2A1/KCNMB3/GNG4/ITPR2/STIM1/GNG2/PDE3B/PAFAH2/PDE10A/GNG8/KCNMB4/PDE2A/P2RX6/PTGIR/MRVI1/PPP2R5E/KCNMA1/NOS2/KCNMB1/SLC8A2/PDE1A/PRKG2/TRPC6/P2RX7/GNG13/PDE5A/ATP2A3/PTPN6/ORAI2</t>
+  </si>
+  <si>
+    <t>UBA52/PPIA/CHMP4B/UBB/CHMP2A/PDCD6IP/CHMP5/CHMP7/VPS37A/UBAP1/NEDD4L/MVB12B/VTA1/CHMP4C/UBC/CHMP2B/CHMP3/TSG101/CHMP4A/VPS37D/VPS37C/VPS28/MVB12A/CHMP6/VPS37B/VPS4A/VPS4B</t>
+  </si>
+  <si>
+    <t>SCP2/NUDT7/HSD17B4/SLC25A17/ACAA1/DECR2/CRAT/PHYH/ECI2/ACOX3/ACBD5/ALDH3A2/HACL1/NUDT19/PECR/EHHADH/SLC27A2/ACOX1/ACOX2/ABCD1/AMACR/ACOT4/CROT/ACBD4/MLYCD/ACOXL/ACOT8</t>
+  </si>
+  <si>
+    <t>CALM1/CALM2/GNAI1/PRKAR1A/CREB1/CALM3/AHCYL1/PRKCD/PRKAR2A/ADCY3/GNAI2/GNAL/GNAZ/ITPR1/ADCY7/PDE1B/ITPR3/ADCY1/MAPK1/GNAI3/ADCY6/ITPR2/PRKAR2B/PLCB2/PRKAR1B/PLCB4/PRKCA/PRKACB/GNAO1/PLCB1/ADCY2/PRKACA/PDE1C/PRKCG/CAMK4/PDE1A/ADCY5/ADCY8/ADCY4/ADCY9/GRK2/PLCB3</t>
+  </si>
+  <si>
+    <t>EIF4EBP1/EIF4B/RHEB/EIF4E/YWHAB/MLST8/STRADB/LAMTOR1/PRKAB2/PRKAG1/RRAGA/AKT2/AKT1S1/LAMTOR2/EIF4G1/CAB39L/AKT1/PRKAA1/MTOR/STK11/PRKAA2/LAMTOR5/TSC2/RRAGC/TSC1/PRKAG2/LAMTOR3/PPM1A/RPTOR/STRADA/RRAGD/SLC38A9/CAB39/PRKAB1/EEF2K/RRAGB/LAMTOR4</t>
+  </si>
+  <si>
+    <t>UBA52/UBB/JAG1/MDK/NOTCH2/NCSTN/UBC/JAG2/PSEN2/DLL1/NEURL1B/ADAM10/PSENEN/MIB1/MIB2/APH1B/APH1A/PSEN1/DLL4/NEURL1/CNTN1</t>
+  </si>
+  <si>
+    <t>MMADHC/MMAB/TCN2/PCCA/CD320/MCCC1/BTD/LMBRD1/ABCD4/AMN/MMAA/MUT/HLCS/MTR/CUBN/MMACHC/MTRR/PC/MCCC2/ACACA/PCCB</t>
   </si>
 </sst>
 </file>

--- a/vignettes/PathwayEnrichment.xlsx
+++ b/vignettes/PathwayEnrichment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -44,253 +44,487 @@
     <t>R-HSA-390522</t>
   </si>
   <si>
+    <t>R-HSA-445355</t>
+  </si>
+  <si>
     <t>R-HSA-397014</t>
   </si>
   <si>
+    <t>R-HSA-3000178</t>
+  </si>
+  <si>
     <t>R-HSA-1474244</t>
   </si>
   <si>
-    <t>R-HSA-445355</t>
-  </si>
-  <si>
-    <t>R-HSA-3000178</t>
+    <t>R-HSA-1442490</t>
+  </si>
+  <si>
+    <t>R-HSA-8948216</t>
+  </si>
+  <si>
+    <t>R-HSA-2022090</t>
+  </si>
+  <si>
+    <t>R-HSA-446728</t>
+  </si>
+  <si>
+    <t>R-HSA-2129379</t>
+  </si>
+  <si>
+    <t>R-HSA-446353</t>
+  </si>
+  <si>
+    <t>R-HSA-1236977</t>
+  </si>
+  <si>
+    <t>R-HSA-1474228</t>
+  </si>
+  <si>
+    <t>R-HSA-9006934</t>
+  </si>
+  <si>
+    <t>R-HSA-381426</t>
+  </si>
+  <si>
+    <t>R-HSA-5626467</t>
+  </si>
+  <si>
+    <t>R-HSA-1566948</t>
+  </si>
+  <si>
+    <t>R-HSA-2500257</t>
+  </si>
+  <si>
+    <t>R-HSA-2682334</t>
+  </si>
+  <si>
+    <t>R-HSA-418990</t>
+  </si>
+  <si>
+    <t>R-HSA-114608</t>
+  </si>
+  <si>
+    <t>R-HSA-2173795</t>
+  </si>
+  <si>
+    <t>R-HSA-421270</t>
+  </si>
+  <si>
+    <t>R-HSA-76005</t>
+  </si>
+  <si>
+    <t>R-HSA-5627123</t>
+  </si>
+  <si>
+    <t>R-HSA-1650814</t>
+  </si>
+  <si>
+    <t>R-HSA-5663220</t>
+  </si>
+  <si>
+    <t>R-HSA-216083</t>
+  </si>
+  <si>
+    <t>R-HSA-195258</t>
+  </si>
+  <si>
+    <t>R-HSA-8957275</t>
   </si>
   <si>
     <t>R-HSA-1474290</t>
   </si>
   <si>
-    <t>R-HSA-2682334</t>
-  </si>
-  <si>
-    <t>R-HSA-1650814</t>
-  </si>
-  <si>
-    <t>R-HSA-72172</t>
-  </si>
-  <si>
-    <t>R-HSA-190873</t>
-  </si>
-  <si>
-    <t>R-HSA-1566948</t>
-  </si>
-  <si>
-    <t>R-HSA-72163</t>
-  </si>
-  <si>
-    <t>R-HSA-114608</t>
-  </si>
-  <si>
-    <t>R-HSA-76005</t>
-  </si>
-  <si>
-    <t>R-HSA-3928665</t>
-  </si>
-  <si>
-    <t>R-HSA-2129379</t>
-  </si>
-  <si>
-    <t>R-HSA-373760</t>
-  </si>
-  <si>
-    <t>R-HSA-72203</t>
+    <t>R-HSA-3928662</t>
+  </si>
+  <si>
+    <t>R-HSA-1500931</t>
+  </si>
+  <si>
+    <t>R-HSA-3000171</t>
+  </si>
+  <si>
+    <t>R-HSA-3000157</t>
+  </si>
+  <si>
+    <t>R-HSA-8874081</t>
+  </si>
+  <si>
+    <t>R-HSA-6798695</t>
+  </si>
+  <si>
+    <t>R-HSA-68877</t>
+  </si>
+  <si>
+    <t>R-HSA-389958</t>
   </si>
   <si>
     <t>Striated Muscle Contraction</t>
   </si>
   <si>
+    <t>Smooth Muscle Contraction</t>
+  </si>
+  <si>
     <t>Muscle contraction</t>
   </si>
   <si>
+    <t>ECM proteoglycans</t>
+  </si>
+  <si>
     <t>Extracellular matrix organization</t>
   </si>
   <si>
-    <t>Smooth Muscle Contraction</t>
-  </si>
-  <si>
-    <t>ECM proteoglycans</t>
+    <t>Collagen degradation</t>
+  </si>
+  <si>
+    <t>Collagen chain trimerization</t>
+  </si>
+  <si>
+    <t>Assembly of collagen fibrils and other multimeric structures</t>
+  </si>
+  <si>
+    <t>Cell junction organization</t>
+  </si>
+  <si>
+    <t>Molecules associated with elastic fibres</t>
+  </si>
+  <si>
+    <t>Cell-extracellular matrix interactions</t>
+  </si>
+  <si>
+    <t>Endosomal/Vacuolar pathway</t>
+  </si>
+  <si>
+    <t>Degradation of the extracellular matrix</t>
+  </si>
+  <si>
+    <t>Signaling by Receptor Tyrosine Kinases</t>
+  </si>
+  <si>
+    <t>Regulation of Insulin-like Growth Factor (IGF) transport and uptake by Insulin-like Growth Factor Binding Proteins (IGFBPs)</t>
+  </si>
+  <si>
+    <t>RHO GTPases activate IQGAPs</t>
+  </si>
+  <si>
+    <t>Elastic fibre formation</t>
+  </si>
+  <si>
+    <t>Resolution of Sister Chromatid Cohesion</t>
+  </si>
+  <si>
+    <t>EPH-Ephrin signaling</t>
+  </si>
+  <si>
+    <t>Adherens junctions interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet degranulation </t>
+  </si>
+  <si>
+    <t>Downregulation of SMAD2/3:SMAD4 transcriptional activity</t>
+  </si>
+  <si>
+    <t>Cell-cell junction organization</t>
+  </si>
+  <si>
+    <t>Response to elevated platelet cytosolic Ca2+</t>
+  </si>
+  <si>
+    <t>RHO GTPases activate PAKs</t>
+  </si>
+  <si>
+    <t>Collagen biosynthesis and modifying enzymes</t>
+  </si>
+  <si>
+    <t>RHO GTPases Activate Formins</t>
+  </si>
+  <si>
+    <t>Integrin cell surface interactions</t>
+  </si>
+  <si>
+    <t>RHO GTPase Effectors</t>
+  </si>
+  <si>
+    <t>Post-translational protein phosphorylation</t>
   </si>
   <si>
     <t>Collagen formation</t>
   </si>
   <si>
-    <t>EPH-Ephrin signaling</t>
-  </si>
-  <si>
-    <t>Collagen biosynthesis and modifying enzymes</t>
-  </si>
-  <si>
-    <t>mRNA Splicing</t>
-  </si>
-  <si>
-    <t>Gap junction degradation</t>
-  </si>
-  <si>
-    <t>Elastic fibre formation</t>
-  </si>
-  <si>
-    <t>mRNA Splicing - Major Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet degranulation </t>
-  </si>
-  <si>
-    <t>Response to elevated platelet cytosolic Ca2+</t>
-  </si>
-  <si>
-    <t>EPH-ephrin mediated repulsion of cells</t>
-  </si>
-  <si>
-    <t>Molecules associated with elastic fibres</t>
-  </si>
-  <si>
-    <t>L1CAM interactions</t>
-  </si>
-  <si>
-    <t>Processing of Capped Intron-Containing Pre-mRNA</t>
-  </si>
-  <si>
-    <t>12/313</t>
-  </si>
-  <si>
-    <t>21/313</t>
-  </si>
-  <si>
-    <t>26/313</t>
-  </si>
-  <si>
-    <t>8/313</t>
-  </si>
-  <si>
-    <t>10/313</t>
-  </si>
-  <si>
-    <t>11/313</t>
-  </si>
-  <si>
-    <t>9/313</t>
-  </si>
-  <si>
-    <t>16/313</t>
-  </si>
-  <si>
-    <t>4/313</t>
-  </si>
-  <si>
-    <t>7/313</t>
-  </si>
-  <si>
-    <t>15/313</t>
-  </si>
-  <si>
-    <t>6/313</t>
-  </si>
-  <si>
-    <t>17/313</t>
-  </si>
-  <si>
-    <t>36/10513</t>
-  </si>
-  <si>
-    <t>206/10513</t>
-  </si>
-  <si>
-    <t>300/10513</t>
-  </si>
-  <si>
-    <t>37/10513</t>
-  </si>
-  <si>
-    <t>74/10513</t>
-  </si>
-  <si>
-    <t>90/10513</t>
-  </si>
-  <si>
-    <t>92/10513</t>
-  </si>
-  <si>
-    <t>67/10513</t>
-  </si>
-  <si>
-    <t>191/10513</t>
-  </si>
-  <si>
-    <t>12/10513</t>
-  </si>
-  <si>
-    <t>45/10513</t>
-  </si>
-  <si>
-    <t>183/10513</t>
-  </si>
-  <si>
-    <t>129/10513</t>
-  </si>
-  <si>
-    <t>134/10513</t>
-  </si>
-  <si>
-    <t>51/10513</t>
-  </si>
-  <si>
-    <t>38/10513</t>
-  </si>
-  <si>
-    <t>120/10513</t>
-  </si>
-  <si>
-    <t>243/10513</t>
-  </si>
-  <si>
-    <t>VIM/TPM1/TPM2/MYL4/TNNI1/ACTC1/MYH6/TMOD1/TNNT2/TPM4/TTN/ACTN2</t>
-  </si>
-  <si>
-    <t>VIM/TPM1/MYL9/TPM2/MYL4/TNNI1/MYL7/ACTC1/MYL6/MYH6/TMOD1/ATP1A1/TNNT2/NKX2-5/ATP2B1/TPM4/SRI/MYL6B/TTN/CALD1/ACTN2</t>
-  </si>
-  <si>
-    <t>TTR/COL6A1/COL1A1/CTSV/COL18A1/P3H2/COL1A2/TGFB2/LAMA1/COL6A2/VCAN/LTBP4/APP/PPIB/ADAMTS18/HAPLN1/FN1/SERPINH1/CTSB/HTRA1/PLOD2/MFAP4/MMP15/FBLN2/FBLN1/ITGA5</t>
-  </si>
-  <si>
-    <t>TPM1/MYL9/TPM2/MYL7/MYL6/TPM4/MYL6B/CALD1</t>
-  </si>
-  <si>
-    <t>COL6A1/COL1A1/COL1A2/TGFB2/LAMA1/COL6A2/VCAN/APP/HAPLN1/FN1</t>
-  </si>
-  <si>
-    <t>COL6A1/COL1A1/CTSV/COL18A1/P3H2/COL1A2/COL6A2/PPIB/SERPINH1/CTSB/PLOD2</t>
-  </si>
-  <si>
-    <t>MYL9/MYL6/AP2A1/ACTG1/ACTB/ACTR3/CLTB/PSENEN/MYH9/EFNA4/EPHB6</t>
-  </si>
-  <si>
-    <t>COL6A1/COL1A1/COL18A1/P3H2/COL1A2/COL6A2/PPIB/SERPINH1/PLOD2</t>
-  </si>
-  <si>
-    <t>SNRNP200/PRPF8/SYMPK/DDX5/FUS/SF3B2/SRSF10/PCBP2/LSM5/CDC5L/LSM3/HNRNPD/HNRNPUL1/NUDT21/ZMAT5/SRSF1</t>
-  </si>
-  <si>
-    <t>ACTG1/ACTB/CLTB/MYO6</t>
-  </si>
-  <si>
-    <t>TGFB2/LTBP4/FN1/MFAP4/FBLN2/FBLN1/ITGA5</t>
-  </si>
-  <si>
-    <t>SNRNP200/PRPF8/SYMPK/DDX5/FUS/SF3B2/SRSF10/PCBP2/LSM5/CDC5L/LSM3/HNRNPD/HNRNPUL1/NUDT21/SRSF1</t>
-  </si>
-  <si>
-    <t>APOA1/TGFB2/APLP2/LHFPL2/APP/ACTN4/FN1/IGF2/TTN/ACTN2/MAGED2/SOD1</t>
-  </si>
-  <si>
-    <t>AP2A1/ACTG1/ACTB/CLTB/PSENEN/EFNA4/EPHB6</t>
-  </si>
-  <si>
-    <t>TGFB2/LTBP4/FN1/MFAP4/FBLN2/FBLN1</t>
-  </si>
-  <si>
-    <t>NRP2/LAMA1/AP2A1/SPTBN1/MAP2K2/ACTG1/ACTB/NUMB/SPTAN1/CSNK2A2/ITGA5</t>
-  </si>
-  <si>
-    <t>SNRNP200/PRPF8/SYMPK/DDX5/FUS/SF3B2/SRSF10/PCBP2/LSM5/CDC5L/LSM3/HNRNPD/NUP93/HNRNPUL1/NUDT21/ZMAT5/SRSF1</t>
+    <t>EPHB-mediated forward signaling</t>
+  </si>
+  <si>
+    <t>Cell-Cell communication</t>
+  </si>
+  <si>
+    <t>Non-integrin membrane-ECM interactions</t>
+  </si>
+  <si>
+    <t>Laminin interactions</t>
+  </si>
+  <si>
+    <t>MET activates PTK2 signaling</t>
+  </si>
+  <si>
+    <t>Neutrophil degranulation</t>
+  </si>
+  <si>
+    <t>Mitotic Prometaphase</t>
+  </si>
+  <si>
+    <t>Cooperation of Prefoldin and TriC/CCT  in actin and tubulin folding</t>
+  </si>
+  <si>
+    <t>13/307</t>
+  </si>
+  <si>
+    <t>12/307</t>
+  </si>
+  <si>
+    <t>23/307</t>
+  </si>
+  <si>
+    <t>26/307</t>
+  </si>
+  <si>
+    <t>11/307</t>
+  </si>
+  <si>
+    <t>8/307</t>
+  </si>
+  <si>
+    <t>9/307</t>
+  </si>
+  <si>
+    <t>7/307</t>
+  </si>
+  <si>
+    <t>5/307</t>
+  </si>
+  <si>
+    <t>4/307</t>
+  </si>
+  <si>
+    <t>27/307</t>
+  </si>
+  <si>
+    <t>6/307</t>
+  </si>
+  <si>
+    <t>10/307</t>
+  </si>
+  <si>
+    <t>20/307</t>
+  </si>
+  <si>
+    <t>14/307</t>
+  </si>
+  <si>
+    <t>36/10561</t>
+  </si>
+  <si>
+    <t>37/10561</t>
+  </si>
+  <si>
+    <t>206/10561</t>
+  </si>
+  <si>
+    <t>75/10561</t>
+  </si>
+  <si>
+    <t>300/10561</t>
+  </si>
+  <si>
+    <t>64/10561</t>
+  </si>
+  <si>
+    <t>44/10561</t>
+  </si>
+  <si>
+    <t>61/10561</t>
+  </si>
+  <si>
+    <t>91/10561</t>
+  </si>
+  <si>
+    <t>38/10561</t>
+  </si>
+  <si>
+    <t>18/10561</t>
+  </si>
+  <si>
+    <t>11/10561</t>
+  </si>
+  <si>
+    <t>139/10561</t>
+  </si>
+  <si>
+    <t>448/10561</t>
+  </si>
+  <si>
+    <t>125/10561</t>
+  </si>
+  <si>
+    <t>32/10561</t>
+  </si>
+  <si>
+    <t>45/10561</t>
+  </si>
+  <si>
+    <t>126/10561</t>
+  </si>
+  <si>
+    <t>92/10561</t>
+  </si>
+  <si>
+    <t>33/10561</t>
+  </si>
+  <si>
+    <t>129/10561</t>
+  </si>
+  <si>
+    <t>23/10561</t>
+  </si>
+  <si>
+    <t>134/10561</t>
+  </si>
+  <si>
+    <t>24/10561</t>
+  </si>
+  <si>
+    <t>67/10561</t>
+  </si>
+  <si>
+    <t>140/10561</t>
+  </si>
+  <si>
+    <t>85/10561</t>
+  </si>
+  <si>
+    <t>318/10561</t>
+  </si>
+  <si>
+    <t>108/10561</t>
+  </si>
+  <si>
+    <t>90/10561</t>
+  </si>
+  <si>
+    <t>42/10561</t>
+  </si>
+  <si>
+    <t>59/10561</t>
+  </si>
+  <si>
+    <t>30/10561</t>
+  </si>
+  <si>
+    <t>479/10561</t>
+  </si>
+  <si>
+    <t>199/10561</t>
+  </si>
+  <si>
+    <t>TNNI1/VIM/MYL4/TPM1/TPM4/MYH6/TNNT2/TMOD1/TPM3/TPM2/ACTC1/TNNC1/TTN</t>
+  </si>
+  <si>
+    <t>TPM1/MYL6/TPM4/MYL7/MYL9/CALM1/ACTA2/TPM3/TPM2/VCL/MYL12A/ANXA6</t>
+  </si>
+  <si>
+    <t>TNNI1/VIM/MYL4/TPM1/MYL6/TPM4/MYL7/MYL9/MYH6/CALM1/GATA4/TNNT2/ACTA2/TMOD1/ATP2B1/TPM3/TPM2/VCL/ACTC1/MYL12A/TNNC1/ANXA6/TTN</t>
+  </si>
+  <si>
+    <t>HAPLN1/COL1A1/VCAN/COL6A1/COL5A1/SPARC/COL1A2/COL6A2/TGFB2/COL9A3/LAMB2/COL4A6/ITGB1</t>
+  </si>
+  <si>
+    <t>TTR/HAPLN1/COL1A1/BMP4/VCAN/COL6A1/TIMP1/MFAP4/COL5A1/NID2/SPARC/COL1A2/COL6A2/EFEMP2/CTSV/MMP15/TGFB2/COL9A3/LAMB2/LTBP4/COL4A6/ITGB1/ADAM10/COL18A1/MMP14/FBLN2</t>
+  </si>
+  <si>
+    <t>COL1A1/COL6A1/COL5A1/COL1A2/COL6A2/MMP15/COL9A3/COL4A6/ADAM10/COL18A1/MMP14</t>
+  </si>
+  <si>
+    <t>COL1A1/COL6A1/COL5A1/COL1A2/COL6A2/COL9A3/COL4A6/COL18A1</t>
+  </si>
+  <si>
+    <t>COL1A1/COL6A1/COL5A1/COL1A2/COL6A2/CTSV/COL9A3/COL4A6/COL18A1</t>
+  </si>
+  <si>
+    <t>ACTB/FLNC/CLDN3/CLDN7/ACTG1/NECTIN2/CDH3/FLNA/CADM1/ITGB1/CDH13</t>
+  </si>
+  <si>
+    <t>BMP4/MFAP4/EFEMP2/TGFB2/LTBP4/ITGB1/FBLN2</t>
+  </si>
+  <si>
+    <t>ACTB/FLNC/ACTG1/FLNA/ITGB1</t>
+  </si>
+  <si>
+    <t>HLA-B/HLA-C/CTSV/B2M</t>
+  </si>
+  <si>
+    <t>COL1A1/COL6A1/TIMP1/COL5A1/COL1A2/COL6A2/CTSV/MMP15/COL9A3/COL4A6/ADAM10/COL18A1/MMP14</t>
+  </si>
+  <si>
+    <t>COL1A1/NRP2/DUSP6/RBFOX2/ACTB/COL6A1/HSPB1/COL5A1/DUSP4/COL1A2/CALM1/COL6A2/MEF2C/ACTG1/IGF2/NCOR1/PDGFRA/NTRK2/COL9A3/HNRNPF/LAMB2/CYBA/HNRNPM/ITGB1/UBC/ADAM10/FLRT3</t>
+  </si>
+  <si>
+    <t>IGFBP6/BMP4/VCAN/TIMP1/MXRA8/MFGE8/IGFBP7/IGF2/CST3/FSTL1/LAMB2/ADAM10</t>
+  </si>
+  <si>
+    <t>ACTB/CALM1/ACTG1/TUBA1B/TUBA1A/TUBB2A</t>
+  </si>
+  <si>
+    <t>BIRC5/TUBA1B/NUDC/CDC20/CDK1/SMC3/TUBA1A/RAD21/ZWINT/TUBB2A/AURKB/CENPH</t>
+  </si>
+  <si>
+    <t>MYL6/ACTB/MYL9/EFNB3/ACTG1/MYL12A/EPHB2/ARPC1B/ITSN1/ADAM10</t>
+  </si>
+  <si>
+    <t>ACTB/ACTG1/NECTIN2/CDH3/CADM1/CDH13</t>
+  </si>
+  <si>
+    <t>PCDH7/TIMP1/SPARC/CALM1/TIMP3/CLU/IGF2/VCL/FLNA/TMSB4X/TGFB2/TTN</t>
+  </si>
+  <si>
+    <t>TGIF1/NCOR1/PARP1/TGIF2/UBC</t>
+  </si>
+  <si>
+    <t>ACTB/CLDN3/CLDN7/ACTG1/NECTIN2/CDH3/CADM1/CDH13</t>
+  </si>
+  <si>
+    <t>MYL6/MYL9/CALM1/FLNA/MYL12A</t>
+  </si>
+  <si>
+    <t>BIRC5/ACTB/ACTG1/TUBA1B/NUDC/CDC20/TUBA1A/ZWINT/ITGB1/TUBB2A/AURKB/CENPH</t>
+  </si>
+  <si>
+    <t>COL1A1/COL6A1/COL5A1/COL1A2/COL6A2/COL9A3/COL4A6/ITGB1/COL18A1</t>
+  </si>
+  <si>
+    <t>MYL6/BIRC5/ACTB/MYL9/CALM1/ACTG1/TUBA1B/FLNA/NUDC/CDC20/H2AFV/MYL12A/TUBA1A/ZWINT/CYBA/ARPC1B/ITGB1/TUBB2A/AURKB/CENPH</t>
+  </si>
+  <si>
+    <t>BMP4/VCAN/TIMP1/MXRA8/MFGE8/IGFBP7/CST3/FSTL1/LAMB2/ADAM10</t>
+  </si>
+  <si>
+    <t>ACTB/EFNB3/ACTG1/EPHB2/ARPC1B/ITSN1</t>
+  </si>
+  <si>
+    <t>TTR/COL1A1/COL5A1/COL1A2/LAMB2/COL4A6/ITGB1</t>
+  </si>
+  <si>
+    <t>NID2/LAMB2/COL4A6/ITGB1/COL18A1</t>
+  </si>
+  <si>
+    <t>COL1A1/COL5A1/COL1A2/LAMB2/ITGB1</t>
+  </si>
+  <si>
+    <t>TTR/CREG1/HLA-B/NPC2/HLA-C/SLC2A3/BST2/GGH/HMGB1/PRDX4/CNN2/CST3/VCL/EEF1A1/DYNLT1/COTL1/PKM/VAMP8/B2M/PYCARD/CYBA/MIF/ADAM10/TUBB/SNAP29/DSP</t>
+  </si>
+  <si>
+    <t>BIRC5/TUBA1B/SMC4/NUDC/CDC20/CDK1/SMC3/TUBA1A/RAD21/ZWINT/TUBB2A/AURKB/CENPH/TUBB</t>
+  </si>
+  <si>
+    <t>ACTB/TUBA1B/TUBA1A/PFDN5/TUBB2A</t>
   </si>
 </sst>
 </file>
@@ -379,28 +613,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>2.594591715604811E-10</v>
+        <v>1.0421996802484462E-11</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3558892777691684E-7</v>
+        <v>9.358953128631047E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1357586543189076E-7</v>
+        <v>8.414391102637456E-9</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="J2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -411,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>8.266546108970941E-7</v>
+        <v>2.8406863959037486E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.927897995351984E-4</v>
+        <v>1.275468191760783E-7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6543197685662554E-4</v>
+        <v>1.1467402450832502E-7</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,28 +677,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>9.67367179081052E-7</v>
+        <v>2.937857383733667E-8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.927897995351984E-4</v>
+        <v>8.793986435309443E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6543197685662554E-4</v>
+        <v>7.90644425727622E-6</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="J4" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -475,28 +709,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0259357835518987E-5</v>
+        <v>2.0587211764658734E-7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00232887422866281</v>
+        <v>4.6218290411658856E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0021112678493094336</v>
+        <v>4.155366164077171E-5</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -507,28 +741,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>6.28593714251421E-5</v>
+        <v>6.13721530760488E-7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.010569962381168523</v>
+        <v>1.1022438692458365E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009582321565121475</v>
+        <v>9.909987665121987E-5</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="J6" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +773,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>6.984556639538671E-5</v>
+        <v>1.9709066542709475E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.010569962381168523</v>
+        <v>2.949790292558851E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009582321565121475</v>
+        <v>2.652079655834766E-4</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="J7" t="n">
         <v>11.0</v>
@@ -571,28 +805,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
-        <v>8.559365892133966E-5</v>
+        <v>3.313048550081899E-5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.011102720328653773</v>
+        <v>0.004250167997105064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.010065299440073327</v>
+        <v>0.0038212153953576192</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -603,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5333221887027615E-4</v>
+        <v>6.048050357579727E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.017403206841776344</v>
+        <v>0.006229446429220671</v>
       </c>
       <c r="H9" t="n">
-        <v>0.015777078310073155</v>
+        <v>0.005600733104222548</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="J9" t="n">
         <v>9.0</v>
@@ -635,28 +869,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8422243943479487E-4</v>
+        <v>6.24332047472005E-5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01858599722297708</v>
+        <v>0.006229446429220671</v>
       </c>
       <c r="H10" t="n">
-        <v>0.016849350600936796</v>
+        <v>0.005600733104222548</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="J10" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -667,28 +901,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F11" t="n">
-        <v>3.157467215740641E-4</v>
+        <v>9.521555369315036E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.027453941845400797</v>
+        <v>0.008550356721644902</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02488868829481037</v>
+        <v>0.007687403124489088</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -699,28 +933,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F12" t="n">
-        <v>3.325918064971462E-4</v>
+        <v>1.260462161444566E-4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.027453941845400797</v>
+        <v>0.010289954736156548</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02488868829481037</v>
+        <v>0.00925143040983715</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="J12" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -731,28 +965,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6865168784016536E-4</v>
+        <v>1.9658563194318622E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.027894644379905846</v>
+        <v>0.013814064081211462</v>
       </c>
       <c r="H13" t="n">
-        <v>0.025288212271141166</v>
+        <v>0.012419865373683265</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -763,28 +997,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5593444787261656E-4</v>
+        <v>1.9998088313557795E-4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03184526758987198</v>
+        <v>0.013814064081211462</v>
       </c>
       <c r="H14" t="n">
-        <v>0.028869695403755967</v>
+        <v>0.012419865373683265</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -795,28 +1029,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F15" t="n">
-        <v>6.433988509942985E-4</v>
+        <v>2.6433865169744175E-4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04172901119305879</v>
+        <v>0.014725410180506595</v>
       </c>
       <c r="H15" t="n">
-        <v>0.037829917404326424</v>
+        <v>0.01323923292515363</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="J15" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -827,28 +1061,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F16" t="n">
-        <v>7.284957524241455E-4</v>
+        <v>2.7457381104534424E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04409827621340827</v>
+        <v>0.014725410180506595</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03997780199267942</v>
+        <v>0.01323923292515363</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="J16" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
@@ -859,25 +1093,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="F17" t="n">
-        <v>8.199350424834454E-4</v>
+        <v>2.749694483164992E-4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.046531313660935526</v>
+        <v>0.014725410180506595</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04218350021197726</v>
+        <v>0.01323923292515363</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="J17" t="n">
         <v>6.0</v>
@@ -891,28 +1125,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F18" t="n">
-        <v>8.837764008816342E-4</v>
+        <v>2.876515938875087E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.047204057176501404</v>
+        <v>0.014725410180506595</v>
       </c>
       <c r="H18" t="n">
-        <v>0.042793383621637024</v>
+        <v>0.01323923292515363</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J18" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
@@ -923,28 +1157,700 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.957381417805426E-4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.014725410180506595</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01323923292515363</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.255720422327087E-4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.014725410180506595</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01323923292515363</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.27960137650481E-4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.014725410180506595</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01323923292515363</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.677285296699377E-4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.015724772363981145</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.014137733446458259</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.392754522724244E-4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01793042527911987</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01612077855947127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.999743051220762E-4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01946145496658414</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.017497287491935336</v>
+      </c>
+      <c r="I24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.205753812418844E-4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01946145496658414</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.017497287491935336</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.417999712300707E-4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01946145496658414</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.017497287491935336</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.833352805656339E-4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02360134930568997</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.021219358712301267</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.714349310902057E-4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.025041071365911556</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.022513775334256438</v>
+      </c>
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.807906439259728E-4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.025041071365911556</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.022513775334256438</v>
+      </c>
+      <c r="I29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.859729188226552E-4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.030531161417336014</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.027449772367948336</v>
+      </c>
+      <c r="I30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0011625326597811713</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03418929069721146</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.030738701166054615</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.001180253910482801</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03418929069721146</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.030738701166054615</v>
+      </c>
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0012473654982823824</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03500419429554936</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03147135977574301</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001321853790756776</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.035970445578775295</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03234009114865861</v>
+      </c>
+      <c r="I34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001528768464043153</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03906412521938772</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.035121537971246494</v>
+      </c>
+      <c r="I35" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0015749358877259088</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03906412521938772</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.035121537971246494</v>
+      </c>
+      <c r="I36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9.542953744288989E-4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0481388999989689</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.043640876187333276</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17.0</v>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0015749358877259088</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03906412521938772</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.035121537971246494</v>
+      </c>
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001609546362046042</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03906412521938772</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.035121537971246494</v>
+      </c>
+      <c r="I38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.002006397654211915</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.04741434456532368</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04262900279170469</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0021224494747983033</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04887075970176606</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04393842772389471</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
